--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>ingest_session_id</t>
   </si>
@@ -57,7 +57,235 @@
     <t>05269d28-15ae-5bd6-bd88-f949ccfa52d7</t>
   </si>
   <si>
-    <t>7bab389e-54af-5a13-a39f-079abdc73a48</t>
+    <t>168a34c7-d043-5ec4-a84a-c961f1a301ef</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-valid-01.xlsx</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_valid_01_admin_demographic</t>
+  </si>
+  <si>
+    <t>1931dfcc-e8fc-597d-b1bc-65b4287e6fdf</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'Admin_Demographic' has not been implemented yet.</t>
+  </si>
+  <si>
+    <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_valid_01_screening</t>
+  </si>
+  <si>
+    <t>f90e1b86-1420-44d6-b5cc-30eaa9bf35b8</t>
+  </si>
+  <si>
+    <t>Missing Column</t>
+  </si>
+  <si>
+    <t>Required column PAT_MRN_ID is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_MRN_ID"</t>
+  </si>
+  <si>
+    <t>47cae7da-f34b-4f30-a4a7-40cddb1f6edf</t>
+  </si>
+  <si>
+    <t>Required column FACILITY is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
+  </si>
+  <si>
+    <t>ebee1f4a-ee7c-479c-8b07-89758cb1d73e</t>
+  </si>
+  <si>
+    <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
+  </si>
+  <si>
+    <t>87b75ddc-9bd3-4e0b-a329-8630956f260a</t>
+  </si>
+  <si>
+    <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
+  </si>
+  <si>
+    <t>71122c39-abfa-4f7a-a052-7b12dbc85209</t>
+  </si>
+  <si>
+    <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
+  </si>
+  <si>
+    <t>4d3ec647-4c81-4b82-9c4a-97c46b79da94</t>
+  </si>
+  <si>
+    <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
+  </si>
+  <si>
+    <t>732ff8b5-04f4-4f64-a79e-3b70904ddc77</t>
+  </si>
+  <si>
+    <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
+  </si>
+  <si>
+    <t>f525abde-7b87-4938-b10f-0ba22a181d66</t>
+  </si>
+  <si>
+    <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
+  </si>
+  <si>
+    <t>cdcfa698-2b10-488e-b38b-5a0922968fcf</t>
+  </si>
+  <si>
+    <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
+  </si>
+  <si>
+    <t>0436f804-5fa3-4376-a333-bdd660a1dcbf</t>
+  </si>
+  <si>
+    <t>Required column RECORDED_TIME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "RECORDED_TIME"</t>
+  </si>
+  <si>
+    <t>6b79ac35-5a81-404d-a6f4-0ac2d842180b</t>
+  </si>
+  <si>
+    <t>Required column QUESTION is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "QUESTION"</t>
+  </si>
+  <si>
+    <t>ac240c17-7a9d-4b3f-9a57-0a7bab948de9</t>
+  </si>
+  <si>
+    <t>Required column MEAS_VALUE is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEAS_VALUE"</t>
+  </si>
+  <si>
+    <t>65cb6487-0370-4c9f-a8c8-4fdcc72b5481</t>
+  </si>
+  <si>
+    <t>Required column QUESTION_CODE is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "QUESTION_CODE"</t>
+  </si>
+  <si>
+    <t>8ca30133-4a62-483b-adb5-73af19efffc0</t>
+  </si>
+  <si>
+    <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
+  </si>
+  <si>
+    <t>1140d439-6c92-4031-97a7-11efb15a0b8f</t>
+  </si>
+  <si>
+    <t>Required column ANSWER_CODE is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ANSWER_CODE"</t>
+  </si>
+  <si>
+    <t>806433ee-9244-4fa9-ae48-4241b64c73bb</t>
+  </si>
+  <si>
+    <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
+  </si>
+  <si>
+    <t>c0a83f0f-8258-4839-956a-cc11924e897c</t>
+  </si>
+  <si>
+    <t>Required column SDOH_DOMAIN is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SDOH_DOMAIN"</t>
+  </si>
+  <si>
+    <t>ee11d8bd-5e1e-418d-9212-aba3d1464169</t>
+  </si>
+  <si>
+    <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
+  </si>
+  <si>
+    <t>eeb5f9e9-640c-4a2a-89a1-ca18e0d1e2cc</t>
+  </si>
+  <si>
+    <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
+  </si>
+  <si>
+    <t>05608383-5739-4536-9956-0ee132c81df5</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
+  </si>
+  <si>
+    <t>effc0021-0518-46f0-bd24-51c18ea2ef7c</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OPWDD_FLAG"</t>
+  </si>
+  <si>
+    <t>7b979b68-7227-53fd-b689-e4fe153afb76</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_valid_01_q_e_admin_data</t>
+  </si>
+  <si>
+    <t>abf5c680-a135-5d89-b871-fa5b9b99aed6</t>
+  </si>
+  <si>
+    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'QE_Admin_Data' has not been implemented yet.</t>
+  </si>
+  <si>
+    <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
   </si>
   <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail.csv</t>
@@ -66,10 +294,7 @@
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>1d62090e-421c-4d2f-a79d-42d02218cd13</t>
-  </si>
-  <si>
-    <t>Missing Column</t>
+    <t>5fdee1e6-35b0-4957-a97a-144f6047a5fc</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -78,7 +303,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>eb6c2120-4d30-4d74-b23b-8c2a111ab2ec</t>
+    <t>f6df354f-de42-45e8-b911-d8003e95da0a</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -87,7 +312,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>adaedffc-0cda-43e9-abb8-1f7de065c73a</t>
+    <t>195b5ec4-0e29-4f0f-b947-b4aebf30db7e</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -96,7 +321,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>76ffffb9-5275-4b4e-858f-f7e8278b8aad</t>
+    <t>ce61d386-d74e-4d57-88cb-c2d4841f2850</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -105,7 +330,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>6433e280-0673-4eb4-973b-8edaac741f57</t>
+    <t>c870238a-6582-4143-b011-2bbcb815beba</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -114,7 +339,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>84a0a784-467f-4b2e-a5f6-01ccaa2a51fc</t>
+    <t>fea81780-cea3-4276-b8c5-f614ddcae93c</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -123,7 +348,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>8d3ba017-481f-4394-a158-d2fc5b8ab954</t>
+    <t>94b9747a-5851-416c-8dd0-c07a2a2fc357</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -132,7 +357,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>3e68fef6-ccf4-48fe-a283-704e4eb75374</t>
+    <t>14e733df-0136-412e-aab0-feb8f220833f</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -141,7 +366,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>cf377023-2d73-4db6-a120-86c867adaa99</t>
+    <t>06e8f683-8b7e-4282-8b3c-bba186c5d980</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -150,7 +375,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>cffbab36-7f80-4846-a545-bcdf744ab69a</t>
+    <t>0186351e-151e-4b24-9d17-37a028982787</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -159,7 +384,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>eceae89b-e0f5-4e6a-bc90-cf2ff7876032</t>
+    <t>78cc5f6b-1d37-49a9-a6a7-ff657c93a1dc</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -168,7 +393,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>c436e2aa-31d9-4f87-9235-869999bb9cc3</t>
+    <t>353be5f1-42b4-4c21-8247-0058b5faef00</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -177,7 +402,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>1dbe4f19-f975-459e-a8ae-813947feedd9</t>
+    <t>a5665d88-1b21-4fc5-969d-64b4e8325f6d</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -186,7 +411,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>991cc8c7-6d8a-4cd1-97d6-c8cacd23ecd9</t>
+    <t>4862b8c6-ee43-41bf-87d8-c513a8df0af4</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -195,7 +420,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>789dad0b-db42-4988-acaf-fd2ca520b223</t>
+    <t>c19e097c-e4db-41e1-bce2-b67c91de1f18</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -204,7 +429,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>bb3fa37a-c79b-4aad-ab9a-4a2e072b44a7</t>
+    <t>e2a59c76-55b4-40b1-965f-8211316f5bc5</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -213,7 +438,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>439fe7e6-7821-4af7-98ca-dbef52726fe6</t>
+    <t>3e58c098-cf2d-45d5-8e9b-5407e46f61c8</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -222,7 +447,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>c496d27a-cda0-40c7-858d-b0ed2845f744</t>
+    <t>77d0008e-108f-46b5-8ea0-ea43e7606017</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -231,7 +456,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>14fddde7-e2a1-4ca8-a39f-cee1beefcdc5</t>
+    <t>f25ac8c1-ef7c-4600-9858-271ef4f501d8</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -240,7 +465,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>ee301881-6874-4465-86cd-57003de5b101</t>
+    <t>680e74ef-c3a1-4247-9ac4-e950c9b6a540</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -249,7 +474,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>7879dbd7-da51-41f3-a35d-0387dc732480</t>
+    <t>f0c7a585-20a6-4e4e-892f-82c31eb69047</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -258,7 +483,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
   </si>
   <si>
-    <t>1931dfcc-e8fc-597d-b1bc-65b4287e6fdf</t>
+    <t>d70a4700-6b40-52fc-a7a2-69ef0d7f69ff</t>
   </si>
   <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
@@ -267,7 +492,7 @@
     <t>ERROR</t>
   </si>
   <si>
-    <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
+    <t>47277588-99e8-59f5-8384-b24344a86073</t>
   </si>
   <si>
     <t>Sheet Missing</t>
@@ -276,169 +501,25 @@
     <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>7b979b68-7227-53fd-b689-e4fe153afb76</t>
-  </si>
-  <si>
-    <t>abf5c680-a135-5d89-b871-fa5b9b99aed6</t>
+    <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
+  </si>
+  <si>
+    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
-  </si>
-  <si>
-    <t>d70a4700-6b40-52fc-a7a2-69ef0d7f69ff</t>
+    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
+  </si>
+  <si>
+    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
   </si>
   <si>
     <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>47277588-99e8-59f5-8384-b24344a86073</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-valid-01.xlsx</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_valid_01_admin_demographic</t>
-  </si>
-  <si>
-    <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'Admin_Demographic' has not been implemented yet.</t>
-  </si>
-  <si>
-    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_valid_01_screening</t>
-  </si>
-  <si>
-    <t>a5efdefa-01df-4c18-a9af-bc1e8a7963e1</t>
-  </si>
-  <si>
-    <t>Required column FACILITY is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
-  </si>
-  <si>
-    <t>9f8cc74d-65b7-4557-ba38-07aa21267699</t>
-  </si>
-  <si>
-    <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
-  </si>
-  <si>
-    <t>985842e7-03b6-4d7f-9fae-f5fcf95e6c35</t>
-  </si>
-  <si>
-    <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
-  </si>
-  <si>
-    <t>b37f730f-42e2-46c4-8263-bccbb681babd</t>
-  </si>
-  <si>
-    <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
-  </si>
-  <si>
-    <t>36eac8e0-d4c4-4ae6-af24-a4ca713f075c</t>
-  </si>
-  <si>
-    <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
-  </si>
-  <si>
-    <t>b9a5d5ef-591d-42c4-b695-39b8345176c4</t>
-  </si>
-  <si>
-    <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
-  </si>
-  <si>
-    <t>1373859a-be5b-44f1-b530-c5e24d016f3b</t>
-  </si>
-  <si>
-    <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
-  </si>
-  <si>
-    <t>124d2172-198a-401f-92db-cacb6e72799d</t>
-  </si>
-  <si>
-    <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
-  </si>
-  <si>
-    <t>b709f71b-e3cb-4ba4-9960-c366e0a15fcc</t>
-  </si>
-  <si>
-    <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
-  </si>
-  <si>
-    <t>7c3a5569-2b46-4935-bfa4-ed1cc0f2209c</t>
-  </si>
-  <si>
-    <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
-  </si>
-  <si>
-    <t>db99bb24-cd1f-4384-bae1-7f88124cda3e</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
-  </si>
-  <si>
-    <t>15535506-368a-4157-bef7-88d1fd779d0d</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OPWDD_FLAG"</t>
-  </si>
-  <si>
-    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_valid_01_q_e_admin_data</t>
-  </si>
-  <si>
-    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
-  </si>
-  <si>
-    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'QE_Admin_Data' has not been implemented yet.</t>
-  </si>
-  <si>
-    <t>168a34c7-d043-5ec4-a84a-c961f1a301ef</t>
+    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
   </si>
   <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-12-12-2023-valid.csv</t>
@@ -447,7 +528,7 @@
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>06c3b45a-4aff-45fd-ba15-80f369996a49</t>
+    <t>cd8b67a7-c8dc-4f31-a2f3-f91610e85683</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -465,82 +546,82 @@
     <t>Convert non-integer values to INTEGER</t>
   </si>
   <si>
-    <t>626c1816-cd7d-4505-99aa-bf71cebe592b</t>
-  </si>
-  <si>
-    <t>b885a317-be20-4ee7-b874-4c6ca1ff935b</t>
-  </si>
-  <si>
-    <t>222c7bd8-d4a7-4778-98d3-5e7f1e31744f</t>
-  </si>
-  <si>
-    <t>c16ed03a-195a-452f-b68e-99821d54a163</t>
-  </si>
-  <si>
-    <t>8aac74a7-c3ba-418e-a17e-b1ff95542e1a</t>
-  </si>
-  <si>
-    <t>15961aaf-b2a2-4efb-b716-778e397600d0</t>
-  </si>
-  <si>
-    <t>a190a2d6-c96e-412d-9591-1c4d44ba5e0d</t>
-  </si>
-  <si>
-    <t>32aaa5c0-d845-4a59-83ef-a643a21da229</t>
-  </si>
-  <si>
-    <t>d1cb4c90-c404-4fc7-adb7-4fb05ff6477b</t>
-  </si>
-  <si>
-    <t>5aaa57a7-e79f-4f44-b75a-9eefa9bd6bdb</t>
-  </si>
-  <si>
-    <t>18b4e536-e654-4cbb-8e5f-547260c1beae</t>
-  </si>
-  <si>
-    <t>199b5c69-3948-44af-8d94-d993e1d36f7f</t>
-  </si>
-  <si>
-    <t>82c54791-63ac-4efb-aa45-cee26dc17ee7</t>
-  </si>
-  <si>
-    <t>fc7bf867-c79c-4990-a622-aa125c7d0a94</t>
-  </si>
-  <si>
-    <t>b8283c56-2cbd-4e5e-a403-13a45e9e81a4</t>
-  </si>
-  <si>
-    <t>114d6152-7f13-4572-8597-f4161c51bea5</t>
-  </si>
-  <si>
-    <t>f5258407-2a4d-4301-bf82-15e3815523fa</t>
-  </si>
-  <si>
-    <t>bb04e070-c623-4e44-a208-fb2c70a1c33a</t>
-  </si>
-  <si>
-    <t>c506c02f-89f7-4c97-9ec0-860845a6b10f</t>
-  </si>
-  <si>
-    <t>66d3c8d8-1edc-414f-9e88-25834f83988a</t>
-  </si>
-  <si>
-    <t>ae54ba20-9b7f-4589-92af-99b7aafd4db5</t>
-  </si>
-  <si>
-    <t>f0dd4673-95c0-4d59-996f-a5bd4db0353b</t>
-  </si>
-  <si>
-    <t>ae3dc5f0-cfed-4b18-b458-16a024daed1c</t>
-  </si>
-  <si>
-    <t>75c85a15-8c82-4ee6-b237-c448e18e2eea</t>
-  </si>
-  <si>
-    <t>e7e8f864-6582-4dc7-8aca-5996e10ac2ed</t>
-  </si>
-  <si>
-    <t>b2ff6f13-91e7-4540-b4d9-8ae20c2d2153</t>
+    <t>f72fdf75-d3b3-4add-848a-191cc035c60d</t>
+  </si>
+  <si>
+    <t>75eb00b8-9402-409f-8983-1f0e97d3e4c4</t>
+  </si>
+  <si>
+    <t>55dc8960-6a04-429f-b1a3-b3fce6c6e75c</t>
+  </si>
+  <si>
+    <t>5ebc4583-ad62-47c7-9996-ab750dd08811</t>
+  </si>
+  <si>
+    <t>495b620f-285c-4b76-9ce8-a99f18f17a65</t>
+  </si>
+  <si>
+    <t>dc0c62b3-1162-4db7-a781-b1585589bfee</t>
+  </si>
+  <si>
+    <t>cd8c4076-948d-4420-967e-3504453d5955</t>
+  </si>
+  <si>
+    <t>c95612d9-a1cc-4bf3-8a42-dc782ff1d4bd</t>
+  </si>
+  <si>
+    <t>6dbd854a-95c5-461c-91b2-644d4919eecc</t>
+  </si>
+  <si>
+    <t>3327b9f7-d3d2-45cd-ac8b-f5b070a0483e</t>
+  </si>
+  <si>
+    <t>4009082a-e537-4eaf-a4c4-8362b8f78c7f</t>
+  </si>
+  <si>
+    <t>257d5876-1625-4393-a761-bd02a6abe550</t>
+  </si>
+  <si>
+    <t>bded3d74-be9a-42bc-aa8d-df54cdc25a38</t>
+  </si>
+  <si>
+    <t>86c1d72f-25a5-4f73-bac9-2914368dc3b5</t>
+  </si>
+  <si>
+    <t>fbd0bbda-fe05-4df4-8c5d-8c1e6f4a6363</t>
+  </si>
+  <si>
+    <t>28eeb640-ba4e-465a-8880-7217b4b9ec89</t>
+  </si>
+  <si>
+    <t>35066299-a398-424a-b398-39c25f325953</t>
+  </si>
+  <si>
+    <t>fccaf294-c9e8-4ec8-9938-4e13bf3e3b84</t>
+  </si>
+  <si>
+    <t>be56f5af-3490-4e82-a45b-d8863a71c6cd</t>
+  </si>
+  <si>
+    <t>c4f1c30d-06e9-437c-b406-d28e0e7c48af</t>
+  </si>
+  <si>
+    <t>890e4028-b12a-4cb6-ae4d-1ab6d44de8cd</t>
+  </si>
+  <si>
+    <t>60b35e5f-ed06-4a9c-83c7-b9d59042d715</t>
+  </si>
+  <si>
+    <t>31dbdff6-7e6b-4101-b186-c900de4ade12</t>
+  </si>
+  <si>
+    <t>5c4294b9-0d06-4e7e-8a8c-34932c7f829f</t>
+  </si>
+  <si>
+    <t>69cdacb8-5a84-4b02-9105-27c922ea59fa</t>
+  </si>
+  <si>
+    <t>2c1534ef-9073-4744-b9f0-4379cb69be52</t>
   </si>
 </sst>
 </file>
@@ -679,8 +760,8 @@
       <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
+      <c r="L2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -688,25 +769,25 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -714,25 +795,25 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -740,25 +821,25 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -766,25 +847,25 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -792,25 +873,25 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -818,25 +899,25 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -844,25 +925,25 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -870,25 +951,25 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -896,25 +977,25 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -922,25 +1003,25 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -948,25 +1029,25 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -974,25 +1055,25 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -1000,25 +1081,25 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
@@ -1026,25 +1107,25 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -1052,25 +1133,25 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -1078,25 +1159,25 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -1104,25 +1185,25 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -1130,25 +1211,25 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -1156,25 +1237,25 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -1182,25 +1263,25 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -1208,25 +1289,25 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
         <v>84</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
         <v>85</v>
       </c>
-      <c r="H23" t="s">
+      <c r="M23" t="s">
         <v>86</v>
-      </c>
-      <c r="I23" t="s">
-        <v>87</v>
-      </c>
-      <c r="L23" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -1234,25 +1315,25 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
         <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
       </c>
       <c r="G24" t="s">
         <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s">
         <v>90</v>
       </c>
       <c r="L24" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -1263,22 +1344,22 @@
         <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="M25" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -1286,25 +1367,25 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
         <v>97</v>
       </c>
       <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
         <v>98</v>
       </c>
-      <c r="I26" t="s">
+      <c r="M26" t="s">
         <v>99</v>
-      </c>
-      <c r="L26" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -1312,25 +1393,25 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
         <v>100</v>
       </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s">
         <v>101</v>
       </c>
-      <c r="G27" t="s">
+      <c r="M27" t="s">
         <v>102</v>
-      </c>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" t="s">
-        <v>103</v>
-      </c>
-      <c r="M27" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="28">
@@ -1338,25 +1419,25 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" t="s">
         <v>105</v>
-      </c>
-      <c r="H28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" t="s">
-        <v>106</v>
-      </c>
-      <c r="M28" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1364,25 +1445,25 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M29" t="s">
         <v>108</v>
-      </c>
-      <c r="H29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" t="s">
-        <v>109</v>
-      </c>
-      <c r="M29" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -1390,25 +1471,25 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s">
+        <v>110</v>
+      </c>
+      <c r="M30" t="s">
         <v>111</v>
-      </c>
-      <c r="H30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" t="s">
-        <v>112</v>
-      </c>
-      <c r="M30" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1416,25 +1497,25 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" t="s">
+        <v>113</v>
+      </c>
+      <c r="M31" t="s">
         <v>114</v>
-      </c>
-      <c r="H31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" t="s">
-        <v>115</v>
-      </c>
-      <c r="M31" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="32">
@@ -1442,25 +1523,25 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" t="s">
+        <v>116</v>
+      </c>
+      <c r="M32" t="s">
         <v>117</v>
-      </c>
-      <c r="H32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" t="s">
-        <v>118</v>
-      </c>
-      <c r="M32" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -1468,25 +1549,25 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s">
+        <v>119</v>
+      </c>
+      <c r="M33" t="s">
         <v>120</v>
-      </c>
-      <c r="H33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" t="s">
-        <v>121</v>
-      </c>
-      <c r="M33" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -1494,25 +1575,25 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" t="s">
+        <v>122</v>
+      </c>
+      <c r="M34" t="s">
         <v>123</v>
-      </c>
-      <c r="H34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" t="s">
-        <v>124</v>
-      </c>
-      <c r="M34" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -1520,25 +1601,25 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" t="s">
+        <v>125</v>
+      </c>
+      <c r="M35" t="s">
         <v>126</v>
-      </c>
-      <c r="H35" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" t="s">
-        <v>127</v>
-      </c>
-      <c r="M35" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -1546,25 +1627,25 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s">
+        <v>128</v>
+      </c>
+      <c r="M36" t="s">
         <v>129</v>
-      </c>
-      <c r="H36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" t="s">
-        <v>130</v>
-      </c>
-      <c r="M36" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="37">
@@ -1572,25 +1653,25 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" t="s">
+        <v>131</v>
+      </c>
+      <c r="M37" t="s">
         <v>132</v>
-      </c>
-      <c r="H37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" t="s">
-        <v>133</v>
-      </c>
-      <c r="M37" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="38">
@@ -1598,25 +1679,25 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M38" t="s">
         <v>135</v>
-      </c>
-      <c r="H38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" t="s">
-        <v>136</v>
-      </c>
-      <c r="M38" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="39">
@@ -1624,25 +1705,25 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" t="s">
+        <v>137</v>
+      </c>
+      <c r="M39" t="s">
         <v>138</v>
-      </c>
-      <c r="D39" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" t="s">
-        <v>140</v>
-      </c>
-      <c r="H39" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" t="s">
-        <v>141</v>
-      </c>
-      <c r="L39" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40">
@@ -1650,34 +1731,25 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H40" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>147</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40" t="s">
-        <v>148</v>
-      </c>
-      <c r="L40" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M40" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41">
@@ -1685,34 +1757,25 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" t="s">
         <v>142</v>
       </c>
-      <c r="D41" t="s">
+      <c r="H41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" t="s">
         <v>143</v>
       </c>
-      <c r="E41" t="s">
+      <c r="M41" t="s">
         <v>144</v>
-      </c>
-      <c r="G41" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" t="s">
-        <v>146</v>
-      </c>
-      <c r="I41" t="s">
-        <v>147</v>
-      </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-      <c r="K41" t="s">
-        <v>148</v>
-      </c>
-      <c r="L41" t="s">
-        <v>149</v>
-      </c>
-      <c r="M41" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="42">
@@ -1720,34 +1783,25 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="G42" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" t="s">
         <v>146</v>
       </c>
-      <c r="I42" t="s">
+      <c r="M42" t="s">
         <v>147</v>
-      </c>
-      <c r="J42">
-        <v>3</v>
-      </c>
-      <c r="K42" t="s">
-        <v>148</v>
-      </c>
-      <c r="L42" t="s">
-        <v>149</v>
-      </c>
-      <c r="M42" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="43">
@@ -1755,30 +1809,21 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H43" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>147</v>
-      </c>
-      <c r="J43">
-        <v>4</v>
-      </c>
-      <c r="K43" t="s">
-        <v>148</v>
-      </c>
-      <c r="L43" t="s">
         <v>149</v>
       </c>
       <c r="M43" t="s">
@@ -1790,34 +1835,25 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H44" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="I44" t="s">
-        <v>147</v>
-      </c>
-      <c r="J44">
-        <v>5</v>
-      </c>
-      <c r="K44" t="s">
-        <v>148</v>
-      </c>
-      <c r="L44" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M44" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45">
@@ -1825,34 +1861,25 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="G45" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" t="s">
         <v>155</v>
       </c>
-      <c r="H45" t="s">
-        <v>146</v>
-      </c>
-      <c r="I45" t="s">
-        <v>147</v>
-      </c>
-      <c r="J45">
-        <v>6</v>
-      </c>
-      <c r="K45" t="s">
-        <v>148</v>
-      </c>
-      <c r="L45" t="s">
-        <v>149</v>
-      </c>
       <c r="M45" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46">
@@ -1860,34 +1887,25 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G46" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H46" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="I46" t="s">
-        <v>147</v>
-      </c>
-      <c r="J46">
-        <v>7</v>
-      </c>
-      <c r="K46" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L46" t="s">
-        <v>149</v>
-      </c>
-      <c r="M46" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47">
@@ -1895,34 +1913,25 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G47" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H47" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="I47" t="s">
-        <v>147</v>
-      </c>
-      <c r="J47">
-        <v>8</v>
-      </c>
-      <c r="K47" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="L47" t="s">
-        <v>149</v>
-      </c>
-      <c r="M47" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48">
@@ -1930,34 +1939,25 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E48" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G48" t="s">
+        <v>167</v>
+      </c>
+      <c r="H48" t="s">
+        <v>161</v>
+      </c>
+      <c r="I48" t="s">
+        <v>168</v>
+      </c>
+      <c r="L48" t="s">
         <v>158</v>
-      </c>
-      <c r="H48" t="s">
-        <v>146</v>
-      </c>
-      <c r="I48" t="s">
-        <v>147</v>
-      </c>
-      <c r="J48">
-        <v>9</v>
-      </c>
-      <c r="K48" t="s">
-        <v>148</v>
-      </c>
-      <c r="L48" t="s">
-        <v>149</v>
-      </c>
-      <c r="M48" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="49">
@@ -1965,34 +1965,34 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G49" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H49" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I49" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J49">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L49" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M49" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50">
@@ -2000,34 +2000,34 @@
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G50" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="H50" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I50" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J50">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L50" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M50" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51">
@@ -2035,34 +2035,34 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G51" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="H51" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I51" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J51">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L51" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M51" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52">
@@ -2070,34 +2070,34 @@
         <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G52" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="H52" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I52" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J52">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L52" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M52" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53">
@@ -2105,34 +2105,34 @@
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E53" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G53" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="H53" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I53" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J53">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K53" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L53" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M53" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54">
@@ -2140,34 +2140,34 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E54" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G54" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="H54" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I54" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J54">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L54" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M54" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55">
@@ -2175,34 +2175,34 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E55" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G55" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="H55" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I55" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J55">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K55" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L55" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M55" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56">
@@ -2210,34 +2210,34 @@
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E56" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G56" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="H56" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I56" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J56">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K56" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L56" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M56" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57">
@@ -2245,34 +2245,34 @@
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E57" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G57" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="H57" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I57" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J57">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K57" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L57" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M57" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58">
@@ -2280,34 +2280,34 @@
         <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G58" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="H58" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I58" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J58">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K58" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L58" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M58" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59">
@@ -2315,34 +2315,34 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G59" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="H59" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I59" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J59">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K59" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L59" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M59" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60">
@@ -2350,34 +2350,34 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E60" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G60" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="H60" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I60" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J60">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K60" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L60" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M60" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61">
@@ -2385,34 +2385,34 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E61" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G61" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="H61" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I61" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J61">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K61" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L61" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M61" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62">
@@ -2420,34 +2420,34 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E62" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G62" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="H62" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I62" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J62">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L62" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M62" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63">
@@ -2455,34 +2455,34 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E63" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G63" t="s">
+        <v>191</v>
+      </c>
+      <c r="H63" t="s">
         <v>173</v>
       </c>
-      <c r="H63" t="s">
-        <v>146</v>
-      </c>
       <c r="I63" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="J63">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K63" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L63" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M63" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64">
@@ -2490,34 +2490,34 @@
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E64" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G64" t="s">
+        <v>192</v>
+      </c>
+      <c r="H64" t="s">
+        <v>173</v>
+      </c>
+      <c r="I64" t="s">
         <v>174</v>
       </c>
-      <c r="H64" t="s">
-        <v>146</v>
-      </c>
-      <c r="I64" t="s">
-        <v>147</v>
-      </c>
       <c r="J64">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K64" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L64" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M64" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65">
@@ -2525,34 +2525,34 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E65" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G65" t="s">
+        <v>193</v>
+      </c>
+      <c r="H65" t="s">
+        <v>173</v>
+      </c>
+      <c r="I65" t="s">
+        <v>174</v>
+      </c>
+      <c r="J65">
+        <v>17</v>
+      </c>
+      <c r="K65" t="s">
         <v>175</v>
       </c>
-      <c r="H65" t="s">
-        <v>146</v>
-      </c>
-      <c r="I65" t="s">
-        <v>147</v>
-      </c>
-      <c r="J65">
-        <v>26</v>
-      </c>
-      <c r="K65" t="s">
-        <v>148</v>
-      </c>
       <c r="L65" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M65" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66">
@@ -2560,34 +2560,349 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="E66" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G66" t="s">
+        <v>194</v>
+      </c>
+      <c r="H66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I66" t="s">
+        <v>174</v>
+      </c>
+      <c r="J66">
+        <v>18</v>
+      </c>
+      <c r="K66" t="s">
+        <v>175</v>
+      </c>
+      <c r="L66" t="s">
         <v>176</v>
       </c>
-      <c r="H66" t="s">
-        <v>146</v>
-      </c>
-      <c r="I66" t="s">
-        <v>147</v>
-      </c>
-      <c r="J66">
+      <c r="M66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" t="s">
+        <v>171</v>
+      </c>
+      <c r="G67" t="s">
+        <v>195</v>
+      </c>
+      <c r="H67" t="s">
+        <v>173</v>
+      </c>
+      <c r="I67" t="s">
+        <v>174</v>
+      </c>
+      <c r="J67">
+        <v>19</v>
+      </c>
+      <c r="K67" t="s">
+        <v>175</v>
+      </c>
+      <c r="L67" t="s">
+        <v>176</v>
+      </c>
+      <c r="M67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" t="s">
+        <v>171</v>
+      </c>
+      <c r="G68" t="s">
+        <v>196</v>
+      </c>
+      <c r="H68" t="s">
+        <v>173</v>
+      </c>
+      <c r="I68" t="s">
+        <v>174</v>
+      </c>
+      <c r="J68">
+        <v>20</v>
+      </c>
+      <c r="K68" t="s">
+        <v>175</v>
+      </c>
+      <c r="L68" t="s">
+        <v>176</v>
+      </c>
+      <c r="M68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" t="s">
+        <v>197</v>
+      </c>
+      <c r="H69" t="s">
+        <v>173</v>
+      </c>
+      <c r="I69" t="s">
+        <v>174</v>
+      </c>
+      <c r="J69">
+        <v>21</v>
+      </c>
+      <c r="K69" t="s">
+        <v>175</v>
+      </c>
+      <c r="L69" t="s">
+        <v>176</v>
+      </c>
+      <c r="M69" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" t="s">
+        <v>170</v>
+      </c>
+      <c r="E70" t="s">
+        <v>171</v>
+      </c>
+      <c r="G70" t="s">
+        <v>198</v>
+      </c>
+      <c r="H70" t="s">
+        <v>173</v>
+      </c>
+      <c r="I70" t="s">
+        <v>174</v>
+      </c>
+      <c r="J70">
+        <v>22</v>
+      </c>
+      <c r="K70" t="s">
+        <v>175</v>
+      </c>
+      <c r="L70" t="s">
+        <v>176</v>
+      </c>
+      <c r="M70" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" t="s">
+        <v>171</v>
+      </c>
+      <c r="G71" t="s">
+        <v>199</v>
+      </c>
+      <c r="H71" t="s">
+        <v>173</v>
+      </c>
+      <c r="I71" t="s">
+        <v>174</v>
+      </c>
+      <c r="J71">
+        <v>23</v>
+      </c>
+      <c r="K71" t="s">
+        <v>175</v>
+      </c>
+      <c r="L71" t="s">
+        <v>176</v>
+      </c>
+      <c r="M71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" t="s">
+        <v>171</v>
+      </c>
+      <c r="G72" t="s">
+        <v>200</v>
+      </c>
+      <c r="H72" t="s">
+        <v>173</v>
+      </c>
+      <c r="I72" t="s">
+        <v>174</v>
+      </c>
+      <c r="J72">
+        <v>24</v>
+      </c>
+      <c r="K72" t="s">
+        <v>175</v>
+      </c>
+      <c r="L72" t="s">
+        <v>176</v>
+      </c>
+      <c r="M72" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" t="s">
+        <v>170</v>
+      </c>
+      <c r="E73" t="s">
+        <v>171</v>
+      </c>
+      <c r="G73" t="s">
+        <v>201</v>
+      </c>
+      <c r="H73" t="s">
+        <v>173</v>
+      </c>
+      <c r="I73" t="s">
+        <v>174</v>
+      </c>
+      <c r="J73">
+        <v>25</v>
+      </c>
+      <c r="K73" t="s">
+        <v>175</v>
+      </c>
+      <c r="L73" t="s">
+        <v>176</v>
+      </c>
+      <c r="M73" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74" t="s">
+        <v>171</v>
+      </c>
+      <c r="G74" t="s">
+        <v>202</v>
+      </c>
+      <c r="H74" t="s">
+        <v>173</v>
+      </c>
+      <c r="I74" t="s">
+        <v>174</v>
+      </c>
+      <c r="J74">
+        <v>26</v>
+      </c>
+      <c r="K74" t="s">
+        <v>175</v>
+      </c>
+      <c r="L74" t="s">
+        <v>176</v>
+      </c>
+      <c r="M74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" t="s">
+        <v>171</v>
+      </c>
+      <c r="G75" t="s">
+        <v>203</v>
+      </c>
+      <c r="H75" t="s">
+        <v>173</v>
+      </c>
+      <c r="I75" t="s">
+        <v>174</v>
+      </c>
+      <c r="J75">
         <v>27</v>
       </c>
-      <c r="K66" t="s">
-        <v>148</v>
-      </c>
-      <c r="L66" t="s">
-        <v>149</v>
-      </c>
-      <c r="M66" t="s">
-        <v>150</v>
+      <c r="K75" t="s">
+        <v>175</v>
+      </c>
+      <c r="L75" t="s">
+        <v>176</v>
+      </c>
+      <c r="M75" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -123,7 +123,7 @@
     <t>ahc_hrsn_valid_01_screening</t>
   </si>
   <si>
-    <t>075edff5-a4e7-4ee3-8d19-cfd113748ac0</t>
+    <t>5c3046fa-bb76-4d07-b4d7-2cdfd85193a2</t>
   </si>
   <si>
     <t>Missing Column</t>
@@ -135,7 +135,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>6ca0effe-2584-4e52-a4c8-f0419e77b764</t>
+    <t>4882c6b1-77f1-4cba-ba86-c26e062dab71</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -144,7 +144,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>48efe1e7-3744-44e3-89c2-39386800a5ce</t>
+    <t>e6139de2-edd1-4516-a7c0-8828e6a6d4b3</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -153,7 +153,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>cd51142c-2eb5-468e-bc9b-0ccb3e58bf66</t>
+    <t>948d5ddb-caef-4683-af04-a9936974d326</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
@@ -162,7 +162,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>1c9d1659-2fa2-49a3-a148-175572b163b8</t>
+    <t>7f0fd156-d853-438e-a643-62156d1d8f90</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
@@ -171,7 +171,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>2545cca8-d5c8-4893-89d2-082b5624ef68</t>
+    <t>81ac8b91-89c0-4ec2-89ec-fa5d8ee36bc3</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -180,7 +180,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>96f2ece9-baca-4da9-8e46-d32d6c7a7f79</t>
+    <t>13a43ce9-da28-48a9-90aa-7a1ff58d7bab</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
@@ -189,7 +189,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>254ea412-be68-44e9-ac29-9cbe4374418b</t>
+    <t>a638ff45-26b4-46d9-81b2-ce35f105277f</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -198,7 +198,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>e632a328-5781-4643-9e66-428ae9953f3c</t>
+    <t>9c1b5ed8-c102-41c4-a8a7-1e9a9b5168a4</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
@@ -207,7 +207,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>97eb4167-9616-43dc-976a-3686d4b132ba</t>
+    <t>f96e38c5-a3e0-483e-ba36-5d5934b9503f</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -216,7 +216,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>bc25ec47-3825-45cd-804b-bcd5f7ec0a98</t>
+    <t>74b39964-6432-456d-8471-338dcd6d42e3</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -225,7 +225,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>f8aaddfe-ac87-4710-a869-4ff918b7b9d2</t>
+    <t>4000bd76-bd24-49e2-849a-839dabc51be8</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -255,7 +255,7 @@
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>52ee9024-14c7-4bb7-9052-db9e92bf4ecb</t>
+    <t>5cd2a955-9d69-42e9-aa54-03d3f2e1e1be</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -264,7 +264,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>1349ff77-41c8-4fac-867a-061d8904b9e0</t>
+    <t>e10797f7-b3cf-42c5-9ffc-f8fa529c89df</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -273,7 +273,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>b1092e59-9718-42e5-9dc6-616a87edff14</t>
+    <t>35190394-6745-4cf5-ac25-7637e9c1d08d</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -282,7 +282,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>668ac1f1-7c0e-44ca-94e9-01a791222d74</t>
+    <t>9e6b7969-254a-4e5a-a2b4-7844fb3bb0ec</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -291,7 +291,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>32388b9a-8bcd-4306-9b52-11e640030dcc</t>
+    <t>9a969bf1-b846-4f90-b8bc-995c5cbe0ca1</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -300,7 +300,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>643bb10c-584a-45ef-ac7a-2c378c7b461f</t>
+    <t>20074e00-8db4-4ced-950d-28dfc6a384a6</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -309,7 +309,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>a212a6ab-1097-4052-af76-640ad3ab449f</t>
+    <t>7c82d85a-a562-4a4c-be1d-eb3644f85357</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -318,7 +318,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>4f30e487-6b0b-4341-b9ce-d4c37bc3e503</t>
+    <t>1f2f3f60-99f7-489c-a320-87ec93cd091e</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -327,7 +327,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>8b3142b0-7eed-4b04-af98-f8ad3fd6917e</t>
+    <t>426b3fe4-013b-4d2e-a808-412399b989f4</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -336,7 +336,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>757746fe-3786-4d12-aa38-68a403161dd2</t>
+    <t>263b09ed-942a-4ab5-a387-7b65798bb7e1</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -345,7 +345,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>0faf29d3-d45d-4498-847a-d9a1058b0313</t>
+    <t>c52dbac0-2f05-461a-9f17-7460c1846953</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -354,7 +354,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>88b5519e-9d49-4054-892c-1c65948d1e5f</t>
+    <t>028f272c-4fb9-44b2-a253-ed1957e69daf</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -363,7 +363,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>3de7dd13-d26d-4ce5-9297-16e22313ec6a</t>
+    <t>7aecbcab-353a-4168-8661-21d361ca2c12</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -372,7 +372,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>7b8c600d-6011-43e7-a889-ae51561eda9a</t>
+    <t>1f05683a-c313-4d6c-ba3c-dab029472ba9</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -381,7 +381,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>c15a925c-8ac1-4fae-82d7-b44ea2ff7551</t>
+    <t>a736fbae-3a61-44f9-9a4c-ed4720b91762</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -390,7 +390,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>4c35bd4d-beaa-48ad-b21c-acf0c91c2296</t>
+    <t>76da67c9-4093-44cf-b3c4-5aa5dbe243f1</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -399,7 +399,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>f9f053aa-571d-47df-b497-5d2e9006fc4c</t>
+    <t>bc1fc326-08ba-4d2b-a7c5-3115ffca70a0</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -408,7 +408,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>ec6c0559-785d-407a-8dea-39cfb3c01e7c</t>
+    <t>6acfa2f1-2f37-4bd9-bd69-166a0bf82363</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -417,7 +417,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>7a33a23e-e341-40ae-8b33-4a10c7efcff1</t>
+    <t>57d1b10a-da42-45ab-96c7-590470dc3f3e</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -426,7 +426,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>1481d6a3-4f03-4121-a2b8-a51708188977</t>
+    <t>8b063687-59c5-4d4e-ab4b-6313e6c3f08f</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -435,7 +435,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>5c7575ce-8ecc-49d8-8d67-3f9a2879a7e5</t>
+    <t>e2c6ea89-c5e0-4d20-96d1-a2f5cb64efa2</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -453,7 +453,7 @@
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>de4b7752-e1b2-4565-8cb2-36ca89a29716</t>
+    <t>3b3b86c0-dbbc-43ad-a21b-6f0704a8f8cc</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -471,82 +471,82 @@
     <t>Convert non-integer values to INTEGER</t>
   </si>
   <si>
-    <t>28538fb5-50f2-4fb7-96e0-afd34871497e</t>
-  </si>
-  <si>
-    <t>c1f0ca21-12c8-4799-830c-6ef952daa3e3</t>
-  </si>
-  <si>
-    <t>045f0757-2df2-46b3-9df8-903511f59bfb</t>
-  </si>
-  <si>
-    <t>817681d8-2135-4dde-8e59-9be390da728e</t>
-  </si>
-  <si>
-    <t>2b0769ce-fd5e-4dfd-8943-f8ef22fc1d3a</t>
-  </si>
-  <si>
-    <t>dd828c06-a3ac-4674-a0c3-d87cf256db38</t>
-  </si>
-  <si>
-    <t>af83d49f-b21a-4b2f-80c7-bcdfaead8dbe</t>
-  </si>
-  <si>
-    <t>40875697-8dd4-4c57-8a74-d3b22815212a</t>
-  </si>
-  <si>
-    <t>a5d92603-f5e4-426d-a071-781530076db2</t>
-  </si>
-  <si>
-    <t>e8f71fc1-8f11-4b93-98b0-1ab532d5d28b</t>
-  </si>
-  <si>
-    <t>7421876f-56fa-4469-8e69-ecb5e8ce14ef</t>
-  </si>
-  <si>
-    <t>c92db077-1635-49bf-a1d1-41d62ff09f1f</t>
-  </si>
-  <si>
-    <t>20977389-0732-4fe9-b69a-b73c79c48175</t>
-  </si>
-  <si>
-    <t>12420baa-2d22-468f-92ed-9e28ba1e98a9</t>
-  </si>
-  <si>
-    <t>31c8f82b-4ad6-44f3-88ae-a2c17eb569c5</t>
-  </si>
-  <si>
-    <t>fb942859-6c04-4806-af3f-31151ce68e36</t>
-  </si>
-  <si>
-    <t>b1a13326-5ce8-44a5-bd4a-b0cf1b602505</t>
-  </si>
-  <si>
-    <t>b8864fc9-f5e3-484c-aed2-902c26eb25f9</t>
-  </si>
-  <si>
-    <t>b00be03f-6bd0-44ba-95c0-478aefda742d</t>
-  </si>
-  <si>
-    <t>9614eda2-92be-4ed6-a79a-22a856ce04fc</t>
-  </si>
-  <si>
-    <t>737e2212-2a8c-4e23-8a9a-0ca0abfa1b43</t>
-  </si>
-  <si>
-    <t>d088ffd4-a77e-4119-95c8-5e0a82641439</t>
-  </si>
-  <si>
-    <t>77580cd0-afaa-4ab0-bd9e-d001519da10b</t>
-  </si>
-  <si>
-    <t>1f877899-e8bf-4ac3-ad7b-545fdf7fd891</t>
-  </si>
-  <si>
-    <t>252b911b-5759-4128-be79-5867e98e5bbb</t>
-  </si>
-  <si>
-    <t>dff928ab-120d-4942-a528-026e0cf0838b</t>
+    <t>72b97a24-1c89-464d-a09a-71475050f108</t>
+  </si>
+  <si>
+    <t>f9466b39-f04e-4376-897e-cac3889791a7</t>
+  </si>
+  <si>
+    <t>15fb7579-253d-4914-9ccc-b506da18b409</t>
+  </si>
+  <si>
+    <t>c4149881-51a1-4dc9-acd0-3b7908637b04</t>
+  </si>
+  <si>
+    <t>0ac95d85-02ac-4bac-b097-dd5a41aa2936</t>
+  </si>
+  <si>
+    <t>6b1b8963-6c34-4a38-9742-940c8e52c170</t>
+  </si>
+  <si>
+    <t>df232722-5f3d-4282-ba45-e898f6d50fd7</t>
+  </si>
+  <si>
+    <t>c703b4fc-96a9-4bb1-8501-d81233b0e695</t>
+  </si>
+  <si>
+    <t>dfda3db0-757f-4520-b0fd-5c10769827e4</t>
+  </si>
+  <si>
+    <t>1dd59022-ffd2-4940-8604-fc004d3d8f34</t>
+  </si>
+  <si>
+    <t>eb72acdf-79a3-4f23-aa27-66b37674d5b6</t>
+  </si>
+  <si>
+    <t>a0ba7912-9cce-41d2-8e9e-5d6f05b31c5c</t>
+  </si>
+  <si>
+    <t>7f4ecbcd-d6b1-4ff3-80c5-333599aa0d36</t>
+  </si>
+  <si>
+    <t>a205f55e-562b-4eb2-bc42-9faaf3d6a3ab</t>
+  </si>
+  <si>
+    <t>7b56f30f-635a-41f1-91d6-522b2e939fdd</t>
+  </si>
+  <si>
+    <t>72d661e9-d76d-468e-8347-ed598c30b2a3</t>
+  </si>
+  <si>
+    <t>af2b1808-e6dd-49c5-9269-75664b0a3f75</t>
+  </si>
+  <si>
+    <t>a163e47d-eb17-4caf-82f3-3eae56538625</t>
+  </si>
+  <si>
+    <t>08e9bca4-b4d3-45fa-a5e2-d3e22f11c8d3</t>
+  </si>
+  <si>
+    <t>ac914fee-17eb-46bb-8ff3-10a0c2922076</t>
+  </si>
+  <si>
+    <t>9b7a113a-d186-42a6-a11b-38a2795dd6d4</t>
+  </si>
+  <si>
+    <t>c9eb4f53-a13c-475e-92b2-cf6049001957</t>
+  </si>
+  <si>
+    <t>e19f9abd-e119-4ff7-96bb-7d054beb18e0</t>
+  </si>
+  <si>
+    <t>e384b13a-654a-475f-a362-f625dbf5e10c</t>
+  </si>
+  <si>
+    <t>32372d09-9dd6-451c-b552-523c33d815ba</t>
+  </si>
+  <si>
+    <t>2d1121a6-2e34-4075-b1ff-c7bc514924e2</t>
   </si>
 </sst>
 </file>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -123,7 +123,7 @@
     <t>ahc_hrsn_valid_01_screening</t>
   </si>
   <si>
-    <t>5c3046fa-bb76-4d07-b4d7-2cdfd85193a2</t>
+    <t>c4b960e1-fd30-46a5-bb55-ef8f63a923e0</t>
   </si>
   <si>
     <t>Missing Column</t>
@@ -135,7 +135,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>4882c6b1-77f1-4cba-ba86-c26e062dab71</t>
+    <t>7b730162-4b11-489f-898d-5a58e3219854</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -144,7 +144,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>e6139de2-edd1-4516-a7c0-8828e6a6d4b3</t>
+    <t>192f0f5f-25c5-471f-adff-96f8b2076dd3</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -153,7 +153,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>948d5ddb-caef-4683-af04-a9936974d326</t>
+    <t>5253ce90-35af-474a-81a4-6306b99450d0</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
@@ -162,7 +162,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>7f0fd156-d853-438e-a643-62156d1d8f90</t>
+    <t>655c87f4-4de7-4ef5-9a94-ec7eae4be078</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
@@ -171,7 +171,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>81ac8b91-89c0-4ec2-89ec-fa5d8ee36bc3</t>
+    <t>cecf1905-e361-4f9f-9a3e-8781a2697bb5</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -180,7 +180,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>13a43ce9-da28-48a9-90aa-7a1ff58d7bab</t>
+    <t>d2487b2b-5cd4-425f-b155-842b1a8ede22</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
@@ -189,7 +189,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>a638ff45-26b4-46d9-81b2-ce35f105277f</t>
+    <t>19ab5051-0ac7-4848-a88a-a15cf2d94639</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -198,7 +198,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>9c1b5ed8-c102-41c4-a8a7-1e9a9b5168a4</t>
+    <t>068ec416-5a3b-432e-96d6-674dc6d51bbc</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
@@ -207,7 +207,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>f96e38c5-a3e0-483e-ba36-5d5934b9503f</t>
+    <t>8f2e32fd-f70d-46ed-a13b-db04fd7ca81e</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -216,7 +216,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>74b39964-6432-456d-8471-338dcd6d42e3</t>
+    <t>d35883ce-22ac-4d53-8f1d-0ef5295a5a0f</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -225,7 +225,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>4000bd76-bd24-49e2-849a-839dabc51be8</t>
+    <t>047f752e-a980-4b7b-9e88-5dfddd0b816a</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -255,7 +255,7 @@
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>5cd2a955-9d69-42e9-aa54-03d3f2e1e1be</t>
+    <t>798bde55-9ddc-4547-bdc1-17c9c7a31fc7</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -264,7 +264,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>e10797f7-b3cf-42c5-9ffc-f8fa529c89df</t>
+    <t>f86bf60a-5e26-4477-9ba1-54d33fa1ee3c</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -273,7 +273,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>35190394-6745-4cf5-ac25-7637e9c1d08d</t>
+    <t>0afbcfba-c4d1-481a-a9dc-964e35a863c3</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -282,7 +282,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>9e6b7969-254a-4e5a-a2b4-7844fb3bb0ec</t>
+    <t>bba7f884-5d02-4654-b115-378bf5d18cf8</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -291,7 +291,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>9a969bf1-b846-4f90-b8bc-995c5cbe0ca1</t>
+    <t>84a79d5e-ec17-49a6-aa05-32c42eccf353</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -300,7 +300,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>20074e00-8db4-4ced-950d-28dfc6a384a6</t>
+    <t>8e313eee-4a13-4a97-9e61-8659e2ae856d</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -309,7 +309,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>7c82d85a-a562-4a4c-be1d-eb3644f85357</t>
+    <t>14893e2f-48e4-4d56-86f9-7cebcebd8abe</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -318,7 +318,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>1f2f3f60-99f7-489c-a320-87ec93cd091e</t>
+    <t>18419899-347f-46b9-abc5-26fd42577096</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -327,7 +327,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>426b3fe4-013b-4d2e-a808-412399b989f4</t>
+    <t>a719c7d2-a392-4de4-adfd-060ef456cf3f</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -336,7 +336,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>263b09ed-942a-4ab5-a387-7b65798bb7e1</t>
+    <t>2400b7ae-df64-4b79-b31d-c3a422e6239b</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -345,7 +345,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>c52dbac0-2f05-461a-9f17-7460c1846953</t>
+    <t>837ff885-b7e2-45d6-9393-bf554a868fd2</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -354,7 +354,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>028f272c-4fb9-44b2-a253-ed1957e69daf</t>
+    <t>89b0767b-c4f7-4c6f-9884-d9d2595d4297</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -363,7 +363,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>7aecbcab-353a-4168-8661-21d361ca2c12</t>
+    <t>114a3068-c7bc-42bc-aa12-f5323dbdfdd8</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -372,7 +372,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>1f05683a-c313-4d6c-ba3c-dab029472ba9</t>
+    <t>bc0acb68-2440-4fc2-ae5c-b921d1147cc5</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -381,7 +381,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>a736fbae-3a61-44f9-9a4c-ed4720b91762</t>
+    <t>19bf6957-a07e-4295-842f-37837b344276</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -390,7 +390,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>76da67c9-4093-44cf-b3c4-5aa5dbe243f1</t>
+    <t>de407d20-bb55-4f18-b323-04bebec7f2ea</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -399,7 +399,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>bc1fc326-08ba-4d2b-a7c5-3115ffca70a0</t>
+    <t>cc6efe66-880a-495e-86e1-dc5be91e0f08</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -408,7 +408,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>6acfa2f1-2f37-4bd9-bd69-166a0bf82363</t>
+    <t>8245347a-da91-4584-a750-38527c9f7434</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -417,7 +417,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>57d1b10a-da42-45ab-96c7-590470dc3f3e</t>
+    <t>886ae2d0-f0bf-4e4b-ae84-01f0d7429f19</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -426,7 +426,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>8b063687-59c5-4d4e-ab4b-6313e6c3f08f</t>
+    <t>71828bf0-6318-41f3-84fb-59a6b6934cef</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -435,7 +435,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>e2c6ea89-c5e0-4d20-96d1-a2f5cb64efa2</t>
+    <t>8e1d44a6-593b-4a13-b0f0-6cddc32e1265</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -453,7 +453,7 @@
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>3b3b86c0-dbbc-43ad-a21b-6f0704a8f8cc</t>
+    <t>25dc3071-3b26-451e-9c43-0789eeb536c9</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -471,82 +471,82 @@
     <t>Convert non-integer values to INTEGER</t>
   </si>
   <si>
-    <t>72b97a24-1c89-464d-a09a-71475050f108</t>
-  </si>
-  <si>
-    <t>f9466b39-f04e-4376-897e-cac3889791a7</t>
-  </si>
-  <si>
-    <t>15fb7579-253d-4914-9ccc-b506da18b409</t>
-  </si>
-  <si>
-    <t>c4149881-51a1-4dc9-acd0-3b7908637b04</t>
-  </si>
-  <si>
-    <t>0ac95d85-02ac-4bac-b097-dd5a41aa2936</t>
-  </si>
-  <si>
-    <t>6b1b8963-6c34-4a38-9742-940c8e52c170</t>
-  </si>
-  <si>
-    <t>df232722-5f3d-4282-ba45-e898f6d50fd7</t>
-  </si>
-  <si>
-    <t>c703b4fc-96a9-4bb1-8501-d81233b0e695</t>
-  </si>
-  <si>
-    <t>dfda3db0-757f-4520-b0fd-5c10769827e4</t>
-  </si>
-  <si>
-    <t>1dd59022-ffd2-4940-8604-fc004d3d8f34</t>
-  </si>
-  <si>
-    <t>eb72acdf-79a3-4f23-aa27-66b37674d5b6</t>
-  </si>
-  <si>
-    <t>a0ba7912-9cce-41d2-8e9e-5d6f05b31c5c</t>
-  </si>
-  <si>
-    <t>7f4ecbcd-d6b1-4ff3-80c5-333599aa0d36</t>
-  </si>
-  <si>
-    <t>a205f55e-562b-4eb2-bc42-9faaf3d6a3ab</t>
-  </si>
-  <si>
-    <t>7b56f30f-635a-41f1-91d6-522b2e939fdd</t>
-  </si>
-  <si>
-    <t>72d661e9-d76d-468e-8347-ed598c30b2a3</t>
-  </si>
-  <si>
-    <t>af2b1808-e6dd-49c5-9269-75664b0a3f75</t>
-  </si>
-  <si>
-    <t>a163e47d-eb17-4caf-82f3-3eae56538625</t>
-  </si>
-  <si>
-    <t>08e9bca4-b4d3-45fa-a5e2-d3e22f11c8d3</t>
-  </si>
-  <si>
-    <t>ac914fee-17eb-46bb-8ff3-10a0c2922076</t>
-  </si>
-  <si>
-    <t>9b7a113a-d186-42a6-a11b-38a2795dd6d4</t>
-  </si>
-  <si>
-    <t>c9eb4f53-a13c-475e-92b2-cf6049001957</t>
-  </si>
-  <si>
-    <t>e19f9abd-e119-4ff7-96bb-7d054beb18e0</t>
-  </si>
-  <si>
-    <t>e384b13a-654a-475f-a362-f625dbf5e10c</t>
-  </si>
-  <si>
-    <t>32372d09-9dd6-451c-b552-523c33d815ba</t>
-  </si>
-  <si>
-    <t>2d1121a6-2e34-4075-b1ff-c7bc514924e2</t>
+    <t>782c8626-1d09-4236-98a2-4cfd033d73d1</t>
+  </si>
+  <si>
+    <t>9877a798-eb7a-4c29-99d1-1676a93b6529</t>
+  </si>
+  <si>
+    <t>a73cb25d-9c4d-48cf-9bb2-4836078210bf</t>
+  </si>
+  <si>
+    <t>8e7c4113-e945-4e00-b8c5-65225cd8b757</t>
+  </si>
+  <si>
+    <t>d84a476c-75bc-4262-a114-e2fa7baefd3b</t>
+  </si>
+  <si>
+    <t>68dd7cd1-d9ab-401a-88d6-72ab32668191</t>
+  </si>
+  <si>
+    <t>3bbe034e-dd99-4289-8b6b-29996f82ca44</t>
+  </si>
+  <si>
+    <t>a5069d3e-15df-45a7-b0c3-f2f52e92582a</t>
+  </si>
+  <si>
+    <t>16cd6a34-eece-4591-aee5-2a83664e94a6</t>
+  </si>
+  <si>
+    <t>6926d742-cf4d-4330-befa-6245e37dddff</t>
+  </si>
+  <si>
+    <t>a71bfbec-2103-4ba0-be15-d805cce4a7de</t>
+  </si>
+  <si>
+    <t>5a64905d-1672-42fc-a2b0-693f83a1239e</t>
+  </si>
+  <si>
+    <t>38d09dac-c9aa-416e-9f52-cbd0abec77fe</t>
+  </si>
+  <si>
+    <t>08b43517-8871-4dae-84e2-933085bbb7be</t>
+  </si>
+  <si>
+    <t>97495ed2-9357-4197-ace0-cdd6498ff09f</t>
+  </si>
+  <si>
+    <t>e9894dea-9c9c-468d-abb6-cb71b8cccbdd</t>
+  </si>
+  <si>
+    <t>416ffa1b-6282-4b60-829c-1ee0657fdbd7</t>
+  </si>
+  <si>
+    <t>a5912725-e15a-4168-a792-128af37b08c4</t>
+  </si>
+  <si>
+    <t>4b74c60e-9ac5-4bbe-83fc-0d177444b77d</t>
+  </si>
+  <si>
+    <t>f894a812-0ae6-485b-bbce-5e8bfa065f8c</t>
+  </si>
+  <si>
+    <t>ada6ced1-1f8a-4a62-8b26-bb6c64faf2cb</t>
+  </si>
+  <si>
+    <t>98f54b84-463b-45f0-8e6d-3cc31046f85f</t>
+  </si>
+  <si>
+    <t>ff18e9df-4613-43bb-abb2-bf17f6ebc5fe</t>
+  </si>
+  <si>
+    <t>83f1798e-4e8c-4ede-8d55-f9e810d55e05</t>
+  </si>
+  <si>
+    <t>d16337c2-2f93-454e-af03-39818e1f5034</t>
+  </si>
+  <si>
+    <t>4eab3580-c8c5-4bf2-8625-795f74ff59b2</t>
   </si>
 </sst>
 </file>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -123,7 +123,7 @@
     <t>ahc_hrsn_valid_01_screening</t>
   </si>
   <si>
-    <t>c4b960e1-fd30-46a5-bb55-ef8f63a923e0</t>
+    <t>c633b3cf-d150-4007-88ac-d18907a85098</t>
   </si>
   <si>
     <t>Missing Column</t>
@@ -135,7 +135,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>7b730162-4b11-489f-898d-5a58e3219854</t>
+    <t>4d025129-d1ba-4cbb-ba9c-7720d2bc129c</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -144,7 +144,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>192f0f5f-25c5-471f-adff-96f8b2076dd3</t>
+    <t>39b8f6a9-937b-4166-bf55-d361e794afd7</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -153,7 +153,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>5253ce90-35af-474a-81a4-6306b99450d0</t>
+    <t>842f317d-f770-4665-9316-dc84e72a5bca</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
@@ -162,7 +162,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>655c87f4-4de7-4ef5-9a94-ec7eae4be078</t>
+    <t>2d26f2f3-b9d5-408e-8558-7443322ecb7c</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
@@ -171,7 +171,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>cecf1905-e361-4f9f-9a3e-8781a2697bb5</t>
+    <t>e9085274-1009-47b2-9031-6bbd6a7f7377</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -180,7 +180,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>d2487b2b-5cd4-425f-b155-842b1a8ede22</t>
+    <t>464b6b4e-839a-4bf0-b5a8-a77288e85245</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
@@ -189,7 +189,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>19ab5051-0ac7-4848-a88a-a15cf2d94639</t>
+    <t>2dadf332-c4d5-41fd-9192-68715d02610a</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -198,7 +198,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>068ec416-5a3b-432e-96d6-674dc6d51bbc</t>
+    <t>26a9f2ac-65c2-4f39-af08-1b26f402284f</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
@@ -207,7 +207,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>8f2e32fd-f70d-46ed-a13b-db04fd7ca81e</t>
+    <t>6e5c8133-7ae8-41e5-9edd-18e2c744288a</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -216,7 +216,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>d35883ce-22ac-4d53-8f1d-0ef5295a5a0f</t>
+    <t>3c080f0c-5745-4d05-b01b-0b4c4cd5ab9a</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -225,7 +225,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>047f752e-a980-4b7b-9e88-5dfddd0b816a</t>
+    <t>75f94655-9307-4ca3-aabb-8fce81454578</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -255,7 +255,7 @@
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>798bde55-9ddc-4547-bdc1-17c9c7a31fc7</t>
+    <t>40169ffd-6050-45e5-93a8-caed0c5a1ab7</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -264,7 +264,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>f86bf60a-5e26-4477-9ba1-54d33fa1ee3c</t>
+    <t>b286ce66-a092-4d45-a87b-fb1987d1b7fa</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -273,7 +273,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>0afbcfba-c4d1-481a-a9dc-964e35a863c3</t>
+    <t>6aaed81c-8cf6-428f-a675-1399b03b6d82</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -282,7 +282,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>bba7f884-5d02-4654-b115-378bf5d18cf8</t>
+    <t>ee155508-eadc-4039-a375-c17b671833d7</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -291,7 +291,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>84a79d5e-ec17-49a6-aa05-32c42eccf353</t>
+    <t>a6c775a1-d7d1-4ad4-924b-ef5ee0d1ef77</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -300,7 +300,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>8e313eee-4a13-4a97-9e61-8659e2ae856d</t>
+    <t>e659eb16-a838-440e-95f2-e824db80bef9</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -309,7 +309,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>14893e2f-48e4-4d56-86f9-7cebcebd8abe</t>
+    <t>f0bfb036-a45b-4573-bb2b-755504461ec2</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -318,7 +318,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>18419899-347f-46b9-abc5-26fd42577096</t>
+    <t>27e1948a-4d16-48a3-a5b6-feffe8301427</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -327,7 +327,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>a719c7d2-a392-4de4-adfd-060ef456cf3f</t>
+    <t>17faa7ec-5e65-48e6-9a41-f0819e681784</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -336,7 +336,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>2400b7ae-df64-4b79-b31d-c3a422e6239b</t>
+    <t>d8032654-96d3-4656-8472-8a07a099df9f</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -345,7 +345,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>837ff885-b7e2-45d6-9393-bf554a868fd2</t>
+    <t>f55d501a-e9dc-42ab-b77c-ed29b6c6c0ef</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -354,7 +354,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>89b0767b-c4f7-4c6f-9884-d9d2595d4297</t>
+    <t>6ee7c933-3b81-4dd7-88f7-33f3e837f737</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -363,7 +363,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>114a3068-c7bc-42bc-aa12-f5323dbdfdd8</t>
+    <t>2d2eae99-8fb3-446d-a2f8-e733d637e0d8</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -372,7 +372,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>bc0acb68-2440-4fc2-ae5c-b921d1147cc5</t>
+    <t>6ce1dd33-2777-40f5-949c-0043cd21f1dc</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -381,7 +381,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>19bf6957-a07e-4295-842f-37837b344276</t>
+    <t>b30078a9-76a6-493b-96b0-7de65272fdc2</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -390,7 +390,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>de407d20-bb55-4f18-b323-04bebec7f2ea</t>
+    <t>a51f96ac-4e2a-41b7-a3f5-2ac184a421d1</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -399,7 +399,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>cc6efe66-880a-495e-86e1-dc5be91e0f08</t>
+    <t>bcb2899d-7b3b-4aed-8536-8e24aecadc6e</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -408,7 +408,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>8245347a-da91-4584-a750-38527c9f7434</t>
+    <t>61b9d4fe-cec1-4171-9545-3adad30c8c41</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -417,7 +417,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>886ae2d0-f0bf-4e4b-ae84-01f0d7429f19</t>
+    <t>c0dd763c-f4bb-4d5b-93e0-e720bb183896</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -426,7 +426,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>71828bf0-6318-41f3-84fb-59a6b6934cef</t>
+    <t>a97fb3f2-382f-4c67-ac17-92a414689288</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -435,7 +435,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>8e1d44a6-593b-4a13-b0f0-6cddc32e1265</t>
+    <t>e7d8c6bd-f14a-4882-846c-c8ceae6204fe</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -453,7 +453,7 @@
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>25dc3071-3b26-451e-9c43-0789eeb536c9</t>
+    <t>3a3dc980-8f95-4c78-ad5a-1d315d45e717</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -471,82 +471,82 @@
     <t>Convert non-integer values to INTEGER</t>
   </si>
   <si>
-    <t>782c8626-1d09-4236-98a2-4cfd033d73d1</t>
-  </si>
-  <si>
-    <t>9877a798-eb7a-4c29-99d1-1676a93b6529</t>
-  </si>
-  <si>
-    <t>a73cb25d-9c4d-48cf-9bb2-4836078210bf</t>
-  </si>
-  <si>
-    <t>8e7c4113-e945-4e00-b8c5-65225cd8b757</t>
-  </si>
-  <si>
-    <t>d84a476c-75bc-4262-a114-e2fa7baefd3b</t>
-  </si>
-  <si>
-    <t>68dd7cd1-d9ab-401a-88d6-72ab32668191</t>
-  </si>
-  <si>
-    <t>3bbe034e-dd99-4289-8b6b-29996f82ca44</t>
-  </si>
-  <si>
-    <t>a5069d3e-15df-45a7-b0c3-f2f52e92582a</t>
-  </si>
-  <si>
-    <t>16cd6a34-eece-4591-aee5-2a83664e94a6</t>
-  </si>
-  <si>
-    <t>6926d742-cf4d-4330-befa-6245e37dddff</t>
-  </si>
-  <si>
-    <t>a71bfbec-2103-4ba0-be15-d805cce4a7de</t>
-  </si>
-  <si>
-    <t>5a64905d-1672-42fc-a2b0-693f83a1239e</t>
-  </si>
-  <si>
-    <t>38d09dac-c9aa-416e-9f52-cbd0abec77fe</t>
-  </si>
-  <si>
-    <t>08b43517-8871-4dae-84e2-933085bbb7be</t>
-  </si>
-  <si>
-    <t>97495ed2-9357-4197-ace0-cdd6498ff09f</t>
-  </si>
-  <si>
-    <t>e9894dea-9c9c-468d-abb6-cb71b8cccbdd</t>
-  </si>
-  <si>
-    <t>416ffa1b-6282-4b60-829c-1ee0657fdbd7</t>
-  </si>
-  <si>
-    <t>a5912725-e15a-4168-a792-128af37b08c4</t>
-  </si>
-  <si>
-    <t>4b74c60e-9ac5-4bbe-83fc-0d177444b77d</t>
-  </si>
-  <si>
-    <t>f894a812-0ae6-485b-bbce-5e8bfa065f8c</t>
-  </si>
-  <si>
-    <t>ada6ced1-1f8a-4a62-8b26-bb6c64faf2cb</t>
-  </si>
-  <si>
-    <t>98f54b84-463b-45f0-8e6d-3cc31046f85f</t>
-  </si>
-  <si>
-    <t>ff18e9df-4613-43bb-abb2-bf17f6ebc5fe</t>
-  </si>
-  <si>
-    <t>83f1798e-4e8c-4ede-8d55-f9e810d55e05</t>
-  </si>
-  <si>
-    <t>d16337c2-2f93-454e-af03-39818e1f5034</t>
-  </si>
-  <si>
-    <t>4eab3580-c8c5-4bf2-8625-795f74ff59b2</t>
+    <t>7377073d-93f7-42ce-b529-985b970397ce</t>
+  </si>
+  <si>
+    <t>a7f7818a-771c-4c1d-bc1a-512526b5a7ae</t>
+  </si>
+  <si>
+    <t>fe240662-989e-4984-aee0-1b8b83305bcb</t>
+  </si>
+  <si>
+    <t>fc009024-5c7e-4aa2-b583-8f18428a6be3</t>
+  </si>
+  <si>
+    <t>eccb1c32-c22b-4a8b-b699-01e01402d31b</t>
+  </si>
+  <si>
+    <t>7a6315d3-b727-4a2c-b6fc-9862024579b2</t>
+  </si>
+  <si>
+    <t>24200d78-47c6-41a5-b535-b77dd403e1ab</t>
+  </si>
+  <si>
+    <t>a77709f3-1888-430e-a108-6ab7320065a8</t>
+  </si>
+  <si>
+    <t>dcd52a6b-0684-4534-a8da-e262ab510d61</t>
+  </si>
+  <si>
+    <t>bbe68dc1-da98-4e00-844b-e6e851a800e2</t>
+  </si>
+  <si>
+    <t>8cd46abd-96ed-41da-90b2-d296365f18a9</t>
+  </si>
+  <si>
+    <t>75177149-3acf-44f9-bb6f-2804bdd02f63</t>
+  </si>
+  <si>
+    <t>ce84a5dc-1458-474b-a883-43df2e90e05b</t>
+  </si>
+  <si>
+    <t>50afc1e9-8994-4006-9fb2-60b4ff258514</t>
+  </si>
+  <si>
+    <t>cafe744b-c5fb-4561-b52c-3ab6002a05f5</t>
+  </si>
+  <si>
+    <t>6f95f12f-fd70-4d08-b5b7-befe7de06e0f</t>
+  </si>
+  <si>
+    <t>87d37215-2d02-4992-8725-1e5037655f97</t>
+  </si>
+  <si>
+    <t>82bdaedf-d4e4-4639-b3f1-095e65770c5c</t>
+  </si>
+  <si>
+    <t>e296eaa3-4bb2-474d-b797-114f43e83b59</t>
+  </si>
+  <si>
+    <t>258ef7f3-0676-4df9-8770-c8715c3b0da7</t>
+  </si>
+  <si>
+    <t>f581fb7b-4c62-4492-aa20-ce0e634754d2</t>
+  </si>
+  <si>
+    <t>b30db91d-38c5-403d-8eba-d48c4e9b621c</t>
+  </si>
+  <si>
+    <t>0519b8bf-ab6c-402e-81da-a60c36868381</t>
+  </si>
+  <si>
+    <t>d7895669-c69b-445d-a381-cbdf6e463222</t>
+  </si>
+  <si>
+    <t>d9d36687-6ace-4251-9007-f3d6693c23d5</t>
+  </si>
+  <si>
+    <t>9b5db90f-411d-46b1-bfca-90e8887c1c3c</t>
   </si>
 </sst>
 </file>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -12,7 +12,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
-    <t>ingest_session_id</t>
+    <t>orch_session_id</t>
   </si>
   <si>
     <t>device_id</t>
@@ -21,7 +21,7 @@
     <t>elaboration</t>
   </si>
   <si>
-    <t>ingest_session_entry_id</t>
+    <t>orch_session_entry_id</t>
   </si>
   <si>
     <t>ingest_src</t>
@@ -33,7 +33,7 @@
     <t>elaboration:1</t>
   </si>
   <si>
-    <t>ingest_session_issue_id</t>
+    <t>orch_session_issue_id</t>
   </si>
   <si>
     <t>issue_type</t>
@@ -123,7 +123,7 @@
     <t>ahc_hrsn_valid_01_screening</t>
   </si>
   <si>
-    <t>c633b3cf-d150-4007-88ac-d18907a85098</t>
+    <t>db54c94e-e025-4555-92df-3b0472d624b8</t>
   </si>
   <si>
     <t>Missing Column</t>
@@ -135,7 +135,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>4d025129-d1ba-4cbb-ba9c-7720d2bc129c</t>
+    <t>4c2d1bf8-0c52-4828-96ef-bf3f69d46d3d</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -144,7 +144,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>39b8f6a9-937b-4166-bf55-d361e794afd7</t>
+    <t>bd7aab99-46b7-449b-9155-b153985b713a</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -153,7 +153,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>842f317d-f770-4665-9316-dc84e72a5bca</t>
+    <t>93fe09ef-5ae8-4848-91ce-9fb9ab3d850b</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
@@ -162,7 +162,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>2d26f2f3-b9d5-408e-8558-7443322ecb7c</t>
+    <t>671d7155-1e1d-4126-a5eb-874ebc5d57e4</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
@@ -171,7 +171,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>e9085274-1009-47b2-9031-6bbd6a7f7377</t>
+    <t>baf75e04-d1ba-4794-bf82-467be42dcc75</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -180,7 +180,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>464b6b4e-839a-4bf0-b5a8-a77288e85245</t>
+    <t>4c9c7ddf-1e6a-43a6-8c51-3fc78c145b00</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
@@ -189,7 +189,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>2dadf332-c4d5-41fd-9192-68715d02610a</t>
+    <t>5a075599-6096-4961-8f04-96d8ef636f28</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -198,7 +198,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>26a9f2ac-65c2-4f39-af08-1b26f402284f</t>
+    <t>0a763e51-1479-429d-816c-2e3217ca63f0</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
@@ -207,7 +207,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>6e5c8133-7ae8-41e5-9edd-18e2c744288a</t>
+    <t>5032c177-7c52-47de-8741-7d88464bc6fb</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -216,7 +216,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>3c080f0c-5745-4d05-b01b-0b4c4cd5ab9a</t>
+    <t>d1626583-bba0-4ec9-9fab-8d3d2c87c1d1</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -225,7 +225,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>75f94655-9307-4ca3-aabb-8fce81454578</t>
+    <t>778b95c3-3fc5-4c42-ac1f-65ac9ffb337f</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -255,7 +255,7 @@
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>40169ffd-6050-45e5-93a8-caed0c5a1ab7</t>
+    <t>6116a37a-4e94-434c-be8d-fba574a57bce</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -264,7 +264,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>b286ce66-a092-4d45-a87b-fb1987d1b7fa</t>
+    <t>bb80d8cd-9031-4498-a11b-38ae517e03f9</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -273,7 +273,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>6aaed81c-8cf6-428f-a675-1399b03b6d82</t>
+    <t>57d5489c-47c5-4b5e-9d00-fc041385ae69</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -282,7 +282,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>ee155508-eadc-4039-a375-c17b671833d7</t>
+    <t>62687b89-afce-4bd1-9e6c-62223f7cda02</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -291,7 +291,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>a6c775a1-d7d1-4ad4-924b-ef5ee0d1ef77</t>
+    <t>9af44f4a-6258-4de2-97fb-ea9d8177f53a</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -300,7 +300,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>e659eb16-a838-440e-95f2-e824db80bef9</t>
+    <t>b3fc3589-7c0c-4771-a0d5-ad279731ed07</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -309,7 +309,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>f0bfb036-a45b-4573-bb2b-755504461ec2</t>
+    <t>88af3db6-67b0-4be4-b33f-994457cae455</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -318,7 +318,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>27e1948a-4d16-48a3-a5b6-feffe8301427</t>
+    <t>517e26e8-cc26-4f27-a93e-f56c69125462</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -327,7 +327,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>17faa7ec-5e65-48e6-9a41-f0819e681784</t>
+    <t>12bbdabc-2df6-4bb7-ae05-ce78637576d6</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -336,7 +336,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>d8032654-96d3-4656-8472-8a07a099df9f</t>
+    <t>d6de092b-1701-4af9-87b4-4071f1b58824</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -345,7 +345,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>f55d501a-e9dc-42ab-b77c-ed29b6c6c0ef</t>
+    <t>30dad59d-3b76-4375-9c0d-6497f09395ca</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -354,7 +354,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>6ee7c933-3b81-4dd7-88f7-33f3e837f737</t>
+    <t>3317574e-4eb9-41df-96d8-77f3f1d6c9c7</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -363,7 +363,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>2d2eae99-8fb3-446d-a2f8-e733d637e0d8</t>
+    <t>8b2d7596-295c-408b-8271-26af2725bd3c</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -372,7 +372,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>6ce1dd33-2777-40f5-949c-0043cd21f1dc</t>
+    <t>032d1455-a432-4455-866d-636379cc0113</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -381,7 +381,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>b30078a9-76a6-493b-96b0-7de65272fdc2</t>
+    <t>2421138d-c86c-40f8-8e39-0554a6102f76</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -390,7 +390,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>a51f96ac-4e2a-41b7-a3f5-2ac184a421d1</t>
+    <t>a58ce8f9-34a1-4af0-9a4a-d3a5529d0077</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -399,7 +399,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>bcb2899d-7b3b-4aed-8536-8e24aecadc6e</t>
+    <t>057d87d0-a510-46e2-8f78-9e338600eee8</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -408,7 +408,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>61b9d4fe-cec1-4171-9545-3adad30c8c41</t>
+    <t>cafc25aa-fc22-46ac-891b-499239ff5185</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -417,7 +417,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>c0dd763c-f4bb-4d5b-93e0-e720bb183896</t>
+    <t>50c4fd24-d066-4db3-af9b-edbf4b3f0492</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -426,7 +426,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>a97fb3f2-382f-4c67-ac17-92a414689288</t>
+    <t>7c58c117-1e20-4bfc-a928-5dfc96c7defe</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -435,7 +435,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>e7d8c6bd-f14a-4882-846c-c8ceae6204fe</t>
+    <t>69912e9f-389d-4309-a46a-108e5cf22159</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -453,7 +453,7 @@
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>3a3dc980-8f95-4c78-ad5a-1d315d45e717</t>
+    <t>fd70db33-83de-4564-81a8-22016e1fb21b</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -471,82 +471,82 @@
     <t>Convert non-integer values to INTEGER</t>
   </si>
   <si>
-    <t>7377073d-93f7-42ce-b529-985b970397ce</t>
-  </si>
-  <si>
-    <t>a7f7818a-771c-4c1d-bc1a-512526b5a7ae</t>
-  </si>
-  <si>
-    <t>fe240662-989e-4984-aee0-1b8b83305bcb</t>
-  </si>
-  <si>
-    <t>fc009024-5c7e-4aa2-b583-8f18428a6be3</t>
-  </si>
-  <si>
-    <t>eccb1c32-c22b-4a8b-b699-01e01402d31b</t>
-  </si>
-  <si>
-    <t>7a6315d3-b727-4a2c-b6fc-9862024579b2</t>
-  </si>
-  <si>
-    <t>24200d78-47c6-41a5-b535-b77dd403e1ab</t>
-  </si>
-  <si>
-    <t>a77709f3-1888-430e-a108-6ab7320065a8</t>
-  </si>
-  <si>
-    <t>dcd52a6b-0684-4534-a8da-e262ab510d61</t>
-  </si>
-  <si>
-    <t>bbe68dc1-da98-4e00-844b-e6e851a800e2</t>
-  </si>
-  <si>
-    <t>8cd46abd-96ed-41da-90b2-d296365f18a9</t>
-  </si>
-  <si>
-    <t>75177149-3acf-44f9-bb6f-2804bdd02f63</t>
-  </si>
-  <si>
-    <t>ce84a5dc-1458-474b-a883-43df2e90e05b</t>
-  </si>
-  <si>
-    <t>50afc1e9-8994-4006-9fb2-60b4ff258514</t>
-  </si>
-  <si>
-    <t>cafe744b-c5fb-4561-b52c-3ab6002a05f5</t>
-  </si>
-  <si>
-    <t>6f95f12f-fd70-4d08-b5b7-befe7de06e0f</t>
-  </si>
-  <si>
-    <t>87d37215-2d02-4992-8725-1e5037655f97</t>
-  </si>
-  <si>
-    <t>82bdaedf-d4e4-4639-b3f1-095e65770c5c</t>
-  </si>
-  <si>
-    <t>e296eaa3-4bb2-474d-b797-114f43e83b59</t>
-  </si>
-  <si>
-    <t>258ef7f3-0676-4df9-8770-c8715c3b0da7</t>
-  </si>
-  <si>
-    <t>f581fb7b-4c62-4492-aa20-ce0e634754d2</t>
-  </si>
-  <si>
-    <t>b30db91d-38c5-403d-8eba-d48c4e9b621c</t>
-  </si>
-  <si>
-    <t>0519b8bf-ab6c-402e-81da-a60c36868381</t>
-  </si>
-  <si>
-    <t>d7895669-c69b-445d-a381-cbdf6e463222</t>
-  </si>
-  <si>
-    <t>d9d36687-6ace-4251-9007-f3d6693c23d5</t>
-  </si>
-  <si>
-    <t>9b5db90f-411d-46b1-bfca-90e8887c1c3c</t>
+    <t>ac4b863f-7c12-4bc0-8385-a953e1ca6c22</t>
+  </si>
+  <si>
+    <t>c3ef3362-8bc0-427f-a20c-e74abf3f398e</t>
+  </si>
+  <si>
+    <t>165159a9-2592-401c-bd36-0621c4cc8b6d</t>
+  </si>
+  <si>
+    <t>fb89466b-6735-4a0d-a141-0e490d798c7b</t>
+  </si>
+  <si>
+    <t>cf44dd80-6825-4395-8237-be93d4e22374</t>
+  </si>
+  <si>
+    <t>40cb2fbe-db4e-4e00-9846-b7b9ae3d3a49</t>
+  </si>
+  <si>
+    <t>23108655-c46e-4507-aa83-96cd25985e8d</t>
+  </si>
+  <si>
+    <t>e89539f2-c751-4cf3-962c-c0cba00848b4</t>
+  </si>
+  <si>
+    <t>06f6ffd3-ef5c-409f-b990-137697918f42</t>
+  </si>
+  <si>
+    <t>70652dd0-f325-4b7a-981b-469e2453e8c1</t>
+  </si>
+  <si>
+    <t>81650c85-fd50-471e-8fc8-e9a15156448a</t>
+  </si>
+  <si>
+    <t>882d4a4b-6e7e-4822-878f-30a769069d3d</t>
+  </si>
+  <si>
+    <t>94dd2556-9e09-4f07-96df-401430c7ecd9</t>
+  </si>
+  <si>
+    <t>e99b5a98-6e87-4d94-a7b7-0eedc5b71a77</t>
+  </si>
+  <si>
+    <t>97c77468-b41c-4e4f-98bf-114f6a221b0b</t>
+  </si>
+  <si>
+    <t>6a14248a-eefb-429d-959c-e0ccd57c6ae2</t>
+  </si>
+  <si>
+    <t>50fda451-475b-448b-8b87-e70843e852f8</t>
+  </si>
+  <si>
+    <t>cf5a1b31-3567-4096-adc7-769e42e206e1</t>
+  </si>
+  <si>
+    <t>87ec150d-1cd3-476e-8cb4-38ca49c550a9</t>
+  </si>
+  <si>
+    <t>7772fe11-edb7-4004-8f15-7b6ada8d6282</t>
+  </si>
+  <si>
+    <t>61beca90-96cb-431f-ab58-d0122791fd81</t>
+  </si>
+  <si>
+    <t>b4d48c0f-1002-4492-ab15-94459a117702</t>
+  </si>
+  <si>
+    <t>601ad1d2-31e2-405d-8e4d-3c16008308a7</t>
+  </si>
+  <si>
+    <t>39b53120-1f5a-426b-b2a9-8533089e09c7</t>
+  </si>
+  <si>
+    <t>aa6fce67-0d05-422a-af60-fce41e223634</t>
+  </si>
+  <si>
+    <t>f59499c5-ddf1-451e-919a-0deae4bb1665</t>
   </si>
 </sst>
 </file>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t>orch_session_id</t>
   </si>
@@ -63,7 +63,433 @@
     <t>05269d28-15ae-5bd6-bd88-f949ccfa52d7</t>
   </si>
   <si>
-    <t>1931dfcc-e8fc-597d-b1bc-65b4287e6fdf</t>
+    <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-valid-01.xlsx</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_valid_01_admin_demographic</t>
+  </si>
+  <si>
+    <t>7b979b68-7227-53fd-b689-e4fe153afb76</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'Admin_Demographic' has not been implemented yet.</t>
+  </si>
+  <si>
+    <t>abf5c680-a135-5d89-b871-fa5b9b99aed6</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_valid_01_screening</t>
+  </si>
+  <si>
+    <t>1b857fd6-c4bd-4983-8895-838f0ca4d319</t>
+  </si>
+  <si>
+    <t>Missing Column</t>
+  </si>
+  <si>
+    <t>Required column PAT_MRN_ID is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_MRN_ID"</t>
+  </si>
+  <si>
+    <t>9bc4ea2c-c958-4b9e-b3c4-895a095bc4bf</t>
+  </si>
+  <si>
+    <t>Required column FACILITY is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
+  </si>
+  <si>
+    <t>fd737f42-e5c0-45c0-8bf6-38fd72ae1b74</t>
+  </si>
+  <si>
+    <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
+  </si>
+  <si>
+    <t>2c1574bc-9e82-405d-9c4c-d9a43cfe914f</t>
+  </si>
+  <si>
+    <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
+  </si>
+  <si>
+    <t>8f53f351-2986-4313-a3b0-edecd336154b</t>
+  </si>
+  <si>
+    <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
+  </si>
+  <si>
+    <t>1a3cbfc3-1b32-46c6-a309-f1b050970913</t>
+  </si>
+  <si>
+    <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
+  </si>
+  <si>
+    <t>54a51c62-7734-48bb-bd6f-fbfaf8084c6a</t>
+  </si>
+  <si>
+    <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
+  </si>
+  <si>
+    <t>cc82261e-4b4e-4e3f-a555-572075329c66</t>
+  </si>
+  <si>
+    <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
+  </si>
+  <si>
+    <t>ac513692-e9e0-46b9-9d8e-b2ad467d3e44</t>
+  </si>
+  <si>
+    <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
+  </si>
+  <si>
+    <t>d3cc2b49-759f-4607-bc23-402a37c006e7</t>
+  </si>
+  <si>
+    <t>Required column RECORDED_TIME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "RECORDED_TIME"</t>
+  </si>
+  <si>
+    <t>609dbcfc-b949-47f9-ac8d-387f5580ffc8</t>
+  </si>
+  <si>
+    <t>Required column QUESTION is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "QUESTION"</t>
+  </si>
+  <si>
+    <t>05490ae4-e0fa-403f-ae68-67de963f80af</t>
+  </si>
+  <si>
+    <t>Required column MEAS_VALUE is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEAS_VALUE"</t>
+  </si>
+  <si>
+    <t>376da591-5f92-4c2c-97b5-e8cc32efc5a5</t>
+  </si>
+  <si>
+    <t>Required column QUESTION_CODE is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "QUESTION_CODE"</t>
+  </si>
+  <si>
+    <t>b8265db7-06ac-4073-8b32-9345021ef32a</t>
+  </si>
+  <si>
+    <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
+  </si>
+  <si>
+    <t>037449b9-513c-40df-b8ee-afd4da827671</t>
+  </si>
+  <si>
+    <t>Required column ANSWER_CODE is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ANSWER_CODE"</t>
+  </si>
+  <si>
+    <t>94d23651-ae5c-4d48-8a5f-36984ee5fd6e</t>
+  </si>
+  <si>
+    <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
+  </si>
+  <si>
+    <t>98306097-8a78-4ffc-92e7-554c8d95aed4</t>
+  </si>
+  <si>
+    <t>Required column SDOH_DOMAIN is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SDOH_DOMAIN"</t>
+  </si>
+  <si>
+    <t>d5341699-5ee3-4924-8c23-87a4e6ac2bad</t>
+  </si>
+  <si>
+    <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
+  </si>
+  <si>
+    <t>6b8ddece-df67-4487-8b89-e895576a7249</t>
+  </si>
+  <si>
+    <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
+  </si>
+  <si>
+    <t>c89e55ee-a55f-4ecd-848c-878981fc4fac</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
+  </si>
+  <si>
+    <t>5a8d83aa-36e4-4477-908c-04d3bff84bd6</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OPWDD_FLAG"</t>
+  </si>
+  <si>
+    <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_valid_01_q_e_admin_data</t>
+  </si>
+  <si>
+    <t>d70a4700-6b40-52fc-a7a2-69ef0d7f69ff</t>
+  </si>
+  <si>
+    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'QE_Admin_Data' has not been implemented yet.</t>
+  </si>
+  <si>
+    <t>47277588-99e8-59f5-8384-b24344a86073</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail.csv</t>
+  </si>
+  <si>
+    <t>synthetic_fail</t>
+  </si>
+  <si>
+    <t>c87dfe5d-1ab6-406f-bd07-fcf6c45511a4</t>
+  </si>
+  <si>
+    <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
+  </si>
+  <si>
+    <t>1a6980aa-0d43-4796-a784-03e0d319cd05</t>
+  </si>
+  <si>
+    <t>Required column FACILITY is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "FACILITY"</t>
+  </si>
+  <si>
+    <t>8cc7ce7b-d361-4502-b323-4a40f2ba2243</t>
+  </si>
+  <si>
+    <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
+  </si>
+  <si>
+    <t>be12ecbf-c08f-4dfb-a04f-af326ba4330e</t>
+  </si>
+  <si>
+    <t>Required column LAST_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
+  </si>
+  <si>
+    <t>7f034c48-78da-4631-8c7a-614b44f8f6ce</t>
+  </si>
+  <si>
+    <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
+  </si>
+  <si>
+    <t>b10805d2-0afd-4c40-91b7-c26d8d28a765</t>
+  </si>
+  <si>
+    <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
+  </si>
+  <si>
+    <t>ede6a6c4-80e8-442b-be4f-f9917d29afd9</t>
+  </si>
+  <si>
+    <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
+  </si>
+  <si>
+    <t>1d616170-d1b3-470b-9263-a1fe3bfce729</t>
+  </si>
+  <si>
+    <t>Required column SURVEY is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "SURVEY"</t>
+  </si>
+  <si>
+    <t>4b7f6515-fb93-4a1a-99be-e3c0dd8c9ce1</t>
+  </si>
+  <si>
+    <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
+  </si>
+  <si>
+    <t>4a0fddb2-8390-419f-9df5-91e28b6fc7a9</t>
+  </si>
+  <si>
+    <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
+  </si>
+  <si>
+    <t>34160cc4-2cb7-46fe-9a40-1f098bdb42b2</t>
+  </si>
+  <si>
+    <t>Required column QUESTION is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "QUESTION"</t>
+  </si>
+  <si>
+    <t>d2e44b8d-b5f8-4b2d-ba41-d8a15da0071c</t>
+  </si>
+  <si>
+    <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
+  </si>
+  <si>
+    <t>296feb73-a822-40ee-91a8-f6160d065f12</t>
+  </si>
+  <si>
+    <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
+  </si>
+  <si>
+    <t>8674a4b5-ab7a-45a4-9ebc-61fc71c9ab79</t>
+  </si>
+  <si>
+    <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
+  </si>
+  <si>
+    <t>07b2795f-dff3-4247-a716-4bac3f9fe2de</t>
+  </si>
+  <si>
+    <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
+  </si>
+  <si>
+    <t>f325d4a9-f19c-4f3d-be4e-580466135a99</t>
+  </si>
+  <si>
+    <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
+  </si>
+  <si>
+    <t>fab6dee2-5c52-4477-907a-4f0b2d9ea5cb</t>
+  </si>
+  <si>
+    <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
+  </si>
+  <si>
+    <t>be07b70a-3caa-47e4-bc00-db2034cbc07d</t>
+  </si>
+  <si>
+    <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
+  </si>
+  <si>
+    <t>94f01b29-959f-4ef7-a894-58830b5543be</t>
+  </si>
+  <si>
+    <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
+  </si>
+  <si>
+    <t>d7ef1e9f-cd90-4650-9d51-15b19d669afa</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
+  </si>
+  <si>
+    <t>b5f5ee76-e7e4-4bcb-92f1-f59718839eb8</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
+  </si>
+  <si>
+    <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
   </si>
   <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
@@ -72,7 +498,7 @@
     <t>ERROR</t>
   </si>
   <si>
-    <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
+    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
   </si>
   <si>
     <t>Sheet Missing</t>
@@ -81,370 +507,25 @@
     <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>7b979b68-7227-53fd-b689-e4fe153afb76</t>
-  </si>
-  <si>
-    <t>abf5c680-a135-5d89-b871-fa5b9b99aed6</t>
+    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
+  </si>
+  <si>
+    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
-  </si>
-  <si>
-    <t>d70a4700-6b40-52fc-a7a2-69ef0d7f69ff</t>
+    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
+  </si>
+  <si>
+    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
   </si>
   <si>
     <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>47277588-99e8-59f5-8384-b24344a86073</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-valid-01.xlsx</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_valid_01_admin_demographic</t>
-  </si>
-  <si>
-    <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'Admin_Demographic' has not been implemented yet.</t>
-  </si>
-  <si>
-    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_valid_01_screening</t>
-  </si>
-  <si>
-    <t>db54c94e-e025-4555-92df-3b0472d624b8</t>
-  </si>
-  <si>
-    <t>Missing Column</t>
-  </si>
-  <si>
-    <t>Required column FACILITY is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
-  </si>
-  <si>
-    <t>4c2d1bf8-0c52-4828-96ef-bf3f69d46d3d</t>
-  </si>
-  <si>
-    <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
-  </si>
-  <si>
-    <t>bd7aab99-46b7-449b-9155-b153985b713a</t>
-  </si>
-  <si>
-    <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
-  </si>
-  <si>
-    <t>93fe09ef-5ae8-4848-91ce-9fb9ab3d850b</t>
-  </si>
-  <si>
-    <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
-  </si>
-  <si>
-    <t>671d7155-1e1d-4126-a5eb-874ebc5d57e4</t>
-  </si>
-  <si>
-    <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
-  </si>
-  <si>
-    <t>baf75e04-d1ba-4794-bf82-467be42dcc75</t>
-  </si>
-  <si>
-    <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
-  </si>
-  <si>
-    <t>4c9c7ddf-1e6a-43a6-8c51-3fc78c145b00</t>
-  </si>
-  <si>
-    <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
-  </si>
-  <si>
-    <t>5a075599-6096-4961-8f04-96d8ef636f28</t>
-  </si>
-  <si>
-    <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
-  </si>
-  <si>
-    <t>0a763e51-1479-429d-816c-2e3217ca63f0</t>
-  </si>
-  <si>
-    <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
-  </si>
-  <si>
-    <t>5032c177-7c52-47de-8741-7d88464bc6fb</t>
-  </si>
-  <si>
-    <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
-  </si>
-  <si>
-    <t>d1626583-bba0-4ec9-9fab-8d3d2c87c1d1</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
-  </si>
-  <si>
-    <t>778b95c3-3fc5-4c42-ac1f-65ac9ffb337f</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OPWDD_FLAG"</t>
-  </si>
-  <si>
-    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_valid_01_q_e_admin_data</t>
-  </si>
-  <si>
-    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
-  </si>
-  <si>
-    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'QE_Admin_Data' has not been implemented yet.</t>
-  </si>
-  <si>
-    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail.csv</t>
-  </si>
-  <si>
-    <t>synthetic_fail</t>
-  </si>
-  <si>
-    <t>6116a37a-4e94-434c-be8d-fba574a57bce</t>
-  </si>
-  <si>
-    <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
-  </si>
-  <si>
-    <t>bb80d8cd-9031-4498-a11b-38ae517e03f9</t>
-  </si>
-  <si>
-    <t>Required column FACILITY is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "FACILITY"</t>
-  </si>
-  <si>
-    <t>57d5489c-47c5-4b5e-9d00-fc041385ae69</t>
-  </si>
-  <si>
-    <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
-  </si>
-  <si>
-    <t>62687b89-afce-4bd1-9e6c-62223f7cda02</t>
-  </si>
-  <si>
-    <t>Required column LAST_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
-  </si>
-  <si>
-    <t>9af44f4a-6258-4de2-97fb-ea9d8177f53a</t>
-  </si>
-  <si>
-    <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
-  </si>
-  <si>
-    <t>b3fc3589-7c0c-4771-a0d5-ad279731ed07</t>
-  </si>
-  <si>
-    <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
-  </si>
-  <si>
-    <t>88af3db6-67b0-4be4-b33f-994457cae455</t>
-  </si>
-  <si>
-    <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
-  </si>
-  <si>
-    <t>517e26e8-cc26-4f27-a93e-f56c69125462</t>
-  </si>
-  <si>
-    <t>Required column SURVEY is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "SURVEY"</t>
-  </si>
-  <si>
-    <t>12bbdabc-2df6-4bb7-ae05-ce78637576d6</t>
-  </si>
-  <si>
-    <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
-  </si>
-  <si>
-    <t>d6de092b-1701-4af9-87b4-4071f1b58824</t>
-  </si>
-  <si>
-    <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
-  </si>
-  <si>
-    <t>30dad59d-3b76-4375-9c0d-6497f09395ca</t>
-  </si>
-  <si>
-    <t>Required column QUESTION is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "QUESTION"</t>
-  </si>
-  <si>
-    <t>3317574e-4eb9-41df-96d8-77f3f1d6c9c7</t>
-  </si>
-  <si>
-    <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
-  </si>
-  <si>
-    <t>8b2d7596-295c-408b-8271-26af2725bd3c</t>
-  </si>
-  <si>
-    <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
-  </si>
-  <si>
-    <t>032d1455-a432-4455-866d-636379cc0113</t>
-  </si>
-  <si>
-    <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
-  </si>
-  <si>
-    <t>2421138d-c86c-40f8-8e39-0554a6102f76</t>
-  </si>
-  <si>
-    <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
-  </si>
-  <si>
-    <t>a58ce8f9-34a1-4af0-9a4a-d3a5529d0077</t>
-  </si>
-  <si>
-    <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
-  </si>
-  <si>
-    <t>057d87d0-a510-46e2-8f78-9e338600eee8</t>
-  </si>
-  <si>
-    <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
-  </si>
-  <si>
-    <t>cafc25aa-fc22-46ac-891b-499239ff5185</t>
-  </si>
-  <si>
-    <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
-  </si>
-  <si>
-    <t>50c4fd24-d066-4db3-af9b-edbf4b3f0492</t>
-  </si>
-  <si>
-    <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
-  </si>
-  <si>
-    <t>7c58c117-1e20-4bfc-a928-5dfc96c7defe</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
-  </si>
-  <si>
-    <t>69912e9f-389d-4309-a46a-108e5cf22159</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
-  </si>
-  <si>
-    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
+    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
   </si>
   <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-12-12-2023-valid.csv</t>
@@ -453,7 +534,7 @@
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>fd70db33-83de-4564-81a8-22016e1fb21b</t>
+    <t>636f92f8-6814-4edb-af3c-d99d67ddf391</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -471,82 +552,82 @@
     <t>Convert non-integer values to INTEGER</t>
   </si>
   <si>
-    <t>ac4b863f-7c12-4bc0-8385-a953e1ca6c22</t>
-  </si>
-  <si>
-    <t>c3ef3362-8bc0-427f-a20c-e74abf3f398e</t>
-  </si>
-  <si>
-    <t>165159a9-2592-401c-bd36-0621c4cc8b6d</t>
-  </si>
-  <si>
-    <t>fb89466b-6735-4a0d-a141-0e490d798c7b</t>
-  </si>
-  <si>
-    <t>cf44dd80-6825-4395-8237-be93d4e22374</t>
-  </si>
-  <si>
-    <t>40cb2fbe-db4e-4e00-9846-b7b9ae3d3a49</t>
-  </si>
-  <si>
-    <t>23108655-c46e-4507-aa83-96cd25985e8d</t>
-  </si>
-  <si>
-    <t>e89539f2-c751-4cf3-962c-c0cba00848b4</t>
-  </si>
-  <si>
-    <t>06f6ffd3-ef5c-409f-b990-137697918f42</t>
-  </si>
-  <si>
-    <t>70652dd0-f325-4b7a-981b-469e2453e8c1</t>
-  </si>
-  <si>
-    <t>81650c85-fd50-471e-8fc8-e9a15156448a</t>
-  </si>
-  <si>
-    <t>882d4a4b-6e7e-4822-878f-30a769069d3d</t>
-  </si>
-  <si>
-    <t>94dd2556-9e09-4f07-96df-401430c7ecd9</t>
-  </si>
-  <si>
-    <t>e99b5a98-6e87-4d94-a7b7-0eedc5b71a77</t>
-  </si>
-  <si>
-    <t>97c77468-b41c-4e4f-98bf-114f6a221b0b</t>
-  </si>
-  <si>
-    <t>6a14248a-eefb-429d-959c-e0ccd57c6ae2</t>
-  </si>
-  <si>
-    <t>50fda451-475b-448b-8b87-e70843e852f8</t>
-  </si>
-  <si>
-    <t>cf5a1b31-3567-4096-adc7-769e42e206e1</t>
-  </si>
-  <si>
-    <t>87ec150d-1cd3-476e-8cb4-38ca49c550a9</t>
-  </si>
-  <si>
-    <t>7772fe11-edb7-4004-8f15-7b6ada8d6282</t>
-  </si>
-  <si>
-    <t>61beca90-96cb-431f-ab58-d0122791fd81</t>
-  </si>
-  <si>
-    <t>b4d48c0f-1002-4492-ab15-94459a117702</t>
-  </si>
-  <si>
-    <t>601ad1d2-31e2-405d-8e4d-3c16008308a7</t>
-  </si>
-  <si>
-    <t>39b53120-1f5a-426b-b2a9-8533089e09c7</t>
-  </si>
-  <si>
-    <t>aa6fce67-0d05-422a-af60-fce41e223634</t>
-  </si>
-  <si>
-    <t>f59499c5-ddf1-451e-919a-0deae4bb1665</t>
+    <t>a53ea21e-175e-4a87-9c41-acf3121a1bb1</t>
+  </si>
+  <si>
+    <t>23e8d74a-18ac-4ebe-b81f-0af71f51d3db</t>
+  </si>
+  <si>
+    <t>0ec176ea-8e64-464d-82b1-f91292ab1457</t>
+  </si>
+  <si>
+    <t>05537ddc-4abc-42cb-995f-a709757e2999</t>
+  </si>
+  <si>
+    <t>c5736093-046a-4fc1-8f62-f4b880b93bcd</t>
+  </si>
+  <si>
+    <t>746dace2-d191-4018-a49a-be453c122778</t>
+  </si>
+  <si>
+    <t>624a1a45-dd50-494e-8fa2-76273725cb80</t>
+  </si>
+  <si>
+    <t>12167f7e-ff5c-4b69-bda2-66d7bf1d9545</t>
+  </si>
+  <si>
+    <t>cb7b93f9-3e40-4560-a99d-ed983fb1dc4a</t>
+  </si>
+  <si>
+    <t>6c9ef092-2905-4e91-a70c-ce275a298cad</t>
+  </si>
+  <si>
+    <t>e41ec874-61d4-48fd-a7ce-dbb4e633c8f4</t>
+  </si>
+  <si>
+    <t>dde536f8-ee57-4c80-8b54-8e257b567bee</t>
+  </si>
+  <si>
+    <t>c5dc2c30-828f-436e-8768-862714d7dcbf</t>
+  </si>
+  <si>
+    <t>64749c98-ff94-43bf-82d2-eefaaac5cab0</t>
+  </si>
+  <si>
+    <t>ca5c2890-aac6-48e7-993a-bfc9434c9858</t>
+  </si>
+  <si>
+    <t>7ab8ff9f-3161-48bf-ad6a-2f18e2817bd2</t>
+  </si>
+  <si>
+    <t>c6a34c81-2d0b-4aa6-859b-2e1c40ddb40c</t>
+  </si>
+  <si>
+    <t>4803f10a-1652-4692-a096-c39859a0fd9a</t>
+  </si>
+  <si>
+    <t>c06f31d3-1407-40aa-9ec3-37536b752d6c</t>
+  </si>
+  <si>
+    <t>313b0d12-d0d8-4e71-92b1-c0e088245746</t>
+  </si>
+  <si>
+    <t>6caae179-c18f-4314-a88a-56de476644c2</t>
+  </si>
+  <si>
+    <t>fb80dc58-7e6d-4712-9723-b25b3d5147bc</t>
+  </si>
+  <si>
+    <t>77dd4874-123e-408f-9c0b-2128071893e2</t>
+  </si>
+  <si>
+    <t>a9744940-48d7-4230-909a-1280b44f1c74</t>
+  </si>
+  <si>
+    <t>f1eea481-1f08-4872-bfb9-980a26707ea2</t>
+  </si>
+  <si>
+    <t>93628a6a-23cc-4b1f-a736-aba583812f14</t>
   </si>
 </sst>
 </file>
@@ -710,19 +791,19 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -733,25 +814,25 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -762,25 +843,25 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
       </c>
       <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -791,25 +872,25 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
+      <c r="N6" t="s">
         <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -820,25 +901,25 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -849,25 +930,25 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -878,25 +959,25 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -907,25 +988,25 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -936,25 +1017,25 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -965,25 +1046,25 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -994,25 +1075,25 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1023,25 +1104,25 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -1052,25 +1133,25 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -1081,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -1110,25 +1191,25 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -1139,25 +1220,25 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" t="s">
-        <v>30</v>
+        <v>72</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -1168,25 +1249,25 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -1197,25 +1278,25 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
         <v>78</v>
       </c>
-      <c r="E20" t="s">
+      <c r="N20" t="s">
         <v>79</v>
-      </c>
-      <c r="F20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" t="s">
-        <v>85</v>
-      </c>
-      <c r="N20" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -1226,25 +1307,25 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
         <v>80</v>
       </c>
-      <c r="H21" t="s">
-        <v>87</v>
-      </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="N21" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -1255,25 +1336,25 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N22" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -1284,25 +1365,25 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J23" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N23" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1313,25 +1394,25 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
-      </c>
-      <c r="N24" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="M24" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -1342,25 +1423,25 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -1371,25 +1452,25 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -1400,25 +1481,25 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
@@ -1429,25 +1510,25 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1458,25 +1539,25 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -1487,25 +1568,25 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1516,25 +1597,25 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
@@ -1545,25 +1626,25 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -1574,25 +1655,25 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -1603,25 +1684,25 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J34" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N34" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
@@ -1632,25 +1713,25 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J35" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -1661,25 +1742,25 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37">
@@ -1690,25 +1771,25 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H37" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
@@ -1719,25 +1800,25 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H38" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J38" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39">
@@ -1748,25 +1829,25 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H39" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I39" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40">
@@ -1777,34 +1858,25 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="F40" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="H40" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I40" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="J40" t="s">
-        <v>149</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
-        <v>150</v>
-      </c>
-      <c r="M40" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="N40" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41">
@@ -1815,34 +1887,25 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" t="s">
         <v>144</v>
       </c>
-      <c r="E41" t="s">
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
         <v>145</v>
       </c>
-      <c r="F41" t="s">
+      <c r="N41" t="s">
         <v>146</v>
-      </c>
-      <c r="H41" t="s">
-        <v>153</v>
-      </c>
-      <c r="I41" t="s">
-        <v>148</v>
-      </c>
-      <c r="J41" t="s">
-        <v>149</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
-      <c r="L41" t="s">
-        <v>150</v>
-      </c>
-      <c r="M41" t="s">
-        <v>151</v>
-      </c>
-      <c r="N41" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="42">
@@ -1853,34 +1916,25 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="F42" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="H42" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
         <v>148</v>
       </c>
-      <c r="J42" t="s">
+      <c r="N42" t="s">
         <v>149</v>
-      </c>
-      <c r="K42">
-        <v>3</v>
-      </c>
-      <c r="L42" t="s">
-        <v>150</v>
-      </c>
-      <c r="M42" t="s">
-        <v>151</v>
-      </c>
-      <c r="N42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="43">
@@ -1891,30 +1945,21 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="F43" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="H43" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I43" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="J43" t="s">
-        <v>149</v>
-      </c>
-      <c r="K43">
-        <v>4</v>
-      </c>
-      <c r="L43" t="s">
-        <v>150</v>
-      </c>
-      <c r="M43" t="s">
         <v>151</v>
       </c>
       <c r="N43" t="s">
@@ -1929,34 +1974,25 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="F44" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="H44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I44" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="J44" t="s">
-        <v>149</v>
-      </c>
-      <c r="K44">
-        <v>5</v>
-      </c>
-      <c r="L44" t="s">
-        <v>150</v>
-      </c>
-      <c r="M44" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N44" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45">
@@ -1967,34 +2003,25 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="H45" t="s">
+        <v>156</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
         <v>157</v>
       </c>
-      <c r="I45" t="s">
-        <v>148</v>
-      </c>
-      <c r="J45" t="s">
-        <v>149</v>
-      </c>
-      <c r="K45">
-        <v>6</v>
-      </c>
-      <c r="L45" t="s">
-        <v>150</v>
-      </c>
-      <c r="M45" t="s">
-        <v>151</v>
-      </c>
       <c r="N45" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46">
@@ -2005,34 +2032,25 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="H46" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I46" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J46" t="s">
-        <v>149</v>
-      </c>
-      <c r="K46">
-        <v>7</v>
-      </c>
-      <c r="L46" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M46" t="s">
-        <v>151</v>
-      </c>
-      <c r="N46" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47">
@@ -2043,34 +2061,25 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="E47" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="H47" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="I47" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J47" t="s">
-        <v>149</v>
-      </c>
-      <c r="K47">
-        <v>8</v>
-      </c>
-      <c r="L47" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M47" t="s">
-        <v>151</v>
-      </c>
-      <c r="N47" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48">
@@ -2081,34 +2090,25 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E48" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="H48" t="s">
+        <v>169</v>
+      </c>
+      <c r="I48" t="s">
+        <v>163</v>
+      </c>
+      <c r="J48" t="s">
+        <v>170</v>
+      </c>
+      <c r="M48" t="s">
         <v>160</v>
-      </c>
-      <c r="I48" t="s">
-        <v>148</v>
-      </c>
-      <c r="J48" t="s">
-        <v>149</v>
-      </c>
-      <c r="K48">
-        <v>9</v>
-      </c>
-      <c r="L48" t="s">
-        <v>150</v>
-      </c>
-      <c r="M48" t="s">
-        <v>151</v>
-      </c>
-      <c r="N48" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="49">
@@ -2119,34 +2119,34 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E49" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F49" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H49" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="I49" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="J49" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K49">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M49" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N49" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50">
@@ -2157,34 +2157,34 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E50" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H50" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="I50" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="J50" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K50">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L50" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M50" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N50" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51">
@@ -2195,34 +2195,34 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E51" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F51" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H51" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I51" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="J51" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K51">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M51" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N51" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52">
@@ -2233,34 +2233,34 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H52" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="I52" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="J52" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K52">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L52" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M52" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N52" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53">
@@ -2271,34 +2271,34 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H53" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="I53" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="J53" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K53">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L53" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M53" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N53" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54">
@@ -2309,34 +2309,34 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E54" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H54" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="I54" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="J54" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K54">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L54" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M54" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N54" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55">
@@ -2347,34 +2347,34 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E55" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F55" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H55" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="I55" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="J55" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K55">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L55" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M55" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N55" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56">
@@ -2385,34 +2385,34 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E56" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H56" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="I56" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="J56" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K56">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L56" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M56" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N56" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57">
@@ -2423,34 +2423,34 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H57" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="I57" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="J57" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K57">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L57" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M57" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N57" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58">
@@ -2461,34 +2461,34 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E58" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H58" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="I58" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="J58" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K58">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L58" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M58" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N58" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59">
@@ -2499,34 +2499,34 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E59" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F59" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H59" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="I59" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="J59" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K59">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L59" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M59" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N59" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60">
@@ -2537,34 +2537,34 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E60" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F60" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H60" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="I60" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="J60" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K60">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L60" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M60" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N60" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61">
@@ -2575,34 +2575,34 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F61" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H61" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="I61" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="J61" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K61">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L61" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M61" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N61" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62">
@@ -2613,34 +2613,34 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F62" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H62" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="I62" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="J62" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K62">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L62" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M62" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N62" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63">
@@ -2651,34 +2651,34 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E63" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F63" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H63" t="s">
+        <v>193</v>
+      </c>
+      <c r="I63" t="s">
         <v>175</v>
       </c>
-      <c r="I63" t="s">
-        <v>148</v>
-      </c>
       <c r="J63" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K63">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L63" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M63" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N63" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64">
@@ -2689,34 +2689,34 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E64" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F64" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H64" t="s">
+        <v>194</v>
+      </c>
+      <c r="I64" t="s">
+        <v>175</v>
+      </c>
+      <c r="J64" t="s">
         <v>176</v>
       </c>
-      <c r="I64" t="s">
-        <v>148</v>
-      </c>
-      <c r="J64" t="s">
-        <v>149</v>
-      </c>
       <c r="K64">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L64" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M64" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N64" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65">
@@ -2727,34 +2727,34 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F65" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H65" t="s">
+        <v>195</v>
+      </c>
+      <c r="I65" t="s">
+        <v>175</v>
+      </c>
+      <c r="J65" t="s">
+        <v>176</v>
+      </c>
+      <c r="K65">
+        <v>17</v>
+      </c>
+      <c r="L65" t="s">
         <v>177</v>
       </c>
-      <c r="I65" t="s">
-        <v>148</v>
-      </c>
-      <c r="J65" t="s">
-        <v>149</v>
-      </c>
-      <c r="K65">
-        <v>26</v>
-      </c>
-      <c r="L65" t="s">
-        <v>150</v>
-      </c>
       <c r="M65" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N65" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66">
@@ -2765,34 +2765,376 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F66" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H66" t="s">
+        <v>196</v>
+      </c>
+      <c r="I66" t="s">
+        <v>175</v>
+      </c>
+      <c r="J66" t="s">
+        <v>176</v>
+      </c>
+      <c r="K66">
+        <v>18</v>
+      </c>
+      <c r="L66" t="s">
+        <v>177</v>
+      </c>
+      <c r="M66" t="s">
         <v>178</v>
       </c>
-      <c r="I66" t="s">
-        <v>148</v>
-      </c>
-      <c r="J66" t="s">
-        <v>149</v>
-      </c>
-      <c r="K66">
+      <c r="N66" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" t="s">
+        <v>172</v>
+      </c>
+      <c r="F67" t="s">
+        <v>173</v>
+      </c>
+      <c r="H67" t="s">
+        <v>197</v>
+      </c>
+      <c r="I67" t="s">
+        <v>175</v>
+      </c>
+      <c r="J67" t="s">
+        <v>176</v>
+      </c>
+      <c r="K67">
+        <v>19</v>
+      </c>
+      <c r="L67" t="s">
+        <v>177</v>
+      </c>
+      <c r="M67" t="s">
+        <v>178</v>
+      </c>
+      <c r="N67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68" t="s">
+        <v>173</v>
+      </c>
+      <c r="H68" t="s">
+        <v>198</v>
+      </c>
+      <c r="I68" t="s">
+        <v>175</v>
+      </c>
+      <c r="J68" t="s">
+        <v>176</v>
+      </c>
+      <c r="K68">
+        <v>20</v>
+      </c>
+      <c r="L68" t="s">
+        <v>177</v>
+      </c>
+      <c r="M68" t="s">
+        <v>178</v>
+      </c>
+      <c r="N68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" t="s">
+        <v>172</v>
+      </c>
+      <c r="F69" t="s">
+        <v>173</v>
+      </c>
+      <c r="H69" t="s">
+        <v>199</v>
+      </c>
+      <c r="I69" t="s">
+        <v>175</v>
+      </c>
+      <c r="J69" t="s">
+        <v>176</v>
+      </c>
+      <c r="K69">
+        <v>21</v>
+      </c>
+      <c r="L69" t="s">
+        <v>177</v>
+      </c>
+      <c r="M69" t="s">
+        <v>178</v>
+      </c>
+      <c r="N69" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>171</v>
+      </c>
+      <c r="E70" t="s">
+        <v>172</v>
+      </c>
+      <c r="F70" t="s">
+        <v>173</v>
+      </c>
+      <c r="H70" t="s">
+        <v>200</v>
+      </c>
+      <c r="I70" t="s">
+        <v>175</v>
+      </c>
+      <c r="J70" t="s">
+        <v>176</v>
+      </c>
+      <c r="K70">
+        <v>22</v>
+      </c>
+      <c r="L70" t="s">
+        <v>177</v>
+      </c>
+      <c r="M70" t="s">
+        <v>178</v>
+      </c>
+      <c r="N70" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" t="s">
+        <v>172</v>
+      </c>
+      <c r="F71" t="s">
+        <v>173</v>
+      </c>
+      <c r="H71" t="s">
+        <v>201</v>
+      </c>
+      <c r="I71" t="s">
+        <v>175</v>
+      </c>
+      <c r="J71" t="s">
+        <v>176</v>
+      </c>
+      <c r="K71">
+        <v>23</v>
+      </c>
+      <c r="L71" t="s">
+        <v>177</v>
+      </c>
+      <c r="M71" t="s">
+        <v>178</v>
+      </c>
+      <c r="N71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" t="s">
+        <v>172</v>
+      </c>
+      <c r="F72" t="s">
+        <v>173</v>
+      </c>
+      <c r="H72" t="s">
+        <v>202</v>
+      </c>
+      <c r="I72" t="s">
+        <v>175</v>
+      </c>
+      <c r="J72" t="s">
+        <v>176</v>
+      </c>
+      <c r="K72">
+        <v>24</v>
+      </c>
+      <c r="L72" t="s">
+        <v>177</v>
+      </c>
+      <c r="M72" t="s">
+        <v>178</v>
+      </c>
+      <c r="N72" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73" t="s">
+        <v>173</v>
+      </c>
+      <c r="H73" t="s">
+        <v>203</v>
+      </c>
+      <c r="I73" t="s">
+        <v>175</v>
+      </c>
+      <c r="J73" t="s">
+        <v>176</v>
+      </c>
+      <c r="K73">
+        <v>25</v>
+      </c>
+      <c r="L73" t="s">
+        <v>177</v>
+      </c>
+      <c r="M73" t="s">
+        <v>178</v>
+      </c>
+      <c r="N73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>171</v>
+      </c>
+      <c r="E74" t="s">
+        <v>172</v>
+      </c>
+      <c r="F74" t="s">
+        <v>173</v>
+      </c>
+      <c r="H74" t="s">
+        <v>204</v>
+      </c>
+      <c r="I74" t="s">
+        <v>175</v>
+      </c>
+      <c r="J74" t="s">
+        <v>176</v>
+      </c>
+      <c r="K74">
+        <v>26</v>
+      </c>
+      <c r="L74" t="s">
+        <v>177</v>
+      </c>
+      <c r="M74" t="s">
+        <v>178</v>
+      </c>
+      <c r="N74" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>171</v>
+      </c>
+      <c r="E75" t="s">
+        <v>172</v>
+      </c>
+      <c r="F75" t="s">
+        <v>173</v>
+      </c>
+      <c r="H75" t="s">
+        <v>205</v>
+      </c>
+      <c r="I75" t="s">
+        <v>175</v>
+      </c>
+      <c r="J75" t="s">
+        <v>176</v>
+      </c>
+      <c r="K75">
         <v>27</v>
       </c>
-      <c r="L66" t="s">
-        <v>150</v>
-      </c>
-      <c r="M66" t="s">
-        <v>151</v>
-      </c>
-      <c r="N66" t="s">
-        <v>152</v>
+      <c r="L75" t="s">
+        <v>177</v>
+      </c>
+      <c r="M75" t="s">
+        <v>178</v>
+      </c>
+      <c r="N75" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>orch_session_id</t>
   </si>
@@ -66,475 +66,394 @@
     <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
   </si>
   <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail.csv</t>
+  </si>
+  <si>
+    <t>synthetic_fail</t>
+  </si>
+  <si>
+    <t>25355414-e403-4a71-9f97-6080aa7bf3a2</t>
+  </si>
+  <si>
+    <t>Missing Column</t>
+  </si>
+  <si>
+    <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
+  </si>
+  <si>
+    <t>1b56ef89-bbe2-4316-9053-88092657c1f1</t>
+  </si>
+  <si>
+    <t>Required column FACILITY is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "FACILITY"</t>
+  </si>
+  <si>
+    <t>e2319144-804e-4b6e-9e1c-b4f3879f087e</t>
+  </si>
+  <si>
+    <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
+  </si>
+  <si>
+    <t>6854ff25-99aa-4cfd-8f56-bb8555cd2907</t>
+  </si>
+  <si>
+    <t>Required column LAST_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
+  </si>
+  <si>
+    <t>8f598ae7-822d-4c83-982e-4ffbb6c659b0</t>
+  </si>
+  <si>
+    <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
+  </si>
+  <si>
+    <t>7e545c76-8575-4640-8f1d-19b211581e88</t>
+  </si>
+  <si>
+    <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
+  </si>
+  <si>
+    <t>2ff4dd2b-6851-41f3-b12c-d851ee7a48d8</t>
+  </si>
+  <si>
+    <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
+  </si>
+  <si>
+    <t>81cde82d-dc27-4b05-bfb5-d8647e2567a5</t>
+  </si>
+  <si>
+    <t>Required column SURVEY is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "SURVEY"</t>
+  </si>
+  <si>
+    <t>e4664262-9986-4c1a-888c-de73c88ec7df</t>
+  </si>
+  <si>
+    <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
+  </si>
+  <si>
+    <t>c215c80d-a0fc-4cef-9b26-bd3395bb442e</t>
+  </si>
+  <si>
+    <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
+  </si>
+  <si>
+    <t>261d05e0-5f76-48a2-97a1-1ca728d5ab8a</t>
+  </si>
+  <si>
+    <t>Required column QUESTION is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "QUESTION"</t>
+  </si>
+  <si>
+    <t>1a853360-4bee-4809-b696-8b450323cd4f</t>
+  </si>
+  <si>
+    <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
+  </si>
+  <si>
+    <t>6aff6844-8fa9-4df4-bc8d-44a219fa3aca</t>
+  </si>
+  <si>
+    <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
+  </si>
+  <si>
+    <t>f83f927c-1bc3-4945-91c1-cf1093672932</t>
+  </si>
+  <si>
+    <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
+  </si>
+  <si>
+    <t>ef87acfe-68c3-429b-8899-2dd51e520782</t>
+  </si>
+  <si>
+    <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
+  </si>
+  <si>
+    <t>23321b2a-c50f-4d54-854e-fd5d052cf775</t>
+  </si>
+  <si>
+    <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
+  </si>
+  <si>
+    <t>5ababacc-22c3-4324-8191-32e38155389c</t>
+  </si>
+  <si>
+    <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
+  </si>
+  <si>
+    <t>fef18579-457a-4cc8-9545-4368a58aa2f7</t>
+  </si>
+  <si>
+    <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
+  </si>
+  <si>
+    <t>3bde8af0-cd21-4b71-8ed5-e5c0e239ba46</t>
+  </si>
+  <si>
+    <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
+  </si>
+  <si>
+    <t>cdf71f13-ef66-48d8-88c3-be8ed69b67fe</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
+  </si>
+  <si>
+    <t>5e9c72ef-9215-4fb8-8bf3-7e89d7723db6</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
+  </si>
+  <si>
+    <t>abf5c680-a135-5d89-b871-fa5b9b99aed6</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
+  </si>
+  <si>
+    <t>Sheet Missing</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>d70a4700-6b40-52fc-a7a2-69ef0d7f69ff</t>
+  </si>
+  <si>
+    <t>47277588-99e8-59f5-8384-b24344a86073</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
+  </si>
+  <si>
+    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
+  </si>
+  <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-valid-01.xlsx</t>
   </si>
   <si>
     <t>ahc_hrsn_valid_01_admin_demographic</t>
   </si>
   <si>
+    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'Admin_Demographic' has not been implemented yet.</t>
+  </si>
+  <si>
+    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_valid_01_screening</t>
+  </si>
+  <si>
+    <t>41012e63-00c6-4517-a855-8a5f49bfaaca</t>
+  </si>
+  <si>
+    <t>Required column FACILITY is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
+  </si>
+  <si>
+    <t>ef79d627-c51c-4286-bdd5-824d29a0fe60</t>
+  </si>
+  <si>
+    <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
+  </si>
+  <si>
+    <t>6adcc105-6856-42dc-9bd0-c58399db18ac</t>
+  </si>
+  <si>
+    <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
+  </si>
+  <si>
+    <t>3a02e275-c59f-4336-a1a5-eb53a5e17bac</t>
+  </si>
+  <si>
+    <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
+  </si>
+  <si>
+    <t>6ef5cda9-8ba5-47ac-bc46-a45b3b79e73c</t>
+  </si>
+  <si>
+    <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
+  </si>
+  <si>
+    <t>65a20fd7-d9f1-46fc-85e9-11948c17376a</t>
+  </si>
+  <si>
+    <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
+  </si>
+  <si>
+    <t>cadff939-0510-4454-80dd-a3a3bad3bac2</t>
+  </si>
+  <si>
+    <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
+  </si>
+  <si>
+    <t>7a249006-c736-4bf7-8069-c33577b577ac</t>
+  </si>
+  <si>
+    <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
+  </si>
+  <si>
+    <t>f5702bc4-e786-43d9-9709-5ca8ed9443a2</t>
+  </si>
+  <si>
+    <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
+  </si>
+  <si>
+    <t>fa2c1c05-b864-4bbe-8d8e-0721091f66f5</t>
+  </si>
+  <si>
+    <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
+  </si>
+  <si>
+    <t>b6cd623c-869c-48a6-9548-fedf900c7b3d</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
+  </si>
+  <si>
+    <t>ec1daff2-2c0d-4dba-a92e-14fe7ec05cea</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OPWDD_FLAG"</t>
+  </si>
+  <si>
+    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_valid_01_q_e_admin_data</t>
+  </si>
+  <si>
+    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
+  </si>
+  <si>
+    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'QE_Admin_Data' has not been implemented yet.</t>
+  </si>
+  <si>
     <t>7b979b68-7227-53fd-b689-e4fe153afb76</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'Admin_Demographic' has not been implemented yet.</t>
-  </si>
-  <si>
-    <t>abf5c680-a135-5d89-b871-fa5b9b99aed6</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_valid_01_screening</t>
-  </si>
-  <si>
-    <t>1b857fd6-c4bd-4983-8895-838f0ca4d319</t>
-  </si>
-  <si>
-    <t>Missing Column</t>
-  </si>
-  <si>
-    <t>Required column PAT_MRN_ID is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_MRN_ID"</t>
-  </si>
-  <si>
-    <t>9bc4ea2c-c958-4b9e-b3c4-895a095bc4bf</t>
-  </si>
-  <si>
-    <t>Required column FACILITY is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
-  </si>
-  <si>
-    <t>fd737f42-e5c0-45c0-8bf6-38fd72ae1b74</t>
-  </si>
-  <si>
-    <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
-  </si>
-  <si>
-    <t>2c1574bc-9e82-405d-9c4c-d9a43cfe914f</t>
-  </si>
-  <si>
-    <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
-  </si>
-  <si>
-    <t>8f53f351-2986-4313-a3b0-edecd336154b</t>
-  </si>
-  <si>
-    <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
-  </si>
-  <si>
-    <t>1a3cbfc3-1b32-46c6-a309-f1b050970913</t>
-  </si>
-  <si>
-    <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
-  </si>
-  <si>
-    <t>54a51c62-7734-48bb-bd6f-fbfaf8084c6a</t>
-  </si>
-  <si>
-    <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
-  </si>
-  <si>
-    <t>cc82261e-4b4e-4e3f-a555-572075329c66</t>
-  </si>
-  <si>
-    <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
-  </si>
-  <si>
-    <t>ac513692-e9e0-46b9-9d8e-b2ad467d3e44</t>
-  </si>
-  <si>
-    <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
-  </si>
-  <si>
-    <t>d3cc2b49-759f-4607-bc23-402a37c006e7</t>
-  </si>
-  <si>
-    <t>Required column RECORDED_TIME is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "RECORDED_TIME"</t>
-  </si>
-  <si>
-    <t>609dbcfc-b949-47f9-ac8d-387f5580ffc8</t>
-  </si>
-  <si>
-    <t>Required column QUESTION is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "QUESTION"</t>
-  </si>
-  <si>
-    <t>05490ae4-e0fa-403f-ae68-67de963f80af</t>
-  </si>
-  <si>
-    <t>Required column MEAS_VALUE is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEAS_VALUE"</t>
-  </si>
-  <si>
-    <t>376da591-5f92-4c2c-97b5-e8cc32efc5a5</t>
-  </si>
-  <si>
-    <t>Required column QUESTION_CODE is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "QUESTION_CODE"</t>
-  </si>
-  <si>
-    <t>b8265db7-06ac-4073-8b32-9345021ef32a</t>
-  </si>
-  <si>
-    <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
-  </si>
-  <si>
-    <t>037449b9-513c-40df-b8ee-afd4da827671</t>
-  </si>
-  <si>
-    <t>Required column ANSWER_CODE is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ANSWER_CODE"</t>
-  </si>
-  <si>
-    <t>94d23651-ae5c-4d48-8a5f-36984ee5fd6e</t>
-  </si>
-  <si>
-    <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
-  </si>
-  <si>
-    <t>98306097-8a78-4ffc-92e7-554c8d95aed4</t>
-  </si>
-  <si>
-    <t>Required column SDOH_DOMAIN is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SDOH_DOMAIN"</t>
-  </si>
-  <si>
-    <t>d5341699-5ee3-4924-8c23-87a4e6ac2bad</t>
-  </si>
-  <si>
-    <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
-  </si>
-  <si>
-    <t>6b8ddece-df67-4487-8b89-e895576a7249</t>
-  </si>
-  <si>
-    <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
-  </si>
-  <si>
-    <t>c89e55ee-a55f-4ecd-848c-878981fc4fac</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
-  </si>
-  <si>
-    <t>5a8d83aa-36e4-4477-908c-04d3bff84bd6</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OPWDD_FLAG"</t>
-  </si>
-  <si>
-    <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_valid_01_q_e_admin_data</t>
-  </si>
-  <si>
-    <t>d70a4700-6b40-52fc-a7a2-69ef0d7f69ff</t>
-  </si>
-  <si>
-    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'QE_Admin_Data' has not been implemented yet.</t>
-  </si>
-  <si>
-    <t>47277588-99e8-59f5-8384-b24344a86073</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail.csv</t>
-  </si>
-  <si>
-    <t>synthetic_fail</t>
-  </si>
-  <si>
-    <t>c87dfe5d-1ab6-406f-bd07-fcf6c45511a4</t>
-  </si>
-  <si>
-    <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
-  </si>
-  <si>
-    <t>1a6980aa-0d43-4796-a784-03e0d319cd05</t>
-  </si>
-  <si>
-    <t>Required column FACILITY is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "FACILITY"</t>
-  </si>
-  <si>
-    <t>8cc7ce7b-d361-4502-b323-4a40f2ba2243</t>
-  </si>
-  <si>
-    <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
-  </si>
-  <si>
-    <t>be12ecbf-c08f-4dfb-a04f-af326ba4330e</t>
-  </si>
-  <si>
-    <t>Required column LAST_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
-  </si>
-  <si>
-    <t>7f034c48-78da-4631-8c7a-614b44f8f6ce</t>
-  </si>
-  <si>
-    <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
-  </si>
-  <si>
-    <t>b10805d2-0afd-4c40-91b7-c26d8d28a765</t>
-  </si>
-  <si>
-    <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
-  </si>
-  <si>
-    <t>ede6a6c4-80e8-442b-be4f-f9917d29afd9</t>
-  </si>
-  <si>
-    <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
-  </si>
-  <si>
-    <t>1d616170-d1b3-470b-9263-a1fe3bfce729</t>
-  </si>
-  <si>
-    <t>Required column SURVEY is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "SURVEY"</t>
-  </si>
-  <si>
-    <t>4b7f6515-fb93-4a1a-99be-e3c0dd8c9ce1</t>
-  </si>
-  <si>
-    <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
-  </si>
-  <si>
-    <t>4a0fddb2-8390-419f-9df5-91e28b6fc7a9</t>
-  </si>
-  <si>
-    <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
-  </si>
-  <si>
-    <t>34160cc4-2cb7-46fe-9a40-1f098bdb42b2</t>
-  </si>
-  <si>
-    <t>Required column QUESTION is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "QUESTION"</t>
-  </si>
-  <si>
-    <t>d2e44b8d-b5f8-4b2d-ba41-d8a15da0071c</t>
-  </si>
-  <si>
-    <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
-  </si>
-  <si>
-    <t>296feb73-a822-40ee-91a8-f6160d065f12</t>
-  </si>
-  <si>
-    <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
-  </si>
-  <si>
-    <t>8674a4b5-ab7a-45a4-9ebc-61fc71c9ab79</t>
-  </si>
-  <si>
-    <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
-  </si>
-  <si>
-    <t>07b2795f-dff3-4247-a716-4bac3f9fe2de</t>
-  </si>
-  <si>
-    <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
-  </si>
-  <si>
-    <t>f325d4a9-f19c-4f3d-be4e-580466135a99</t>
-  </si>
-  <si>
-    <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
-  </si>
-  <si>
-    <t>fab6dee2-5c52-4477-907a-4f0b2d9ea5cb</t>
-  </si>
-  <si>
-    <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
-  </si>
-  <si>
-    <t>be07b70a-3caa-47e4-bc00-db2034cbc07d</t>
-  </si>
-  <si>
-    <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
-  </si>
-  <si>
-    <t>94f01b29-959f-4ef7-a894-58830b5543be</t>
-  </si>
-  <si>
-    <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
-  </si>
-  <si>
-    <t>d7ef1e9f-cd90-4650-9d51-15b19d669afa</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
-  </si>
-  <si>
-    <t>b5f5ee76-e7e4-4bcb-92f1-f59718839eb8</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
-  </si>
-  <si>
-    <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
-  </si>
-  <si>
-    <t>Sheet Missing</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
-  </si>
-  <si>
-    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
-  </si>
-  <si>
-    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
-  </si>
-  <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-12-12-2023-valid.csv</t>
   </si>
   <si>
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>636f92f8-6814-4edb-af3c-d99d67ddf391</t>
+    <t>dbcf4d4f-ab9c-4420-b977-4a571e5854f3</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -552,82 +471,82 @@
     <t>Convert non-integer values to INTEGER</t>
   </si>
   <si>
-    <t>a53ea21e-175e-4a87-9c41-acf3121a1bb1</t>
-  </si>
-  <si>
-    <t>23e8d74a-18ac-4ebe-b81f-0af71f51d3db</t>
-  </si>
-  <si>
-    <t>0ec176ea-8e64-464d-82b1-f91292ab1457</t>
-  </si>
-  <si>
-    <t>05537ddc-4abc-42cb-995f-a709757e2999</t>
-  </si>
-  <si>
-    <t>c5736093-046a-4fc1-8f62-f4b880b93bcd</t>
-  </si>
-  <si>
-    <t>746dace2-d191-4018-a49a-be453c122778</t>
-  </si>
-  <si>
-    <t>624a1a45-dd50-494e-8fa2-76273725cb80</t>
-  </si>
-  <si>
-    <t>12167f7e-ff5c-4b69-bda2-66d7bf1d9545</t>
-  </si>
-  <si>
-    <t>cb7b93f9-3e40-4560-a99d-ed983fb1dc4a</t>
-  </si>
-  <si>
-    <t>6c9ef092-2905-4e91-a70c-ce275a298cad</t>
-  </si>
-  <si>
-    <t>e41ec874-61d4-48fd-a7ce-dbb4e633c8f4</t>
-  </si>
-  <si>
-    <t>dde536f8-ee57-4c80-8b54-8e257b567bee</t>
-  </si>
-  <si>
-    <t>c5dc2c30-828f-436e-8768-862714d7dcbf</t>
-  </si>
-  <si>
-    <t>64749c98-ff94-43bf-82d2-eefaaac5cab0</t>
-  </si>
-  <si>
-    <t>ca5c2890-aac6-48e7-993a-bfc9434c9858</t>
-  </si>
-  <si>
-    <t>7ab8ff9f-3161-48bf-ad6a-2f18e2817bd2</t>
-  </si>
-  <si>
-    <t>c6a34c81-2d0b-4aa6-859b-2e1c40ddb40c</t>
-  </si>
-  <si>
-    <t>4803f10a-1652-4692-a096-c39859a0fd9a</t>
-  </si>
-  <si>
-    <t>c06f31d3-1407-40aa-9ec3-37536b752d6c</t>
-  </si>
-  <si>
-    <t>313b0d12-d0d8-4e71-92b1-c0e088245746</t>
-  </si>
-  <si>
-    <t>6caae179-c18f-4314-a88a-56de476644c2</t>
-  </si>
-  <si>
-    <t>fb80dc58-7e6d-4712-9723-b25b3d5147bc</t>
-  </si>
-  <si>
-    <t>77dd4874-123e-408f-9c0b-2128071893e2</t>
-  </si>
-  <si>
-    <t>a9744940-48d7-4230-909a-1280b44f1c74</t>
-  </si>
-  <si>
-    <t>f1eea481-1f08-4872-bfb9-980a26707ea2</t>
-  </si>
-  <si>
-    <t>93628a6a-23cc-4b1f-a736-aba583812f14</t>
+    <t>834c840c-2128-4230-9bb2-96c010c4ac50</t>
+  </si>
+  <si>
+    <t>cc0adc27-91ad-4954-9dd4-00c5caa065e2</t>
+  </si>
+  <si>
+    <t>23bd8653-47f0-4a96-8fe7-f65e772fd1dd</t>
+  </si>
+  <si>
+    <t>fedd488b-1912-4054-a35e-83a86e663a1b</t>
+  </si>
+  <si>
+    <t>2158ebdb-2bcc-4a89-acba-2fcf7aac09bf</t>
+  </si>
+  <si>
+    <t>d6d781a1-9b26-41e4-af2a-0a07a644a729</t>
+  </si>
+  <si>
+    <t>287cb160-6ce0-40b1-a377-d55259212842</t>
+  </si>
+  <si>
+    <t>2b23accd-af68-4489-8956-3c8f2f73c6df</t>
+  </si>
+  <si>
+    <t>2456e234-d97d-428e-ba67-74d639c2a5b4</t>
+  </si>
+  <si>
+    <t>68ace895-9b05-4372-b103-58d7276a08bd</t>
+  </si>
+  <si>
+    <t>41d7fd81-ca3d-43fc-a1d7-b4318cfbb035</t>
+  </si>
+  <si>
+    <t>5f85e3dc-4357-4881-acb4-e136cf871668</t>
+  </si>
+  <si>
+    <t>611faf43-28d4-4e1d-be20-d4e96ab0796f</t>
+  </si>
+  <si>
+    <t>69b16ba6-ca9c-4df6-9cf9-6ac0539560d9</t>
+  </si>
+  <si>
+    <t>b342bc4c-0d88-478f-943c-831652ae20c9</t>
+  </si>
+  <si>
+    <t>1619b1a9-30ba-43d8-af1e-94795affc4b5</t>
+  </si>
+  <si>
+    <t>93e45942-6ce2-4d19-a1f3-a73cf206bfeb</t>
+  </si>
+  <si>
+    <t>941e3870-a691-4ac4-9069-b52adbf72512</t>
+  </si>
+  <si>
+    <t>12248dd0-4cb7-4e97-9c3e-ee41c7ec7632</t>
+  </si>
+  <si>
+    <t>91e7c757-f144-4cc0-ae09-d646cecf4ff2</t>
+  </si>
+  <si>
+    <t>5cfb8357-271d-47a5-8e9d-8a22c038abc8</t>
+  </si>
+  <si>
+    <t>a479e402-6e8e-4431-af92-8457dc0b783e</t>
+  </si>
+  <si>
+    <t>44123e1c-b561-4fb1-944c-a7c10e0561dd</t>
+  </si>
+  <si>
+    <t>40c38ca1-859f-4722-900f-37521fdaffd1</t>
+  </si>
+  <si>
+    <t>cf312695-2492-4be3-9535-7033fa12be3b</t>
+  </si>
+  <si>
+    <t>ec57fcd2-1d19-4746-95dc-e68034fb1ad9</t>
   </si>
 </sst>
 </file>
@@ -773,8 +692,8 @@
       <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
-        <v>18</v>
+      <c r="N2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -785,25 +704,25 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +733,25 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -843,25 +762,25 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
         <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -872,25 +791,25 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
         <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -901,25 +820,25 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
         <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -930,25 +849,25 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
         <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -959,25 +878,25 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
         <v>44</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -988,25 +907,25 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
         <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -1017,25 +936,25 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" t="s">
         <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -1046,25 +965,25 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" t="s">
         <v>53</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -1075,25 +994,25 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" t="s">
         <v>56</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1104,25 +1023,25 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" t="s">
         <v>59</v>
-      </c>
-      <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -1133,25 +1052,25 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" t="s">
         <v>62</v>
-      </c>
-      <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" t="s">
-        <v>63</v>
-      </c>
-      <c r="N15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -1162,25 +1081,25 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" t="s">
         <v>65</v>
-      </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -1191,25 +1110,25 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" t="s">
         <v>68</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" t="s">
-        <v>69</v>
-      </c>
-      <c r="N17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -1220,25 +1139,25 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" t="s">
         <v>71</v>
-      </c>
-      <c r="I18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -1249,25 +1168,25 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" t="s">
         <v>74</v>
-      </c>
-      <c r="I19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" t="s">
-        <v>75</v>
-      </c>
-      <c r="N19" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -1278,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" t="s">
         <v>77</v>
-      </c>
-      <c r="I20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" t="s">
-        <v>78</v>
-      </c>
-      <c r="N20" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -1307,25 +1226,25 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21" t="s">
         <v>80</v>
-      </c>
-      <c r="I21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" t="s">
-        <v>81</v>
-      </c>
-      <c r="N21" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -1336,25 +1255,25 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" t="s">
         <v>83</v>
-      </c>
-      <c r="I22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" t="s">
-        <v>84</v>
-      </c>
-      <c r="N22" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -1365,25 +1284,25 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s">
-        <v>87</v>
-      </c>
-      <c r="N23" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="M23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -1394,25 +1313,25 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
         <v>91</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s">
         <v>92</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -1426,22 +1345,22 @@
         <v>93</v>
       </c>
       <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" t="s">
         <v>94</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" t="s">
         <v>95</v>
       </c>
-      <c r="H25" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" t="s">
-        <v>97</v>
-      </c>
-      <c r="N25" t="s">
-        <v>98</v>
+      <c r="M25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -1452,25 +1371,25 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H26" t="s">
         <v>99</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
-      </c>
-      <c r="N26" t="s">
         <v>101</v>
+      </c>
+      <c r="M26" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1481,25 +1400,25 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1510,25 +1429,25 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -1539,25 +1458,25 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I29" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -1568,25 +1487,25 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I30" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
@@ -1597,25 +1516,25 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I31" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -1626,25 +1545,25 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I32" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -1655,25 +1574,25 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
@@ -1684,25 +1603,25 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
@@ -1713,25 +1632,25 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I35" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -1742,25 +1661,25 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37">
@@ -1771,25 +1690,25 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I37" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38">
@@ -1800,25 +1719,25 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H38" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39">
@@ -1829,25 +1748,25 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="H39" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="J39" t="s">
-        <v>139</v>
-      </c>
-      <c r="N39" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="M39" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -1858,25 +1777,34 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="H40" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="J40" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>150</v>
+      </c>
+      <c r="M40" t="s">
+        <v>151</v>
       </c>
       <c r="N40" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41">
@@ -1887,25 +1815,34 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="H41" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I41" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="J41" t="s">
-        <v>145</v>
+        <v>149</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41" t="s">
+        <v>150</v>
+      </c>
+      <c r="M41" t="s">
+        <v>151</v>
       </c>
       <c r="N41" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42">
@@ -1916,25 +1853,34 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="E42" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="H42" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="I42" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="J42" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42" t="s">
+        <v>150</v>
+      </c>
+      <c r="M42" t="s">
+        <v>151</v>
       </c>
       <c r="N42" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43">
@@ -1945,21 +1891,30 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="H43" t="s">
+        <v>155</v>
+      </c>
+      <c r="I43" t="s">
+        <v>148</v>
+      </c>
+      <c r="J43" t="s">
+        <v>149</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43" t="s">
         <v>150</v>
       </c>
-      <c r="I43" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="M43" t="s">
         <v>151</v>
       </c>
       <c r="N43" t="s">
@@ -1974,25 +1929,34 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="E44" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="H44" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I44" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="J44" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44" t="s">
+        <v>150</v>
+      </c>
+      <c r="M44" t="s">
+        <v>151</v>
       </c>
       <c r="N44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45">
@@ -2003,25 +1967,34 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="H45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I45" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="J45" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="K45">
+        <v>6</v>
+      </c>
+      <c r="L45" t="s">
+        <v>150</v>
+      </c>
+      <c r="M45" t="s">
+        <v>151</v>
       </c>
       <c r="N45" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46">
@@ -2032,25 +2005,34 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F46" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="H46" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I46" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="J46" t="s">
-        <v>164</v>
+        <v>149</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46" t="s">
+        <v>150</v>
       </c>
       <c r="M46" t="s">
-        <v>160</v>
+        <v>151</v>
+      </c>
+      <c r="N46" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="47">
@@ -2061,25 +2043,34 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F47" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="H47" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I47" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="J47" t="s">
-        <v>167</v>
+        <v>149</v>
+      </c>
+      <c r="K47">
+        <v>8</v>
+      </c>
+      <c r="L47" t="s">
+        <v>150</v>
       </c>
       <c r="M47" t="s">
-        <v>160</v>
+        <v>151</v>
+      </c>
+      <c r="N47" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="48">
@@ -2090,25 +2081,34 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E48" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H48" t="s">
         <v>160</v>
       </c>
-      <c r="F48" t="s">
-        <v>161</v>
-      </c>
-      <c r="H48" t="s">
-        <v>169</v>
-      </c>
       <c r="I48" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="J48" t="s">
-        <v>170</v>
+        <v>149</v>
+      </c>
+      <c r="K48">
+        <v>9</v>
+      </c>
+      <c r="L48" t="s">
+        <v>150</v>
       </c>
       <c r="M48" t="s">
-        <v>160</v>
+        <v>151</v>
+      </c>
+      <c r="N48" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="49">
@@ -2119,34 +2119,34 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E49" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H49" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="I49" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J49" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L49" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M49" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N49" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50">
@@ -2157,34 +2157,34 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E50" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F50" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H50" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="I50" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J50" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L50" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M50" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N50" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51">
@@ -2195,34 +2195,34 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F51" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H51" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="I51" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J51" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L51" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M51" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N51" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52">
@@ -2233,34 +2233,34 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H52" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="I52" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J52" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K52">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L52" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M52" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N52" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53">
@@ -2271,34 +2271,34 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E53" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F53" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H53" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="I53" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J53" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K53">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L53" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M53" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N53" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54">
@@ -2309,34 +2309,34 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E54" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H54" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="I54" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J54" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K54">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L54" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M54" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N54" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55">
@@ -2347,34 +2347,34 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E55" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F55" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H55" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J55" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K55">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L55" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M55" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N55" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56">
@@ -2385,34 +2385,34 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E56" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F56" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H56" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="I56" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J56" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K56">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L56" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M56" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N56" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57">
@@ -2423,34 +2423,34 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E57" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F57" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H57" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="I57" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J57" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K57">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L57" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M57" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N57" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58">
@@ -2461,34 +2461,34 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E58" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F58" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H58" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="I58" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J58" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K58">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L58" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M58" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N58" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59">
@@ -2499,34 +2499,34 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59" t="s">
         <v>171</v>
       </c>
-      <c r="E59" t="s">
-        <v>172</v>
-      </c>
-      <c r="F59" t="s">
-        <v>173</v>
-      </c>
-      <c r="H59" t="s">
-        <v>189</v>
-      </c>
       <c r="I59" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J59" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K59">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L59" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M59" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N59" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60">
@@ -2537,34 +2537,34 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60" t="s">
         <v>172</v>
       </c>
-      <c r="F60" t="s">
-        <v>173</v>
-      </c>
-      <c r="H60" t="s">
-        <v>190</v>
-      </c>
       <c r="I60" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J60" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K60">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L60" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M60" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N60" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61">
@@ -2575,34 +2575,34 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F61" t="s">
+        <v>146</v>
+      </c>
+      <c r="H61" t="s">
         <v>173</v>
       </c>
-      <c r="H61" t="s">
-        <v>191</v>
-      </c>
       <c r="I61" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J61" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K61">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="L61" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M61" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N61" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62">
@@ -2613,34 +2613,34 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E62" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F62" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H62" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="I62" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J62" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K62">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L62" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M62" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N62" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63">
@@ -2651,34 +2651,34 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F63" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H63" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="I63" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J63" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K63">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L63" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M63" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N63" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64">
@@ -2689,34 +2689,34 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E64" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F64" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H64" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="I64" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J64" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K64">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L64" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M64" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N64" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65">
@@ -2727,34 +2727,34 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E65" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F65" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H65" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="I65" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J65" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K65">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L65" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M65" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N65" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66">
@@ -2765,376 +2765,34 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E66" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F66" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H66" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="I66" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="J66" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="K66">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L66" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M66" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N66" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" t="s">
-        <v>171</v>
-      </c>
-      <c r="E67" t="s">
-        <v>172</v>
-      </c>
-      <c r="F67" t="s">
-        <v>173</v>
-      </c>
-      <c r="H67" t="s">
-        <v>197</v>
-      </c>
-      <c r="I67" t="s">
-        <v>175</v>
-      </c>
-      <c r="J67" t="s">
-        <v>176</v>
-      </c>
-      <c r="K67">
-        <v>19</v>
-      </c>
-      <c r="L67" t="s">
-        <v>177</v>
-      </c>
-      <c r="M67" t="s">
-        <v>178</v>
-      </c>
-      <c r="N67" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" t="s">
-        <v>171</v>
-      </c>
-      <c r="E68" t="s">
-        <v>172</v>
-      </c>
-      <c r="F68" t="s">
-        <v>173</v>
-      </c>
-      <c r="H68" t="s">
-        <v>198</v>
-      </c>
-      <c r="I68" t="s">
-        <v>175</v>
-      </c>
-      <c r="J68" t="s">
-        <v>176</v>
-      </c>
-      <c r="K68">
-        <v>20</v>
-      </c>
-      <c r="L68" t="s">
-        <v>177</v>
-      </c>
-      <c r="M68" t="s">
-        <v>178</v>
-      </c>
-      <c r="N68" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" t="s">
-        <v>171</v>
-      </c>
-      <c r="E69" t="s">
-        <v>172</v>
-      </c>
-      <c r="F69" t="s">
-        <v>173</v>
-      </c>
-      <c r="H69" t="s">
-        <v>199</v>
-      </c>
-      <c r="I69" t="s">
-        <v>175</v>
-      </c>
-      <c r="J69" t="s">
-        <v>176</v>
-      </c>
-      <c r="K69">
-        <v>21</v>
-      </c>
-      <c r="L69" t="s">
-        <v>177</v>
-      </c>
-      <c r="M69" t="s">
-        <v>178</v>
-      </c>
-      <c r="N69" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" t="s">
-        <v>171</v>
-      </c>
-      <c r="E70" t="s">
-        <v>172</v>
-      </c>
-      <c r="F70" t="s">
-        <v>173</v>
-      </c>
-      <c r="H70" t="s">
-        <v>200</v>
-      </c>
-      <c r="I70" t="s">
-        <v>175</v>
-      </c>
-      <c r="J70" t="s">
-        <v>176</v>
-      </c>
-      <c r="K70">
-        <v>22</v>
-      </c>
-      <c r="L70" t="s">
-        <v>177</v>
-      </c>
-      <c r="M70" t="s">
-        <v>178</v>
-      </c>
-      <c r="N70" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" t="s">
-        <v>171</v>
-      </c>
-      <c r="E71" t="s">
-        <v>172</v>
-      </c>
-      <c r="F71" t="s">
-        <v>173</v>
-      </c>
-      <c r="H71" t="s">
-        <v>201</v>
-      </c>
-      <c r="I71" t="s">
-        <v>175</v>
-      </c>
-      <c r="J71" t="s">
-        <v>176</v>
-      </c>
-      <c r="K71">
-        <v>23</v>
-      </c>
-      <c r="L71" t="s">
-        <v>177</v>
-      </c>
-      <c r="M71" t="s">
-        <v>178</v>
-      </c>
-      <c r="N71" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" t="s">
-        <v>171</v>
-      </c>
-      <c r="E72" t="s">
-        <v>172</v>
-      </c>
-      <c r="F72" t="s">
-        <v>173</v>
-      </c>
-      <c r="H72" t="s">
-        <v>202</v>
-      </c>
-      <c r="I72" t="s">
-        <v>175</v>
-      </c>
-      <c r="J72" t="s">
-        <v>176</v>
-      </c>
-      <c r="K72">
-        <v>24</v>
-      </c>
-      <c r="L72" t="s">
-        <v>177</v>
-      </c>
-      <c r="M72" t="s">
-        <v>178</v>
-      </c>
-      <c r="N72" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" t="s">
-        <v>171</v>
-      </c>
-      <c r="E73" t="s">
-        <v>172</v>
-      </c>
-      <c r="F73" t="s">
-        <v>173</v>
-      </c>
-      <c r="H73" t="s">
-        <v>203</v>
-      </c>
-      <c r="I73" t="s">
-        <v>175</v>
-      </c>
-      <c r="J73" t="s">
-        <v>176</v>
-      </c>
-      <c r="K73">
-        <v>25</v>
-      </c>
-      <c r="L73" t="s">
-        <v>177</v>
-      </c>
-      <c r="M73" t="s">
-        <v>178</v>
-      </c>
-      <c r="N73" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" t="s">
-        <v>171</v>
-      </c>
-      <c r="E74" t="s">
-        <v>172</v>
-      </c>
-      <c r="F74" t="s">
-        <v>173</v>
-      </c>
-      <c r="H74" t="s">
-        <v>204</v>
-      </c>
-      <c r="I74" t="s">
-        <v>175</v>
-      </c>
-      <c r="J74" t="s">
-        <v>176</v>
-      </c>
-      <c r="K74">
-        <v>26</v>
-      </c>
-      <c r="L74" t="s">
-        <v>177</v>
-      </c>
-      <c r="M74" t="s">
-        <v>178</v>
-      </c>
-      <c r="N74" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" t="s">
-        <v>171</v>
-      </c>
-      <c r="E75" t="s">
-        <v>172</v>
-      </c>
-      <c r="F75" t="s">
-        <v>173</v>
-      </c>
-      <c r="H75" t="s">
-        <v>205</v>
-      </c>
-      <c r="I75" t="s">
-        <v>175</v>
-      </c>
-      <c r="J75" t="s">
-        <v>176</v>
-      </c>
-      <c r="K75">
-        <v>27</v>
-      </c>
-      <c r="L75" t="s">
-        <v>177</v>
-      </c>
-      <c r="M75" t="s">
-        <v>178</v>
-      </c>
-      <c r="N75" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -72,7 +72,7 @@
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>25355414-e403-4a71-9f97-6080aa7bf3a2</t>
+    <t>38749fe7-b3cd-4f6e-97a2-c7f4e3f8fdf2</t>
   </si>
   <si>
     <t>Missing Column</t>
@@ -84,7 +84,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>1b56ef89-bbe2-4316-9053-88092657c1f1</t>
+    <t>61d9a7d6-09b4-4fa4-97c7-220513b0962f</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -93,7 +93,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>e2319144-804e-4b6e-9e1c-b4f3879f087e</t>
+    <t>72ee7100-3a87-4ffa-aef0-2640c5df8cfa</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -102,7 +102,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>6854ff25-99aa-4cfd-8f56-bb8555cd2907</t>
+    <t>ad3b3796-a803-481a-a257-b321bbf6d1bb</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -111,7 +111,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>8f598ae7-822d-4c83-982e-4ffbb6c659b0</t>
+    <t>ae8b6413-3631-4443-9d38-f9e073a456ad</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -120,7 +120,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>7e545c76-8575-4640-8f1d-19b211581e88</t>
+    <t>e75ba306-36f4-45af-9a08-0a5e544bc4a0</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -129,7 +129,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>2ff4dd2b-6851-41f3-b12c-d851ee7a48d8</t>
+    <t>60da1c0b-5068-4ac1-a523-891c5609d783</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -138,7 +138,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>81cde82d-dc27-4b05-bfb5-d8647e2567a5</t>
+    <t>3d5a282e-4e68-4ad2-a5ab-61a4d9f51f36</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -147,7 +147,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>e4664262-9986-4c1a-888c-de73c88ec7df</t>
+    <t>17e73e9c-ed54-4f14-a303-35942c0bf1a4</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -156,7 +156,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>c215c80d-a0fc-4cef-9b26-bd3395bb442e</t>
+    <t>112188d1-8d0a-46d8-81d5-a95331127302</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -165,7 +165,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>261d05e0-5f76-48a2-97a1-1ca728d5ab8a</t>
+    <t>424f0088-d833-465a-9e04-b82b9cef5847</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -174,7 +174,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>1a853360-4bee-4809-b696-8b450323cd4f</t>
+    <t>29552173-a34c-4876-b3d2-68bbe72b9f03</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -183,7 +183,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>6aff6844-8fa9-4df4-bc8d-44a219fa3aca</t>
+    <t>8632494b-90c5-4ad5-a9f5-610bc116ff9a</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -192,7 +192,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>f83f927c-1bc3-4945-91c1-cf1093672932</t>
+    <t>da3d4b96-64f1-4852-9050-3c33c85d73a2</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -201,7 +201,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>ef87acfe-68c3-429b-8899-2dd51e520782</t>
+    <t>06ef4839-7e61-4c95-90ef-0290f03fd23b</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -210,7 +210,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>23321b2a-c50f-4d54-854e-fd5d052cf775</t>
+    <t>27aeace6-65a0-4a33-8240-3694f7fa1f28</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -219,7 +219,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>5ababacc-22c3-4324-8191-32e38155389c</t>
+    <t>1b504d3f-18d7-482a-82c3-ac0ce2d4cc17</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -228,7 +228,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>fef18579-457a-4cc8-9545-4368a58aa2f7</t>
+    <t>1a6b4a7e-dd5d-46b7-885b-fa0ccfac5470</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -237,7 +237,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>3bde8af0-cd21-4b71-8ed5-e5c0e239ba46</t>
+    <t>82940c83-c0e9-4636-9e7b-9842532da0c0</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -246,7 +246,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>cdf71f13-ef66-48d8-88c3-be8ed69b67fe</t>
+    <t>6d9ff95f-3179-420b-b1c6-c0c5104e60e6</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -255,7 +255,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>5e9c72ef-9215-4fb8-8bf3-7e89d7723db6</t>
+    <t>1bbf963b-1188-4e4d-91af-6fd31bfae417</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -324,7 +324,7 @@
     <t>ahc_hrsn_valid_01_screening</t>
   </si>
   <si>
-    <t>41012e63-00c6-4517-a855-8a5f49bfaaca</t>
+    <t>117892cf-b527-401f-a916-1cd63b761a3e</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in ahc_hrsn_valid_01_screening.</t>
@@ -333,7 +333,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>ef79d627-c51c-4286-bdd5-824d29a0fe60</t>
+    <t>73947d22-66c7-44fa-8b23-35c64dc10a23</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -342,7 +342,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>6adcc105-6856-42dc-9bd0-c58399db18ac</t>
+    <t>4358499b-2b79-4251-a3b4-6297f7d901fc</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -351,7 +351,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>3a02e275-c59f-4336-a1a5-eb53a5e17bac</t>
+    <t>0fb4bf12-5a94-4aa9-9481-0790070c4a7a</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
@@ -360,7 +360,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>6ef5cda9-8ba5-47ac-bc46-a45b3b79e73c</t>
+    <t>8208bb57-ff1a-4b53-8d71-e7313f90d59b</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
@@ -369,7 +369,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>65a20fd7-d9f1-46fc-85e9-11948c17376a</t>
+    <t>6014344d-23e6-41c3-8931-d3ae02cd786e</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -378,7 +378,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>cadff939-0510-4454-80dd-a3a3bad3bac2</t>
+    <t>58b9ecad-c9e9-4358-9fd2-3debb8224e16</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
@@ -387,7 +387,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>7a249006-c736-4bf7-8069-c33577b577ac</t>
+    <t>7bd902c7-513c-4514-acaa-bca929857511</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -396,7 +396,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>f5702bc4-e786-43d9-9709-5ca8ed9443a2</t>
+    <t>4ad23d64-7ad5-49a8-bc68-c02073093772</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
@@ -405,7 +405,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>fa2c1c05-b864-4bbe-8d8e-0721091f66f5</t>
+    <t>20ad9557-2e53-4b45-8f8d-732fce01b81d</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -414,7 +414,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>b6cd623c-869c-48a6-9548-fedf900c7b3d</t>
+    <t>eec2748c-967b-4cd7-bdce-c6249409416d</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -423,7 +423,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>ec1daff2-2c0d-4dba-a92e-14fe7ec05cea</t>
+    <t>dc8a448d-9e59-44ce-943b-d54d902b9ec5</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -453,7 +453,7 @@
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>dbcf4d4f-ab9c-4420-b977-4a571e5854f3</t>
+    <t>a61ab194-a83f-4bcb-98dd-ad06b667e2bb</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -471,82 +471,82 @@
     <t>Convert non-integer values to INTEGER</t>
   </si>
   <si>
-    <t>834c840c-2128-4230-9bb2-96c010c4ac50</t>
-  </si>
-  <si>
-    <t>cc0adc27-91ad-4954-9dd4-00c5caa065e2</t>
-  </si>
-  <si>
-    <t>23bd8653-47f0-4a96-8fe7-f65e772fd1dd</t>
-  </si>
-  <si>
-    <t>fedd488b-1912-4054-a35e-83a86e663a1b</t>
-  </si>
-  <si>
-    <t>2158ebdb-2bcc-4a89-acba-2fcf7aac09bf</t>
-  </si>
-  <si>
-    <t>d6d781a1-9b26-41e4-af2a-0a07a644a729</t>
-  </si>
-  <si>
-    <t>287cb160-6ce0-40b1-a377-d55259212842</t>
-  </si>
-  <si>
-    <t>2b23accd-af68-4489-8956-3c8f2f73c6df</t>
-  </si>
-  <si>
-    <t>2456e234-d97d-428e-ba67-74d639c2a5b4</t>
-  </si>
-  <si>
-    <t>68ace895-9b05-4372-b103-58d7276a08bd</t>
-  </si>
-  <si>
-    <t>41d7fd81-ca3d-43fc-a1d7-b4318cfbb035</t>
-  </si>
-  <si>
-    <t>5f85e3dc-4357-4881-acb4-e136cf871668</t>
-  </si>
-  <si>
-    <t>611faf43-28d4-4e1d-be20-d4e96ab0796f</t>
-  </si>
-  <si>
-    <t>69b16ba6-ca9c-4df6-9cf9-6ac0539560d9</t>
-  </si>
-  <si>
-    <t>b342bc4c-0d88-478f-943c-831652ae20c9</t>
-  </si>
-  <si>
-    <t>1619b1a9-30ba-43d8-af1e-94795affc4b5</t>
-  </si>
-  <si>
-    <t>93e45942-6ce2-4d19-a1f3-a73cf206bfeb</t>
-  </si>
-  <si>
-    <t>941e3870-a691-4ac4-9069-b52adbf72512</t>
-  </si>
-  <si>
-    <t>12248dd0-4cb7-4e97-9c3e-ee41c7ec7632</t>
-  </si>
-  <si>
-    <t>91e7c757-f144-4cc0-ae09-d646cecf4ff2</t>
-  </si>
-  <si>
-    <t>5cfb8357-271d-47a5-8e9d-8a22c038abc8</t>
-  </si>
-  <si>
-    <t>a479e402-6e8e-4431-af92-8457dc0b783e</t>
-  </si>
-  <si>
-    <t>44123e1c-b561-4fb1-944c-a7c10e0561dd</t>
-  </si>
-  <si>
-    <t>40c38ca1-859f-4722-900f-37521fdaffd1</t>
-  </si>
-  <si>
-    <t>cf312695-2492-4be3-9535-7033fa12be3b</t>
-  </si>
-  <si>
-    <t>ec57fcd2-1d19-4746-95dc-e68034fb1ad9</t>
+    <t>5b214c54-2e50-4e01-ae22-f0bb3e58a741</t>
+  </si>
+  <si>
+    <t>1034729c-f84d-486e-94fd-952cbd2fef7e</t>
+  </si>
+  <si>
+    <t>827fbffc-d9e7-403f-84fb-e152692ffd62</t>
+  </si>
+  <si>
+    <t>fdf0de5c-bc22-4b9d-9288-b51064314c88</t>
+  </si>
+  <si>
+    <t>067a5e3f-d138-4735-a96a-b0795c02af1a</t>
+  </si>
+  <si>
+    <t>788f51c2-447a-47b0-bb3c-89dfb0a183d5</t>
+  </si>
+  <si>
+    <t>8a4d4437-dcc9-474e-a21c-1fc98bdb9c39</t>
+  </si>
+  <si>
+    <t>8aa636d7-4e67-43cd-878a-8c670062131f</t>
+  </si>
+  <si>
+    <t>cc24ee55-84c2-410b-ae9b-e57f47975a3c</t>
+  </si>
+  <si>
+    <t>95d5d741-44eb-4c35-ba83-fd3a779823f5</t>
+  </si>
+  <si>
+    <t>01c5a162-4c1a-48a8-9a33-e02f5e5bdb9e</t>
+  </si>
+  <si>
+    <t>9432e199-654b-475c-b37c-6102f4a903e6</t>
+  </si>
+  <si>
+    <t>42b4cc12-b23d-4035-aa70-cb8fd1e023e2</t>
+  </si>
+  <si>
+    <t>ba0f9c27-ecf4-488f-9fbf-c53bc67a93f8</t>
+  </si>
+  <si>
+    <t>22c1e39d-d1e6-4836-a068-559369f60ff7</t>
+  </si>
+  <si>
+    <t>4e530af0-aa18-4d54-9ae6-d6b0107a5143</t>
+  </si>
+  <si>
+    <t>e667977b-8559-49eb-964c-ea8147517d71</t>
+  </si>
+  <si>
+    <t>4f8737d7-911d-41a1-8349-33247f90fb2c</t>
+  </si>
+  <si>
+    <t>9497e0a1-a4f9-4bce-8c17-aab924c62f08</t>
+  </si>
+  <si>
+    <t>fca586ac-95ae-4c20-a445-4178a2ff124d</t>
+  </si>
+  <si>
+    <t>a5d51571-6884-4e53-8603-f99816b808c2</t>
+  </si>
+  <si>
+    <t>85945493-6d00-4806-8a4a-0e19c11d14c1</t>
+  </si>
+  <si>
+    <t>51eeb4c9-f89c-44aa-a78b-8a85e1c4e0d1</t>
+  </si>
+  <si>
+    <t>1d531b7a-a791-4c50-98e1-d3afaf8edbc9</t>
+  </si>
+  <si>
+    <t>39372525-d66b-4f0d-8224-453c7b6e4956</t>
+  </si>
+  <si>
+    <t>c009beff-bc88-49cb-94ea-1431548b46b8</t>
   </si>
 </sst>
 </file>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -66,16 +66,196 @@
     <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
   </si>
   <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>7b979b68-7227-53fd-b689-e4fe153afb76</t>
+  </si>
+  <si>
+    <t>Sheet Missing</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>abf5c680-a135-5d89-b871-fa5b9b99aed6</t>
+  </si>
+  <si>
+    <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>d70a4700-6b40-52fc-a7a2-69ef0d7f69ff</t>
+  </si>
+  <si>
+    <t>47277588-99e8-59f5-8384-b24344a86073</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-valid-01.xlsx</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_valid_01_admin_demographic</t>
+  </si>
+  <si>
+    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'Admin_Demographic' has not been implemented yet.</t>
+  </si>
+  <si>
+    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_valid_01_screening</t>
+  </si>
+  <si>
+    <t>eed22197-3cd1-4be8-9814-cc66fecc63c8</t>
+  </si>
+  <si>
+    <t>Missing Column</t>
+  </si>
+  <si>
+    <t>Required column FACILITY is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
+  </si>
+  <si>
+    <t>6a90386c-77d8-4f29-9f6f-4d11146138cd</t>
+  </si>
+  <si>
+    <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
+  </si>
+  <si>
+    <t>7712dd86-d28f-40a7-99c7-ece902728cee</t>
+  </si>
+  <si>
+    <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
+  </si>
+  <si>
+    <t>03216e2a-d9ec-4871-8b45-c98456896fa6</t>
+  </si>
+  <si>
+    <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
+  </si>
+  <si>
+    <t>a9938492-0961-49f4-9cbd-14bd764aecac</t>
+  </si>
+  <si>
+    <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
+  </si>
+  <si>
+    <t>314f3bdd-3ce5-4ac9-b7e1-ebd0dd6d4ec9</t>
+  </si>
+  <si>
+    <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
+  </si>
+  <si>
+    <t>699656df-df56-4e75-bf86-0065358fa903</t>
+  </si>
+  <si>
+    <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
+  </si>
+  <si>
+    <t>e1e4603f-e16d-40b0-8906-99d413b95c90</t>
+  </si>
+  <si>
+    <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
+  </si>
+  <si>
+    <t>3b9866ba-3c33-4579-a12a-79ab2a8e0c67</t>
+  </si>
+  <si>
+    <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
+  </si>
+  <si>
+    <t>b2c909c7-a858-494a-8d1d-f813a4a2980a</t>
+  </si>
+  <si>
+    <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
+  </si>
+  <si>
+    <t>eca83dd0-20c1-42b7-9d90-425d259bf8d8</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
+  </si>
+  <si>
+    <t>f1bbcbdb-584a-46ef-b0b6-5726aea93143</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OPWDD_FLAG"</t>
+  </si>
+  <si>
+    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_valid_01_q_e_admin_data</t>
+  </si>
+  <si>
+    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
+  </si>
+  <si>
+    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'QE_Admin_Data' has not been implemented yet.</t>
+  </si>
+  <si>
+    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
+  </si>
+  <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail.csv</t>
   </si>
   <si>
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>38749fe7-b3cd-4f6e-97a2-c7f4e3f8fdf2</t>
-  </si>
-  <si>
-    <t>Missing Column</t>
+    <t>35f90d5d-bbdb-4fb2-b98e-14598e595179</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -84,7 +264,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>61d9a7d6-09b4-4fa4-97c7-220513b0962f</t>
+    <t>73fedf25-1977-4d52-88d3-a861f74c7f98</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -93,7 +273,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>72ee7100-3a87-4ffa-aef0-2640c5df8cfa</t>
+    <t>c523c015-6fde-4038-9dbd-6bb6cb6e28ea</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -102,7 +282,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>ad3b3796-a803-481a-a257-b321bbf6d1bb</t>
+    <t>b37e844f-c3fe-404f-b1c7-e5d37d363a50</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -111,7 +291,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>ae8b6413-3631-4443-9d38-f9e073a456ad</t>
+    <t>e6764a80-3d07-4aa0-8e49-16028fb46a47</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -120,7 +300,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>e75ba306-36f4-45af-9a08-0a5e544bc4a0</t>
+    <t>a774712b-68f0-4293-9ca6-a2686330b865</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -129,7 +309,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>60da1c0b-5068-4ac1-a523-891c5609d783</t>
+    <t>26afb567-e70a-4be8-b504-e8c711fdf74c</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -138,7 +318,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>3d5a282e-4e68-4ad2-a5ab-61a4d9f51f36</t>
+    <t>421370d6-32c4-40e0-b05e-c0bd98eaa89e</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -147,7 +327,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>17e73e9c-ed54-4f14-a303-35942c0bf1a4</t>
+    <t>f252a3b9-73a3-4d95-8663-c542a77a90b3</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -156,7 +336,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>112188d1-8d0a-46d8-81d5-a95331127302</t>
+    <t>56d2678b-5a94-40b1-acff-17256ded8442</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -165,7 +345,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>424f0088-d833-465a-9e04-b82b9cef5847</t>
+    <t>e17d719c-75c4-4506-b167-e2774c7e9fdb</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -174,7 +354,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>29552173-a34c-4876-b3d2-68bbe72b9f03</t>
+    <t>aef53175-75a6-4cbf-91a4-483c58645562</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -183,7 +363,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>8632494b-90c5-4ad5-a9f5-610bc116ff9a</t>
+    <t>21167f57-e247-42e2-9a64-595df2badc7d</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -192,7 +372,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>da3d4b96-64f1-4852-9050-3c33c85d73a2</t>
+    <t>b571acf8-2106-4955-80f7-a09503b17683</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -201,7 +381,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>06ef4839-7e61-4c95-90ef-0290f03fd23b</t>
+    <t>26b01308-2b71-43a4-9ecd-c9c056bacda4</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -210,7 +390,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>27aeace6-65a0-4a33-8240-3694f7fa1f28</t>
+    <t>2a63efb4-f527-49c5-88b7-8b42a88d7f75</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -219,7 +399,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>1b504d3f-18d7-482a-82c3-ac0ce2d4cc17</t>
+    <t>763f36a8-5042-4bde-adb1-181768859dc4</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -228,7 +408,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>1a6b4a7e-dd5d-46b7-885b-fa0ccfac5470</t>
+    <t>bf7a295d-77b5-4b2e-ab53-fb9ff938df53</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -237,7 +417,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>82940c83-c0e9-4636-9e7b-9842532da0c0</t>
+    <t>2ece34f1-d614-4217-8086-c3a750312d46</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -246,7 +426,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>6d9ff95f-3179-420b-b1c6-c0c5104e60e6</t>
+    <t>7c68beba-5a46-4b34-98f2-add9f4f74561</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -255,7 +435,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>1bbf963b-1188-4e4d-91af-6fd31bfae417</t>
+    <t>1abbab71-097a-4305-984b-0195703bc1b5</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -264,196 +444,16 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
   </si>
   <si>
-    <t>abf5c680-a135-5d89-b871-fa5b9b99aed6</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
-  </si>
-  <si>
-    <t>Sheet Missing</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>d70a4700-6b40-52fc-a7a2-69ef0d7f69ff</t>
-  </si>
-  <si>
-    <t>47277588-99e8-59f5-8384-b24344a86073</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
-  </si>
-  <si>
-    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-valid-01.xlsx</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_valid_01_admin_demographic</t>
-  </si>
-  <si>
-    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'Admin_Demographic' has not been implemented yet.</t>
-  </si>
-  <si>
-    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_valid_01_screening</t>
-  </si>
-  <si>
-    <t>117892cf-b527-401f-a916-1cd63b761a3e</t>
-  </si>
-  <si>
-    <t>Required column FACILITY is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
-  </si>
-  <si>
-    <t>73947d22-66c7-44fa-8b23-35c64dc10a23</t>
-  </si>
-  <si>
-    <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
-  </si>
-  <si>
-    <t>4358499b-2b79-4251-a3b4-6297f7d901fc</t>
-  </si>
-  <si>
-    <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
-  </si>
-  <si>
-    <t>0fb4bf12-5a94-4aa9-9481-0790070c4a7a</t>
-  </si>
-  <si>
-    <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
-  </si>
-  <si>
-    <t>8208bb57-ff1a-4b53-8d71-e7313f90d59b</t>
-  </si>
-  <si>
-    <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
-  </si>
-  <si>
-    <t>6014344d-23e6-41c3-8931-d3ae02cd786e</t>
-  </si>
-  <si>
-    <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
-  </si>
-  <si>
-    <t>58b9ecad-c9e9-4358-9fd2-3debb8224e16</t>
-  </si>
-  <si>
-    <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
-  </si>
-  <si>
-    <t>7bd902c7-513c-4514-acaa-bca929857511</t>
-  </si>
-  <si>
-    <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
-  </si>
-  <si>
-    <t>4ad23d64-7ad5-49a8-bc68-c02073093772</t>
-  </si>
-  <si>
-    <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
-  </si>
-  <si>
-    <t>20ad9557-2e53-4b45-8f8d-732fce01b81d</t>
-  </si>
-  <si>
-    <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
-  </si>
-  <si>
-    <t>eec2748c-967b-4cd7-bdce-c6249409416d</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
-  </si>
-  <si>
-    <t>dc8a448d-9e59-44ce-943b-d54d902b9ec5</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OPWDD_FLAG"</t>
-  </si>
-  <si>
-    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_valid_01_q_e_admin_data</t>
-  </si>
-  <si>
     <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
   </si>
   <si>
-    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'QE_Admin_Data' has not been implemented yet.</t>
-  </si>
-  <si>
-    <t>7b979b68-7227-53fd-b689-e4fe153afb76</t>
-  </si>
-  <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-12-12-2023-valid.csv</t>
   </si>
   <si>
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>a61ab194-a83f-4bcb-98dd-ad06b667e2bb</t>
+    <t>104ac409-77c5-45e3-b1e3-7b60ca725814</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -471,82 +471,82 @@
     <t>Convert non-integer values to INTEGER</t>
   </si>
   <si>
-    <t>5b214c54-2e50-4e01-ae22-f0bb3e58a741</t>
-  </si>
-  <si>
-    <t>1034729c-f84d-486e-94fd-952cbd2fef7e</t>
-  </si>
-  <si>
-    <t>827fbffc-d9e7-403f-84fb-e152692ffd62</t>
-  </si>
-  <si>
-    <t>fdf0de5c-bc22-4b9d-9288-b51064314c88</t>
-  </si>
-  <si>
-    <t>067a5e3f-d138-4735-a96a-b0795c02af1a</t>
-  </si>
-  <si>
-    <t>788f51c2-447a-47b0-bb3c-89dfb0a183d5</t>
-  </si>
-  <si>
-    <t>8a4d4437-dcc9-474e-a21c-1fc98bdb9c39</t>
-  </si>
-  <si>
-    <t>8aa636d7-4e67-43cd-878a-8c670062131f</t>
-  </si>
-  <si>
-    <t>cc24ee55-84c2-410b-ae9b-e57f47975a3c</t>
-  </si>
-  <si>
-    <t>95d5d741-44eb-4c35-ba83-fd3a779823f5</t>
-  </si>
-  <si>
-    <t>01c5a162-4c1a-48a8-9a33-e02f5e5bdb9e</t>
-  </si>
-  <si>
-    <t>9432e199-654b-475c-b37c-6102f4a903e6</t>
-  </si>
-  <si>
-    <t>42b4cc12-b23d-4035-aa70-cb8fd1e023e2</t>
-  </si>
-  <si>
-    <t>ba0f9c27-ecf4-488f-9fbf-c53bc67a93f8</t>
-  </si>
-  <si>
-    <t>22c1e39d-d1e6-4836-a068-559369f60ff7</t>
-  </si>
-  <si>
-    <t>4e530af0-aa18-4d54-9ae6-d6b0107a5143</t>
-  </si>
-  <si>
-    <t>e667977b-8559-49eb-964c-ea8147517d71</t>
-  </si>
-  <si>
-    <t>4f8737d7-911d-41a1-8349-33247f90fb2c</t>
-  </si>
-  <si>
-    <t>9497e0a1-a4f9-4bce-8c17-aab924c62f08</t>
-  </si>
-  <si>
-    <t>fca586ac-95ae-4c20-a445-4178a2ff124d</t>
-  </si>
-  <si>
-    <t>a5d51571-6884-4e53-8603-f99816b808c2</t>
-  </si>
-  <si>
-    <t>85945493-6d00-4806-8a4a-0e19c11d14c1</t>
-  </si>
-  <si>
-    <t>51eeb4c9-f89c-44aa-a78b-8a85e1c4e0d1</t>
-  </si>
-  <si>
-    <t>1d531b7a-a791-4c50-98e1-d3afaf8edbc9</t>
-  </si>
-  <si>
-    <t>39372525-d66b-4f0d-8224-453c7b6e4956</t>
-  </si>
-  <si>
-    <t>c009beff-bc88-49cb-94ea-1431548b46b8</t>
+    <t>f8036943-a46c-4a60-8444-2ffc42e27093</t>
+  </si>
+  <si>
+    <t>70ed8630-3cfc-435a-afdb-a6e82c247ed0</t>
+  </si>
+  <si>
+    <t>cc667c51-7016-423d-a2bd-ba2a9315eff1</t>
+  </si>
+  <si>
+    <t>872b306a-aee4-4394-8f3d-86a57626b83a</t>
+  </si>
+  <si>
+    <t>bef6c55a-c14b-492c-b384-3fc71084289b</t>
+  </si>
+  <si>
+    <t>514804d4-b385-4797-a0cb-04f4b417a8fd</t>
+  </si>
+  <si>
+    <t>e1aa4005-2c9c-4c1d-9871-b2950d438e64</t>
+  </si>
+  <si>
+    <t>4ac00108-677d-41b5-b563-f64a62473717</t>
+  </si>
+  <si>
+    <t>f35211f0-d3ee-467a-a575-7fb4241dcb3c</t>
+  </si>
+  <si>
+    <t>ab9be637-3a6b-4a37-84c2-074b6a6f3bd9</t>
+  </si>
+  <si>
+    <t>e0211115-25ec-40b2-826e-46d569e1cc47</t>
+  </si>
+  <si>
+    <t>ff843123-b7ad-4a02-8266-b6c9626578bb</t>
+  </si>
+  <si>
+    <t>9954fd97-9f6a-4daf-962c-2f7ef2fa4eae</t>
+  </si>
+  <si>
+    <t>88643542-0475-4909-81d0-225f43047331</t>
+  </si>
+  <si>
+    <t>93a34564-0628-40ac-9332-a54c2dbdf302</t>
+  </si>
+  <si>
+    <t>a3d3914f-4486-42e3-93cf-e7aef98abbad</t>
+  </si>
+  <si>
+    <t>2ac8c118-01c0-4c7a-b7cf-0d5fea0f7157</t>
+  </si>
+  <si>
+    <t>6e16f7d8-cfdd-45f0-ba45-890e5d2be188</t>
+  </si>
+  <si>
+    <t>1a950bd0-4ea4-4bf6-ba5e-b9a43130e78f</t>
+  </si>
+  <si>
+    <t>d752d6ee-9b11-44e7-a4c6-ee4d23d54e8d</t>
+  </si>
+  <si>
+    <t>46bf16f3-4f10-454c-bb79-69266493deb8</t>
+  </si>
+  <si>
+    <t>b0854e40-87d1-4875-9a24-9866e3c94b93</t>
+  </si>
+  <si>
+    <t>c484b02e-b787-4ba2-972b-e962ef91941f</t>
+  </si>
+  <si>
+    <t>7f181307-88a5-44ab-b6a1-06f3762340fc</t>
+  </si>
+  <si>
+    <t>ce2274a1-a43e-4c26-af5c-22c7b8344053</t>
+  </si>
+  <si>
+    <t>1d6611b4-6056-4fd1-a1a6-584d829406f6</t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
       <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
-        <v>23</v>
+      <c r="M2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -704,7 +704,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -721,8 +721,8 @@
       <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" t="s">
-        <v>26</v>
+      <c r="M3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -733,7 +733,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -750,8 +750,8 @@
       <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="N4" t="s">
-        <v>29</v>
+      <c r="M4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -762,25 +762,25 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
         <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -791,25 +791,25 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -820,25 +820,25 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -849,25 +849,25 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -878,25 +878,25 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -907,25 +907,25 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -936,25 +936,25 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -965,25 +965,25 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -994,25 +994,25 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -1023,25 +1023,25 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -1052,25 +1052,25 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
@@ -1081,25 +1081,25 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -1110,25 +1110,25 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
@@ -1139,25 +1139,25 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
-      </c>
-      <c r="N18" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="M18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -1168,25 +1168,25 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="N19" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="N20" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -1226,25 +1226,25 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N21" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -1255,25 +1255,25 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N22" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -1284,25 +1284,25 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
-      </c>
-      <c r="M23" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="N23" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -1313,25 +1313,25 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
-      </c>
-      <c r="M24" t="s">
-        <v>85</v>
+        <v>97</v>
+      </c>
+      <c r="N24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1342,25 +1342,25 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I25" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
-      </c>
-      <c r="M25" t="s">
-        <v>85</v>
+        <v>100</v>
+      </c>
+      <c r="N25" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26">
@@ -1371,25 +1371,25 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s">
-        <v>101</v>
-      </c>
-      <c r="M26" t="s">
-        <v>97</v>
+        <v>103</v>
+      </c>
+      <c r="N26" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="27">
@@ -1400,25 +1400,25 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
@@ -1429,25 +1429,25 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -1458,25 +1458,25 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1487,25 +1487,25 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -1516,25 +1516,25 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -1545,25 +1545,25 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
@@ -1574,25 +1574,25 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
@@ -1603,25 +1603,25 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
@@ -1632,25 +1632,25 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36">
@@ -1661,25 +1661,25 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37">
@@ -1690,25 +1690,25 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38">
@@ -1719,25 +1719,25 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39">
@@ -1748,25 +1748,25 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s">
         <v>141</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s">
         <v>142</v>
       </c>
-      <c r="I39" t="s">
-        <v>100</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="N39" t="s">
         <v>143</v>
-      </c>
-      <c r="M39" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="40">

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -123,7 +123,7 @@
     <t>ahc_hrsn_valid_01_screening</t>
   </si>
   <si>
-    <t>eed22197-3cd1-4be8-9814-cc66fecc63c8</t>
+    <t>1c249b90-02ed-42e3-bc80-8bebe0b3f63b</t>
   </si>
   <si>
     <t>Missing Column</t>
@@ -135,7 +135,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>6a90386c-77d8-4f29-9f6f-4d11146138cd</t>
+    <t>41d3ee39-c1a6-4232-9e19-3c397bc28e67</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -144,7 +144,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>7712dd86-d28f-40a7-99c7-ece902728cee</t>
+    <t>65619ffc-d9fe-4b65-83d5-ef481cef90d2</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -153,7 +153,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>03216e2a-d9ec-4871-8b45-c98456896fa6</t>
+    <t>c5290207-8a38-422a-828a-ae6f20805f6c</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
@@ -162,7 +162,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>a9938492-0961-49f4-9cbd-14bd764aecac</t>
+    <t>740b7b5d-db7c-461f-8980-59e870a14963</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
@@ -171,7 +171,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>314f3bdd-3ce5-4ac9-b7e1-ebd0dd6d4ec9</t>
+    <t>130d8033-1979-4035-a8ca-828d9d071b1f</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -180,7 +180,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>699656df-df56-4e75-bf86-0065358fa903</t>
+    <t>42705ffe-03a5-4409-a55a-29eb3faa6365</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
@@ -189,7 +189,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>e1e4603f-e16d-40b0-8906-99d413b95c90</t>
+    <t>904da14c-df53-4397-82b2-edd4155d5d7a</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -198,7 +198,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>3b9866ba-3c33-4579-a12a-79ab2a8e0c67</t>
+    <t>d82c4a03-df84-4d87-958c-9b54baddeb2c</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
@@ -207,7 +207,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>b2c909c7-a858-494a-8d1d-f813a4a2980a</t>
+    <t>5fb4f10b-717a-4aa7-a937-a554d4e2b6f1</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -216,7 +216,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>eca83dd0-20c1-42b7-9d90-425d259bf8d8</t>
+    <t>7bddee20-67e2-4c3d-9d3b-adc300497d57</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -225,7 +225,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>f1bbcbdb-584a-46ef-b0b6-5726aea93143</t>
+    <t>b300f309-cb97-4c1e-9046-42c65feaed8b</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -255,7 +255,7 @@
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>35f90d5d-bbdb-4fb2-b98e-14598e595179</t>
+    <t>39ad14b9-3de2-4dea-9075-8182a9f7be7e</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -264,7 +264,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>73fedf25-1977-4d52-88d3-a861f74c7f98</t>
+    <t>b4d9c654-79c0-474e-8077-88549890405c</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -273,7 +273,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>c523c015-6fde-4038-9dbd-6bb6cb6e28ea</t>
+    <t>4b81795d-4e50-4f8b-b9d4-1d879522eef0</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -282,7 +282,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>b37e844f-c3fe-404f-b1c7-e5d37d363a50</t>
+    <t>17063d26-909d-4cf6-9063-d6a1e0dda382</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -291,7 +291,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>e6764a80-3d07-4aa0-8e49-16028fb46a47</t>
+    <t>2531d9ad-1bf1-4987-bedd-04baa40f9246</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -300,7 +300,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>a774712b-68f0-4293-9ca6-a2686330b865</t>
+    <t>51438f74-bab0-40d2-9810-83c888938960</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -309,7 +309,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>26afb567-e70a-4be8-b504-e8c711fdf74c</t>
+    <t>c1be0df4-8755-4667-8766-3aa8f61737a5</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -318,7 +318,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>421370d6-32c4-40e0-b05e-c0bd98eaa89e</t>
+    <t>6b54595c-8fc5-493c-bac5-078956ac90e3</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -327,7 +327,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>f252a3b9-73a3-4d95-8663-c542a77a90b3</t>
+    <t>fa0cc4d3-ea6d-4b2b-b507-48f1c541c42b</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -336,7 +336,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>56d2678b-5a94-40b1-acff-17256ded8442</t>
+    <t>76434d6d-fb85-401c-9383-9a6c18fa2c48</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -345,7 +345,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>e17d719c-75c4-4506-b167-e2774c7e9fdb</t>
+    <t>d2702766-09b6-4fed-8a0c-62be3bf50fef</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -354,7 +354,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>aef53175-75a6-4cbf-91a4-483c58645562</t>
+    <t>0f710509-bb46-4f6b-a48e-4a508a8c3fea</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -363,7 +363,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>21167f57-e247-42e2-9a64-595df2badc7d</t>
+    <t>439bf9e2-d6c0-41ad-a18b-fcd4590aafa9</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -372,7 +372,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>b571acf8-2106-4955-80f7-a09503b17683</t>
+    <t>c9b61112-d008-40bb-8ef0-51a1a60793fc</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -381,7 +381,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>26b01308-2b71-43a4-9ecd-c9c056bacda4</t>
+    <t>0f830419-702b-46ce-902f-f8ce101713a0</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -390,7 +390,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>2a63efb4-f527-49c5-88b7-8b42a88d7f75</t>
+    <t>cfde60f3-6ef4-4fe2-877d-8b34778687a4</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -399,7 +399,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>763f36a8-5042-4bde-adb1-181768859dc4</t>
+    <t>07168f2d-4495-48f0-98c1-01c3e1ebaab0</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -408,7 +408,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>bf7a295d-77b5-4b2e-ab53-fb9ff938df53</t>
+    <t>70c74ded-5d86-468d-a3db-218adaa673c3</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -417,7 +417,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>2ece34f1-d614-4217-8086-c3a750312d46</t>
+    <t>98ee1b1f-4b3d-405a-8cd2-db5df12212bf</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -426,7 +426,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>7c68beba-5a46-4b34-98f2-add9f4f74561</t>
+    <t>576d7063-64a0-42a4-ac5f-83110f349002</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -435,7 +435,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>1abbab71-097a-4305-984b-0195703bc1b5</t>
+    <t>1558afa6-3b96-4263-ba04-9585fba3091b</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -453,7 +453,7 @@
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>104ac409-77c5-45e3-b1e3-7b60ca725814</t>
+    <t>621f07f6-3879-4616-bf35-ec0593be5d10</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -471,82 +471,82 @@
     <t>Convert non-integer values to INTEGER</t>
   </si>
   <si>
-    <t>f8036943-a46c-4a60-8444-2ffc42e27093</t>
-  </si>
-  <si>
-    <t>70ed8630-3cfc-435a-afdb-a6e82c247ed0</t>
-  </si>
-  <si>
-    <t>cc667c51-7016-423d-a2bd-ba2a9315eff1</t>
-  </si>
-  <si>
-    <t>872b306a-aee4-4394-8f3d-86a57626b83a</t>
-  </si>
-  <si>
-    <t>bef6c55a-c14b-492c-b384-3fc71084289b</t>
-  </si>
-  <si>
-    <t>514804d4-b385-4797-a0cb-04f4b417a8fd</t>
-  </si>
-  <si>
-    <t>e1aa4005-2c9c-4c1d-9871-b2950d438e64</t>
-  </si>
-  <si>
-    <t>4ac00108-677d-41b5-b563-f64a62473717</t>
-  </si>
-  <si>
-    <t>f35211f0-d3ee-467a-a575-7fb4241dcb3c</t>
-  </si>
-  <si>
-    <t>ab9be637-3a6b-4a37-84c2-074b6a6f3bd9</t>
-  </si>
-  <si>
-    <t>e0211115-25ec-40b2-826e-46d569e1cc47</t>
-  </si>
-  <si>
-    <t>ff843123-b7ad-4a02-8266-b6c9626578bb</t>
-  </si>
-  <si>
-    <t>9954fd97-9f6a-4daf-962c-2f7ef2fa4eae</t>
-  </si>
-  <si>
-    <t>88643542-0475-4909-81d0-225f43047331</t>
-  </si>
-  <si>
-    <t>93a34564-0628-40ac-9332-a54c2dbdf302</t>
-  </si>
-  <si>
-    <t>a3d3914f-4486-42e3-93cf-e7aef98abbad</t>
-  </si>
-  <si>
-    <t>2ac8c118-01c0-4c7a-b7cf-0d5fea0f7157</t>
-  </si>
-  <si>
-    <t>6e16f7d8-cfdd-45f0-ba45-890e5d2be188</t>
-  </si>
-  <si>
-    <t>1a950bd0-4ea4-4bf6-ba5e-b9a43130e78f</t>
-  </si>
-  <si>
-    <t>d752d6ee-9b11-44e7-a4c6-ee4d23d54e8d</t>
-  </si>
-  <si>
-    <t>46bf16f3-4f10-454c-bb79-69266493deb8</t>
-  </si>
-  <si>
-    <t>b0854e40-87d1-4875-9a24-9866e3c94b93</t>
-  </si>
-  <si>
-    <t>c484b02e-b787-4ba2-972b-e962ef91941f</t>
-  </si>
-  <si>
-    <t>7f181307-88a5-44ab-b6a1-06f3762340fc</t>
-  </si>
-  <si>
-    <t>ce2274a1-a43e-4c26-af5c-22c7b8344053</t>
-  </si>
-  <si>
-    <t>1d6611b4-6056-4fd1-a1a6-584d829406f6</t>
+    <t>bc082cab-267c-4b62-b13b-21446c9cb0c6</t>
+  </si>
+  <si>
+    <t>d77dd9b6-b1a0-4aac-a063-a3da778d82c9</t>
+  </si>
+  <si>
+    <t>c87bd9c4-815e-4878-a0d7-e043e70279ed</t>
+  </si>
+  <si>
+    <t>52ef1e71-a854-41a1-a20f-3ac2796927af</t>
+  </si>
+  <si>
+    <t>04801f92-7dae-47a6-820b-0b1e8524dd26</t>
+  </si>
+  <si>
+    <t>27dfe84b-85cd-4872-b8e6-ef705da3dddc</t>
+  </si>
+  <si>
+    <t>123cbf97-0400-4776-a15d-e181a9830a62</t>
+  </si>
+  <si>
+    <t>e5685493-d5e0-4dec-ae56-721d09fcddaf</t>
+  </si>
+  <si>
+    <t>2620e43a-0b92-46d8-b59e-7c2974a50a17</t>
+  </si>
+  <si>
+    <t>c7f44052-0361-429f-8e45-9023a9278099</t>
+  </si>
+  <si>
+    <t>cc9b2c17-185a-48a7-a7c7-0a432ae8e014</t>
+  </si>
+  <si>
+    <t>ac74606d-0e85-4b55-853e-50bca27c880e</t>
+  </si>
+  <si>
+    <t>83a12958-d579-4d25-8ed2-f8b1fa94b51c</t>
+  </si>
+  <si>
+    <t>d6a90ca6-379d-4844-984a-f84a0a631155</t>
+  </si>
+  <si>
+    <t>97e20099-328f-499a-a988-25d98e06f3f0</t>
+  </si>
+  <si>
+    <t>0cab18ab-0987-456e-a6a8-7346eaa87760</t>
+  </si>
+  <si>
+    <t>727e7674-fc47-44bc-9973-a68bf55d9cc8</t>
+  </si>
+  <si>
+    <t>854d1ffb-566a-4614-b9f8-f29306fce2fc</t>
+  </si>
+  <si>
+    <t>ed5eb2cb-ea5e-48dc-af61-f3baa15fa267</t>
+  </si>
+  <si>
+    <t>85173e0b-5c11-4d69-8349-e876776f4ef7</t>
+  </si>
+  <si>
+    <t>c01e2c32-e028-46d1-a0e7-7f520819fa60</t>
+  </si>
+  <si>
+    <t>6059ded4-437d-4a44-aa93-40d808e2f127</t>
+  </si>
+  <si>
+    <t>d8d44904-32b9-40d5-95d4-b05349628e30</t>
+  </si>
+  <si>
+    <t>558640af-39e9-48e3-87cf-907a383dfa0b</t>
+  </si>
+  <si>
+    <t>8fe53d94-1e80-42ae-8593-28b012c54a3e</t>
+  </si>
+  <si>
+    <t>51c7349b-81cf-4b9a-be85-9f1fbe2203a2</t>
   </si>
 </sst>
 </file>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -135,7 +135,7 @@
     <t>ahc_hrsn_valid_01_screening</t>
   </si>
   <si>
-    <t>bc163aaf-69c1-44c1-83bf-8f9d70e58b88</t>
+    <t>f5e7c858-1724-4776-9e05-0703afa5b1b7</t>
   </si>
   <si>
     <t>Missing Column</t>
@@ -147,7 +147,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>1192e5f9-c439-4320-9067-c9fc73bfefef</t>
+    <t>20fa3903-4e4c-453c-a5af-f951ed63e446</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -156,7 +156,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>bf5fd153-0c42-42b0-b91b-bc655f41e5b4</t>
+    <t>22c886fc-582d-4aca-90a9-3c4452477c9c</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -165,7 +165,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>8a90941b-4b98-4fc9-84b4-c279c0eea1c9</t>
+    <t>58f4c605-0155-4e88-9877-41b28d0cd3f9</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
@@ -174,7 +174,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>8ab975e9-eccb-4576-895c-6902ab046083</t>
+    <t>49008b05-96c5-4d77-853c-985dfdc931bb</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
@@ -183,7 +183,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>589fb783-5420-4ba9-a3f0-159d63ce1258</t>
+    <t>35da1f4b-46b0-4fe6-9f17-2afddca0614b</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -192,7 +192,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>84c78782-14b0-4f3a-80d2-ffdf92741bac</t>
+    <t>d02049a3-b3fb-4051-9bdc-ce53c7bc652f</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
@@ -201,7 +201,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>4ff2b575-6865-4835-8bef-265a1d5c8416</t>
+    <t>99d180dc-5253-4ecd-bf67-f5bc7139c065</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -210,7 +210,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>4640c588-7b60-458f-bcd0-3f56f290f69d</t>
+    <t>067ce2a1-f0fa-4fcd-9fa9-91a7d3c30e22</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
@@ -219,7 +219,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>37f48a64-b646-40e7-b273-778a4757afce</t>
+    <t>a517b1ab-65c8-4136-91b6-9f883fee3252</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -228,7 +228,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>1500cf72-6355-4145-b0c2-4708042e6476</t>
+    <t>d1757744-1978-4843-8cba-786cb94b475d</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -237,7 +237,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>e4876390-c3ac-45c6-aaeb-1c0203c91f46</t>
+    <t>7740f706-7bba-4c00-80ed-85ddb717da70</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -267,7 +267,7 @@
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>629aa396-1b22-4583-99c9-f34d104e5fd2</t>
+    <t>c54a6bbf-ab56-4ca1-a8d8-c2059f603bf7</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -276,7 +276,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>a58091f9-51ec-42be-996d-6cfc2c3984a3</t>
+    <t>b5571b11-e6e9-47ea-b0ae-b090a93bd9fc</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -285,7 +285,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>711595c3-af24-4afa-8c70-46df970ae7db</t>
+    <t>cc445e11-0b3e-4fdf-84a1-5f2d57d35f6b</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -294,7 +294,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>5ad8a2f9-1a31-4246-883f-96dee40923d6</t>
+    <t>9e8b6232-c4de-43a4-a425-6900077b2b3d</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -303,7 +303,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>fda4f933-f604-4556-9d15-cf5ebe3c6adb</t>
+    <t>e8da9fe9-6aa4-4111-ae3a-f6ae58bbb801</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -312,7 +312,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>5bf1e305-c424-48db-8aec-3a042c16286f</t>
+    <t>7e43b5c0-4d17-4c98-a363-1ff2cfcc652e</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -321,7 +321,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>5b9c544d-898e-4d3e-8bec-574ca071eb14</t>
+    <t>8f4b2d56-dea3-451f-8be0-b65f4f9c1792</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -330,7 +330,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>5fcabea1-83bb-4238-8f80-e0ca5cd4ef82</t>
+    <t>44e578e1-d222-4d0d-8ae5-a8afc1625985</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -339,7 +339,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>3469d832-43ae-48d9-bde4-1199d134a5c0</t>
+    <t>54119e6a-a2f6-476c-b74c-7a7711eefa24</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -348,7 +348,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>8f8cab8e-e148-43e6-9807-d109ef94c867</t>
+    <t>45aff83d-6869-42f4-a4c8-3823873df181</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -357,7 +357,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>f9932bd1-dba1-4f24-9055-1a8165ced46c</t>
+    <t>7edce13a-1249-444b-ae9b-329820606994</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -366,7 +366,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>ea36f3b0-c046-4cdc-a1b7-17f5e7c03a96</t>
+    <t>658bc6a5-eb16-4470-ba8c-6cdab74b52ad</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -375,7 +375,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>30eb748b-5a08-4f72-8c9f-1ab388617537</t>
+    <t>91c88db6-8424-4152-a3ff-e06ce481cfc0</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -384,7 +384,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>04a70267-754f-4cec-954e-ade7837c30d4</t>
+    <t>b1b42cfd-7019-4358-931a-aff57164817d</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -393,7 +393,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>16b3ffee-ad00-479f-852a-f24c30ebaeaa</t>
+    <t>7b79132e-eccf-43c0-907c-7afa576c5ccc</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -402,7 +402,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>21a85c15-d08a-44b1-836d-3871459ea7d4</t>
+    <t>a48822bb-e7b5-4162-8d62-0622f6eca25d</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -411,7 +411,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>e00d8e44-cab2-469c-bdad-413938cbc6e2</t>
+    <t>9e72fda2-1b28-4e0b-8090-1362c2c1e7b7</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -420,7 +420,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>ff159753-a870-4254-95f2-d4de68d9297c</t>
+    <t>57aa5b0d-37c9-46e2-a99f-33914c38e2da</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -429,7 +429,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>39b131ae-56e5-490c-8013-dede7779510a</t>
+    <t>0f895dd6-c10d-4dd2-b206-e55299ec1adf</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -438,7 +438,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>9a7f6447-8026-4e5a-aa49-147d04a9e828</t>
+    <t>0d5141d3-15cb-43de-b7f0-edd06f4cf5f2</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -447,7 +447,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>d757c978-f94f-4ebc-9907-73fa3818d7db</t>
+    <t>e8849f0c-9fe3-4cee-9416-26283075cc86</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -465,7 +465,7 @@
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>8aeeb1df-3596-4152-8c79-0f775b7a0d21</t>
+    <t>98f1eea4-eae8-4811-a66f-12323898e39e</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -483,82 +483,82 @@
     <t>Convert non-integer values to INTEGER</t>
   </si>
   <si>
-    <t>08d0b7f3-502b-4e39-9300-77c72a88e703</t>
-  </si>
-  <si>
-    <t>73e4e74e-4ffe-4560-9c6d-573a20d7420a</t>
-  </si>
-  <si>
-    <t>18ba9e92-3c3b-4b50-ae28-7435e8ede519</t>
-  </si>
-  <si>
-    <t>712f6bc7-f1af-4e6e-ade8-bde7461a490d</t>
-  </si>
-  <si>
-    <t>37a94b59-1c54-4197-8d52-c85426e4e336</t>
-  </si>
-  <si>
-    <t>7f41e081-74eb-4eee-bc5e-32c1b0c4976a</t>
-  </si>
-  <si>
-    <t>28bd6097-bc03-498e-9bdf-e5fa4b18d61f</t>
-  </si>
-  <si>
-    <t>12f3f1b7-4cff-4c87-bd14-2271d3faef2c</t>
-  </si>
-  <si>
-    <t>e1618fdc-276c-427d-b83b-cc248c2bd7ba</t>
-  </si>
-  <si>
-    <t>e930a0ef-5a5f-42a9-acc0-19716cb4e86a</t>
-  </si>
-  <si>
-    <t>5550e9dd-156a-4cdd-a866-57b33037ecfd</t>
-  </si>
-  <si>
-    <t>c0b908eb-cce8-4e30-9aeb-aec98fb5f6cc</t>
-  </si>
-  <si>
-    <t>2a8ffad5-6b42-4cd1-a306-fec9d2d9701b</t>
-  </si>
-  <si>
-    <t>d86d7796-cd5a-4285-b0a9-9bd08f58caf2</t>
-  </si>
-  <si>
-    <t>f52a5ac0-32e5-4282-86de-4fe4a0cdf7ce</t>
-  </si>
-  <si>
-    <t>e2815562-c238-4952-8257-cda5ba1a5f62</t>
-  </si>
-  <si>
-    <t>cfba3e6c-19fc-4228-8342-e0d2b42165a4</t>
-  </si>
-  <si>
-    <t>ba0cb25d-f9e3-490d-999d-bf3e69a2f0e2</t>
-  </si>
-  <si>
-    <t>a9938e6f-9a4f-423a-85e8-0b8d95fbbe25</t>
-  </si>
-  <si>
-    <t>6d10e21c-02be-46f4-a0a2-c854a1d00a33</t>
-  </si>
-  <si>
-    <t>62fa50ef-6343-4d62-8a59-0dcff6bd148d</t>
-  </si>
-  <si>
-    <t>1c31c7e3-19d1-4864-b532-f21188e82543</t>
-  </si>
-  <si>
-    <t>9974a40c-2499-4c2a-8c1a-69a1dffb30f4</t>
-  </si>
-  <si>
-    <t>6859dc08-25d8-4bf9-9aff-74604a5aea64</t>
-  </si>
-  <si>
-    <t>c685a18f-7fad-4da2-ac9f-160f0085414a</t>
-  </si>
-  <si>
-    <t>78b7af22-15bd-4f97-975a-253112219199</t>
+    <t>f01fd20e-b472-4427-b1a9-25e55684f475</t>
+  </si>
+  <si>
+    <t>267277ef-d745-4369-8d45-eec1a0781fbf</t>
+  </si>
+  <si>
+    <t>08fe024d-99a7-43c0-9eea-ec3b8f78a769</t>
+  </si>
+  <si>
+    <t>9472d8f8-07d2-4042-855a-b534fa580e99</t>
+  </si>
+  <si>
+    <t>decfc1b6-73a1-4511-a03d-ca657bc463c8</t>
+  </si>
+  <si>
+    <t>6dc9fb75-e565-4e72-abdd-f5481e8396fc</t>
+  </si>
+  <si>
+    <t>69b8fe00-781b-459f-a2d7-781335c2dfb9</t>
+  </si>
+  <si>
+    <t>83ba0f86-ecbb-428d-8c5c-f2d4d41f899c</t>
+  </si>
+  <si>
+    <t>fbdc7ce7-5535-46b3-a68d-fe54daa8484a</t>
+  </si>
+  <si>
+    <t>87cfffcd-5237-4439-bf89-f764d28f0f0a</t>
+  </si>
+  <si>
+    <t>c0e0f130-16a7-439b-b69b-ba935f2fe59c</t>
+  </si>
+  <si>
+    <t>118e0dfd-ba53-4966-8e70-ad512ce5b5df</t>
+  </si>
+  <si>
+    <t>78a38f6d-45cd-4017-841d-f0dde258aa1e</t>
+  </si>
+  <si>
+    <t>f590ee48-d78c-414f-b2cd-78f0018e51c1</t>
+  </si>
+  <si>
+    <t>0747bd3f-9170-48e4-ac88-8c542154f4ca</t>
+  </si>
+  <si>
+    <t>921a0fd9-9298-4a07-8034-562c853bfc02</t>
+  </si>
+  <si>
+    <t>9c3d91f2-b2fb-487d-b49c-a17c7fdd76d9</t>
+  </si>
+  <si>
+    <t>865e09da-db74-43f2-b0fd-cb12f4dc0654</t>
+  </si>
+  <si>
+    <t>1825722d-b575-463b-b5e1-f53780a23bf9</t>
+  </si>
+  <si>
+    <t>64797fb1-1839-4058-98de-816da4c8626a</t>
+  </si>
+  <si>
+    <t>d36db3fa-ffd9-42f2-b5b5-c65f4fa9a991</t>
+  </si>
+  <si>
+    <t>9e3b0c7c-87ab-4dc4-a1b9-0c67c3381733</t>
+  </si>
+  <si>
+    <t>1061be62-1ea5-434f-9dcd-21c995420c38</t>
+  </si>
+  <si>
+    <t>d40082e9-e9b5-4275-8a8d-a9ae82b0a8fa</t>
+  </si>
+  <si>
+    <t>a8a27bb7-4bac-477d-bc86-472a18428ab0</t>
+  </si>
+  <si>
+    <t>4778ac70-1139-4dfd-8dac-4872641153a7</t>
   </si>
 </sst>
 </file>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -135,7 +135,7 @@
     <t>ahc_hrsn_valid_01_screening</t>
   </si>
   <si>
-    <t>f5e7c858-1724-4776-9e05-0703afa5b1b7</t>
+    <t>95b8b0b0-a12d-48c7-ac7d-b79791c1de3c</t>
   </si>
   <si>
     <t>Missing Column</t>
@@ -147,7 +147,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>20fa3903-4e4c-453c-a5af-f951ed63e446</t>
+    <t>2635d729-6559-464a-b0d6-7325018ffe36</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -156,7 +156,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>22c886fc-582d-4aca-90a9-3c4452477c9c</t>
+    <t>b9069bd0-8299-4b62-ab81-e287d88133be</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -165,7 +165,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>58f4c605-0155-4e88-9877-41b28d0cd3f9</t>
+    <t>ffd88615-fc9c-402f-8479-67df9fcff002</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
@@ -174,7 +174,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>49008b05-96c5-4d77-853c-985dfdc931bb</t>
+    <t>23166d7b-d6b5-4bf5-906e-c0350d65bcf1</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
@@ -183,7 +183,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>35da1f4b-46b0-4fe6-9f17-2afddca0614b</t>
+    <t>6f584c45-31fb-419e-9173-33dee34cffa9</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -192,7 +192,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>d02049a3-b3fb-4051-9bdc-ce53c7bc652f</t>
+    <t>6d58188e-2b9a-42db-b593-b578e796f775</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
@@ -201,7 +201,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>99d180dc-5253-4ecd-bf67-f5bc7139c065</t>
+    <t>ef252f02-7ff7-4fd4-9c14-f9e2508c6ffa</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -210,7 +210,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>067ce2a1-f0fa-4fcd-9fa9-91a7d3c30e22</t>
+    <t>cfeeb1dd-de6e-423c-9f9d-ce724e1979dd</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
@@ -219,7 +219,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>a517b1ab-65c8-4136-91b6-9f883fee3252</t>
+    <t>499b7f18-15d5-405a-9a99-830fcf1a67e7</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -228,7 +228,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>d1757744-1978-4843-8cba-786cb94b475d</t>
+    <t>57858b87-1b4d-4bec-870b-7bfe9bcbf4c6</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -237,7 +237,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>7740f706-7bba-4c00-80ed-85ddb717da70</t>
+    <t>fda5965b-8733-4cd7-8f38-46707a87000e</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -267,7 +267,7 @@
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>c54a6bbf-ab56-4ca1-a8d8-c2059f603bf7</t>
+    <t>bbf9588f-c3b5-490f-8e1d-0b4d585a350a</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -276,7 +276,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>b5571b11-e6e9-47ea-b0ae-b090a93bd9fc</t>
+    <t>3645688c-9317-4f40-b626-c4f2f55b9b2b</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -285,7 +285,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>cc445e11-0b3e-4fdf-84a1-5f2d57d35f6b</t>
+    <t>7b6fcfa1-dab6-4c98-b71a-e2dcea765514</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -294,7 +294,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>9e8b6232-c4de-43a4-a425-6900077b2b3d</t>
+    <t>9686114b-e3f3-4f48-a423-5fb7cfd98da6</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -303,7 +303,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>e8da9fe9-6aa4-4111-ae3a-f6ae58bbb801</t>
+    <t>b11d057d-511d-4e08-b2a0-7956484b2bb4</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -312,7 +312,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>7e43b5c0-4d17-4c98-a363-1ff2cfcc652e</t>
+    <t>b72d9b61-880e-48f9-b52a-3e2e80071be7</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -321,7 +321,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>8f4b2d56-dea3-451f-8be0-b65f4f9c1792</t>
+    <t>23b92792-6856-4dd6-8f36-26291e6f7c3b</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -330,7 +330,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>44e578e1-d222-4d0d-8ae5-a8afc1625985</t>
+    <t>0f74e96e-82c9-4553-b393-f514c76dcb21</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -339,7 +339,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>54119e6a-a2f6-476c-b74c-7a7711eefa24</t>
+    <t>962da885-0a5f-40d9-bd3c-9787ed79257f</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -348,7 +348,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>45aff83d-6869-42f4-a4c8-3823873df181</t>
+    <t>7647913f-db03-4601-af23-12d6bb2410dc</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -357,7 +357,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>7edce13a-1249-444b-ae9b-329820606994</t>
+    <t>bb824194-3bd3-45d0-bd6b-673b34cf993b</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -366,7 +366,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>658bc6a5-eb16-4470-ba8c-6cdab74b52ad</t>
+    <t>2599baf6-9da4-4128-8a54-934e6cadee6e</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -375,7 +375,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>91c88db6-8424-4152-a3ff-e06ce481cfc0</t>
+    <t>05ae4641-e06a-4d39-9ebd-0935ad2e061b</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -384,7 +384,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>b1b42cfd-7019-4358-931a-aff57164817d</t>
+    <t>9bc6e87f-e77f-4750-a7c9-b1b320902717</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -393,7 +393,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>7b79132e-eccf-43c0-907c-7afa576c5ccc</t>
+    <t>4cf83cfc-cca5-4f4f-8c6e-f0e901ec1e67</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -402,7 +402,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>a48822bb-e7b5-4162-8d62-0622f6eca25d</t>
+    <t>e773ff1a-56fe-4d8f-99e4-cfd83382a9e6</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -411,7 +411,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>9e72fda2-1b28-4e0b-8090-1362c2c1e7b7</t>
+    <t>04a1b1b9-2e96-47c3-9ca4-f53d9194c2d1</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -420,7 +420,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>57aa5b0d-37c9-46e2-a99f-33914c38e2da</t>
+    <t>5c2ca29d-4b10-47c0-8212-3150a077625a</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -429,7 +429,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>0f895dd6-c10d-4dd2-b206-e55299ec1adf</t>
+    <t>dc5f13d6-c58f-440c-8b16-5187f61f1dbc</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -438,7 +438,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>0d5141d3-15cb-43de-b7f0-edd06f4cf5f2</t>
+    <t>846e6fd6-9a03-4e19-8866-bcc60e15178a</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -447,7 +447,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>e8849f0c-9fe3-4cee-9416-26283075cc86</t>
+    <t>54f0d4e0-2a53-49c0-9871-ac29f241f5ff</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -465,7 +465,7 @@
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>98f1eea4-eae8-4811-a66f-12323898e39e</t>
+    <t>66a4e63a-4cd2-47ff-8d31-fd14175a5169</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -483,82 +483,82 @@
     <t>Convert non-integer values to INTEGER</t>
   </si>
   <si>
-    <t>f01fd20e-b472-4427-b1a9-25e55684f475</t>
-  </si>
-  <si>
-    <t>267277ef-d745-4369-8d45-eec1a0781fbf</t>
-  </si>
-  <si>
-    <t>08fe024d-99a7-43c0-9eea-ec3b8f78a769</t>
-  </si>
-  <si>
-    <t>9472d8f8-07d2-4042-855a-b534fa580e99</t>
-  </si>
-  <si>
-    <t>decfc1b6-73a1-4511-a03d-ca657bc463c8</t>
-  </si>
-  <si>
-    <t>6dc9fb75-e565-4e72-abdd-f5481e8396fc</t>
-  </si>
-  <si>
-    <t>69b8fe00-781b-459f-a2d7-781335c2dfb9</t>
-  </si>
-  <si>
-    <t>83ba0f86-ecbb-428d-8c5c-f2d4d41f899c</t>
-  </si>
-  <si>
-    <t>fbdc7ce7-5535-46b3-a68d-fe54daa8484a</t>
-  </si>
-  <si>
-    <t>87cfffcd-5237-4439-bf89-f764d28f0f0a</t>
-  </si>
-  <si>
-    <t>c0e0f130-16a7-439b-b69b-ba935f2fe59c</t>
-  </si>
-  <si>
-    <t>118e0dfd-ba53-4966-8e70-ad512ce5b5df</t>
-  </si>
-  <si>
-    <t>78a38f6d-45cd-4017-841d-f0dde258aa1e</t>
-  </si>
-  <si>
-    <t>f590ee48-d78c-414f-b2cd-78f0018e51c1</t>
-  </si>
-  <si>
-    <t>0747bd3f-9170-48e4-ac88-8c542154f4ca</t>
-  </si>
-  <si>
-    <t>921a0fd9-9298-4a07-8034-562c853bfc02</t>
-  </si>
-  <si>
-    <t>9c3d91f2-b2fb-487d-b49c-a17c7fdd76d9</t>
-  </si>
-  <si>
-    <t>865e09da-db74-43f2-b0fd-cb12f4dc0654</t>
-  </si>
-  <si>
-    <t>1825722d-b575-463b-b5e1-f53780a23bf9</t>
-  </si>
-  <si>
-    <t>64797fb1-1839-4058-98de-816da4c8626a</t>
-  </si>
-  <si>
-    <t>d36db3fa-ffd9-42f2-b5b5-c65f4fa9a991</t>
-  </si>
-  <si>
-    <t>9e3b0c7c-87ab-4dc4-a1b9-0c67c3381733</t>
-  </si>
-  <si>
-    <t>1061be62-1ea5-434f-9dcd-21c995420c38</t>
-  </si>
-  <si>
-    <t>d40082e9-e9b5-4275-8a8d-a9ae82b0a8fa</t>
-  </si>
-  <si>
-    <t>a8a27bb7-4bac-477d-bc86-472a18428ab0</t>
-  </si>
-  <si>
-    <t>4778ac70-1139-4dfd-8dac-4872641153a7</t>
+    <t>c580c9af-cce5-4c1e-94aa-54625dd203e3</t>
+  </si>
+  <si>
+    <t>88bec9e8-b860-4b77-a028-80c29e53e247</t>
+  </si>
+  <si>
+    <t>edc93ddc-555f-4661-881e-b1bdbfde4d3a</t>
+  </si>
+  <si>
+    <t>af5f9e17-b5c1-4945-8069-ac7535280835</t>
+  </si>
+  <si>
+    <t>9fbea7ac-4085-4f12-8aae-d5f6212aaf6c</t>
+  </si>
+  <si>
+    <t>8255fed7-726b-4856-b95f-54780f6f26e7</t>
+  </si>
+  <si>
+    <t>6fa663c9-6616-41b2-9cb3-8e04ad299ac7</t>
+  </si>
+  <si>
+    <t>44af2d82-e3e2-4fbf-b43d-65a7b4863bf3</t>
+  </si>
+  <si>
+    <t>ae8b4b12-bc48-4f77-b3ba-bcdf37ed56ed</t>
+  </si>
+  <si>
+    <t>4edd6a35-2dd9-4580-ab45-9e2d7b4c962a</t>
+  </si>
+  <si>
+    <t>777c5e3b-469a-4d0a-baf5-76b83f79c3d4</t>
+  </si>
+  <si>
+    <t>5e5a732a-971e-41fd-9ec2-5ea31c167e7d</t>
+  </si>
+  <si>
+    <t>f180b0a2-8968-4324-899c-81d7805dc46b</t>
+  </si>
+  <si>
+    <t>a0dbf012-0e14-46b4-b284-835c7fde1d83</t>
+  </si>
+  <si>
+    <t>5556aa4f-0093-4423-b16b-ba324c3d003e</t>
+  </si>
+  <si>
+    <t>805e628a-64e0-4a8e-8a86-83ecd5d662cf</t>
+  </si>
+  <si>
+    <t>81338169-7388-4b32-911f-e552e099f102</t>
+  </si>
+  <si>
+    <t>f718546c-5f2a-48b7-a86c-fb7f9aaced33</t>
+  </si>
+  <si>
+    <t>361483ad-3fd1-4c32-8ab0-e6e8a2bb3b1a</t>
+  </si>
+  <si>
+    <t>924d09c8-a080-4da4-b566-4d1884148ec1</t>
+  </si>
+  <si>
+    <t>b859a5ff-f24c-4616-b10b-ee6a97d935d6</t>
+  </si>
+  <si>
+    <t>793aa431-f23c-48be-b929-50e1e2c164b1</t>
+  </si>
+  <si>
+    <t>6db8e041-81f3-4ddc-9b21-de3999a7f22f</t>
+  </si>
+  <si>
+    <t>8f3e0493-cdd9-4d9d-8a80-e85f36908d3b</t>
+  </si>
+  <si>
+    <t>70fc27e8-4c10-4045-858c-b294df3bde81</t>
+  </si>
+  <si>
+    <t>89be468e-3403-4958-a2cf-0284d7287d67</t>
   </si>
 </sst>
 </file>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -135,7 +135,7 @@
     <t>ahc_hrsn_valid_01_screening</t>
   </si>
   <si>
-    <t>95b8b0b0-a12d-48c7-ac7d-b79791c1de3c</t>
+    <t>69f45ebf-bc69-444e-9e59-72e123d1afa4</t>
   </si>
   <si>
     <t>Missing Column</t>
@@ -147,7 +147,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>2635d729-6559-464a-b0d6-7325018ffe36</t>
+    <t>dbaf647a-d05a-455c-9ef3-94131b1a2f22</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -156,7 +156,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>b9069bd0-8299-4b62-ab81-e287d88133be</t>
+    <t>fc57ae5a-8d70-4b43-bb4c-0a513397997c</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -165,7 +165,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>ffd88615-fc9c-402f-8479-67df9fcff002</t>
+    <t>7d13ba6b-d02a-4a8c-b65a-83ca38438f05</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
@@ -174,7 +174,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>23166d7b-d6b5-4bf5-906e-c0350d65bcf1</t>
+    <t>eed40001-1933-455a-8e39-7e3892ed2ce5</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
@@ -183,7 +183,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>6f584c45-31fb-419e-9173-33dee34cffa9</t>
+    <t>9b3b923a-5646-427f-b0a3-18cf52bb974d</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -192,7 +192,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>6d58188e-2b9a-42db-b593-b578e796f775</t>
+    <t>f25dcc11-b4bc-4ae5-90da-17a8cb58c6eb</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
@@ -201,7 +201,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>ef252f02-7ff7-4fd4-9c14-f9e2508c6ffa</t>
+    <t>6ae02d52-1294-4e4c-9a4e-d93c28e27e9b</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -210,7 +210,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>cfeeb1dd-de6e-423c-9f9d-ce724e1979dd</t>
+    <t>850d23cc-ae5b-4e96-ad78-ff0d692ed313</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
@@ -219,7 +219,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>499b7f18-15d5-405a-9a99-830fcf1a67e7</t>
+    <t>e1165481-4678-48dd-8072-2d5a8d8994a6</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -228,7 +228,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>57858b87-1b4d-4bec-870b-7bfe9bcbf4c6</t>
+    <t>4dc156fa-eada-4fa7-a2f3-5aede98788eb</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -237,7 +237,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>fda5965b-8733-4cd7-8f38-46707a87000e</t>
+    <t>d86cd5a3-fa2d-4804-9fcb-81e349e4b166</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -246,19 +246,19 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OPWDD_FLAG"</t>
   </si>
   <si>
-    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
+    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
   </si>
   <si>
     <t>ahc_hrsn_valid_01_q_e_admin_data</t>
   </si>
   <si>
-    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
+    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
   </si>
   <si>
     <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'QE_Admin_Data' has not been implemented yet.</t>
   </si>
   <si>
-    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
+    <t>591191c7-f693-5957-8734-ac87151ca981</t>
   </si>
   <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail.csv</t>
@@ -267,7 +267,7 @@
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>bbf9588f-c3b5-490f-8e1d-0b4d585a350a</t>
+    <t>ed7b1af2-3c5c-4259-a997-5eaeca20f2d5</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -276,7 +276,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>3645688c-9317-4f40-b626-c4f2f55b9b2b</t>
+    <t>815b48f7-b310-4ff6-aa02-6b8f7c049bb1</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -285,7 +285,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>7b6fcfa1-dab6-4c98-b71a-e2dcea765514</t>
+    <t>53dd6491-04c6-45f1-abf7-55cb5180a256</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -294,7 +294,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>9686114b-e3f3-4f48-a423-5fb7cfd98da6</t>
+    <t>5846bdfe-fb03-4f05-87e7-641a2b943ff7</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -303,7 +303,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>b11d057d-511d-4e08-b2a0-7956484b2bb4</t>
+    <t>54d572f5-f901-4688-8a27-c4f3db636f11</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -312,7 +312,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>b72d9b61-880e-48f9-b52a-3e2e80071be7</t>
+    <t>9ad84ef6-184a-437f-8472-31563a623011</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -321,7 +321,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>23b92792-6856-4dd6-8f36-26291e6f7c3b</t>
+    <t>494294b4-1d59-4221-9fa6-0ba460a71409</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -330,7 +330,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>0f74e96e-82c9-4553-b393-f514c76dcb21</t>
+    <t>5225b69e-1ecc-4362-bd59-fa2bcc642317</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -339,7 +339,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>962da885-0a5f-40d9-bd3c-9787ed79257f</t>
+    <t>a5ede658-f75d-4d73-9297-962e1f4b7d72</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -348,7 +348,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>7647913f-db03-4601-af23-12d6bb2410dc</t>
+    <t>5e59c68e-51d4-4a57-bbca-ff8ec3ebe05f</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -357,7 +357,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>bb824194-3bd3-45d0-bd6b-673b34cf993b</t>
+    <t>90ea63e8-a640-4b01-b573-e2924fc5f0ad</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -366,7 +366,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>2599baf6-9da4-4128-8a54-934e6cadee6e</t>
+    <t>e8d424f3-5833-4603-819d-23cc9039c289</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -375,7 +375,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>05ae4641-e06a-4d39-9ebd-0935ad2e061b</t>
+    <t>76865ebd-8524-4549-b034-3cbe130beb18</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -384,7 +384,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>9bc6e87f-e77f-4750-a7c9-b1b320902717</t>
+    <t>f14ca97a-4bf1-46d4-8ca2-2eadf9e16556</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -393,7 +393,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>4cf83cfc-cca5-4f4f-8c6e-f0e901ec1e67</t>
+    <t>07eedb66-f428-4be7-a42c-ae48c4c28c20</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -402,7 +402,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>e773ff1a-56fe-4d8f-99e4-cfd83382a9e6</t>
+    <t>0dd7f6a8-0e76-4008-a21e-4a0a5de0ebc3</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -411,7 +411,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>04a1b1b9-2e96-47c3-9ca4-f53d9194c2d1</t>
+    <t>6a9f8a4c-e08b-447d-9f3d-8d2ddd34979f</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -420,7 +420,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>5c2ca29d-4b10-47c0-8212-3150a077625a</t>
+    <t>868b5676-29a9-48d8-ba3a-feed82e9caac</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -429,7 +429,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>dc5f13d6-c58f-440c-8b16-5187f61f1dbc</t>
+    <t>59f3777c-bb08-442c-816b-9727ccfda685</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -438,7 +438,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>846e6fd6-9a03-4e19-8866-bcc60e15178a</t>
+    <t>011c4358-b74a-42d7-b4ad-586c1217a7a3</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -447,7 +447,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>54f0d4e0-2a53-49c0-9871-ac29f241f5ff</t>
+    <t>1a8c1aad-0a8f-4bf0-9306-592948d513dd</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -456,7 +456,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
   </si>
   <si>
-    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
+    <t>86b4a49e-7378-5159-9f41-b005208c31bc</t>
   </si>
   <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-12-12-2023-valid.csv</t>
@@ -465,7 +465,7 @@
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>66a4e63a-4cd2-47ff-8d31-fd14175a5169</t>
+    <t>fdee0ae4-6ff7-442e-b183-03041be75e7e</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -483,82 +483,82 @@
     <t>Convert non-integer values to INTEGER</t>
   </si>
   <si>
-    <t>c580c9af-cce5-4c1e-94aa-54625dd203e3</t>
-  </si>
-  <si>
-    <t>88bec9e8-b860-4b77-a028-80c29e53e247</t>
-  </si>
-  <si>
-    <t>edc93ddc-555f-4661-881e-b1bdbfde4d3a</t>
-  </si>
-  <si>
-    <t>af5f9e17-b5c1-4945-8069-ac7535280835</t>
-  </si>
-  <si>
-    <t>9fbea7ac-4085-4f12-8aae-d5f6212aaf6c</t>
-  </si>
-  <si>
-    <t>8255fed7-726b-4856-b95f-54780f6f26e7</t>
-  </si>
-  <si>
-    <t>6fa663c9-6616-41b2-9cb3-8e04ad299ac7</t>
-  </si>
-  <si>
-    <t>44af2d82-e3e2-4fbf-b43d-65a7b4863bf3</t>
-  </si>
-  <si>
-    <t>ae8b4b12-bc48-4f77-b3ba-bcdf37ed56ed</t>
-  </si>
-  <si>
-    <t>4edd6a35-2dd9-4580-ab45-9e2d7b4c962a</t>
-  </si>
-  <si>
-    <t>777c5e3b-469a-4d0a-baf5-76b83f79c3d4</t>
-  </si>
-  <si>
-    <t>5e5a732a-971e-41fd-9ec2-5ea31c167e7d</t>
-  </si>
-  <si>
-    <t>f180b0a2-8968-4324-899c-81d7805dc46b</t>
-  </si>
-  <si>
-    <t>a0dbf012-0e14-46b4-b284-835c7fde1d83</t>
-  </si>
-  <si>
-    <t>5556aa4f-0093-4423-b16b-ba324c3d003e</t>
-  </si>
-  <si>
-    <t>805e628a-64e0-4a8e-8a86-83ecd5d662cf</t>
-  </si>
-  <si>
-    <t>81338169-7388-4b32-911f-e552e099f102</t>
-  </si>
-  <si>
-    <t>f718546c-5f2a-48b7-a86c-fb7f9aaced33</t>
-  </si>
-  <si>
-    <t>361483ad-3fd1-4c32-8ab0-e6e8a2bb3b1a</t>
-  </si>
-  <si>
-    <t>924d09c8-a080-4da4-b566-4d1884148ec1</t>
-  </si>
-  <si>
-    <t>b859a5ff-f24c-4616-b10b-ee6a97d935d6</t>
-  </si>
-  <si>
-    <t>793aa431-f23c-48be-b929-50e1e2c164b1</t>
-  </si>
-  <si>
-    <t>6db8e041-81f3-4ddc-9b21-de3999a7f22f</t>
-  </si>
-  <si>
-    <t>8f3e0493-cdd9-4d9d-8a80-e85f36908d3b</t>
-  </si>
-  <si>
-    <t>70fc27e8-4c10-4045-858c-b294df3bde81</t>
-  </si>
-  <si>
-    <t>89be468e-3403-4958-a2cf-0284d7287d67</t>
+    <t>8f431b0e-0d9e-42ca-97ca-7b61d8824d20</t>
+  </si>
+  <si>
+    <t>2e79a982-fcdb-48c1-8752-ceee1aa77256</t>
+  </si>
+  <si>
+    <t>a9c9e4e4-7828-41bc-8fc2-d7bb69ccf364</t>
+  </si>
+  <si>
+    <t>2e33b845-3409-4bbf-9726-ee86617aa123</t>
+  </si>
+  <si>
+    <t>7f952548-16c3-43c2-a1e5-e24275633ca4</t>
+  </si>
+  <si>
+    <t>5f0237e5-b3c7-4951-842b-29f2ac710378</t>
+  </si>
+  <si>
+    <t>e858541e-93ec-4ab1-bb80-870030c8de10</t>
+  </si>
+  <si>
+    <t>e3e5a9eb-4f9a-41d9-8384-94781be61ce8</t>
+  </si>
+  <si>
+    <t>f9b91d43-617f-4bd6-908e-e25fbc4a09ca</t>
+  </si>
+  <si>
+    <t>48bfdaba-4762-477f-a736-b6048f4d54c1</t>
+  </si>
+  <si>
+    <t>489580e5-e745-46fb-a8e9-1066b955698f</t>
+  </si>
+  <si>
+    <t>13d70913-2ce9-4720-bb74-8e3e92266312</t>
+  </si>
+  <si>
+    <t>fdf7d612-4cfb-44c4-a1bc-05706f66d404</t>
+  </si>
+  <si>
+    <t>dd03acfd-5c0e-4411-be5c-92b4d78c5ec4</t>
+  </si>
+  <si>
+    <t>1f629815-2287-49ab-932b-077a154b1f97</t>
+  </si>
+  <si>
+    <t>4b5ede2d-7972-4025-b264-68ca35520a9d</t>
+  </si>
+  <si>
+    <t>c9bba00c-0c5a-4be2-b6ae-2a2a94c7578b</t>
+  </si>
+  <si>
+    <t>864968c5-c0f1-4a0c-9671-c0bb49a84693</t>
+  </si>
+  <si>
+    <t>a5a593ff-757e-48db-a620-1951939f9e70</t>
+  </si>
+  <si>
+    <t>3e5aeeef-7245-4a01-863b-b91e1341fc49</t>
+  </si>
+  <si>
+    <t>04afe5bb-edee-4c11-a2e0-daf54d508d28</t>
+  </si>
+  <si>
+    <t>da8a2660-535d-4430-b696-95f668ade476</t>
+  </si>
+  <si>
+    <t>aaacb190-7de5-4069-b422-6a3184f9e631</t>
+  </si>
+  <si>
+    <t>50d9b2ac-e7cd-4047-97f5-6c05d9bccd03</t>
+  </si>
+  <si>
+    <t>afc2bc99-bc4f-450e-800c-ccfe303e27dd</t>
+  </si>
+  <si>
+    <t>baacb865-a98a-4216-bfa0-8909c50afe23</t>
   </si>
 </sst>
 </file>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
   <si>
     <t>orch_session_id</t>
   </si>
@@ -78,40 +78,70 @@
     <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
   </si>
   <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/jrchc-hrsn-file-spec.xlsx</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>7b979b68-7227-53fd-b689-e4fe153afb76</t>
+  </si>
+  <si>
+    <t>Sheet Missing</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Admin_Demographic' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>abf5c680-a135-5d89-b871-fa5b9b99aed6</t>
+  </si>
+  <si>
+    <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Screening' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>d70a4700-6b40-52fc-a7a2-69ef0d7f69ff</t>
+  </si>
+  <si>
+    <t>47277588-99e8-59f5-8384-b24344a86073</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
+  </si>
+  <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
   </si>
   <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>7b979b68-7227-53fd-b689-e4fe153afb76</t>
-  </si>
-  <si>
-    <t>Sheet Missing</t>
+    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>abf5c680-a135-5d89-b871-fa5b9b99aed6</t>
-  </si>
-  <si>
-    <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
+    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
+  </si>
+  <si>
+    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>d70a4700-6b40-52fc-a7a2-69ef0d7f69ff</t>
-  </si>
-  <si>
-    <t>47277588-99e8-59f5-8384-b24344a86073</t>
+    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
+  </si>
+  <si>
+    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
   </si>
   <si>
     <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
+    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
   </si>
   <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-valid-01.xlsx</t>
@@ -120,7 +150,7 @@
     <t>ahc_hrsn_valid_01_admin_demographic</t>
   </si>
   <si>
-    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
+    <t>591191c7-f693-5957-8734-ac87151ca981</t>
   </si>
   <si>
     <t>TODO</t>
@@ -129,13 +159,13 @@
     <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'Admin_Demographic' has not been implemented yet.</t>
   </si>
   <si>
-    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
+    <t>3b4eb0e5-6239-537a-8e67-e50e172e72a2</t>
   </si>
   <si>
     <t>ahc_hrsn_valid_01_screening</t>
   </si>
   <si>
-    <t>69f45ebf-bc69-444e-9e59-72e123d1afa4</t>
+    <t>e8072bf2-b35a-43f7-acb0-e432ee838454</t>
   </si>
   <si>
     <t>Missing Column</t>
@@ -147,7 +177,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>dbaf647a-d05a-455c-9ef3-94131b1a2f22</t>
+    <t>4fb54c11-1a30-497c-b7f2-3eb781fdedc9</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -156,7 +186,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>fc57ae5a-8d70-4b43-bb4c-0a513397997c</t>
+    <t>75468089-d654-449b-8f54-1fed131c7f8e</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -165,7 +195,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>7d13ba6b-d02a-4a8c-b65a-83ca38438f05</t>
+    <t>93a3ef2f-7c03-4d54-9963-ffe23b558aff</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
@@ -174,7 +204,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>eed40001-1933-455a-8e39-7e3892ed2ce5</t>
+    <t>4c02d136-85f0-4aa3-a0f8-a8eaa36ecbbf</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
@@ -183,7 +213,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>9b3b923a-5646-427f-b0a3-18cf52bb974d</t>
+    <t>39cefa29-8080-4bcd-aedf-b3126d48e525</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -192,7 +222,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>f25dcc11-b4bc-4ae5-90da-17a8cb58c6eb</t>
+    <t>36f9f665-5cae-45ab-942a-866d651b982d</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
@@ -201,7 +231,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>6ae02d52-1294-4e4c-9a4e-d93c28e27e9b</t>
+    <t>ee5b41c4-17bb-4895-a53e-5de19f2bb425</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
@@ -210,7 +240,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>850d23cc-ae5b-4e96-ad78-ff0d692ed313</t>
+    <t>a906d5d1-1895-4062-8575-6b0315792fd3</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
@@ -219,7 +249,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>e1165481-4678-48dd-8072-2d5a8d8994a6</t>
+    <t>fb6a39c9-90fd-43f3-aedb-26b31d0c87a5</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -228,7 +258,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>4dc156fa-eada-4fa7-a2f3-5aede98788eb</t>
+    <t>3c51ef73-6c00-48fa-aaa8-ec2abed99acb</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -237,7 +267,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>d86cd5a3-fa2d-4804-9fcb-81e349e4b166</t>
+    <t>3a2d069f-04d3-4954-9b54-4142bcd0f467</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -246,19 +276,19 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OPWDD_FLAG"</t>
   </si>
   <si>
-    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
+    <t>a530fe1b-57ef-5a90-8bea-835ece2483da</t>
   </si>
   <si>
     <t>ahc_hrsn_valid_01_q_e_admin_data</t>
   </si>
   <si>
-    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
+    <t>a3fe7098-8ae8-5612-81ac-cbe10780c19b</t>
   </si>
   <si>
     <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'QE_Admin_Data' has not been implemented yet.</t>
   </si>
   <si>
-    <t>591191c7-f693-5957-8734-ac87151ca981</t>
+    <t>99e72a60-96ab-5ef1-a3af-3e7759777664</t>
   </si>
   <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail.csv</t>
@@ -267,7 +297,7 @@
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>ed7b1af2-3c5c-4259-a997-5eaeca20f2d5</t>
+    <t>478df3f3-5634-4055-b749-a8194910501e</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -276,7 +306,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>815b48f7-b310-4ff6-aa02-6b8f7c049bb1</t>
+    <t>4c048f3b-2cee-4c9c-8244-45cb68b34de8</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -285,7 +315,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>53dd6491-04c6-45f1-abf7-55cb5180a256</t>
+    <t>6f223a56-4770-4967-a77b-ee913cc4e381</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -294,7 +324,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>5846bdfe-fb03-4f05-87e7-641a2b943ff7</t>
+    <t>3549d51c-7ed6-4efc-83a3-295b6b89a39a</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -303,7 +333,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>54d572f5-f901-4688-8a27-c4f3db636f11</t>
+    <t>14fba79f-4bf3-40db-99ad-de7d3ff7c376</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -312,7 +342,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>9ad84ef6-184a-437f-8472-31563a623011</t>
+    <t>1a5e19a3-7824-4a10-b89d-a611da7f8fd0</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -321,7 +351,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>494294b4-1d59-4221-9fa6-0ba460a71409</t>
+    <t>4cb48244-cffe-4364-825e-270d560bd038</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -330,7 +360,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>5225b69e-1ecc-4362-bd59-fa2bcc642317</t>
+    <t>f2028828-18f4-4e93-b98e-bd1034c1e902</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -339,7 +369,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>a5ede658-f75d-4d73-9297-962e1f4b7d72</t>
+    <t>0990a6f3-9fdf-4c40-bc6a-595af64f8ce5</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -348,7 +378,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>5e59c68e-51d4-4a57-bbca-ff8ec3ebe05f</t>
+    <t>96bd7521-da8f-4bbf-a6d9-9952dceaff28</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -357,7 +387,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>90ea63e8-a640-4b01-b573-e2924fc5f0ad</t>
+    <t>d0e1e6d2-537a-4f30-8d50-efb9e5505259</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -366,7 +396,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>e8d424f3-5833-4603-819d-23cc9039c289</t>
+    <t>b46bab6a-1095-4edd-847f-1c27a60e5377</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -375,7 +405,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>76865ebd-8524-4549-b034-3cbe130beb18</t>
+    <t>955e5510-b7e9-4b46-a5e8-8c417bde1eaa</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -384,7 +414,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>f14ca97a-4bf1-46d4-8ca2-2eadf9e16556</t>
+    <t>6c72b864-b0ae-4f72-884c-341d0df2d6ae</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -393,7 +423,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>07eedb66-f428-4be7-a42c-ae48c4c28c20</t>
+    <t>fe18eecb-5a58-444e-9a6d-09537b5d49e7</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -402,7 +432,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>0dd7f6a8-0e76-4008-a21e-4a0a5de0ebc3</t>
+    <t>48adf76c-bf15-4d76-9250-e24ffe07c3e4</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -411,7 +441,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>6a9f8a4c-e08b-447d-9f3d-8d2ddd34979f</t>
+    <t>bfdc6088-c3a4-4917-8282-3212efefb5cd</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -420,7 +450,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>868b5676-29a9-48d8-ba3a-feed82e9caac</t>
+    <t>fce070ce-037c-46d6-9f9c-6885b791531b</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -429,7 +459,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>59f3777c-bb08-442c-816b-9727ccfda685</t>
+    <t>295a3da8-31e8-414a-b192-d52b506060a1</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -438,7 +468,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>011c4358-b74a-42d7-b4ad-586c1217a7a3</t>
+    <t>b63679a7-5188-46c3-9b59-f7e586b88ff4</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -447,7 +477,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>1a8c1aad-0a8f-4bf0-9306-592948d513dd</t>
+    <t>84c22787-93a6-4b5c-a9a7-f63211d99868</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -456,7 +486,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
   </si>
   <si>
-    <t>86b4a49e-7378-5159-9f41-b005208c31bc</t>
+    <t>c60cf3db-b1bf-5103-b278-b0c128ce924a</t>
   </si>
   <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-12-12-2023-valid.csv</t>
@@ -465,7 +495,7 @@
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>fdee0ae4-6ff7-442e-b183-03041be75e7e</t>
+    <t>bdbe5b5a-e186-4b87-8918-796e1b5146d1</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -483,82 +513,82 @@
     <t>Convert non-integer values to INTEGER</t>
   </si>
   <si>
-    <t>8f431b0e-0d9e-42ca-97ca-7b61d8824d20</t>
-  </si>
-  <si>
-    <t>2e79a982-fcdb-48c1-8752-ceee1aa77256</t>
-  </si>
-  <si>
-    <t>a9c9e4e4-7828-41bc-8fc2-d7bb69ccf364</t>
-  </si>
-  <si>
-    <t>2e33b845-3409-4bbf-9726-ee86617aa123</t>
-  </si>
-  <si>
-    <t>7f952548-16c3-43c2-a1e5-e24275633ca4</t>
-  </si>
-  <si>
-    <t>5f0237e5-b3c7-4951-842b-29f2ac710378</t>
-  </si>
-  <si>
-    <t>e858541e-93ec-4ab1-bb80-870030c8de10</t>
-  </si>
-  <si>
-    <t>e3e5a9eb-4f9a-41d9-8384-94781be61ce8</t>
-  </si>
-  <si>
-    <t>f9b91d43-617f-4bd6-908e-e25fbc4a09ca</t>
-  </si>
-  <si>
-    <t>48bfdaba-4762-477f-a736-b6048f4d54c1</t>
-  </si>
-  <si>
-    <t>489580e5-e745-46fb-a8e9-1066b955698f</t>
-  </si>
-  <si>
-    <t>13d70913-2ce9-4720-bb74-8e3e92266312</t>
-  </si>
-  <si>
-    <t>fdf7d612-4cfb-44c4-a1bc-05706f66d404</t>
-  </si>
-  <si>
-    <t>dd03acfd-5c0e-4411-be5c-92b4d78c5ec4</t>
-  </si>
-  <si>
-    <t>1f629815-2287-49ab-932b-077a154b1f97</t>
-  </si>
-  <si>
-    <t>4b5ede2d-7972-4025-b264-68ca35520a9d</t>
-  </si>
-  <si>
-    <t>c9bba00c-0c5a-4be2-b6ae-2a2a94c7578b</t>
-  </si>
-  <si>
-    <t>864968c5-c0f1-4a0c-9671-c0bb49a84693</t>
-  </si>
-  <si>
-    <t>a5a593ff-757e-48db-a620-1951939f9e70</t>
-  </si>
-  <si>
-    <t>3e5aeeef-7245-4a01-863b-b91e1341fc49</t>
-  </si>
-  <si>
-    <t>04afe5bb-edee-4c11-a2e0-daf54d508d28</t>
-  </si>
-  <si>
-    <t>da8a2660-535d-4430-b696-95f668ade476</t>
-  </si>
-  <si>
-    <t>aaacb190-7de5-4069-b422-6a3184f9e631</t>
-  </si>
-  <si>
-    <t>50d9b2ac-e7cd-4047-97f5-6c05d9bccd03</t>
-  </si>
-  <si>
-    <t>afc2bc99-bc4f-450e-800c-ccfe303e27dd</t>
-  </si>
-  <si>
-    <t>baacb865-a98a-4216-bfa0-8909c50afe23</t>
+    <t>b36b3553-e7ac-4e16-9c0a-6f07a88a5373</t>
+  </si>
+  <si>
+    <t>3db2979f-913f-451e-a36e-c534abdeb4e0</t>
+  </si>
+  <si>
+    <t>1e91bc80-a5a9-48a2-82a4-27ea6d0158dd</t>
+  </si>
+  <si>
+    <t>b62c0483-6814-4abd-a54c-f5dd6444f171</t>
+  </si>
+  <si>
+    <t>d174ce5a-9baa-42d3-8f3e-8a23406b0662</t>
+  </si>
+  <si>
+    <t>0a4fbf7a-0e9d-4aa9-9339-eb5c6edaec39</t>
+  </si>
+  <si>
+    <t>33187aac-eeda-4649-8cb5-d177e002a244</t>
+  </si>
+  <si>
+    <t>ba704267-8f26-4568-88d7-20de7115419c</t>
+  </si>
+  <si>
+    <t>62dbc77b-b212-4555-b7ad-9a7ac4a9ebf9</t>
+  </si>
+  <si>
+    <t>33e9a0c1-3a63-4faf-99dd-8eada6bd463b</t>
+  </si>
+  <si>
+    <t>98ae6f47-0d61-44cb-ab2a-a0f8733d7149</t>
+  </si>
+  <si>
+    <t>b6e47942-9086-456b-8105-9a03c5374278</t>
+  </si>
+  <si>
+    <t>6587a497-e5da-45ab-86dc-44db98f3e460</t>
+  </si>
+  <si>
+    <t>695c3bfa-c1b9-455f-bf96-8b1d5d7524fd</t>
+  </si>
+  <si>
+    <t>0e2df081-9bac-4637-8808-05cf4da5b1c7</t>
+  </si>
+  <si>
+    <t>d11bc45e-14f6-4ec9-8e75-b957f76f5d85</t>
+  </si>
+  <si>
+    <t>2a40b763-bbe9-4c73-a242-ac1273918eb2</t>
+  </si>
+  <si>
+    <t>70262c9a-f47c-4409-b39c-e958b7f808fe</t>
+  </si>
+  <si>
+    <t>ae08bf13-7445-4ff8-a512-9393b05d0c15</t>
+  </si>
+  <si>
+    <t>4a09c8b7-d6a8-42a4-b7a6-41be06cc86f6</t>
+  </si>
+  <si>
+    <t>01465847-d973-4323-b2ed-87ecd6f6c3fa</t>
+  </si>
+  <si>
+    <t>1543e2ab-1380-4abe-9304-745303c6d216</t>
+  </si>
+  <si>
+    <t>4417d626-2f03-4f45-b6e4-ac139c7c25db</t>
+  </si>
+  <si>
+    <t>d3bae684-8b35-401a-a243-7252ddb95bd3</t>
+  </si>
+  <si>
+    <t>e5f3e2f8-23ce-4402-b210-cc21bf2023d2</t>
+  </si>
+  <si>
+    <t>294b1a56-4d03-4927-8928-31ff5b651103</t>
   </si>
 </sst>
 </file>
@@ -804,16 +834,16 @@
         <v>34</v>
       </c>
       <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
         <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
       </c>
       <c r="P5" t="s">
         <v>34</v>
@@ -830,25 +860,25 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="P6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -862,25 +892,25 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
         <v>42</v>
       </c>
-      <c r="M7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>47</v>
+      <c r="P7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -894,25 +924,25 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
         <v>48</v>
       </c>
-      <c r="L8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>50</v>
+      <c r="P8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -926,25 +956,25 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
         <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -958,25 +988,25 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -990,25 +1020,25 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1022,25 +1052,25 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -1054,25 +1084,25 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -1086,25 +1116,25 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -1118,25 +1148,25 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -1150,25 +1180,25 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -1182,25 +1212,25 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -1214,25 +1244,25 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" t="s">
         <v>79</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" t="s">
         <v>80</v>
       </c>
-      <c r="L18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="Q18" t="s">
         <v>81</v>
-      </c>
-      <c r="P18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -1246,25 +1276,25 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="H19" t="s">
+      <c r="L19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" t="s">
         <v>83</v>
       </c>
-      <c r="I19" t="s">
+      <c r="Q19" t="s">
         <v>84</v>
-      </c>
-      <c r="K19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -1278,25 +1308,25 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -1310,25 +1340,25 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" t="s">
         <v>91</v>
       </c>
-      <c r="L21" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>93</v>
+      <c r="P21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -1342,25 +1372,25 @@
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L22" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
@@ -1374,25 +1404,25 @@
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -1406,25 +1436,25 @@
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L24" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -1438,25 +1468,25 @@
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L25" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -1470,25 +1500,25 @@
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
@@ -1502,25 +1532,25 @@
         <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
@@ -1534,25 +1564,25 @@
         <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I28" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L28" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1566,25 +1596,25 @@
         <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
@@ -1598,25 +1628,25 @@
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L30" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
@@ -1630,25 +1660,25 @@
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
@@ -1662,25 +1692,25 @@
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
@@ -1694,25 +1724,25 @@
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I33" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L33" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -1726,25 +1756,25 @@
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
@@ -1758,25 +1788,25 @@
         <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36">
@@ -1790,25 +1820,25 @@
         <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L36" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37">
@@ -1822,25 +1852,25 @@
         <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I37" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L37" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38">
@@ -1854,25 +1884,25 @@
         <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I38" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L38" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39">
@@ -1886,25 +1916,25 @@
         <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I39" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40">
@@ -1918,34 +1948,25 @@
         <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" t="s">
         <v>149</v>
       </c>
-      <c r="I40" t="s">
+      <c r="L40" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" t="s">
         <v>150</v>
       </c>
-      <c r="K40" t="s">
+      <c r="Q40" t="s">
         <v>151</v>
-      </c>
-      <c r="L40" t="s">
-        <v>152</v>
-      </c>
-      <c r="M40" t="s">
-        <v>153</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40" t="s">
-        <v>154</v>
-      </c>
-      <c r="P40" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="41">
@@ -1959,34 +1980,25 @@
         <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="I41" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L41" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="M41" t="s">
         <v>153</v>
       </c>
-      <c r="N41">
-        <v>2</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="Q41" t="s">
         <v>154</v>
-      </c>
-      <c r="P41" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="42">
@@ -2000,34 +2012,25 @@
         <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="I42" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="M42" t="s">
-        <v>153</v>
-      </c>
-      <c r="N42">
-        <v>3</v>
-      </c>
-      <c r="O42" t="s">
-        <v>154</v>
-      </c>
-      <c r="P42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43">
@@ -2041,34 +2044,34 @@
         <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H43" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I43" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L43" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M43" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q43" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44">
@@ -2082,34 +2085,34 @@
         <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H44" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I44" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K44" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L44" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M44" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O44" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q44" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45">
@@ -2123,34 +2126,34 @@
         <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H45" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I45" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="L45" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M45" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O45" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q45" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46">
@@ -2164,34 +2167,34 @@
         <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H46" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I46" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K46" t="s">
+        <v>169</v>
+      </c>
+      <c r="L46" t="s">
         <v>162</v>
       </c>
-      <c r="L46" t="s">
-        <v>152</v>
-      </c>
       <c r="M46" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O46" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q46" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47">
@@ -2205,34 +2208,34 @@
         <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H47" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I47" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K47" t="s">
+        <v>170</v>
+      </c>
+      <c r="L47" t="s">
+        <v>162</v>
+      </c>
+      <c r="M47" t="s">
         <v>163</v>
       </c>
-      <c r="L47" t="s">
-        <v>152</v>
-      </c>
-      <c r="M47" t="s">
-        <v>153</v>
-      </c>
       <c r="N47">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O47" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q47" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48">
@@ -2246,34 +2249,34 @@
         <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H48" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I48" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L48" t="s">
+        <v>162</v>
+      </c>
+      <c r="M48" t="s">
+        <v>163</v>
+      </c>
+      <c r="N48">
+        <v>6</v>
+      </c>
+      <c r="O48" t="s">
         <v>164</v>
       </c>
-      <c r="L48" t="s">
-        <v>152</v>
-      </c>
-      <c r="M48" t="s">
-        <v>153</v>
-      </c>
-      <c r="N48">
-        <v>9</v>
-      </c>
-      <c r="O48" t="s">
-        <v>154</v>
-      </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q48" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49">
@@ -2287,34 +2290,34 @@
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H49" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I49" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K49" t="s">
+        <v>172</v>
+      </c>
+      <c r="L49" t="s">
+        <v>162</v>
+      </c>
+      <c r="M49" t="s">
+        <v>163</v>
+      </c>
+      <c r="N49">
+        <v>7</v>
+      </c>
+      <c r="O49" t="s">
+        <v>164</v>
+      </c>
+      <c r="P49" t="s">
         <v>165</v>
       </c>
-      <c r="L49" t="s">
-        <v>152</v>
-      </c>
-      <c r="M49" t="s">
-        <v>153</v>
-      </c>
-      <c r="N49">
-        <v>10</v>
-      </c>
-      <c r="O49" t="s">
-        <v>154</v>
-      </c>
-      <c r="P49" t="s">
-        <v>155</v>
-      </c>
       <c r="Q49" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50">
@@ -2328,34 +2331,34 @@
         <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H50" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I50" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K50" t="s">
+        <v>173</v>
+      </c>
+      <c r="L50" t="s">
+        <v>162</v>
+      </c>
+      <c r="M50" t="s">
+        <v>163</v>
+      </c>
+      <c r="N50">
+        <v>8</v>
+      </c>
+      <c r="O50" t="s">
+        <v>164</v>
+      </c>
+      <c r="P50" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q50" t="s">
         <v>166</v>
-      </c>
-      <c r="L50" t="s">
-        <v>152</v>
-      </c>
-      <c r="M50" t="s">
-        <v>153</v>
-      </c>
-      <c r="N50">
-        <v>11</v>
-      </c>
-      <c r="O50" t="s">
-        <v>154</v>
-      </c>
-      <c r="P50" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="51">
@@ -2369,34 +2372,34 @@
         <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H51" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I51" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K51" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L51" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M51" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N51">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O51" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P51" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q51" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52">
@@ -2410,34 +2413,34 @@
         <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H52" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I52" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K52" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L52" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M52" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N52">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O52" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P52" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q52" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53">
@@ -2451,34 +2454,34 @@
         <v>20</v>
       </c>
       <c r="G53" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H53" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I53" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K53" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="L53" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M53" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N53">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O53" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P53" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q53" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54">
@@ -2492,34 +2495,34 @@
         <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H54" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I54" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K54" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="L54" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M54" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N54">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O54" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P54" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q54" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
@@ -2533,34 +2536,34 @@
         <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H55" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I55" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K55" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M55" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N55">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O55" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P55" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q55" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56">
@@ -2574,34 +2577,34 @@
         <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H56" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I56" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K56" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="L56" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M56" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N56">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O56" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P56" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q56" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57">
@@ -2615,34 +2618,34 @@
         <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H57" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I57" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K57" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L57" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M57" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N57">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O57" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P57" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q57" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58">
@@ -2656,34 +2659,34 @@
         <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H58" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I58" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K58" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L58" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M58" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N58">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O58" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P58" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q58" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59">
@@ -2697,34 +2700,34 @@
         <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H59" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I59" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K59" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="L59" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M59" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N59">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O59" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P59" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q59" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60">
@@ -2738,34 +2741,34 @@
         <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H60" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I60" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K60" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L60" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M60" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N60">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O60" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P60" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q60" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61">
@@ -2779,34 +2782,34 @@
         <v>20</v>
       </c>
       <c r="G61" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H61" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I61" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K61" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="L61" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M61" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N61">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O61" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P61" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q61" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62">
@@ -2820,34 +2823,34 @@
         <v>20</v>
       </c>
       <c r="G62" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H62" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I62" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K62" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="L62" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M62" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N62">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O62" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P62" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q62" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63">
@@ -2861,34 +2864,34 @@
         <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H63" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I63" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K63" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L63" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M63" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N63">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O63" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P63" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q63" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64">
@@ -2902,34 +2905,34 @@
         <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H64" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I64" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K64" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L64" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M64" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N64">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O64" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P64" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q64" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65">
@@ -2943,34 +2946,34 @@
         <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H65" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I65" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K65" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="L65" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M65" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N65">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O65" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="P65" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q65" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66">
@@ -2984,34 +2987,157 @@
         <v>20</v>
       </c>
       <c r="G66" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H66" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I66" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K66" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L66" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M66" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N66">
+        <v>24</v>
+      </c>
+      <c r="O66" t="s">
+        <v>164</v>
+      </c>
+      <c r="P66" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>158</v>
+      </c>
+      <c r="H67" t="s">
+        <v>159</v>
+      </c>
+      <c r="I67" t="s">
+        <v>160</v>
+      </c>
+      <c r="K67" t="s">
+        <v>190</v>
+      </c>
+      <c r="L67" t="s">
+        <v>162</v>
+      </c>
+      <c r="M67" t="s">
+        <v>163</v>
+      </c>
+      <c r="N67">
+        <v>25</v>
+      </c>
+      <c r="O67" t="s">
+        <v>164</v>
+      </c>
+      <c r="P67" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" t="s">
+        <v>158</v>
+      </c>
+      <c r="H68" t="s">
+        <v>159</v>
+      </c>
+      <c r="I68" t="s">
+        <v>160</v>
+      </c>
+      <c r="K68" t="s">
+        <v>191</v>
+      </c>
+      <c r="L68" t="s">
+        <v>162</v>
+      </c>
+      <c r="M68" t="s">
+        <v>163</v>
+      </c>
+      <c r="N68">
+        <v>26</v>
+      </c>
+      <c r="O68" t="s">
+        <v>164</v>
+      </c>
+      <c r="P68" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" t="s">
+        <v>158</v>
+      </c>
+      <c r="H69" t="s">
+        <v>159</v>
+      </c>
+      <c r="I69" t="s">
+        <v>160</v>
+      </c>
+      <c r="K69" t="s">
+        <v>192</v>
+      </c>
+      <c r="L69" t="s">
+        <v>162</v>
+      </c>
+      <c r="M69" t="s">
+        <v>163</v>
+      </c>
+      <c r="N69">
         <v>27</v>
       </c>
-      <c r="O66" t="s">
-        <v>154</v>
-      </c>
-      <c r="P66" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>156</v>
+      <c r="O69" t="s">
+        <v>164</v>
+      </c>
+      <c r="P69" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="340">
   <si>
     <t>orch_session_id</t>
   </si>
@@ -75,520 +75,961 @@
     <t>Session 05e8feaa-0bed-5909-a817-39812494b361 markdown diagnostics not provided (not completed?)</t>
   </si>
   <si>
+    <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
+  </si>
+  <si>
+    <t>support\assurance\ahc-hrsn-elt\screening\synthetic-content\ahc-hrsn-valid-01.xlsx</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_valid_01_admin_demographic</t>
+  </si>
+  <si>
+    <t>d70a4700-6b40-52fc-a7a2-69ef0d7f69ff</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'Admin_Demographic' has not been implemented yet.</t>
+  </si>
+  <si>
+    <t>47277588-99e8-59f5-8384-b24344a86073</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_valid_01_screening</t>
+  </si>
+  <si>
+    <t>58821d95-8a89-47f3-af13-7be681531d40</t>
+  </si>
+  <si>
+    <t>Missing Column</t>
+  </si>
+  <si>
+    <t>Required column FACILITY is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
+  </si>
+  <si>
+    <t>9dd3301c-464b-43fa-89c4-97d79e57b86f</t>
+  </si>
+  <si>
+    <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
+  </si>
+  <si>
+    <t>9fef81b3-cd5d-4447-ae1d-9421207a3ded</t>
+  </si>
+  <si>
+    <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
+  </si>
+  <si>
+    <t>020c16c7-b208-4bb9-8f2e-c4b64db30561</t>
+  </si>
+  <si>
+    <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
+  </si>
+  <si>
+    <t>5d3e9ae5-a603-42b6-aac6-c29f27c9f086</t>
+  </si>
+  <si>
+    <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
+  </si>
+  <si>
+    <t>dcf02031-a395-4b9c-a3dc-6c038f6d0e3e</t>
+  </si>
+  <si>
+    <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
+  </si>
+  <si>
+    <t>cfee50d5-6b5c-4526-b783-e1d60a7676bc</t>
+  </si>
+  <si>
+    <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
+  </si>
+  <si>
+    <t>24c3f824-9559-4ea8-b5b3-be31fc6ba704</t>
+  </si>
+  <si>
+    <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
+  </si>
+  <si>
+    <t>366661bc-9ace-480e-a598-e389647c8384</t>
+  </si>
+  <si>
+    <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
+  </si>
+  <si>
+    <t>028364d1-8b23-4892-94ad-91e83a9101c2</t>
+  </si>
+  <si>
+    <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
+  </si>
+  <si>
+    <t>146e26dc-7378-4fff-8fd5-78cab94ae3cb</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
+  </si>
+  <si>
+    <t>6c28fd55-b2ac-49c2-8874-8162a42dd784</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OPWDD_FLAG"</t>
+  </si>
+  <si>
+    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_valid_01_q_e_admin_data</t>
+  </si>
+  <si>
+    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
+  </si>
+  <si>
+    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'QE_Admin_Data' has not been implemented yet.</t>
+  </si>
+  <si>
+    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
+  </si>
+  <si>
+    <t>support\assurance\ahc-hrsn-elt\screening\synthetic-content\jrchc-hrsn-file-spec.xlsx</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
+  </si>
+  <si>
+    <t>Sheet Missing</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Admin_Demographic' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
+  </si>
+  <si>
+    <t>591191c7-f693-5957-8734-ac87151ca981</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Screening' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>3b4eb0e5-6239-537a-8e67-e50e172e72a2</t>
+  </si>
+  <si>
+    <t>071f8fe1-4899-5c71-9c86-7d7377661d45</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>86b4a49e-7378-5159-9f41-b005208c31bc</t>
+  </si>
+  <si>
+    <t>support\assurance\ahc-hrsn-elt\screening\synthetic-content\synthetic-fail-excel-01.xlsx</t>
+  </si>
+  <si>
+    <t>a530fe1b-57ef-5a90-8bea-835ece2483da</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>a3fe7098-8ae8-5612-81ac-cbe10780c19b</t>
+  </si>
+  <si>
+    <t>99e72a60-96ab-5ef1-a3af-3e7759777664</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>e36daa69-3c63-5384-b6a7-03fa3b00641d</t>
+  </si>
+  <si>
+    <t>89f7ec04-277a-5799-afaa-a70d0f2a8ed5</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>c60cf3db-b1bf-5103-b278-b0c128ce924a</t>
+  </si>
+  <si>
+    <t>support\assurance\ahc-hrsn-elt\screening\synthetic-content\synthetic-fail.csv</t>
+  </si>
+  <si>
+    <t>synthetic_fail</t>
+  </si>
+  <si>
+    <t>72107c98-a89b-44c0-985e-6fe19502d326</t>
+  </si>
+  <si>
+    <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
+  </si>
+  <si>
+    <t>262b3ee4-4854-410b-989d-94297e82fa57</t>
+  </si>
+  <si>
+    <t>Required column FACILITY is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "FACILITY"</t>
+  </si>
+  <si>
+    <t>d646b6eb-9067-40a5-bdca-0efb462c3706</t>
+  </si>
+  <si>
+    <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
+  </si>
+  <si>
+    <t>863cb049-64d6-4ef4-a176-79222f4e6ddf</t>
+  </si>
+  <si>
+    <t>Required column LAST_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
+  </si>
+  <si>
+    <t>09f5833f-732a-41b4-821a-63cf311d68cd</t>
+  </si>
+  <si>
+    <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
+  </si>
+  <si>
+    <t>91b545b8-899e-4ea8-ba07-be3d09c8a27a</t>
+  </si>
+  <si>
+    <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
+  </si>
+  <si>
+    <t>ee83a333-4eba-4acc-98be-618a58903e1a</t>
+  </si>
+  <si>
+    <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
+  </si>
+  <si>
+    <t>f9a27b22-f294-40cf-8f07-a3ca9409fbc5</t>
+  </si>
+  <si>
+    <t>Required column SURVEY is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "SURVEY"</t>
+  </si>
+  <si>
+    <t>4dbeba36-21b5-42e2-91e8-e9e3ebc493b1</t>
+  </si>
+  <si>
+    <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
+  </si>
+  <si>
+    <t>ab0a8a0c-476c-42c1-888d-d85a475c4762</t>
+  </si>
+  <si>
+    <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
+  </si>
+  <si>
+    <t>1726d423-5198-4e54-adf2-bcdfa85882c7</t>
+  </si>
+  <si>
+    <t>Required column QUESTION is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "QUESTION"</t>
+  </si>
+  <si>
+    <t>426869bc-0a6c-48fa-b5af-8fc88110c25b</t>
+  </si>
+  <si>
+    <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
+  </si>
+  <si>
+    <t>27f3492d-47e0-4288-abdd-330893c3fac3</t>
+  </si>
+  <si>
+    <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
+  </si>
+  <si>
+    <t>576962a7-38c3-4b79-9b79-21aace807962</t>
+  </si>
+  <si>
+    <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
+  </si>
+  <si>
+    <t>3f0206be-254e-46fc-b888-19c699916d4f</t>
+  </si>
+  <si>
+    <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
+  </si>
+  <si>
+    <t>6cbd3991-ed27-4385-b4ec-912c9b4bf63b</t>
+  </si>
+  <si>
+    <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
+  </si>
+  <si>
+    <t>74cc493d-f2fa-41ed-bd9f-51474f376322</t>
+  </si>
+  <si>
+    <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
+  </si>
+  <si>
+    <t>93ca82f9-b3d0-4fe5-8e2e-76bb3bea3ebc</t>
+  </si>
+  <si>
+    <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
+  </si>
+  <si>
+    <t>197d16a4-eb4e-445b-b441-7a74a2bf494a</t>
+  </si>
+  <si>
+    <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
+  </si>
+  <si>
+    <t>876cb960-7f73-4a2b-aaa9-15f1895198f2</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
+  </si>
+  <si>
+    <t>4d85a3e8-41f5-4247-b81f-d3f0c3b5fb2a</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
+  </si>
+  <si>
     <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
   </si>
   <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/jrchc-hrsn-file-spec.xlsx</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>7b979b68-7227-53fd-b689-e4fe153afb76</t>
-  </si>
-  <si>
-    <t>Sheet Missing</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Admin_Demographic' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
-  </si>
-  <si>
-    <t>abf5c680-a135-5d89-b871-fa5b9b99aed6</t>
-  </si>
-  <si>
-    <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Screening' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
-  </si>
-  <si>
-    <t>d70a4700-6b40-52fc-a7a2-69ef0d7f69ff</t>
-  </si>
-  <si>
-    <t>47277588-99e8-59f5-8384-b24344a86073</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
-  </si>
-  <si>
-    <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
-  </si>
-  <si>
-    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
-  </si>
-  <si>
-    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
-  </si>
-  <si>
-    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-valid-01.xlsx</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_valid_01_admin_demographic</t>
-  </si>
-  <si>
-    <t>591191c7-f693-5957-8734-ac87151ca981</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'Admin_Demographic' has not been implemented yet.</t>
-  </si>
-  <si>
-    <t>3b4eb0e5-6239-537a-8e67-e50e172e72a2</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_valid_01_screening</t>
-  </si>
-  <si>
-    <t>e8072bf2-b35a-43f7-acb0-e432ee838454</t>
-  </si>
-  <si>
-    <t>Missing Column</t>
-  </si>
-  <si>
-    <t>Required column FACILITY is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
-  </si>
-  <si>
-    <t>4fb54c11-1a30-497c-b7f2-3eb781fdedc9</t>
-  </si>
-  <si>
-    <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
-  </si>
-  <si>
-    <t>75468089-d654-449b-8f54-1fed131c7f8e</t>
-  </si>
-  <si>
-    <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
-  </si>
-  <si>
-    <t>93a3ef2f-7c03-4d54-9963-ffe23b558aff</t>
-  </si>
-  <si>
-    <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
-  </si>
-  <si>
-    <t>4c02d136-85f0-4aa3-a0f8-a8eaa36ecbbf</t>
-  </si>
-  <si>
-    <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
-  </si>
-  <si>
-    <t>39cefa29-8080-4bcd-aedf-b3126d48e525</t>
-  </si>
-  <si>
-    <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
-  </si>
-  <si>
-    <t>36f9f665-5cae-45ab-942a-866d651b982d</t>
-  </si>
-  <si>
-    <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
-  </si>
-  <si>
-    <t>ee5b41c4-17bb-4895-a53e-5de19f2bb425</t>
-  </si>
-  <si>
-    <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
-  </si>
-  <si>
-    <t>a906d5d1-1895-4062-8575-6b0315792fd3</t>
-  </si>
-  <si>
-    <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
-  </si>
-  <si>
-    <t>fb6a39c9-90fd-43f3-aedb-26b31d0c87a5</t>
-  </si>
-  <si>
-    <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
-  </si>
-  <si>
-    <t>3c51ef73-6c00-48fa-aaa8-ec2abed99acb</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
-  </si>
-  <si>
-    <t>3a2d069f-04d3-4954-9b54-4142bcd0f467</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OPWDD_FLAG"</t>
-  </si>
-  <si>
-    <t>a530fe1b-57ef-5a90-8bea-835ece2483da</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_valid_01_q_e_admin_data</t>
-  </si>
-  <si>
-    <t>a3fe7098-8ae8-5612-81ac-cbe10780c19b</t>
-  </si>
-  <si>
-    <t>Excel workbook 'ahc-hrsn-valid-01.xlsx' sheet 'QE_Admin_Data' has not been implemented yet.</t>
-  </si>
-  <si>
-    <t>99e72a60-96ab-5ef1-a3af-3e7759777664</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail.csv</t>
-  </si>
-  <si>
-    <t>synthetic_fail</t>
-  </si>
-  <si>
-    <t>478df3f3-5634-4055-b749-a8194910501e</t>
-  </si>
-  <si>
-    <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
-  </si>
-  <si>
-    <t>4c048f3b-2cee-4c9c-8244-45cb68b34de8</t>
-  </si>
-  <si>
-    <t>Required column FACILITY is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "FACILITY"</t>
-  </si>
-  <si>
-    <t>6f223a56-4770-4967-a77b-ee913cc4e381</t>
-  </si>
-  <si>
-    <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
-  </si>
-  <si>
-    <t>3549d51c-7ed6-4efc-83a3-295b6b89a39a</t>
-  </si>
-  <si>
-    <t>Required column LAST_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
-  </si>
-  <si>
-    <t>14fba79f-4bf3-40db-99ad-de7d3ff7c376</t>
-  </si>
-  <si>
-    <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
-  </si>
-  <si>
-    <t>1a5e19a3-7824-4a10-b89d-a611da7f8fd0</t>
-  </si>
-  <si>
-    <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
-  </si>
-  <si>
-    <t>4cb48244-cffe-4364-825e-270d560bd038</t>
-  </si>
-  <si>
-    <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
-  </si>
-  <si>
-    <t>f2028828-18f4-4e93-b98e-bd1034c1e902</t>
-  </si>
-  <si>
-    <t>Required column SURVEY is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "SURVEY"</t>
-  </si>
-  <si>
-    <t>0990a6f3-9fdf-4c40-bc6a-595af64f8ce5</t>
-  </si>
-  <si>
-    <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
-  </si>
-  <si>
-    <t>96bd7521-da8f-4bbf-a6d9-9952dceaff28</t>
-  </si>
-  <si>
-    <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
-  </si>
-  <si>
-    <t>d0e1e6d2-537a-4f30-8d50-efb9e5505259</t>
-  </si>
-  <si>
-    <t>Required column QUESTION is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "QUESTION"</t>
-  </si>
-  <si>
-    <t>b46bab6a-1095-4edd-847f-1c27a60e5377</t>
-  </si>
-  <si>
-    <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
-  </si>
-  <si>
-    <t>955e5510-b7e9-4b46-a5e8-8c417bde1eaa</t>
-  </si>
-  <si>
-    <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
-  </si>
-  <si>
-    <t>6c72b864-b0ae-4f72-884c-341d0df2d6ae</t>
-  </si>
-  <si>
-    <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
-  </si>
-  <si>
-    <t>fe18eecb-5a58-444e-9a6d-09537b5d49e7</t>
-  </si>
-  <si>
-    <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
-  </si>
-  <si>
-    <t>48adf76c-bf15-4d76-9250-e24ffe07c3e4</t>
-  </si>
-  <si>
-    <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
-  </si>
-  <si>
-    <t>bfdc6088-c3a4-4917-8282-3212efefb5cd</t>
-  </si>
-  <si>
-    <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
-  </si>
-  <si>
-    <t>fce070ce-037c-46d6-9f9c-6885b791531b</t>
-  </si>
-  <si>
-    <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
-  </si>
-  <si>
-    <t>295a3da8-31e8-414a-b192-d52b506060a1</t>
-  </si>
-  <si>
-    <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
-  </si>
-  <si>
-    <t>b63679a7-5188-46c3-9b59-f7e586b88ff4</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
-  </si>
-  <si>
-    <t>84c22787-93a6-4b5c-a9a7-f63211d99868</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
-  </si>
-  <si>
-    <t>c60cf3db-b1bf-5103-b278-b0c128ce924a</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-12-12-2023-valid.csv</t>
+    <t>support\assurance\ahc-hrsn-elt\screening\synthetic-content\ahc-hrsn-12-12-2023-valid.csv</t>
   </si>
   <si>
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>bdbe5b5a-e186-4b87-8918-796e1b5146d1</t>
-  </si>
-  <si>
-    <t>Data Type Mismatch</t>
-  </si>
-  <si>
-    <t>Non-integer value "AHCHRSN01" found in SURVEY_ID</t>
-  </si>
-  <si>
-    <t>SURVEY_ID</t>
-  </si>
-  <si>
-    <t>AHCHRSN01</t>
-  </si>
-  <si>
-    <t>Convert non-integer values to INTEGER</t>
-  </si>
-  <si>
-    <t>b36b3553-e7ac-4e16-9c0a-6f07a88a5373</t>
-  </si>
-  <si>
-    <t>3db2979f-913f-451e-a36e-c534abdeb4e0</t>
-  </si>
-  <si>
-    <t>1e91bc80-a5a9-48a2-82a4-27ea6d0158dd</t>
-  </si>
-  <si>
-    <t>b62c0483-6814-4abd-a54c-f5dd6444f171</t>
-  </si>
-  <si>
-    <t>d174ce5a-9baa-42d3-8f3e-8a23406b0662</t>
-  </si>
-  <si>
-    <t>0a4fbf7a-0e9d-4aa9-9339-eb5c6edaec39</t>
-  </si>
-  <si>
-    <t>33187aac-eeda-4649-8cb5-d177e002a244</t>
-  </si>
-  <si>
-    <t>ba704267-8f26-4568-88d7-20de7115419c</t>
-  </si>
-  <si>
-    <t>62dbc77b-b212-4555-b7ad-9a7ac4a9ebf9</t>
-  </si>
-  <si>
-    <t>33e9a0c1-3a63-4faf-99dd-8eada6bd463b</t>
-  </si>
-  <si>
-    <t>98ae6f47-0d61-44cb-ab2a-a0f8733d7149</t>
-  </si>
-  <si>
-    <t>b6e47942-9086-456b-8105-9a03c5374278</t>
-  </si>
-  <si>
-    <t>6587a497-e5da-45ab-86dc-44db98f3e460</t>
-  </si>
-  <si>
-    <t>695c3bfa-c1b9-455f-bf96-8b1d5d7524fd</t>
-  </si>
-  <si>
-    <t>0e2df081-9bac-4637-8808-05cf4da5b1c7</t>
-  </si>
-  <si>
-    <t>d11bc45e-14f6-4ec9-8e75-b957f76f5d85</t>
-  </si>
-  <si>
-    <t>2a40b763-bbe9-4c73-a242-ac1273918eb2</t>
-  </si>
-  <si>
-    <t>70262c9a-f47c-4409-b39c-e958b7f808fe</t>
-  </si>
-  <si>
-    <t>ae08bf13-7445-4ff8-a512-9393b05d0c15</t>
-  </si>
-  <si>
-    <t>4a09c8b7-d6a8-42a4-b7a6-41be06cc86f6</t>
-  </si>
-  <si>
-    <t>01465847-d973-4323-b2ed-87ecd6f6c3fa</t>
-  </si>
-  <si>
-    <t>1543e2ab-1380-4abe-9304-745303c6d216</t>
-  </si>
-  <si>
-    <t>4417d626-2f03-4f45-b6e4-ac139c7c25db</t>
-  </si>
-  <si>
-    <t>d3bae684-8b35-401a-a243-7252ddb95bd3</t>
-  </si>
-  <si>
-    <t>e5f3e2f8-23ce-4402-b210-cc21bf2023d2</t>
-  </si>
-  <si>
-    <t>294b1a56-4d03-4927-8928-31ff5b651103</t>
+    <t>44cd4133-4665-484c-b9c4-a4166be88148</t>
+  </si>
+  <si>
+    <t>Pattern Mismatch</t>
+  </si>
+  <si>
+    <t>Value Jon in FIRST_NAME does not match the pattern %[A-Za-z]%</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Follow the pattern %[A-Za-z]% in FIRST_NAME</t>
+  </si>
+  <si>
+    <t>45835917-c071-4da7-8209-7b26209dd283</t>
+  </si>
+  <si>
+    <t>42441156-9e8b-47fa-9893-cd29c1f960e0</t>
+  </si>
+  <si>
+    <t>7cef4072-9a5a-4308-9985-d6ad2255f852</t>
+  </si>
+  <si>
+    <t>edbe3abe-c582-431c-81ff-973ebe129166</t>
+  </si>
+  <si>
+    <t>731b36d4-46e0-4efd-8790-7c421cbf9f26</t>
+  </si>
+  <si>
+    <t>e39d93cc-f586-43d7-99bb-53e1ee73b10b</t>
+  </si>
+  <si>
+    <t>a6e7ebea-80c8-40f7-8ad9-d39ead79bfbf</t>
+  </si>
+  <si>
+    <t>ff671f80-d379-4b54-871c-35f1bae23109</t>
+  </si>
+  <si>
+    <t>3ec41c87-2583-4790-9b46-7937024d79d2</t>
+  </si>
+  <si>
+    <t>80a2bd70-ec45-4c72-a4e0-d4608e495e34</t>
+  </si>
+  <si>
+    <t>9a6919a4-d693-4340-bc75-3874ac24bff5</t>
+  </si>
+  <si>
+    <t>2e0c7859-0a7e-4095-ad3b-3cf27455a720</t>
+  </si>
+  <si>
+    <t>e0d72e85-c40e-43e2-8eb3-f4ed163aaa00</t>
+  </si>
+  <si>
+    <t>69df1d37-ab18-471e-ba1c-98570a3e8df5</t>
+  </si>
+  <si>
+    <t>95ed427f-58cb-457f-aef3-96cdcb7cf3ae</t>
+  </si>
+  <si>
+    <t>3d879d86-6f70-4885-9e82-e26a59bb6fd0</t>
+  </si>
+  <si>
+    <t>d4c6392b-57cb-4264-80ce-283f2cc67989</t>
+  </si>
+  <si>
+    <t>47854bee-77c1-41a3-a2fe-29b98e307907</t>
+  </si>
+  <si>
+    <t>75c2f2f7-b7d8-4802-b184-5698485d9bbf</t>
+  </si>
+  <si>
+    <t>471a4f05-fe96-444b-b83c-88ef60e22fbc</t>
+  </si>
+  <si>
+    <t>fff29290-5dd7-4bf8-8349-c51c3b4fdd76</t>
+  </si>
+  <si>
+    <t>e1f3901d-bc12-40cf-a734-c67ad6daced1</t>
+  </si>
+  <si>
+    <t>6f1ffb53-9dbb-40e7-8cdb-83128afbc896</t>
+  </si>
+  <si>
+    <t>6e826458-447e-4a1e-91fb-225de0369d65</t>
+  </si>
+  <si>
+    <t>7d2907e8-6232-4f23-bd92-6de5b4d2b9e7</t>
+  </si>
+  <si>
+    <t>fdbb56f0-cdb9-4ec6-b44d-7aa32c1e54d6</t>
+  </si>
+  <si>
+    <t>27288fcc-9cee-4df8-85c0-86734cc10113</t>
+  </si>
+  <si>
+    <t>Value Doe in LAST_NAME does not match the pattern %[A-Za-z]%</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Follow the pattern %[A-Za-z]% in LAST_NAME</t>
+  </si>
+  <si>
+    <t>747ab3be-1f1c-45cc-ae4c-47a827a206c3</t>
+  </si>
+  <si>
+    <t>6f43e1db-45b6-454f-9ea5-2f74a6a6d270</t>
+  </si>
+  <si>
+    <t>aeeb0d32-1357-4d00-8d96-7dc01a82baf6</t>
+  </si>
+  <si>
+    <t>b285e140-426d-4465-9371-5c868524c372</t>
+  </si>
+  <si>
+    <t>7e27501d-2386-47e3-8d20-7f35ead853e4</t>
+  </si>
+  <si>
+    <t>426284ca-1fad-40e8-adb8-bdc66eef6afc</t>
+  </si>
+  <si>
+    <t>f688addd-f454-45eb-be1e-5e5045bf549b</t>
+  </si>
+  <si>
+    <t>af22ceb1-9dd6-4735-93b3-e3351774f3eb</t>
+  </si>
+  <si>
+    <t>aa7f3008-c3da-4c22-b44d-76085a3e6986</t>
+  </si>
+  <si>
+    <t>1e21e63c-5377-49b6-8a42-794ae9639717</t>
+  </si>
+  <si>
+    <t>c12dffe7-097a-4b06-9b91-0414176d3b79</t>
+  </si>
+  <si>
+    <t>dde3eab9-a16e-4f50-a04d-9b9feb69ed1d</t>
+  </si>
+  <si>
+    <t>8d0216be-816e-4fd2-9015-ef398ae7090e</t>
+  </si>
+  <si>
+    <t>f2a0f1a1-d552-41b1-915a-4c5735dfa3af</t>
+  </si>
+  <si>
+    <t>5da4e0bb-5de5-4950-9d9b-72815eb64a45</t>
+  </si>
+  <si>
+    <t>8e4fb9b9-0dee-48dd-9e97-80021a76dde4</t>
+  </si>
+  <si>
+    <t>05657d55-9603-4d05-bcd2-46214f305470</t>
+  </si>
+  <si>
+    <t>b1030d89-d2e0-4ebb-9cd2-3c52e51f336d</t>
+  </si>
+  <si>
+    <t>d01343f4-cea4-48e1-b8f9-fc2c2c2f7ea2</t>
+  </si>
+  <si>
+    <t>bea0d189-4dae-475a-820b-8ca505d9b0ca</t>
+  </si>
+  <si>
+    <t>f54ae73e-ee6f-4c4e-9d02-f12c0d419598</t>
+  </si>
+  <si>
+    <t>4694670f-5512-4e4a-8e2e-abb82b3ff607</t>
+  </si>
+  <si>
+    <t>d307b100-52b4-4b29-b098-16efe1355c7b</t>
+  </si>
+  <si>
+    <t>5310037d-9f54-4cbc-9b0c-f17819b55c90</t>
+  </si>
+  <si>
+    <t>4ddee2be-17de-4631-b8bb-633a2c827e15</t>
+  </si>
+  <si>
+    <t>a28111b6-e379-4839-894d-8fdea1ab1c72</t>
+  </si>
+  <si>
+    <t>4359a6a0-99f7-41e9-a964-b72072fc2252</t>
+  </si>
+  <si>
+    <t>Invalid Date</t>
+  </si>
+  <si>
+    <t>Invalid time "2023-12-07" found in RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>Year must be greater than 2023 and · MM is between 1 and 12. · DD is between 1 and 31 for MM- 01, 03, 05, 07, 08, 10, 12. · DD is between 1 and 30 for MM- 04, 06, 09, 11 · DD is between 1 and 27 for MM- 02 unless YYYY is 2024x every 4 years, DD is between 1 and 29. · HH is between 1 and 24. · MM is between 1 and 59. · SS is between 1 and 59.</t>
+  </si>
+  <si>
+    <t>deefe4ef-64c6-4c31-98a1-af084472263a</t>
+  </si>
+  <si>
+    <t>cdcb53f1-8eac-4deb-8065-49eae35fb374</t>
+  </si>
+  <si>
+    <t>6352085a-fa5d-4f24-bf80-7d479c4282bf</t>
+  </si>
+  <si>
+    <t>e92a81f1-4fec-4ddc-8cbd-5fa8fbc3a732</t>
+  </si>
+  <si>
+    <t>0b03eb23-0779-48ae-af8a-b5c16be63c86</t>
+  </si>
+  <si>
+    <t>f6f4835f-23af-4522-962d-6a419397c4d9</t>
+  </si>
+  <si>
+    <t>954c119c-9bf0-4fa7-b3ec-3bb74d27439c</t>
+  </si>
+  <si>
+    <t>0d1ef238-abaf-4edb-beac-3199cb4bb076</t>
+  </si>
+  <si>
+    <t>d2671375-480f-4b60-a0b8-79f2956386e9</t>
+  </si>
+  <si>
+    <t>b33ecf5f-4a1b-4dc5-a420-7ea6656c9b01</t>
+  </si>
+  <si>
+    <t>2f7266f7-1bf1-4944-8d5e-e9e99038bcbf</t>
+  </si>
+  <si>
+    <t>6acef21c-f3d4-47bc-86f9-6f4d36b55bf8</t>
+  </si>
+  <si>
+    <t>b7dc0e7e-d276-4cfe-93e3-079e916771b9</t>
+  </si>
+  <si>
+    <t>448ae64f-9036-4bee-b60f-32cf2f0a0dc0</t>
+  </si>
+  <si>
+    <t>407e1248-7f1a-40c8-baee-2b498e6e58db</t>
+  </si>
+  <si>
+    <t>b4923a43-26f5-4ed6-bdb4-9c8efcbf1f4d</t>
+  </si>
+  <si>
+    <t>56dc656c-8638-4ca9-b092-d6af83aa4212</t>
+  </si>
+  <si>
+    <t>78d035fb-b00e-4078-ad11-a0ad3998bb26</t>
+  </si>
+  <si>
+    <t>25b7413d-e5a6-4e63-8c51-3e0ea0af0896</t>
+  </si>
+  <si>
+    <t>17439cb5-6e22-418e-8efd-f4c1b239fd74</t>
+  </si>
+  <si>
+    <t>6817e54a-9eab-4b6a-9ca4-98f9a0ed74ad</t>
+  </si>
+  <si>
+    <t>c4f5046a-2637-4445-bd07-b01c48f6b232</t>
+  </si>
+  <si>
+    <t>b8148bfe-d097-40d4-8d4f-41615095e9ca</t>
+  </si>
+  <si>
+    <t>4ac63ee4-1aa3-4000-866a-371ab3db0bf4</t>
+  </si>
+  <si>
+    <t>2ac71bc5-34b8-4b81-a481-4473f74481df</t>
+  </si>
+  <si>
+    <t>3ee3fdcd-b890-41cd-aeb0-ff8890e55db6</t>
+  </si>
+  <si>
+    <t>4f5b081e-1f51-489c-9f66-0ee000812a64</t>
+  </si>
+  <si>
+    <t>Invalid Value</t>
+  </si>
+  <si>
+    <t>Value 71802-3 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>QUESTION_CODE</t>
+  </si>
+  <si>
+    <t>71802-3</t>
+  </si>
+  <si>
+    <t>Use only allowed values 71802-3,96778-6 in QUESTION_CODE</t>
+  </si>
+  <si>
+    <t>93267bb9-fb91-4e45-b841-7feb2acd0da4</t>
+  </si>
+  <si>
+    <t>Value 96778-6	 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>96778-6	</t>
+  </si>
+  <si>
+    <t>ad5beb83-6df3-49fa-8acd-4c5895eaaa94</t>
+  </si>
+  <si>
+    <t>Value 88122-7 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>88122-7</t>
+  </si>
+  <si>
+    <t>f239986f-3468-4ee9-b58d-129cbccf62e1</t>
+  </si>
+  <si>
+    <t>Value 88123-5 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>88123-5</t>
+  </si>
+  <si>
+    <t>cc1cbf00-2eac-4f3b-94ec-0a10ce35005e</t>
+  </si>
+  <si>
+    <t>Value 93030-5 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>93030-5</t>
+  </si>
+  <si>
+    <t>08a1d839-8f08-4f77-a8d0-d8dc3a652a92</t>
+  </si>
+  <si>
+    <t>Value 96779-4 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>96779-4</t>
+  </si>
+  <si>
+    <t>74804c94-9d93-4276-8718-4e163ebb618c</t>
+  </si>
+  <si>
+    <t>Value 95618-5 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>95618-5</t>
+  </si>
+  <si>
+    <t>a84e46ec-fd1d-4b68-918c-c9164352796c</t>
+  </si>
+  <si>
+    <t>Value 95617-7 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>95617-7</t>
+  </si>
+  <si>
+    <t>d83e4187-ea11-4ea4-af49-9ec9159c5e29</t>
+  </si>
+  <si>
+    <t>Value 95616-9 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>95616-9</t>
+  </si>
+  <si>
+    <t>9c3e1c3c-98e7-4a1e-9188-85ad2adc92f7</t>
+  </si>
+  <si>
+    <t>Value 95615-1 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>95615-1</t>
+  </si>
+  <si>
+    <t>f2de2dbe-4cd4-43bd-9e54-510148b90767</t>
+  </si>
+  <si>
+    <t>Value 76513-1 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>76513-1</t>
+  </si>
+  <si>
+    <t>52acffbb-9622-455b-8497-216beda31a21</t>
+  </si>
+  <si>
+    <t>Value 96780-2 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>96780-2</t>
+  </si>
+  <si>
+    <t>dc85323e-23d3-49c3-bc1b-becfa7e461f8</t>
+  </si>
+  <si>
+    <t>Value 96781-0 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>96781-0</t>
+  </si>
+  <si>
+    <t>ebef770d-cea8-4535-b972-35ed22d9f1b3</t>
+  </si>
+  <si>
+    <t>Value 93159-2	 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>93159-2	</t>
+  </si>
+  <si>
+    <t>4675338c-81b4-4117-8603-e8cb518cf887</t>
+  </si>
+  <si>
+    <t>Value 97027-7 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>97027-7</t>
+  </si>
+  <si>
+    <t>c5074eb9-4362-45b1-945b-035fa4fc9345</t>
+  </si>
+  <si>
+    <t>Value 96782-8	 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>96782-8	</t>
+  </si>
+  <si>
+    <t>f3bb3c18-567b-40f5-9c28-2a806ef25d55</t>
+  </si>
+  <si>
+    <t>Value 89555-7 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>89555-7</t>
+  </si>
+  <si>
+    <t>4e722da1-e193-4b9c-ae1c-188f7d5d7a66</t>
+  </si>
+  <si>
+    <t>Value 68516-4	 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>68516-4	</t>
+  </si>
+  <si>
+    <t>499808b0-0333-4058-8a34-8fb06f02068b</t>
+  </si>
+  <si>
+    <t>Value 68517-2 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>68517-2</t>
+  </si>
+  <si>
+    <t>421ae596-fa9e-423f-86b5-1e60370e8b46</t>
+  </si>
+  <si>
+    <t>Value 96842-0 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>96842-0</t>
+  </si>
+  <si>
+    <t>d1c62f3a-8c22-464f-b750-a34ff1e6d1f9</t>
+  </si>
+  <si>
+    <t>Value 95530-2 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>95530-2</t>
+  </si>
+  <si>
+    <t>fe9ced18-da0c-46ca-8936-1c6b951b6898</t>
+  </si>
+  <si>
+    <t>Value 68524-8 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>68524-8</t>
+  </si>
+  <si>
+    <t>9867c691-80d7-4f07-b410-37236c1b25e5</t>
+  </si>
+  <si>
+    <t>Value 44250-9 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>44250-9</t>
+  </si>
+  <si>
+    <t>90e31dde-2005-4c22-953b-36f5de0955c0</t>
+  </si>
+  <si>
+    <t>Value 44255-8 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>44255-8</t>
+  </si>
+  <si>
+    <t>d8bc0eee-2575-4af5-9d31-2489dcc3ae8f</t>
+  </si>
+  <si>
+    <t>Value 93038-8 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>93038-8</t>
+  </si>
+  <si>
+    <t>b98794cb-cd5c-4025-aaa2-e59f28554d9b</t>
+  </si>
+  <si>
+    <t>Value 69858-9 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>69858-9</t>
+  </si>
+  <si>
+    <t>cd726a31-fb51-410d-9117-14f975994835</t>
+  </si>
+  <si>
+    <t>Value 69861-3	 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>69861-3	</t>
   </si>
 </sst>
 </file>
@@ -770,19 +1211,19 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -796,25 +1237,25 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -828,25 +1269,25 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -860,25 +1301,25 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -892,25 +1333,25 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -924,25 +1365,25 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
         <v>45</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
         <v>46</v>
       </c>
-      <c r="L8" t="s">
+      <c r="Q8" t="s">
         <v>47</v>
-      </c>
-      <c r="M8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -956,25 +1397,25 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
         <v>49</v>
       </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="Q9" t="s">
         <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -988,25 +1429,25 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
         <v>52</v>
       </c>
-      <c r="M10" t="s">
-        <v>56</v>
-      </c>
       <c r="Q10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -1020,25 +1461,25 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1052,25 +1493,25 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -1084,25 +1525,25 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1116,25 +1557,25 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -1148,25 +1589,25 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L15" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M15" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="P15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -1180,25 +1621,25 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="K16" t="s">
         <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" t="s">
         <v>75</v>
+      </c>
+      <c r="P16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -1212,25 +1653,25 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L17" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="M17" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" t="s">
         <v>78</v>
+      </c>
+      <c r="P17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -1244,25 +1685,25 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q18" t="s">
         <v>81</v>
+      </c>
+      <c r="P18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -1276,25 +1717,25 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L19" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="M19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" t="s">
         <v>83</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -1308,25 +1749,25 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L20" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="M20" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="P20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -1340,25 +1781,25 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s">
         <v>90</v>
       </c>
       <c r="L21" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="M21" t="s">
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -1384,7 +1825,7 @@
         <v>95</v>
       </c>
       <c r="L22" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M22" t="s">
         <v>96</v>
@@ -1416,7 +1857,7 @@
         <v>98</v>
       </c>
       <c r="L23" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M23" t="s">
         <v>99</v>
@@ -1448,7 +1889,7 @@
         <v>101</v>
       </c>
       <c r="L24" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M24" t="s">
         <v>102</v>
@@ -1480,7 +1921,7 @@
         <v>104</v>
       </c>
       <c r="L25" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M25" t="s">
         <v>105</v>
@@ -1512,7 +1953,7 @@
         <v>107</v>
       </c>
       <c r="L26" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M26" t="s">
         <v>108</v>
@@ -1544,7 +1985,7 @@
         <v>110</v>
       </c>
       <c r="L27" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M27" t="s">
         <v>111</v>
@@ -1576,7 +2017,7 @@
         <v>113</v>
       </c>
       <c r="L28" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M28" t="s">
         <v>114</v>
@@ -1608,7 +2049,7 @@
         <v>116</v>
       </c>
       <c r="L29" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M29" t="s">
         <v>117</v>
@@ -1640,7 +2081,7 @@
         <v>119</v>
       </c>
       <c r="L30" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M30" t="s">
         <v>120</v>
@@ -1672,7 +2113,7 @@
         <v>122</v>
       </c>
       <c r="L31" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M31" t="s">
         <v>123</v>
@@ -1704,7 +2145,7 @@
         <v>125</v>
       </c>
       <c r="L32" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M32" t="s">
         <v>126</v>
@@ -1736,7 +2177,7 @@
         <v>128</v>
       </c>
       <c r="L33" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M33" t="s">
         <v>129</v>
@@ -1768,7 +2209,7 @@
         <v>131</v>
       </c>
       <c r="L34" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M34" t="s">
         <v>132</v>
@@ -1800,7 +2241,7 @@
         <v>134</v>
       </c>
       <c r="L35" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M35" t="s">
         <v>135</v>
@@ -1832,7 +2273,7 @@
         <v>137</v>
       </c>
       <c r="L36" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M36" t="s">
         <v>138</v>
@@ -1864,7 +2305,7 @@
         <v>140</v>
       </c>
       <c r="L37" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M37" t="s">
         <v>141</v>
@@ -1896,7 +2337,7 @@
         <v>143</v>
       </c>
       <c r="L38" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M38" t="s">
         <v>144</v>
@@ -1928,7 +2369,7 @@
         <v>146</v>
       </c>
       <c r="L39" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M39" t="s">
         <v>147</v>
@@ -1960,7 +2401,7 @@
         <v>149</v>
       </c>
       <c r="L40" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M40" t="s">
         <v>150</v>
@@ -1992,7 +2433,7 @@
         <v>152</v>
       </c>
       <c r="L41" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M41" t="s">
         <v>153</v>
@@ -2024,7 +2465,7 @@
         <v>155</v>
       </c>
       <c r="L42" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M42" t="s">
         <v>156</v>
@@ -3138,6 +3579,3327 @@
       </c>
       <c r="Q69" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" t="s">
+        <v>158</v>
+      </c>
+      <c r="H70" t="s">
+        <v>159</v>
+      </c>
+      <c r="I70" t="s">
+        <v>160</v>
+      </c>
+      <c r="K70" t="s">
+        <v>193</v>
+      </c>
+      <c r="L70" t="s">
+        <v>162</v>
+      </c>
+      <c r="M70" t="s">
+        <v>194</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>195</v>
+      </c>
+      <c r="P70" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" t="s">
+        <v>158</v>
+      </c>
+      <c r="H71" t="s">
+        <v>159</v>
+      </c>
+      <c r="I71" t="s">
+        <v>160</v>
+      </c>
+      <c r="K71" t="s">
+        <v>198</v>
+      </c>
+      <c r="L71" t="s">
+        <v>162</v>
+      </c>
+      <c r="M71" t="s">
+        <v>194</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>195</v>
+      </c>
+      <c r="P71" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" t="s">
+        <v>158</v>
+      </c>
+      <c r="H72" t="s">
+        <v>159</v>
+      </c>
+      <c r="I72" t="s">
+        <v>160</v>
+      </c>
+      <c r="K72" t="s">
+        <v>199</v>
+      </c>
+      <c r="L72" t="s">
+        <v>162</v>
+      </c>
+      <c r="M72" t="s">
+        <v>194</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>195</v>
+      </c>
+      <c r="P72" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>158</v>
+      </c>
+      <c r="H73" t="s">
+        <v>159</v>
+      </c>
+      <c r="I73" t="s">
+        <v>160</v>
+      </c>
+      <c r="K73" t="s">
+        <v>200</v>
+      </c>
+      <c r="L73" t="s">
+        <v>162</v>
+      </c>
+      <c r="M73" t="s">
+        <v>194</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73" t="s">
+        <v>195</v>
+      </c>
+      <c r="P73" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" t="s">
+        <v>158</v>
+      </c>
+      <c r="H74" t="s">
+        <v>159</v>
+      </c>
+      <c r="I74" t="s">
+        <v>160</v>
+      </c>
+      <c r="K74" t="s">
+        <v>201</v>
+      </c>
+      <c r="L74" t="s">
+        <v>162</v>
+      </c>
+      <c r="M74" t="s">
+        <v>194</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+      <c r="O74" t="s">
+        <v>195</v>
+      </c>
+      <c r="P74" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" t="s">
+        <v>158</v>
+      </c>
+      <c r="H75" t="s">
+        <v>159</v>
+      </c>
+      <c r="I75" t="s">
+        <v>160</v>
+      </c>
+      <c r="K75" t="s">
+        <v>202</v>
+      </c>
+      <c r="L75" t="s">
+        <v>162</v>
+      </c>
+      <c r="M75" t="s">
+        <v>194</v>
+      </c>
+      <c r="N75">
+        <v>6</v>
+      </c>
+      <c r="O75" t="s">
+        <v>195</v>
+      </c>
+      <c r="P75" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" t="s">
+        <v>158</v>
+      </c>
+      <c r="H76" t="s">
+        <v>159</v>
+      </c>
+      <c r="I76" t="s">
+        <v>160</v>
+      </c>
+      <c r="K76" t="s">
+        <v>203</v>
+      </c>
+      <c r="L76" t="s">
+        <v>162</v>
+      </c>
+      <c r="M76" t="s">
+        <v>194</v>
+      </c>
+      <c r="N76">
+        <v>7</v>
+      </c>
+      <c r="O76" t="s">
+        <v>195</v>
+      </c>
+      <c r="P76" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>158</v>
+      </c>
+      <c r="H77" t="s">
+        <v>159</v>
+      </c>
+      <c r="I77" t="s">
+        <v>160</v>
+      </c>
+      <c r="K77" t="s">
+        <v>204</v>
+      </c>
+      <c r="L77" t="s">
+        <v>162</v>
+      </c>
+      <c r="M77" t="s">
+        <v>194</v>
+      </c>
+      <c r="N77">
+        <v>8</v>
+      </c>
+      <c r="O77" t="s">
+        <v>195</v>
+      </c>
+      <c r="P77" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" t="s">
+        <v>158</v>
+      </c>
+      <c r="H78" t="s">
+        <v>159</v>
+      </c>
+      <c r="I78" t="s">
+        <v>160</v>
+      </c>
+      <c r="K78" t="s">
+        <v>205</v>
+      </c>
+      <c r="L78" t="s">
+        <v>162</v>
+      </c>
+      <c r="M78" t="s">
+        <v>194</v>
+      </c>
+      <c r="N78">
+        <v>9</v>
+      </c>
+      <c r="O78" t="s">
+        <v>195</v>
+      </c>
+      <c r="P78" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" t="s">
+        <v>158</v>
+      </c>
+      <c r="H79" t="s">
+        <v>159</v>
+      </c>
+      <c r="I79" t="s">
+        <v>160</v>
+      </c>
+      <c r="K79" t="s">
+        <v>206</v>
+      </c>
+      <c r="L79" t="s">
+        <v>162</v>
+      </c>
+      <c r="M79" t="s">
+        <v>194</v>
+      </c>
+      <c r="N79">
+        <v>10</v>
+      </c>
+      <c r="O79" t="s">
+        <v>195</v>
+      </c>
+      <c r="P79" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" t="s">
+        <v>158</v>
+      </c>
+      <c r="H80" t="s">
+        <v>159</v>
+      </c>
+      <c r="I80" t="s">
+        <v>160</v>
+      </c>
+      <c r="K80" t="s">
+        <v>207</v>
+      </c>
+      <c r="L80" t="s">
+        <v>162</v>
+      </c>
+      <c r="M80" t="s">
+        <v>194</v>
+      </c>
+      <c r="N80">
+        <v>11</v>
+      </c>
+      <c r="O80" t="s">
+        <v>195</v>
+      </c>
+      <c r="P80" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" t="s">
+        <v>158</v>
+      </c>
+      <c r="H81" t="s">
+        <v>159</v>
+      </c>
+      <c r="I81" t="s">
+        <v>160</v>
+      </c>
+      <c r="K81" t="s">
+        <v>208</v>
+      </c>
+      <c r="L81" t="s">
+        <v>162</v>
+      </c>
+      <c r="M81" t="s">
+        <v>194</v>
+      </c>
+      <c r="N81">
+        <v>12</v>
+      </c>
+      <c r="O81" t="s">
+        <v>195</v>
+      </c>
+      <c r="P81" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" t="s">
+        <v>158</v>
+      </c>
+      <c r="H82" t="s">
+        <v>159</v>
+      </c>
+      <c r="I82" t="s">
+        <v>160</v>
+      </c>
+      <c r="K82" t="s">
+        <v>209</v>
+      </c>
+      <c r="L82" t="s">
+        <v>162</v>
+      </c>
+      <c r="M82" t="s">
+        <v>194</v>
+      </c>
+      <c r="N82">
+        <v>13</v>
+      </c>
+      <c r="O82" t="s">
+        <v>195</v>
+      </c>
+      <c r="P82" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
+        <v>158</v>
+      </c>
+      <c r="H83" t="s">
+        <v>159</v>
+      </c>
+      <c r="I83" t="s">
+        <v>160</v>
+      </c>
+      <c r="K83" t="s">
+        <v>210</v>
+      </c>
+      <c r="L83" t="s">
+        <v>162</v>
+      </c>
+      <c r="M83" t="s">
+        <v>194</v>
+      </c>
+      <c r="N83">
+        <v>14</v>
+      </c>
+      <c r="O83" t="s">
+        <v>195</v>
+      </c>
+      <c r="P83" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" t="s">
+        <v>158</v>
+      </c>
+      <c r="H84" t="s">
+        <v>159</v>
+      </c>
+      <c r="I84" t="s">
+        <v>160</v>
+      </c>
+      <c r="K84" t="s">
+        <v>211</v>
+      </c>
+      <c r="L84" t="s">
+        <v>162</v>
+      </c>
+      <c r="M84" t="s">
+        <v>194</v>
+      </c>
+      <c r="N84">
+        <v>15</v>
+      </c>
+      <c r="O84" t="s">
+        <v>195</v>
+      </c>
+      <c r="P84" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>158</v>
+      </c>
+      <c r="H85" t="s">
+        <v>159</v>
+      </c>
+      <c r="I85" t="s">
+        <v>160</v>
+      </c>
+      <c r="K85" t="s">
+        <v>212</v>
+      </c>
+      <c r="L85" t="s">
+        <v>162</v>
+      </c>
+      <c r="M85" t="s">
+        <v>194</v>
+      </c>
+      <c r="N85">
+        <v>16</v>
+      </c>
+      <c r="O85" t="s">
+        <v>195</v>
+      </c>
+      <c r="P85" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" t="s">
+        <v>158</v>
+      </c>
+      <c r="H86" t="s">
+        <v>159</v>
+      </c>
+      <c r="I86" t="s">
+        <v>160</v>
+      </c>
+      <c r="K86" t="s">
+        <v>213</v>
+      </c>
+      <c r="L86" t="s">
+        <v>162</v>
+      </c>
+      <c r="M86" t="s">
+        <v>194</v>
+      </c>
+      <c r="N86">
+        <v>17</v>
+      </c>
+      <c r="O86" t="s">
+        <v>195</v>
+      </c>
+      <c r="P86" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" t="s">
+        <v>158</v>
+      </c>
+      <c r="H87" t="s">
+        <v>159</v>
+      </c>
+      <c r="I87" t="s">
+        <v>160</v>
+      </c>
+      <c r="K87" t="s">
+        <v>214</v>
+      </c>
+      <c r="L87" t="s">
+        <v>162</v>
+      </c>
+      <c r="M87" t="s">
+        <v>194</v>
+      </c>
+      <c r="N87">
+        <v>18</v>
+      </c>
+      <c r="O87" t="s">
+        <v>195</v>
+      </c>
+      <c r="P87" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" t="s">
+        <v>158</v>
+      </c>
+      <c r="H88" t="s">
+        <v>159</v>
+      </c>
+      <c r="I88" t="s">
+        <v>160</v>
+      </c>
+      <c r="K88" t="s">
+        <v>215</v>
+      </c>
+      <c r="L88" t="s">
+        <v>162</v>
+      </c>
+      <c r="M88" t="s">
+        <v>194</v>
+      </c>
+      <c r="N88">
+        <v>19</v>
+      </c>
+      <c r="O88" t="s">
+        <v>195</v>
+      </c>
+      <c r="P88" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" t="s">
+        <v>158</v>
+      </c>
+      <c r="H89" t="s">
+        <v>159</v>
+      </c>
+      <c r="I89" t="s">
+        <v>160</v>
+      </c>
+      <c r="K89" t="s">
+        <v>216</v>
+      </c>
+      <c r="L89" t="s">
+        <v>162</v>
+      </c>
+      <c r="M89" t="s">
+        <v>194</v>
+      </c>
+      <c r="N89">
+        <v>20</v>
+      </c>
+      <c r="O89" t="s">
+        <v>195</v>
+      </c>
+      <c r="P89" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" t="s">
+        <v>158</v>
+      </c>
+      <c r="H90" t="s">
+        <v>159</v>
+      </c>
+      <c r="I90" t="s">
+        <v>160</v>
+      </c>
+      <c r="K90" t="s">
+        <v>217</v>
+      </c>
+      <c r="L90" t="s">
+        <v>162</v>
+      </c>
+      <c r="M90" t="s">
+        <v>194</v>
+      </c>
+      <c r="N90">
+        <v>21</v>
+      </c>
+      <c r="O90" t="s">
+        <v>195</v>
+      </c>
+      <c r="P90" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>158</v>
+      </c>
+      <c r="H91" t="s">
+        <v>159</v>
+      </c>
+      <c r="I91" t="s">
+        <v>160</v>
+      </c>
+      <c r="K91" t="s">
+        <v>218</v>
+      </c>
+      <c r="L91" t="s">
+        <v>162</v>
+      </c>
+      <c r="M91" t="s">
+        <v>194</v>
+      </c>
+      <c r="N91">
+        <v>22</v>
+      </c>
+      <c r="O91" t="s">
+        <v>195</v>
+      </c>
+      <c r="P91" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" t="s">
+        <v>158</v>
+      </c>
+      <c r="H92" t="s">
+        <v>159</v>
+      </c>
+      <c r="I92" t="s">
+        <v>160</v>
+      </c>
+      <c r="K92" t="s">
+        <v>219</v>
+      </c>
+      <c r="L92" t="s">
+        <v>162</v>
+      </c>
+      <c r="M92" t="s">
+        <v>194</v>
+      </c>
+      <c r="N92">
+        <v>23</v>
+      </c>
+      <c r="O92" t="s">
+        <v>195</v>
+      </c>
+      <c r="P92" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" t="s">
+        <v>158</v>
+      </c>
+      <c r="H93" t="s">
+        <v>159</v>
+      </c>
+      <c r="I93" t="s">
+        <v>160</v>
+      </c>
+      <c r="K93" t="s">
+        <v>220</v>
+      </c>
+      <c r="L93" t="s">
+        <v>162</v>
+      </c>
+      <c r="M93" t="s">
+        <v>194</v>
+      </c>
+      <c r="N93">
+        <v>24</v>
+      </c>
+      <c r="O93" t="s">
+        <v>195</v>
+      </c>
+      <c r="P93" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" t="s">
+        <v>158</v>
+      </c>
+      <c r="H94" t="s">
+        <v>159</v>
+      </c>
+      <c r="I94" t="s">
+        <v>160</v>
+      </c>
+      <c r="K94" t="s">
+        <v>221</v>
+      </c>
+      <c r="L94" t="s">
+        <v>162</v>
+      </c>
+      <c r="M94" t="s">
+        <v>194</v>
+      </c>
+      <c r="N94">
+        <v>25</v>
+      </c>
+      <c r="O94" t="s">
+        <v>195</v>
+      </c>
+      <c r="P94" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" t="s">
+        <v>158</v>
+      </c>
+      <c r="H95" t="s">
+        <v>159</v>
+      </c>
+      <c r="I95" t="s">
+        <v>160</v>
+      </c>
+      <c r="K95" t="s">
+        <v>222</v>
+      </c>
+      <c r="L95" t="s">
+        <v>162</v>
+      </c>
+      <c r="M95" t="s">
+        <v>194</v>
+      </c>
+      <c r="N95">
+        <v>26</v>
+      </c>
+      <c r="O95" t="s">
+        <v>195</v>
+      </c>
+      <c r="P95" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" t="s">
+        <v>158</v>
+      </c>
+      <c r="H96" t="s">
+        <v>159</v>
+      </c>
+      <c r="I96" t="s">
+        <v>160</v>
+      </c>
+      <c r="K96" t="s">
+        <v>223</v>
+      </c>
+      <c r="L96" t="s">
+        <v>162</v>
+      </c>
+      <c r="M96" t="s">
+        <v>194</v>
+      </c>
+      <c r="N96">
+        <v>27</v>
+      </c>
+      <c r="O96" t="s">
+        <v>195</v>
+      </c>
+      <c r="P96" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
+        <v>158</v>
+      </c>
+      <c r="H97" t="s">
+        <v>159</v>
+      </c>
+      <c r="I97" t="s">
+        <v>160</v>
+      </c>
+      <c r="K97" t="s">
+        <v>224</v>
+      </c>
+      <c r="L97" t="s">
+        <v>225</v>
+      </c>
+      <c r="M97" t="s">
+        <v>226</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>227</v>
+      </c>
+      <c r="P97" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
+        <v>158</v>
+      </c>
+      <c r="H98" t="s">
+        <v>159</v>
+      </c>
+      <c r="I98" t="s">
+        <v>160</v>
+      </c>
+      <c r="K98" t="s">
+        <v>230</v>
+      </c>
+      <c r="L98" t="s">
+        <v>225</v>
+      </c>
+      <c r="M98" t="s">
+        <v>226</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>227</v>
+      </c>
+      <c r="P98" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>158</v>
+      </c>
+      <c r="H99" t="s">
+        <v>159</v>
+      </c>
+      <c r="I99" t="s">
+        <v>160</v>
+      </c>
+      <c r="K99" t="s">
+        <v>231</v>
+      </c>
+      <c r="L99" t="s">
+        <v>225</v>
+      </c>
+      <c r="M99" t="s">
+        <v>226</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>227</v>
+      </c>
+      <c r="P99" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="F100" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>158</v>
+      </c>
+      <c r="H100" t="s">
+        <v>159</v>
+      </c>
+      <c r="I100" t="s">
+        <v>160</v>
+      </c>
+      <c r="K100" t="s">
+        <v>232</v>
+      </c>
+      <c r="L100" t="s">
+        <v>225</v>
+      </c>
+      <c r="M100" t="s">
+        <v>226</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>227</v>
+      </c>
+      <c r="P100" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>158</v>
+      </c>
+      <c r="H101" t="s">
+        <v>159</v>
+      </c>
+      <c r="I101" t="s">
+        <v>160</v>
+      </c>
+      <c r="K101" t="s">
+        <v>233</v>
+      </c>
+      <c r="L101" t="s">
+        <v>225</v>
+      </c>
+      <c r="M101" t="s">
+        <v>226</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+      <c r="O101" t="s">
+        <v>227</v>
+      </c>
+      <c r="P101" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" t="s">
+        <v>158</v>
+      </c>
+      <c r="H102" t="s">
+        <v>159</v>
+      </c>
+      <c r="I102" t="s">
+        <v>160</v>
+      </c>
+      <c r="K102" t="s">
+        <v>234</v>
+      </c>
+      <c r="L102" t="s">
+        <v>225</v>
+      </c>
+      <c r="M102" t="s">
+        <v>226</v>
+      </c>
+      <c r="N102">
+        <v>6</v>
+      </c>
+      <c r="O102" t="s">
+        <v>227</v>
+      </c>
+      <c r="P102" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" t="s">
+        <v>158</v>
+      </c>
+      <c r="H103" t="s">
+        <v>159</v>
+      </c>
+      <c r="I103" t="s">
+        <v>160</v>
+      </c>
+      <c r="K103" t="s">
+        <v>235</v>
+      </c>
+      <c r="L103" t="s">
+        <v>225</v>
+      </c>
+      <c r="M103" t="s">
+        <v>226</v>
+      </c>
+      <c r="N103">
+        <v>7</v>
+      </c>
+      <c r="O103" t="s">
+        <v>227</v>
+      </c>
+      <c r="P103" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" t="s">
+        <v>158</v>
+      </c>
+      <c r="H104" t="s">
+        <v>159</v>
+      </c>
+      <c r="I104" t="s">
+        <v>160</v>
+      </c>
+      <c r="K104" t="s">
+        <v>236</v>
+      </c>
+      <c r="L104" t="s">
+        <v>225</v>
+      </c>
+      <c r="M104" t="s">
+        <v>226</v>
+      </c>
+      <c r="N104">
+        <v>8</v>
+      </c>
+      <c r="O104" t="s">
+        <v>227</v>
+      </c>
+      <c r="P104" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" t="s">
+        <v>158</v>
+      </c>
+      <c r="H105" t="s">
+        <v>159</v>
+      </c>
+      <c r="I105" t="s">
+        <v>160</v>
+      </c>
+      <c r="K105" t="s">
+        <v>237</v>
+      </c>
+      <c r="L105" t="s">
+        <v>225</v>
+      </c>
+      <c r="M105" t="s">
+        <v>226</v>
+      </c>
+      <c r="N105">
+        <v>9</v>
+      </c>
+      <c r="O105" t="s">
+        <v>227</v>
+      </c>
+      <c r="P105" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" t="s">
+        <v>158</v>
+      </c>
+      <c r="H106" t="s">
+        <v>159</v>
+      </c>
+      <c r="I106" t="s">
+        <v>160</v>
+      </c>
+      <c r="K106" t="s">
+        <v>238</v>
+      </c>
+      <c r="L106" t="s">
+        <v>225</v>
+      </c>
+      <c r="M106" t="s">
+        <v>226</v>
+      </c>
+      <c r="N106">
+        <v>10</v>
+      </c>
+      <c r="O106" t="s">
+        <v>227</v>
+      </c>
+      <c r="P106" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" t="s">
+        <v>158</v>
+      </c>
+      <c r="H107" t="s">
+        <v>159</v>
+      </c>
+      <c r="I107" t="s">
+        <v>160</v>
+      </c>
+      <c r="K107" t="s">
+        <v>239</v>
+      </c>
+      <c r="L107" t="s">
+        <v>225</v>
+      </c>
+      <c r="M107" t="s">
+        <v>226</v>
+      </c>
+      <c r="N107">
+        <v>11</v>
+      </c>
+      <c r="O107" t="s">
+        <v>227</v>
+      </c>
+      <c r="P107" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" t="s">
+        <v>158</v>
+      </c>
+      <c r="H108" t="s">
+        <v>159</v>
+      </c>
+      <c r="I108" t="s">
+        <v>160</v>
+      </c>
+      <c r="K108" t="s">
+        <v>240</v>
+      </c>
+      <c r="L108" t="s">
+        <v>225</v>
+      </c>
+      <c r="M108" t="s">
+        <v>226</v>
+      </c>
+      <c r="N108">
+        <v>12</v>
+      </c>
+      <c r="O108" t="s">
+        <v>227</v>
+      </c>
+      <c r="P108" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" t="s">
+        <v>158</v>
+      </c>
+      <c r="H109" t="s">
+        <v>159</v>
+      </c>
+      <c r="I109" t="s">
+        <v>160</v>
+      </c>
+      <c r="K109" t="s">
+        <v>241</v>
+      </c>
+      <c r="L109" t="s">
+        <v>225</v>
+      </c>
+      <c r="M109" t="s">
+        <v>226</v>
+      </c>
+      <c r="N109">
+        <v>13</v>
+      </c>
+      <c r="O109" t="s">
+        <v>227</v>
+      </c>
+      <c r="P109" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" t="s">
+        <v>158</v>
+      </c>
+      <c r="H110" t="s">
+        <v>159</v>
+      </c>
+      <c r="I110" t="s">
+        <v>160</v>
+      </c>
+      <c r="K110" t="s">
+        <v>242</v>
+      </c>
+      <c r="L110" t="s">
+        <v>225</v>
+      </c>
+      <c r="M110" t="s">
+        <v>226</v>
+      </c>
+      <c r="N110">
+        <v>14</v>
+      </c>
+      <c r="O110" t="s">
+        <v>227</v>
+      </c>
+      <c r="P110" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>158</v>
+      </c>
+      <c r="H111" t="s">
+        <v>159</v>
+      </c>
+      <c r="I111" t="s">
+        <v>160</v>
+      </c>
+      <c r="K111" t="s">
+        <v>243</v>
+      </c>
+      <c r="L111" t="s">
+        <v>225</v>
+      </c>
+      <c r="M111" t="s">
+        <v>226</v>
+      </c>
+      <c r="N111">
+        <v>15</v>
+      </c>
+      <c r="O111" t="s">
+        <v>227</v>
+      </c>
+      <c r="P111" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" t="s">
+        <v>158</v>
+      </c>
+      <c r="H112" t="s">
+        <v>159</v>
+      </c>
+      <c r="I112" t="s">
+        <v>160</v>
+      </c>
+      <c r="K112" t="s">
+        <v>244</v>
+      </c>
+      <c r="L112" t="s">
+        <v>225</v>
+      </c>
+      <c r="M112" t="s">
+        <v>226</v>
+      </c>
+      <c r="N112">
+        <v>16</v>
+      </c>
+      <c r="O112" t="s">
+        <v>227</v>
+      </c>
+      <c r="P112" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>158</v>
+      </c>
+      <c r="H113" t="s">
+        <v>159</v>
+      </c>
+      <c r="I113" t="s">
+        <v>160</v>
+      </c>
+      <c r="K113" t="s">
+        <v>245</v>
+      </c>
+      <c r="L113" t="s">
+        <v>225</v>
+      </c>
+      <c r="M113" t="s">
+        <v>226</v>
+      </c>
+      <c r="N113">
+        <v>17</v>
+      </c>
+      <c r="O113" t="s">
+        <v>227</v>
+      </c>
+      <c r="P113" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" t="s">
+        <v>158</v>
+      </c>
+      <c r="H114" t="s">
+        <v>159</v>
+      </c>
+      <c r="I114" t="s">
+        <v>160</v>
+      </c>
+      <c r="K114" t="s">
+        <v>246</v>
+      </c>
+      <c r="L114" t="s">
+        <v>225</v>
+      </c>
+      <c r="M114" t="s">
+        <v>226</v>
+      </c>
+      <c r="N114">
+        <v>18</v>
+      </c>
+      <c r="O114" t="s">
+        <v>227</v>
+      </c>
+      <c r="P114" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>158</v>
+      </c>
+      <c r="H115" t="s">
+        <v>159</v>
+      </c>
+      <c r="I115" t="s">
+        <v>160</v>
+      </c>
+      <c r="K115" t="s">
+        <v>247</v>
+      </c>
+      <c r="L115" t="s">
+        <v>225</v>
+      </c>
+      <c r="M115" t="s">
+        <v>226</v>
+      </c>
+      <c r="N115">
+        <v>19</v>
+      </c>
+      <c r="O115" t="s">
+        <v>227</v>
+      </c>
+      <c r="P115" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>158</v>
+      </c>
+      <c r="H116" t="s">
+        <v>159</v>
+      </c>
+      <c r="I116" t="s">
+        <v>160</v>
+      </c>
+      <c r="K116" t="s">
+        <v>248</v>
+      </c>
+      <c r="L116" t="s">
+        <v>225</v>
+      </c>
+      <c r="M116" t="s">
+        <v>226</v>
+      </c>
+      <c r="N116">
+        <v>20</v>
+      </c>
+      <c r="O116" t="s">
+        <v>227</v>
+      </c>
+      <c r="P116" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>158</v>
+      </c>
+      <c r="H117" t="s">
+        <v>159</v>
+      </c>
+      <c r="I117" t="s">
+        <v>160</v>
+      </c>
+      <c r="K117" t="s">
+        <v>249</v>
+      </c>
+      <c r="L117" t="s">
+        <v>225</v>
+      </c>
+      <c r="M117" t="s">
+        <v>226</v>
+      </c>
+      <c r="N117">
+        <v>21</v>
+      </c>
+      <c r="O117" t="s">
+        <v>227</v>
+      </c>
+      <c r="P117" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>158</v>
+      </c>
+      <c r="H118" t="s">
+        <v>159</v>
+      </c>
+      <c r="I118" t="s">
+        <v>160</v>
+      </c>
+      <c r="K118" t="s">
+        <v>250</v>
+      </c>
+      <c r="L118" t="s">
+        <v>225</v>
+      </c>
+      <c r="M118" t="s">
+        <v>226</v>
+      </c>
+      <c r="N118">
+        <v>22</v>
+      </c>
+      <c r="O118" t="s">
+        <v>227</v>
+      </c>
+      <c r="P118" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>158</v>
+      </c>
+      <c r="H119" t="s">
+        <v>159</v>
+      </c>
+      <c r="I119" t="s">
+        <v>160</v>
+      </c>
+      <c r="K119" t="s">
+        <v>251</v>
+      </c>
+      <c r="L119" t="s">
+        <v>225</v>
+      </c>
+      <c r="M119" t="s">
+        <v>226</v>
+      </c>
+      <c r="N119">
+        <v>23</v>
+      </c>
+      <c r="O119" t="s">
+        <v>227</v>
+      </c>
+      <c r="P119" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>158</v>
+      </c>
+      <c r="H120" t="s">
+        <v>159</v>
+      </c>
+      <c r="I120" t="s">
+        <v>160</v>
+      </c>
+      <c r="K120" t="s">
+        <v>252</v>
+      </c>
+      <c r="L120" t="s">
+        <v>225</v>
+      </c>
+      <c r="M120" t="s">
+        <v>226</v>
+      </c>
+      <c r="N120">
+        <v>24</v>
+      </c>
+      <c r="O120" t="s">
+        <v>227</v>
+      </c>
+      <c r="P120" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>158</v>
+      </c>
+      <c r="H121" t="s">
+        <v>159</v>
+      </c>
+      <c r="I121" t="s">
+        <v>160</v>
+      </c>
+      <c r="K121" t="s">
+        <v>253</v>
+      </c>
+      <c r="L121" t="s">
+        <v>225</v>
+      </c>
+      <c r="M121" t="s">
+        <v>226</v>
+      </c>
+      <c r="N121">
+        <v>25</v>
+      </c>
+      <c r="O121" t="s">
+        <v>227</v>
+      </c>
+      <c r="P121" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" t="s">
+        <v>158</v>
+      </c>
+      <c r="H122" t="s">
+        <v>159</v>
+      </c>
+      <c r="I122" t="s">
+        <v>160</v>
+      </c>
+      <c r="K122" t="s">
+        <v>254</v>
+      </c>
+      <c r="L122" t="s">
+        <v>225</v>
+      </c>
+      <c r="M122" t="s">
+        <v>226</v>
+      </c>
+      <c r="N122">
+        <v>26</v>
+      </c>
+      <c r="O122" t="s">
+        <v>227</v>
+      </c>
+      <c r="P122" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>158</v>
+      </c>
+      <c r="H123" t="s">
+        <v>159</v>
+      </c>
+      <c r="I123" t="s">
+        <v>160</v>
+      </c>
+      <c r="K123" t="s">
+        <v>255</v>
+      </c>
+      <c r="L123" t="s">
+        <v>225</v>
+      </c>
+      <c r="M123" t="s">
+        <v>226</v>
+      </c>
+      <c r="N123">
+        <v>27</v>
+      </c>
+      <c r="O123" t="s">
+        <v>227</v>
+      </c>
+      <c r="P123" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" t="s">
+        <v>158</v>
+      </c>
+      <c r="H124" t="s">
+        <v>159</v>
+      </c>
+      <c r="I124" t="s">
+        <v>160</v>
+      </c>
+      <c r="K124" t="s">
+        <v>256</v>
+      </c>
+      <c r="L124" t="s">
+        <v>257</v>
+      </c>
+      <c r="M124" t="s">
+        <v>258</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124" t="s">
+        <v>259</v>
+      </c>
+      <c r="P124" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" t="s">
+        <v>158</v>
+      </c>
+      <c r="H125" t="s">
+        <v>159</v>
+      </c>
+      <c r="I125" t="s">
+        <v>160</v>
+      </c>
+      <c r="K125" t="s">
+        <v>262</v>
+      </c>
+      <c r="L125" t="s">
+        <v>257</v>
+      </c>
+      <c r="M125" t="s">
+        <v>263</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>259</v>
+      </c>
+      <c r="P125" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" t="s">
+        <v>158</v>
+      </c>
+      <c r="H126" t="s">
+        <v>159</v>
+      </c>
+      <c r="I126" t="s">
+        <v>160</v>
+      </c>
+      <c r="K126" t="s">
+        <v>265</v>
+      </c>
+      <c r="L126" t="s">
+        <v>257</v>
+      </c>
+      <c r="M126" t="s">
+        <v>266</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>259</v>
+      </c>
+      <c r="P126" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" t="s">
+        <v>19</v>
+      </c>
+      <c r="F127" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" t="s">
+        <v>158</v>
+      </c>
+      <c r="H127" t="s">
+        <v>159</v>
+      </c>
+      <c r="I127" t="s">
+        <v>160</v>
+      </c>
+      <c r="K127" t="s">
+        <v>268</v>
+      </c>
+      <c r="L127" t="s">
+        <v>257</v>
+      </c>
+      <c r="M127" t="s">
+        <v>269</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127" t="s">
+        <v>259</v>
+      </c>
+      <c r="P127" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" t="s">
+        <v>158</v>
+      </c>
+      <c r="H128" t="s">
+        <v>159</v>
+      </c>
+      <c r="I128" t="s">
+        <v>160</v>
+      </c>
+      <c r="K128" t="s">
+        <v>271</v>
+      </c>
+      <c r="L128" t="s">
+        <v>257</v>
+      </c>
+      <c r="M128" t="s">
+        <v>272</v>
+      </c>
+      <c r="N128">
+        <v>5</v>
+      </c>
+      <c r="O128" t="s">
+        <v>259</v>
+      </c>
+      <c r="P128" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
+      </c>
+      <c r="F129" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" t="s">
+        <v>158</v>
+      </c>
+      <c r="H129" t="s">
+        <v>159</v>
+      </c>
+      <c r="I129" t="s">
+        <v>160</v>
+      </c>
+      <c r="K129" t="s">
+        <v>274</v>
+      </c>
+      <c r="L129" t="s">
+        <v>257</v>
+      </c>
+      <c r="M129" t="s">
+        <v>275</v>
+      </c>
+      <c r="N129">
+        <v>6</v>
+      </c>
+      <c r="O129" t="s">
+        <v>259</v>
+      </c>
+      <c r="P129" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130" t="s">
+        <v>19</v>
+      </c>
+      <c r="F130" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" t="s">
+        <v>158</v>
+      </c>
+      <c r="H130" t="s">
+        <v>159</v>
+      </c>
+      <c r="I130" t="s">
+        <v>160</v>
+      </c>
+      <c r="K130" t="s">
+        <v>277</v>
+      </c>
+      <c r="L130" t="s">
+        <v>257</v>
+      </c>
+      <c r="M130" t="s">
+        <v>278</v>
+      </c>
+      <c r="N130">
+        <v>7</v>
+      </c>
+      <c r="O130" t="s">
+        <v>259</v>
+      </c>
+      <c r="P130" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" t="s">
+        <v>158</v>
+      </c>
+      <c r="H131" t="s">
+        <v>159</v>
+      </c>
+      <c r="I131" t="s">
+        <v>160</v>
+      </c>
+      <c r="K131" t="s">
+        <v>280</v>
+      </c>
+      <c r="L131" t="s">
+        <v>257</v>
+      </c>
+      <c r="M131" t="s">
+        <v>281</v>
+      </c>
+      <c r="N131">
+        <v>8</v>
+      </c>
+      <c r="O131" t="s">
+        <v>259</v>
+      </c>
+      <c r="P131" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>18</v>
+      </c>
+      <c r="B132" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" t="s">
+        <v>158</v>
+      </c>
+      <c r="H132" t="s">
+        <v>159</v>
+      </c>
+      <c r="I132" t="s">
+        <v>160</v>
+      </c>
+      <c r="K132" t="s">
+        <v>283</v>
+      </c>
+      <c r="L132" t="s">
+        <v>257</v>
+      </c>
+      <c r="M132" t="s">
+        <v>284</v>
+      </c>
+      <c r="N132">
+        <v>9</v>
+      </c>
+      <c r="O132" t="s">
+        <v>259</v>
+      </c>
+      <c r="P132" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" t="s">
+        <v>158</v>
+      </c>
+      <c r="H133" t="s">
+        <v>159</v>
+      </c>
+      <c r="I133" t="s">
+        <v>160</v>
+      </c>
+      <c r="K133" t="s">
+        <v>286</v>
+      </c>
+      <c r="L133" t="s">
+        <v>257</v>
+      </c>
+      <c r="M133" t="s">
+        <v>287</v>
+      </c>
+      <c r="N133">
+        <v>10</v>
+      </c>
+      <c r="O133" t="s">
+        <v>259</v>
+      </c>
+      <c r="P133" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" t="s">
+        <v>158</v>
+      </c>
+      <c r="H134" t="s">
+        <v>159</v>
+      </c>
+      <c r="I134" t="s">
+        <v>160</v>
+      </c>
+      <c r="K134" t="s">
+        <v>289</v>
+      </c>
+      <c r="L134" t="s">
+        <v>257</v>
+      </c>
+      <c r="M134" t="s">
+        <v>290</v>
+      </c>
+      <c r="N134">
+        <v>11</v>
+      </c>
+      <c r="O134" t="s">
+        <v>259</v>
+      </c>
+      <c r="P134" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" t="s">
+        <v>158</v>
+      </c>
+      <c r="H135" t="s">
+        <v>159</v>
+      </c>
+      <c r="I135" t="s">
+        <v>160</v>
+      </c>
+      <c r="K135" t="s">
+        <v>292</v>
+      </c>
+      <c r="L135" t="s">
+        <v>257</v>
+      </c>
+      <c r="M135" t="s">
+        <v>293</v>
+      </c>
+      <c r="N135">
+        <v>12</v>
+      </c>
+      <c r="O135" t="s">
+        <v>259</v>
+      </c>
+      <c r="P135" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" t="s">
+        <v>158</v>
+      </c>
+      <c r="H136" t="s">
+        <v>159</v>
+      </c>
+      <c r="I136" t="s">
+        <v>160</v>
+      </c>
+      <c r="K136" t="s">
+        <v>295</v>
+      </c>
+      <c r="L136" t="s">
+        <v>257</v>
+      </c>
+      <c r="M136" t="s">
+        <v>296</v>
+      </c>
+      <c r="N136">
+        <v>13</v>
+      </c>
+      <c r="O136" t="s">
+        <v>259</v>
+      </c>
+      <c r="P136" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" t="s">
+        <v>158</v>
+      </c>
+      <c r="H137" t="s">
+        <v>159</v>
+      </c>
+      <c r="I137" t="s">
+        <v>160</v>
+      </c>
+      <c r="K137" t="s">
+        <v>298</v>
+      </c>
+      <c r="L137" t="s">
+        <v>257</v>
+      </c>
+      <c r="M137" t="s">
+        <v>299</v>
+      </c>
+      <c r="N137">
+        <v>14</v>
+      </c>
+      <c r="O137" t="s">
+        <v>259</v>
+      </c>
+      <c r="P137" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" t="s">
+        <v>158</v>
+      </c>
+      <c r="H138" t="s">
+        <v>159</v>
+      </c>
+      <c r="I138" t="s">
+        <v>160</v>
+      </c>
+      <c r="K138" t="s">
+        <v>301</v>
+      </c>
+      <c r="L138" t="s">
+        <v>257</v>
+      </c>
+      <c r="M138" t="s">
+        <v>302</v>
+      </c>
+      <c r="N138">
+        <v>15</v>
+      </c>
+      <c r="O138" t="s">
+        <v>259</v>
+      </c>
+      <c r="P138" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" t="s">
+        <v>158</v>
+      </c>
+      <c r="H139" t="s">
+        <v>159</v>
+      </c>
+      <c r="I139" t="s">
+        <v>160</v>
+      </c>
+      <c r="K139" t="s">
+        <v>304</v>
+      </c>
+      <c r="L139" t="s">
+        <v>257</v>
+      </c>
+      <c r="M139" t="s">
+        <v>305</v>
+      </c>
+      <c r="N139">
+        <v>16</v>
+      </c>
+      <c r="O139" t="s">
+        <v>259</v>
+      </c>
+      <c r="P139" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140" t="s">
+        <v>19</v>
+      </c>
+      <c r="F140" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" t="s">
+        <v>158</v>
+      </c>
+      <c r="H140" t="s">
+        <v>159</v>
+      </c>
+      <c r="I140" t="s">
+        <v>160</v>
+      </c>
+      <c r="K140" t="s">
+        <v>307</v>
+      </c>
+      <c r="L140" t="s">
+        <v>257</v>
+      </c>
+      <c r="M140" t="s">
+        <v>308</v>
+      </c>
+      <c r="N140">
+        <v>17</v>
+      </c>
+      <c r="O140" t="s">
+        <v>259</v>
+      </c>
+      <c r="P140" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>18</v>
+      </c>
+      <c r="B141" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" t="s">
+        <v>158</v>
+      </c>
+      <c r="H141" t="s">
+        <v>159</v>
+      </c>
+      <c r="I141" t="s">
+        <v>160</v>
+      </c>
+      <c r="K141" t="s">
+        <v>310</v>
+      </c>
+      <c r="L141" t="s">
+        <v>257</v>
+      </c>
+      <c r="M141" t="s">
+        <v>311</v>
+      </c>
+      <c r="N141">
+        <v>18</v>
+      </c>
+      <c r="O141" t="s">
+        <v>259</v>
+      </c>
+      <c r="P141" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142" t="s">
+        <v>158</v>
+      </c>
+      <c r="H142" t="s">
+        <v>159</v>
+      </c>
+      <c r="I142" t="s">
+        <v>160</v>
+      </c>
+      <c r="K142" t="s">
+        <v>313</v>
+      </c>
+      <c r="L142" t="s">
+        <v>257</v>
+      </c>
+      <c r="M142" t="s">
+        <v>314</v>
+      </c>
+      <c r="N142">
+        <v>19</v>
+      </c>
+      <c r="O142" t="s">
+        <v>259</v>
+      </c>
+      <c r="P142" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" t="s">
+        <v>19</v>
+      </c>
+      <c r="F143" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" t="s">
+        <v>158</v>
+      </c>
+      <c r="H143" t="s">
+        <v>159</v>
+      </c>
+      <c r="I143" t="s">
+        <v>160</v>
+      </c>
+      <c r="K143" t="s">
+        <v>316</v>
+      </c>
+      <c r="L143" t="s">
+        <v>257</v>
+      </c>
+      <c r="M143" t="s">
+        <v>317</v>
+      </c>
+      <c r="N143">
+        <v>20</v>
+      </c>
+      <c r="O143" t="s">
+        <v>259</v>
+      </c>
+      <c r="P143" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" t="s">
+        <v>158</v>
+      </c>
+      <c r="H144" t="s">
+        <v>159</v>
+      </c>
+      <c r="I144" t="s">
+        <v>160</v>
+      </c>
+      <c r="K144" t="s">
+        <v>319</v>
+      </c>
+      <c r="L144" t="s">
+        <v>257</v>
+      </c>
+      <c r="M144" t="s">
+        <v>320</v>
+      </c>
+      <c r="N144">
+        <v>21</v>
+      </c>
+      <c r="O144" t="s">
+        <v>259</v>
+      </c>
+      <c r="P144" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>18</v>
+      </c>
+      <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" t="s">
+        <v>158</v>
+      </c>
+      <c r="H145" t="s">
+        <v>159</v>
+      </c>
+      <c r="I145" t="s">
+        <v>160</v>
+      </c>
+      <c r="K145" t="s">
+        <v>322</v>
+      </c>
+      <c r="L145" t="s">
+        <v>257</v>
+      </c>
+      <c r="M145" t="s">
+        <v>323</v>
+      </c>
+      <c r="N145">
+        <v>22</v>
+      </c>
+      <c r="O145" t="s">
+        <v>259</v>
+      </c>
+      <c r="P145" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" t="s">
+        <v>20</v>
+      </c>
+      <c r="G146" t="s">
+        <v>158</v>
+      </c>
+      <c r="H146" t="s">
+        <v>159</v>
+      </c>
+      <c r="I146" t="s">
+        <v>160</v>
+      </c>
+      <c r="K146" t="s">
+        <v>325</v>
+      </c>
+      <c r="L146" t="s">
+        <v>257</v>
+      </c>
+      <c r="M146" t="s">
+        <v>326</v>
+      </c>
+      <c r="N146">
+        <v>23</v>
+      </c>
+      <c r="O146" t="s">
+        <v>259</v>
+      </c>
+      <c r="P146" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>18</v>
+      </c>
+      <c r="B147" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" t="s">
+        <v>20</v>
+      </c>
+      <c r="G147" t="s">
+        <v>158</v>
+      </c>
+      <c r="H147" t="s">
+        <v>159</v>
+      </c>
+      <c r="I147" t="s">
+        <v>160</v>
+      </c>
+      <c r="K147" t="s">
+        <v>328</v>
+      </c>
+      <c r="L147" t="s">
+        <v>257</v>
+      </c>
+      <c r="M147" t="s">
+        <v>329</v>
+      </c>
+      <c r="N147">
+        <v>24</v>
+      </c>
+      <c r="O147" t="s">
+        <v>259</v>
+      </c>
+      <c r="P147" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" t="s">
+        <v>158</v>
+      </c>
+      <c r="H148" t="s">
+        <v>159</v>
+      </c>
+      <c r="I148" t="s">
+        <v>160</v>
+      </c>
+      <c r="K148" t="s">
+        <v>331</v>
+      </c>
+      <c r="L148" t="s">
+        <v>257</v>
+      </c>
+      <c r="M148" t="s">
+        <v>332</v>
+      </c>
+      <c r="N148">
+        <v>25</v>
+      </c>
+      <c r="O148" t="s">
+        <v>259</v>
+      </c>
+      <c r="P148" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" t="s">
+        <v>158</v>
+      </c>
+      <c r="H149" t="s">
+        <v>159</v>
+      </c>
+      <c r="I149" t="s">
+        <v>160</v>
+      </c>
+      <c r="K149" t="s">
+        <v>334</v>
+      </c>
+      <c r="L149" t="s">
+        <v>257</v>
+      </c>
+      <c r="M149" t="s">
+        <v>335</v>
+      </c>
+      <c r="N149">
+        <v>26</v>
+      </c>
+      <c r="O149" t="s">
+        <v>259</v>
+      </c>
+      <c r="P149" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" t="s">
+        <v>20</v>
+      </c>
+      <c r="G150" t="s">
+        <v>158</v>
+      </c>
+      <c r="H150" t="s">
+        <v>159</v>
+      </c>
+      <c r="I150" t="s">
+        <v>160</v>
+      </c>
+      <c r="K150" t="s">
+        <v>337</v>
+      </c>
+      <c r="L150" t="s">
+        <v>257</v>
+      </c>
+      <c r="M150" t="s">
+        <v>338</v>
+      </c>
+      <c r="N150">
+        <v>27</v>
+      </c>
+      <c r="O150" t="s">
+        <v>259</v>
+      </c>
+      <c r="P150" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="245">
   <si>
     <t>orch_session_id</t>
   </si>
@@ -165,19 +165,28 @@
     <t>ahc_hrsn_valid_01_screening</t>
   </si>
   <si>
-    <t>e8072bf2-b35a-43f7-acb0-e432ee838454</t>
+    <t>85efcea7-9bed-412f-99dd-7cc3fabdfe29</t>
   </si>
   <si>
     <t>Missing Column</t>
   </si>
   <si>
+    <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
+  </si>
+  <si>
+    <t>47eab19d-85d0-46cd-a578-6c53d0ca4801</t>
+  </si>
+  <si>
     <t>Required column FACILITY is missing in ahc_hrsn_valid_01_screening.</t>
   </si>
   <si>
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>4fb54c11-1a30-497c-b7f2-3eb781fdedc9</t>
+    <t>b8b900a9-7818-4991-a494-66b1331abfc9</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -186,7 +195,7 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>75468089-d654-449b-8f54-1fed131c7f8e</t>
+    <t>81c8f6b0-08db-4567-b2b7-de67cc03fcb0</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in ahc_hrsn_valid_01_screening.</t>
@@ -195,7 +204,25 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>93a3ef2f-7c03-4d54-9963-ffe23b558aff</t>
+    <t>efaa266f-9f05-4881-846f-36130d99f964</t>
+  </si>
+  <si>
+    <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
+  </si>
+  <si>
+    <t>026baf29-d4aa-4bfa-a277-7431f0166cb6</t>
+  </si>
+  <si>
+    <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
+  </si>
+  <si>
+    <t>e796270c-4dc2-43b9-a049-b9de29b0bb7f</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in ahc_hrsn_valid_01_screening.</t>
@@ -204,25 +231,16 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>4c02d136-85f0-4aa3-a0f8-a8eaa36ecbbf</t>
-  </si>
-  <si>
-    <t>Required column MEDICAID_CIN is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "MEDICAID_CIN"</t>
-  </si>
-  <si>
-    <t>39cefa29-8080-4bcd-aedf-b3126d48e525</t>
-  </si>
-  <si>
-    <t>Required column ENCOUNTER_ID is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "ENCOUNTER_ID"</t>
-  </si>
-  <si>
-    <t>36f9f665-5cae-45ab-942a-866d651b982d</t>
+    <t>fce2c712-c9bd-4baa-8161-197dfee1bd73</t>
+  </si>
+  <si>
+    <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
+  </si>
+  <si>
+    <t>fb6a7d77-196c-4a72-b138-f19c22306fad</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in ahc_hrsn_valid_01_screening.</t>
@@ -231,25 +249,25 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>ee5b41c4-17bb-4895-a53e-5de19f2bb425</t>
-  </si>
-  <si>
-    <t>Required column SURVEY_ID is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "SURVEY_ID"</t>
-  </si>
-  <si>
-    <t>a906d5d1-1895-4062-8575-6b0315792fd3</t>
-  </si>
-  <si>
-    <t>Required column NEED_INDICATED is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "NEED_INDICATED"</t>
-  </si>
-  <si>
-    <t>fb6a39c9-90fd-43f3-aedb-26b31d0c87a5</t>
+    <t>7ae7670b-7815-4b52-beaa-4a191abe807f</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
+  </si>
+  <si>
+    <t>b2d21057-8e99-44f9-951f-b678cc408988</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
+  </si>
+  <si>
+    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OPWDD_FLAG"</t>
+  </si>
+  <si>
+    <t>f051d49a-c14f-4d30-85bf-0a689887d23a</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
@@ -258,24 +276,6 @@
     <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>3c51ef73-6c00-48fa-aaa8-ec2abed99acb</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OMH_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OMH_FLAG"</t>
-  </si>
-  <si>
-    <t>3a2d069f-04d3-4954-9b54-4142bcd0f467</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OPWDD_FLAG is missing in ahc_hrsn_valid_01_screening.</t>
-  </si>
-  <si>
-    <t>Ensure ahc_hrsn_valid_01_screening contains the column "VISIT_OPWDD_FLAG"</t>
-  </si>
-  <si>
     <t>a530fe1b-57ef-5a90-8bea-835ece2483da</t>
   </si>
   <si>
@@ -297,7 +297,97 @@
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>478df3f3-5634-4055-b749-a8194910501e</t>
+    <t>738d4342-dbdd-4be7-90f5-a89a2d5e6f61</t>
+  </si>
+  <si>
+    <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
+  </si>
+  <si>
+    <t>4730a786-f1bf-4fb9-9815-6e98d798c353</t>
+  </si>
+  <si>
+    <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
+  </si>
+  <si>
+    <t>73b79d3f-ac78-4252-b205-f3402579ac97</t>
+  </si>
+  <si>
+    <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
+  </si>
+  <si>
+    <t>17a0922f-bc1c-4d4e-b5b1-650c7c7d358f</t>
+  </si>
+  <si>
+    <t>Required column FACILITY is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "FACILITY"</t>
+  </si>
+  <si>
+    <t>3e35350e-8162-426d-86d2-4868d8dbbf08</t>
+  </si>
+  <si>
+    <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
+  </si>
+  <si>
+    <t>aeceebef-855e-4008-a227-85d2a8984b3a</t>
+  </si>
+  <si>
+    <t>Required column LAST_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
+  </si>
+  <si>
+    <t>7e19ff98-1234-4ffd-82ac-21fa291f04f1</t>
+  </si>
+  <si>
+    <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
+  </si>
+  <si>
+    <t>281ee6c7-1abf-403f-9e0f-95a2c917e393</t>
+  </si>
+  <si>
+    <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
+  </si>
+  <si>
+    <t>90ae75f0-a24b-42c9-87c8-910450de94c5</t>
+  </si>
+  <si>
+    <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
+  </si>
+  <si>
+    <t>bed84d18-b72f-4c63-b6d4-623a2cd2a0fd</t>
+  </si>
+  <si>
+    <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
+  </si>
+  <si>
+    <t>63ab1f6e-8c85-4f2b-8fae-297831ab45f0</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -306,61 +396,61 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>4c048f3b-2cee-4c9c-8244-45cb68b34de8</t>
-  </si>
-  <si>
-    <t>Required column FACILITY is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "FACILITY"</t>
-  </si>
-  <si>
-    <t>6f223a56-4770-4967-a77b-ee913cc4e381</t>
-  </si>
-  <si>
-    <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
-  </si>
-  <si>
-    <t>3549d51c-7ed6-4efc-83a3-295b6b89a39a</t>
-  </si>
-  <si>
-    <t>Required column LAST_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
-  </si>
-  <si>
-    <t>14fba79f-4bf3-40db-99ad-de7d3ff7c376</t>
-  </si>
-  <si>
-    <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
-  </si>
-  <si>
-    <t>1a5e19a3-7824-4a10-b89d-a611da7f8fd0</t>
-  </si>
-  <si>
-    <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
-  </si>
-  <si>
-    <t>4cb48244-cffe-4364-825e-270d560bd038</t>
-  </si>
-  <si>
-    <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
-  </si>
-  <si>
-    <t>f2028828-18f4-4e93-b98e-bd1034c1e902</t>
+    <t>b620850e-6999-4fee-8ba0-6d77b5028dff</t>
+  </si>
+  <si>
+    <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
+  </si>
+  <si>
+    <t>59f33c76-6866-4b86-bd99-4beb3ecb8a6e</t>
+  </si>
+  <si>
+    <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
+  </si>
+  <si>
+    <t>67a5b456-c42c-4b01-8410-4e03cf7e8219</t>
+  </si>
+  <si>
+    <t>Required column QUESTION is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "QUESTION"</t>
+  </si>
+  <si>
+    <t>5c92d010-f860-4e01-b961-8bbfafbc503b</t>
+  </si>
+  <si>
+    <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
+  </si>
+  <si>
+    <t>fc3fff70-dd9e-43d7-b27e-2c23d0fcc711</t>
+  </si>
+  <si>
+    <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
+  </si>
+  <si>
+    <t>ca1adda6-7b64-4545-8789-ad94530597b1</t>
+  </si>
+  <si>
+    <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
+  </si>
+  <si>
+    <t>bae92016-1f8b-4d73-9e64-47fc776b2d49</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -369,97 +459,25 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>0990a6f3-9fdf-4c40-bc6a-595af64f8ce5</t>
-  </si>
-  <si>
-    <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
-  </si>
-  <si>
-    <t>96bd7521-da8f-4bbf-a6d9-9952dceaff28</t>
-  </si>
-  <si>
-    <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
-  </si>
-  <si>
-    <t>d0e1e6d2-537a-4f30-8d50-efb9e5505259</t>
-  </si>
-  <si>
-    <t>Required column QUESTION is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "QUESTION"</t>
-  </si>
-  <si>
-    <t>b46bab6a-1095-4edd-847f-1c27a60e5377</t>
-  </si>
-  <si>
-    <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
-  </si>
-  <si>
-    <t>955e5510-b7e9-4b46-a5e8-8c417bde1eaa</t>
-  </si>
-  <si>
-    <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
-  </si>
-  <si>
-    <t>6c72b864-b0ae-4f72-884c-341d0df2d6ae</t>
-  </si>
-  <si>
-    <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
-  </si>
-  <si>
-    <t>fe18eecb-5a58-444e-9a6d-09537b5d49e7</t>
-  </si>
-  <si>
-    <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
-  </si>
-  <si>
-    <t>48adf76c-bf15-4d76-9250-e24ffe07c3e4</t>
-  </si>
-  <si>
-    <t>Required column ANSWER_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
-  </si>
-  <si>
-    <t>bfdc6088-c3a4-4917-8282-3212efefb5cd</t>
-  </si>
-  <si>
-    <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
-  </si>
-  <si>
-    <t>fce070ce-037c-46d6-9f9c-6885b791531b</t>
-  </si>
-  <si>
-    <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
-  </si>
-  <si>
-    <t>295a3da8-31e8-414a-b192-d52b506060a1</t>
+    <t>b262e432-56d5-455a-b122-02996609bd53</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
+  </si>
+  <si>
+    <t>cae20b66-d13e-4096-9102-b6eaa00ebba1</t>
+  </si>
+  <si>
+    <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
+  </si>
+  <si>
+    <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
+  </si>
+  <si>
+    <t>adc470a9-cc6c-4d6b-99e8-13929112bb59</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -468,24 +486,6 @@
     <t>Ensure synthetic_fail contains the column "VISIT_PART_2_FLAG"</t>
   </si>
   <si>
-    <t>b63679a7-5188-46c3-9b59-f7e586b88ff4</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
-  </si>
-  <si>
-    <t>84c22787-93a6-4b5c-a9a7-f63211d99868</t>
-  </si>
-  <si>
-    <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
-  </si>
-  <si>
-    <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
-  </si>
-  <si>
     <t>c60cf3db-b1bf-5103-b278-b0c128ce924a</t>
   </si>
   <si>
@@ -495,100 +495,256 @@
     <t>ahc_hrsn_12_12_2023_valid</t>
   </si>
   <si>
-    <t>bdbe5b5a-e186-4b87-8918-796e1b5146d1</t>
-  </si>
-  <si>
-    <t>Data Type Mismatch</t>
-  </si>
-  <si>
-    <t>Non-integer value "AHCHRSN01" found in SURVEY_ID</t>
-  </si>
-  <si>
-    <t>SURVEY_ID</t>
-  </si>
-  <si>
-    <t>AHCHRSN01</t>
-  </si>
-  <si>
-    <t>Convert non-integer values to INTEGER</t>
-  </si>
-  <si>
-    <t>b36b3553-e7ac-4e16-9c0a-6f07a88a5373</t>
-  </si>
-  <si>
-    <t>3db2979f-913f-451e-a36e-c534abdeb4e0</t>
-  </si>
-  <si>
-    <t>1e91bc80-a5a9-48a2-82a4-27ea6d0158dd</t>
-  </si>
-  <si>
-    <t>b62c0483-6814-4abd-a54c-f5dd6444f171</t>
-  </si>
-  <si>
-    <t>d174ce5a-9baa-42d3-8f3e-8a23406b0662</t>
-  </si>
-  <si>
-    <t>0a4fbf7a-0e9d-4aa9-9339-eb5c6edaec39</t>
-  </si>
-  <si>
-    <t>33187aac-eeda-4649-8cb5-d177e002a244</t>
-  </si>
-  <si>
-    <t>ba704267-8f26-4568-88d7-20de7115419c</t>
-  </si>
-  <si>
-    <t>62dbc77b-b212-4555-b7ad-9a7ac4a9ebf9</t>
-  </si>
-  <si>
-    <t>33e9a0c1-3a63-4faf-99dd-8eada6bd463b</t>
-  </si>
-  <si>
-    <t>98ae6f47-0d61-44cb-ab2a-a0f8733d7149</t>
-  </si>
-  <si>
-    <t>b6e47942-9086-456b-8105-9a03c5374278</t>
-  </si>
-  <si>
-    <t>6587a497-e5da-45ab-86dc-44db98f3e460</t>
-  </si>
-  <si>
-    <t>695c3bfa-c1b9-455f-bf96-8b1d5d7524fd</t>
-  </si>
-  <si>
-    <t>0e2df081-9bac-4637-8808-05cf4da5b1c7</t>
-  </si>
-  <si>
-    <t>d11bc45e-14f6-4ec9-8e75-b957f76f5d85</t>
-  </si>
-  <si>
-    <t>2a40b763-bbe9-4c73-a242-ac1273918eb2</t>
-  </si>
-  <si>
-    <t>70262c9a-f47c-4409-b39c-e958b7f808fe</t>
-  </si>
-  <si>
-    <t>ae08bf13-7445-4ff8-a512-9393b05d0c15</t>
-  </si>
-  <si>
-    <t>4a09c8b7-d6a8-42a4-b7a6-41be06cc86f6</t>
-  </si>
-  <si>
-    <t>01465847-d973-4323-b2ed-87ecd6f6c3fa</t>
-  </si>
-  <si>
-    <t>1543e2ab-1380-4abe-9304-745303c6d216</t>
-  </si>
-  <si>
-    <t>4417d626-2f03-4f45-b6e4-ac139c7c25db</t>
-  </si>
-  <si>
-    <t>d3bae684-8b35-401a-a243-7252ddb95bd3</t>
-  </si>
-  <si>
-    <t>e5f3e2f8-23ce-4402-b210-cc21bf2023d2</t>
-  </si>
-  <si>
-    <t>294b1a56-4d03-4927-8928-31ff5b651103</t>
+    <t>b5da270e-5e2f-4d3a-b9f0-29b2a6dca776</t>
+  </si>
+  <si>
+    <t>Invalid Value</t>
+  </si>
+  <si>
+    <t>Value 71802-3 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>QUESTION_CODE</t>
+  </si>
+  <si>
+    <t>71802-3</t>
+  </si>
+  <si>
+    <t>Use only allowed values 71802-3,96778-6 in QUESTION_CODE</t>
+  </si>
+  <si>
+    <t>6ce8d267-cc74-46b7-b20f-515289d015a3</t>
+  </si>
+  <si>
+    <t>Value 96778-6	 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>96778-6	</t>
+  </si>
+  <si>
+    <t>661f17bb-1159-446a-acd0-8bc8259c06fe</t>
+  </si>
+  <si>
+    <t>Value 88122-7 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>88122-7</t>
+  </si>
+  <si>
+    <t>8eb97664-3b83-41e6-acf7-ce756b2ada53</t>
+  </si>
+  <si>
+    <t>Value 88123-5 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>88123-5</t>
+  </si>
+  <si>
+    <t>4559fecd-fcf3-46f7-9371-10e128ac544f</t>
+  </si>
+  <si>
+    <t>Value 93030-5 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>93030-5</t>
+  </si>
+  <si>
+    <t>3d3ee8a0-4fa9-492d-9cf9-1e455b64bbfc</t>
+  </si>
+  <si>
+    <t>Value 96779-4 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>96779-4</t>
+  </si>
+  <si>
+    <t>7ab61fa7-4548-4fa4-9830-d97dad6b613e</t>
+  </si>
+  <si>
+    <t>Value 95618-5 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>95618-5</t>
+  </si>
+  <si>
+    <t>12fdeba6-cddd-4e50-8e4b-2eb849ba4072</t>
+  </si>
+  <si>
+    <t>Value 95617-7 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>95617-7</t>
+  </si>
+  <si>
+    <t>cf845311-0e1d-4eb5-9c01-b9dd5e7b6e7c</t>
+  </si>
+  <si>
+    <t>Value 95616-9 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>95616-9</t>
+  </si>
+  <si>
+    <t>fde2822a-5c93-43a9-ae5d-d8be243b559c</t>
+  </si>
+  <si>
+    <t>Value 95615-1 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>95615-1</t>
+  </si>
+  <si>
+    <t>52d66915-c7cf-46fd-8105-60bd160784dd</t>
+  </si>
+  <si>
+    <t>Value 76513-1 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>76513-1</t>
+  </si>
+  <si>
+    <t>1764264e-b081-4ed3-bb02-fb9570beb84e</t>
+  </si>
+  <si>
+    <t>Value 96780-2 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>96780-2</t>
+  </si>
+  <si>
+    <t>28384edd-a7b6-46c4-8f14-ebb427541d9d</t>
+  </si>
+  <si>
+    <t>Value 96781-0 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>96781-0</t>
+  </si>
+  <si>
+    <t>34542845-39da-4ce9-a67a-dd2c4b501043</t>
+  </si>
+  <si>
+    <t>Value 93159-2	 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>93159-2	</t>
+  </si>
+  <si>
+    <t>ac2520b3-041d-42f9-ac2f-ea28c42b69dd</t>
+  </si>
+  <si>
+    <t>Value 97027-7 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>97027-7</t>
+  </si>
+  <si>
+    <t>9793ad7d-bf28-40e8-bab3-468f2e70c125</t>
+  </si>
+  <si>
+    <t>Value 96782-8	 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>96782-8	</t>
+  </si>
+  <si>
+    <t>95ee2443-df5f-407e-a0f0-23d30be7d6a2</t>
+  </si>
+  <si>
+    <t>Value 89555-7 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>89555-7</t>
+  </si>
+  <si>
+    <t>6c30cb9c-60e4-40f6-989c-3c50243f7c78</t>
+  </si>
+  <si>
+    <t>Value 68516-4	 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>68516-4	</t>
+  </si>
+  <si>
+    <t>8d1553e0-4f5d-415c-8d03-7aaecef7bb7b</t>
+  </si>
+  <si>
+    <t>Value 68517-2 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>68517-2</t>
+  </si>
+  <si>
+    <t>b5cc4584-3f2f-42ee-a425-1d6d0ea9a442</t>
+  </si>
+  <si>
+    <t>Value 96842-0 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>96842-0</t>
+  </si>
+  <si>
+    <t>d38df34c-3da6-4f19-abb2-0730eb32ad1a</t>
+  </si>
+  <si>
+    <t>Value 95530-2 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>95530-2</t>
+  </si>
+  <si>
+    <t>cd6f1c94-1478-4803-aa84-193e093c3589</t>
+  </si>
+  <si>
+    <t>Value 68524-8 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>68524-8</t>
+  </si>
+  <si>
+    <t>babc94c0-82da-45d5-af10-f3f14b1d1220</t>
+  </si>
+  <si>
+    <t>Value 44250-9 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>44250-9</t>
+  </si>
+  <si>
+    <t>64297238-66ce-4dc6-9616-ba478a422439</t>
+  </si>
+  <si>
+    <t>Value 44255-8 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>44255-8</t>
+  </si>
+  <si>
+    <t>0b445a2c-2536-4c05-b98f-c74f5f732961</t>
+  </si>
+  <si>
+    <t>Value 93038-8 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>93038-8</t>
+  </si>
+  <si>
+    <t>c277b268-334b-435d-ace7-d42b52ac40d7</t>
+  </si>
+  <si>
+    <t>Value 69858-9 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>69858-9</t>
+  </si>
+  <si>
+    <t>c4cd6cd2-e97f-4afe-8796-ae5f87a3f776</t>
+  </si>
+  <si>
+    <t>Value 69861-3	 in QUESTION_CODE not in allowed list (71802-3,96778-6)</t>
+  </si>
+  <si>
+    <t>69861-3	</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2256,7 @@
         <v>162</v>
       </c>
       <c r="M44" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -2109,7 +2265,7 @@
         <v>164</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q44" t="s">
         <v>166</v>
@@ -2135,13 +2291,13 @@
         <v>160</v>
       </c>
       <c r="K45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s">
         <v>162</v>
       </c>
       <c r="M45" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="N45">
         <v>3</v>
@@ -2150,7 +2306,7 @@
         <v>164</v>
       </c>
       <c r="P45" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q45" t="s">
         <v>166</v>
@@ -2176,13 +2332,13 @@
         <v>160</v>
       </c>
       <c r="K46" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L46" t="s">
         <v>162</v>
       </c>
       <c r="M46" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="N46">
         <v>4</v>
@@ -2191,7 +2347,7 @@
         <v>164</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q46" t="s">
         <v>166</v>
@@ -2217,13 +2373,13 @@
         <v>160</v>
       </c>
       <c r="K47" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L47" t="s">
         <v>162</v>
       </c>
       <c r="M47" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="N47">
         <v>5</v>
@@ -2232,7 +2388,7 @@
         <v>164</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Q47" t="s">
         <v>166</v>
@@ -2258,13 +2414,13 @@
         <v>160</v>
       </c>
       <c r="K48" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L48" t="s">
         <v>162</v>
       </c>
       <c r="M48" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="N48">
         <v>6</v>
@@ -2273,7 +2429,7 @@
         <v>164</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="Q48" t="s">
         <v>166</v>
@@ -2299,13 +2455,13 @@
         <v>160</v>
       </c>
       <c r="K49" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="L49" t="s">
         <v>162</v>
       </c>
       <c r="M49" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="N49">
         <v>7</v>
@@ -2314,7 +2470,7 @@
         <v>164</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="Q49" t="s">
         <v>166</v>
@@ -2340,13 +2496,13 @@
         <v>160</v>
       </c>
       <c r="K50" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="L50" t="s">
         <v>162</v>
       </c>
       <c r="M50" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="N50">
         <v>8</v>
@@ -2355,7 +2511,7 @@
         <v>164</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="Q50" t="s">
         <v>166</v>
@@ -2381,13 +2537,13 @@
         <v>160</v>
       </c>
       <c r="K51" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="L51" t="s">
         <v>162</v>
       </c>
       <c r="M51" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="N51">
         <v>9</v>
@@ -2396,7 +2552,7 @@
         <v>164</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="Q51" t="s">
         <v>166</v>
@@ -2422,13 +2578,13 @@
         <v>160</v>
       </c>
       <c r="K52" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s">
         <v>162</v>
       </c>
       <c r="M52" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="N52">
         <v>10</v>
@@ -2437,7 +2593,7 @@
         <v>164</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="Q52" t="s">
         <v>166</v>
@@ -2463,13 +2619,13 @@
         <v>160</v>
       </c>
       <c r="K53" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="L53" t="s">
         <v>162</v>
       </c>
       <c r="M53" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="N53">
         <v>11</v>
@@ -2478,7 +2634,7 @@
         <v>164</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="Q53" t="s">
         <v>166</v>
@@ -2504,13 +2660,13 @@
         <v>160</v>
       </c>
       <c r="K54" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="L54" t="s">
         <v>162</v>
       </c>
       <c r="M54" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="N54">
         <v>12</v>
@@ -2519,7 +2675,7 @@
         <v>164</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="Q54" t="s">
         <v>166</v>
@@ -2545,13 +2701,13 @@
         <v>160</v>
       </c>
       <c r="K55" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="L55" t="s">
         <v>162</v>
       </c>
       <c r="M55" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="N55">
         <v>13</v>
@@ -2560,7 +2716,7 @@
         <v>164</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="Q55" t="s">
         <v>166</v>
@@ -2586,13 +2742,13 @@
         <v>160</v>
       </c>
       <c r="K56" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="L56" t="s">
         <v>162</v>
       </c>
       <c r="M56" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="N56">
         <v>14</v>
@@ -2601,7 +2757,7 @@
         <v>164</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="Q56" t="s">
         <v>166</v>
@@ -2627,13 +2783,13 @@
         <v>160</v>
       </c>
       <c r="K57" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="L57" t="s">
         <v>162</v>
       </c>
       <c r="M57" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="N57">
         <v>15</v>
@@ -2642,7 +2798,7 @@
         <v>164</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="Q57" t="s">
         <v>166</v>
@@ -2668,13 +2824,13 @@
         <v>160</v>
       </c>
       <c r="K58" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="L58" t="s">
         <v>162</v>
       </c>
       <c r="M58" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="N58">
         <v>16</v>
@@ -2683,7 +2839,7 @@
         <v>164</v>
       </c>
       <c r="P58" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="Q58" t="s">
         <v>166</v>
@@ -2709,13 +2865,13 @@
         <v>160</v>
       </c>
       <c r="K59" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="L59" t="s">
         <v>162</v>
       </c>
       <c r="M59" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="N59">
         <v>17</v>
@@ -2724,7 +2880,7 @@
         <v>164</v>
       </c>
       <c r="P59" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="Q59" t="s">
         <v>166</v>
@@ -2750,13 +2906,13 @@
         <v>160</v>
       </c>
       <c r="K60" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="L60" t="s">
         <v>162</v>
       </c>
       <c r="M60" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="N60">
         <v>18</v>
@@ -2765,7 +2921,7 @@
         <v>164</v>
       </c>
       <c r="P60" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="Q60" t="s">
         <v>166</v>
@@ -2791,13 +2947,13 @@
         <v>160</v>
       </c>
       <c r="K61" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="L61" t="s">
         <v>162</v>
       </c>
       <c r="M61" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="N61">
         <v>19</v>
@@ -2806,7 +2962,7 @@
         <v>164</v>
       </c>
       <c r="P61" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="Q61" t="s">
         <v>166</v>
@@ -2832,13 +2988,13 @@
         <v>160</v>
       </c>
       <c r="K62" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L62" t="s">
         <v>162</v>
       </c>
       <c r="M62" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="N62">
         <v>20</v>
@@ -2847,7 +3003,7 @@
         <v>164</v>
       </c>
       <c r="P62" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="Q62" t="s">
         <v>166</v>
@@ -2873,13 +3029,13 @@
         <v>160</v>
       </c>
       <c r="K63" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="L63" t="s">
         <v>162</v>
       </c>
       <c r="M63" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="N63">
         <v>21</v>
@@ -2888,7 +3044,7 @@
         <v>164</v>
       </c>
       <c r="P63" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="Q63" t="s">
         <v>166</v>
@@ -2914,13 +3070,13 @@
         <v>160</v>
       </c>
       <c r="K64" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="L64" t="s">
         <v>162</v>
       </c>
       <c r="M64" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="N64">
         <v>22</v>
@@ -2929,7 +3085,7 @@
         <v>164</v>
       </c>
       <c r="P64" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="Q64" t="s">
         <v>166</v>
@@ -2955,13 +3111,13 @@
         <v>160</v>
       </c>
       <c r="K65" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="L65" t="s">
         <v>162</v>
       </c>
       <c r="M65" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="N65">
         <v>23</v>
@@ -2970,7 +3126,7 @@
         <v>164</v>
       </c>
       <c r="P65" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="Q65" t="s">
         <v>166</v>
@@ -2996,13 +3152,13 @@
         <v>160</v>
       </c>
       <c r="K66" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="L66" t="s">
         <v>162</v>
       </c>
       <c r="M66" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="N66">
         <v>24</v>
@@ -3011,7 +3167,7 @@
         <v>164</v>
       </c>
       <c r="P66" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="Q66" t="s">
         <v>166</v>
@@ -3037,13 +3193,13 @@
         <v>160</v>
       </c>
       <c r="K67" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="L67" t="s">
         <v>162</v>
       </c>
       <c r="M67" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="N67">
         <v>25</v>
@@ -3052,7 +3208,7 @@
         <v>164</v>
       </c>
       <c r="P67" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="Q67" t="s">
         <v>166</v>
@@ -3078,13 +3234,13 @@
         <v>160</v>
       </c>
       <c r="K68" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="L68" t="s">
         <v>162</v>
       </c>
       <c r="M68" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="N68">
         <v>26</v>
@@ -3093,7 +3249,7 @@
         <v>164</v>
       </c>
       <c r="P68" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="Q68" t="s">
         <v>166</v>
@@ -3119,13 +3275,13 @@
         <v>160</v>
       </c>
       <c r="K69" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="L69" t="s">
         <v>162</v>
       </c>
       <c r="M69" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="N69">
         <v>27</v>
@@ -3134,7 +3290,7 @@
         <v>164</v>
       </c>
       <c r="P69" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="Q69" t="s">
         <v>166</v>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -168,7 +168,7 @@
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>5ebc4fc0-016b-4689-ba12-e0990f7273d0</t>
+    <t>e518da22-7605-49f9-8dec-9edfcc8ffad2</t>
   </si>
   <si>
     <t>Missing Column</t>
@@ -180,7 +180,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>1c3a7eb0-1db4-4392-89c4-7018ca2d7e25</t>
+    <t>8f550447-effe-4641-95c6-0a79caed6c81</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -189,7 +189,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>a1417bf0-00b5-4adc-9dea-5f835306d367</t>
+    <t>e24fac9e-1dea-4918-8527-eccc133dc297</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -198,7 +198,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>abbbb2b8-237b-431a-ae6a-583c4e4f4d04</t>
+    <t>0a5bf65c-a679-41b8-9476-b4610b35f8ee</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -207,7 +207,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>af975844-2476-4d90-9a77-280b515f82d0</t>
+    <t>7dfd62df-b658-44c1-9204-beac6686d8c2</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -216,7 +216,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>749373dd-68bb-4446-84d9-c2fef91b7078</t>
+    <t>a638b785-9e8f-4c94-9825-e18b6c067668</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -225,7 +225,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>d39ebb6c-4cb6-4b93-b53c-8ac86d45d8ff</t>
+    <t>2b4ee646-6072-4e28-8a53-2592dca481cf</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -234,7 +234,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>146e294e-3b61-4428-84ac-6f8f1b24f363</t>
+    <t>57cbfe6b-cdd1-48c0-8777-bdea1c3eebbc</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -243,7 +243,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>faf681d2-adbe-47b3-8ec4-770f3243b9e3</t>
+    <t>ce90fc5b-f7ad-45f5-a5f7-51636ee5d9e1</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -252,7 +252,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>9203972f-a22b-4629-9511-72f9edae5d94</t>
+    <t>29be68ad-ceee-4a8c-aca3-e69fa5e9c0fa</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -261,7 +261,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>07baa847-e339-40d3-86b2-97295c16dd0b</t>
+    <t>c54b6936-fd21-4752-a43d-4a835afe92a8</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -270,7 +270,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>a9f4c9bd-fcbc-4370-9767-835166f4d521</t>
+    <t>d6f82305-003b-42e7-bb42-8d5cb6cb5bf4</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -279,7 +279,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>14e87de7-f032-4d25-a37d-671f3c2e4541</t>
+    <t>9677d4af-7245-429b-8fe7-878a72c74e49</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -288,7 +288,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>3e6133b2-4010-41f5-b794-8e43d5439a86</t>
+    <t>6c21838d-3e6d-4549-aaff-433efcfc3278</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -297,7 +297,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>31f7a949-51c3-430b-a4d3-38befc47e9af</t>
+    <t>beaf8db1-94d5-4146-a032-345cee5fede9</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -306,7 +306,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>41c9cff1-2656-46f8-9cca-e16dc2e89880</t>
+    <t>c02fa68d-153f-4acc-97a1-5bd0d0514055</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -315,7 +315,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>de786c06-1d89-4178-9194-46e0587a464e</t>
+    <t>4db672f0-f4b3-4e81-b8ac-e6b8e01a5080</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -324,7 +324,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>d451e291-61e6-48c4-ad01-57251a36ef58</t>
+    <t>049f60d6-5b4f-4db5-b116-f4ad3c321c66</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -333,7 +333,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>2c809e37-7f76-4f29-9096-03a8c5e8756e</t>
+    <t>627e2ed0-034c-482a-a0c4-213f54e7d663</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -342,7 +342,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>f2fd64e7-3f88-4bca-93ad-0a56423dd560</t>
+    <t>bfe55423-2c4e-4903-bd9e-9c02f9c838e4</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -351,7 +351,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
   </si>
   <si>
-    <t>f950dd2c-e0d7-41c6-b8eb-be8d5ce49301</t>
+    <t>830c5baa-c8b5-45d6-ac3b-b8449283d544</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -384,7 +384,7 @@
     <t>ahc_hrsn_2023_12_12_valid</t>
   </si>
   <si>
-    <t>ac640321-f55e-4e69-9db8-ccfd4e035337</t>
+    <t>fd59a27e-a6cc-44db-9148-373797f19f92</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -402,7 +402,7 @@
     <t>Use only allowed values '71802-3','96778-6' in QUESTION_CODE</t>
   </si>
   <si>
-    <t>312c5919-57ae-4ca1-b05c-52325e45ebcc</t>
+    <t>551f7746-171a-453e-b340-aae12b40caf6</t>
   </si>
   <si>
     <t>Value 88122-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -411,7 +411,7 @@
     <t>88122-7</t>
   </si>
   <si>
-    <t>e7c9edf9-4d5c-4839-9b14-7865bfacfb28</t>
+    <t>1630f993-7ad0-42f9-92c8-6c78534ad021</t>
   </si>
   <si>
     <t>Value 88123-5 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -420,7 +420,7 @@
     <t>88123-5</t>
   </si>
   <si>
-    <t>0b94ccba-f4b6-4463-b818-a9cc7f69aa6b</t>
+    <t>f2467db1-3ae0-425e-af49-469a67d4ac45</t>
   </si>
   <si>
     <t>Value 93030-5 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -429,7 +429,7 @@
     <t>93030-5</t>
   </si>
   <si>
-    <t>10a6167f-7789-493c-9743-f09a2e97ace2</t>
+    <t>92a4986d-4600-4e10-9154-078b1a29a65d</t>
   </si>
   <si>
     <t>Value 96779-4 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -438,7 +438,7 @@
     <t>96779-4</t>
   </si>
   <si>
-    <t>baca343c-0f93-4f83-ac72-ad99d0dcb5e9</t>
+    <t>d9a6454a-a0db-499f-8dc2-2994814404e1</t>
   </si>
   <si>
     <t>Value 95618-5 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -447,7 +447,7 @@
     <t>95618-5</t>
   </si>
   <si>
-    <t>f562fa4b-5c42-46b7-a3be-7152f722011d</t>
+    <t>3ce13d44-1548-4305-b1c4-fa90d76809fb</t>
   </si>
   <si>
     <t>Value 95617-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -456,7 +456,7 @@
     <t>95617-7</t>
   </si>
   <si>
-    <t>51944ea0-e609-4cbd-b7ed-a849107ab414</t>
+    <t>7b903a97-b7f5-4abe-bc04-b1578fb7802d</t>
   </si>
   <si>
     <t>Value 95616-9 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -465,7 +465,7 @@
     <t>95616-9</t>
   </si>
   <si>
-    <t>ef516127-81f1-44f2-b7f2-34a67290cd53</t>
+    <t>92e40b91-f92a-49e9-bb91-bf3c0b02f86c</t>
   </si>
   <si>
     <t>Value 95615-1 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -474,7 +474,7 @@
     <t>95615-1</t>
   </si>
   <si>
-    <t>001a3797-987d-4b8c-8fd1-79e35cb713ef</t>
+    <t>1134c277-c666-4bf8-b3fb-0222201050df</t>
   </si>
   <si>
     <t>Value 76513-1 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -483,7 +483,7 @@
     <t>76513-1</t>
   </si>
   <si>
-    <t>e9497990-f4d0-4842-825b-6242f4d53c86</t>
+    <t>c0bf7f6e-20ce-49b5-b911-8cca3f3840af</t>
   </si>
   <si>
     <t>Value 96780-2 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -492,7 +492,7 @@
     <t>96780-2</t>
   </si>
   <si>
-    <t>b4f8f8a5-b912-4aa8-8a8b-28d9bdc79d65</t>
+    <t>f2a5f9dd-490a-4741-a8a6-f84e6d14b0fd</t>
   </si>
   <si>
     <t>Value 96781-0 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -501,7 +501,7 @@
     <t>96781-0</t>
   </si>
   <si>
-    <t>4a18d131-5f28-45ef-b2cc-b50a708d785c</t>
+    <t>084c2d61-c30d-46a4-b365-5a8f1cc3f7b4</t>
   </si>
   <si>
     <t>Value 93159-2	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -510,7 +510,7 @@
     <t>93159-2	</t>
   </si>
   <si>
-    <t>1b9c8b1b-7695-4210-a8b2-26d6a668eb9f</t>
+    <t>e3632ccf-fc1e-415e-a516-0d3e57c53ace</t>
   </si>
   <si>
     <t>Value 97027-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -519,7 +519,7 @@
     <t>97027-7</t>
   </si>
   <si>
-    <t>1c315bf7-a353-4179-ac1c-bee85b336fb2</t>
+    <t>644d144d-33e2-4822-b324-d9efd7e2cd01</t>
   </si>
   <si>
     <t>Value 96782-8	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -528,7 +528,7 @@
     <t>96782-8	</t>
   </si>
   <si>
-    <t>3f044bed-713c-4f10-81b9-047f91ae53ba</t>
+    <t>591ad535-6713-46cd-8f86-27d27ac00765</t>
   </si>
   <si>
     <t>Value 89555-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -537,7 +537,7 @@
     <t>89555-7</t>
   </si>
   <si>
-    <t>5b41159b-c43a-49af-ae1d-36cc76640a43</t>
+    <t>ff871831-9c38-48f7-a02f-7ab16d74cd3f</t>
   </si>
   <si>
     <t>Value 68516-4	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -546,7 +546,7 @@
     <t>68516-4	</t>
   </si>
   <si>
-    <t>cd7c6bd1-1a16-4d96-b167-67d80ffe58d2</t>
+    <t>fd6e1127-afcf-4ed1-b629-428279d6dd8a</t>
   </si>
   <si>
     <t>Value 68517-2 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -555,7 +555,7 @@
     <t>68517-2</t>
   </si>
   <si>
-    <t>5287d0ea-2504-426b-98e5-0897feadfa79</t>
+    <t>dbacaa4a-3e9f-4a73-a641-d03f5261c083</t>
   </si>
   <si>
     <t>Value 96842-0 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -564,7 +564,7 @@
     <t>96842-0</t>
   </si>
   <si>
-    <t>d6288a87-319a-4ba0-aae9-3c31f94b58fd</t>
+    <t>bf9e4a66-25d8-4d88-bc09-dcfadd6fdaa6</t>
   </si>
   <si>
     <t>Value 95530-2 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -573,7 +573,7 @@
     <t>95530-2</t>
   </si>
   <si>
-    <t>af423e28-16c8-4208-9d7e-d1b14886b19c</t>
+    <t>f462174b-f95a-4b3d-aa63-16169b628b43</t>
   </si>
   <si>
     <t>Value 68524-8 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -582,7 +582,7 @@
     <t>68524-8</t>
   </si>
   <si>
-    <t>add8073e-ee50-448f-bcba-caeea509bb59</t>
+    <t>f2214c19-c93e-484c-8d82-31bb6248fe28</t>
   </si>
   <si>
     <t>Value 44250-9 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -591,7 +591,7 @@
     <t>44250-9</t>
   </si>
   <si>
-    <t>430d0ec6-b2bd-4319-af77-ceb2fb29b6b5</t>
+    <t>c07a1f2c-d772-4ad5-95c5-acd15fd0f0b0</t>
   </si>
   <si>
     <t>Value 44255-8 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -600,7 +600,7 @@
     <t>44255-8</t>
   </si>
   <si>
-    <t>f86fd75d-68f1-4f65-98d4-85ad1a705055</t>
+    <t>02c9b12e-b2f0-457b-b606-a430a4de96ce</t>
   </si>
   <si>
     <t>Value 93038-8 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -609,7 +609,7 @@
     <t>93038-8</t>
   </si>
   <si>
-    <t>27a38e34-7e9c-4a9d-8b46-3a0f66dfa80f</t>
+    <t>ac93e76d-b888-45bc-8460-95f1fc0207b4</t>
   </si>
   <si>
     <t>Value 69858-9 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -618,7 +618,7 @@
     <t>69858-9</t>
   </si>
   <si>
-    <t>2ce4a812-4a5b-4fee-a07f-f64c7182b1ab</t>
+    <t>8d392943-b9c9-4620-a8ab-c39d477397a1</t>
   </si>
   <si>
     <t>Value 69861-3	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -627,7 +627,7 @@
     <t>69861-3	</t>
   </si>
   <si>
-    <t>bf887974-cea5-4122-b65f-29d6947295fe</t>
+    <t>d96030f5-ebc5-4866-b1ca-e7cc7e28f244</t>
   </si>
   <si>
     <t>Value false in NEED_INDICATED not in allowed list ('TRUE','FALSE')</t>
@@ -642,7 +642,7 @@
     <t>Use only allowed values 'TRUE','FALSE' in NEED_INDICATED</t>
   </si>
   <si>
-    <t>4d90a8a3-5246-4185-8c0a-6756187cf40f</t>
+    <t>825e173c-be20-407d-943d-0f6cf0946aed</t>
   </si>
   <si>
     <t>Value true in NEED_INDICATED not in allowed list ('TRUE','FALSE')</t>
@@ -651,82 +651,82 @@
     <t>true</t>
   </si>
   <si>
-    <t>cf4e148b-f1da-45be-b1ca-73abe4561585</t>
-  </si>
-  <si>
-    <t>bab8003d-4e2b-4b52-9888-cb71eb40bd97</t>
-  </si>
-  <si>
-    <t>044e7c46-fbb7-41f1-944a-8cad797667ba</t>
-  </si>
-  <si>
-    <t>c382f781-909b-44ef-a2ba-486f4ccecd99</t>
-  </si>
-  <si>
-    <t>cf3f64d4-3497-48a5-a75e-00b67c4604a7</t>
-  </si>
-  <si>
-    <t>45cb578d-72ff-4a27-bb94-febb4c6ebfda</t>
-  </si>
-  <si>
-    <t>bf2d7b21-3514-41d8-a4d4-0a44c2d26d1e</t>
-  </si>
-  <si>
-    <t>9e0e1dda-5d66-4246-9952-8bdcc9f5720e</t>
-  </si>
-  <si>
-    <t>29488b82-de5a-4475-acdf-9915f5d26f6d</t>
-  </si>
-  <si>
-    <t>2afe8f59-6b45-4465-8f6e-8a0955d28b71</t>
-  </si>
-  <si>
-    <t>7e285f2f-cc1d-4e10-8c84-89f2a8a49eb6</t>
-  </si>
-  <si>
-    <t>1e5788a7-4421-4505-8766-922c6df64d7f</t>
-  </si>
-  <si>
-    <t>919652f2-594d-49b5-99a5-dbd697da4dc3</t>
-  </si>
-  <si>
-    <t>e5ee3662-76c9-4043-b01f-41d44970fbf6</t>
-  </si>
-  <si>
-    <t>c3702288-392c-4b9e-bc83-f0905a91fe7a</t>
-  </si>
-  <si>
-    <t>2a7bc95d-092d-408b-a82f-4c6f71e32e2f</t>
-  </si>
-  <si>
-    <t>265d1cab-2de5-47dd-9dcd-30fd0435230f</t>
-  </si>
-  <si>
-    <t>a08be98b-48e0-490c-a003-f9b55e740b57</t>
-  </si>
-  <si>
-    <t>f1d47771-4ee3-4c3d-9ebb-aadabd797112</t>
-  </si>
-  <si>
-    <t>ab16fd50-b80e-4957-b93d-4490435b5c68</t>
-  </si>
-  <si>
-    <t>cce0f24c-f199-4a39-90f8-2710b66b54ee</t>
-  </si>
-  <si>
-    <t>ecb1e955-d8de-422a-b073-566918ec7271</t>
-  </si>
-  <si>
-    <t>05c71b51-1123-48d8-a16b-1c52219bda30</t>
-  </si>
-  <si>
-    <t>6ada8a37-9cfa-40f6-85a1-c1fb566aa03d</t>
-  </si>
-  <si>
-    <t>af4a1f0e-a433-4b8b-ad4b-dcd34c9093ed</t>
-  </si>
-  <si>
-    <t>37f181d1-ecff-4c6e-be18-917041cbc970</t>
+    <t>2ff2e79b-5026-495a-a788-10556bb4bed5</t>
+  </si>
+  <si>
+    <t>adb4df45-12b0-456b-9564-f61ebd80bc11</t>
+  </si>
+  <si>
+    <t>b6843e68-aee9-44d5-a59b-30493679b0da</t>
+  </si>
+  <si>
+    <t>e6b24b4e-79b4-4e39-a1de-1a4e539f96b0</t>
+  </si>
+  <si>
+    <t>ffe7b8af-5086-45c2-8f09-967dc11a8116</t>
+  </si>
+  <si>
+    <t>808c1cfa-74d0-4c11-a61f-846b3e4c9fbf</t>
+  </si>
+  <si>
+    <t>c652c992-a245-41af-b62f-6b1ad24834d1</t>
+  </si>
+  <si>
+    <t>775beed9-d8db-4965-9951-5a08b6f02503</t>
+  </si>
+  <si>
+    <t>829f7c13-9441-4691-a46c-5783101eddf0</t>
+  </si>
+  <si>
+    <t>9dae920a-e4c7-47dc-bf53-069d7c3f7c9b</t>
+  </si>
+  <si>
+    <t>d21fa503-a91e-4d20-a46f-cdbe72b17258</t>
+  </si>
+  <si>
+    <t>cae2f65d-211f-4654-8dee-ba9f8bd777f1</t>
+  </si>
+  <si>
+    <t>392016a0-48f7-4a0b-9590-2a8e4a38c713</t>
+  </si>
+  <si>
+    <t>5724f630-d3e7-48ba-9fb8-d5826fbc2a48</t>
+  </si>
+  <si>
+    <t>2c4c5a6e-bacc-4249-95f5-fd0ddb2a4011</t>
+  </si>
+  <si>
+    <t>2cdf5767-a6e3-4dc1-90b1-7a5cfcb781d3</t>
+  </si>
+  <si>
+    <t>29a1adce-6154-4608-bd6c-4dce8cd28dd6</t>
+  </si>
+  <si>
+    <t>e5172afe-eb3d-40dd-8030-2e340e084b57</t>
+  </si>
+  <si>
+    <t>5e2afdeb-93a5-4425-b9dc-7f669e18ee95</t>
+  </si>
+  <si>
+    <t>74a70f46-5272-4334-8474-6fcfab21619a</t>
+  </si>
+  <si>
+    <t>fcd7eae4-95da-46a9-9aaf-47d8e2a6df9c</t>
+  </si>
+  <si>
+    <t>702182dd-492e-4490-a351-37413bd08820</t>
+  </si>
+  <si>
+    <t>378727ed-fc5e-442d-a0cc-86e57ea09474</t>
+  </si>
+  <si>
+    <t>d439f196-2dae-4bf5-acf6-43073845db0e</t>
+  </si>
+  <si>
+    <t>0b1b797b-e4ff-4fc9-983b-8dac71edc54e</t>
+  </si>
+  <si>
+    <t>9b02e550-2b91-4fc8-adf2-ac84971a239d</t>
   </si>
   <si>
     <t>Value false in VISIT_PART_2_FLAG not in allowed list ('TRUE','FALSE')</t>
@@ -738,88 +738,88 @@
     <t>Use only allowed values 'TRUE','FALSE' in VISIT_PART_2_FLAG</t>
   </si>
   <si>
-    <t>2e563537-fcfb-4f21-8d88-cb5725140963</t>
-  </si>
-  <si>
-    <t>614af384-0683-4912-8265-02061509948c</t>
-  </si>
-  <si>
-    <t>76cd2aa3-adbd-422a-9251-3d5786dfb19a</t>
-  </si>
-  <si>
-    <t>45b41c4d-b49d-499b-84fa-d543bc359ed6</t>
-  </si>
-  <si>
-    <t>6ec62e95-8c78-43d5-8277-657a616be7f2</t>
-  </si>
-  <si>
-    <t>2e080b92-cfdd-4365-9117-ce3836ead048</t>
-  </si>
-  <si>
-    <t>60197b0f-13b7-4b11-a24a-f7f2358484ce</t>
-  </si>
-  <si>
-    <t>68f49ea1-d186-4c60-8972-468e3bfa5012</t>
-  </si>
-  <si>
-    <t>f9ea6d13-43a8-459e-9896-517987f16570</t>
-  </si>
-  <si>
-    <t>f3fca671-6940-450f-8bb7-5340b7675292</t>
-  </si>
-  <si>
-    <t>735afe0c-5f8a-477a-89b1-531add950992</t>
-  </si>
-  <si>
-    <t>e5d7f9fa-e0aa-401f-a6cd-66d3f0aa2f97</t>
-  </si>
-  <si>
-    <t>02cd5695-0b81-4002-b4f7-2295dc6e9cdd</t>
-  </si>
-  <si>
-    <t>77580969-4a83-467e-b459-45f9e29416aa</t>
-  </si>
-  <si>
-    <t>e012a6e3-97d5-46db-be37-5a4a0ede973d</t>
-  </si>
-  <si>
-    <t>8de7e8c2-a964-49dd-a836-9d2c2e9769f6</t>
-  </si>
-  <si>
-    <t>131865e5-c7f8-4240-a787-bc30f8a866a4</t>
-  </si>
-  <si>
-    <t>04f4825b-0865-45f2-b846-fce12dbdab41</t>
+    <t>eb347056-4d59-41bb-9e54-d9cc7f257073</t>
+  </si>
+  <si>
+    <t>be0809cc-0076-4e2f-84aa-fa3e77ae5bee</t>
+  </si>
+  <si>
+    <t>d34fcb03-ca54-4aaf-9bc1-7affd3503464</t>
+  </si>
+  <si>
+    <t>c145e52c-679c-4cb0-9a3f-bf34e55be37e</t>
+  </si>
+  <si>
+    <t>ab6e3b68-728e-4d69-9cc2-cac0a4d72bd5</t>
+  </si>
+  <si>
+    <t>0b1b5600-84a9-4078-85b8-c3e3553d8d62</t>
+  </si>
+  <si>
+    <t>c2bc8f74-ca88-4c14-80c8-f6bf93e7922c</t>
+  </si>
+  <si>
+    <t>12857e81-6043-48bf-9e81-afeb32105ba7</t>
+  </si>
+  <si>
+    <t>9c24f12a-0c14-4ea6-bd82-8b69842d55ab</t>
+  </si>
+  <si>
+    <t>e5e585df-133e-4a6d-9cbe-383f620b794e</t>
+  </si>
+  <si>
+    <t>b2e17939-92a1-45fd-ac8c-36c44548c0d2</t>
+  </si>
+  <si>
+    <t>0c7fdc8d-e733-432a-958f-554a95a6c40a</t>
+  </si>
+  <si>
+    <t>baae2602-ce3f-4b5f-b06b-390f2f4ea970</t>
+  </si>
+  <si>
+    <t>f8d3d45f-3fa6-41de-94d3-78c018a4cd72</t>
+  </si>
+  <si>
+    <t>c580b111-cd5d-4edb-9ac7-92f37e3c62ba</t>
+  </si>
+  <si>
+    <t>76eb6d1c-9769-4100-b8dd-d0427ada6716</t>
+  </si>
+  <si>
+    <t>2efb8572-4513-4b81-afb9-28d7c501a317</t>
+  </si>
+  <si>
+    <t>c24028e0-6792-4c2e-82d8-fd45a3d17bb3</t>
   </si>
   <si>
     <t>Value true in VISIT_PART_2_FLAG not in allowed list ('TRUE','FALSE')</t>
   </si>
   <si>
-    <t>9c0163c5-0a1b-4ddc-9294-43f392c79aae</t>
-  </si>
-  <si>
-    <t>2e1b58cd-35f2-4144-bd44-d43e6441d201</t>
-  </si>
-  <si>
-    <t>a9b2d02c-215b-4a67-b9a6-9648fd744dee</t>
-  </si>
-  <si>
-    <t>fc92ac16-a6ab-401d-a9ae-bf8b89b018fb</t>
-  </si>
-  <si>
-    <t>ddbcf09e-a04d-46fe-b5d7-0da4ab1ef46b</t>
-  </si>
-  <si>
-    <t>ab6c3481-f11a-44bc-aa62-dcb843147356</t>
-  </si>
-  <si>
-    <t>1ffdda96-f6c8-43ea-86fe-2614548ab35d</t>
-  </si>
-  <si>
-    <t>119481ef-8eea-4b47-b85c-38311fba13e5</t>
-  </si>
-  <si>
-    <t>062fe29b-b268-484e-84a0-c76d85ff8859</t>
+    <t>5c92ac7b-2ad6-46d5-b43e-9f9eeaf36e86</t>
+  </si>
+  <si>
+    <t>099023d5-cf0b-44a6-9b70-bc8f3705d057</t>
+  </si>
+  <si>
+    <t>1220a787-4540-4ae5-8e8a-5f41582abc61</t>
+  </si>
+  <si>
+    <t>f70d3aa1-8e56-40fd-a792-3604b8e900a7</t>
+  </si>
+  <si>
+    <t>3e74cc92-7168-4636-a459-75246e54696c</t>
+  </si>
+  <si>
+    <t>aff9c1cf-1b4a-4614-ab52-da2c8904fce1</t>
+  </si>
+  <si>
+    <t>e2d0987e-f1a8-41a9-81b6-dd5fb963bfca</t>
+  </si>
+  <si>
+    <t>3546d0ce-115b-43e1-9d42-ce0c366d43f8</t>
+  </si>
+  <si>
+    <t>33de157b-f82e-4ffc-a224-f59a2283480f</t>
   </si>
   <si>
     <t>Value false in VISIT_OMH_FLAG not in allowed list ('TRUE','FALSE')</t>
@@ -831,85 +831,85 @@
     <t>Use only allowed values 'TRUE','FALSE' in VISIT_OMH_FLAG</t>
   </si>
   <si>
-    <t>9359c697-5194-451f-b6fd-6681e1066b20</t>
-  </si>
-  <si>
-    <t>18fe52e4-be89-4438-871f-42a501af4a43</t>
-  </si>
-  <si>
-    <t>a9248ff8-dafe-448d-884e-d7547dfe6278</t>
-  </si>
-  <si>
-    <t>d642b3d9-1e09-4705-9316-2848dc0e02db</t>
-  </si>
-  <si>
-    <t>c3a432f3-25bd-4ed8-941c-efe1f3d5a5be</t>
-  </si>
-  <si>
-    <t>96732b3b-30f8-4972-9f5e-59c7d0d10bb5</t>
-  </si>
-  <si>
-    <t>c2ae1217-7ccb-40c7-81b7-c709e77f3de0</t>
-  </si>
-  <si>
-    <t>87da3459-743e-401a-b6e7-64c4bc9ac4f8</t>
-  </si>
-  <si>
-    <t>946ffeb5-e0ea-4cb5-99d8-1ad44b05eef2</t>
-  </si>
-  <si>
-    <t>75e00c72-158e-4d84-810a-6187055c53f2</t>
-  </si>
-  <si>
-    <t>eef451fa-b807-4642-91e6-7565ad20a6ff</t>
-  </si>
-  <si>
-    <t>db1e537a-128c-4689-b67b-6ca68ec65d34</t>
-  </si>
-  <si>
-    <t>8c7a1a54-3d96-4d81-ac05-28a3b3fcf2b9</t>
-  </si>
-  <si>
-    <t>1c1620fd-fb94-400d-abdd-f5935506cb15</t>
-  </si>
-  <si>
-    <t>da96a47f-3487-49ea-ab99-12cc20e01793</t>
-  </si>
-  <si>
-    <t>66f6a70e-2d61-426e-994f-46cc309d2da2</t>
-  </si>
-  <si>
-    <t>e334c185-cc60-4556-9bb3-4a77ee840b3b</t>
-  </si>
-  <si>
-    <t>61edcd67-385f-4efe-815e-1f1be1709823</t>
-  </si>
-  <si>
-    <t>66bcafa1-a2d1-4a40-bee4-f2d88b31fa21</t>
-  </si>
-  <si>
-    <t>ed79eec7-2c0b-413b-818c-68b2bca1c508</t>
-  </si>
-  <si>
-    <t>574954a7-fd2c-4e02-b238-3bf0873b0272</t>
-  </si>
-  <si>
-    <t>eceaed2c-912e-4b3c-b865-68ceb3e2ffd3</t>
-  </si>
-  <si>
-    <t>9b8e01f2-be7d-4dfb-abe1-f75a6287adbe</t>
-  </si>
-  <si>
-    <t>814e26a4-3034-4121-9295-4862c18c5923</t>
-  </si>
-  <si>
-    <t>4733c8d1-0460-4edc-bb44-136bae3b4434</t>
-  </si>
-  <si>
-    <t>730bc7c0-5fa4-4a0b-8c3b-4dae8c7b567b</t>
-  </si>
-  <si>
-    <t>f2573c3d-2ec5-4b46-9ce7-199c61188ae6</t>
+    <t>39e3d96e-e397-42cf-8197-9ab3088f06e2</t>
+  </si>
+  <si>
+    <t>fb8e69b3-1641-4814-835e-6c8ae209b2fa</t>
+  </si>
+  <si>
+    <t>d00049aa-13d9-44ed-8ff9-c6ed03e76f08</t>
+  </si>
+  <si>
+    <t>b9d80d89-41c6-40db-87f2-422a2261295f</t>
+  </si>
+  <si>
+    <t>3593da9b-cb7b-490d-b51b-9839cba729e9</t>
+  </si>
+  <si>
+    <t>9fb2c0fb-1cfb-4a14-83df-fecf625ff99d</t>
+  </si>
+  <si>
+    <t>ad2b292a-2609-461b-b3cb-8260363c7283</t>
+  </si>
+  <si>
+    <t>9835a03b-1870-474c-9b8a-0cd414a112d8</t>
+  </si>
+  <si>
+    <t>62f9a9ac-fe7d-4567-9065-817cf9386d02</t>
+  </si>
+  <si>
+    <t>6b4b8ec1-fe18-4155-8dd2-accd8d7760de</t>
+  </si>
+  <si>
+    <t>8d313083-7c1a-4313-9090-e96de515474b</t>
+  </si>
+  <si>
+    <t>a46cc82e-a06d-4180-acd7-3540f1566d7a</t>
+  </si>
+  <si>
+    <t>ae3a9df7-a317-45e3-874f-7e38b5aa443a</t>
+  </si>
+  <si>
+    <t>e47b2b79-2744-47f6-b135-97ff65e0587e</t>
+  </si>
+  <si>
+    <t>05eee909-d66e-409d-a4fb-94438deb863e</t>
+  </si>
+  <si>
+    <t>2bab5b43-fa68-4d7b-9423-ca858fa777df</t>
+  </si>
+  <si>
+    <t>46ffb8e2-b3a0-45a1-adf3-7a895b348c94</t>
+  </si>
+  <si>
+    <t>0dad54e5-4465-47d1-aef3-b5e7af7df686</t>
+  </si>
+  <si>
+    <t>0e4c8b07-877e-423f-aa3f-d068085a7e1d</t>
+  </si>
+  <si>
+    <t>cae582bc-11fc-4f8c-b3e7-086775418454</t>
+  </si>
+  <si>
+    <t>e212d33a-77a7-4a76-8cfe-e806c30cc545</t>
+  </si>
+  <si>
+    <t>f2755be5-3ed1-4ff2-8b9d-d41d11f8af81</t>
+  </si>
+  <si>
+    <t>c7059314-725a-4903-8ae9-01d367fca374</t>
+  </si>
+  <si>
+    <t>99ae1a11-0864-48b4-b942-68a38bb65677</t>
+  </si>
+  <si>
+    <t>61cacdbb-19ae-4369-8cce-a505ddec6d41</t>
+  </si>
+  <si>
+    <t>4a5b2908-c441-4413-87b4-a66d8a0b6a3b</t>
+  </si>
+  <si>
+    <t>6767f088-3e86-4b37-bfbb-347d1d42ec4f</t>
   </si>
   <si>
     <t>Value false in VISIT_OPWDD_FLAG not in allowed list ('TRUE','FALSE')</t>
@@ -921,82 +921,82 @@
     <t>Use only allowed values 'TRUE','FALSE' in VISIT_OPWDD_FLAG</t>
   </si>
   <si>
-    <t>d2355aa9-cf0b-4fde-b0df-97af21155cb0</t>
-  </si>
-  <si>
-    <t>b347fe79-9b88-46f6-92fb-6644ad97a51d</t>
-  </si>
-  <si>
-    <t>69f1f4f9-8553-4e52-9173-5b76e7668bce</t>
-  </si>
-  <si>
-    <t>b689524c-e75d-48e4-88b1-47b630057002</t>
-  </si>
-  <si>
-    <t>5a0132c5-4b35-42c7-847c-93f34b95cb2a</t>
-  </si>
-  <si>
-    <t>1d4c2b34-ade8-4f40-86b9-2844f125f414</t>
-  </si>
-  <si>
-    <t>39ebcc4c-ae9a-4475-a245-e22cb83b7db0</t>
-  </si>
-  <si>
-    <t>6e571c6a-c0b8-469d-b9a1-a4c7b9b77b15</t>
-  </si>
-  <si>
-    <t>fe579fb7-bd95-451e-8cc9-7152230d58a8</t>
-  </si>
-  <si>
-    <t>c87b4518-d486-4fb7-8848-03841f2b3828</t>
-  </si>
-  <si>
-    <t>502348cc-e376-4985-b5e2-05b88df2bee8</t>
-  </si>
-  <si>
-    <t>bf8d626f-1b63-4843-ac51-53260251eb9c</t>
-  </si>
-  <si>
-    <t>1a0600eb-7707-4a01-abc2-19da4cc28fee</t>
-  </si>
-  <si>
-    <t>4156525f-f30a-4cee-9062-b34eb0864d05</t>
-  </si>
-  <si>
-    <t>af54cdca-2523-4c2c-ba1a-ae02417f3201</t>
-  </si>
-  <si>
-    <t>987e70c3-0748-4571-a902-fb95c57ad529</t>
-  </si>
-  <si>
-    <t>21cece03-9500-4f17-bd04-a2223b859670</t>
-  </si>
-  <si>
-    <t>e50a787c-478a-40fd-a658-939e10a06de9</t>
-  </si>
-  <si>
-    <t>93f64d9e-46e0-4c3b-a848-6f0f6ee528b9</t>
-  </si>
-  <si>
-    <t>1e46463d-9424-45b0-bfd8-9f694c471953</t>
-  </si>
-  <si>
-    <t>252371eb-ee6b-4474-8f52-7ce9fe887e79</t>
-  </si>
-  <si>
-    <t>09ee9749-ce36-422d-a2a6-056ebcbe587a</t>
-  </si>
-  <si>
-    <t>f3601d28-f4b7-4072-9019-55a40ae36fa2</t>
-  </si>
-  <si>
-    <t>75ea2350-ee7b-4094-b9ba-170bfed78fb0</t>
-  </si>
-  <si>
-    <t>7b0653ef-0a8a-439e-a3c2-32fc8a98ff5e</t>
-  </si>
-  <si>
-    <t>a67dde2e-daa3-445f-acc9-4d23f27a3e30</t>
+    <t>2aac6e1a-55c9-43fb-a545-be7ba5fdffe0</t>
+  </si>
+  <si>
+    <t>b2268d0a-8e5c-415f-ba19-0cd629d6b659</t>
+  </si>
+  <si>
+    <t>09c460ee-a072-49f2-8909-9e1c430043de</t>
+  </si>
+  <si>
+    <t>62862959-e9d6-44ce-be0c-42662c6a5597</t>
+  </si>
+  <si>
+    <t>f3649465-2355-42fb-98c2-e9a7d88eacef</t>
+  </si>
+  <si>
+    <t>7617a61c-1247-4113-9298-8ecf38179d79</t>
+  </si>
+  <si>
+    <t>fa124174-f3c9-4c9c-b6b7-d4a9f64ac9ca</t>
+  </si>
+  <si>
+    <t>c7cd7b08-ad92-445b-aba9-bd89fbe38622</t>
+  </si>
+  <si>
+    <t>672190af-fa2c-4a6c-b0c9-218850ed5fb5</t>
+  </si>
+  <si>
+    <t>80613ece-8141-4f31-88b0-6e167a50cd5c</t>
+  </si>
+  <si>
+    <t>da1216a2-df2f-4ee8-a42f-947026d94cd7</t>
+  </si>
+  <si>
+    <t>6badad3f-ffcb-4726-9e71-bddccbf68c65</t>
+  </si>
+  <si>
+    <t>c9e0a7cc-5786-465a-a7d9-be18531c6bee</t>
+  </si>
+  <si>
+    <t>8b4a0ac4-07aa-4418-8b7f-60cfac25b356</t>
+  </si>
+  <si>
+    <t>3b763901-4f41-4f06-beab-5c89713a62d1</t>
+  </si>
+  <si>
+    <t>3b146bc1-ce40-45cb-a5cf-c55347b7268b</t>
+  </si>
+  <si>
+    <t>4992ebf3-0490-477b-b778-4a171fca9da0</t>
+  </si>
+  <si>
+    <t>ca0f973a-034f-4491-b626-791a8f4f9616</t>
+  </si>
+  <si>
+    <t>3ff03cb6-1fdf-470b-ba14-6fa71a65a48a</t>
+  </si>
+  <si>
+    <t>c9ded99e-b08b-4a18-a52f-b8b4348731e3</t>
+  </si>
+  <si>
+    <t>d67e19d3-80c3-441e-bf6f-fc363c98072c</t>
+  </si>
+  <si>
+    <t>d0dced2b-f1cd-4990-8e87-dc91d6c28add</t>
+  </si>
+  <si>
+    <t>0bde1737-9115-42d5-8c34-8f5ffc0fefb0</t>
+  </si>
+  <si>
+    <t>bdceb579-2ec7-4374-ad80-9844a8451a7e</t>
+  </si>
+  <si>
+    <t>cc41a941-018f-4931-9215-e5f0ed18270a</t>
+  </si>
+  <si>
+    <t>d5cc9da3-3fb6-4a07-b2d3-bdade7cd7f55</t>
   </si>
   <si>
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
@@ -1005,7 +1005,7 @@
     <t>ahc_hrsn_2023_12_25_valid_admin_demographic</t>
   </si>
   <si>
-    <t>9468d4bd-a6e4-463b-b373-2762f829789e</t>
+    <t>7b6ea772-075e-4e78-8bc7-81aa18bb1b9e</t>
   </si>
   <si>
     <t>Pattern Mismatch</t>
@@ -1023,7 +1023,7 @@
     <t>Follow the pattern ^[A-Za-z]+$ in FIRST_NAME</t>
   </si>
   <si>
-    <t>31a41940-c446-4d4f-bb0f-17faffa1b039</t>
+    <t>d289c162-88c7-4ab4-8163-482b4fd5cfdc</t>
   </si>
   <si>
     <t>Value Patient Matching  in MIDDLE_NAME does not match the pattern ^[A-Za-z]+$</t>
@@ -1035,7 +1035,7 @@
     <t>Follow the pattern ^[A-Za-z]+$ in MIDDLE_NAME</t>
   </si>
   <si>
-    <t>ccecfba9-a510-49dc-ab66-0c90611c7b7d</t>
+    <t>fcb93c5f-43fe-4ce0-af51-b46ca63cc78e</t>
   </si>
   <si>
     <t>Value Patient Matching  in LAST_NAME does not match the pattern ^[A-Za-z]+$</t>
@@ -1053,7 +1053,7 @@
     <t>ahc_hrsn_2023_12_25_valid_screening</t>
   </si>
   <si>
-    <t>0787946b-b290-4eae-a7bf-112411043a52</t>
+    <t>9e414cb5-89d0-401b-9cb2-15af4cb79f0e</t>
   </si>
   <si>
     <t>Data Type Mismatch</t>
@@ -1071,7 +1071,7 @@
     <t>Convert non-integer values to INTEGER</t>
   </si>
   <si>
-    <t>55bf3ada-8238-4f18-a4eb-7bef9d281c66</t>
+    <t>80450310-4fce-4af2-907d-1876d8ff71fb</t>
   </si>
   <si>
     <t>Non-integer value "Yes" found in PAT_MRN_ID</t>
@@ -1080,7 +1080,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>089a47fd-b15e-4875-ae7a-8458f6813756</t>
+    <t>9289d862-432a-4fec-95fe-24d4309e346a</t>
   </si>
   <si>
     <t>Non-integer value "Facility" found in PAT_MRN_ID</t>
@@ -1089,7 +1089,7 @@
     <t>Facility</t>
   </si>
   <si>
-    <t>ec00b467-27ab-4aae-9aec-6a2edfa33352</t>
+    <t>d80f9215-778d-44aa-a470-f77164780a50</t>
   </si>
   <si>
     <t>Value Screening in SCREENING_METHOD not in allowed list ('In-Person', 'Phone', 'Website')</t>
@@ -1104,7 +1104,7 @@
     <t>Use only allowed values 'In-Person', 'Phone', 'Website' in SCREENING_METHOD</t>
   </si>
   <si>
-    <t>48eee97d-cb4a-4100-b3ce-bd0759b37f68</t>
+    <t>95717368-0f70-4abb-9aa6-fb0f89a0596f</t>
   </si>
   <si>
     <t>Value No in SCREENING_METHOD not in allowed list ('In-Person', 'Phone', 'Website')</t>
@@ -1113,13 +1113,13 @@
     <t>No</t>
   </si>
   <si>
-    <t>5dcf2909-c634-4667-88d9-fbbdd9ea1477</t>
+    <t>b93eb165-eaaa-4275-8d41-743399c60893</t>
   </si>
   <si>
     <t>Value Facility in SCREENING_METHOD not in allowed list ('In-Person', 'Phone', 'Website')</t>
   </si>
   <si>
-    <t>d76b78eb-d832-49f6-a763-91cd9d9d4a70</t>
+    <t>9f26fe4b-6ae5-43a2-baad-2bd092dc0fb9</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -1134,19 +1134,19 @@
     <t>Please be sure to provide both a valid date and time.</t>
   </si>
   <si>
-    <t>c1f19154-04bd-43a0-b27b-5bf4c624fb43</t>
+    <t>70a264c8-16bf-4fb0-98e6-c2c7a026766c</t>
   </si>
   <si>
     <t>Invalid timestamp "Yes" found in RECORDED_TIME</t>
   </si>
   <si>
-    <t>2be0b2b1-d08e-4043-b4e6-f1c1599a4e4d</t>
+    <t>e223054c-d42b-41e5-b1f4-761813ec71c1</t>
   </si>
   <si>
     <t>Invalid timestamp "Facility" found in RECORDED_TIME</t>
   </si>
   <si>
-    <t>843c79e7-8251-47ca-8dd5-0923ae05b0f0</t>
+    <t>a9590e1f-8bd0-448d-8037-6ed42458e6dc</t>
   </si>
   <si>
     <t>Value Screening in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
@@ -1155,13 +1155,13 @@
     <t>Use only allowed values '71802-3', '96778-6' in QUESTION_CODE</t>
   </si>
   <si>
-    <t>d2861e19-3e95-4fc9-87a3-cb5e936fb899</t>
+    <t>dbe96a4b-4612-4dd6-9df7-8ebf948382d2</t>
   </si>
   <si>
     <t>Value Yes in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>a7a2bc69-7bac-4457-91ed-c54283cc5f22</t>
+    <t>93e855ad-4af2-42b0-82ab-ffbaee40fe4b</t>
   </si>
   <si>
     <t>Value Facility/QE in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
@@ -1170,61 +1170,61 @@
     <t>Facility/QE</t>
   </si>
   <si>
-    <t>59929260-efdd-4254-b787-dff0a0096d5a</t>
+    <t>486e687b-ab65-466f-acbd-795bf967b33c</t>
   </si>
   <si>
     <t>Value 96778-6	 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>15a63c61-c12f-4df0-986a-380dfb0bb96e</t>
+    <t>2afd2868-fceb-4d75-8328-463250ed3976</t>
   </si>
   <si>
     <t>Value 88122-7 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>15ed3f8b-6150-424e-bcfd-693cd0c0fb71</t>
+    <t>ee82235e-0713-4fe7-b8cb-8f1fca6f6b46</t>
   </si>
   <si>
     <t>Value 88123-5 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>13f93424-eb06-4af7-8dc8-c165d2c36d9b</t>
+    <t>b5754f66-da15-47b9-a321-aff10a85d3f3</t>
   </si>
   <si>
     <t>Value 93030-5 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>1f08feca-977f-4786-a34a-8290b41da028</t>
+    <t>e3cc255c-fb5b-46fd-bfca-811092888bf4</t>
   </si>
   <si>
     <t>Value 96779-4 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>dcfbd318-e110-41cf-aacb-ac82ed2e42a9</t>
+    <t>9a47ec91-b693-4507-a125-03fe873f243b</t>
   </si>
   <si>
     <t>Value 95618-5 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>27e0930f-1cbc-41d9-886e-d32fc7a5907c</t>
+    <t>9df6c211-2e81-4acb-a7af-fa173006a569</t>
   </si>
   <si>
     <t>Value 95617-7 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>2285e352-c651-4b1c-ad2e-33a5bf9f5c1f</t>
+    <t>61963aa7-c82f-438a-8376-b9d53568d472</t>
   </si>
   <si>
     <t>Value 95616-9 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>34436dcb-25f0-45a3-bd55-6695074cb6a1</t>
+    <t>be980d3f-1776-44a6-8103-bf2c66629d8f</t>
   </si>
   <si>
     <t>Value 95615-1 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>41f2c79e-2cae-474d-bc22-4e4bc30079f3</t>
+    <t>3c380d90-2b54-40ee-b4e6-9803176e51ac</t>
   </si>
   <si>
     <t>Value 95614-4 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
@@ -1233,190 +1233,190 @@
     <t>95614-4</t>
   </si>
   <si>
-    <t>4453742d-5c2f-49ef-91cf-a9ae6649fdfa</t>
+    <t>269b710a-3c2a-4f7e-8948-7521e5df8cfb</t>
   </si>
   <si>
     <t>Value 76513-1 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>7afa44bc-89dc-4db6-b8bb-7ff91b242af1</t>
+    <t>bdd5b648-2699-4bbf-adc3-275c94939770</t>
   </si>
   <si>
     <t>Value 96780-2 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>9d2b7104-7fcf-4468-ab29-1fb866a02423</t>
+    <t>935ff2be-de81-4f8d-a0d3-8bd1804b0bde</t>
   </si>
   <si>
     <t>Value 96781-0 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>8e91ef71-cd8a-4d85-a46a-b776a15c577a</t>
+    <t>003b0905-63a6-4889-9526-e3f73f808629</t>
   </si>
   <si>
     <t>Value 93159-2	 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>01142220-1cc6-47fb-8844-c8e82b518242</t>
+    <t>a6c59902-9315-4dea-a61c-f654d9778546</t>
   </si>
   <si>
     <t>Value 97027-7 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>d5bb0aa5-2697-4947-9b96-4c1d6371c76e</t>
+    <t>e78b5157-aebe-49d3-bf56-40aa497163c7</t>
   </si>
   <si>
     <t>Value 96782-8	 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>b6f535b3-b4d6-446a-b0f2-e9b7a19c98e8</t>
+    <t>799974d9-86f0-44e8-a69a-172f23ad2f64</t>
   </si>
   <si>
     <t>Value 89555-7 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>2b78030a-6c26-473d-8f3c-5adff2bb6914</t>
+    <t>fd0bae23-326e-4c11-b4d4-56b68dc969a7</t>
   </si>
   <si>
     <t>Value 68516-4	 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>08dba4f9-d56b-469a-8628-26821207d2aa</t>
+    <t>6f338164-fd41-4f05-a7a0-f7369d31a1af</t>
   </si>
   <si>
     <t>Value 68517-2 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>b104235f-d01b-45aa-8273-6fe2f3ccf6b0</t>
+    <t>c58bb00d-040e-4ab3-8ebc-84cf7ef62477</t>
   </si>
   <si>
     <t>Value 96842-0 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>af6907e8-a664-4d7d-b483-2bb4b2f9c814</t>
+    <t>3fad102d-9fc8-48f9-8bfb-ff5189cb54ec</t>
   </si>
   <si>
     <t>Value 95530-2 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>6f6ee060-7f26-4b56-ab9d-bc46c900b037</t>
+    <t>567a74ae-5d17-4f8c-8feb-c650241bee7b</t>
   </si>
   <si>
     <t>Value 68524-8 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>3fcf7bc3-9257-4701-b901-f04ad089bbf7</t>
+    <t>fb1e7730-8c22-4e47-b441-df9fea431d60</t>
   </si>
   <si>
     <t>Value 44250-9 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>2dea9444-6bf9-4536-b595-87137539a436</t>
+    <t>b6b6b4b9-956d-4094-850e-fecf8a6b8614</t>
   </si>
   <si>
     <t>Value 44255-8 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>0340dd98-194d-4744-85b9-d619299efe19</t>
+    <t>02135fa6-cd59-4d68-bcb6-3d3d381da1e2</t>
   </si>
   <si>
     <t>Value 93038-8 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>06ecbb4c-06e0-4093-a68e-a02b3b222cd1</t>
+    <t>9d411f92-0ac7-454f-a6f0-cd1073de8b0e</t>
   </si>
   <si>
     <t>Value 69858-9 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>7d30e380-1a89-4852-b5b2-1bbbf509f6f8</t>
+    <t>0584381c-135c-48a1-8b89-78f23aa45795</t>
   </si>
   <si>
     <t>Value 69861-3	 in QUESTION_CODE not in allowed list ('71802-3', '96778-6')</t>
   </si>
   <si>
-    <t>38974086-003c-4a9f-a588-598e2720250a</t>
-  </si>
-  <si>
-    <t>d3977c66-6650-45e8-8445-dc5077f8d66c</t>
-  </si>
-  <si>
-    <t>3f717cc9-5f90-48e6-9214-6a0dbd625496</t>
-  </si>
-  <si>
-    <t>ca5192b3-ba90-4587-ae4e-1476934e4e7f</t>
-  </si>
-  <si>
-    <t>067708b7-5c28-48d4-a175-431fbc0114b5</t>
-  </si>
-  <si>
-    <t>03d8759f-7d96-4199-a836-dff1fc3fa078</t>
-  </si>
-  <si>
-    <t>f2a4ab72-905e-46be-9404-23c6412262a4</t>
-  </si>
-  <si>
-    <t>7135fa6e-691a-49d6-aa7f-fe49ea4bc4a3</t>
-  </si>
-  <si>
-    <t>00efcf47-e6c6-43af-bac1-748dd1f1848c</t>
-  </si>
-  <si>
-    <t>3d5d6f6b-5800-47f5-8dff-5d80573e2005</t>
-  </si>
-  <si>
-    <t>f2eb2899-130d-4623-917e-514b4d057840</t>
-  </si>
-  <si>
-    <t>f90d6fd4-5933-4bbb-a789-d6c346bda0f5</t>
-  </si>
-  <si>
-    <t>6303b2d6-4462-42de-b88a-911cdfcf59a4</t>
-  </si>
-  <si>
-    <t>f637cba2-ddd6-49d5-b14b-5cc56e0857ea</t>
-  </si>
-  <si>
-    <t>72ef73c1-0e0d-4bca-8cbd-d934d33b9167</t>
-  </si>
-  <si>
-    <t>ddbbfa3e-fe17-4dc4-9dff-197e61faeb13</t>
-  </si>
-  <si>
-    <t>3318ffc1-bb4c-4c8e-ac13-b668c68f45f6</t>
-  </si>
-  <si>
-    <t>89b92e17-8a79-4e75-a95c-f17ac0634af5</t>
-  </si>
-  <si>
-    <t>aa47561d-77c0-43d4-84d7-12c86ee9833d</t>
-  </si>
-  <si>
-    <t>8b3a2e22-98a8-4a43-8992-7ab2f245983b</t>
-  </si>
-  <si>
-    <t>9d3c8bc5-2938-4bf7-8d60-07c8c17a1992</t>
-  </si>
-  <si>
-    <t>76386d24-6b85-48d5-b1ae-babbc9256a67</t>
-  </si>
-  <si>
-    <t>98e0b775-fff0-4cf2-a19b-3747adfb81fc</t>
-  </si>
-  <si>
-    <t>189c855b-f0a1-4e45-8f34-899e9fd3202c</t>
-  </si>
-  <si>
-    <t>0d1d3512-bc67-4749-9125-e3220fdfbdde</t>
-  </si>
-  <si>
-    <t>1a3e5e02-d417-45f2-a0d7-cb9489bca1a8</t>
-  </si>
-  <si>
-    <t>4066648a-75c4-4dce-bd93-31f9bd95c989</t>
-  </si>
-  <si>
-    <t>0c7c3860-57ed-4f01-8c35-3a1ec46c2419</t>
+    <t>26527bc0-ea4d-4e61-99a3-39a7d12ec03d</t>
+  </si>
+  <si>
+    <t>e29714d0-9ca0-40b4-a609-9bf5537e37e8</t>
+  </si>
+  <si>
+    <t>6d92b61f-0911-434d-8c8a-2f3e4f4ca623</t>
+  </si>
+  <si>
+    <t>a744a2f7-4cc5-45c0-b96a-0838f5a95009</t>
+  </si>
+  <si>
+    <t>b6c801d7-475d-4ba9-8c95-552414529739</t>
+  </si>
+  <si>
+    <t>76caaaf6-4aeb-4ecc-8f7d-dd899d0ec400</t>
+  </si>
+  <si>
+    <t>f309aeaa-b5b0-42a6-8e84-5257331ccad6</t>
+  </si>
+  <si>
+    <t>09829048-c39b-4512-87f8-06b5493ce96c</t>
+  </si>
+  <si>
+    <t>b1c389d7-4e7f-4bfb-a5ae-190be865e111</t>
+  </si>
+  <si>
+    <t>61817c5e-dc31-49df-b338-8623b779807a</t>
+  </si>
+  <si>
+    <t>d9b4affe-dfe7-455c-ae84-17701165bf8e</t>
+  </si>
+  <si>
+    <t>f477e1c9-3ecc-4b91-b7d9-84ea741aa48e</t>
+  </si>
+  <si>
+    <t>3cc0f3ad-7d69-4a5d-bdef-940a835759fc</t>
+  </si>
+  <si>
+    <t>994ae494-7ef0-4147-b1a2-7ea6bb584b52</t>
+  </si>
+  <si>
+    <t>241bc2cd-6cc0-4a10-8097-6e86936d8f7c</t>
+  </si>
+  <si>
+    <t>639efdd8-a959-425b-bcec-af6dd743d7d7</t>
+  </si>
+  <si>
+    <t>beb346f6-c7b0-4b92-86aa-1c8db99636c3</t>
+  </si>
+  <si>
+    <t>699e8072-84a6-4892-98b7-5749f0038cce</t>
+  </si>
+  <si>
+    <t>45f6f853-c020-4827-8f92-6f1517623085</t>
+  </si>
+  <si>
+    <t>41bfb1fe-3245-47f4-9e90-7f7ee1d8c53f</t>
+  </si>
+  <si>
+    <t>16c80db3-91de-4372-9f1a-e90a3a6dcc66</t>
+  </si>
+  <si>
+    <t>4133b511-4e28-4080-9aa7-da767d5d1486</t>
+  </si>
+  <si>
+    <t>a3e41537-9533-473a-af72-1b800cee28cd</t>
+  </si>
+  <si>
+    <t>98644b15-7445-4d77-844e-06a9a3ec4d53</t>
+  </si>
+  <si>
+    <t>4051d474-e3aa-4749-ba0b-ed50cce9b2c9</t>
+  </si>
+  <si>
+    <t>a4cc7951-f97b-4dd1-9180-b3fc92fa8e50</t>
+  </si>
+  <si>
+    <t>be05b189-6097-46f6-87a2-123e4444bf0a</t>
+  </si>
+  <si>
+    <t>7a3deb48-1484-475c-8455-75d72f0324b6</t>
   </si>
   <si>
     <t>Value Screening in QUESTION_CODE_SYSTEM_NAME not in allowed list ('LN','LOIN')</t>
@@ -1428,19 +1428,19 @@
     <t>Use only allowed values 'LN','LOIN' in QUESTION_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>88e84388-2375-43fd-8065-7cf49bb6cef5</t>
+    <t>0275e681-7d5b-4514-88b8-88e09d9bc82c</t>
   </si>
   <si>
     <t>Value Yes in QUESTION_CODE_SYSTEM_NAME not in allowed list ('LN','LOIN')</t>
   </si>
   <si>
-    <t>798c3b45-c9c0-4720-bff1-85c8a91b4840</t>
+    <t>a3c1003b-eedf-42f8-b5bc-f5dddae2c34a</t>
   </si>
   <si>
     <t>Value Facility/QE in QUESTION_CODE_SYSTEM_NAME not in allowed list ('LN','LOIN')</t>
   </si>
   <si>
-    <t>41f1eb79-8125-490d-a205-4068b5968414</t>
+    <t>d34cd608-74e7-4592-9090-aa35695c4f80</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -1455,10 +1455,10 @@
     <t>Provide a value for ANSWER_CODE</t>
   </si>
   <si>
-    <t>27842d2c-88e5-4f54-99b4-f93cadb4cfaf</t>
-  </si>
-  <si>
-    <t>7b96e2fe-7770-45de-a7f7-7d15e8cd50aa</t>
+    <t>e1ac50f9-a3ea-4062-b4d0-26226655bc9f</t>
+  </si>
+  <si>
+    <t>94df092a-d6f0-4049-ba53-294cbde3d4b5</t>
   </si>
   <si>
     <t>Mandatory field ANSWER_CODE_SYSTEM_NAME is empty</t>
@@ -1470,10 +1470,10 @@
     <t>Provide a value for ANSWER_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>cc6262ec-5f48-421e-a7c0-e60bc2250f55</t>
-  </si>
-  <si>
-    <t>1626d0f7-b2a1-4581-8d43-8e62b6ca3f57</t>
+    <t>dd8a3d35-8116-4d65-84ab-fd3f452923e6</t>
+  </si>
+  <si>
+    <t>929bec7b-2738-41a6-b27d-ea5e66c4fdf9</t>
   </si>
   <si>
     <t>Value Screening in ANSWER_CODE_SYSTEM_NAME not in allowed list ('LN','LOIN')</t>
@@ -1482,19 +1482,19 @@
     <t>Use only allowed values 'LN','LOIN' in ANSWER_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>3be429de-9f40-47a1-a6cd-e8c990276af2</t>
+    <t>ff05ffa2-842d-482c-982c-c68171029d85</t>
   </si>
   <si>
     <t>Value Yes in ANSWER_CODE_SYSTEM_NAME not in allowed list ('LN','LOIN')</t>
   </si>
   <si>
-    <t>22992dbd-aeff-47bc-be10-803b4d6a097a</t>
+    <t>e8d7b4e9-bfe0-4f65-9f23-a9ceb36dc099</t>
   </si>
   <si>
     <t>Value Facility/QE in ANSWER_CODE_SYSTEM_NAME not in allowed list ('LN','LOIN')</t>
   </si>
   <si>
-    <t>35533f91-1a3d-4971-9bb9-b2f87bd7815f</t>
+    <t>aa5b1603-1ec6-49b1-bf32-f205cb3bda9b</t>
   </si>
   <si>
     <t>Mandatory field PARENT_QUESTION_CODE is empty</t>
@@ -1506,10 +1506,10 @@
     <t>Provide a value for PARENT_QUESTION_CODE</t>
   </si>
   <si>
-    <t>bb26c0fd-f139-487e-8405-6d7bca18df94</t>
-  </si>
-  <si>
-    <t>c8387961-4014-438c-9671-1afb771de60f</t>
+    <t>af92d2a3-5a3a-44b2-911a-653a7469b51c</t>
+  </si>
+  <si>
+    <t>d80b476c-ab30-4138-9428-7b16db04c251</t>
   </si>
   <si>
     <t>Value Screening in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
@@ -1518,19 +1518,19 @@
     <t>Use only allowed values '88122-7','88123-5' in PARENT_QUESTION_CODE</t>
   </si>
   <si>
-    <t>c3dbb954-40cb-4c3c-8a41-c1476f4c5ace</t>
+    <t>fc0a05b4-250b-4290-961d-ea66e3294773</t>
   </si>
   <si>
     <t>Value No in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>98a25f99-427c-4b05-b189-061c346d97a0</t>
+    <t>3f690bb4-3ba8-4274-9736-d277a446565a</t>
   </si>
   <si>
     <t>Value Facility/QE in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>7f749451-1759-4cff-b9d1-7a443d10e4d1</t>
+    <t>f6220339-fa4a-4461-8a72-f985fe2f2a7d</t>
   </si>
   <si>
     <t>Value 71802-3 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
@@ -1539,226 +1539,226 @@
     <t>71802-3</t>
   </si>
   <si>
-    <t>780e22d5-37c7-4118-8dc8-95affad6d30b</t>
+    <t>b15639f9-42bd-48ab-b45a-db89ae15f694</t>
   </si>
   <si>
     <t>Value 96778-6	 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>660d94ef-eff2-47c5-906f-a73e71665bbb</t>
+    <t>cc569f34-9171-4edc-804c-5e61fc91b587</t>
   </si>
   <si>
     <t>Value 93030-5 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>969ec130-f7ec-40c1-9d00-dfd1773e32be</t>
+    <t>e903ec20-cd4c-40fb-abab-029ebc8df7ac</t>
   </si>
   <si>
     <t>Value 96779-4 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>318a2853-1a14-4362-beec-a9f7fc024d06</t>
+    <t>39d8d0de-642e-4e04-a7ab-1aed5b5dd15e</t>
   </si>
   <si>
     <t>Value 95618-5 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>ea6b21ff-2f94-4104-922d-c02e1b21c8c5</t>
+    <t>e83a93d2-262b-4895-a0d0-8123884cba39</t>
   </si>
   <si>
     <t>Value 95617-7 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>72cd8006-8cef-4849-a7c2-d9945dbbed30</t>
+    <t>206d69fe-d9f3-4c10-95c1-84dddd347f9c</t>
   </si>
   <si>
     <t>Value 95616-9 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>99809c24-92b5-488d-9648-34d224b553c2</t>
+    <t>a9fbffd5-ea28-43f9-9fdd-7768a86c9b58</t>
   </si>
   <si>
     <t>Value 95615-1 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>bd599d26-2bc9-47d6-a8dc-ae19a6800f73</t>
+    <t>4c839d9f-1aac-4a65-9305-ce1d3c246747</t>
   </si>
   <si>
     <t>Value 76513-1 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>0f617441-1c78-4224-9192-09e03a4b6271</t>
+    <t>efb1a0d8-1bed-40ee-b51d-047996ba8eb3</t>
   </si>
   <si>
     <t>Value 96780-2 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>a2616ff5-acee-4212-8108-821407c8942a</t>
+    <t>37230072-0756-48b9-a339-ffec29646a69</t>
   </si>
   <si>
     <t>Value 96781-0 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>6bfaa509-21a0-4733-928d-b203dbaaca24</t>
+    <t>2b9f3efe-ba01-4021-8fe3-6cc81b080800</t>
   </si>
   <si>
     <t>Value 93159-2	 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>5fb5ae66-7525-4ffa-90a4-57e0c323d737</t>
+    <t>871f4486-f562-4bc8-932a-929e8dc0f3d4</t>
   </si>
   <si>
     <t>Value 97027-7 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>38e29654-2611-4932-8c1d-ee3639238ba0</t>
+    <t>d39eca02-2d38-43c0-9e9c-21b1a79029f6</t>
   </si>
   <si>
     <t>Value 96782-8	 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>b7c6017a-e853-4140-a87c-562fd0c45c9d</t>
+    <t>24d04094-3a7b-4e96-a231-294d28b539d1</t>
   </si>
   <si>
     <t>Value 89555-7 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>f1afac95-7d4f-4c83-bbc3-9ff3c731bdc8</t>
+    <t>5c427365-724a-45b4-b0b1-322152cdda13</t>
   </si>
   <si>
     <t>Value 68516-4	 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>c65f1f19-3d7c-4a6b-99ab-a7c0f111120d</t>
+    <t>3b838dd5-9042-456b-8c98-295c297c2a59</t>
   </si>
   <si>
     <t>Value 68517-2 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>e23c33e4-54bc-4283-b8b9-c6b63f5bcb2c</t>
+    <t>fc6dce9f-a52c-4ed6-94a9-cf2d3deda2ff</t>
   </si>
   <si>
     <t>Value 96842-0 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>0a7f3000-b7be-4c5b-b687-95dc409bd765</t>
+    <t>5e9d41f2-8333-4a6d-bc93-c457bed32f1a</t>
   </si>
   <si>
     <t>Value 95530-2 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>dcc94009-8bbf-46cd-9f1b-c30c884c893f</t>
+    <t>aa072d38-7e7f-4e71-a6f5-d1f3eeeb374d</t>
   </si>
   <si>
     <t>Value 68524-8 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>5654ad50-b284-448d-9c19-14048d775580</t>
+    <t>1ab02f42-e864-42d6-879a-d1f1f93f1c91</t>
   </si>
   <si>
     <t>Value 44250-9 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>b99061af-3dbb-4760-82d0-e01597c075b5</t>
+    <t>8a5426ab-b0df-4c3c-9ca7-306ed959343e</t>
   </si>
   <si>
     <t>Value 44255-8 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>b9f47b72-b1d6-43c5-9c00-15b0ef6ba93c</t>
+    <t>30cda042-fd1f-4fef-8b55-45362f924d10</t>
   </si>
   <si>
     <t>Value 93038-8 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>cf12733a-ed00-40b9-ab33-60c97b6bfbbb</t>
+    <t>c8340905-2e8e-4fb6-8c8d-71d06b26d082</t>
   </si>
   <si>
     <t>Value 69858-9 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>6540323b-69e3-4153-80d4-753136c90075</t>
+    <t>e452d24e-a2db-46fd-ab69-bd584aa4429e</t>
   </si>
   <si>
     <t>Value 69861-3	 in PARENT_QUESTION_CODE not in allowed list ('88122-7','88123-5')</t>
   </si>
   <si>
-    <t>a744c497-a788-41fa-9d31-6cf3194bc427</t>
-  </si>
-  <si>
-    <t>d61811c1-4f38-4189-b4a0-2ce50d29e790</t>
-  </si>
-  <si>
-    <t>7220137c-4fd9-4387-8865-8c15a99c8470</t>
-  </si>
-  <si>
-    <t>f9fb8daa-290c-4035-ac6e-7c675ec49ae1</t>
-  </si>
-  <si>
-    <t>1729eaf8-1c30-4b49-8c9f-4b10c8b6e505</t>
-  </si>
-  <si>
-    <t>690f1eec-c4c9-48f3-a942-efa7b851918b</t>
-  </si>
-  <si>
-    <t>dd680062-9271-4ab4-82e2-30102fa39377</t>
-  </si>
-  <si>
-    <t>e4f37e83-8fcb-4741-a592-e81fe3dc5a73</t>
-  </si>
-  <si>
-    <t>0284fb57-be05-4e78-92d4-6e3ccf2b87bd</t>
-  </si>
-  <si>
-    <t>a1046dd4-64df-4b40-b901-83402c75ddb0</t>
-  </si>
-  <si>
-    <t>a16cf83e-ad1d-488e-8d63-76d5aa5cc425</t>
-  </si>
-  <si>
-    <t>fbc1d3dc-0271-4118-be18-42d75850c95b</t>
-  </si>
-  <si>
-    <t>a82fd1ac-d07d-4ef7-85fe-27fc9ceba83d</t>
-  </si>
-  <si>
-    <t>602b6680-dadb-4042-9f9c-5b06e07bb835</t>
-  </si>
-  <si>
-    <t>2f1c687e-06d3-4d5f-af4d-d94d3559fb7e</t>
-  </si>
-  <si>
-    <t>6070a1c5-16a4-446d-bde8-3831f5936ef2</t>
-  </si>
-  <si>
-    <t>36502c90-642d-4094-9c8c-c9d5face7eb0</t>
-  </si>
-  <si>
-    <t>e5f563d5-a444-41d6-a3b5-c796ed9ecd47</t>
-  </si>
-  <si>
-    <t>8c7661a0-7640-4898-b815-f064d6e09bc5</t>
-  </si>
-  <si>
-    <t>b141d58e-6cb8-4a11-a096-a94d76b19378</t>
-  </si>
-  <si>
-    <t>9a7b65af-bbdd-480b-a78e-62413b07590e</t>
-  </si>
-  <si>
-    <t>67ab8f69-6f2f-4da8-9a92-24f552149cc8</t>
-  </si>
-  <si>
-    <t>bff20af7-4941-4966-992f-6b53876f546b</t>
-  </si>
-  <si>
-    <t>95c6037c-1187-43c6-b7a2-392661ad04ca</t>
-  </si>
-  <si>
-    <t>8b411dbe-dc7d-4505-bb8c-3dfb6342c885</t>
-  </si>
-  <si>
-    <t>832920fe-443e-477b-8ee9-ad5cb2da9d02</t>
+    <t>332d4ce6-47f1-4b2a-a786-a113f4b20c05</t>
+  </si>
+  <si>
+    <t>f515c1cb-e445-49af-84c8-ae9177f29fce</t>
+  </si>
+  <si>
+    <t>06a0648b-f27d-4f71-8cc8-58dc14892334</t>
+  </si>
+  <si>
+    <t>62f0d5d7-46f3-424b-8c57-731061d9da9f</t>
+  </si>
+  <si>
+    <t>34c822f1-9c72-45c8-95fd-d21acfeec01c</t>
+  </si>
+  <si>
+    <t>e3272ec3-98d9-4264-8980-bd1bcfdd9fcd</t>
+  </si>
+  <si>
+    <t>9655c471-e0f1-4747-814e-dee7768e9eee</t>
+  </si>
+  <si>
+    <t>05553a12-ef69-4b17-a52e-d8c7b2e02a1f</t>
+  </si>
+  <si>
+    <t>a48e6d54-6d74-4b36-bdb1-80e31660624e</t>
+  </si>
+  <si>
+    <t>b5ee5d32-7aad-49ec-ab9e-f6622594a0d7</t>
+  </si>
+  <si>
+    <t>2938c9c7-7d8a-4861-ba7e-451b1097dc84</t>
+  </si>
+  <si>
+    <t>a5274b07-6941-494b-b5dc-d3ff11de1fb3</t>
+  </si>
+  <si>
+    <t>8036c1c8-0600-4c10-a44d-c53de09da85c</t>
+  </si>
+  <si>
+    <t>dcaa8eb9-7fe3-48b3-9145-5e48e59baaee</t>
+  </si>
+  <si>
+    <t>4c632b19-99a9-4fc4-8f81-47d08ad4387d</t>
+  </si>
+  <si>
+    <t>31eca3a0-d7e5-4592-a405-2c566a63d283</t>
+  </si>
+  <si>
+    <t>f0f03ba7-3950-4646-9d94-0eb70fb57743</t>
+  </si>
+  <si>
+    <t>476c1979-f51d-4055-a546-8c4f8a4afe98</t>
+  </si>
+  <si>
+    <t>1f19653f-b182-4da9-96fb-f2131512c23f</t>
+  </si>
+  <si>
+    <t>fea14bdf-f2cb-4c9d-8754-bef036c97092</t>
+  </si>
+  <si>
+    <t>45a4af2e-90b0-49ff-bb9f-1e0fc8b5c681</t>
+  </si>
+  <si>
+    <t>89cab61b-ed63-4b7a-b8bd-f8ef63c26638</t>
+  </si>
+  <si>
+    <t>354ae5c5-5aa2-4628-98d3-bad14f0de63f</t>
+  </si>
+  <si>
+    <t>8deaa94c-5cd1-4ea3-8d5a-b7d1bfd98793</t>
+  </si>
+  <si>
+    <t>e23f3234-0dfe-4c01-a6b0-360907be281c</t>
+  </si>
+  <si>
+    <t>395328cf-283d-44a1-a234-1458fca6ccb4</t>
   </si>
   <si>
     <t>Mandatory field SDOH_DOMAIN is empty</t>
@@ -1770,7 +1770,7 @@
     <t>Provide a value for SDOH_DOMAIN</t>
   </si>
   <si>
-    <t>2cd2d72b-0217-4b97-be6d-55de97c0972b</t>
+    <t>2240535e-78cf-49ed-ad64-557b2eaf1d8d</t>
   </si>
   <si>
     <t>Mandatory field POTENTIAL_NEED_INDICATED is empty</t>
@@ -1782,13 +1782,13 @@
     <t>Provide a value for POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>eb43c3db-11d9-4553-b1bd-f8c65572b261</t>
-  </si>
-  <si>
-    <t>c1905e12-a7db-4be5-8298-c083608a5cdc</t>
-  </si>
-  <si>
-    <t>55c7f555-10d7-492e-afdf-3c8d70e93585</t>
+    <t>1957cb6e-3382-4ea6-8a9b-6308051fe741</t>
+  </si>
+  <si>
+    <t>b5acc5d0-d75f-4e84-a2e2-9bcbd73f328c</t>
+  </si>
+  <si>
+    <t>d49e92ab-d9a1-4bea-92ca-d59a21c2ad3c</t>
   </si>
   <si>
     <t>Value Screening in POTENTIAL_NEED_INDICATED not in allowed list ('TRUE','FALSE')</t>
@@ -1797,121 +1797,121 @@
     <t>Use only allowed values 'TRUE','FALSE' in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>308c3240-ee8f-4851-92a1-997057487d4e</t>
+    <t>f741253a-4837-4e9e-835e-bc2837cb84ed</t>
   </si>
   <si>
     <t>Value Yes in POTENTIAL_NEED_INDICATED not in allowed list ('TRUE','FALSE')</t>
   </si>
   <si>
-    <t>eef0b629-9eb0-4165-a961-351d3e980fb2</t>
+    <t>7adfe1fb-afee-435f-bc2f-86b8ca2a6d1a</t>
   </si>
   <si>
     <t>Value Facility/QE in POTENTIAL_NEED_INDICATED not in allowed list ('TRUE','FALSE')</t>
   </si>
   <si>
-    <t>de4367de-45a7-4885-b08e-a5fe6f775260</t>
+    <t>de3a92fb-f702-4ff5-8cfd-72cd6b1ec2f6</t>
   </si>
   <si>
     <t>Value No in POTENTIAL_NEED_INDICATED not in allowed list ('TRUE','FALSE')</t>
   </si>
   <si>
-    <t>12f6e5f6-487a-449b-93f2-6835e02355ba</t>
-  </si>
-  <si>
-    <t>de2ad364-cdb0-4aa2-a01e-3307d0e6df5c</t>
-  </si>
-  <si>
-    <t>9eb0e6a5-7d3f-4ab8-af0b-eea83959a739</t>
-  </si>
-  <si>
-    <t>b5c9e2e7-7af7-483b-94be-755704d2bd24</t>
-  </si>
-  <si>
-    <t>35e08085-542c-4e77-ad5d-d013b289eaf8</t>
-  </si>
-  <si>
-    <t>ccb0ebcf-d995-43f2-822b-0eb77a265eb3</t>
-  </si>
-  <si>
-    <t>9e0b7579-7197-492c-aa11-d41c3cac9773</t>
-  </si>
-  <si>
-    <t>c3007cb9-26de-4383-846b-cdedcd824b65</t>
-  </si>
-  <si>
-    <t>1690eb75-f259-4900-9e77-7420bdf629dd</t>
-  </si>
-  <si>
-    <t>ed2a6f98-8f92-4bd0-9658-1be867a0815e</t>
-  </si>
-  <si>
-    <t>c1cd7e6b-3d16-4e5a-8ab9-27bb617e3e9f</t>
-  </si>
-  <si>
-    <t>ce632b30-4f2d-4b75-a7c1-c1be1c6625f7</t>
-  </si>
-  <si>
-    <t>c5b88ce1-1daa-4842-9c86-8514d25878a3</t>
-  </si>
-  <si>
-    <t>16ad7299-16c5-4d69-96c2-c590904109dd</t>
-  </si>
-  <si>
-    <t>d6d935c6-0630-4b37-b145-b6e1f7916d47</t>
-  </si>
-  <si>
-    <t>f320c7fe-0fa8-4df1-a5e4-dff6117c7ee1</t>
-  </si>
-  <si>
-    <t>134e05ef-f97a-451b-8152-2d347f19bf05</t>
-  </si>
-  <si>
-    <t>5fbfb0f5-ae70-44f2-8b41-d417e5b9ce7e</t>
-  </si>
-  <si>
-    <t>4825a7d7-8465-4913-8cfe-9b70fc8f75c4</t>
-  </si>
-  <si>
-    <t>a434561c-896a-45f7-93f9-51c3d44f4158</t>
-  </si>
-  <si>
-    <t>37f3bc1c-eb40-4307-bab9-7f359e304cae</t>
-  </si>
-  <si>
-    <t>cf281daf-31c7-43f5-8d9f-c816829b3c5e</t>
-  </si>
-  <si>
-    <t>6a6bd3d9-fbfa-4e37-97a3-185f7c8e08f6</t>
-  </si>
-  <si>
-    <t>dc4f3b5e-9d98-4d58-bba3-ada37ea06106</t>
-  </si>
-  <si>
-    <t>5061ea72-b890-42c2-8392-7921cdea120a</t>
-  </si>
-  <si>
-    <t>04f45139-902c-4c27-ad79-fcf5a5c6dd69</t>
-  </si>
-  <si>
-    <t>f98264e2-bee4-4b65-8e76-0f26e49f8c1f</t>
-  </si>
-  <si>
-    <t>3cd9de31-5831-4c55-a9e7-9e7546484d13</t>
-  </si>
-  <si>
-    <t>7a904d30-9976-4c2c-8caf-9f7ad94e45e6</t>
-  </si>
-  <si>
-    <t>f631c6cc-cafc-455c-ae54-0d0cb7df4188</t>
-  </si>
-  <si>
-    <t>752878ab-252b-4a9c-8acf-8f6dfb819eb3</t>
-  </si>
-  <si>
-    <t>ab8eae61-8e22-40ee-9e71-9dbb61c4b3ea</t>
-  </si>
-  <si>
-    <t>aadd8b48-381c-414c-910d-82134242f9fe</t>
+    <t>aafd9ca1-2b5b-4a28-b712-d6e9c79f35ff</t>
+  </si>
+  <si>
+    <t>d5652869-b8e6-4c7a-8eb0-5278931d069c</t>
+  </si>
+  <si>
+    <t>3a34cbd8-418d-4ce8-b924-97f502c1272d</t>
+  </si>
+  <si>
+    <t>e100136f-9a6c-4ac5-b887-980c802c7723</t>
+  </si>
+  <si>
+    <t>53df4adf-8bdf-4357-8f73-13675ee2e020</t>
+  </si>
+  <si>
+    <t>bcd4b770-6ca0-40ff-bafe-42ba8cb59c55</t>
+  </si>
+  <si>
+    <t>901269bb-f4ba-45ad-bafa-3ba222c94d02</t>
+  </si>
+  <si>
+    <t>a32a74b9-97d6-47a1-864d-f08676411f00</t>
+  </si>
+  <si>
+    <t>c82f1bfc-98a7-46a2-9543-55dbe0bc4d0d</t>
+  </si>
+  <si>
+    <t>71efc060-e883-4bc5-9897-c867a6dedc74</t>
+  </si>
+  <si>
+    <t>8830b9e3-011f-4065-b31c-740213d1b920</t>
+  </si>
+  <si>
+    <t>7d586283-349f-4cf2-b44f-3f193ea45173</t>
+  </si>
+  <si>
+    <t>80c2b8be-a26b-4e28-8491-61666fe96f8c</t>
+  </si>
+  <si>
+    <t>2bf97164-38a2-4731-95e2-66d349569c68</t>
+  </si>
+  <si>
+    <t>e2e7d857-ecbd-4f1f-a6c4-5a5cd2f71a8a</t>
+  </si>
+  <si>
+    <t>6c5beca4-83f0-46c3-a2e7-dea3f54e84c6</t>
+  </si>
+  <si>
+    <t>cccc374b-33c8-45f8-8be0-cccb8c154552</t>
+  </si>
+  <si>
+    <t>ef9565a0-f403-4797-b114-b0beb5f64163</t>
+  </si>
+  <si>
+    <t>78f0fcb5-58fa-48d4-ac88-262a57c6a39e</t>
+  </si>
+  <si>
+    <t>6001ba8e-fe38-4a24-800c-5595d6d71afa</t>
+  </si>
+  <si>
+    <t>5697d839-8a4e-480b-b6f5-196fd9c5b995</t>
+  </si>
+  <si>
+    <t>bdad3e98-1c3a-4ed8-bb1d-3606249deaec</t>
+  </si>
+  <si>
+    <t>55119a18-e0f7-48b2-b675-19ef37057b9b</t>
+  </si>
+  <si>
+    <t>563d28b3-9d6e-43e0-a101-ac73929f1d60</t>
+  </si>
+  <si>
+    <t>1b4c4b17-ead1-40b0-9769-d617fe3070b6</t>
+  </si>
+  <si>
+    <t>c15bf57b-f8d7-48b5-91c6-cd90040d88f3</t>
+  </si>
+  <si>
+    <t>6bf3a775-8d07-41c7-bf88-4516517b9c7f</t>
+  </si>
+  <si>
+    <t>3eb31175-d71c-479a-beb2-8e9585be3067</t>
+  </si>
+  <si>
+    <t>a49db34a-76a1-4073-808d-7ef2a7b4cac0</t>
+  </si>
+  <si>
+    <t>823e2083-06b1-47da-96e1-e76dc3a83c1b</t>
+  </si>
+  <si>
+    <t>bc6d0ba6-8b82-4c09-9cbb-ea09fab2009a</t>
+  </si>
+  <si>
+    <t>aabc36c6-9dda-44f1-bc08-8a7bc4ed4c8a</t>
+  </si>
+  <si>
+    <t>3105b48d-1d6a-4300-a793-39882f9ebad8</t>
   </si>
   <si>
     <t>Value NA in POTENTIAL_NEED_INDICATED not in allowed list ('TRUE','FALSE')</t>
@@ -1920,64 +1920,64 @@
     <t>NA</t>
   </si>
   <si>
-    <t>1e119763-67e3-4628-8d32-cb685daf3aab</t>
-  </si>
-  <si>
-    <t>81501deb-0fc9-472b-9d49-3890f79d31c8</t>
-  </si>
-  <si>
-    <t>0141d97a-9454-4fea-ab60-7db68d8b3aad</t>
-  </si>
-  <si>
-    <t>1a8fb113-93e1-4cfa-ae18-3a015757506e</t>
-  </si>
-  <si>
-    <t>1b0a4d80-c51d-45fd-8e57-07c32471e05b</t>
-  </si>
-  <si>
-    <t>ff3874fa-a724-4e4f-ad19-619def0472b6</t>
-  </si>
-  <si>
-    <t>1da1b89c-1bee-4a80-a7de-35c505463381</t>
-  </si>
-  <si>
-    <t>19e0e310-7677-4f85-b87c-c600947ff325</t>
-  </si>
-  <si>
-    <t>5ddf8486-31c4-41fe-96e2-186f1833cc79</t>
-  </si>
-  <si>
-    <t>ff1f790c-838c-46cd-b56a-9743310e6041</t>
-  </si>
-  <si>
-    <t>f296775f-9c74-4e43-89ad-3c3d1787952e</t>
-  </si>
-  <si>
-    <t>52d64245-3b94-4e4a-9ff0-8bc653e50210</t>
-  </si>
-  <si>
-    <t>d885660a-1c40-4dc9-8f5a-2e0346520196</t>
-  </si>
-  <si>
-    <t>be0b41f7-8d59-4011-ae3f-f32e5c2cecda</t>
-  </si>
-  <si>
-    <t>b7db5983-fe48-4590-97fd-216bc09ea72a</t>
-  </si>
-  <si>
-    <t>f79ef6d6-fe86-4daf-87c3-0efbb68606c0</t>
-  </si>
-  <si>
-    <t>81c0efe8-8f01-4e02-b265-1d2d9eead1c6</t>
-  </si>
-  <si>
-    <t>4b340c90-ed78-4609-a8a1-fc972b2f1427</t>
-  </si>
-  <si>
-    <t>33ba75af-5d75-4ed4-91d0-8d110c6387c8</t>
-  </si>
-  <si>
-    <t>317502aa-0d04-4dc3-99d2-03987b43b8c6</t>
+    <t>a23db935-d731-405a-82f0-8e8e8b6adff2</t>
+  </si>
+  <si>
+    <t>75ce15aa-3cec-4759-b74e-cd7d1ac1f654</t>
+  </si>
+  <si>
+    <t>dd64f0a3-1a75-499a-8d31-26fa0361d066</t>
+  </si>
+  <si>
+    <t>12f04100-3374-4411-a385-d68f5d586c5c</t>
+  </si>
+  <si>
+    <t>39ff3d23-4643-4b7b-a319-72593e84f94a</t>
+  </si>
+  <si>
+    <t>f5624527-2a4d-4b9f-8f7e-d76d44fe287d</t>
+  </si>
+  <si>
+    <t>07e3a4f2-09fe-4504-b27a-27da75467dcf</t>
+  </si>
+  <si>
+    <t>655cd85c-c9c0-41bc-a404-2727cfab02df</t>
+  </si>
+  <si>
+    <t>2bab02d8-5539-4dfd-a53a-1e643954dccb</t>
+  </si>
+  <si>
+    <t>899eb2a3-55a4-4924-8df0-5f2915a619ae</t>
+  </si>
+  <si>
+    <t>295a0b02-bfc5-47d3-b38b-318ef2e45c25</t>
+  </si>
+  <si>
+    <t>c2c7dfe5-f233-452a-81ad-b7ba33e488a3</t>
+  </si>
+  <si>
+    <t>fc74ced2-d849-4257-9d19-4133b1b0bee2</t>
+  </si>
+  <si>
+    <t>613c9ef1-0486-4435-a62f-e1e1f7679580</t>
+  </si>
+  <si>
+    <t>040fe9db-ffa7-488c-afff-06c626c28479</t>
+  </si>
+  <si>
+    <t>e107a92e-8934-4057-a7cc-7c9e47c08bc9</t>
+  </si>
+  <si>
+    <t>572c2721-2e1a-47a6-81fc-9b0cc41ec7e6</t>
+  </si>
+  <si>
+    <t>5d2c0c46-fd72-43cc-8198-ced7969aacad</t>
+  </si>
+  <si>
+    <t>ff9d45ca-57c7-4e1f-a08b-2b0f97634d5b</t>
+  </si>
+  <si>
+    <t>83d833a9-8c9e-42b6-ab43-196f0b6ca9a4</t>
   </si>
   <si>
     <t>Value Screening in ASSISTANCE_REQUESTED not in allowed list ('YES','NO')</t>
@@ -1989,178 +1989,178 @@
     <t>Use only allowed values 'YES','NO' in ASSISTANCE_REQUESTED</t>
   </si>
   <si>
-    <t>f47026d5-ea81-47f2-8408-5cde25180d8d</t>
+    <t>5e3c8bd3-bf45-4f04-b672-259baa22db4d</t>
   </si>
   <si>
     <t>Value No in ASSISTANCE_REQUESTED not in allowed list ('YES','NO')</t>
   </si>
   <si>
-    <t>389c0529-c537-4ba4-b42f-2148998571ee</t>
+    <t>bc59c2ed-8231-439b-b681-438536b0b290</t>
   </si>
   <si>
     <t>Value Facility in ASSISTANCE_REQUESTED not in allowed list ('YES','NO')</t>
   </si>
   <si>
-    <t>2dc94d68-ca78-4c85-a575-58b8668d653e</t>
-  </si>
-  <si>
-    <t>b10a6713-9d47-4b79-a6f7-d7888421be73</t>
+    <t>a5d14fb1-fd6d-494b-8ae9-8568072e7df1</t>
+  </si>
+  <si>
+    <t>80a6e7dd-f4b4-495f-9ec4-cc181309bf1d</t>
   </si>
   <si>
     <t>Value Yes in ASSISTANCE_REQUESTED not in allowed list ('YES','NO')</t>
   </si>
   <si>
-    <t>d68be8ca-e8ee-429f-bed4-0b782e4fab05</t>
-  </si>
-  <si>
-    <t>c6370d70-9bb6-4854-966b-05df81808c60</t>
-  </si>
-  <si>
-    <t>f8ae1ac6-375f-43ad-9585-4d339b7d776b</t>
-  </si>
-  <si>
-    <t>681e2b68-d709-4ae9-a57a-6b7cd46b8810</t>
-  </si>
-  <si>
-    <t>1abe929a-fda0-4f95-9c34-d5a6d9ae6005</t>
-  </si>
-  <si>
-    <t>792ab3dd-0345-48bd-9b78-c25970251778</t>
-  </si>
-  <si>
-    <t>6af390e7-dc46-417b-b1d9-7d8c55c66442</t>
-  </si>
-  <si>
-    <t>89b668f1-cb1b-4747-8ba4-3c49f30375a9</t>
-  </si>
-  <si>
-    <t>85ac4e2b-841f-4d7e-8539-b73ed54bbb26</t>
-  </si>
-  <si>
-    <t>70e1f8af-2456-44b1-8270-d3292a513ad4</t>
-  </si>
-  <si>
-    <t>f7edb1f6-e49d-4351-8039-cf1e2fe28219</t>
-  </si>
-  <si>
-    <t>91b1d6ee-6692-42e3-950d-d5d09b23f497</t>
-  </si>
-  <si>
-    <t>8a23abde-5e97-41a7-9a88-e1eaa4ebb65f</t>
-  </si>
-  <si>
-    <t>30aead09-2609-4e33-a1c3-378a9d36b26a</t>
-  </si>
-  <si>
-    <t>83274d64-11ae-4e14-9660-66ad3fc5016d</t>
-  </si>
-  <si>
-    <t>640e55f4-3da1-4616-9f75-e7d9b68b77f8</t>
-  </si>
-  <si>
-    <t>dc9ac82e-e2a5-4b42-9d25-07a3eb507873</t>
-  </si>
-  <si>
-    <t>f0d727a5-a63f-4edc-81cf-c95952366d68</t>
-  </si>
-  <si>
-    <t>16524547-4256-4951-a8f8-0f1b4f94e73a</t>
-  </si>
-  <si>
-    <t>b8197f0e-9d4f-4199-99cf-b17ec3c2d6a7</t>
-  </si>
-  <si>
-    <t>859c3964-05cf-4a29-b691-2be25eefad91</t>
-  </si>
-  <si>
-    <t>0970c4a5-9e08-4822-b237-4db49867fe3d</t>
-  </si>
-  <si>
-    <t>baf305c9-e456-4352-a4d6-953e7efda776</t>
-  </si>
-  <si>
-    <t>f05ee76d-76bf-4291-bbfe-1f7d54178cbe</t>
-  </si>
-  <si>
-    <t>f931cb2c-c275-4f26-991e-e97fdb3c902d</t>
-  </si>
-  <si>
-    <t>17719023-2763-4ccd-8cce-81888e7a7b4f</t>
-  </si>
-  <si>
-    <t>aeb447ab-88a4-46d1-987d-784d7238e744</t>
-  </si>
-  <si>
-    <t>f2588ef9-d01b-4a16-9648-e50a0e6bfb1f</t>
-  </si>
-  <si>
-    <t>e0215140-8e3a-4487-ad6f-07995b3e9c89</t>
-  </si>
-  <si>
-    <t>0b34bef0-ed49-453e-9948-348292567dd1</t>
-  </si>
-  <si>
-    <t>6b93555f-e008-4ead-8609-e7b7d9d8aa03</t>
-  </si>
-  <si>
-    <t>f21d6677-e753-46a8-b22c-dd9fda2a63f9</t>
-  </si>
-  <si>
-    <t>b2f5aa97-077c-4635-84e6-f7a2bca5d11d</t>
-  </si>
-  <si>
-    <t>b3dae95e-7dd5-4173-80e5-61918625dea4</t>
-  </si>
-  <si>
-    <t>7b91243d-b7cf-49ac-aaf9-6b2c66179feb</t>
-  </si>
-  <si>
-    <t>40ccd979-5b2d-4d1e-90b9-2a2119e961f0</t>
-  </si>
-  <si>
-    <t>5996a27f-a5bd-4c22-b576-65c7b6f68f80</t>
-  </si>
-  <si>
-    <t>a76971ff-f3f1-482c-9b36-86cc779a1398</t>
-  </si>
-  <si>
-    <t>b82edaed-c4a4-40ad-afec-8917d049354e</t>
-  </si>
-  <si>
-    <t>cba6076b-6069-475a-a9a1-3861ed3f0cc7</t>
-  </si>
-  <si>
-    <t>933531a9-d8b5-4644-aaf7-b1d9991c6b7b</t>
-  </si>
-  <si>
-    <t>d5dd4186-84bc-4fc6-a8a0-3b77aaf313a8</t>
-  </si>
-  <si>
-    <t>e4361437-f31f-4ea0-9b41-30be7ab0f76f</t>
-  </si>
-  <si>
-    <t>2219b8c4-ef7b-4a9a-9c7c-c83bcb1b0238</t>
-  </si>
-  <si>
-    <t>a96bf27a-3712-4e81-b20f-cd68ea8b9ced</t>
-  </si>
-  <si>
-    <t>6ced0b8c-2e3a-43c9-aede-4810e48fa337</t>
-  </si>
-  <si>
-    <t>66016131-c9ed-4150-8ac6-0736ceabd2d5</t>
-  </si>
-  <si>
-    <t>8f5a35b2-1ba0-40c5-86c3-63e2c42b94ae</t>
-  </si>
-  <si>
-    <t>576bbea7-a0c3-4b26-a92a-c97294634889</t>
-  </si>
-  <si>
-    <t>c9dd1b74-db1b-41f9-9e8c-3757504a0491</t>
-  </si>
-  <si>
-    <t>a2cdfe11-3773-4766-8609-3ca5b21b9292</t>
+    <t>4d5906e3-1cc7-4126-bb02-2843c80b13ba</t>
+  </si>
+  <si>
+    <t>8d41f62e-5e83-473f-acbc-570c4f986a96</t>
+  </si>
+  <si>
+    <t>923f7e76-e87e-4bd3-832f-67f5a65a6604</t>
+  </si>
+  <si>
+    <t>ac11cbda-9dbe-4bbd-affa-e2e8e7c182a1</t>
+  </si>
+  <si>
+    <t>846bff51-866b-42b4-8207-39dd2bdf600a</t>
+  </si>
+  <si>
+    <t>bbd6d20c-ed8c-4111-a560-66b90bf54247</t>
+  </si>
+  <si>
+    <t>8b4584f1-6f40-4455-8777-ca1e93823f0c</t>
+  </si>
+  <si>
+    <t>b97385ca-b622-45bd-a3de-1a0428ab5661</t>
+  </si>
+  <si>
+    <t>8bf41ece-ea44-4832-9815-861eedbda300</t>
+  </si>
+  <si>
+    <t>0ace56a3-e41b-44c1-a99f-abb32f42b3f8</t>
+  </si>
+  <si>
+    <t>6c2eeb5d-c252-44b1-8070-109b922461dd</t>
+  </si>
+  <si>
+    <t>15306d85-e21b-4001-8b7d-184f133a9035</t>
+  </si>
+  <si>
+    <t>76fc8a80-c378-488b-8c9b-795bf9b21c17</t>
+  </si>
+  <si>
+    <t>faa34206-f29e-4aba-bddc-18a0ff83dce8</t>
+  </si>
+  <si>
+    <t>ce9588b1-af8f-4753-beb8-8ed356b82177</t>
+  </si>
+  <si>
+    <t>b0e83252-a0d7-4bb0-958a-dfb1ba4f8861</t>
+  </si>
+  <si>
+    <t>f3cabe94-6889-410c-81d2-103df605ec07</t>
+  </si>
+  <si>
+    <t>b18880ce-7479-41d8-ba02-4b79d4d87caa</t>
+  </si>
+  <si>
+    <t>90336469-7565-471f-aa8e-60c08bfef1d5</t>
+  </si>
+  <si>
+    <t>c8014044-c4e8-417f-a44a-e2985011fb2a</t>
+  </si>
+  <si>
+    <t>bc6b7923-b989-4256-ac4e-23cad2444827</t>
+  </si>
+  <si>
+    <t>fe977195-d4c6-473d-9155-11aa447a9cf2</t>
+  </si>
+  <si>
+    <t>67fba97b-d944-4552-84a0-1e9d4ce65739</t>
+  </si>
+  <si>
+    <t>c4f355bc-54c2-4db2-a4ed-93032e2a76af</t>
+  </si>
+  <si>
+    <t>8baddda1-57c9-45bc-85fe-df741ce2fc39</t>
+  </si>
+  <si>
+    <t>991fa6fa-a982-458e-8548-fda62db006e6</t>
+  </si>
+  <si>
+    <t>87c376c4-f752-468e-abf6-46784910e18c</t>
+  </si>
+  <si>
+    <t>beccab57-7325-4568-b2e6-116cb8c2da76</t>
+  </si>
+  <si>
+    <t>4ad6cb20-f003-4e64-a888-bead2b4b9467</t>
+  </si>
+  <si>
+    <t>d66a73f4-a838-4d30-a537-68aa84dbbe86</t>
+  </si>
+  <si>
+    <t>86ec84e0-2e8f-457a-a7c7-99f0e27a7156</t>
+  </si>
+  <si>
+    <t>032c9ad4-b50c-4d83-b0be-e0d791dcb381</t>
+  </si>
+  <si>
+    <t>1eae5ad9-82b4-4b17-b991-d06d96738658</t>
+  </si>
+  <si>
+    <t>761763cc-bc7d-4140-8d87-79ed5cbbd888</t>
+  </si>
+  <si>
+    <t>8f78cf6a-3827-4962-bcdf-ddb84da39c8a</t>
+  </si>
+  <si>
+    <t>ac80f75e-d144-4684-8167-699fd3531147</t>
+  </si>
+  <si>
+    <t>7027bff6-03c7-4cfc-be7b-61919e3968b7</t>
+  </si>
+  <si>
+    <t>5523d645-5abd-4bd2-a4bf-ba7fb72b6339</t>
+  </si>
+  <si>
+    <t>7b056635-e72f-4698-a10e-bf85517158fd</t>
+  </si>
+  <si>
+    <t>cada0b53-6313-4804-ac39-cacbdac62d81</t>
+  </si>
+  <si>
+    <t>20272608-34db-4783-881f-6cf62c8aa5c6</t>
+  </si>
+  <si>
+    <t>fec05eac-eaff-4eb1-a4f3-702d4b278539</t>
+  </si>
+  <si>
+    <t>1cbb9414-1c07-4f43-8ee8-c20228341a46</t>
+  </si>
+  <si>
+    <t>0ae0f1b7-ec8c-4b07-be76-a14319afc76d</t>
+  </si>
+  <si>
+    <t>a7e42b03-bae7-4c1d-ac6e-71371441c861</t>
+  </si>
+  <si>
+    <t>652b0220-bf1e-4846-845d-b0198aef2239</t>
+  </si>
+  <si>
+    <t>f3cb6df0-209e-491f-a0bb-c09dc18ef04a</t>
+  </si>
+  <si>
+    <t>af1d67fb-d7a3-4061-8100-e54a34660d1a</t>
+  </si>
+  <si>
+    <t>faade35d-d46d-4d1e-b29f-6ec51c0d2599</t>
+  </si>
+  <si>
+    <t>342e8b6b-cbd7-4a5a-9112-efb75a1ed647</t>
+  </si>
+  <si>
+    <t>da801e0f-8f0b-4527-a73d-6d9a224a6ff9</t>
   </si>
   <si>
     <t>fa7874f6-f848-572b-a9ab-9db4c8d5e959</t>
@@ -2169,13 +2169,13 @@
     <t>ahc_hrsn_2024_01_25_valid_admin_demographic</t>
   </si>
   <si>
-    <t>8b1d9cf6-bbc3-46a9-a2e9-a5a6d64539c2</t>
-  </si>
-  <si>
-    <t>b12be08b-a35d-4d56-a838-36b32a450960</t>
-  </si>
-  <si>
-    <t>62403b1b-f023-441c-a374-3a26c3ed8618</t>
+    <t>84e68bd2-b8b2-4ffa-8aa1-3e67bd14083d</t>
+  </si>
+  <si>
+    <t>2ce39488-6fa2-4d4c-bb18-2bfe42272865</t>
+  </si>
+  <si>
+    <t>7a517147-30f8-475b-8634-ec1801de7ede</t>
   </si>
   <si>
     <t>78d6a904-035e-54ae-8ac2-ca5cdf3f75f7</t>
@@ -2184,16 +2184,16 @@
     <t>ahc_hrsn_2024_01_25_valid_screening</t>
   </si>
   <si>
-    <t>46cc743c-36d8-4a5d-b9e3-4e6ef546e8ca</t>
-  </si>
-  <si>
-    <t>e5f4e1a8-ba41-44d7-bad5-8e412a1247ec</t>
-  </si>
-  <si>
-    <t>f45db706-a546-4810-b9b5-1716a8e8ff73</t>
-  </si>
-  <si>
-    <t>73f74500-6a83-40f4-b755-1541155f508e</t>
+    <t>2c7f8c58-fa8b-47f1-995f-8d03e5123500</t>
+  </si>
+  <si>
+    <t>1f29a59c-9010-4320-a7e6-8fbaab7c38d5</t>
+  </si>
+  <si>
+    <t>c012ddfe-f148-43a1-82ee-93a633288528</t>
+  </si>
+  <si>
+    <t>6be9a464-3748-4d6c-acf8-befb69bc86fc</t>
   </si>
   <si>
     <t>Mandatory field SCREENING_CODE_SYSTEM_NAME is empty</t>
@@ -2205,16 +2205,16 @@
     <t>Provide a value for SCREENING_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>82e3c097-9751-4277-83c5-72710d617d8c</t>
-  </si>
-  <si>
-    <t>833cd281-8471-4ded-991a-1506aa4040e8</t>
-  </si>
-  <si>
-    <t>638bd86a-2159-4218-899b-344df9e1329b</t>
-  </si>
-  <si>
-    <t>8b9c28f7-de84-463e-a80a-3192f0aefff0</t>
+    <t>bbe04bce-b2e3-48eb-8360-1d6fab208bc8</t>
+  </si>
+  <si>
+    <t>7023934a-a783-4b6e-b0d3-937257a68ad5</t>
+  </si>
+  <si>
+    <t>09c244e6-362c-424a-bfb4-0b9701f652c2</t>
+  </si>
+  <si>
+    <t>0f5128b7-7052-466c-9faf-aff2dd26aad2</t>
   </si>
   <si>
     <t>Mandatory field SCREENING_CODE is empty</t>
@@ -2226,34 +2226,34 @@
     <t>Provide a value for SCREENING_CODE</t>
   </si>
   <si>
-    <t>1c3c9aa4-70bc-4e3a-9a0b-64070b640dee</t>
-  </si>
-  <si>
-    <t>8340cdb1-ae9d-4338-90e9-642131139409</t>
-  </si>
-  <si>
-    <t>81b8bde1-8d6c-453b-9ec0-3d8c2f32c8aa</t>
-  </si>
-  <si>
-    <t>dfde182e-bd37-4850-ad80-7778e31ddb74</t>
-  </si>
-  <si>
-    <t>3d8a946f-6a15-4010-8e01-68055e608ac0</t>
-  </si>
-  <si>
-    <t>b3f51dcd-dbd4-4c9c-9050-792a92b91fbd</t>
-  </si>
-  <si>
-    <t>62ee105b-23db-47bc-9e04-bef68e71d5a0</t>
-  </si>
-  <si>
-    <t>5aa1dea6-d2dc-4fad-84f6-bceb9b0509e5</t>
-  </si>
-  <si>
-    <t>dcb5a357-3485-4730-965f-37255acb84fa</t>
-  </si>
-  <si>
-    <t>82df1752-baf8-4c06-97e2-9380981d90d3</t>
+    <t>eced7b5d-7b2d-496e-abb9-e6ba28d00b00</t>
+  </si>
+  <si>
+    <t>792452e0-b4ec-433e-b0a5-060e71e16813</t>
+  </si>
+  <si>
+    <t>ed2538f4-6a91-43ce-ab5a-ba5b640bd125</t>
+  </si>
+  <si>
+    <t>b81f05c9-c1c9-46e0-b9e7-4c4738603163</t>
+  </si>
+  <si>
+    <t>63dc668d-b886-496c-9db1-f30745463ec5</t>
+  </si>
+  <si>
+    <t>9ed8d1e2-3062-4d83-8d55-3e98bbb7d233</t>
+  </si>
+  <si>
+    <t>25d74c6c-7582-4fd8-82b6-16321e25d1bb</t>
+  </si>
+  <si>
+    <t>93b2c359-681f-4608-a0e2-69c5614a6f99</t>
+  </si>
+  <si>
+    <t>5af3be13-ccb9-4e03-8440-26974e88a522</t>
+  </si>
+  <si>
+    <t>927117f9-b5b8-4219-9fd8-aa2f86d2dda2</t>
   </si>
   <si>
     <t>Mandatory field QUESTION_CODE is empty</t>
@@ -2262,187 +2262,187 @@
     <t>Provide a value for QUESTION_CODE</t>
   </si>
   <si>
-    <t>aec182dc-4f83-4aac-aab6-7180d7b78a7a</t>
-  </si>
-  <si>
-    <t>9773a4fb-bde1-402e-8875-0a71d89f4fac</t>
-  </si>
-  <si>
-    <t>3f4996a2-1cdf-4db5-bde1-eb5db16d366e</t>
-  </si>
-  <si>
-    <t>f0bfecf8-7b38-4473-bbcb-72e45daf0b1f</t>
-  </si>
-  <si>
-    <t>f051251e-0848-452d-8389-994cdb49205e</t>
-  </si>
-  <si>
-    <t>dfdae050-e9da-44be-bc14-11f7632af6b2</t>
-  </si>
-  <si>
-    <t>fca1effe-ac4c-4e90-b491-81dc406d7e61</t>
-  </si>
-  <si>
-    <t>69c11927-bed7-4429-bc8d-127a9140187c</t>
-  </si>
-  <si>
-    <t>dee1b723-c885-403d-8a6f-7893f979b82d</t>
-  </si>
-  <si>
-    <t>d3e75c5b-5c15-4054-9aec-e71f544448a1</t>
-  </si>
-  <si>
-    <t>4e060503-977e-4118-920d-ef103dddc184</t>
-  </si>
-  <si>
-    <t>24744533-eeff-4572-8207-e1adaae2ce8d</t>
-  </si>
-  <si>
-    <t>6b0da9ca-ada9-4415-a794-4d74692d40c2</t>
-  </si>
-  <si>
-    <t>dcc0c124-6622-4166-8c0c-87f634f7d3ef</t>
-  </si>
-  <si>
-    <t>ee76ccd6-c64f-4d87-94c8-0cb33db32be4</t>
-  </si>
-  <si>
-    <t>8fd4d91b-9a41-4a1a-9ea5-356f7c1b0323</t>
-  </si>
-  <si>
-    <t>efdd0084-4f4d-4204-8405-a453c8d8e684</t>
-  </si>
-  <si>
-    <t>a35f904e-61e9-4b44-8149-214e7138ba7e</t>
-  </si>
-  <si>
-    <t>73412153-dc3f-42ea-ae77-03fa664b08dc</t>
-  </si>
-  <si>
-    <t>f23e3241-0526-4696-a941-332c86207265</t>
-  </si>
-  <si>
-    <t>40962737-05da-4d0f-b479-8f381d21befc</t>
-  </si>
-  <si>
-    <t>1e8d9a37-0a86-4091-8f79-715d42dd4b5d</t>
-  </si>
-  <si>
-    <t>7a8ca2c3-c48e-41da-aa77-26215df2510d</t>
-  </si>
-  <si>
-    <t>69a95cd2-9b60-483e-b9e7-d37262dadb04</t>
-  </si>
-  <si>
-    <t>e31b42c1-a2ce-4d9b-9a2d-2db8f74820b0</t>
-  </si>
-  <si>
-    <t>56ed2dac-2c5b-485c-b17a-1b456577d911</t>
-  </si>
-  <si>
-    <t>9b311566-4027-43a1-9955-5243ffa0adee</t>
-  </si>
-  <si>
-    <t>421091db-c8ef-478e-b3d8-f5e3c92cd3f5</t>
-  </si>
-  <si>
-    <t>5c65014a-51df-4999-8466-d219a8c5332c</t>
-  </si>
-  <si>
-    <t>6430990b-6244-47c8-8ad5-b21117269ed8</t>
-  </si>
-  <si>
-    <t>a082c212-929b-419e-8c65-85db0e32a425</t>
-  </si>
-  <si>
-    <t>942e8bc0-6cfd-4ed1-ab73-b2751f331369</t>
-  </si>
-  <si>
-    <t>c2383ba9-41c2-420c-9576-c6320ebc0ea5</t>
-  </si>
-  <si>
-    <t>b9571e43-ed79-404e-83a4-5f579a64681e</t>
-  </si>
-  <si>
-    <t>0f14662a-2fd3-460e-bf98-57459a815280</t>
-  </si>
-  <si>
-    <t>b198f186-9522-41d4-9de5-80a53b575268</t>
-  </si>
-  <si>
-    <t>d71b8b89-6758-40f3-ba3a-afc24e4d87db</t>
-  </si>
-  <si>
-    <t>528cdc3f-1da6-4101-9477-3171c4a3ef0a</t>
-  </si>
-  <si>
-    <t>f8eb4cb3-4069-437e-8988-a158b9f7fa95</t>
-  </si>
-  <si>
-    <t>f57673bb-ca5e-4228-9e2e-92a33a5a98c2</t>
-  </si>
-  <si>
-    <t>2f3dcb80-c00d-4091-93ee-093a1f34f040</t>
-  </si>
-  <si>
-    <t>aa8449e2-164a-4a40-accf-0922b1c4b332</t>
-  </si>
-  <si>
-    <t>2c3af0c9-7445-4c44-9219-b07398a1d7b9</t>
-  </si>
-  <si>
-    <t>76a715a2-1d27-43c9-a1ec-f8fbfe83b42a</t>
-  </si>
-  <si>
-    <t>f79c4d2d-3541-4a55-9550-cbdce273c377</t>
-  </si>
-  <si>
-    <t>a9a6de65-02c4-4df5-ac0c-0d3c4b563ec6</t>
-  </si>
-  <si>
-    <t>e17f474a-264d-4fc5-9704-547d5431a360</t>
-  </si>
-  <si>
-    <t>15100216-4039-4f10-b9e7-8ef084ef16a9</t>
-  </si>
-  <si>
-    <t>3bd36e35-6a29-4288-be91-f21328ee8add</t>
-  </si>
-  <si>
-    <t>6438120b-3fdf-4ea8-94fa-5d85d93fd92d</t>
-  </si>
-  <si>
-    <t>ce692293-aa93-4905-aef2-33171d21e62d</t>
-  </si>
-  <si>
-    <t>4b630c7f-8196-4ec3-85ce-483497e39359</t>
-  </si>
-  <si>
-    <t>e6447d63-723e-413a-acb7-eaee65340469</t>
-  </si>
-  <si>
-    <t>d0c2f9af-1a2a-4505-87b6-15205dae93f6</t>
-  </si>
-  <si>
-    <t>6dfafbac-b56b-47e8-aaaf-886885aa69f6</t>
-  </si>
-  <si>
-    <t>6976b534-43d7-4e2b-9377-168ab774c1c1</t>
-  </si>
-  <si>
-    <t>3b6f2864-a6f1-4d42-bd3e-28a6d59aefca</t>
-  </si>
-  <si>
-    <t>43dfec2f-3d87-477b-bab8-f9810e1ac3cc</t>
-  </si>
-  <si>
-    <t>033fad95-5893-4efc-b6a6-c04d8a0e5652</t>
-  </si>
-  <si>
-    <t>a8c55587-21a1-4697-88c3-3486a7e3a4b9</t>
-  </si>
-  <si>
-    <t>b7105ef2-54d5-45b6-bbb5-df23ae6ccdf3</t>
+    <t>ee296699-6aa3-44fa-adc1-a1c63f51f0cb</t>
+  </si>
+  <si>
+    <t>f63af899-0729-49ba-aacc-27f769d9ad7c</t>
+  </si>
+  <si>
+    <t>f08a4c6b-9c21-49c9-9e2d-f30e4c1e55f5</t>
+  </si>
+  <si>
+    <t>adb72684-7dbf-40ec-a3b5-aaba862abacf</t>
+  </si>
+  <si>
+    <t>0992a1bc-feaa-4c4f-ad1f-19c4dea94522</t>
+  </si>
+  <si>
+    <t>d42e8abf-4ed2-4f69-b247-28e41c3e48ff</t>
+  </si>
+  <si>
+    <t>a5214520-72e2-427a-a9a9-c0be99ecc4be</t>
+  </si>
+  <si>
+    <t>6f008a06-5d64-4543-b323-e75d2fda7152</t>
+  </si>
+  <si>
+    <t>f291474a-81f1-4eb4-b263-ac5f36d8ae3a</t>
+  </si>
+  <si>
+    <t>501c7d52-5c4c-4f79-937e-6852ae5b0f30</t>
+  </si>
+  <si>
+    <t>fcd55452-d965-483e-a9c3-7052c969167a</t>
+  </si>
+  <si>
+    <t>9d336d37-98b2-4d3a-958d-c8dbab36de9a</t>
+  </si>
+  <si>
+    <t>20fd30cd-32e0-4381-a24a-916759967175</t>
+  </si>
+  <si>
+    <t>1db3ffdd-aa95-44ef-9d74-8c157363f56d</t>
+  </si>
+  <si>
+    <t>bd87631a-dd09-4926-ba17-2d9c87ff4d95</t>
+  </si>
+  <si>
+    <t>6414ba67-0cad-43ea-9a44-d7020b3b7fd8</t>
+  </si>
+  <si>
+    <t>9c9460cb-7a2f-4a65-a89d-0019d20bfed5</t>
+  </si>
+  <si>
+    <t>29cf2c0f-ede7-46ba-a4db-28d91103aea8</t>
+  </si>
+  <si>
+    <t>6a9f1481-ead7-4c5d-b1f2-b301d0cbb6e6</t>
+  </si>
+  <si>
+    <t>68ae00c5-e5ac-451a-8854-1dee036a9194</t>
+  </si>
+  <si>
+    <t>7fe66c3c-0db5-4b21-b4bf-1a1f7aa4f49f</t>
+  </si>
+  <si>
+    <t>64f378dc-e79f-4262-ba65-00d2e27e84e3</t>
+  </si>
+  <si>
+    <t>425f9371-4d6f-4e23-8179-3ea7b32c3310</t>
+  </si>
+  <si>
+    <t>884eedf6-7afd-4e27-a7e9-61fe995bae04</t>
+  </si>
+  <si>
+    <t>0594012b-108b-4ac3-9b8b-b6f58a638000</t>
+  </si>
+  <si>
+    <t>fec473ee-7510-4e32-96ee-90e917e9c753</t>
+  </si>
+  <si>
+    <t>8bde32f0-8095-4388-8d68-e9ed2c36d4b6</t>
+  </si>
+  <si>
+    <t>c8fe944a-fd3e-43ad-bec7-1e10b6eb82fb</t>
+  </si>
+  <si>
+    <t>02ead437-3893-4363-8984-fcd423531326</t>
+  </si>
+  <si>
+    <t>0a44ea0b-efeb-48dc-9133-9570ce2a4c0c</t>
+  </si>
+  <si>
+    <t>562456cc-0589-4ce3-ad15-d2d2eb23796c</t>
+  </si>
+  <si>
+    <t>d5ac72a0-8466-4d8b-b5cd-06e136386464</t>
+  </si>
+  <si>
+    <t>96d057d8-8d99-4124-a244-1c906fa829ff</t>
+  </si>
+  <si>
+    <t>1063b2d6-3c81-4c6a-8e10-2e5d7df2fe3c</t>
+  </si>
+  <si>
+    <t>2a0f6682-3620-4630-b9cb-dd7a3a61810e</t>
+  </si>
+  <si>
+    <t>a5348e86-af47-4b3e-bb1b-8ac6fcb97976</t>
+  </si>
+  <si>
+    <t>ceb8c9dd-f861-4064-be29-35969bcfc6fa</t>
+  </si>
+  <si>
+    <t>8cf714f8-14e7-49cf-94e5-92c8cdedaa4d</t>
+  </si>
+  <si>
+    <t>83a89223-71b0-4d20-8b2f-ff1642b7a202</t>
+  </si>
+  <si>
+    <t>abb1c1ee-23d1-449f-a95e-f88d139b0376</t>
+  </si>
+  <si>
+    <t>901331e4-3183-4e6d-aa1d-5929eaebcf02</t>
+  </si>
+  <si>
+    <t>049e6ee4-d426-4701-9fd5-496d7fd62ef8</t>
+  </si>
+  <si>
+    <t>46b04317-3011-46a6-94a0-42639234af04</t>
+  </si>
+  <si>
+    <t>a1349472-8df4-40f5-8f7f-d1da1be569e7</t>
+  </si>
+  <si>
+    <t>edf76ee8-a812-4683-b127-f954869dc6e1</t>
+  </si>
+  <si>
+    <t>a67954e4-21f1-484b-b4d6-34301bc2b3d5</t>
+  </si>
+  <si>
+    <t>c357b710-5b13-4c16-8dd6-7469ba1daf68</t>
+  </si>
+  <si>
+    <t>ccd2bd57-aa4b-418f-a3ee-323af75f62b5</t>
+  </si>
+  <si>
+    <t>90c306c8-f0b2-4df9-b2f7-f780af1e5754</t>
+  </si>
+  <si>
+    <t>b3ed8af2-e501-461d-b448-b11a58694dde</t>
+  </si>
+  <si>
+    <t>f5ca4891-8e09-47fc-97b0-c6571d10a2f3</t>
+  </si>
+  <si>
+    <t>26b1fb0c-3bc2-4c0a-9143-3fde5bd3a101</t>
+  </si>
+  <si>
+    <t>6228c990-947d-40f6-ada1-31291bb5f4a5</t>
+  </si>
+  <si>
+    <t>0cb50657-f18e-4de6-a12b-f9def1119e26</t>
+  </si>
+  <si>
+    <t>9a7097ca-7e4c-428a-bb32-fc3ab242c48c</t>
+  </si>
+  <si>
+    <t>7c80e616-b191-4678-b839-f210e9179676</t>
+  </si>
+  <si>
+    <t>af8f31a8-bbf7-4faf-864a-867ab8a5f658</t>
+  </si>
+  <si>
+    <t>5b3af13e-061d-4704-a7da-4a4ed54d128f</t>
+  </si>
+  <si>
+    <t>c6ed9cf8-7266-44a9-90d2-076677be5ace</t>
+  </si>
+  <si>
+    <t>77901bc1-0642-4054-90fc-b67d7917c0bf</t>
+  </si>
+  <si>
+    <t>303d1a64-70c8-44cd-b920-79bc79d21ab6</t>
   </si>
   <si>
     <t>Mandatory field QUESTION_CODE_SYSTEM_NAME is empty</t>
@@ -2451,631 +2451,631 @@
     <t>Provide a value for QUESTION_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>16fc97e9-e188-4b65-a5b3-b70ab246683c</t>
-  </si>
-  <si>
-    <t>ee29daaa-5838-4254-9263-832f02c8c9ac</t>
-  </si>
-  <si>
-    <t>f67be1eb-0dca-4dd4-980e-6fbbddbef015</t>
-  </si>
-  <si>
-    <t>41808857-579f-4adc-99d4-e495f8598e08</t>
-  </si>
-  <si>
-    <t>b009e6f9-6294-44a8-ac6b-e06944cd026a</t>
-  </si>
-  <si>
-    <t>31f1ab70-9c87-45dd-8e3b-20738c477d6b</t>
-  </si>
-  <si>
-    <t>d72277a8-7c91-4102-9836-a92b223288ad</t>
-  </si>
-  <si>
-    <t>7286fc5e-2be3-4c44-8aae-22ccedc4d3d2</t>
-  </si>
-  <si>
-    <t>3c6be758-9827-4406-89c3-e233e5eff92c</t>
-  </si>
-  <si>
-    <t>1696a250-47fa-4d30-8a8d-1ee196a0746f</t>
-  </si>
-  <si>
-    <t>1c9759cc-d1d6-451d-b434-9c79b69d74fa</t>
-  </si>
-  <si>
-    <t>4e1212f8-a8aa-478d-9b1f-efd5071cc331</t>
-  </si>
-  <si>
-    <t>e83eb228-6997-40bd-85d5-094d4df6a637</t>
-  </si>
-  <si>
-    <t>77e82b85-59e2-4dbb-b00a-83c3cd568567</t>
-  </si>
-  <si>
-    <t>a2b604c4-68a5-435b-9d01-4b5f1d0d6900</t>
-  </si>
-  <si>
-    <t>72958069-32d8-4df1-b394-581998ad142f</t>
-  </si>
-  <si>
-    <t>676d29b7-852d-475c-81bd-7c2aaae116c0</t>
-  </si>
-  <si>
-    <t>faa6b513-19bf-4bb0-a51c-fbf71349f321</t>
-  </si>
-  <si>
-    <t>4edaa6bd-b74a-4db6-a8cb-db4518c869e6</t>
-  </si>
-  <si>
-    <t>99b64dfd-d1eb-4a7f-8415-54db68838c6a</t>
-  </si>
-  <si>
-    <t>d6d798a6-8f4d-4ea3-ae69-632c8fc5bb0c</t>
-  </si>
-  <si>
-    <t>eba98ec7-6f5d-4394-a32e-788a4a0b1881</t>
-  </si>
-  <si>
-    <t>c822a0fa-bc0e-431a-8ee1-625f4a3db735</t>
-  </si>
-  <si>
-    <t>caa17b15-43fa-4712-9ba0-08334e5cc992</t>
-  </si>
-  <si>
-    <t>31bfe40b-e70c-49e5-864f-472cc82cdae3</t>
-  </si>
-  <si>
-    <t>74fa516a-7822-4d83-b86a-cb045637f3a4</t>
-  </si>
-  <si>
-    <t>fba8fd6e-f051-4649-8747-446723214a5d</t>
-  </si>
-  <si>
-    <t>e3b50883-c4bc-40e4-a53b-22f7e44478fc</t>
-  </si>
-  <si>
-    <t>5ff9c482-40c5-4edf-a315-306985c29034</t>
-  </si>
-  <si>
-    <t>c4a08925-c701-4e74-a9be-3bd37d46d6ef</t>
-  </si>
-  <si>
-    <t>31997883-1051-480c-ac1e-ed85a5a7a2ef</t>
-  </si>
-  <si>
-    <t>d56b8e14-0f71-481d-a49f-e567aabf434b</t>
-  </si>
-  <si>
-    <t>bd178eb4-e598-4b9c-9fa2-c3f96e5877ad</t>
-  </si>
-  <si>
-    <t>bde5d12f-428f-4c29-8515-ebcc9fa1cfc2</t>
-  </si>
-  <si>
-    <t>d0de49e6-df49-4da9-9ddf-c7d01537cb78</t>
-  </si>
-  <si>
-    <t>4f05e62d-a90c-4f13-b346-b6555abdb9c8</t>
-  </si>
-  <si>
-    <t>3e30f389-0b09-4c01-859a-0b7ec9bdae87</t>
-  </si>
-  <si>
-    <t>05c02b94-eea2-40ac-bb0b-4d7e786475f7</t>
-  </si>
-  <si>
-    <t>32ec65de-0883-4492-82a7-3030b2b7525e</t>
-  </si>
-  <si>
-    <t>25b9c8b6-ee82-42a4-8819-c54b4a523388</t>
-  </si>
-  <si>
-    <t>4f6f80c0-eb76-4a00-a8ba-9fb8efe971b5</t>
-  </si>
-  <si>
-    <t>42dd1262-9f52-420b-b80f-3187b7d960de</t>
-  </si>
-  <si>
-    <t>331cee6c-7f88-41c7-862d-738091356a18</t>
-  </si>
-  <si>
-    <t>6e307cd5-a0bb-44c8-acab-9843f36f7704</t>
-  </si>
-  <si>
-    <t>0c5ce709-da88-4647-b2a8-87b32c76be34</t>
-  </si>
-  <si>
-    <t>98966fe2-b5e7-4507-b16d-91552ae8f450</t>
-  </si>
-  <si>
-    <t>a93ba99b-42dd-4623-8011-caa0249222a2</t>
-  </si>
-  <si>
-    <t>39baccc2-c657-468e-af5a-5ee769d9fe07</t>
-  </si>
-  <si>
-    <t>f35676a7-e3d4-4dd1-b603-fb3f333473c0</t>
-  </si>
-  <si>
-    <t>3ef4ca2f-3c2f-4fa5-b5c5-af9d6d263212</t>
-  </si>
-  <si>
-    <t>5bad1bc5-f317-48bb-945c-c27f90404455</t>
-  </si>
-  <si>
-    <t>a77102cd-0119-4d07-9909-ca1884564a42</t>
-  </si>
-  <si>
-    <t>ab73083e-26bf-4f01-940e-502513b57861</t>
-  </si>
-  <si>
-    <t>bafd0de1-ea8f-4b4a-ad82-387b94335402</t>
-  </si>
-  <si>
-    <t>35932fbf-e9a2-43bc-9ba5-acee23cc71e2</t>
-  </si>
-  <si>
-    <t>9153e966-92c4-4701-97f9-42e99bf901b4</t>
-  </si>
-  <si>
-    <t>d6960644-a58e-45c7-957b-7ecca1347106</t>
-  </si>
-  <si>
-    <t>704511d4-9339-47fa-81c1-33dd025a8ed1</t>
-  </si>
-  <si>
-    <t>bccaf7c8-7518-4fd9-ae6a-f6b4bca658d4</t>
-  </si>
-  <si>
-    <t>96e286ad-42e4-4d5f-9e60-b5b058386818</t>
-  </si>
-  <si>
-    <t>98ed307e-f61b-429a-a92d-2993076b9c04</t>
-  </si>
-  <si>
-    <t>7a9838d0-829f-4288-9142-65c08be948d4</t>
-  </si>
-  <si>
-    <t>2411657b-bea0-4748-bf86-9b9d9b010a1f</t>
-  </si>
-  <si>
-    <t>f2e74018-b0b6-4193-8e62-b219657d9123</t>
-  </si>
-  <si>
-    <t>a62aa6b5-d15b-464f-aefd-6af1f9be335d</t>
-  </si>
-  <si>
-    <t>11cabe01-c2fc-4726-9881-b7c9222646fa</t>
-  </si>
-  <si>
-    <t>9ff704bb-5d79-4e2c-baaa-eddc30c53e15</t>
-  </si>
-  <si>
-    <t>342e8481-6530-4447-b815-04ced37cc10a</t>
-  </si>
-  <si>
-    <t>d2626fd6-b86a-403f-ae73-af27604aead8</t>
-  </si>
-  <si>
-    <t>ec0283c5-d728-48cc-b764-0ba26cb3f365</t>
-  </si>
-  <si>
-    <t>a47548eb-cbf8-4af2-bd38-571f05a17242</t>
-  </si>
-  <si>
-    <t>4167c884-fe1e-444f-aea5-392f453a9407</t>
-  </si>
-  <si>
-    <t>99be632b-cc95-4a44-94d6-c7e550d65601</t>
-  </si>
-  <si>
-    <t>64761fb0-b146-42bb-8805-0deb7c68b9d1</t>
-  </si>
-  <si>
-    <t>a4f2f36e-147f-4a09-b427-b3a1735eda11</t>
-  </si>
-  <si>
-    <t>c75b6ede-3872-4b9d-9329-aad92f2a6027</t>
-  </si>
-  <si>
-    <t>73f9183f-cdfd-4db5-9b16-10ea974ef720</t>
-  </si>
-  <si>
-    <t>8aa1b4cd-9a6e-4354-a985-bfc5b5931d01</t>
-  </si>
-  <si>
-    <t>7f10a26c-afaf-4bf9-bff9-3838697d2fc9</t>
-  </si>
-  <si>
-    <t>3ff68311-7b1c-43d5-bc59-b5e184dbcbe7</t>
-  </si>
-  <si>
-    <t>cd3005c9-1a18-47ec-a1e3-ab9389c7a83d</t>
-  </si>
-  <si>
-    <t>102f41dd-0d45-4ce7-a6af-5c2d1f842c26</t>
-  </si>
-  <si>
-    <t>bfa70dda-39b0-482c-9f19-175138110498</t>
-  </si>
-  <si>
-    <t>6fbba649-363d-4099-b8f9-b6067bea0afd</t>
-  </si>
-  <si>
-    <t>b1a1a81c-1d86-41fa-af48-ffc6abe5b059</t>
-  </si>
-  <si>
-    <t>2cfcb1d7-6fd7-4eef-9585-3e9b09bf6488</t>
-  </si>
-  <si>
-    <t>acbf10f7-de24-4343-a728-e8c826669236</t>
-  </si>
-  <si>
-    <t>89cfdcbd-e2ce-4c16-ac41-fed5a128b66b</t>
-  </si>
-  <si>
-    <t>7cca863c-66f6-442a-b8ec-b8c4922bba20</t>
-  </si>
-  <si>
-    <t>657dc1f9-b0d0-44ce-9ad2-dd6fbab80fd0</t>
-  </si>
-  <si>
-    <t>322d1ad1-b094-4283-b491-14093254f650</t>
-  </si>
-  <si>
-    <t>43d03565-5ed1-4da3-9a08-1b9ed2b47fe9</t>
-  </si>
-  <si>
-    <t>31a4c801-09ee-4880-8fc7-702efcd4c0f2</t>
-  </si>
-  <si>
-    <t>fe9800c6-fbcb-4717-8842-5201b13ebdcc</t>
-  </si>
-  <si>
-    <t>cc0dc483-59af-4feb-a418-27322d84b491</t>
-  </si>
-  <si>
-    <t>b45df614-1b68-41ee-b30a-a1abbedef451</t>
-  </si>
-  <si>
-    <t>13fa0773-4ff4-44cd-83ea-dd1c8fb4be7d</t>
-  </si>
-  <si>
-    <t>274f1af7-3822-4b31-81a4-8eba582c891d</t>
-  </si>
-  <si>
-    <t>f63a83ae-061b-473a-8337-a1302592c15e</t>
-  </si>
-  <si>
-    <t>738bbb79-ae83-4e84-9133-69c2ebf52343</t>
-  </si>
-  <si>
-    <t>d1675715-e03e-4c49-b7bb-0a66ee4d33e0</t>
-  </si>
-  <si>
-    <t>1289b502-1083-447b-88ba-139e208fe965</t>
-  </si>
-  <si>
-    <t>8f6949f0-2095-4454-94be-484fa7bc5231</t>
-  </si>
-  <si>
-    <t>54a99b8d-e7b6-4c65-8779-dff0b5324252</t>
-  </si>
-  <si>
-    <t>5a90b684-8cdf-44e3-9e98-c15eb00eb936</t>
-  </si>
-  <si>
-    <t>90302c74-7e08-4b1a-8245-12e8c69c0e5c</t>
-  </si>
-  <si>
-    <t>18d2f2fc-e670-4da8-ad9b-547c8b948841</t>
-  </si>
-  <si>
-    <t>913fe345-f3cf-4256-9737-c96376b86db3</t>
-  </si>
-  <si>
-    <t>ac7a3b7b-dbfa-410b-8f7e-0cc9b794dd0f</t>
-  </si>
-  <si>
-    <t>f75f2727-0a1f-49f8-bac2-80f343fd61ab</t>
-  </si>
-  <si>
-    <t>2333fe94-b78e-4920-b0ff-00b44a6bf31a</t>
-  </si>
-  <si>
-    <t>ae110049-9103-4cda-9400-69954df0cdee</t>
-  </si>
-  <si>
-    <t>aa6448bb-d2a0-4258-9d12-1a1b333a716e</t>
-  </si>
-  <si>
-    <t>3b0bc9e7-3e4a-4e74-b176-cd55c1c5460c</t>
-  </si>
-  <si>
-    <t>32136308-2b82-4bca-abaf-906278eaa398</t>
-  </si>
-  <si>
-    <t>bff3cb45-386b-4db1-a009-bd948450c280</t>
-  </si>
-  <si>
-    <t>acc73c54-5a70-4b29-97ae-bbb59e53f78f</t>
-  </si>
-  <si>
-    <t>62d4ed6d-d248-456f-a636-324d00672383</t>
-  </si>
-  <si>
-    <t>d481a342-eb03-410f-8284-c82c267d275a</t>
-  </si>
-  <si>
-    <t>15f6574d-e0e4-486c-97da-f640be9112a2</t>
-  </si>
-  <si>
-    <t>773de992-a93b-4cb8-bdb9-e08e5f1df15c</t>
-  </si>
-  <si>
-    <t>747bf828-3413-4258-87f6-677a67cf8254</t>
-  </si>
-  <si>
-    <t>592bb940-ab4a-4e10-bbe1-184ed3682441</t>
-  </si>
-  <si>
-    <t>6d7bd00d-76fe-4a60-8a9b-00c6fd63dac6</t>
-  </si>
-  <si>
-    <t>16e58e2b-610a-4c02-a35d-b96482b70250</t>
-  </si>
-  <si>
-    <t>78f69063-7a1f-4366-94b3-4998cac85e9c</t>
-  </si>
-  <si>
-    <t>f5f74798-5b6d-47cd-9db4-ed9a441270ed</t>
-  </si>
-  <si>
-    <t>639ff48e-05fc-4d4a-92ba-3f1ae345e62e</t>
-  </si>
-  <si>
-    <t>13ae3718-ada0-4e99-b1fb-7260c1031a0e</t>
-  </si>
-  <si>
-    <t>ae559464-a101-412a-977e-e90e7537da4b</t>
-  </si>
-  <si>
-    <t>e19154e2-4e5c-4aac-9157-7dc7a8a9c367</t>
-  </si>
-  <si>
-    <t>059a4218-9175-4b89-9220-70ea93410073</t>
-  </si>
-  <si>
-    <t>ca766758-4f4a-498c-acca-586d3ca825a6</t>
-  </si>
-  <si>
-    <t>e0920e6a-6194-4d0f-bf09-34e1c23d228c</t>
-  </si>
-  <si>
-    <t>ea20072b-af3d-47b5-b9a1-f1d1715a8ce3</t>
-  </si>
-  <si>
-    <t>c176b499-4d1a-4520-9c8a-05f9f5a7b598</t>
-  </si>
-  <si>
-    <t>5e92c621-061c-4bba-9556-a28f12423c0b</t>
-  </si>
-  <si>
-    <t>15bf9c75-057b-4141-bd2e-5fe79228d944</t>
-  </si>
-  <si>
-    <t>157b675a-9ae7-49d5-a1c8-1e541589704a</t>
-  </si>
-  <si>
-    <t>e888432e-83f6-40d2-b73e-3efcdbc97a38</t>
-  </si>
-  <si>
-    <t>dd4a5739-9e5d-4d46-b649-a733109dc4b9</t>
-  </si>
-  <si>
-    <t>fa5175e6-960f-4a60-9dfa-fa654f790407</t>
-  </si>
-  <si>
-    <t>4df21dec-1183-470b-bdb1-4b7143cac73d</t>
-  </si>
-  <si>
-    <t>7d2175ad-21cb-4bcf-a439-ffb6485d66c5</t>
-  </si>
-  <si>
-    <t>9ee93e58-ee70-4e68-9891-d0458a98c154</t>
-  </si>
-  <si>
-    <t>bf5eb3b5-f8f6-441f-891f-a4799dab54e2</t>
-  </si>
-  <si>
-    <t>da2d951d-d64c-4ee1-bddd-f401f230e3a8</t>
-  </si>
-  <si>
-    <t>cea598b5-2955-409c-ab96-bc7a118892d1</t>
-  </si>
-  <si>
-    <t>9a665307-e9be-4fba-b8d5-2750339e5a5c</t>
+    <t>1288895d-d470-4dae-84a1-d5e3ebd619f4</t>
+  </si>
+  <si>
+    <t>4c7163a6-d9aa-47cf-9e3a-9fa2bd81ea78</t>
+  </si>
+  <si>
+    <t>96f91c97-93f8-4513-b513-bd2bdd5361d6</t>
+  </si>
+  <si>
+    <t>5c008b69-f937-4d9c-ad27-baa202c5b0ba</t>
+  </si>
+  <si>
+    <t>4c8b6184-2219-43f7-b506-65dd9ad6cc12</t>
+  </si>
+  <si>
+    <t>14625a44-4935-4590-b6bc-b5a7a211ee7a</t>
+  </si>
+  <si>
+    <t>81eeaad8-cd7a-4c18-96cb-68a8cf50ad49</t>
+  </si>
+  <si>
+    <t>9855d45c-cd3c-4545-8397-46d00a98b04c</t>
+  </si>
+  <si>
+    <t>85c4a92f-1dd5-467c-977f-8d2d18d702cb</t>
+  </si>
+  <si>
+    <t>0e244627-1bbd-42cb-a128-7d0ce82af781</t>
+  </si>
+  <si>
+    <t>1b9eb44c-404a-46cb-94b2-99ca1b9a6e83</t>
+  </si>
+  <si>
+    <t>1c32af25-7c0b-4359-a7ec-e65ee767732b</t>
+  </si>
+  <si>
+    <t>9e2e6da4-f86f-4224-826c-6dad93d0f940</t>
+  </si>
+  <si>
+    <t>7c8bfea7-6cf3-4922-bd02-1eaadbe74ef9</t>
+  </si>
+  <si>
+    <t>3a8a2016-94b6-45de-ad48-d5fdc94d2475</t>
+  </si>
+  <si>
+    <t>2db8c139-2cc3-42b8-bcf0-e1056b6ef285</t>
+  </si>
+  <si>
+    <t>ceb91f4f-e943-4ef6-b661-7df87e34d420</t>
+  </si>
+  <si>
+    <t>eec49e3c-3546-40f3-92e9-40c8b51ff9c9</t>
+  </si>
+  <si>
+    <t>a8c7bcec-1a7f-46bd-9553-1875699fb4cb</t>
+  </si>
+  <si>
+    <t>a98d65ab-baa5-4cb3-b351-dff773fe0a9e</t>
+  </si>
+  <si>
+    <t>e4f871f6-8e7d-40c3-89bd-c4796734d877</t>
+  </si>
+  <si>
+    <t>ed28eba3-38a1-44a4-90a0-2e402284c9c3</t>
+  </si>
+  <si>
+    <t>93ff639f-791b-49ac-a795-cc241aca60a6</t>
+  </si>
+  <si>
+    <t>ac60623f-f1cb-4336-bf58-834b79f03023</t>
+  </si>
+  <si>
+    <t>6e64a0b9-bbb2-4acc-854c-1926772372d1</t>
+  </si>
+  <si>
+    <t>11a059d4-296e-4b0a-b883-b136826163e1</t>
+  </si>
+  <si>
+    <t>b10058e4-5c70-43e1-8e70-33d21791afee</t>
+  </si>
+  <si>
+    <t>96f30cc2-3764-418e-bba6-cc904f5fc7f7</t>
+  </si>
+  <si>
+    <t>a8fedd01-29a6-4e02-b225-990b75f527c0</t>
+  </si>
+  <si>
+    <t>04d497b0-317d-4f0c-a29b-dfee6cc9b1af</t>
+  </si>
+  <si>
+    <t>0910a672-f938-4fa0-a6f2-976b59956483</t>
+  </si>
+  <si>
+    <t>83a2cbd7-2555-45c3-bd37-115a37fe4f45</t>
+  </si>
+  <si>
+    <t>1f29a78d-9da2-4368-bd80-8f3ea823d464</t>
+  </si>
+  <si>
+    <t>29b9463f-f2bf-4583-b7c2-11adc7476f81</t>
+  </si>
+  <si>
+    <t>ff39f9f8-07ee-4a0c-bf67-70f7501b0dc5</t>
+  </si>
+  <si>
+    <t>d547fd43-f2c3-4b59-a26d-4b1f85599e84</t>
+  </si>
+  <si>
+    <t>0ac96154-f845-48d9-99ec-0b9c97bc98d4</t>
+  </si>
+  <si>
+    <t>bf287adb-ed87-41ff-ad96-d9f7f124ad64</t>
+  </si>
+  <si>
+    <t>9e960f58-72c3-4e50-99e9-fc30bf9f4749</t>
+  </si>
+  <si>
+    <t>d0d904c4-5961-43f8-8ee7-ea74c8775222</t>
+  </si>
+  <si>
+    <t>01da5d39-b4b3-473f-90a9-c9223953598c</t>
+  </si>
+  <si>
+    <t>acf84fab-d406-4a0d-a041-419d0275c69d</t>
+  </si>
+  <si>
+    <t>2c29f477-9f89-4da6-9004-3dc77f66330f</t>
+  </si>
+  <si>
+    <t>9a332b7d-0317-47a7-ac92-9d66970a7d86</t>
+  </si>
+  <si>
+    <t>bbcd54b0-7897-4623-aafb-017054f08edf</t>
+  </si>
+  <si>
+    <t>b79ad985-6623-47a3-ba17-c8e6c956f41e</t>
+  </si>
+  <si>
+    <t>6c5d016c-db3a-4d1c-98eb-7e8bef49ae51</t>
+  </si>
+  <si>
+    <t>64c43668-1c16-4dd0-a318-945d8421e8f8</t>
+  </si>
+  <si>
+    <t>a3ee44c9-42f5-4afa-9807-03b0240ea2e1</t>
+  </si>
+  <si>
+    <t>54616e96-30db-4e44-bc4d-c49117cefc3a</t>
+  </si>
+  <si>
+    <t>102a1db9-6ecc-4d09-add0-f21a2f8e9a4e</t>
+  </si>
+  <si>
+    <t>63f0bb6d-0552-40e1-9204-3e759278d487</t>
+  </si>
+  <si>
+    <t>bdfd3a25-91fd-4418-8481-1b69fa6b793a</t>
+  </si>
+  <si>
+    <t>c22ae7d5-cd7f-4883-b6d6-e77361a9eca9</t>
+  </si>
+  <si>
+    <t>6393dbbb-e8a7-431b-ae79-e4870cc59e52</t>
+  </si>
+  <si>
+    <t>2a52dcb9-e211-49f0-90dd-95a39b2c181f</t>
+  </si>
+  <si>
+    <t>803cd07c-271b-429b-a07a-94226eb2f8cb</t>
+  </si>
+  <si>
+    <t>42c37760-22b9-4040-a209-a46c9052212c</t>
+  </si>
+  <si>
+    <t>2ca78489-91fe-447f-a554-6a234ffa8322</t>
+  </si>
+  <si>
+    <t>1bd2a640-4bbf-46ef-849d-38c6ea3828c7</t>
+  </si>
+  <si>
+    <t>b7daa608-db48-4ca7-8efc-a7d5890107f1</t>
+  </si>
+  <si>
+    <t>3200c502-9c50-4039-8815-3d04a636973e</t>
+  </si>
+  <si>
+    <t>b6fff1dc-f1ba-4475-8254-6df16e573145</t>
+  </si>
+  <si>
+    <t>145170ee-c5b1-40bd-8a66-fb1aa9559857</t>
+  </si>
+  <si>
+    <t>bf934751-4c32-4a90-8e5e-0b2735b3234d</t>
+  </si>
+  <si>
+    <t>6405f4ae-0523-436c-b91d-5ab039f927b5</t>
+  </si>
+  <si>
+    <t>1db2c34e-522c-4fa1-a183-a7ff3db0e1d7</t>
+  </si>
+  <si>
+    <t>9adce9b6-8eca-406e-be89-7acd85171185</t>
+  </si>
+  <si>
+    <t>a48f6107-36b9-4ec1-a597-4a7f20bb0ef2</t>
+  </si>
+  <si>
+    <t>a26ef1cd-5628-4e9b-b706-c7330a5bb11f</t>
+  </si>
+  <si>
+    <t>b37bb4d1-7c0d-46c5-820b-2b8c3f2fce43</t>
+  </si>
+  <si>
+    <t>8dce6d44-9e0f-4ab8-b473-24d65b2e3f55</t>
+  </si>
+  <si>
+    <t>c231897d-73fa-4a66-9683-7b15d30beaaa</t>
+  </si>
+  <si>
+    <t>c917fe6f-738c-4f8c-bc4f-f3fcca99cc76</t>
+  </si>
+  <si>
+    <t>843f32fc-41ff-4b6e-be28-133bf88f9b65</t>
+  </si>
+  <si>
+    <t>3625004f-6ab2-4c56-8748-882ae0b161e1</t>
+  </si>
+  <si>
+    <t>0a6b5c94-787e-4b68-a1ef-6a25626f59ef</t>
+  </si>
+  <si>
+    <t>cb319f22-3d46-4039-acdd-a9c165120511</t>
+  </si>
+  <si>
+    <t>64b6de64-f343-4f4b-a90a-76a801520400</t>
+  </si>
+  <si>
+    <t>87b2b202-41c4-4d0f-be9c-60decd1e451c</t>
+  </si>
+  <si>
+    <t>32751de4-756b-453e-bc60-5bd4f862050a</t>
+  </si>
+  <si>
+    <t>560d49c9-786f-4c1c-bf25-fe5a78eb1064</t>
+  </si>
+  <si>
+    <t>3238ffed-bd33-436b-8781-a354c7d197c4</t>
+  </si>
+  <si>
+    <t>5b6f279c-b4a0-4669-b42f-d3634f4d48d3</t>
+  </si>
+  <si>
+    <t>d7e9d93a-4b67-4786-8814-8aa0feefaf9e</t>
+  </si>
+  <si>
+    <t>76116a90-1430-45f9-92cb-f060e758b354</t>
+  </si>
+  <si>
+    <t>cca2bbe1-a503-4e75-aa4b-1fd4b84e45f5</t>
+  </si>
+  <si>
+    <t>68b69369-387d-4b71-be40-cf8366f1f79b</t>
+  </si>
+  <si>
+    <t>749292ac-4019-43c8-b721-1481b2777f4c</t>
+  </si>
+  <si>
+    <t>eb5f64ac-f0be-47c5-8622-434f79f8a015</t>
+  </si>
+  <si>
+    <t>c070f040-419c-4700-95eb-4cd3f2ae7745</t>
+  </si>
+  <si>
+    <t>9644b4ea-a794-44c0-adb4-2dbca29ac115</t>
+  </si>
+  <si>
+    <t>4eee3a36-79c1-41e3-8b3e-c8fe248f1ff3</t>
+  </si>
+  <si>
+    <t>355a5067-9a3c-4a95-87f2-5d89ecbf0ec0</t>
+  </si>
+  <si>
+    <t>d802ecd4-d88b-4ac8-857f-03545b973a2e</t>
+  </si>
+  <si>
+    <t>9bd4291c-999b-4120-9af1-f424052a244d</t>
+  </si>
+  <si>
+    <t>95442059-9484-43d0-81bf-581abbb5d88a</t>
+  </si>
+  <si>
+    <t>7ebee5e3-2cc3-4af0-8f70-9b825cd9f6fd</t>
+  </si>
+  <si>
+    <t>7bf2911f-42fa-4fce-a80c-413ebf491037</t>
+  </si>
+  <si>
+    <t>ffb6b0ac-467b-40ee-9e9f-7dc2090b5caa</t>
+  </si>
+  <si>
+    <t>a0016f59-e8c1-4382-86e9-9298c01ff072</t>
+  </si>
+  <si>
+    <t>4d5da2b4-0737-4016-af77-4e239f9071c3</t>
+  </si>
+  <si>
+    <t>12d35a4f-7331-4dc6-afaa-eb6884296a91</t>
+  </si>
+  <si>
+    <t>1d56e282-8e97-4bd6-be7e-f2c7319a0c90</t>
+  </si>
+  <si>
+    <t>91862b5e-8f7c-427d-91cd-1d50df601b10</t>
+  </si>
+  <si>
+    <t>58a10f15-8593-4392-a238-047d88126e3b</t>
+  </si>
+  <si>
+    <t>b9b32d08-a6df-4349-8b76-ba7384d4f85d</t>
+  </si>
+  <si>
+    <t>5d1c71c4-7513-4abf-9ec3-46ee8a53d92f</t>
+  </si>
+  <si>
+    <t>a348a183-a548-4731-80f3-613214437d1f</t>
+  </si>
+  <si>
+    <t>4885b611-83d2-416f-a1ba-e5175535e3af</t>
+  </si>
+  <si>
+    <t>cb342ed8-df2b-4726-b18a-cf249f3fec31</t>
+  </si>
+  <si>
+    <t>c7cb6da6-5241-410c-b9e3-929f9eb32404</t>
+  </si>
+  <si>
+    <t>7d36523e-ec63-4cc8-80e0-cfc2c3505c46</t>
+  </si>
+  <si>
+    <t>d18102a5-986c-40a2-af53-74c264d5d97e</t>
+  </si>
+  <si>
+    <t>9880f09c-ab11-4d01-ae57-06e8208564c1</t>
+  </si>
+  <si>
+    <t>f5473a1b-02bd-4a03-a2e5-0a13cd2a394f</t>
+  </si>
+  <si>
+    <t>27145a40-9391-4697-bfb9-5fa0e118b576</t>
+  </si>
+  <si>
+    <t>6ee180b3-3c71-4b19-8b2a-505d631b20c5</t>
+  </si>
+  <si>
+    <t>8418bcfd-0b19-490b-88f2-8d64511d4a25</t>
+  </si>
+  <si>
+    <t>7dda387b-7c7a-4cd1-9846-4ccde454f111</t>
+  </si>
+  <si>
+    <t>2242847e-6355-40ff-9fff-c44e19750222</t>
+  </si>
+  <si>
+    <t>8d27c115-90fd-4737-8801-fdbdbb8bed0a</t>
+  </si>
+  <si>
+    <t>1cca39e0-8bb6-4637-80e4-aeaebd990bc0</t>
+  </si>
+  <si>
+    <t>27645f81-1de5-4344-ae25-dcb06a691a52</t>
+  </si>
+  <si>
+    <t>2981b055-8023-49a8-8cae-72cd9ac14027</t>
+  </si>
+  <si>
+    <t>e91e2519-9cba-4eec-8cd6-9764aa67e347</t>
+  </si>
+  <si>
+    <t>305ae574-8500-43c5-ad64-31f05e6c24f2</t>
+  </si>
+  <si>
+    <t>d80a2475-8fc0-4871-b30f-06a6998b62b4</t>
+  </si>
+  <si>
+    <t>99c87f2b-1f0d-4766-aaff-cd392a943766</t>
+  </si>
+  <si>
+    <t>ad4acc8e-21c5-411b-bbed-5d9a0b9565fd</t>
+  </si>
+  <si>
+    <t>57c44bd3-3852-4995-9971-8abf29d82b5e</t>
+  </si>
+  <si>
+    <t>fceaf1b6-29e9-4b5f-9830-bacdedbbad5e</t>
+  </si>
+  <si>
+    <t>baea87ee-7ab3-4d0b-ba64-4716968f302d</t>
+  </si>
+  <si>
+    <t>cb968ca5-5e2b-4d0a-a974-3f87bebaf4b6</t>
+  </si>
+  <si>
+    <t>aa1b4e1d-728d-4202-aecf-d388576e98c7</t>
+  </si>
+  <si>
+    <t>bc42ab3e-92c2-407b-b157-66690958984d</t>
+  </si>
+  <si>
+    <t>30fb4b6d-86a5-485a-abbb-313dafac42ab</t>
+  </si>
+  <si>
+    <t>c2d3f5e0-70ef-47a9-b4e1-da37be86b605</t>
+  </si>
+  <si>
+    <t>b6cf6439-c5e7-4bdb-af86-cd9f96d7f8bc</t>
+  </si>
+  <si>
+    <t>d035dfd0-f719-4843-9f51-d8d7563cac28</t>
+  </si>
+  <si>
+    <t>cfb8f3e3-23a2-49ea-935c-c92a673d4972</t>
+  </si>
+  <si>
+    <t>be47d0d1-3561-47df-9223-8f6c8512f7e2</t>
+  </si>
+  <si>
+    <t>91ef45d7-76e7-4b44-8ab4-cd1bb6a6457a</t>
+  </si>
+  <si>
+    <t>e6dcd986-dab0-48de-bd6b-2c0660ef136b</t>
+  </si>
+  <si>
+    <t>5d9b3eb0-204c-4e15-b143-7e0f44a6d7bf</t>
+  </si>
+  <si>
+    <t>b20d42f3-8efe-4e1f-a9ab-a3d9599bd67e</t>
+  </si>
+  <si>
+    <t>5048b0c0-e993-487f-8435-b8178d0e833e</t>
+  </si>
+  <si>
+    <t>3d805d8a-ccff-4891-832a-f42ad83e7111</t>
+  </si>
+  <si>
+    <t>83a72e67-a1ab-4679-bada-5c5295b5cd69</t>
   </si>
   <si>
     <t>Value NA in ASSISTANCE_REQUESTED not in allowed list ('YES','NO')</t>
   </si>
   <si>
-    <t>16899917-eecd-4635-8725-606e5f31be16</t>
-  </si>
-  <si>
-    <t>48181a68-0854-465f-88c9-0e22e04fecfa</t>
-  </si>
-  <si>
-    <t>21e682ba-4c7a-4af3-b111-40b5e9e3fd47</t>
-  </si>
-  <si>
-    <t>bcaac1cb-b6c5-4f92-9ad5-836778c07456</t>
-  </si>
-  <si>
-    <t>07a02f02-63b0-4b3b-b30f-b68265ad5861</t>
-  </si>
-  <si>
-    <t>0a0f9232-425e-47df-b2d1-df0560ee208d</t>
-  </si>
-  <si>
-    <t>ac7c52a5-025e-400c-81c1-fef571d3d998</t>
-  </si>
-  <si>
-    <t>b073fcdd-b71f-429e-b0f1-3aad865d577f</t>
-  </si>
-  <si>
-    <t>95b4f80d-dba3-4749-b821-5318423ea01a</t>
-  </si>
-  <si>
-    <t>a8f48410-3f0e-4db4-a86b-e0663c6d051e</t>
-  </si>
-  <si>
-    <t>c1ec72d4-ef29-4466-8e79-0ed12e6558fe</t>
-  </si>
-  <si>
-    <t>18efaacd-f900-4423-9d5a-32c4d7c909b1</t>
-  </si>
-  <si>
-    <t>114241c1-4a6c-4c5c-a462-6f92184acc61</t>
-  </si>
-  <si>
-    <t>e5e24fe9-c96a-46fe-8378-e3d023f9c03b</t>
-  </si>
-  <si>
-    <t>7bec8945-d2de-42e5-aedc-b4063a9ef1e3</t>
-  </si>
-  <si>
-    <t>f73d3a86-6ef3-40be-85f6-5db00a0a5d71</t>
-  </si>
-  <si>
-    <t>3eac893a-60d1-43ea-a3e3-1a772f4158bb</t>
-  </si>
-  <si>
-    <t>0e11ff0d-5d75-4952-a6b3-170a7c402562</t>
-  </si>
-  <si>
-    <t>e523f4f6-127a-4e27-a1be-ef747d3023eb</t>
-  </si>
-  <si>
-    <t>4e6174bf-7675-4116-bcd1-53a1aac2ae3e</t>
-  </si>
-  <si>
-    <t>eaedcf38-761d-4509-9243-1ee3c852b111</t>
-  </si>
-  <si>
-    <t>d064b055-5a1e-4a89-8734-9f52f3a35606</t>
-  </si>
-  <si>
-    <t>eea3e96d-fcbd-4798-9888-79075e80a9fb</t>
-  </si>
-  <si>
-    <t>cf98ab22-da3d-4da3-b918-5b5dd6b61fd9</t>
-  </si>
-  <si>
-    <t>c69a0aef-8cc3-4e30-9003-3ac816172f4b</t>
-  </si>
-  <si>
-    <t>644d2337-6102-43ea-b195-f27f3cc01cbe</t>
-  </si>
-  <si>
-    <t>0f4802d5-51c9-4ace-a974-d268df1970e6</t>
-  </si>
-  <si>
-    <t>1aa8dde9-6380-4073-90d2-e1caed1260cb</t>
-  </si>
-  <si>
-    <t>f617ab50-caed-4e55-befa-1083a8db549b</t>
-  </si>
-  <si>
-    <t>00e346ef-3e28-4a69-a3a7-ffb3d945b051</t>
-  </si>
-  <si>
-    <t>0a743264-f74e-4479-aa4c-dc9f3ba87f7f</t>
-  </si>
-  <si>
-    <t>d3fad977-474f-46d2-baea-304e48cfbde6</t>
-  </si>
-  <si>
-    <t>2470451f-929e-41c4-8ab8-40728361b434</t>
-  </si>
-  <si>
-    <t>b96037de-9910-467f-8f33-e52ffa1b254d</t>
-  </si>
-  <si>
-    <t>35b47d7d-ef5e-41bc-8672-21ce892c8486</t>
-  </si>
-  <si>
-    <t>6efb2092-8514-4568-ad86-654e1b6aa441</t>
-  </si>
-  <si>
-    <t>d0f60ed4-f905-4326-802a-0f63cc00dd46</t>
-  </si>
-  <si>
-    <t>02e19ed1-2376-4740-9ec4-c96e933c27c6</t>
-  </si>
-  <si>
-    <t>746d15e9-c38a-4340-a68a-f73cb2af61ed</t>
-  </si>
-  <si>
-    <t>27f54394-0737-4e59-a62a-bfd0aab32ce2</t>
-  </si>
-  <si>
-    <t>2e30b91a-8782-471c-a33b-5838e56cd732</t>
-  </si>
-  <si>
-    <t>9df1c277-fc7b-4ed8-82ab-58191e73e9ac</t>
-  </si>
-  <si>
-    <t>1292f261-3964-4371-a05f-ce5202525ac6</t>
-  </si>
-  <si>
-    <t>00995032-bb64-4748-8d42-a58aa528ac25</t>
-  </si>
-  <si>
-    <t>5bd30868-ccb1-420a-8ea5-588543f69b03</t>
-  </si>
-  <si>
-    <t>f3d6d1d3-ac54-4d03-8c45-c5beb9665275</t>
-  </si>
-  <si>
-    <t>0a0cae76-ffc5-419f-8fe9-0f33ca05c91b</t>
-  </si>
-  <si>
-    <t>56659399-1b47-466e-8dbb-f0d6cfdfa508</t>
-  </si>
-  <si>
-    <t>8a26fd96-3bcb-486c-886a-ebead4b98f1d</t>
-  </si>
-  <si>
-    <t>ebd37160-4510-432f-848e-d5d9e34ed21c</t>
-  </si>
-  <si>
-    <t>33ba86b2-fd91-4a6e-b911-29e514ade927</t>
-  </si>
-  <si>
-    <t>90812b32-17f1-4c53-9411-953ce08fbadc</t>
-  </si>
-  <si>
-    <t>1dc217b7-ca84-457b-8460-3e32a7e826fe</t>
-  </si>
-  <si>
-    <t>09c391ab-9f3a-439e-b7d7-6ab75879b46b</t>
-  </si>
-  <si>
-    <t>44875512-7148-41b0-9017-42e64560ecd2</t>
-  </si>
-  <si>
-    <t>84721eae-fb04-4db1-b6ce-a5aebf51301a</t>
-  </si>
-  <si>
-    <t>25207b0a-f238-46b6-84ad-6c8d4b0dcf83</t>
-  </si>
-  <si>
-    <t>5e2cda43-fd3e-4de4-85ea-6e664c43dda5</t>
-  </si>
-  <si>
-    <t>7c5cf17c-42dc-477d-bb04-279d4cf13f6f</t>
+    <t>a81ea571-e9e9-4cb2-8ded-add1fe77eaa0</t>
+  </si>
+  <si>
+    <t>3e6d7410-7bab-4719-bf6f-ff7f5e321d02</t>
+  </si>
+  <si>
+    <t>00b7bb88-9c40-45fb-ba1a-df0f49c3d817</t>
+  </si>
+  <si>
+    <t>2fdee946-c4f4-46ac-aab9-fe8a5bac588e</t>
+  </si>
+  <si>
+    <t>3cd1d54a-d3b9-4413-9ce8-f6b29bf3bd7a</t>
+  </si>
+  <si>
+    <t>2440e066-0085-451d-bff3-ec68c339dc01</t>
+  </si>
+  <si>
+    <t>66bcbbeb-c56c-4ef8-9ff9-b5208ef41446</t>
+  </si>
+  <si>
+    <t>c6be2714-860e-489f-94c9-673c4eed05c0</t>
+  </si>
+  <si>
+    <t>eb779c4a-acfd-47fe-b049-086c378503ed</t>
+  </si>
+  <si>
+    <t>6057b14e-c1e6-4a27-8aca-1bc287ec00d8</t>
+  </si>
+  <si>
+    <t>daedfab6-bf91-488f-8cc4-0c93e7269021</t>
+  </si>
+  <si>
+    <t>e4874016-a12b-4ae6-8a59-498e4e718061</t>
+  </si>
+  <si>
+    <t>20799606-e361-4484-871d-7e02002517f7</t>
+  </si>
+  <si>
+    <t>fff6de5d-a60a-4b8e-8cb2-52070a6ca5d3</t>
+  </si>
+  <si>
+    <t>bded1efc-c3f0-4a75-8884-180f6f6dc60d</t>
+  </si>
+  <si>
+    <t>51469c6a-1b60-471e-a0f1-6fc96f392522</t>
+  </si>
+  <si>
+    <t>d28dffb7-07e4-4a37-9466-54369983d1c3</t>
+  </si>
+  <si>
+    <t>60fd09d2-9926-499e-bbf8-60f447c7a7ea</t>
+  </si>
+  <si>
+    <t>ac73f958-aac5-48e7-a49b-e563ce2f7bd8</t>
+  </si>
+  <si>
+    <t>73279d26-95af-42f0-beb4-680d3561c74d</t>
+  </si>
+  <si>
+    <t>d871710b-69c0-46f5-a7bf-d0b8e33f5f80</t>
+  </si>
+  <si>
+    <t>723c4096-a9b3-4816-a467-457c8a78e119</t>
+  </si>
+  <si>
+    <t>d09d19e2-707a-409c-ac4f-15c61603979f</t>
+  </si>
+  <si>
+    <t>58faf8ea-6a15-4788-acd5-d125938fd449</t>
+  </si>
+  <si>
+    <t>32b9e95e-219d-4c1b-b8a8-8d3f3b57f7ed</t>
+  </si>
+  <si>
+    <t>1e344a1b-2129-41c9-9e50-e75d165349ce</t>
+  </si>
+  <si>
+    <t>e84bf4c1-7df1-44e1-9d4a-1cb8c8942c2f</t>
+  </si>
+  <si>
+    <t>71c77cbd-764f-4d49-b3df-02b172a2659c</t>
+  </si>
+  <si>
+    <t>34067f77-bd7f-4c7f-8d3f-6f90306a6c01</t>
+  </si>
+  <si>
+    <t>6696342c-a3bb-48c8-8840-186c4e6795de</t>
+  </si>
+  <si>
+    <t>86a29338-44eb-45fb-93e1-47326e147579</t>
+  </si>
+  <si>
+    <t>0857756e-a7b6-4f4c-a421-a546049384ba</t>
+  </si>
+  <si>
+    <t>c5894a7c-da58-47de-a7f6-7a7efb39be6d</t>
+  </si>
+  <si>
+    <t>80264d3e-d0e6-4386-9f24-4dba318090c8</t>
+  </si>
+  <si>
+    <t>0a47eea3-7e97-4158-acf0-d1dca5ad745c</t>
+  </si>
+  <si>
+    <t>34ade936-d50c-4b8d-b240-07708a10496a</t>
+  </si>
+  <si>
+    <t>16bdf127-c860-472c-990f-09c3a75d74c6</t>
+  </si>
+  <si>
+    <t>11564a2f-0eeb-4c03-86bf-c18ecd5c1102</t>
+  </si>
+  <si>
+    <t>370875c3-01d4-4a2c-9f2f-5dce37eff55f</t>
+  </si>
+  <si>
+    <t>1ed16ef2-7c36-486a-9c0f-c3564152f610</t>
+  </si>
+  <si>
+    <t>a67486e7-263a-4ca6-8b6d-0bb632281f51</t>
+  </si>
+  <si>
+    <t>5eb56ce5-933d-48a2-9c45-304be7dc1bec</t>
+  </si>
+  <si>
+    <t>9efe841a-e38c-4b05-a346-a615de2650a6</t>
+  </si>
+  <si>
+    <t>00fd8543-9059-4d39-a720-340139b2c3dd</t>
+  </si>
+  <si>
+    <t>553b6df8-dbef-4e40-b3da-5bf919296a97</t>
+  </si>
+  <si>
+    <t>e1449fa0-6f7c-4e48-866b-cb8f22172065</t>
+  </si>
+  <si>
+    <t>a15fc3f3-5a0c-42f0-8397-b1a168d7732b</t>
+  </si>
+  <si>
+    <t>d33eb40b-3861-4b37-91c6-ecfb3a73b865</t>
+  </si>
+  <si>
+    <t>da2bf171-ddc3-436d-9994-cb9a1f77871c</t>
+  </si>
+  <si>
+    <t>f6230d6b-fb26-4e98-8c33-86ec2c8295ea</t>
+  </si>
+  <si>
+    <t>1aa78e34-d587-47e3-a321-85f06fa7acd3</t>
+  </si>
+  <si>
+    <t>de6c6c68-ffec-4948-9b57-904a00f6b6ae</t>
+  </si>
+  <si>
+    <t>562df619-456c-4a51-9a6c-aa06db370dde</t>
+  </si>
+  <si>
+    <t>37818824-1eb0-4253-85b3-7f60a4177ffa</t>
+  </si>
+  <si>
+    <t>a47e2bcb-699d-45f6-b521-97b6475bf32b</t>
+  </si>
+  <si>
+    <t>39cc9eed-1173-4bc7-9ea0-6702473ac823</t>
+  </si>
+  <si>
+    <t>bdec8c69-e0ae-424b-a714-ea75048e8e0f</t>
+  </si>
+  <si>
+    <t>9a0ddb48-9d07-4e3c-91cd-6b38928e3d7b</t>
+  </si>
+  <si>
+    <t>7d076da4-9c99-4aab-9c0f-0b6cf70a4ff0</t>
   </si>
 </sst>
 </file>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -66,19 +66,19 @@
     <t>elaboration:2</t>
   </si>
   <si>
-    <t>05e8feaa-0bed-5909-a817-39812494b361</t>
-  </si>
-  <si>
     <t>05269d28-15ae-5bd6-bd88-f949ccfa52d7</t>
   </si>
   <si>
-    <t>Session 05e8feaa-0bed-5909-a817-39812494b361 markdown diagnostics not provided (not completed?)</t>
+    <t>7bab389e-54af-5a13-a39f-079abdc73a48</t>
+  </si>
+  <si>
+    <t>Session 05269d28-15ae-5bd6-bd88-f949ccfa52d7 markdown diagnostics not provided (not completed?)</t>
   </si>
   <si>
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
   </si>
   <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx</t>
+    <t>/home/snshah/workspaces/github.com/qe-collaborative-services/1115-hub/support/assurance/ahc-hrsn-elt/screening/synthetic-content/JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx</t>
   </si>
   <si>
     <t>ERROR</t>
@@ -132,7 +132,7 @@
     <t>591191c7-f693-5957-8734-ac87151ca981</t>
   </si>
   <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2023-12-25-valid.xlsx</t>
+    <t>/home/snshah/workspaces/github.com/qe-collaborative-services/1115-hub/support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2023-12-25-valid.xlsx</t>
   </si>
   <si>
     <t>3b4eb0e5-6239-537a-8e67-e50e172e72a2</t>
@@ -153,7 +153,7 @@
     <t>a530fe1b-57ef-5a90-8bea-835ece2483da</t>
   </si>
   <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/jrchc-hrsn-file-spec.xlsx</t>
+    <t>/home/snshah/workspaces/github.com/qe-collaborative-services/1115-hub/support/assurance/ahc-hrsn-elt/screening/synthetic-content/jrchc-hrsn-file-spec.xlsx</t>
   </si>
   <si>
     <t>a3fe7098-8ae8-5612-81ac-cbe10780c19b</t>
@@ -201,7 +201,7 @@
     <t>c302047e-21cf-5059-a32c-e81a9bd3a9b9</t>
   </si>
   <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
+    <t>/home/snshah/workspaces/github.com/qe-collaborative-services/1115-hub/support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
   </si>
   <si>
     <t>3252fee6-3a9a-5f4c-81c6-739201046d79</t>
@@ -249,13 +249,13 @@
     <t>0adb81bc-3df2-5f86-99cc-2d20e1dd5efd</t>
   </si>
   <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail.csv</t>
+    <t>/home/snshah/workspaces/github.com/qe-collaborative-services/1115-hub/support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail.csv</t>
   </si>
   <si>
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>14ec0063-7360-4d62-be4c-2f49738e623f</t>
+    <t>17843c58-37af-452e-b0bf-c9344cc4a18b</t>
   </si>
   <si>
     <t>Missing Column</t>
@@ -267,7 +267,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>6e9d04bb-4f75-4883-8639-20ae9b86180e</t>
+    <t>0a92581a-dec5-46cb-af86-7aafa636ff8d</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -276,7 +276,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>30caaf6c-03b3-4c0d-8def-03af6b48e515</t>
+    <t>1c61c3d9-f2db-47d4-9749-1b36b377d8be</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -285,7 +285,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>443f5916-49c0-4036-a957-77016ca8cc23</t>
+    <t>d9562870-0850-48cb-975a-85c582c89288</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -294,7 +294,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>d4632564-4dc6-4961-a164-9b7b291d8760</t>
+    <t>38d66903-9b78-4151-a5cd-fa0e11d476d4</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -303,7 +303,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>e28b592c-0f1a-4be1-94a7-943895a4176a</t>
+    <t>f532deaa-e41f-4315-976f-25365e8595a5</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -312,7 +312,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>c6cb5fe2-8832-4f68-bfcc-66ccd8e55b17</t>
+    <t>aed4f471-ddad-429a-8cac-93094e9b20e8</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -321,7 +321,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>8116555c-8307-4773-8b0e-e293c5d4dc04</t>
+    <t>43885a11-1961-4001-8aed-5572eec05074</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -330,7 +330,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>85e71def-7059-4002-9cfb-f23de73e6417</t>
+    <t>08c627b8-3cf8-4560-9c8e-89beefee38ce</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -339,7 +339,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>d02b7e19-a3ed-428c-96d1-87af9526d558</t>
+    <t>847ff20a-0686-4e95-a53b-747a70ae3948</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -348,7 +348,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>5b3e8525-f32a-4787-bda0-9c1c3925efc7</t>
+    <t>6eed13f5-a146-4498-b33e-1228cf4b852b</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -357,7 +357,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>df8cb8ef-e5f6-4ff2-81ee-c4e8b67b76df</t>
+    <t>a395d15e-2bfd-40b6-b69c-2c359d90ae87</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -366,7 +366,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>9b151a91-f66d-424c-9415-dd53f54bfa48</t>
+    <t>eaf67770-2fb7-4855-bd5f-7be64a39f428</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -375,7 +375,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>3f25232e-f6ee-40dc-96e9-bfd05436839b</t>
+    <t>a7c02631-3023-4ad3-a0e0-06701d1e65c0</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -384,7 +384,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>4625e5be-dbe8-4926-88f2-4ae020a2d6df</t>
+    <t>3bf41967-9a22-4859-bf91-bfd1b82a802a</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -393,7 +393,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>6a8a558c-7827-4b0b-82ce-41aaa2000dac</t>
+    <t>bdf91f6e-02a0-4a43-80a6-cfd902965e5d</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -402,7 +402,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>83f4c510-032b-45bd-8748-58831f88ae38</t>
+    <t>32183022-6aec-46a2-9068-1efdb23ff741</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -411,7 +411,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>f2ec62c5-6d98-4a28-8b41-2f3e9a98fef6</t>
+    <t>27af204a-d36f-44a6-9542-d6ee7b97275e</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -420,7 +420,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>c8dba378-3986-49aa-bde4-3e66a7b799e1</t>
+    <t>acc7468f-7bc2-45dc-9c07-d7d489e7784e</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -429,7 +429,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>ec9e6a0b-bd83-4d8f-83c9-197e6a3823a8</t>
+    <t>1946d1e7-a043-4263-bbb0-21f71f6ac997</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -438,7 +438,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
   </si>
   <si>
-    <t>8b46621d-0bbe-4d3f-a429-2a126c5fdf17</t>
+    <t>ef91eaf4-b32f-4ab9-8516-4d30a0b3a521</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -450,13 +450,13 @@
     <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
   </si>
   <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2023-12-12-valid.csv</t>
+    <t>/home/snshah/workspaces/github.com/qe-collaborative-services/1115-hub/support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2023-12-12-valid.csv</t>
   </si>
   <si>
     <t>ahc_hrsn_2023_12_12_valid</t>
   </si>
   <si>
-    <t>bf7580e1-db19-49b9-a246-8042e874e917</t>
+    <t>89a58da9-df99-42c3-b76a-fee16b2afa62</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -474,7 +474,7 @@
     <t>Use only allowed values '71802-3','96778-6' in QUESTION_CODE</t>
   </si>
   <si>
-    <t>d7bfe5ab-7d4d-45a2-8412-6d9cd37e1276</t>
+    <t>c7c06103-01a3-4dc2-9692-aa54b2563314</t>
   </si>
   <si>
     <t>Value 88122-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -483,7 +483,7 @@
     <t>88122-7</t>
   </si>
   <si>
-    <t>dcacec96-3e03-4750-b889-bf1aa5be2eaf</t>
+    <t>a0e3f342-c04c-4e3b-9550-d28702132752</t>
   </si>
   <si>
     <t>Value 88123-5 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -492,7 +492,7 @@
     <t>88123-5</t>
   </si>
   <si>
-    <t>4a65b050-9ff3-4402-8796-a2dce938eae8</t>
+    <t>d6cb33a7-9c17-4272-98c4-91085fe44fb0</t>
   </si>
   <si>
     <t>Value 93030-5 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -501,7 +501,7 @@
     <t>93030-5</t>
   </si>
   <si>
-    <t>4f6d275c-d68d-4d2d-bf51-d069b9ad8d55</t>
+    <t>29b8baec-dde3-49de-a272-59d9f8f2dc29</t>
   </si>
   <si>
     <t>Value 96779-4 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -510,7 +510,7 @@
     <t>96779-4</t>
   </si>
   <si>
-    <t>07508de0-5216-4155-96b6-66dab7e225df</t>
+    <t>98882e18-7bc8-4162-80d0-849c48f9341a</t>
   </si>
   <si>
     <t>Value 95618-5 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -519,7 +519,7 @@
     <t>95618-5</t>
   </si>
   <si>
-    <t>1670cdd4-53eb-49ce-81c1-5bdabe3a89eb</t>
+    <t>8b41abc1-ff92-496d-a8ff-91712209c47a</t>
   </si>
   <si>
     <t>Value 95617-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -528,7 +528,7 @@
     <t>95617-7</t>
   </si>
   <si>
-    <t>77cfa47f-5697-4993-aa78-56bd911fb347</t>
+    <t>b8b45cf2-5f1b-4102-af20-fb3b6148a697</t>
   </si>
   <si>
     <t>Value 95616-9 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -537,7 +537,7 @@
     <t>95616-9</t>
   </si>
   <si>
-    <t>fc58f097-cd42-4d17-a6f0-d564c45d6697</t>
+    <t>adf5776d-8785-4b00-b9bf-1498f36be75d</t>
   </si>
   <si>
     <t>Value 95615-1 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -546,7 +546,7 @@
     <t>95615-1</t>
   </si>
   <si>
-    <t>bc51a352-9d2e-47b7-8805-8cc56d7ff429</t>
+    <t>7e9dedf3-995a-4e36-b3ad-2139f1f990a1</t>
   </si>
   <si>
     <t>Value 76513-1 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -555,7 +555,7 @@
     <t>76513-1</t>
   </si>
   <si>
-    <t>c47237b7-e08d-46c1-bb9c-5232484e88b2</t>
+    <t>59de9820-bce8-4694-a50c-60238f5b6cdc</t>
   </si>
   <si>
     <t>Value 96780-2 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -564,7 +564,7 @@
     <t>96780-2</t>
   </si>
   <si>
-    <t>56778f4b-43b5-4d74-af88-c6032b360bfe</t>
+    <t>6d9fb301-17bd-4360-9e94-a41c76178c05</t>
   </si>
   <si>
     <t>Value 96781-0 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -573,7 +573,7 @@
     <t>96781-0</t>
   </si>
   <si>
-    <t>016bc7cd-06e8-4fe6-aa21-45463e9f8283</t>
+    <t>9e3d981f-4e7e-49e9-98ad-2352118f2c10</t>
   </si>
   <si>
     <t>Value 93159-2	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -582,7 +582,7 @@
     <t>93159-2	</t>
   </si>
   <si>
-    <t>5f22c57d-bde3-4df5-a673-84c1464507e9</t>
+    <t>06bee207-f171-493f-bac9-0f2595e99308</t>
   </si>
   <si>
     <t>Value 97027-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -591,7 +591,7 @@
     <t>97027-7</t>
   </si>
   <si>
-    <t>997f92ac-cebe-4aa2-a293-5ccee9d9bf1e</t>
+    <t>ac51bcdb-1729-42cc-a5e0-8cc052967dad</t>
   </si>
   <si>
     <t>Value 96782-8	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -600,7 +600,7 @@
     <t>96782-8	</t>
   </si>
   <si>
-    <t>33816771-a419-4f72-bf9a-22aea27299e6</t>
+    <t>8208472d-aab3-458d-8635-d2ba521a56aa</t>
   </si>
   <si>
     <t>Value 89555-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -609,7 +609,7 @@
     <t>89555-7</t>
   </si>
   <si>
-    <t>b8fb5dca-89af-4ae6-8b99-b3d128965b27</t>
+    <t>e808a3e6-0b6f-4d64-a7e9-1b689ecd7718</t>
   </si>
   <si>
     <t>Value 68516-4	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -618,7 +618,7 @@
     <t>68516-4	</t>
   </si>
   <si>
-    <t>2d0c71c3-87de-4296-b083-a0b65a072832</t>
+    <t>1bc09197-07ba-447f-a2cb-1a96f88b2593</t>
   </si>
   <si>
     <t>Value 68517-2 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -627,7 +627,7 @@
     <t>68517-2</t>
   </si>
   <si>
-    <t>f1ec6400-4dcb-4a2d-af5c-a3840376d25f</t>
+    <t>62477dc6-e4c8-46c8-9ac9-5ae4e13042e8</t>
   </si>
   <si>
     <t>Value 96842-0 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -636,7 +636,7 @@
     <t>96842-0</t>
   </si>
   <si>
-    <t>0dd88bbf-a190-4ae7-a3b2-7af71e0b4a9e</t>
+    <t>2e55d592-ee8e-40da-ab23-e8552bce17de</t>
   </si>
   <si>
     <t>Value 95530-2 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -645,7 +645,7 @@
     <t>95530-2</t>
   </si>
   <si>
-    <t>6cef0fe9-49fc-4fee-8980-543be3096482</t>
+    <t>a52cb32c-4978-4067-b1d2-cf4cc4bb1a7d</t>
   </si>
   <si>
     <t>Value 68524-8 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -654,7 +654,7 @@
     <t>68524-8</t>
   </si>
   <si>
-    <t>f6b0b9c1-2292-44f4-8fcb-e195a9850c67</t>
+    <t>619ffaf9-c38e-40fa-b85b-e499b2de57b1</t>
   </si>
   <si>
     <t>Value 44250-9 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -663,7 +663,7 @@
     <t>44250-9</t>
   </si>
   <si>
-    <t>ca23be51-73d4-4944-bfe5-8c2cb7c4c0ca</t>
+    <t>d66ce610-6f17-43d4-bea6-5d017c21b78d</t>
   </si>
   <si>
     <t>Value 44255-8 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -672,7 +672,7 @@
     <t>44255-8</t>
   </si>
   <si>
-    <t>e68affc6-37e8-4a92-a3d3-44d3a91d3bdf</t>
+    <t>d05e89d4-756c-4c0f-b347-bb553c75a658</t>
   </si>
   <si>
     <t>Value 93038-8 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -681,7 +681,7 @@
     <t>93038-8</t>
   </si>
   <si>
-    <t>f3002fad-585b-4cb6-8dc8-080fc8f3dd52</t>
+    <t>4766624d-ae36-45b9-8bfe-635d8ec19293</t>
   </si>
   <si>
     <t>Value 69858-9 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -690,7 +690,7 @@
     <t>69858-9</t>
   </si>
   <si>
-    <t>6b4efeee-4ef8-475f-b23b-e3e5bc564b1b</t>
+    <t>183e7b05-a7fc-4c36-a27c-b8977b0b0871</t>
   </si>
   <si>
     <t>Value 69861-3	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -699,7 +699,7 @@
     <t>69861-3	</t>
   </si>
   <si>
-    <t>9de688ba-1689-42e8-be03-ff743ab3532d</t>
+    <t>db64ac39-6a9d-4c3b-bcae-fe0c36afb29d</t>
   </si>
   <si>
     <t>Value false in NEED_INDICATED not in allowed list ('TRUE','FALSE')</t>
@@ -714,7 +714,7 @@
     <t>Use only allowed values 'TRUE','FALSE' in NEED_INDICATED</t>
   </si>
   <si>
-    <t>9691e872-a4c3-4bde-8856-3fb0ecd68842</t>
+    <t>d84afcf9-a556-408e-89ca-8794030bf58e</t>
   </si>
   <si>
     <t>Value true in NEED_INDICATED not in allowed list ('TRUE','FALSE')</t>
@@ -723,82 +723,82 @@
     <t>true</t>
   </si>
   <si>
-    <t>532da32b-d5c7-43b6-a552-e48fa6380647</t>
-  </si>
-  <si>
-    <t>c006148d-119e-44b2-87ac-b46ed05758d5</t>
-  </si>
-  <si>
-    <t>07b724b5-9a90-4aa2-86be-10fc5924ba28</t>
-  </si>
-  <si>
-    <t>3b675de0-1e34-4af2-830e-fdd0bc69cd08</t>
-  </si>
-  <si>
-    <t>84df1af5-1ac1-4dae-8e8a-510d62655cb0</t>
-  </si>
-  <si>
-    <t>cc7054ef-59a3-4ddf-beb2-cd77692fb48e</t>
-  </si>
-  <si>
-    <t>e15080a2-d606-46bb-b50f-88b7d86bbd30</t>
-  </si>
-  <si>
-    <t>a9b62951-e355-44bc-8b5b-7ef60815964f</t>
-  </si>
-  <si>
-    <t>cfec4c9b-a179-4c66-8423-91ed77f95615</t>
-  </si>
-  <si>
-    <t>59430f20-be6b-4c56-8e74-08e823db6a59</t>
-  </si>
-  <si>
-    <t>e9c7fb96-3d04-40de-948a-7e7dde9cd97c</t>
-  </si>
-  <si>
-    <t>f9550486-ac29-4300-a971-7a2bffc156ec</t>
-  </si>
-  <si>
-    <t>80241bb7-acf3-4812-8ec2-42ec79d5ad37</t>
-  </si>
-  <si>
-    <t>c0eff7f1-08e3-4974-8e44-0032826f0688</t>
-  </si>
-  <si>
-    <t>c614a04b-51cd-4c15-b83e-ebff802545c6</t>
-  </si>
-  <si>
-    <t>8e2fbb3e-c4a9-487e-aec7-5e0ff3985128</t>
-  </si>
-  <si>
-    <t>b3870cf7-a3ed-46be-9089-6715016216cc</t>
-  </si>
-  <si>
-    <t>df53d0e6-86b3-4c00-9475-ebadcaa6346b</t>
-  </si>
-  <si>
-    <t>277a8288-5e78-49e7-be55-e732ce0552b8</t>
-  </si>
-  <si>
-    <t>aba1dd8b-7607-4ec9-b60a-41c90df63a19</t>
-  </si>
-  <si>
-    <t>87c58629-b4ca-4f25-9457-329c9af7d3c3</t>
-  </si>
-  <si>
-    <t>62d5abf7-679a-4fca-a3f4-d3f7ca55fd7b</t>
-  </si>
-  <si>
-    <t>855321f0-faa7-4cab-99ed-f3de993f1b66</t>
-  </si>
-  <si>
-    <t>fff6a39e-e4dc-429d-84cb-77c9e320ed2e</t>
-  </si>
-  <si>
-    <t>acce33c6-f021-494a-956e-2ec710bc1bfe</t>
-  </si>
-  <si>
-    <t>a27cd1db-8bef-4aa0-82ad-a9ccccff2443</t>
+    <t>5c5360f0-6375-44a0-affb-0b9d552d5a8a</t>
+  </si>
+  <si>
+    <t>3bdbf3dc-59d4-4852-a337-912975f7ae6d</t>
+  </si>
+  <si>
+    <t>3fa03bd0-30a7-439c-a5b0-34512397ca6f</t>
+  </si>
+  <si>
+    <t>80a6af0a-9fc2-4bf8-bdf4-4e232212eca4</t>
+  </si>
+  <si>
+    <t>f1d0d809-e010-4186-95a8-ee9878dc0f9f</t>
+  </si>
+  <si>
+    <t>1f16d526-7339-494f-aab4-3875d148b6c3</t>
+  </si>
+  <si>
+    <t>2ea57ef8-5310-4130-a2f3-242d2fb80ba2</t>
+  </si>
+  <si>
+    <t>9b42b1a0-8546-4b7c-8ace-4f8eb3df86aa</t>
+  </si>
+  <si>
+    <t>84c02511-9f22-43e7-bb7d-d2aef579d770</t>
+  </si>
+  <si>
+    <t>5cf87805-b8c0-4e69-899e-55f339f2b6eb</t>
+  </si>
+  <si>
+    <t>d226e490-a5ff-428e-9518-0a1dffcbe3bb</t>
+  </si>
+  <si>
+    <t>3995a99e-9eee-41e6-b7bb-8e2da0d24914</t>
+  </si>
+  <si>
+    <t>bfcff5a9-6894-4399-9192-92de2c62b2a2</t>
+  </si>
+  <si>
+    <t>dee8dced-3caf-4f36-929a-d2123cabf98a</t>
+  </si>
+  <si>
+    <t>e8797b8b-3555-4c05-b6fe-d30a6733baeb</t>
+  </si>
+  <si>
+    <t>e8660fe8-7fd4-4227-a735-95987aeca07c</t>
+  </si>
+  <si>
+    <t>e68c6908-94c8-49df-b266-b9d5229d0eaf</t>
+  </si>
+  <si>
+    <t>892911e3-4612-4a19-a87e-409c086c3260</t>
+  </si>
+  <si>
+    <t>43ca2da9-9eb7-40f1-98e4-5f6f2bd7e4a1</t>
+  </si>
+  <si>
+    <t>7a8dd1c4-ee17-48ba-b5f1-5fa86ca61868</t>
+  </si>
+  <si>
+    <t>ef555323-7236-473e-86c1-5d7496d5742e</t>
+  </si>
+  <si>
+    <t>9a64f9e2-02dd-4e3b-88fd-816e327f4547</t>
+  </si>
+  <si>
+    <t>5efc1d85-305d-4dd5-af3e-d5916567aaa0</t>
+  </si>
+  <si>
+    <t>dc5ff1f0-6458-4395-ad43-6f48fd64bccd</t>
+  </si>
+  <si>
+    <t>8b45852d-cbe1-422c-ac53-1a6964613ef0</t>
+  </si>
+  <si>
+    <t>57256237-8c6e-4d22-b567-45898b75de45</t>
   </si>
   <si>
     <t>Value false in VISIT_PART_2_FLAG not in allowed list ('TRUE','FALSE')</t>
@@ -810,88 +810,88 @@
     <t>Use only allowed values 'TRUE','FALSE' in VISIT_PART_2_FLAG</t>
   </si>
   <si>
-    <t>4e26ce61-8b36-4760-9e7e-0e7bf26d9b61</t>
-  </si>
-  <si>
-    <t>d6152c6a-e576-4f98-82e3-ffa728cef819</t>
-  </si>
-  <si>
-    <t>99541add-5bbe-4494-b93d-ec4c161a2158</t>
-  </si>
-  <si>
-    <t>01d10c12-1e92-49fc-94cc-efec8745ad48</t>
-  </si>
-  <si>
-    <t>9bd6b31a-c02c-4537-9a84-d51ad94c3f43</t>
-  </si>
-  <si>
-    <t>f847b89b-f104-40b7-8e18-2382bb548bc6</t>
-  </si>
-  <si>
-    <t>b7227633-e8bd-45a7-a2ee-3607f7e37238</t>
-  </si>
-  <si>
-    <t>f6735c18-f409-4186-9f51-c3fbc3443108</t>
-  </si>
-  <si>
-    <t>db93b0de-94cc-4046-abf2-f53a930897fb</t>
-  </si>
-  <si>
-    <t>aafcfbdf-8fd4-41e4-9f59-6c1d0d61b4a6</t>
-  </si>
-  <si>
-    <t>3750a0c0-1e16-47aa-a856-2b07857a6d09</t>
-  </si>
-  <si>
-    <t>13f8b0e1-7367-4142-bec8-a9f562b95410</t>
-  </si>
-  <si>
-    <t>b6696ede-9b75-457c-89c9-87756da47b2f</t>
-  </si>
-  <si>
-    <t>dbefcd27-0ba4-4a16-9e89-6aae065bc703</t>
-  </si>
-  <si>
-    <t>a703665d-d7bd-458b-9122-e6e819c3353a</t>
-  </si>
-  <si>
-    <t>6f02b2f4-aff6-4ed6-87aa-cdf647c4c280</t>
-  </si>
-  <si>
-    <t>5f92a6cb-7e24-452e-b406-556e2d7895a9</t>
-  </si>
-  <si>
-    <t>44641ffc-c997-434c-aae7-729e564b28d6</t>
+    <t>e506eae1-b00e-4b33-8b79-79703aa0f376</t>
+  </si>
+  <si>
+    <t>ddb9cc13-26c9-4b4f-9641-12ff1f35949f</t>
+  </si>
+  <si>
+    <t>9d834fe8-4025-4946-9b8c-6d7fbff0fd3f</t>
+  </si>
+  <si>
+    <t>a48d4e41-18cc-4177-a18c-d43280d75092</t>
+  </si>
+  <si>
+    <t>2c84e46e-a24b-4c1a-b884-c7353e5dd3af</t>
+  </si>
+  <si>
+    <t>2fd2b503-3f2b-458f-ad99-751c698ab140</t>
+  </si>
+  <si>
+    <t>b06863e8-f899-412e-ba7f-21164b582bf1</t>
+  </si>
+  <si>
+    <t>b1b36f69-3658-4ba2-872e-891affef3386</t>
+  </si>
+  <si>
+    <t>6305d06d-989f-4465-aba1-7a9cce4aace2</t>
+  </si>
+  <si>
+    <t>b4156a2b-5d30-4e0e-b97e-524fd115c092</t>
+  </si>
+  <si>
+    <t>f239a9ba-28db-4cdd-b452-e9e9ee8c3db1</t>
+  </si>
+  <si>
+    <t>7b2d0185-8fae-4656-af9f-44f04cbf6694</t>
+  </si>
+  <si>
+    <t>fc3abcad-e617-438d-bd80-7004f48fe803</t>
+  </si>
+  <si>
+    <t>4dcb099d-ea04-4c72-8825-9ee33e6e7fe4</t>
+  </si>
+  <si>
+    <t>dbe5d442-5564-46b5-911a-4a222ba3a151</t>
+  </si>
+  <si>
+    <t>541f4528-591c-4d3a-b638-11890686723c</t>
+  </si>
+  <si>
+    <t>a7d916bd-d667-4286-8507-48ec50609c04</t>
+  </si>
+  <si>
+    <t>dbdafaaa-9b17-4f9d-a120-64b7415b3afe</t>
   </si>
   <si>
     <t>Value true in VISIT_PART_2_FLAG not in allowed list ('TRUE','FALSE')</t>
   </si>
   <si>
-    <t>bca6eb55-efb5-4462-9eba-92a20a1f0783</t>
-  </si>
-  <si>
-    <t>8a14b893-a9f6-4da9-a1cb-1ec971073bda</t>
-  </si>
-  <si>
-    <t>13d2a611-6c16-45b4-b981-a00612b73e65</t>
-  </si>
-  <si>
-    <t>65e85ac9-a671-4bd7-8592-c5da9e1c366f</t>
-  </si>
-  <si>
-    <t>d464f746-ca7d-4f0c-b00b-461800dea81e</t>
-  </si>
-  <si>
-    <t>2163ac01-1018-4b1b-928c-eb1751367a69</t>
-  </si>
-  <si>
-    <t>01ab071d-8014-4b50-a430-b284e2474e99</t>
-  </si>
-  <si>
-    <t>c8fbf66b-adac-495c-932a-359ce5280bb7</t>
-  </si>
-  <si>
-    <t>fcf78422-0d38-4a3b-8c38-7b5cb0730df0</t>
+    <t>98c1c338-7af1-449c-ba12-a727d2522993</t>
+  </si>
+  <si>
+    <t>0ab71565-f1ea-4eeb-9295-6ae1e53dff51</t>
+  </si>
+  <si>
+    <t>5cb26a8a-110d-400b-b158-de8c5321588a</t>
+  </si>
+  <si>
+    <t>c315c9b2-374a-4e16-a323-42718f345c4e</t>
+  </si>
+  <si>
+    <t>2566b618-5c8c-46ef-a985-0e0dd1295953</t>
+  </si>
+  <si>
+    <t>ebc58797-ed8f-4227-b65e-0e301a265afe</t>
+  </si>
+  <si>
+    <t>24002e76-2637-4212-8d1b-18276fdc855f</t>
+  </si>
+  <si>
+    <t>014a0d29-b9f9-4359-ba37-eea733062058</t>
+  </si>
+  <si>
+    <t>20030643-c1d4-4c0a-bbf8-923c17e6860a</t>
   </si>
   <si>
     <t>Value false in VISIT_OMH_FLAG not in allowed list ('TRUE','FALSE')</t>
@@ -903,85 +903,85 @@
     <t>Use only allowed values 'TRUE','FALSE' in VISIT_OMH_FLAG</t>
   </si>
   <si>
-    <t>e7bfa653-9134-44f0-9591-72bb7c2e7e36</t>
-  </si>
-  <si>
-    <t>fb3d4ebb-309e-4a5e-a75c-042544c51cbc</t>
-  </si>
-  <si>
-    <t>d0d6c95b-7c0c-49de-8931-5537e5855623</t>
-  </si>
-  <si>
-    <t>e9e0d8f8-0825-465f-8986-8e5eab8441cb</t>
-  </si>
-  <si>
-    <t>066317b0-03ec-4be1-8b12-86e913f400cd</t>
-  </si>
-  <si>
-    <t>a83c2c9f-68f0-4627-ac7f-48f60a4a2a89</t>
-  </si>
-  <si>
-    <t>0d8a47fa-f9de-4646-b846-ecee263f0ef0</t>
-  </si>
-  <si>
-    <t>3a35dc46-1907-4aa3-af3f-ebbf0988e55c</t>
-  </si>
-  <si>
-    <t>7490f57b-5e20-475e-aa64-c14a748beb10</t>
-  </si>
-  <si>
-    <t>5c80ad05-4ffa-4b9c-9cad-f28100d558f5</t>
-  </si>
-  <si>
-    <t>1b2eb20f-2a39-4ce2-b3af-034eed4130d6</t>
-  </si>
-  <si>
-    <t>df4aaca7-b299-46b4-91b7-f6ddf3f9d345</t>
-  </si>
-  <si>
-    <t>bd776ee8-56de-42f7-983d-9a0e6e9f0f55</t>
-  </si>
-  <si>
-    <t>3e03b210-2358-40cd-9777-844151841617</t>
-  </si>
-  <si>
-    <t>3296a73d-9a98-490f-b664-53f13a02f3ac</t>
-  </si>
-  <si>
-    <t>0de23669-60cc-4098-9a7e-774f631a78f7</t>
-  </si>
-  <si>
-    <t>c7c406ff-7de6-4490-bddc-21c2ab27a2a7</t>
-  </si>
-  <si>
-    <t>6a738b1e-91e4-4b2b-ba07-6b28988ce878</t>
-  </si>
-  <si>
-    <t>7c2bed61-be6c-4611-85a5-4ab673f2e8df</t>
-  </si>
-  <si>
-    <t>fd0e1e13-24b3-4cf3-ad94-80db90d8c807</t>
-  </si>
-  <si>
-    <t>dd9f5a76-e49d-4651-ad5f-fd71c16e8b0e</t>
-  </si>
-  <si>
-    <t>c261709c-4144-4d3b-af2a-826196a562c4</t>
-  </si>
-  <si>
-    <t>293c374d-a8fc-44cb-a5c9-5960faf0805a</t>
-  </si>
-  <si>
-    <t>35a270e2-6332-4085-8f55-d3b1bff3dd9d</t>
-  </si>
-  <si>
-    <t>3435e18e-d959-4a7e-bdd6-de4111b37bd3</t>
-  </si>
-  <si>
-    <t>5d0e915a-5823-4efc-8fa5-98e1e6d315eb</t>
-  </si>
-  <si>
-    <t>2403b547-a1aa-484d-a33f-e1dad268f89d</t>
+    <t>ed2ab7b2-a7dc-4a41-a7db-c173fc95f918</t>
+  </si>
+  <si>
+    <t>e1ff200e-740c-4b14-a100-486bf0701bd6</t>
+  </si>
+  <si>
+    <t>659721b1-02ab-405f-890b-5e01ecb29277</t>
+  </si>
+  <si>
+    <t>15924218-8df9-4aae-b4f0-05c2bea986c4</t>
+  </si>
+  <si>
+    <t>7391a520-72b3-4017-9707-16f7dff6a1a6</t>
+  </si>
+  <si>
+    <t>9d6d80a4-4509-4bbf-b464-6dc6d9237f5b</t>
+  </si>
+  <si>
+    <t>0d755d21-b40e-452b-9523-535726b8bc28</t>
+  </si>
+  <si>
+    <t>9691a743-0cca-489a-bf1b-d792fa25564f</t>
+  </si>
+  <si>
+    <t>22d84121-b050-43cd-94f9-c4c1bd6c8935</t>
+  </si>
+  <si>
+    <t>ea39fa8d-74a5-458e-ba72-ce9973491ac3</t>
+  </si>
+  <si>
+    <t>e2acc918-b8e4-4a4a-8302-c8e97a9211ad</t>
+  </si>
+  <si>
+    <t>24ab0104-cd26-46f4-8ea0-d2818068510f</t>
+  </si>
+  <si>
+    <t>95c0492e-041b-418b-bfeb-14a1e1186659</t>
+  </si>
+  <si>
+    <t>8f9c0aea-70b7-416f-8eea-22087a702e38</t>
+  </si>
+  <si>
+    <t>3a47254f-441a-44df-958d-d3466b8235e6</t>
+  </si>
+  <si>
+    <t>94ca6c28-b324-42d8-9329-781e3ba71f43</t>
+  </si>
+  <si>
+    <t>08939bcd-0abc-44c4-8c68-559969d59082</t>
+  </si>
+  <si>
+    <t>271831a4-b175-4a48-a173-8e42a6024ae9</t>
+  </si>
+  <si>
+    <t>0e2edefd-b282-4f60-8b35-5d0d6ece4452</t>
+  </si>
+  <si>
+    <t>630a6eae-1b5b-4adf-82bc-44484bd4c047</t>
+  </si>
+  <si>
+    <t>999831ba-914b-4b33-8fda-831f800a17ad</t>
+  </si>
+  <si>
+    <t>f8fda3f7-56c3-48ae-878d-0952adb674b3</t>
+  </si>
+  <si>
+    <t>97063eee-9ce7-44a6-9ba1-781c7dfa464f</t>
+  </si>
+  <si>
+    <t>a946323a-23de-4eff-9bfc-5bc6e49d4740</t>
+  </si>
+  <si>
+    <t>c997e735-9326-4805-9ea8-2e4ffb727131</t>
+  </si>
+  <si>
+    <t>72e6ab00-eb68-4f5a-ab6d-1d1b54b7e406</t>
+  </si>
+  <si>
+    <t>52131706-0693-4472-9056-fc17fdc378f1</t>
   </si>
   <si>
     <t>Value false in VISIT_OPWDD_FLAG not in allowed list ('TRUE','FALSE')</t>
@@ -993,94 +993,94 @@
     <t>Use only allowed values 'TRUE','FALSE' in VISIT_OPWDD_FLAG</t>
   </si>
   <si>
-    <t>3a2d1d25-7119-48a4-b1c5-c7592c57dd2d</t>
-  </si>
-  <si>
-    <t>ee7cc3e7-d7d1-4d81-849b-17e963b95805</t>
-  </si>
-  <si>
-    <t>068a6af7-aee0-426c-ae43-fa7ccf15b953</t>
-  </si>
-  <si>
-    <t>bc914fd7-6c19-49a6-8564-2815ac85dc86</t>
-  </si>
-  <si>
-    <t>072adcd8-eeaf-4d2a-9bd9-04b772c28318</t>
-  </si>
-  <si>
-    <t>d5a9d024-4c89-4d21-896e-93a137e3b763</t>
-  </si>
-  <si>
-    <t>2af4fc60-1ddb-4c3d-8095-d08f042602a4</t>
-  </si>
-  <si>
-    <t>d6becdbc-ff60-4bfc-ab19-b4a1c5a8c0df</t>
-  </si>
-  <si>
-    <t>a14f6919-48b5-40dc-9758-f31d6b40014d</t>
-  </si>
-  <si>
-    <t>3e5c6126-7845-4780-886d-a98457fab9fc</t>
-  </si>
-  <si>
-    <t>b46433ee-8dfa-4a1d-b508-1b65d24a41c8</t>
-  </si>
-  <si>
-    <t>68528729-9373-42c0-a5f6-7b21bdcf379b</t>
-  </si>
-  <si>
-    <t>509e1d69-7c56-4dcb-9b8b-521e7d4adba0</t>
-  </si>
-  <si>
-    <t>39ccb274-092f-426d-a272-ebe9873be003</t>
-  </si>
-  <si>
-    <t>f3698f3d-e146-4946-bac4-50b614d91081</t>
-  </si>
-  <si>
-    <t>e4d90173-35dd-48d3-9100-7cd5f08d8831</t>
-  </si>
-  <si>
-    <t>bcd0e33d-6457-41a7-9c33-9e0ceba77fe6</t>
-  </si>
-  <si>
-    <t>96083645-4cbf-4897-9b40-a7384e7da0af</t>
-  </si>
-  <si>
-    <t>a5715e74-0c8e-4c5f-ad88-4c0f62d6df44</t>
-  </si>
-  <si>
-    <t>dba97425-67d4-491a-ace7-3f8d3e924001</t>
-  </si>
-  <si>
-    <t>a995802d-fbf9-4e7b-a6d7-05b7b111eccb</t>
-  </si>
-  <si>
-    <t>7dee9a10-9734-4b04-a171-cf3132522d74</t>
-  </si>
-  <si>
-    <t>2c49db87-79b6-421c-88fe-0ca5239faaff</t>
-  </si>
-  <si>
-    <t>7ac82e84-91ed-401f-970e-103deab42c90</t>
-  </si>
-  <si>
-    <t>92200336-6da8-42de-bf12-9995f411a504</t>
-  </si>
-  <si>
-    <t>6d354ad0-c99b-46d7-9134-06661ff06337</t>
+    <t>f6c35bcc-c382-4841-90a5-93d871af4c3a</t>
+  </si>
+  <si>
+    <t>d7f90076-a178-430a-8bcc-2df768552a81</t>
+  </si>
+  <si>
+    <t>a8c90640-ad29-48e9-b69b-ba2d5362b5f2</t>
+  </si>
+  <si>
+    <t>97c9e81b-1710-4bad-9a08-eeada19821f3</t>
+  </si>
+  <si>
+    <t>470684a2-20d0-430e-a8cb-b8f53aee6ed8</t>
+  </si>
+  <si>
+    <t>964aeb1e-f7a0-447c-a970-4dbf23a94507</t>
+  </si>
+  <si>
+    <t>bde06c67-16b6-4064-9ed5-9bcd51073561</t>
+  </si>
+  <si>
+    <t>f4164dc2-db4f-4480-87e0-31f4d43a99ce</t>
+  </si>
+  <si>
+    <t>67c7f9b9-4534-4532-a409-734aa8deca9a</t>
+  </si>
+  <si>
+    <t>586f298e-1cd2-41b3-b899-752d5bc91257</t>
+  </si>
+  <si>
+    <t>c567371b-1e91-4a7f-8a8c-7780a4f34376</t>
+  </si>
+  <si>
+    <t>fe6e972c-e8fd-44bc-8dc4-e9ad92daf0a3</t>
+  </si>
+  <si>
+    <t>620e21a6-d994-4cb7-82a8-4bc6e4706e1d</t>
+  </si>
+  <si>
+    <t>6976077c-99ef-4134-8e50-8554c4b7dc8c</t>
+  </si>
+  <si>
+    <t>d69e8517-1055-461f-a29f-218c713e770e</t>
+  </si>
+  <si>
+    <t>ffc205f6-18e3-4159-88e3-bb584ff03d2d</t>
+  </si>
+  <si>
+    <t>5d19ce3a-4fe6-433f-9060-eb22401f86cc</t>
+  </si>
+  <si>
+    <t>2a0ebcd7-fd16-4763-a79f-1751cc5c4c47</t>
+  </si>
+  <si>
+    <t>a0091998-cc46-4a05-8f30-1639db791c87</t>
+  </si>
+  <si>
+    <t>705034d9-6803-4333-89c9-f6009a554304</t>
+  </si>
+  <si>
+    <t>68d76074-9074-4523-8780-72a9462f6631</t>
+  </si>
+  <si>
+    <t>a0c4b587-2836-4635-935e-68828776ed69</t>
+  </si>
+  <si>
+    <t>52ad3ae7-dc25-42b6-a2e1-b799fc1c473a</t>
+  </si>
+  <si>
+    <t>3e218b23-e99c-4e0c-a9bf-e3ae7c72a4c6</t>
+  </si>
+  <si>
+    <t>e746683d-88ee-44d6-9d25-2b63c4633625</t>
+  </si>
+  <si>
+    <t>ae90c72b-7e19-4740-8e26-9a586603ea22</t>
   </si>
   <si>
     <t>2afb3098-bcfd-5a54-8ebb-4d65d399c55e</t>
   </si>
   <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2024-01-25-valid.xlsx</t>
+    <t>/home/snshah/workspaces/github.com/qe-collaborative-services/1115-hub/support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2024-01-25-valid.xlsx</t>
   </si>
   <si>
     <t>ahc_hrsn_2024_01_25_valid_admin_demographic</t>
   </si>
   <si>
-    <t>643d07ef-94e3-4e21-bcae-a06e9c5d5ecf</t>
+    <t>c6b9bfcb-6a70-4953-b237-71d5b5ebfa78</t>
   </si>
   <si>
     <t>Value 	20430005 in SEXUAL_ORIENTATION_CODE not in allowed list ('42035005','20430005','38628009','OTH','UNK')</t>
@@ -1101,7 +1101,7 @@
     <t>ahc_hrsn_2024_01_25_valid_screening</t>
   </si>
   <si>
-    <t>4ab9aef8-9b0c-43e8-9f64-e4f8b9374608</t>
+    <t>1d96dfd3-050f-4985-a7ab-4d14a4d0dd0a</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -1116,16 +1116,16 @@
     <t>Provide a value for SCREENING_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>2b7908ba-a2df-4370-9daf-6e36705373bf</t>
-  </si>
-  <si>
-    <t>edb06f65-2c77-4387-b17a-8a3d8b9f23fa</t>
-  </si>
-  <si>
-    <t>a81db5f5-cbc1-43b6-a7a1-70a98d172900</t>
-  </si>
-  <si>
-    <t>b79b5d17-8798-4a03-9287-143d5bc95184</t>
+    <t>07059d07-4a45-4012-a233-cbf818a935e1</t>
+  </si>
+  <si>
+    <t>c2ccbc63-3294-4df6-b4a2-516dc4909288</t>
+  </si>
+  <si>
+    <t>72e0854e-f751-4968-9fc9-7cb27768ceb3</t>
+  </si>
+  <si>
+    <t>d3c24e24-e8fd-46f8-af92-40b2c4dba5f5</t>
   </si>
   <si>
     <t>Mandatory field SCREENING_CODE is empty</t>
@@ -1137,16 +1137,16 @@
     <t>Provide a value for SCREENING_CODE</t>
   </si>
   <si>
-    <t>4eab8df1-814c-4d07-93e8-64e040077f15</t>
-  </si>
-  <si>
-    <t>e3f50c6e-dfd0-415f-a3f3-6adc8e245723</t>
-  </si>
-  <si>
-    <t>f37a2977-08ef-45b7-9a32-055dfeeda462</t>
-  </si>
-  <si>
-    <t>984823b3-5b3b-4668-8d78-874dfd3f8598</t>
+    <t>e1b6190c-38bd-418f-a1ba-8fbfc5a7b575</t>
+  </si>
+  <si>
+    <t>9c83dbe1-fb40-428c-a3f4-7d76ed833129</t>
+  </si>
+  <si>
+    <t>005fdf80-24f2-4682-9c61-c80544c7f587</t>
+  </si>
+  <si>
+    <t>effb11b5-9bdf-498d-9302-a5ab23410e26</t>
   </si>
   <si>
     <t>Mandatory field QUESTION_CODE is empty</t>
@@ -1155,16 +1155,16 @@
     <t>Provide a value for QUESTION_CODE</t>
   </si>
   <si>
-    <t>daaea8b7-1583-4ff3-a0ca-a8a309973caa</t>
-  </si>
-  <si>
-    <t>9ef8f528-d4e2-478d-a22a-b67cf9ac8f47</t>
-  </si>
-  <si>
-    <t>91b2ded0-fc04-4e01-af19-85c39d556575</t>
-  </si>
-  <si>
-    <t>3053f961-dca4-4c5a-a194-3cef7422093d</t>
+    <t>5f6333ac-3555-405b-97d8-ee962008e50f</t>
+  </si>
+  <si>
+    <t>2f0fba0c-4c81-4446-819c-cb189950b666</t>
+  </si>
+  <si>
+    <t>f318d1b5-fd8f-425b-af14-718e0ac0dad3</t>
+  </si>
+  <si>
+    <t>c4aae64e-fd2c-49e8-804d-669d063aa4e6</t>
   </si>
   <si>
     <t>Mandatory field QUESTION_CODE_SYSTEM_NAME is empty</t>
@@ -1176,16 +1176,16 @@
     <t>Provide a value for QUESTION_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>480ac37c-f156-4d0e-a220-ccac781e9886</t>
-  </si>
-  <si>
-    <t>7c813564-25eb-45a0-a132-015c9bbb0800</t>
-  </si>
-  <si>
-    <t>6f6ef3f9-ca9d-445f-93e4-b386dee97216</t>
-  </si>
-  <si>
-    <t>54755b8b-578a-4836-8d9c-285dcbc3505c</t>
+    <t>70245c4c-d217-45a7-8de8-be3b0b5021f8</t>
+  </si>
+  <si>
+    <t>8e4ef763-a972-4151-9f88-e40d373d91e3</t>
+  </si>
+  <si>
+    <t>4594712d-de19-45ea-9548-fe605b57b1ec</t>
+  </si>
+  <si>
+    <t>772953ad-4cf2-4913-9851-00cc16e1c6f5</t>
   </si>
   <si>
     <t>Mandatory field ANSWER_CODE is empty</t>
@@ -1197,22 +1197,22 @@
     <t>Provide a value for ANSWER_CODE</t>
   </si>
   <si>
-    <t>36bfc93a-44c7-430c-8cfa-20abefb7d931</t>
-  </si>
-  <si>
-    <t>35d57d74-9c7b-4f43-8286-03db5431b373</t>
-  </si>
-  <si>
-    <t>5c545327-475e-4493-9e0d-fb2eef511012</t>
-  </si>
-  <si>
-    <t>176cba14-39ac-4441-b61c-ca75cb146cc2</t>
-  </si>
-  <si>
-    <t>6cb43f17-ec2c-484b-9219-453012573cf3</t>
-  </si>
-  <si>
-    <t>3ced12ec-0845-4d92-abdc-aa6daa0fd73f</t>
+    <t>baa8e05a-7cb3-4b7d-aee3-ad14fe172266</t>
+  </si>
+  <si>
+    <t>4e952ace-93e2-4cf6-944d-52d54a32e22a</t>
+  </si>
+  <si>
+    <t>f9d3a06a-0943-4204-ab7b-67ab83cdc11b</t>
+  </si>
+  <si>
+    <t>65f28648-421b-4e40-bdc7-9cd45bf9053a</t>
+  </si>
+  <si>
+    <t>58890c7a-b578-48a7-aa20-acb7a3bb3197</t>
+  </si>
+  <si>
+    <t>4b74a565-ef30-4ef3-b6aa-e8d474c4cc13</t>
   </si>
   <si>
     <t>Mandatory field ANSWER_CODE_SYSTEM_NAME is empty</t>
@@ -1224,19 +1224,19 @@
     <t>Provide a value for ANSWER_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>ef6db1d5-28ef-4885-b937-8dc91baa6735</t>
-  </si>
-  <si>
-    <t>ac5ab3d3-9f6b-4750-b693-ca46bf0b48bd</t>
-  </si>
-  <si>
-    <t>1b14c808-8400-4fb1-80f8-765150e34cb7</t>
-  </si>
-  <si>
-    <t>740665fb-3ca0-47f7-a26a-80f7d57d2797</t>
-  </si>
-  <si>
-    <t>257593fb-7479-49dd-b750-945f7f90fd20</t>
+    <t>a05fb005-80cc-4e90-a720-73a0e37ec5d2</t>
+  </si>
+  <si>
+    <t>13e76153-6c76-4f3d-932d-82c4986ad74a</t>
+  </si>
+  <si>
+    <t>1b25ed25-417c-4ca6-a4c3-f27e760cbc54</t>
+  </si>
+  <si>
+    <t>1df3ab74-0549-4c4b-bcd8-540c7c3e7202</t>
+  </si>
+  <si>
+    <t>ff909909-e244-4afc-8425-44a99dc83635</t>
   </si>
   <si>
     <t>86ff3ab6-900d-5474-b63c-cbcac3c66f1a</t>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -255,7 +255,7 @@
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>17843c58-37af-452e-b0bf-c9344cc4a18b</t>
+    <t>47391431-8b8d-44f7-b7ad-0a5ec9457269</t>
   </si>
   <si>
     <t>Missing Column</t>
@@ -267,7 +267,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>0a92581a-dec5-46cb-af86-7aafa636ff8d</t>
+    <t>adeec7a6-f457-468b-acc0-14c234096f3f</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -276,7 +276,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>1c61c3d9-f2db-47d4-9749-1b36b377d8be</t>
+    <t>e7f84daa-fb8f-488c-81af-6219d6576eb1</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -285,7 +285,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>d9562870-0850-48cb-975a-85c582c89288</t>
+    <t>d72c715a-79f6-47ed-ad4e-2d66acf93cac</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -294,7 +294,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>38d66903-9b78-4151-a5cd-fa0e11d476d4</t>
+    <t>a43e7f17-0dd3-49f2-b7f0-c58c055e6cf1</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -303,7 +303,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>f532deaa-e41f-4315-976f-25365e8595a5</t>
+    <t>b3abf54b-92fb-4d98-bc83-ef06155da0fd</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -312,7 +312,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>aed4f471-ddad-429a-8cac-93094e9b20e8</t>
+    <t>cd244eeb-4d4a-43b5-a731-eff45d554045</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -321,7 +321,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>43885a11-1961-4001-8aed-5572eec05074</t>
+    <t>af60ef36-c9f4-418c-baba-c818bf994d70</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -330,7 +330,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>08c627b8-3cf8-4560-9c8e-89beefee38ce</t>
+    <t>476ba583-78a2-413c-a5c8-f98cafc6ca57</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -339,7 +339,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>847ff20a-0686-4e95-a53b-747a70ae3948</t>
+    <t>e7609f3d-0642-4220-8c7c-142a2f019fa2</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -348,7 +348,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>6eed13f5-a146-4498-b33e-1228cf4b852b</t>
+    <t>e3dfe3da-cabe-407d-9aa4-aa2b999d0438</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -357,7 +357,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>a395d15e-2bfd-40b6-b69c-2c359d90ae87</t>
+    <t>b8050943-12a1-4bcd-8e92-f60f46b69ee7</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -366,7 +366,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>eaf67770-2fb7-4855-bd5f-7be64a39f428</t>
+    <t>e5e4ac78-a598-464d-838c-83640ad49ad3</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -375,7 +375,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>a7c02631-3023-4ad3-a0e0-06701d1e65c0</t>
+    <t>61f9406e-02ec-4c72-9617-3a59754a9f89</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -384,7 +384,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>3bf41967-9a22-4859-bf91-bfd1b82a802a</t>
+    <t>f6a5644a-e164-43a4-934f-1753738ff750</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -393,7 +393,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>bdf91f6e-02a0-4a43-80a6-cfd902965e5d</t>
+    <t>0f59a624-3b9f-4229-ab73-c470b4222558</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -402,7 +402,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>32183022-6aec-46a2-9068-1efdb23ff741</t>
+    <t>872c338e-4e3b-448d-87c7-d3f745faf15e</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -411,7 +411,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>27af204a-d36f-44a6-9542-d6ee7b97275e</t>
+    <t>aaf428d1-9873-4aef-ba7c-f41be0ae38f4</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -420,7 +420,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>acc7468f-7bc2-45dc-9c07-d7d489e7784e</t>
+    <t>38ef7636-40ed-4ffe-ae51-197bff0364c1</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -429,7 +429,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>1946d1e7-a043-4263-bbb0-21f71f6ac997</t>
+    <t>62afc447-4e5a-411d-a647-e49c460e827e</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -438,7 +438,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
   </si>
   <si>
-    <t>ef91eaf4-b32f-4ab9-8516-4d30a0b3a521</t>
+    <t>9e3df00e-a382-408a-be43-68717b43f067</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -456,7 +456,7 @@
     <t>ahc_hrsn_2023_12_12_valid</t>
   </si>
   <si>
-    <t>89a58da9-df99-42c3-b76a-fee16b2afa62</t>
+    <t>06c107ff-205b-4798-adea-162e0143af35</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -474,7 +474,7 @@
     <t>Use only allowed values '71802-3','96778-6' in QUESTION_CODE</t>
   </si>
   <si>
-    <t>c7c06103-01a3-4dc2-9692-aa54b2563314</t>
+    <t>da49021d-c649-41be-b39a-50905078c486</t>
   </si>
   <si>
     <t>Value 88122-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -483,7 +483,7 @@
     <t>88122-7</t>
   </si>
   <si>
-    <t>a0e3f342-c04c-4e3b-9550-d28702132752</t>
+    <t>f03a21a0-548f-41b1-a349-75f4c4f7a337</t>
   </si>
   <si>
     <t>Value 88123-5 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -492,7 +492,7 @@
     <t>88123-5</t>
   </si>
   <si>
-    <t>d6cb33a7-9c17-4272-98c4-91085fe44fb0</t>
+    <t>f0807d98-04e3-4d13-bc3c-6d3355c49e30</t>
   </si>
   <si>
     <t>Value 93030-5 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -501,7 +501,7 @@
     <t>93030-5</t>
   </si>
   <si>
-    <t>29b8baec-dde3-49de-a272-59d9f8f2dc29</t>
+    <t>fe2fdabb-14b2-4aea-9302-844edaf389be</t>
   </si>
   <si>
     <t>Value 96779-4 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -510,7 +510,7 @@
     <t>96779-4</t>
   </si>
   <si>
-    <t>98882e18-7bc8-4162-80d0-849c48f9341a</t>
+    <t>fb7182d3-8208-48e2-97b2-a82677a88137</t>
   </si>
   <si>
     <t>Value 95618-5 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -519,7 +519,7 @@
     <t>95618-5</t>
   </si>
   <si>
-    <t>8b41abc1-ff92-496d-a8ff-91712209c47a</t>
+    <t>3a815c1a-89bc-402b-95be-2bf8fa45127c</t>
   </si>
   <si>
     <t>Value 95617-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -528,7 +528,7 @@
     <t>95617-7</t>
   </si>
   <si>
-    <t>b8b45cf2-5f1b-4102-af20-fb3b6148a697</t>
+    <t>b478654f-41a9-4bb9-a955-74b9b1973254</t>
   </si>
   <si>
     <t>Value 95616-9 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -537,7 +537,7 @@
     <t>95616-9</t>
   </si>
   <si>
-    <t>adf5776d-8785-4b00-b9bf-1498f36be75d</t>
+    <t>182b91db-d9c7-45fc-86f9-71d19e0488b9</t>
   </si>
   <si>
     <t>Value 95615-1 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -546,7 +546,7 @@
     <t>95615-1</t>
   </si>
   <si>
-    <t>7e9dedf3-995a-4e36-b3ad-2139f1f990a1</t>
+    <t>1d5de0af-cbba-42ad-a544-c8e24da0e7f5</t>
   </si>
   <si>
     <t>Value 76513-1 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -555,7 +555,7 @@
     <t>76513-1</t>
   </si>
   <si>
-    <t>59de9820-bce8-4694-a50c-60238f5b6cdc</t>
+    <t>2d77c3bd-a11d-4df0-a430-35958315e396</t>
   </si>
   <si>
     <t>Value 96780-2 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -564,7 +564,7 @@
     <t>96780-2</t>
   </si>
   <si>
-    <t>6d9fb301-17bd-4360-9e94-a41c76178c05</t>
+    <t>18c30399-3dbb-4de5-b597-1624032543ed</t>
   </si>
   <si>
     <t>Value 96781-0 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -573,7 +573,7 @@
     <t>96781-0</t>
   </si>
   <si>
-    <t>9e3d981f-4e7e-49e9-98ad-2352118f2c10</t>
+    <t>11291398-953c-4424-a7ba-04dd2287d832</t>
   </si>
   <si>
     <t>Value 93159-2	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -582,7 +582,7 @@
     <t>93159-2	</t>
   </si>
   <si>
-    <t>06bee207-f171-493f-bac9-0f2595e99308</t>
+    <t>0355cee1-21b7-4ac5-81cc-fbaf5ab9eaaf</t>
   </si>
   <si>
     <t>Value 97027-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -591,7 +591,7 @@
     <t>97027-7</t>
   </si>
   <si>
-    <t>ac51bcdb-1729-42cc-a5e0-8cc052967dad</t>
+    <t>edca6e0f-4cdd-4991-94c8-fd988333e204</t>
   </si>
   <si>
     <t>Value 96782-8	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -600,7 +600,7 @@
     <t>96782-8	</t>
   </si>
   <si>
-    <t>8208472d-aab3-458d-8635-d2ba521a56aa</t>
+    <t>2deb080a-192c-404d-99df-49f5a59b9f1a</t>
   </si>
   <si>
     <t>Value 89555-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -609,7 +609,7 @@
     <t>89555-7</t>
   </si>
   <si>
-    <t>e808a3e6-0b6f-4d64-a7e9-1b689ecd7718</t>
+    <t>c510ecf4-9ec8-44db-8754-fa5b1cee19aa</t>
   </si>
   <si>
     <t>Value 68516-4	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -618,7 +618,7 @@
     <t>68516-4	</t>
   </si>
   <si>
-    <t>1bc09197-07ba-447f-a2cb-1a96f88b2593</t>
+    <t>54c9bca9-9bfe-48fc-875c-fb36249a32e8</t>
   </si>
   <si>
     <t>Value 68517-2 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -627,7 +627,7 @@
     <t>68517-2</t>
   </si>
   <si>
-    <t>62477dc6-e4c8-46c8-9ac9-5ae4e13042e8</t>
+    <t>7f311a74-46f2-4fb0-a277-b3f0ee077039</t>
   </si>
   <si>
     <t>Value 96842-0 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -636,7 +636,7 @@
     <t>96842-0</t>
   </si>
   <si>
-    <t>2e55d592-ee8e-40da-ab23-e8552bce17de</t>
+    <t>5262e0c3-3ac9-4d97-9f76-271bef997ed8</t>
   </si>
   <si>
     <t>Value 95530-2 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -645,7 +645,7 @@
     <t>95530-2</t>
   </si>
   <si>
-    <t>a52cb32c-4978-4067-b1d2-cf4cc4bb1a7d</t>
+    <t>c775d037-dd35-4fc1-a7da-92cc60ff14bf</t>
   </si>
   <si>
     <t>Value 68524-8 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -654,7 +654,7 @@
     <t>68524-8</t>
   </si>
   <si>
-    <t>619ffaf9-c38e-40fa-b85b-e499b2de57b1</t>
+    <t>e03f9c8c-2eb8-4996-bd54-ad5977925aaf</t>
   </si>
   <si>
     <t>Value 44250-9 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -663,7 +663,7 @@
     <t>44250-9</t>
   </si>
   <si>
-    <t>d66ce610-6f17-43d4-bea6-5d017c21b78d</t>
+    <t>3850e254-e0b2-4f1f-a5e3-2a3945cf708c</t>
   </si>
   <si>
     <t>Value 44255-8 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -672,7 +672,7 @@
     <t>44255-8</t>
   </si>
   <si>
-    <t>d05e89d4-756c-4c0f-b347-bb553c75a658</t>
+    <t>456f6795-55b5-4293-a322-644303880bc3</t>
   </si>
   <si>
     <t>Value 93038-8 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -681,7 +681,7 @@
     <t>93038-8</t>
   </si>
   <si>
-    <t>4766624d-ae36-45b9-8bfe-635d8ec19293</t>
+    <t>7b2ede7b-8be3-4dec-bb67-68ba12c7e9c2</t>
   </si>
   <si>
     <t>Value 69858-9 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -690,7 +690,7 @@
     <t>69858-9</t>
   </si>
   <si>
-    <t>183e7b05-a7fc-4c36-a27c-b8977b0b0871</t>
+    <t>3ff3f2ec-58eb-455c-8c87-e707e9fd62ad</t>
   </si>
   <si>
     <t>Value 69861-3	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -699,7 +699,7 @@
     <t>69861-3	</t>
   </si>
   <si>
-    <t>db64ac39-6a9d-4c3b-bcae-fe0c36afb29d</t>
+    <t>c1871143-53b1-4f3e-bf83-1282c3ff03d1</t>
   </si>
   <si>
     <t>Value false in NEED_INDICATED not in allowed list ('TRUE','FALSE')</t>
@@ -714,7 +714,7 @@
     <t>Use only allowed values 'TRUE','FALSE' in NEED_INDICATED</t>
   </si>
   <si>
-    <t>d84afcf9-a556-408e-89ca-8794030bf58e</t>
+    <t>ad9b41e7-b17d-4526-9950-4cbe27acd0a1</t>
   </si>
   <si>
     <t>Value true in NEED_INDICATED not in allowed list ('TRUE','FALSE')</t>
@@ -723,82 +723,82 @@
     <t>true</t>
   </si>
   <si>
-    <t>5c5360f0-6375-44a0-affb-0b9d552d5a8a</t>
-  </si>
-  <si>
-    <t>3bdbf3dc-59d4-4852-a337-912975f7ae6d</t>
-  </si>
-  <si>
-    <t>3fa03bd0-30a7-439c-a5b0-34512397ca6f</t>
-  </si>
-  <si>
-    <t>80a6af0a-9fc2-4bf8-bdf4-4e232212eca4</t>
-  </si>
-  <si>
-    <t>f1d0d809-e010-4186-95a8-ee9878dc0f9f</t>
-  </si>
-  <si>
-    <t>1f16d526-7339-494f-aab4-3875d148b6c3</t>
-  </si>
-  <si>
-    <t>2ea57ef8-5310-4130-a2f3-242d2fb80ba2</t>
-  </si>
-  <si>
-    <t>9b42b1a0-8546-4b7c-8ace-4f8eb3df86aa</t>
-  </si>
-  <si>
-    <t>84c02511-9f22-43e7-bb7d-d2aef579d770</t>
-  </si>
-  <si>
-    <t>5cf87805-b8c0-4e69-899e-55f339f2b6eb</t>
-  </si>
-  <si>
-    <t>d226e490-a5ff-428e-9518-0a1dffcbe3bb</t>
-  </si>
-  <si>
-    <t>3995a99e-9eee-41e6-b7bb-8e2da0d24914</t>
-  </si>
-  <si>
-    <t>bfcff5a9-6894-4399-9192-92de2c62b2a2</t>
-  </si>
-  <si>
-    <t>dee8dced-3caf-4f36-929a-d2123cabf98a</t>
-  </si>
-  <si>
-    <t>e8797b8b-3555-4c05-b6fe-d30a6733baeb</t>
-  </si>
-  <si>
-    <t>e8660fe8-7fd4-4227-a735-95987aeca07c</t>
-  </si>
-  <si>
-    <t>e68c6908-94c8-49df-b266-b9d5229d0eaf</t>
-  </si>
-  <si>
-    <t>892911e3-4612-4a19-a87e-409c086c3260</t>
-  </si>
-  <si>
-    <t>43ca2da9-9eb7-40f1-98e4-5f6f2bd7e4a1</t>
-  </si>
-  <si>
-    <t>7a8dd1c4-ee17-48ba-b5f1-5fa86ca61868</t>
-  </si>
-  <si>
-    <t>ef555323-7236-473e-86c1-5d7496d5742e</t>
-  </si>
-  <si>
-    <t>9a64f9e2-02dd-4e3b-88fd-816e327f4547</t>
-  </si>
-  <si>
-    <t>5efc1d85-305d-4dd5-af3e-d5916567aaa0</t>
-  </si>
-  <si>
-    <t>dc5ff1f0-6458-4395-ad43-6f48fd64bccd</t>
-  </si>
-  <si>
-    <t>8b45852d-cbe1-422c-ac53-1a6964613ef0</t>
-  </si>
-  <si>
-    <t>57256237-8c6e-4d22-b567-45898b75de45</t>
+    <t>cd5b096f-12e3-4759-8db1-bc940700b4ba</t>
+  </si>
+  <si>
+    <t>1267af75-db75-4c07-af88-0219b368cd29</t>
+  </si>
+  <si>
+    <t>99c8f004-6630-4a3a-8ae2-dea34bcc7ee4</t>
+  </si>
+  <si>
+    <t>ef1fd2ce-91fa-45b4-bf6d-8b22473d7549</t>
+  </si>
+  <si>
+    <t>d0fe2cab-29b8-4e57-a220-316fe8cba5f0</t>
+  </si>
+  <si>
+    <t>b02006cd-5783-4e07-92db-6585fd28d124</t>
+  </si>
+  <si>
+    <t>e042ec16-31d9-4b71-b364-9136d7ef15ce</t>
+  </si>
+  <si>
+    <t>9e29983e-d1f1-4a67-af58-5ffae83cc9a1</t>
+  </si>
+  <si>
+    <t>d567b3ee-615b-4619-909d-a3fe4a67e101</t>
+  </si>
+  <si>
+    <t>97ef1762-406a-40b0-aff0-87e482e130ec</t>
+  </si>
+  <si>
+    <t>62a4bf91-69ad-4db5-ac5b-2d0442015d6b</t>
+  </si>
+  <si>
+    <t>97afe996-b24b-4434-8c8e-58a5568e9bd7</t>
+  </si>
+  <si>
+    <t>73a2cb8e-26b5-4404-a3bf-9f3218481e65</t>
+  </si>
+  <si>
+    <t>17984a6e-5ea0-43e1-ade0-3b1968c4f7b2</t>
+  </si>
+  <si>
+    <t>6c430adb-7d08-49b7-937f-69ec0eb34ff7</t>
+  </si>
+  <si>
+    <t>6740aba6-d156-43ff-b2e5-a3224e4c6653</t>
+  </si>
+  <si>
+    <t>0c0d1b67-6658-4c54-ba88-3b165321bd5a</t>
+  </si>
+  <si>
+    <t>665bf2b7-9340-4ee3-b683-be59b83937d8</t>
+  </si>
+  <si>
+    <t>768fdb55-38ef-4ca8-84b2-8320d9d8887d</t>
+  </si>
+  <si>
+    <t>645d6845-d222-4885-a73c-3025ca61c7b3</t>
+  </si>
+  <si>
+    <t>8d3402b3-3e92-44eb-aee9-f52891d7bd8f</t>
+  </si>
+  <si>
+    <t>c03e7b45-9bff-4e0a-a828-c63b8ce9360c</t>
+  </si>
+  <si>
+    <t>25c8d8d9-861b-4990-946f-96f9d8451b0c</t>
+  </si>
+  <si>
+    <t>50c2d4c1-123e-4713-824b-46606bc82218</t>
+  </si>
+  <si>
+    <t>e3da68f2-742c-41c7-b3a6-6f0ed3a00feb</t>
+  </si>
+  <si>
+    <t>aac10f11-16ea-49ca-a068-e95331c179e0</t>
   </si>
   <si>
     <t>Value false in VISIT_PART_2_FLAG not in allowed list ('TRUE','FALSE')</t>
@@ -810,88 +810,88 @@
     <t>Use only allowed values 'TRUE','FALSE' in VISIT_PART_2_FLAG</t>
   </si>
   <si>
-    <t>e506eae1-b00e-4b33-8b79-79703aa0f376</t>
-  </si>
-  <si>
-    <t>ddb9cc13-26c9-4b4f-9641-12ff1f35949f</t>
-  </si>
-  <si>
-    <t>9d834fe8-4025-4946-9b8c-6d7fbff0fd3f</t>
-  </si>
-  <si>
-    <t>a48d4e41-18cc-4177-a18c-d43280d75092</t>
-  </si>
-  <si>
-    <t>2c84e46e-a24b-4c1a-b884-c7353e5dd3af</t>
-  </si>
-  <si>
-    <t>2fd2b503-3f2b-458f-ad99-751c698ab140</t>
-  </si>
-  <si>
-    <t>b06863e8-f899-412e-ba7f-21164b582bf1</t>
-  </si>
-  <si>
-    <t>b1b36f69-3658-4ba2-872e-891affef3386</t>
-  </si>
-  <si>
-    <t>6305d06d-989f-4465-aba1-7a9cce4aace2</t>
-  </si>
-  <si>
-    <t>b4156a2b-5d30-4e0e-b97e-524fd115c092</t>
-  </si>
-  <si>
-    <t>f239a9ba-28db-4cdd-b452-e9e9ee8c3db1</t>
-  </si>
-  <si>
-    <t>7b2d0185-8fae-4656-af9f-44f04cbf6694</t>
-  </si>
-  <si>
-    <t>fc3abcad-e617-438d-bd80-7004f48fe803</t>
-  </si>
-  <si>
-    <t>4dcb099d-ea04-4c72-8825-9ee33e6e7fe4</t>
-  </si>
-  <si>
-    <t>dbe5d442-5564-46b5-911a-4a222ba3a151</t>
-  </si>
-  <si>
-    <t>541f4528-591c-4d3a-b638-11890686723c</t>
-  </si>
-  <si>
-    <t>a7d916bd-d667-4286-8507-48ec50609c04</t>
-  </si>
-  <si>
-    <t>dbdafaaa-9b17-4f9d-a120-64b7415b3afe</t>
+    <t>aa6d7557-ba2d-4075-bcba-16bd752673bf</t>
+  </si>
+  <si>
+    <t>a12b97b5-4c90-483e-a985-83bfd4d58e9c</t>
+  </si>
+  <si>
+    <t>7596300e-dc51-4c9e-a087-161b2ee68228</t>
+  </si>
+  <si>
+    <t>f7880c0c-dd84-4626-a183-79e9bf825516</t>
+  </si>
+  <si>
+    <t>cd1aa848-7be2-4fb6-91d0-f4b061e04b61</t>
+  </si>
+  <si>
+    <t>48fc0545-03db-44aa-84b2-d676e33097b7</t>
+  </si>
+  <si>
+    <t>52618c20-a107-47c9-ac75-8e4f3b04452e</t>
+  </si>
+  <si>
+    <t>10001626-db05-458b-90f7-afa3390e0f81</t>
+  </si>
+  <si>
+    <t>ddd9fb44-f233-46bc-a8be-e62fd965c0b3</t>
+  </si>
+  <si>
+    <t>9032b043-018f-453d-ba35-4d8c38e11c6d</t>
+  </si>
+  <si>
+    <t>ac88504d-4e29-4cd0-96de-a5ad7290d412</t>
+  </si>
+  <si>
+    <t>43d1304b-cc0c-4d5e-a28a-2a7817733494</t>
+  </si>
+  <si>
+    <t>db4fb6cc-c032-4c7c-8231-b51065f0d5e0</t>
+  </si>
+  <si>
+    <t>61040ec1-cc3c-4bf5-8552-ae8c544ee703</t>
+  </si>
+  <si>
+    <t>562f9b33-4948-48ea-989d-3a5e11adc25c</t>
+  </si>
+  <si>
+    <t>2b4c0f28-ca07-4cfb-b6fe-5da3c719abb9</t>
+  </si>
+  <si>
+    <t>c674c04e-d16e-4a8d-ad5e-b089d977189e</t>
+  </si>
+  <si>
+    <t>91dc4ad0-a587-4092-b533-b13705680707</t>
   </si>
   <si>
     <t>Value true in VISIT_PART_2_FLAG not in allowed list ('TRUE','FALSE')</t>
   </si>
   <si>
-    <t>98c1c338-7af1-449c-ba12-a727d2522993</t>
-  </si>
-  <si>
-    <t>0ab71565-f1ea-4eeb-9295-6ae1e53dff51</t>
-  </si>
-  <si>
-    <t>5cb26a8a-110d-400b-b158-de8c5321588a</t>
-  </si>
-  <si>
-    <t>c315c9b2-374a-4e16-a323-42718f345c4e</t>
-  </si>
-  <si>
-    <t>2566b618-5c8c-46ef-a985-0e0dd1295953</t>
-  </si>
-  <si>
-    <t>ebc58797-ed8f-4227-b65e-0e301a265afe</t>
-  </si>
-  <si>
-    <t>24002e76-2637-4212-8d1b-18276fdc855f</t>
-  </si>
-  <si>
-    <t>014a0d29-b9f9-4359-ba37-eea733062058</t>
-  </si>
-  <si>
-    <t>20030643-c1d4-4c0a-bbf8-923c17e6860a</t>
+    <t>a5f45702-0192-4550-ae5d-b6d24eb7c1b3</t>
+  </si>
+  <si>
+    <t>dec3e3c7-ad92-4726-af4f-6ede46b091f9</t>
+  </si>
+  <si>
+    <t>03e0f46e-a9df-4ba5-8a3d-7d505d43f2e6</t>
+  </si>
+  <si>
+    <t>1e325f72-9f46-4b8f-993a-4e1e6dcbd6d4</t>
+  </si>
+  <si>
+    <t>994c7d58-d3ec-402b-a2ed-a71c41cab968</t>
+  </si>
+  <si>
+    <t>c4546a9b-4c03-41eb-8139-38b396cd7a90</t>
+  </si>
+  <si>
+    <t>55d6b53e-57b9-4c30-bd65-6a399fa243bc</t>
+  </si>
+  <si>
+    <t>2c94ec91-d26a-4c72-b451-ef7f26c43930</t>
+  </si>
+  <si>
+    <t>8ae744ad-f7b4-4442-b7c4-eb6b5ec122ea</t>
   </si>
   <si>
     <t>Value false in VISIT_OMH_FLAG not in allowed list ('TRUE','FALSE')</t>
@@ -903,85 +903,85 @@
     <t>Use only allowed values 'TRUE','FALSE' in VISIT_OMH_FLAG</t>
   </si>
   <si>
-    <t>ed2ab7b2-a7dc-4a41-a7db-c173fc95f918</t>
-  </si>
-  <si>
-    <t>e1ff200e-740c-4b14-a100-486bf0701bd6</t>
-  </si>
-  <si>
-    <t>659721b1-02ab-405f-890b-5e01ecb29277</t>
-  </si>
-  <si>
-    <t>15924218-8df9-4aae-b4f0-05c2bea986c4</t>
-  </si>
-  <si>
-    <t>7391a520-72b3-4017-9707-16f7dff6a1a6</t>
-  </si>
-  <si>
-    <t>9d6d80a4-4509-4bbf-b464-6dc6d9237f5b</t>
-  </si>
-  <si>
-    <t>0d755d21-b40e-452b-9523-535726b8bc28</t>
-  </si>
-  <si>
-    <t>9691a743-0cca-489a-bf1b-d792fa25564f</t>
-  </si>
-  <si>
-    <t>22d84121-b050-43cd-94f9-c4c1bd6c8935</t>
-  </si>
-  <si>
-    <t>ea39fa8d-74a5-458e-ba72-ce9973491ac3</t>
-  </si>
-  <si>
-    <t>e2acc918-b8e4-4a4a-8302-c8e97a9211ad</t>
-  </si>
-  <si>
-    <t>24ab0104-cd26-46f4-8ea0-d2818068510f</t>
-  </si>
-  <si>
-    <t>95c0492e-041b-418b-bfeb-14a1e1186659</t>
-  </si>
-  <si>
-    <t>8f9c0aea-70b7-416f-8eea-22087a702e38</t>
-  </si>
-  <si>
-    <t>3a47254f-441a-44df-958d-d3466b8235e6</t>
-  </si>
-  <si>
-    <t>94ca6c28-b324-42d8-9329-781e3ba71f43</t>
-  </si>
-  <si>
-    <t>08939bcd-0abc-44c4-8c68-559969d59082</t>
-  </si>
-  <si>
-    <t>271831a4-b175-4a48-a173-8e42a6024ae9</t>
-  </si>
-  <si>
-    <t>0e2edefd-b282-4f60-8b35-5d0d6ece4452</t>
-  </si>
-  <si>
-    <t>630a6eae-1b5b-4adf-82bc-44484bd4c047</t>
-  </si>
-  <si>
-    <t>999831ba-914b-4b33-8fda-831f800a17ad</t>
-  </si>
-  <si>
-    <t>f8fda3f7-56c3-48ae-878d-0952adb674b3</t>
-  </si>
-  <si>
-    <t>97063eee-9ce7-44a6-9ba1-781c7dfa464f</t>
-  </si>
-  <si>
-    <t>a946323a-23de-4eff-9bfc-5bc6e49d4740</t>
-  </si>
-  <si>
-    <t>c997e735-9326-4805-9ea8-2e4ffb727131</t>
-  </si>
-  <si>
-    <t>72e6ab00-eb68-4f5a-ab6d-1d1b54b7e406</t>
-  </si>
-  <si>
-    <t>52131706-0693-4472-9056-fc17fdc378f1</t>
+    <t>ecf37f45-081f-4a8a-becc-6dabb0ab5fed</t>
+  </si>
+  <si>
+    <t>a101ea39-a97c-443f-86cd-d42116c682c8</t>
+  </si>
+  <si>
+    <t>9186c474-21de-4ed2-8a0c-a54563fa41fd</t>
+  </si>
+  <si>
+    <t>9cd84164-3eb8-4838-930a-97275f1f7c30</t>
+  </si>
+  <si>
+    <t>c7c97874-6b9a-4fcd-bdd3-ce64b74dd9fb</t>
+  </si>
+  <si>
+    <t>211b5b91-185a-47a9-9fe4-d81ec0212b06</t>
+  </si>
+  <si>
+    <t>faedc5e4-ebba-421f-b868-6a3e7c219cf9</t>
+  </si>
+  <si>
+    <t>877e5fac-ac96-463d-91ce-ac6fe1d0d49e</t>
+  </si>
+  <si>
+    <t>3f03a5bd-7af0-49a5-9b49-6a1e851045c6</t>
+  </si>
+  <si>
+    <t>711e11a1-e097-4dad-8cac-f92e9572b6be</t>
+  </si>
+  <si>
+    <t>bcf5b66b-eda8-437c-8e5b-73b73f60e937</t>
+  </si>
+  <si>
+    <t>64465f09-cabd-4457-9279-6dc26a9f4fd6</t>
+  </si>
+  <si>
+    <t>1aeaf602-55e2-44e2-9924-6b793aebb69c</t>
+  </si>
+  <si>
+    <t>1acffa15-8021-4a8b-bb75-802861427ee0</t>
+  </si>
+  <si>
+    <t>d0a7aec8-c0f5-4e5b-8635-68ff44f658d1</t>
+  </si>
+  <si>
+    <t>4b0f38b5-68df-4d48-8293-be32c645e0b4</t>
+  </si>
+  <si>
+    <t>d76ca0fa-2b40-44bc-88da-a1ca980c40c1</t>
+  </si>
+  <si>
+    <t>8f3e80d8-d996-4455-826d-a4fae88cdeda</t>
+  </si>
+  <si>
+    <t>78a1d30b-ca68-43e2-ad5d-742968b5c4e2</t>
+  </si>
+  <si>
+    <t>f2f28807-b8de-4b4d-a85a-ee74c4475337</t>
+  </si>
+  <si>
+    <t>45132a92-2e13-42f3-b227-bf6b223ccc30</t>
+  </si>
+  <si>
+    <t>4aba9bf5-0d92-4044-9dba-667eb4f9498d</t>
+  </si>
+  <si>
+    <t>515488cf-bafa-4142-90d3-cca671935987</t>
+  </si>
+  <si>
+    <t>8b1b7a6d-e4c0-439c-ac30-d76cb293bd64</t>
+  </si>
+  <si>
+    <t>5b65f0ca-3e39-425c-9b3d-a9521bbae9f3</t>
+  </si>
+  <si>
+    <t>538f8ba4-06cf-4e77-b3c6-34a674dfc307</t>
+  </si>
+  <si>
+    <t>52e9a4b6-3d6f-459c-a52f-25fdb2c1cc0f</t>
   </si>
   <si>
     <t>Value false in VISIT_OPWDD_FLAG not in allowed list ('TRUE','FALSE')</t>
@@ -993,82 +993,82 @@
     <t>Use only allowed values 'TRUE','FALSE' in VISIT_OPWDD_FLAG</t>
   </si>
   <si>
-    <t>f6c35bcc-c382-4841-90a5-93d871af4c3a</t>
-  </si>
-  <si>
-    <t>d7f90076-a178-430a-8bcc-2df768552a81</t>
-  </si>
-  <si>
-    <t>a8c90640-ad29-48e9-b69b-ba2d5362b5f2</t>
-  </si>
-  <si>
-    <t>97c9e81b-1710-4bad-9a08-eeada19821f3</t>
-  </si>
-  <si>
-    <t>470684a2-20d0-430e-a8cb-b8f53aee6ed8</t>
-  </si>
-  <si>
-    <t>964aeb1e-f7a0-447c-a970-4dbf23a94507</t>
-  </si>
-  <si>
-    <t>bde06c67-16b6-4064-9ed5-9bcd51073561</t>
-  </si>
-  <si>
-    <t>f4164dc2-db4f-4480-87e0-31f4d43a99ce</t>
-  </si>
-  <si>
-    <t>67c7f9b9-4534-4532-a409-734aa8deca9a</t>
-  </si>
-  <si>
-    <t>586f298e-1cd2-41b3-b899-752d5bc91257</t>
-  </si>
-  <si>
-    <t>c567371b-1e91-4a7f-8a8c-7780a4f34376</t>
-  </si>
-  <si>
-    <t>fe6e972c-e8fd-44bc-8dc4-e9ad92daf0a3</t>
-  </si>
-  <si>
-    <t>620e21a6-d994-4cb7-82a8-4bc6e4706e1d</t>
-  </si>
-  <si>
-    <t>6976077c-99ef-4134-8e50-8554c4b7dc8c</t>
-  </si>
-  <si>
-    <t>d69e8517-1055-461f-a29f-218c713e770e</t>
-  </si>
-  <si>
-    <t>ffc205f6-18e3-4159-88e3-bb584ff03d2d</t>
-  </si>
-  <si>
-    <t>5d19ce3a-4fe6-433f-9060-eb22401f86cc</t>
-  </si>
-  <si>
-    <t>2a0ebcd7-fd16-4763-a79f-1751cc5c4c47</t>
-  </si>
-  <si>
-    <t>a0091998-cc46-4a05-8f30-1639db791c87</t>
-  </si>
-  <si>
-    <t>705034d9-6803-4333-89c9-f6009a554304</t>
-  </si>
-  <si>
-    <t>68d76074-9074-4523-8780-72a9462f6631</t>
-  </si>
-  <si>
-    <t>a0c4b587-2836-4635-935e-68828776ed69</t>
-  </si>
-  <si>
-    <t>52ad3ae7-dc25-42b6-a2e1-b799fc1c473a</t>
-  </si>
-  <si>
-    <t>3e218b23-e99c-4e0c-a9bf-e3ae7c72a4c6</t>
-  </si>
-  <si>
-    <t>e746683d-88ee-44d6-9d25-2b63c4633625</t>
-  </si>
-  <si>
-    <t>ae90c72b-7e19-4740-8e26-9a586603ea22</t>
+    <t>b1f55aae-fd97-4531-b068-4d412134cfbf</t>
+  </si>
+  <si>
+    <t>2deed5e9-d6a3-4363-b9f1-7955e01876a5</t>
+  </si>
+  <si>
+    <t>45edd0f3-163d-430a-9ca5-96799e81d72d</t>
+  </si>
+  <si>
+    <t>f509e77d-16c8-4739-b4ae-005b1ad8c27a</t>
+  </si>
+  <si>
+    <t>ec141418-942c-439a-92f1-34424612ff4a</t>
+  </si>
+  <si>
+    <t>a668ca97-07f0-4362-a84e-808bff8de94b</t>
+  </si>
+  <si>
+    <t>1b2c1c50-63f9-4a47-8275-0071de32b6be</t>
+  </si>
+  <si>
+    <t>1ecc83cd-4e42-4914-a5db-22cdd027ee9e</t>
+  </si>
+  <si>
+    <t>844c3154-b6ba-474b-92dd-122f02e12fd2</t>
+  </si>
+  <si>
+    <t>71835028-2616-4c24-aa65-76c14725442d</t>
+  </si>
+  <si>
+    <t>0e8f2e18-8d28-410b-9032-c2a034d499a0</t>
+  </si>
+  <si>
+    <t>69fde92c-3dfd-4c68-853b-b25231ccfbf6</t>
+  </si>
+  <si>
+    <t>067925b4-ff2b-41c8-9656-18e4fcfb2189</t>
+  </si>
+  <si>
+    <t>350f50bb-9d56-4289-9631-434f3e6ef6b6</t>
+  </si>
+  <si>
+    <t>c94d3dd1-2777-4c27-9609-6c514b2e13c7</t>
+  </si>
+  <si>
+    <t>dff9ba69-d523-4c7f-bd8d-4779c3e542fe</t>
+  </si>
+  <si>
+    <t>81a47774-facd-4ccf-8267-94e1c12e8b13</t>
+  </si>
+  <si>
+    <t>a1f59058-494e-40bf-b1fb-4c9c04970216</t>
+  </si>
+  <si>
+    <t>3d16878b-3c2c-48f8-8ef0-3a1a26961f98</t>
+  </si>
+  <si>
+    <t>6792c429-0203-4624-8970-4430b1efc4fb</t>
+  </si>
+  <si>
+    <t>5b28a8a7-e506-492e-975d-b7739838e93a</t>
+  </si>
+  <si>
+    <t>f222b01b-47b2-462d-9c25-d40f24b78e96</t>
+  </si>
+  <si>
+    <t>fc85c3e1-5c95-4037-afe1-037ec414169e</t>
+  </si>
+  <si>
+    <t>1d82ccc2-f41a-4114-b3d2-6c756ac312e5</t>
+  </si>
+  <si>
+    <t>ab25c6e7-0c1f-424f-a3a9-64509cf7fd0e</t>
+  </si>
+  <si>
+    <t>efc9abd3-7689-42e0-af36-315e20412e37</t>
   </si>
   <si>
     <t>2afb3098-bcfd-5a54-8ebb-4d65d399c55e</t>
@@ -1080,7 +1080,7 @@
     <t>ahc_hrsn_2024_01_25_valid_admin_demographic</t>
   </si>
   <si>
-    <t>c6b9bfcb-6a70-4953-b237-71d5b5ebfa78</t>
+    <t>0bfd672c-260b-499d-ad8d-70442e586806</t>
   </si>
   <si>
     <t>Value 	20430005 in SEXUAL_ORIENTATION_CODE not in allowed list ('42035005','20430005','38628009','OTH','UNK')</t>
@@ -1101,7 +1101,7 @@
     <t>ahc_hrsn_2024_01_25_valid_screening</t>
   </si>
   <si>
-    <t>1d96dfd3-050f-4985-a7ab-4d14a4d0dd0a</t>
+    <t>c796a36d-3fd3-461b-9f4f-d79e30335bff</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -1116,16 +1116,16 @@
     <t>Provide a value for SCREENING_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>07059d07-4a45-4012-a233-cbf818a935e1</t>
-  </si>
-  <si>
-    <t>c2ccbc63-3294-4df6-b4a2-516dc4909288</t>
-  </si>
-  <si>
-    <t>72e0854e-f751-4968-9fc9-7cb27768ceb3</t>
-  </si>
-  <si>
-    <t>d3c24e24-e8fd-46f8-af92-40b2c4dba5f5</t>
+    <t>3474d363-f086-4760-8f98-227864ab055c</t>
+  </si>
+  <si>
+    <t>f91e1895-fa7c-4df9-82a9-39379062b0bc</t>
+  </si>
+  <si>
+    <t>127558cb-8bb1-486c-b127-27a52256e9eb</t>
+  </si>
+  <si>
+    <t>5b4f9220-a142-4de0-9ef8-c51e243a315e</t>
   </si>
   <si>
     <t>Mandatory field SCREENING_CODE is empty</t>
@@ -1137,16 +1137,16 @@
     <t>Provide a value for SCREENING_CODE</t>
   </si>
   <si>
-    <t>e1b6190c-38bd-418f-a1ba-8fbfc5a7b575</t>
-  </si>
-  <si>
-    <t>9c83dbe1-fb40-428c-a3f4-7d76ed833129</t>
-  </si>
-  <si>
-    <t>005fdf80-24f2-4682-9c61-c80544c7f587</t>
-  </si>
-  <si>
-    <t>effb11b5-9bdf-498d-9302-a5ab23410e26</t>
+    <t>8a3ce826-600c-4929-a598-1d579ac0b1a0</t>
+  </si>
+  <si>
+    <t>08cc3aa4-3a68-4f75-a33c-988ffa7d2c27</t>
+  </si>
+  <si>
+    <t>061f891a-9d62-4b9a-9e7a-94c7ab3fbb94</t>
+  </si>
+  <si>
+    <t>0a9433ad-150a-4fc1-9bfa-80fa95d72d92</t>
   </si>
   <si>
     <t>Mandatory field QUESTION_CODE is empty</t>
@@ -1155,16 +1155,16 @@
     <t>Provide a value for QUESTION_CODE</t>
   </si>
   <si>
-    <t>5f6333ac-3555-405b-97d8-ee962008e50f</t>
-  </si>
-  <si>
-    <t>2f0fba0c-4c81-4446-819c-cb189950b666</t>
-  </si>
-  <si>
-    <t>f318d1b5-fd8f-425b-af14-718e0ac0dad3</t>
-  </si>
-  <si>
-    <t>c4aae64e-fd2c-49e8-804d-669d063aa4e6</t>
+    <t>613b7841-ec05-4dc2-8f60-0ef0191f1832</t>
+  </si>
+  <si>
+    <t>cd08e268-d48a-4564-88ee-97288babeb74</t>
+  </si>
+  <si>
+    <t>3306f96a-3c06-4d1e-ab0d-a9e0414b39bb</t>
+  </si>
+  <si>
+    <t>fe422644-8791-4e73-a392-21c5910469d7</t>
   </si>
   <si>
     <t>Mandatory field QUESTION_CODE_SYSTEM_NAME is empty</t>
@@ -1176,16 +1176,16 @@
     <t>Provide a value for QUESTION_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>70245c4c-d217-45a7-8de8-be3b0b5021f8</t>
-  </si>
-  <si>
-    <t>8e4ef763-a972-4151-9f88-e40d373d91e3</t>
-  </si>
-  <si>
-    <t>4594712d-de19-45ea-9548-fe605b57b1ec</t>
-  </si>
-  <si>
-    <t>772953ad-4cf2-4913-9851-00cc16e1c6f5</t>
+    <t>dde6ef84-7491-42cf-9341-f154afa964a1</t>
+  </si>
+  <si>
+    <t>d9840dbb-51b2-4602-9569-790bb5065775</t>
+  </si>
+  <si>
+    <t>f516fccb-a4db-4c94-9912-ed60467e8906</t>
+  </si>
+  <si>
+    <t>6c8154bb-ce8a-4193-8b30-74817589f5ee</t>
   </si>
   <si>
     <t>Mandatory field ANSWER_CODE is empty</t>
@@ -1197,22 +1197,22 @@
     <t>Provide a value for ANSWER_CODE</t>
   </si>
   <si>
-    <t>baa8e05a-7cb3-4b7d-aee3-ad14fe172266</t>
-  </si>
-  <si>
-    <t>4e952ace-93e2-4cf6-944d-52d54a32e22a</t>
-  </si>
-  <si>
-    <t>f9d3a06a-0943-4204-ab7b-67ab83cdc11b</t>
-  </si>
-  <si>
-    <t>65f28648-421b-4e40-bdc7-9cd45bf9053a</t>
-  </si>
-  <si>
-    <t>58890c7a-b578-48a7-aa20-acb7a3bb3197</t>
-  </si>
-  <si>
-    <t>4b74a565-ef30-4ef3-b6aa-e8d474c4cc13</t>
+    <t>f4b2d979-0846-43fe-87f7-aaa1a8b882b0</t>
+  </si>
+  <si>
+    <t>56511bb5-4b56-43c1-8f1c-1ed82664016c</t>
+  </si>
+  <si>
+    <t>2a9da0c2-f754-4f24-9857-d7cbbc668853</t>
+  </si>
+  <si>
+    <t>f1aa86f8-d476-49dc-887c-23e4a934c884</t>
+  </si>
+  <si>
+    <t>cc2dfe63-1674-46b1-826d-9498a9952866</t>
+  </si>
+  <si>
+    <t>569ffd82-32f7-40ad-904f-e61825bcd14d</t>
   </si>
   <si>
     <t>Mandatory field ANSWER_CODE_SYSTEM_NAME is empty</t>
@@ -1224,19 +1224,19 @@
     <t>Provide a value for ANSWER_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>a05fb005-80cc-4e90-a720-73a0e37ec5d2</t>
-  </si>
-  <si>
-    <t>13e76153-6c76-4f3d-932d-82c4986ad74a</t>
-  </si>
-  <si>
-    <t>1b25ed25-417c-4ca6-a4c3-f27e760cbc54</t>
-  </si>
-  <si>
-    <t>1df3ab74-0549-4c4b-bcd8-540c7c3e7202</t>
-  </si>
-  <si>
-    <t>ff909909-e244-4afc-8425-44a99dc83635</t>
+    <t>bdd64e84-1cbd-4ffe-a2d4-455dc2ed23c3</t>
+  </si>
+  <si>
+    <t>ef0ebf61-3f2d-441a-93a7-e3a026ca338f</t>
+  </si>
+  <si>
+    <t>831016b2-caa0-4f36-83fb-eb9511085c95</t>
+  </si>
+  <si>
+    <t>79718a15-5d27-4ef5-b758-e2cf8502b30c</t>
+  </si>
+  <si>
+    <t>ceba7a1e-afd1-4741-bb7b-869755ae23f2</t>
   </si>
   <si>
     <t>86ff3ab6-900d-5474-b63c-cbcac3c66f1a</t>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -255,7 +255,7 @@
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>47391431-8b8d-44f7-b7ad-0a5ec9457269</t>
+    <t>a58b9b5d-bc24-4331-a0e3-9a640e331705</t>
   </si>
   <si>
     <t>Missing Column</t>
@@ -267,7 +267,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>adeec7a6-f457-468b-acc0-14c234096f3f</t>
+    <t>3860d091-d94d-4ac4-a9ee-7841494c22b9</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -276,7 +276,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>e7f84daa-fb8f-488c-81af-6219d6576eb1</t>
+    <t>41ddcc8c-cdea-4339-a796-23a100ebc9bf</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -285,7 +285,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>d72c715a-79f6-47ed-ad4e-2d66acf93cac</t>
+    <t>ff0c36d7-cbb9-45d2-80a8-9ea8967646aa</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -294,7 +294,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>a43e7f17-0dd3-49f2-b7f0-c58c055e6cf1</t>
+    <t>816c9a41-536e-482a-a1e2-cfc3a9ff839c</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -303,7 +303,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>b3abf54b-92fb-4d98-bc83-ef06155da0fd</t>
+    <t>ec4115d4-882b-47bf-92c9-d3e01d2152ea</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -312,7 +312,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>cd244eeb-4d4a-43b5-a731-eff45d554045</t>
+    <t>c1358876-388b-4ecd-a4cf-d22577045e6e</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -321,7 +321,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>af60ef36-c9f4-418c-baba-c818bf994d70</t>
+    <t>11f6a6ac-a621-466e-af0e-795201617eb0</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -330,7 +330,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>476ba583-78a2-413c-a5c8-f98cafc6ca57</t>
+    <t>49d19ca5-ff15-47b4-8dd1-ff7178dafb69</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -339,7 +339,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>e7609f3d-0642-4220-8c7c-142a2f019fa2</t>
+    <t>36124f7d-6013-4d54-8bd1-b62b75cd070e</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -348,7 +348,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>e3dfe3da-cabe-407d-9aa4-aa2b999d0438</t>
+    <t>e9be76dd-ddc0-48bb-b9e7-6c52a7283472</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -357,7 +357,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>b8050943-12a1-4bcd-8e92-f60f46b69ee7</t>
+    <t>75dbaf65-57e9-49e8-b835-dd6de3e56d97</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -366,7 +366,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>e5e4ac78-a598-464d-838c-83640ad49ad3</t>
+    <t>9bad977a-e9e5-472b-81f7-9ec4d6cf1721</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -375,7 +375,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>61f9406e-02ec-4c72-9617-3a59754a9f89</t>
+    <t>baa4f65c-5fbe-4e4f-8948-b8e47b485ea2</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -384,7 +384,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>f6a5644a-e164-43a4-934f-1753738ff750</t>
+    <t>c5c52f1f-22bc-4e11-8864-17783c9a80f4</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -393,7 +393,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>0f59a624-3b9f-4229-ab73-c470b4222558</t>
+    <t>c65ab026-cadc-42f2-b317-b4fa5f532d28</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -402,7 +402,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>872c338e-4e3b-448d-87c7-d3f745faf15e</t>
+    <t>cded0d34-2904-4693-bd3b-fc45f0d2bd12</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -411,7 +411,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>aaf428d1-9873-4aef-ba7c-f41be0ae38f4</t>
+    <t>bc938a0e-8f37-4aeb-a45d-a80eb219e904</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -420,7 +420,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>38ef7636-40ed-4ffe-ae51-197bff0364c1</t>
+    <t>ecefa7cd-5ec6-4781-b4d8-4a1cdee286c3</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -429,7 +429,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>62afc447-4e5a-411d-a647-e49c460e827e</t>
+    <t>965f300a-8cfb-413f-a6fb-7b862dcefc2d</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -438,7 +438,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
   </si>
   <si>
-    <t>9e3df00e-a382-408a-be43-68717b43f067</t>
+    <t>9839803c-c8b3-4a32-8cdb-47ac28c43ca3</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -456,7 +456,7 @@
     <t>ahc_hrsn_2023_12_12_valid</t>
   </si>
   <si>
-    <t>06c107ff-205b-4798-adea-162e0143af35</t>
+    <t>222df9d5-2ccd-4ba6-b5df-54894aa9bdbc</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -474,7 +474,7 @@
     <t>Use only allowed values '71802-3','96778-6' in QUESTION_CODE</t>
   </si>
   <si>
-    <t>da49021d-c649-41be-b39a-50905078c486</t>
+    <t>68be5a76-9ae9-47f0-a2ec-81d0682f2b51</t>
   </si>
   <si>
     <t>Value 88122-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -483,7 +483,7 @@
     <t>88122-7</t>
   </si>
   <si>
-    <t>f03a21a0-548f-41b1-a349-75f4c4f7a337</t>
+    <t>e6b40756-db9c-49a6-984a-1df62cfbe7e8</t>
   </si>
   <si>
     <t>Value 88123-5 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -492,7 +492,7 @@
     <t>88123-5</t>
   </si>
   <si>
-    <t>f0807d98-04e3-4d13-bc3c-6d3355c49e30</t>
+    <t>802ef63a-e1da-4309-9b7c-8956beb142e1</t>
   </si>
   <si>
     <t>Value 93030-5 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -501,7 +501,7 @@
     <t>93030-5</t>
   </si>
   <si>
-    <t>fe2fdabb-14b2-4aea-9302-844edaf389be</t>
+    <t>de6dcf64-e504-4c0b-bebb-fbcc517f823a</t>
   </si>
   <si>
     <t>Value 96779-4 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -510,7 +510,7 @@
     <t>96779-4</t>
   </si>
   <si>
-    <t>fb7182d3-8208-48e2-97b2-a82677a88137</t>
+    <t>6e39b643-e1c9-49a5-a130-e7ee09223efb</t>
   </si>
   <si>
     <t>Value 95618-5 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -519,7 +519,7 @@
     <t>95618-5</t>
   </si>
   <si>
-    <t>3a815c1a-89bc-402b-95be-2bf8fa45127c</t>
+    <t>a599a953-0257-4c23-9216-7eba9b8e825f</t>
   </si>
   <si>
     <t>Value 95617-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -528,7 +528,7 @@
     <t>95617-7</t>
   </si>
   <si>
-    <t>b478654f-41a9-4bb9-a955-74b9b1973254</t>
+    <t>bf2cc2e5-214f-4177-8b73-c4be58002e45</t>
   </si>
   <si>
     <t>Value 95616-9 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -537,7 +537,7 @@
     <t>95616-9</t>
   </si>
   <si>
-    <t>182b91db-d9c7-45fc-86f9-71d19e0488b9</t>
+    <t>48117ff7-4689-48f4-a195-cf6b69198051</t>
   </si>
   <si>
     <t>Value 95615-1 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -546,7 +546,7 @@
     <t>95615-1</t>
   </si>
   <si>
-    <t>1d5de0af-cbba-42ad-a544-c8e24da0e7f5</t>
+    <t>d8fc6ae2-ebbe-485f-b204-2393ea3ec994</t>
   </si>
   <si>
     <t>Value 76513-1 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -555,7 +555,7 @@
     <t>76513-1</t>
   </si>
   <si>
-    <t>2d77c3bd-a11d-4df0-a430-35958315e396</t>
+    <t>4acfc863-3e1b-4aa1-a2b2-283c1fe8c364</t>
   </si>
   <si>
     <t>Value 96780-2 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -564,7 +564,7 @@
     <t>96780-2</t>
   </si>
   <si>
-    <t>18c30399-3dbb-4de5-b597-1624032543ed</t>
+    <t>f3e5d0c0-817b-43b9-820c-c4952bcacef0</t>
   </si>
   <si>
     <t>Value 96781-0 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -573,7 +573,7 @@
     <t>96781-0</t>
   </si>
   <si>
-    <t>11291398-953c-4424-a7ba-04dd2287d832</t>
+    <t>7d8396ca-80b5-4b36-91b4-4a98c8819ec1</t>
   </si>
   <si>
     <t>Value 93159-2	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -582,7 +582,7 @@
     <t>93159-2	</t>
   </si>
   <si>
-    <t>0355cee1-21b7-4ac5-81cc-fbaf5ab9eaaf</t>
+    <t>bf54f5db-adb2-49cc-8bcb-28a44126ee48</t>
   </si>
   <si>
     <t>Value 97027-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -591,7 +591,7 @@
     <t>97027-7</t>
   </si>
   <si>
-    <t>edca6e0f-4cdd-4991-94c8-fd988333e204</t>
+    <t>9198619b-ec93-4fec-b269-4c0a4aae8452</t>
   </si>
   <si>
     <t>Value 96782-8	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -600,7 +600,7 @@
     <t>96782-8	</t>
   </si>
   <si>
-    <t>2deb080a-192c-404d-99df-49f5a59b9f1a</t>
+    <t>fe955683-66f1-4276-80a7-a21349991ed7</t>
   </si>
   <si>
     <t>Value 89555-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -609,7 +609,7 @@
     <t>89555-7</t>
   </si>
   <si>
-    <t>c510ecf4-9ec8-44db-8754-fa5b1cee19aa</t>
+    <t>22188e21-8580-40e5-b452-51ad68fd59c3</t>
   </si>
   <si>
     <t>Value 68516-4	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -618,7 +618,7 @@
     <t>68516-4	</t>
   </si>
   <si>
-    <t>54c9bca9-9bfe-48fc-875c-fb36249a32e8</t>
+    <t>53a6982a-18cb-4036-8c82-05d4acd74d2f</t>
   </si>
   <si>
     <t>Value 68517-2 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -627,7 +627,7 @@
     <t>68517-2</t>
   </si>
   <si>
-    <t>7f311a74-46f2-4fb0-a277-b3f0ee077039</t>
+    <t>30f2c836-a651-465d-a41e-959b890b3896</t>
   </si>
   <si>
     <t>Value 96842-0 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -636,7 +636,7 @@
     <t>96842-0</t>
   </si>
   <si>
-    <t>5262e0c3-3ac9-4d97-9f76-271bef997ed8</t>
+    <t>99c07054-1037-4c19-9c40-41048c93896a</t>
   </si>
   <si>
     <t>Value 95530-2 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -645,7 +645,7 @@
     <t>95530-2</t>
   </si>
   <si>
-    <t>c775d037-dd35-4fc1-a7da-92cc60ff14bf</t>
+    <t>fffc3ca7-555b-473a-9bfb-c26522f4b970</t>
   </si>
   <si>
     <t>Value 68524-8 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -654,7 +654,7 @@
     <t>68524-8</t>
   </si>
   <si>
-    <t>e03f9c8c-2eb8-4996-bd54-ad5977925aaf</t>
+    <t>ec14109b-db1a-4c1c-a456-5ccfd93937e5</t>
   </si>
   <si>
     <t>Value 44250-9 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -663,7 +663,7 @@
     <t>44250-9</t>
   </si>
   <si>
-    <t>3850e254-e0b2-4f1f-a5e3-2a3945cf708c</t>
+    <t>74f8798e-d50f-449e-b786-9771a07becf6</t>
   </si>
   <si>
     <t>Value 44255-8 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -672,7 +672,7 @@
     <t>44255-8</t>
   </si>
   <si>
-    <t>456f6795-55b5-4293-a322-644303880bc3</t>
+    <t>b551d98b-4234-42a1-95af-0975f3622a72</t>
   </si>
   <si>
     <t>Value 93038-8 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -681,7 +681,7 @@
     <t>93038-8</t>
   </si>
   <si>
-    <t>7b2ede7b-8be3-4dec-bb67-68ba12c7e9c2</t>
+    <t>e7956b29-2f1f-44d0-b677-189dafecd9d9</t>
   </si>
   <si>
     <t>Value 69858-9 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -690,7 +690,7 @@
     <t>69858-9</t>
   </si>
   <si>
-    <t>3ff3f2ec-58eb-455c-8c87-e707e9fd62ad</t>
+    <t>9c0829f6-a638-4840-9bf7-e8f093975adf</t>
   </si>
   <si>
     <t>Value 69861-3	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -699,7 +699,7 @@
     <t>69861-3	</t>
   </si>
   <si>
-    <t>c1871143-53b1-4f3e-bf83-1282c3ff03d1</t>
+    <t>c4497746-4c72-41c3-9d9d-60bdc468e3b0</t>
   </si>
   <si>
     <t>Value false in NEED_INDICATED not in allowed list ('TRUE','FALSE')</t>
@@ -714,7 +714,7 @@
     <t>Use only allowed values 'TRUE','FALSE' in NEED_INDICATED</t>
   </si>
   <si>
-    <t>ad9b41e7-b17d-4526-9950-4cbe27acd0a1</t>
+    <t>33ef191c-3f9d-4cae-8e16-1a912e7a0297</t>
   </si>
   <si>
     <t>Value true in NEED_INDICATED not in allowed list ('TRUE','FALSE')</t>
@@ -723,82 +723,82 @@
     <t>true</t>
   </si>
   <si>
-    <t>cd5b096f-12e3-4759-8db1-bc940700b4ba</t>
-  </si>
-  <si>
-    <t>1267af75-db75-4c07-af88-0219b368cd29</t>
-  </si>
-  <si>
-    <t>99c8f004-6630-4a3a-8ae2-dea34bcc7ee4</t>
-  </si>
-  <si>
-    <t>ef1fd2ce-91fa-45b4-bf6d-8b22473d7549</t>
-  </si>
-  <si>
-    <t>d0fe2cab-29b8-4e57-a220-316fe8cba5f0</t>
-  </si>
-  <si>
-    <t>b02006cd-5783-4e07-92db-6585fd28d124</t>
-  </si>
-  <si>
-    <t>e042ec16-31d9-4b71-b364-9136d7ef15ce</t>
-  </si>
-  <si>
-    <t>9e29983e-d1f1-4a67-af58-5ffae83cc9a1</t>
-  </si>
-  <si>
-    <t>d567b3ee-615b-4619-909d-a3fe4a67e101</t>
-  </si>
-  <si>
-    <t>97ef1762-406a-40b0-aff0-87e482e130ec</t>
-  </si>
-  <si>
-    <t>62a4bf91-69ad-4db5-ac5b-2d0442015d6b</t>
-  </si>
-  <si>
-    <t>97afe996-b24b-4434-8c8e-58a5568e9bd7</t>
-  </si>
-  <si>
-    <t>73a2cb8e-26b5-4404-a3bf-9f3218481e65</t>
-  </si>
-  <si>
-    <t>17984a6e-5ea0-43e1-ade0-3b1968c4f7b2</t>
-  </si>
-  <si>
-    <t>6c430adb-7d08-49b7-937f-69ec0eb34ff7</t>
-  </si>
-  <si>
-    <t>6740aba6-d156-43ff-b2e5-a3224e4c6653</t>
-  </si>
-  <si>
-    <t>0c0d1b67-6658-4c54-ba88-3b165321bd5a</t>
-  </si>
-  <si>
-    <t>665bf2b7-9340-4ee3-b683-be59b83937d8</t>
-  </si>
-  <si>
-    <t>768fdb55-38ef-4ca8-84b2-8320d9d8887d</t>
-  </si>
-  <si>
-    <t>645d6845-d222-4885-a73c-3025ca61c7b3</t>
-  </si>
-  <si>
-    <t>8d3402b3-3e92-44eb-aee9-f52891d7bd8f</t>
-  </si>
-  <si>
-    <t>c03e7b45-9bff-4e0a-a828-c63b8ce9360c</t>
-  </si>
-  <si>
-    <t>25c8d8d9-861b-4990-946f-96f9d8451b0c</t>
-  </si>
-  <si>
-    <t>50c2d4c1-123e-4713-824b-46606bc82218</t>
-  </si>
-  <si>
-    <t>e3da68f2-742c-41c7-b3a6-6f0ed3a00feb</t>
-  </si>
-  <si>
-    <t>aac10f11-16ea-49ca-a068-e95331c179e0</t>
+    <t>5b1f6de3-fbc1-4408-a5f4-956ebb2dbf0f</t>
+  </si>
+  <si>
+    <t>e8cd7114-9a4e-4d2e-a15e-28e4476b101f</t>
+  </si>
+  <si>
+    <t>0eb3110f-a449-4ff7-bcab-2ac7dedf3d89</t>
+  </si>
+  <si>
+    <t>efd68e98-0e9a-42fc-8f70-44b463f76909</t>
+  </si>
+  <si>
+    <t>5d19937a-8e9e-4458-82b2-4a5a8eba3875</t>
+  </si>
+  <si>
+    <t>a88aa407-e882-4de8-a77b-633d9be385a3</t>
+  </si>
+  <si>
+    <t>3b2e6e58-3bd9-4ef9-b5c6-0d230f3093a1</t>
+  </si>
+  <si>
+    <t>689254d0-8d54-4139-bbe5-2cce40402c95</t>
+  </si>
+  <si>
+    <t>4df92f6a-5c3d-48c1-8d61-d35f87590a9c</t>
+  </si>
+  <si>
+    <t>99a1d552-e1f0-49b8-9436-92312b83a702</t>
+  </si>
+  <si>
+    <t>c443fe65-5aea-4500-a478-7787e8fc75ca</t>
+  </si>
+  <si>
+    <t>208c46be-9921-414c-80fd-08479ada70c9</t>
+  </si>
+  <si>
+    <t>7ae50078-e75b-4959-9ce3-cca8b0a14220</t>
+  </si>
+  <si>
+    <t>a66c191c-f875-4cc2-961a-021bb0165004</t>
+  </si>
+  <si>
+    <t>5882c1a7-1b9f-42ec-90ee-d7ff735ae92f</t>
+  </si>
+  <si>
+    <t>29453799-f1dd-40da-a9cb-a8a2c5f09fde</t>
+  </si>
+  <si>
+    <t>5beca73d-4da4-41e2-8e27-561e143e2b24</t>
+  </si>
+  <si>
+    <t>7ad17783-7e6f-4e49-8ff9-12266ff26197</t>
+  </si>
+  <si>
+    <t>753d3576-0aeb-4abc-a439-b807ad817e79</t>
+  </si>
+  <si>
+    <t>c4bc2a82-3507-4c0d-92c4-9281d2f3ab84</t>
+  </si>
+  <si>
+    <t>d04472d0-fb57-4079-b2ea-0feb4eb08556</t>
+  </si>
+  <si>
+    <t>d752a0fe-4241-49a8-9c0e-73a0d1519ae2</t>
+  </si>
+  <si>
+    <t>836c5c42-7a57-4a84-85ce-a134073148b3</t>
+  </si>
+  <si>
+    <t>675b9c7d-b87c-4e05-ac38-a9c73b50ff3e</t>
+  </si>
+  <si>
+    <t>b5d078d2-0796-4228-8584-158eb75da5a3</t>
+  </si>
+  <si>
+    <t>15398f62-cf2c-4688-9a8f-ca5fbf1cd956</t>
   </si>
   <si>
     <t>Value false in VISIT_PART_2_FLAG not in allowed list ('TRUE','FALSE')</t>
@@ -810,88 +810,88 @@
     <t>Use only allowed values 'TRUE','FALSE' in VISIT_PART_2_FLAG</t>
   </si>
   <si>
-    <t>aa6d7557-ba2d-4075-bcba-16bd752673bf</t>
-  </si>
-  <si>
-    <t>a12b97b5-4c90-483e-a985-83bfd4d58e9c</t>
-  </si>
-  <si>
-    <t>7596300e-dc51-4c9e-a087-161b2ee68228</t>
-  </si>
-  <si>
-    <t>f7880c0c-dd84-4626-a183-79e9bf825516</t>
-  </si>
-  <si>
-    <t>cd1aa848-7be2-4fb6-91d0-f4b061e04b61</t>
-  </si>
-  <si>
-    <t>48fc0545-03db-44aa-84b2-d676e33097b7</t>
-  </si>
-  <si>
-    <t>52618c20-a107-47c9-ac75-8e4f3b04452e</t>
-  </si>
-  <si>
-    <t>10001626-db05-458b-90f7-afa3390e0f81</t>
-  </si>
-  <si>
-    <t>ddd9fb44-f233-46bc-a8be-e62fd965c0b3</t>
-  </si>
-  <si>
-    <t>9032b043-018f-453d-ba35-4d8c38e11c6d</t>
-  </si>
-  <si>
-    <t>ac88504d-4e29-4cd0-96de-a5ad7290d412</t>
-  </si>
-  <si>
-    <t>43d1304b-cc0c-4d5e-a28a-2a7817733494</t>
-  </si>
-  <si>
-    <t>db4fb6cc-c032-4c7c-8231-b51065f0d5e0</t>
-  </si>
-  <si>
-    <t>61040ec1-cc3c-4bf5-8552-ae8c544ee703</t>
-  </si>
-  <si>
-    <t>562f9b33-4948-48ea-989d-3a5e11adc25c</t>
-  </si>
-  <si>
-    <t>2b4c0f28-ca07-4cfb-b6fe-5da3c719abb9</t>
-  </si>
-  <si>
-    <t>c674c04e-d16e-4a8d-ad5e-b089d977189e</t>
-  </si>
-  <si>
-    <t>91dc4ad0-a587-4092-b533-b13705680707</t>
+    <t>d0ae63d4-3e0f-4689-b14c-95192c8c63eb</t>
+  </si>
+  <si>
+    <t>5b734123-2187-4e89-9000-6bb499729b26</t>
+  </si>
+  <si>
+    <t>a7c2720a-4676-437f-b71b-647ddcef3fed</t>
+  </si>
+  <si>
+    <t>e93a9f72-7950-43c7-b8a5-eddf589d5f69</t>
+  </si>
+  <si>
+    <t>84057b79-6f2a-4a01-a893-221f274310a4</t>
+  </si>
+  <si>
+    <t>1c599dcf-14c0-4615-8f2b-df97f3cc7b18</t>
+  </si>
+  <si>
+    <t>a457c865-81e1-40f9-aca0-4effdb5feace</t>
+  </si>
+  <si>
+    <t>911fed0e-aac1-4729-ab5f-3a1272c2feb8</t>
+  </si>
+  <si>
+    <t>46baddad-7fe4-4d43-b6e6-e32ab4dbb420</t>
+  </si>
+  <si>
+    <t>59f688fe-346c-4283-b596-b939621258c9</t>
+  </si>
+  <si>
+    <t>625546ec-3494-4304-b601-16374913ce24</t>
+  </si>
+  <si>
+    <t>5bb55b83-f88f-4e75-918f-2d24e49741f1</t>
+  </si>
+  <si>
+    <t>0997f571-5549-487f-8f9c-99e05acd1dce</t>
+  </si>
+  <si>
+    <t>adfc9ba1-2517-4658-ac38-2a468a0bfaa8</t>
+  </si>
+  <si>
+    <t>d0af56ea-93bb-4e01-a94c-007c71a5d973</t>
+  </si>
+  <si>
+    <t>7e4063a8-4f84-4cff-b152-c91800cfef40</t>
+  </si>
+  <si>
+    <t>3b2f4967-c6ca-40ce-921e-1dc981ad7849</t>
+  </si>
+  <si>
+    <t>345d502d-2ce9-4efa-8060-8c4a7621fddb</t>
   </si>
   <si>
     <t>Value true in VISIT_PART_2_FLAG not in allowed list ('TRUE','FALSE')</t>
   </si>
   <si>
-    <t>a5f45702-0192-4550-ae5d-b6d24eb7c1b3</t>
-  </si>
-  <si>
-    <t>dec3e3c7-ad92-4726-af4f-6ede46b091f9</t>
-  </si>
-  <si>
-    <t>03e0f46e-a9df-4ba5-8a3d-7d505d43f2e6</t>
-  </si>
-  <si>
-    <t>1e325f72-9f46-4b8f-993a-4e1e6dcbd6d4</t>
-  </si>
-  <si>
-    <t>994c7d58-d3ec-402b-a2ed-a71c41cab968</t>
-  </si>
-  <si>
-    <t>c4546a9b-4c03-41eb-8139-38b396cd7a90</t>
-  </si>
-  <si>
-    <t>55d6b53e-57b9-4c30-bd65-6a399fa243bc</t>
-  </si>
-  <si>
-    <t>2c94ec91-d26a-4c72-b451-ef7f26c43930</t>
-  </si>
-  <si>
-    <t>8ae744ad-f7b4-4442-b7c4-eb6b5ec122ea</t>
+    <t>1312c867-b24c-4f5d-89a5-096a81753765</t>
+  </si>
+  <si>
+    <t>da715ba9-8f22-4b80-b9fa-1f4e64237210</t>
+  </si>
+  <si>
+    <t>459a1b7b-2468-44eb-a337-2ffcb43e29c3</t>
+  </si>
+  <si>
+    <t>2edcd505-7ffc-43f0-bf4c-9e8fa2fd07a7</t>
+  </si>
+  <si>
+    <t>9ed92dcf-5c39-4a1d-8e28-faa42c44c383</t>
+  </si>
+  <si>
+    <t>9b03eee0-24f8-41e9-8ad9-f8e57f07a9d3</t>
+  </si>
+  <si>
+    <t>3e1dcb58-6e66-4555-8c00-eaba3bcc6eff</t>
+  </si>
+  <si>
+    <t>9b891b6f-eb49-4114-a83d-c984f92dbe93</t>
+  </si>
+  <si>
+    <t>173dc2a1-8175-4cdb-8d3e-2d129215813c</t>
   </si>
   <si>
     <t>Value false in VISIT_OMH_FLAG not in allowed list ('TRUE','FALSE')</t>
@@ -903,85 +903,85 @@
     <t>Use only allowed values 'TRUE','FALSE' in VISIT_OMH_FLAG</t>
   </si>
   <si>
-    <t>ecf37f45-081f-4a8a-becc-6dabb0ab5fed</t>
-  </si>
-  <si>
-    <t>a101ea39-a97c-443f-86cd-d42116c682c8</t>
-  </si>
-  <si>
-    <t>9186c474-21de-4ed2-8a0c-a54563fa41fd</t>
-  </si>
-  <si>
-    <t>9cd84164-3eb8-4838-930a-97275f1f7c30</t>
-  </si>
-  <si>
-    <t>c7c97874-6b9a-4fcd-bdd3-ce64b74dd9fb</t>
-  </si>
-  <si>
-    <t>211b5b91-185a-47a9-9fe4-d81ec0212b06</t>
-  </si>
-  <si>
-    <t>faedc5e4-ebba-421f-b868-6a3e7c219cf9</t>
-  </si>
-  <si>
-    <t>877e5fac-ac96-463d-91ce-ac6fe1d0d49e</t>
-  </si>
-  <si>
-    <t>3f03a5bd-7af0-49a5-9b49-6a1e851045c6</t>
-  </si>
-  <si>
-    <t>711e11a1-e097-4dad-8cac-f92e9572b6be</t>
-  </si>
-  <si>
-    <t>bcf5b66b-eda8-437c-8e5b-73b73f60e937</t>
-  </si>
-  <si>
-    <t>64465f09-cabd-4457-9279-6dc26a9f4fd6</t>
-  </si>
-  <si>
-    <t>1aeaf602-55e2-44e2-9924-6b793aebb69c</t>
-  </si>
-  <si>
-    <t>1acffa15-8021-4a8b-bb75-802861427ee0</t>
-  </si>
-  <si>
-    <t>d0a7aec8-c0f5-4e5b-8635-68ff44f658d1</t>
-  </si>
-  <si>
-    <t>4b0f38b5-68df-4d48-8293-be32c645e0b4</t>
-  </si>
-  <si>
-    <t>d76ca0fa-2b40-44bc-88da-a1ca980c40c1</t>
-  </si>
-  <si>
-    <t>8f3e80d8-d996-4455-826d-a4fae88cdeda</t>
-  </si>
-  <si>
-    <t>78a1d30b-ca68-43e2-ad5d-742968b5c4e2</t>
-  </si>
-  <si>
-    <t>f2f28807-b8de-4b4d-a85a-ee74c4475337</t>
-  </si>
-  <si>
-    <t>45132a92-2e13-42f3-b227-bf6b223ccc30</t>
-  </si>
-  <si>
-    <t>4aba9bf5-0d92-4044-9dba-667eb4f9498d</t>
-  </si>
-  <si>
-    <t>515488cf-bafa-4142-90d3-cca671935987</t>
-  </si>
-  <si>
-    <t>8b1b7a6d-e4c0-439c-ac30-d76cb293bd64</t>
-  </si>
-  <si>
-    <t>5b65f0ca-3e39-425c-9b3d-a9521bbae9f3</t>
-  </si>
-  <si>
-    <t>538f8ba4-06cf-4e77-b3c6-34a674dfc307</t>
-  </si>
-  <si>
-    <t>52e9a4b6-3d6f-459c-a52f-25fdb2c1cc0f</t>
+    <t>f3e1bda2-63fe-49c7-9fd9-0a86b8ce3682</t>
+  </si>
+  <si>
+    <t>bada0d52-c0f9-4a56-8dff-29b9ce12be6c</t>
+  </si>
+  <si>
+    <t>03b4b01b-3e78-4518-a92b-7a669484a5f3</t>
+  </si>
+  <si>
+    <t>43d6e5f2-d832-4cae-ab87-65759218a9f8</t>
+  </si>
+  <si>
+    <t>4d230d85-c67e-4b26-9aca-23ab70aa44d7</t>
+  </si>
+  <si>
+    <t>6e6fbab4-9cf0-412c-8458-6812336e090a</t>
+  </si>
+  <si>
+    <t>c16a5219-c048-46b9-a8fa-0ee344e1b7f4</t>
+  </si>
+  <si>
+    <t>eb8299ca-1bec-4a8b-a69c-eb80b23a51ce</t>
+  </si>
+  <si>
+    <t>70d625d5-32d0-4bb3-bb2f-6aeb2b660755</t>
+  </si>
+  <si>
+    <t>68104db7-1081-4d59-8fee-827765fbd71c</t>
+  </si>
+  <si>
+    <t>8e7e334b-4c92-4b16-8ee4-7a71a61adcea</t>
+  </si>
+  <si>
+    <t>34ed810c-acd2-4e25-a89d-7e39bf3f23b2</t>
+  </si>
+  <si>
+    <t>f71bcad1-bca8-4901-9294-4cd7db7693f8</t>
+  </si>
+  <si>
+    <t>8d36586c-0b11-4c22-b249-b05f5da5a54d</t>
+  </si>
+  <si>
+    <t>fc24824f-404b-4945-a907-e4503e7475df</t>
+  </si>
+  <si>
+    <t>cedde292-b624-46ac-aa2f-0e0d1129d28f</t>
+  </si>
+  <si>
+    <t>6a1363e0-1b06-4b1e-896b-f05deab75041</t>
+  </si>
+  <si>
+    <t>a94fb550-9355-46de-803a-6803115d16da</t>
+  </si>
+  <si>
+    <t>0faa1afb-3322-4152-aab4-0167fd0b8ed9</t>
+  </si>
+  <si>
+    <t>b76adcae-95f5-4a8b-bb14-dc5e9a5d4b1e</t>
+  </si>
+  <si>
+    <t>770ed0e2-886d-4fae-b60c-ae4d563f2469</t>
+  </si>
+  <si>
+    <t>872b5d08-c726-4d1e-a207-2439c3029daa</t>
+  </si>
+  <si>
+    <t>2f5f8358-41ba-4cf3-a3eb-b626e99afe59</t>
+  </si>
+  <si>
+    <t>484fe084-e063-4aee-bb7b-b328917fdaeb</t>
+  </si>
+  <si>
+    <t>23339f9a-f7be-41c7-9604-accffe337b0a</t>
+  </si>
+  <si>
+    <t>80a87d81-e5f1-4fd6-84a8-491193a6cf0e</t>
+  </si>
+  <si>
+    <t>7b8c16f3-24de-4499-9cb7-9f53ddf359b9</t>
   </si>
   <si>
     <t>Value false in VISIT_OPWDD_FLAG not in allowed list ('TRUE','FALSE')</t>
@@ -993,82 +993,82 @@
     <t>Use only allowed values 'TRUE','FALSE' in VISIT_OPWDD_FLAG</t>
   </si>
   <si>
-    <t>b1f55aae-fd97-4531-b068-4d412134cfbf</t>
-  </si>
-  <si>
-    <t>2deed5e9-d6a3-4363-b9f1-7955e01876a5</t>
-  </si>
-  <si>
-    <t>45edd0f3-163d-430a-9ca5-96799e81d72d</t>
-  </si>
-  <si>
-    <t>f509e77d-16c8-4739-b4ae-005b1ad8c27a</t>
-  </si>
-  <si>
-    <t>ec141418-942c-439a-92f1-34424612ff4a</t>
-  </si>
-  <si>
-    <t>a668ca97-07f0-4362-a84e-808bff8de94b</t>
-  </si>
-  <si>
-    <t>1b2c1c50-63f9-4a47-8275-0071de32b6be</t>
-  </si>
-  <si>
-    <t>1ecc83cd-4e42-4914-a5db-22cdd027ee9e</t>
-  </si>
-  <si>
-    <t>844c3154-b6ba-474b-92dd-122f02e12fd2</t>
-  </si>
-  <si>
-    <t>71835028-2616-4c24-aa65-76c14725442d</t>
-  </si>
-  <si>
-    <t>0e8f2e18-8d28-410b-9032-c2a034d499a0</t>
-  </si>
-  <si>
-    <t>69fde92c-3dfd-4c68-853b-b25231ccfbf6</t>
-  </si>
-  <si>
-    <t>067925b4-ff2b-41c8-9656-18e4fcfb2189</t>
-  </si>
-  <si>
-    <t>350f50bb-9d56-4289-9631-434f3e6ef6b6</t>
-  </si>
-  <si>
-    <t>c94d3dd1-2777-4c27-9609-6c514b2e13c7</t>
-  </si>
-  <si>
-    <t>dff9ba69-d523-4c7f-bd8d-4779c3e542fe</t>
-  </si>
-  <si>
-    <t>81a47774-facd-4ccf-8267-94e1c12e8b13</t>
-  </si>
-  <si>
-    <t>a1f59058-494e-40bf-b1fb-4c9c04970216</t>
-  </si>
-  <si>
-    <t>3d16878b-3c2c-48f8-8ef0-3a1a26961f98</t>
-  </si>
-  <si>
-    <t>6792c429-0203-4624-8970-4430b1efc4fb</t>
-  </si>
-  <si>
-    <t>5b28a8a7-e506-492e-975d-b7739838e93a</t>
-  </si>
-  <si>
-    <t>f222b01b-47b2-462d-9c25-d40f24b78e96</t>
-  </si>
-  <si>
-    <t>fc85c3e1-5c95-4037-afe1-037ec414169e</t>
-  </si>
-  <si>
-    <t>1d82ccc2-f41a-4114-b3d2-6c756ac312e5</t>
-  </si>
-  <si>
-    <t>ab25c6e7-0c1f-424f-a3a9-64509cf7fd0e</t>
-  </si>
-  <si>
-    <t>efc9abd3-7689-42e0-af36-315e20412e37</t>
+    <t>58b3495d-925f-4c35-8d73-5a1be9a95c4f</t>
+  </si>
+  <si>
+    <t>34c5b6b8-a92a-438b-b425-3953556876af</t>
+  </si>
+  <si>
+    <t>395d497a-0e8e-4dc4-b5c4-91060afd969c</t>
+  </si>
+  <si>
+    <t>556e09fb-719b-4350-92ea-7e66d70e8994</t>
+  </si>
+  <si>
+    <t>09393601-1eff-48b3-b81c-0c500fa42136</t>
+  </si>
+  <si>
+    <t>72a1e7bc-b366-4d60-9dd6-84c350ff35b3</t>
+  </si>
+  <si>
+    <t>9f77d07a-9b43-4564-a83b-13aac3313c73</t>
+  </si>
+  <si>
+    <t>6740d6f9-06db-447c-a593-77f9ded0c5e2</t>
+  </si>
+  <si>
+    <t>a49b2702-7f52-4e73-a15b-4fe6a9a10499</t>
+  </si>
+  <si>
+    <t>b075a877-3a40-4235-8cc0-ce666cd6d168</t>
+  </si>
+  <si>
+    <t>689c9134-f5bb-47a6-82f9-9a6b715d6d8e</t>
+  </si>
+  <si>
+    <t>d2492bea-bda9-4dec-a44a-045296d9623a</t>
+  </si>
+  <si>
+    <t>966190b7-11de-4e08-ae12-84c4e181ebef</t>
+  </si>
+  <si>
+    <t>b7d07a9b-4472-4566-8340-cad030b50cf8</t>
+  </si>
+  <si>
+    <t>4edc647b-d63b-473d-8355-18df8ff504d0</t>
+  </si>
+  <si>
+    <t>9178c936-e288-4784-9b06-7f3144fc544e</t>
+  </si>
+  <si>
+    <t>0e2320ee-261f-49a9-bd5c-d9225b01a937</t>
+  </si>
+  <si>
+    <t>1ef4ed47-63fe-45ec-9382-1d4eb3a04a5e</t>
+  </si>
+  <si>
+    <t>4154334a-0d73-4501-861f-8461b7d8e03d</t>
+  </si>
+  <si>
+    <t>751239b2-b6a4-48a7-80c2-af9f55bbed7e</t>
+  </si>
+  <si>
+    <t>a1e3a8ae-6883-4cfa-a266-f11d79c55c19</t>
+  </si>
+  <si>
+    <t>5dacbd20-4279-4b36-8b4d-b9443981863b</t>
+  </si>
+  <si>
+    <t>b55ab072-2992-4bc5-ab48-bf7ee069876c</t>
+  </si>
+  <si>
+    <t>df86d8dd-c1d2-449a-aedf-eba74c3c9c1c</t>
+  </si>
+  <si>
+    <t>054bafaa-e4f0-461f-8a82-88e0c25dd03e</t>
+  </si>
+  <si>
+    <t>667647ed-6e03-4a01-a02b-051b17b9e85e</t>
   </si>
   <si>
     <t>2afb3098-bcfd-5a54-8ebb-4d65d399c55e</t>
@@ -1080,7 +1080,7 @@
     <t>ahc_hrsn_2024_01_25_valid_admin_demographic</t>
   </si>
   <si>
-    <t>0bfd672c-260b-499d-ad8d-70442e586806</t>
+    <t>73405275-9054-4dba-8c76-4a3f7e97bc92</t>
   </si>
   <si>
     <t>Value 	20430005 in SEXUAL_ORIENTATION_CODE not in allowed list ('42035005','20430005','38628009','OTH','UNK')</t>
@@ -1101,7 +1101,7 @@
     <t>ahc_hrsn_2024_01_25_valid_screening</t>
   </si>
   <si>
-    <t>c796a36d-3fd3-461b-9f4f-d79e30335bff</t>
+    <t>91722004-9020-4eb6-bab5-909de59b04eb</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -1116,16 +1116,16 @@
     <t>Provide a value for SCREENING_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>3474d363-f086-4760-8f98-227864ab055c</t>
-  </si>
-  <si>
-    <t>f91e1895-fa7c-4df9-82a9-39379062b0bc</t>
-  </si>
-  <si>
-    <t>127558cb-8bb1-486c-b127-27a52256e9eb</t>
-  </si>
-  <si>
-    <t>5b4f9220-a142-4de0-9ef8-c51e243a315e</t>
+    <t>f7e9a73c-e8c6-482c-9cd1-d35a7050be00</t>
+  </si>
+  <si>
+    <t>6763e66d-e77a-4b16-a2ef-efeb757ceee4</t>
+  </si>
+  <si>
+    <t>63ca0389-77d9-412d-8330-80e7d5a8b59f</t>
+  </si>
+  <si>
+    <t>64f7eaaa-a5e0-43a8-938c-e00faf146855</t>
   </si>
   <si>
     <t>Mandatory field SCREENING_CODE is empty</t>
@@ -1137,16 +1137,16 @@
     <t>Provide a value for SCREENING_CODE</t>
   </si>
   <si>
-    <t>8a3ce826-600c-4929-a598-1d579ac0b1a0</t>
-  </si>
-  <si>
-    <t>08cc3aa4-3a68-4f75-a33c-988ffa7d2c27</t>
-  </si>
-  <si>
-    <t>061f891a-9d62-4b9a-9e7a-94c7ab3fbb94</t>
-  </si>
-  <si>
-    <t>0a9433ad-150a-4fc1-9bfa-80fa95d72d92</t>
+    <t>0326f614-ad3e-43b9-bf5b-e7c59a1b0411</t>
+  </si>
+  <si>
+    <t>129949c0-37d0-4611-a97b-e6095f882d9c</t>
+  </si>
+  <si>
+    <t>cb970457-300d-4a00-9415-702035eeca0d</t>
+  </si>
+  <si>
+    <t>f0871593-a570-4b87-b125-27708eaf198b</t>
   </si>
   <si>
     <t>Mandatory field QUESTION_CODE is empty</t>
@@ -1155,16 +1155,16 @@
     <t>Provide a value for QUESTION_CODE</t>
   </si>
   <si>
-    <t>613b7841-ec05-4dc2-8f60-0ef0191f1832</t>
-  </si>
-  <si>
-    <t>cd08e268-d48a-4564-88ee-97288babeb74</t>
-  </si>
-  <si>
-    <t>3306f96a-3c06-4d1e-ab0d-a9e0414b39bb</t>
-  </si>
-  <si>
-    <t>fe422644-8791-4e73-a392-21c5910469d7</t>
+    <t>03a0d417-0724-4a66-9b54-803473080d0b</t>
+  </si>
+  <si>
+    <t>72e9c77e-c78e-4792-a707-cb284b158e6a</t>
+  </si>
+  <si>
+    <t>11602052-a7ea-4e2b-9367-d1b907d117fa</t>
+  </si>
+  <si>
+    <t>9cebe92d-c5ab-4efe-9c93-f0b87dd354e9</t>
   </si>
   <si>
     <t>Mandatory field QUESTION_CODE_SYSTEM_NAME is empty</t>
@@ -1176,16 +1176,16 @@
     <t>Provide a value for QUESTION_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>dde6ef84-7491-42cf-9341-f154afa964a1</t>
-  </si>
-  <si>
-    <t>d9840dbb-51b2-4602-9569-790bb5065775</t>
-  </si>
-  <si>
-    <t>f516fccb-a4db-4c94-9912-ed60467e8906</t>
-  </si>
-  <si>
-    <t>6c8154bb-ce8a-4193-8b30-74817589f5ee</t>
+    <t>d8ed4451-eaad-48c2-bc14-79951d522edc</t>
+  </si>
+  <si>
+    <t>367208b3-ae91-4873-a297-d5d4a36bea26</t>
+  </si>
+  <si>
+    <t>07959b46-d913-4753-bf5d-696af801237e</t>
+  </si>
+  <si>
+    <t>ec7d9603-a7ef-4112-be67-e598e0b67da0</t>
   </si>
   <si>
     <t>Mandatory field ANSWER_CODE is empty</t>
@@ -1197,22 +1197,22 @@
     <t>Provide a value for ANSWER_CODE</t>
   </si>
   <si>
-    <t>f4b2d979-0846-43fe-87f7-aaa1a8b882b0</t>
-  </si>
-  <si>
-    <t>56511bb5-4b56-43c1-8f1c-1ed82664016c</t>
-  </si>
-  <si>
-    <t>2a9da0c2-f754-4f24-9857-d7cbbc668853</t>
-  </si>
-  <si>
-    <t>f1aa86f8-d476-49dc-887c-23e4a934c884</t>
-  </si>
-  <si>
-    <t>cc2dfe63-1674-46b1-826d-9498a9952866</t>
-  </si>
-  <si>
-    <t>569ffd82-32f7-40ad-904f-e61825bcd14d</t>
+    <t>2f946053-6387-4466-b9c7-44f11e985f4a</t>
+  </si>
+  <si>
+    <t>037bbebc-9b6a-43a9-9744-d9e183dd0f3b</t>
+  </si>
+  <si>
+    <t>e84e31e9-911e-44cf-96f8-3473ac2d881d</t>
+  </si>
+  <si>
+    <t>68db9b57-561d-4549-ba4b-122753659610</t>
+  </si>
+  <si>
+    <t>ef806370-d294-4900-af73-668d4e6c549a</t>
+  </si>
+  <si>
+    <t>aa7e72f2-80d9-4163-aaca-ecb0d8e37220</t>
   </si>
   <si>
     <t>Mandatory field ANSWER_CODE_SYSTEM_NAME is empty</t>
@@ -1224,19 +1224,19 @@
     <t>Provide a value for ANSWER_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>bdd64e84-1cbd-4ffe-a2d4-455dc2ed23c3</t>
-  </si>
-  <si>
-    <t>ef0ebf61-3f2d-441a-93a7-e3a026ca338f</t>
-  </si>
-  <si>
-    <t>831016b2-caa0-4f36-83fb-eb9511085c95</t>
-  </si>
-  <si>
-    <t>79718a15-5d27-4ef5-b758-e2cf8502b30c</t>
-  </si>
-  <si>
-    <t>ceba7a1e-afd1-4741-bb7b-869755ae23f2</t>
+    <t>07bc494d-508b-4682-9819-393969403c63</t>
+  </si>
+  <si>
+    <t>46b25d0d-4385-43b7-b0d4-1278541c47cb</t>
+  </si>
+  <si>
+    <t>ca04bbf9-610b-4131-be63-31333a04d75a</t>
+  </si>
+  <si>
+    <t>06d1a211-bb43-4ceb-93b2-3815c3af1478</t>
+  </si>
+  <si>
+    <t>99a5a44c-57c2-4eb1-ba92-78b7e0e86d22</t>
   </si>
   <si>
     <t>86ff3ab6-900d-5474-b63c-cbcac3c66f1a</t>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -78,7 +78,7 @@
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
   </si>
   <si>
-    <t>/home/snshah/workspaces/github.com/qe-collaborative-services/1115-hub/support/assurance/ahc-hrsn-elt/screening/synthetic-content/JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx</t>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx</t>
   </si>
   <si>
     <t>ERROR</t>
@@ -132,7 +132,7 @@
     <t>591191c7-f693-5957-8734-ac87151ca981</t>
   </si>
   <si>
-    <t>/home/snshah/workspaces/github.com/qe-collaborative-services/1115-hub/support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2023-12-25-valid.xlsx</t>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2023-12-25-valid.xlsx</t>
   </si>
   <si>
     <t>3b4eb0e5-6239-537a-8e67-e50e172e72a2</t>
@@ -153,7 +153,7 @@
     <t>a530fe1b-57ef-5a90-8bea-835ece2483da</t>
   </si>
   <si>
-    <t>/home/snshah/workspaces/github.com/qe-collaborative-services/1115-hub/support/assurance/ahc-hrsn-elt/screening/synthetic-content/jrchc-hrsn-file-spec.xlsx</t>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/jrchc-hrsn-file-spec.xlsx</t>
   </si>
   <si>
     <t>a3fe7098-8ae8-5612-81ac-cbe10780c19b</t>
@@ -201,7 +201,7 @@
     <t>c302047e-21cf-5059-a32c-e81a9bd3a9b9</t>
   </si>
   <si>
-    <t>/home/snshah/workspaces/github.com/qe-collaborative-services/1115-hub/support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
   </si>
   <si>
     <t>3252fee6-3a9a-5f4c-81c6-739201046d79</t>
@@ -249,13 +249,13 @@
     <t>0adb81bc-3df2-5f86-99cc-2d20e1dd5efd</t>
   </si>
   <si>
-    <t>/home/snshah/workspaces/github.com/qe-collaborative-services/1115-hub/support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail.csv</t>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail.csv</t>
   </si>
   <si>
     <t>synthetic_fail</t>
   </si>
   <si>
-    <t>a58b9b5d-bc24-4331-a0e3-9a640e331705</t>
+    <t>fd45e704-6f67-4135-b40d-f5428cac3200</t>
   </si>
   <si>
     <t>Missing Column</t>
@@ -267,7 +267,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>3860d091-d94d-4ac4-a9ee-7841494c22b9</t>
+    <t>edf8b4bf-75b5-4596-b0f4-01a5abcaa68a</t>
   </si>
   <si>
     <t>Required column ANSWER_CODE is missing in synthetic_fail.</t>
@@ -276,7 +276,7 @@
     <t>Ensure synthetic_fail contains the column "ANSWER_CODE"</t>
   </si>
   <si>
-    <t>41ddcc8c-cdea-4339-a796-23a100ebc9bf</t>
+    <t>f371a846-47c5-4685-8372-c60b11f0e591</t>
   </si>
   <si>
     <t>Required column ENCOUNTER_ID is missing in synthetic_fail.</t>
@@ -285,7 +285,7 @@
     <t>Ensure synthetic_fail contains the column "ENCOUNTER_ID"</t>
   </si>
   <si>
-    <t>ff0c36d7-cbb9-45d2-80a8-9ea8967646aa</t>
+    <t>67679e9d-7296-436d-b5a6-670a2773c6ef</t>
   </si>
   <si>
     <t>Required column FACILITY is missing in synthetic_fail.</t>
@@ -294,7 +294,7 @@
     <t>Ensure synthetic_fail contains the column "FACILITY"</t>
   </si>
   <si>
-    <t>816c9a41-536e-482a-a1e2-cfc3a9ff839c</t>
+    <t>81c5126f-3da7-426f-9da3-68e32d731988</t>
   </si>
   <si>
     <t>Required column FIRST_NAME is missing in synthetic_fail.</t>
@@ -303,7 +303,7 @@
     <t>Ensure synthetic_fail contains the column "FIRST_NAME"</t>
   </si>
   <si>
-    <t>ec4115d4-882b-47bf-92c9-d3e01d2152ea</t>
+    <t>a7e02a37-3d31-41fc-add9-b6f4bef30a1a</t>
   </si>
   <si>
     <t>Required column LAST_NAME is missing in synthetic_fail.</t>
@@ -312,7 +312,7 @@
     <t>Ensure synthetic_fail contains the column "LAST_NAME"</t>
   </si>
   <si>
-    <t>c1358876-388b-4ecd-a4cf-d22577045e6e</t>
+    <t>641e4602-1526-41c7-a780-550c273a4e60</t>
   </si>
   <si>
     <t>Required column MEAS_VALUE is missing in synthetic_fail.</t>
@@ -321,7 +321,7 @@
     <t>Ensure synthetic_fail contains the column "MEAS_VALUE"</t>
   </si>
   <si>
-    <t>11f6a6ac-a621-466e-af0e-795201617eb0</t>
+    <t>4159ca7e-bb65-402b-b895-4f370ceee01c</t>
   </si>
   <si>
     <t>Required column MEDICAID_CIN is missing in synthetic_fail.</t>
@@ -330,7 +330,7 @@
     <t>Ensure synthetic_fail contains the column "MEDICAID_CIN"</t>
   </si>
   <si>
-    <t>49d19ca5-ff15-47b4-8dd1-ff7178dafb69</t>
+    <t>ada38788-42d4-4ff5-9166-5be3fe036551</t>
   </si>
   <si>
     <t>Required column NEED_INDICATED is missing in synthetic_fail.</t>
@@ -339,7 +339,7 @@
     <t>Ensure synthetic_fail contains the column "NEED_INDICATED"</t>
   </si>
   <si>
-    <t>36124f7d-6013-4d54-8bd1-b62b75cd070e</t>
+    <t>6d3db944-fa21-4571-8fca-d0b2815c299d</t>
   </si>
   <si>
     <t>Required column PAT_BIRTH_DATE is missing in synthetic_fail.</t>
@@ -348,7 +348,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_BIRTH_DATE"</t>
   </si>
   <si>
-    <t>e9be76dd-ddc0-48bb-b9e7-6c52a7283472</t>
+    <t>d23ea33f-d32e-436e-8ac3-893f152a7ccc</t>
   </si>
   <si>
     <t>Required column PAT_MRN_ID is missing in synthetic_fail.</t>
@@ -357,7 +357,7 @@
     <t>Ensure synthetic_fail contains the column "PAT_MRN_ID"</t>
   </si>
   <si>
-    <t>75dbaf65-57e9-49e8-b835-dd6de3e56d97</t>
+    <t>23d43e2a-dd0c-4dda-bd80-35460abd2886</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE_SYSTEM_NAME is missing in synthetic_fail.</t>
@@ -366,7 +366,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE_SYSTEM_NAME"</t>
   </si>
   <si>
-    <t>9bad977a-e9e5-472b-81f7-9ec4d6cf1721</t>
+    <t>e9c8d7ce-46af-4594-9227-644a6fb446de</t>
   </si>
   <si>
     <t>Required column QUESTION_CODE is missing in synthetic_fail.</t>
@@ -375,7 +375,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION_CODE"</t>
   </si>
   <si>
-    <t>baa4f65c-5fbe-4e4f-8948-b8e47b485ea2</t>
+    <t>ff7ec8e6-93af-4ed8-b189-3bd22d4e2f91</t>
   </si>
   <si>
     <t>Required column QUESTION is missing in synthetic_fail.</t>
@@ -384,7 +384,7 @@
     <t>Ensure synthetic_fail contains the column "QUESTION"</t>
   </si>
   <si>
-    <t>c5c52f1f-22bc-4e11-8864-17783c9a80f4</t>
+    <t>83b916f1-f25c-431e-8c81-9429805ccd90</t>
   </si>
   <si>
     <t>Required column RECORDED_TIME is missing in synthetic_fail.</t>
@@ -393,7 +393,7 @@
     <t>Ensure synthetic_fail contains the column "RECORDED_TIME"</t>
   </si>
   <si>
-    <t>c65ab026-cadc-42f2-b317-b4fa5f532d28</t>
+    <t>2879b173-8018-4f57-8ca3-23fbd9a807a1</t>
   </si>
   <si>
     <t>Required column SDOH_DOMAIN is missing in synthetic_fail.</t>
@@ -402,7 +402,7 @@
     <t>Ensure synthetic_fail contains the column "SDOH_DOMAIN"</t>
   </si>
   <si>
-    <t>cded0d34-2904-4693-bd3b-fc45f0d2bd12</t>
+    <t>76bbbdb0-f884-4859-bfc8-cceaf3c73d84</t>
   </si>
   <si>
     <t>Required column SURVEY_ID is missing in synthetic_fail.</t>
@@ -411,7 +411,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY_ID"</t>
   </si>
   <si>
-    <t>bc938a0e-8f37-4aeb-a45d-a80eb219e904</t>
+    <t>5f8194da-2398-4fc8-bf8a-091c8eaa6144</t>
   </si>
   <si>
     <t>Required column SURVEY is missing in synthetic_fail.</t>
@@ -420,7 +420,7 @@
     <t>Ensure synthetic_fail contains the column "SURVEY"</t>
   </si>
   <si>
-    <t>ecefa7cd-5ec6-4781-b4d8-4a1cdee286c3</t>
+    <t>cf005ab3-b5eb-4edb-8704-f831129fe06c</t>
   </si>
   <si>
     <t>Required column VISIT_OMH_FLAG is missing in synthetic_fail.</t>
@@ -429,7 +429,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OMH_FLAG"</t>
   </si>
   <si>
-    <t>965f300a-8cfb-413f-a6fb-7b862dcefc2d</t>
+    <t>4d4d98ac-42b8-415d-9776-7e75b1e47ceb</t>
   </si>
   <si>
     <t>Required column VISIT_OPWDD_FLAG is missing in synthetic_fail.</t>
@@ -438,7 +438,7 @@
     <t>Ensure synthetic_fail contains the column "VISIT_OPWDD_FLAG"</t>
   </si>
   <si>
-    <t>9839803c-c8b3-4a32-8cdb-47ac28c43ca3</t>
+    <t>7af6fba4-5837-4681-af39-469b08d33236</t>
   </si>
   <si>
     <t>Required column VISIT_PART_2_FLAG is missing in synthetic_fail.</t>
@@ -450,13 +450,13 @@
     <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
   </si>
   <si>
-    <t>/home/snshah/workspaces/github.com/qe-collaborative-services/1115-hub/support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2023-12-12-valid.csv</t>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2023-12-12-valid.csv</t>
   </si>
   <si>
     <t>ahc_hrsn_2023_12_12_valid</t>
   </si>
   <si>
-    <t>222df9d5-2ccd-4ba6-b5df-54894aa9bdbc</t>
+    <t>467f221d-83ad-44e8-9af9-f25d263122c3</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -474,7 +474,7 @@
     <t>Use only allowed values '71802-3','96778-6' in QUESTION_CODE</t>
   </si>
   <si>
-    <t>68be5a76-9ae9-47f0-a2ec-81d0682f2b51</t>
+    <t>65fa2e8f-d2a7-454f-be5f-e35dccb6d9e0</t>
   </si>
   <si>
     <t>Value 88122-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -483,7 +483,7 @@
     <t>88122-7</t>
   </si>
   <si>
-    <t>e6b40756-db9c-49a6-984a-1df62cfbe7e8</t>
+    <t>048d15ed-2b7c-43fc-b076-5186300aaaf9</t>
   </si>
   <si>
     <t>Value 88123-5 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -492,7 +492,7 @@
     <t>88123-5</t>
   </si>
   <si>
-    <t>802ef63a-e1da-4309-9b7c-8956beb142e1</t>
+    <t>86df3636-8843-4d09-9ee8-03945c221fa6</t>
   </si>
   <si>
     <t>Value 93030-5 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -501,7 +501,7 @@
     <t>93030-5</t>
   </si>
   <si>
-    <t>de6dcf64-e504-4c0b-bebb-fbcc517f823a</t>
+    <t>905fe86f-ad0e-41ed-b395-357cf0dbba3f</t>
   </si>
   <si>
     <t>Value 96779-4 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -510,7 +510,7 @@
     <t>96779-4</t>
   </si>
   <si>
-    <t>6e39b643-e1c9-49a5-a130-e7ee09223efb</t>
+    <t>86c5de7f-95b4-451a-a3bc-91e634bfdf06</t>
   </si>
   <si>
     <t>Value 95618-5 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -519,7 +519,7 @@
     <t>95618-5</t>
   </si>
   <si>
-    <t>a599a953-0257-4c23-9216-7eba9b8e825f</t>
+    <t>d2c44957-b54f-495e-92c2-69bc755dfe4a</t>
   </si>
   <si>
     <t>Value 95617-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -528,7 +528,7 @@
     <t>95617-7</t>
   </si>
   <si>
-    <t>bf2cc2e5-214f-4177-8b73-c4be58002e45</t>
+    <t>6a773c17-4179-4106-8a52-4eafc7ffb10e</t>
   </si>
   <si>
     <t>Value 95616-9 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -537,7 +537,7 @@
     <t>95616-9</t>
   </si>
   <si>
-    <t>48117ff7-4689-48f4-a195-cf6b69198051</t>
+    <t>1561c18e-6bc5-4d43-af29-c5c9f40c42a4</t>
   </si>
   <si>
     <t>Value 95615-1 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -546,7 +546,7 @@
     <t>95615-1</t>
   </si>
   <si>
-    <t>d8fc6ae2-ebbe-485f-b204-2393ea3ec994</t>
+    <t>a880766d-001f-435a-802a-5e8d629807bd</t>
   </si>
   <si>
     <t>Value 76513-1 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -555,7 +555,7 @@
     <t>76513-1</t>
   </si>
   <si>
-    <t>4acfc863-3e1b-4aa1-a2b2-283c1fe8c364</t>
+    <t>0eb0a9ec-5ff5-4a8d-9dde-057c6826dbd1</t>
   </si>
   <si>
     <t>Value 96780-2 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -564,7 +564,7 @@
     <t>96780-2</t>
   </si>
   <si>
-    <t>f3e5d0c0-817b-43b9-820c-c4952bcacef0</t>
+    <t>6a85e144-02d6-4e9d-af23-0968c51dac8e</t>
   </si>
   <si>
     <t>Value 96781-0 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -573,7 +573,7 @@
     <t>96781-0</t>
   </si>
   <si>
-    <t>7d8396ca-80b5-4b36-91b4-4a98c8819ec1</t>
+    <t>69426ba9-3b4d-4034-98b0-edbaea74536c</t>
   </si>
   <si>
     <t>Value 93159-2	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -582,7 +582,7 @@
     <t>93159-2	</t>
   </si>
   <si>
-    <t>bf54f5db-adb2-49cc-8bcb-28a44126ee48</t>
+    <t>38d69217-6de3-46af-9259-c9cb8875c33e</t>
   </si>
   <si>
     <t>Value 97027-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -591,7 +591,7 @@
     <t>97027-7</t>
   </si>
   <si>
-    <t>9198619b-ec93-4fec-b269-4c0a4aae8452</t>
+    <t>202439c9-8c59-4876-bd93-3980a795cbdb</t>
   </si>
   <si>
     <t>Value 96782-8	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -600,7 +600,7 @@
     <t>96782-8	</t>
   </si>
   <si>
-    <t>fe955683-66f1-4276-80a7-a21349991ed7</t>
+    <t>4fdc1daa-d789-4520-a8da-f2c0914ae282</t>
   </si>
   <si>
     <t>Value 89555-7 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -609,7 +609,7 @@
     <t>89555-7</t>
   </si>
   <si>
-    <t>22188e21-8580-40e5-b452-51ad68fd59c3</t>
+    <t>031af154-e38e-4de9-be10-5d104083b46c</t>
   </si>
   <si>
     <t>Value 68516-4	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -618,7 +618,7 @@
     <t>68516-4	</t>
   </si>
   <si>
-    <t>53a6982a-18cb-4036-8c82-05d4acd74d2f</t>
+    <t>390639ab-f156-4e60-b87c-af6bb23f5078</t>
   </si>
   <si>
     <t>Value 68517-2 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -627,7 +627,7 @@
     <t>68517-2</t>
   </si>
   <si>
-    <t>30f2c836-a651-465d-a41e-959b890b3896</t>
+    <t>219774d2-6bf0-4ee9-940f-3a92e928100c</t>
   </si>
   <si>
     <t>Value 96842-0 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -636,7 +636,7 @@
     <t>96842-0</t>
   </si>
   <si>
-    <t>99c07054-1037-4c19-9c40-41048c93896a</t>
+    <t>d94e1e1a-2a41-47ed-a099-d81c6e531ed5</t>
   </si>
   <si>
     <t>Value 95530-2 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -645,7 +645,7 @@
     <t>95530-2</t>
   </si>
   <si>
-    <t>fffc3ca7-555b-473a-9bfb-c26522f4b970</t>
+    <t>836967b5-c12a-4518-9d52-1564fd349add</t>
   </si>
   <si>
     <t>Value 68524-8 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -654,7 +654,7 @@
     <t>68524-8</t>
   </si>
   <si>
-    <t>ec14109b-db1a-4c1c-a456-5ccfd93937e5</t>
+    <t>4233083a-f220-4df5-8bf2-f6e587991636</t>
   </si>
   <si>
     <t>Value 44250-9 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -663,7 +663,7 @@
     <t>44250-9</t>
   </si>
   <si>
-    <t>74f8798e-d50f-449e-b786-9771a07becf6</t>
+    <t>f66ca25b-0c58-4699-acdf-f43da57d02fc</t>
   </si>
   <si>
     <t>Value 44255-8 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -672,7 +672,7 @@
     <t>44255-8</t>
   </si>
   <si>
-    <t>b551d98b-4234-42a1-95af-0975f3622a72</t>
+    <t>c3d69f6e-dcf3-4215-ae05-319e587c1021</t>
   </si>
   <si>
     <t>Value 93038-8 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -681,7 +681,7 @@
     <t>93038-8</t>
   </si>
   <si>
-    <t>e7956b29-2f1f-44d0-b677-189dafecd9d9</t>
+    <t>54ed73df-0078-4f4f-a226-0e67ba4cab48</t>
   </si>
   <si>
     <t>Value 69858-9 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -690,7 +690,7 @@
     <t>69858-9</t>
   </si>
   <si>
-    <t>9c0829f6-a638-4840-9bf7-e8f093975adf</t>
+    <t>055e6834-be48-467f-9b01-b7bb737e6922</t>
   </si>
   <si>
     <t>Value 69861-3	 in QUESTION_CODE not in allowed list ('71802-3','96778-6')</t>
@@ -699,7 +699,7 @@
     <t>69861-3	</t>
   </si>
   <si>
-    <t>c4497746-4c72-41c3-9d9d-60bdc468e3b0</t>
+    <t>944716ac-18cf-4083-97d5-bbd8db094942</t>
   </si>
   <si>
     <t>Value false in NEED_INDICATED not in allowed list ('TRUE','FALSE')</t>
@@ -714,7 +714,7 @@
     <t>Use only allowed values 'TRUE','FALSE' in NEED_INDICATED</t>
   </si>
   <si>
-    <t>33ef191c-3f9d-4cae-8e16-1a912e7a0297</t>
+    <t>5f2b3556-861d-4e92-8104-6b4f0438f9ea</t>
   </si>
   <si>
     <t>Value true in NEED_INDICATED not in allowed list ('TRUE','FALSE')</t>
@@ -723,82 +723,82 @@
     <t>true</t>
   </si>
   <si>
-    <t>5b1f6de3-fbc1-4408-a5f4-956ebb2dbf0f</t>
-  </si>
-  <si>
-    <t>e8cd7114-9a4e-4d2e-a15e-28e4476b101f</t>
-  </si>
-  <si>
-    <t>0eb3110f-a449-4ff7-bcab-2ac7dedf3d89</t>
-  </si>
-  <si>
-    <t>efd68e98-0e9a-42fc-8f70-44b463f76909</t>
-  </si>
-  <si>
-    <t>5d19937a-8e9e-4458-82b2-4a5a8eba3875</t>
-  </si>
-  <si>
-    <t>a88aa407-e882-4de8-a77b-633d9be385a3</t>
-  </si>
-  <si>
-    <t>3b2e6e58-3bd9-4ef9-b5c6-0d230f3093a1</t>
-  </si>
-  <si>
-    <t>689254d0-8d54-4139-bbe5-2cce40402c95</t>
-  </si>
-  <si>
-    <t>4df92f6a-5c3d-48c1-8d61-d35f87590a9c</t>
-  </si>
-  <si>
-    <t>99a1d552-e1f0-49b8-9436-92312b83a702</t>
-  </si>
-  <si>
-    <t>c443fe65-5aea-4500-a478-7787e8fc75ca</t>
-  </si>
-  <si>
-    <t>208c46be-9921-414c-80fd-08479ada70c9</t>
-  </si>
-  <si>
-    <t>7ae50078-e75b-4959-9ce3-cca8b0a14220</t>
-  </si>
-  <si>
-    <t>a66c191c-f875-4cc2-961a-021bb0165004</t>
-  </si>
-  <si>
-    <t>5882c1a7-1b9f-42ec-90ee-d7ff735ae92f</t>
-  </si>
-  <si>
-    <t>29453799-f1dd-40da-a9cb-a8a2c5f09fde</t>
-  </si>
-  <si>
-    <t>5beca73d-4da4-41e2-8e27-561e143e2b24</t>
-  </si>
-  <si>
-    <t>7ad17783-7e6f-4e49-8ff9-12266ff26197</t>
-  </si>
-  <si>
-    <t>753d3576-0aeb-4abc-a439-b807ad817e79</t>
-  </si>
-  <si>
-    <t>c4bc2a82-3507-4c0d-92c4-9281d2f3ab84</t>
-  </si>
-  <si>
-    <t>d04472d0-fb57-4079-b2ea-0feb4eb08556</t>
-  </si>
-  <si>
-    <t>d752a0fe-4241-49a8-9c0e-73a0d1519ae2</t>
-  </si>
-  <si>
-    <t>836c5c42-7a57-4a84-85ce-a134073148b3</t>
-  </si>
-  <si>
-    <t>675b9c7d-b87c-4e05-ac38-a9c73b50ff3e</t>
-  </si>
-  <si>
-    <t>b5d078d2-0796-4228-8584-158eb75da5a3</t>
-  </si>
-  <si>
-    <t>15398f62-cf2c-4688-9a8f-ca5fbf1cd956</t>
+    <t>431477d3-46d1-4274-a925-65cce87c6460</t>
+  </si>
+  <si>
+    <t>d28357ec-dae3-4b2b-8b4a-d9217e4b2e5e</t>
+  </si>
+  <si>
+    <t>b92ccedd-84e0-42cf-9c74-a400f7c58fb0</t>
+  </si>
+  <si>
+    <t>56090832-a692-48af-8932-2b98f97b9972</t>
+  </si>
+  <si>
+    <t>4b859029-fc30-4a35-814d-2f71db0e5316</t>
+  </si>
+  <si>
+    <t>b8d1cb5c-212a-4ec0-9aee-22e1a1a33ec4</t>
+  </si>
+  <si>
+    <t>964f5199-246b-4fed-8348-d769e06c46e7</t>
+  </si>
+  <si>
+    <t>ba7d9348-8740-49f1-9cb5-9ddd8603d1c1</t>
+  </si>
+  <si>
+    <t>ebfc12df-90e2-4761-a58f-d64903cab4fc</t>
+  </si>
+  <si>
+    <t>a084baf0-7b79-4278-9342-9f50dbf29420</t>
+  </si>
+  <si>
+    <t>87b4ca91-9068-4406-89b3-295248206c32</t>
+  </si>
+  <si>
+    <t>8e33128c-32c6-45f1-9124-d125ce05b905</t>
+  </si>
+  <si>
+    <t>23166c2c-5202-44f8-8a10-981161d2802f</t>
+  </si>
+  <si>
+    <t>0558d3ca-4549-477b-91ce-0abc52bd4c06</t>
+  </si>
+  <si>
+    <t>45318512-91b9-435b-b250-8e91e666fb1a</t>
+  </si>
+  <si>
+    <t>0fc8046a-1290-4c02-8c83-d028df0fb871</t>
+  </si>
+  <si>
+    <t>345c53f8-9f9b-497f-8068-26e432869101</t>
+  </si>
+  <si>
+    <t>39fa9cd8-5a3c-4466-bd85-a96ccc00a448</t>
+  </si>
+  <si>
+    <t>2c64bafe-42f8-40ff-b585-421638a51295</t>
+  </si>
+  <si>
+    <t>6d3bb2b2-0840-4376-abc1-09eb1d54c505</t>
+  </si>
+  <si>
+    <t>653799b2-81f2-4787-95ca-eda695cec43f</t>
+  </si>
+  <si>
+    <t>aa44de87-e3f1-416f-8d45-7c0aaa2dc55d</t>
+  </si>
+  <si>
+    <t>a58a8251-1675-4388-8714-c27cd7093f55</t>
+  </si>
+  <si>
+    <t>9c9e4498-4bc7-473c-80f7-88076063c391</t>
+  </si>
+  <si>
+    <t>64c71703-ebdc-42f2-87ea-f5422de87c21</t>
+  </si>
+  <si>
+    <t>b862c4ca-2f02-49ee-be25-88c0dec798f6</t>
   </si>
   <si>
     <t>Value false in VISIT_PART_2_FLAG not in allowed list ('TRUE','FALSE')</t>
@@ -810,88 +810,88 @@
     <t>Use only allowed values 'TRUE','FALSE' in VISIT_PART_2_FLAG</t>
   </si>
   <si>
-    <t>d0ae63d4-3e0f-4689-b14c-95192c8c63eb</t>
-  </si>
-  <si>
-    <t>5b734123-2187-4e89-9000-6bb499729b26</t>
-  </si>
-  <si>
-    <t>a7c2720a-4676-437f-b71b-647ddcef3fed</t>
-  </si>
-  <si>
-    <t>e93a9f72-7950-43c7-b8a5-eddf589d5f69</t>
-  </si>
-  <si>
-    <t>84057b79-6f2a-4a01-a893-221f274310a4</t>
-  </si>
-  <si>
-    <t>1c599dcf-14c0-4615-8f2b-df97f3cc7b18</t>
-  </si>
-  <si>
-    <t>a457c865-81e1-40f9-aca0-4effdb5feace</t>
-  </si>
-  <si>
-    <t>911fed0e-aac1-4729-ab5f-3a1272c2feb8</t>
-  </si>
-  <si>
-    <t>46baddad-7fe4-4d43-b6e6-e32ab4dbb420</t>
-  </si>
-  <si>
-    <t>59f688fe-346c-4283-b596-b939621258c9</t>
-  </si>
-  <si>
-    <t>625546ec-3494-4304-b601-16374913ce24</t>
-  </si>
-  <si>
-    <t>5bb55b83-f88f-4e75-918f-2d24e49741f1</t>
-  </si>
-  <si>
-    <t>0997f571-5549-487f-8f9c-99e05acd1dce</t>
-  </si>
-  <si>
-    <t>adfc9ba1-2517-4658-ac38-2a468a0bfaa8</t>
-  </si>
-  <si>
-    <t>d0af56ea-93bb-4e01-a94c-007c71a5d973</t>
-  </si>
-  <si>
-    <t>7e4063a8-4f84-4cff-b152-c91800cfef40</t>
-  </si>
-  <si>
-    <t>3b2f4967-c6ca-40ce-921e-1dc981ad7849</t>
-  </si>
-  <si>
-    <t>345d502d-2ce9-4efa-8060-8c4a7621fddb</t>
+    <t>db6d0fe9-9c98-4a96-80f9-3b0023a02f58</t>
+  </si>
+  <si>
+    <t>6d550e73-68d2-4c12-8236-caa1faa9001e</t>
+  </si>
+  <si>
+    <t>68e73aea-5bd7-47df-9b98-37b28831f602</t>
+  </si>
+  <si>
+    <t>4e7f155e-fd35-48b4-9f90-2daf35c0fb99</t>
+  </si>
+  <si>
+    <t>30dd24ba-b35b-459a-9258-0a179d97005a</t>
+  </si>
+  <si>
+    <t>13578c07-ce5a-47bd-a5b0-094d4d7fd79b</t>
+  </si>
+  <si>
+    <t>0a7ddcf1-c49e-4822-b5bd-f4d2d90718ff</t>
+  </si>
+  <si>
+    <t>0a396f03-0aa9-4723-889b-edbf83daea15</t>
+  </si>
+  <si>
+    <t>e177ccb9-aec2-4839-80ac-2ccf20b2a941</t>
+  </si>
+  <si>
+    <t>d81f1c31-095c-416d-a06e-9bee88402d61</t>
+  </si>
+  <si>
+    <t>8ca922b5-ee08-4631-90c4-deed702432a6</t>
+  </si>
+  <si>
+    <t>93d78cbd-c0c6-490a-97ea-f37c2437d433</t>
+  </si>
+  <si>
+    <t>82b14e91-d4ae-4908-89db-8e5f4fe8b47e</t>
+  </si>
+  <si>
+    <t>3ba96f80-a7d5-4584-af64-d8ff03e23ef1</t>
+  </si>
+  <si>
+    <t>0d4d4ff2-7f18-4789-8f35-81cb1c50e6f8</t>
+  </si>
+  <si>
+    <t>5d051cae-f787-41aa-b95d-3478426bf582</t>
+  </si>
+  <si>
+    <t>037238dc-955b-4b37-b728-1fe8fd890273</t>
+  </si>
+  <si>
+    <t>c0ee53f8-64ef-4746-9f97-ee8f1d49f9e1</t>
   </si>
   <si>
     <t>Value true in VISIT_PART_2_FLAG not in allowed list ('TRUE','FALSE')</t>
   </si>
   <si>
-    <t>1312c867-b24c-4f5d-89a5-096a81753765</t>
-  </si>
-  <si>
-    <t>da715ba9-8f22-4b80-b9fa-1f4e64237210</t>
-  </si>
-  <si>
-    <t>459a1b7b-2468-44eb-a337-2ffcb43e29c3</t>
-  </si>
-  <si>
-    <t>2edcd505-7ffc-43f0-bf4c-9e8fa2fd07a7</t>
-  </si>
-  <si>
-    <t>9ed92dcf-5c39-4a1d-8e28-faa42c44c383</t>
-  </si>
-  <si>
-    <t>9b03eee0-24f8-41e9-8ad9-f8e57f07a9d3</t>
-  </si>
-  <si>
-    <t>3e1dcb58-6e66-4555-8c00-eaba3bcc6eff</t>
-  </si>
-  <si>
-    <t>9b891b6f-eb49-4114-a83d-c984f92dbe93</t>
-  </si>
-  <si>
-    <t>173dc2a1-8175-4cdb-8d3e-2d129215813c</t>
+    <t>2a09c25f-31e1-4059-9716-c7bd3f08c827</t>
+  </si>
+  <si>
+    <t>48a5b32d-babb-44c8-83a3-9bc217ba6004</t>
+  </si>
+  <si>
+    <t>68295c3c-e87c-45d0-bb83-7ed1e05534e1</t>
+  </si>
+  <si>
+    <t>30dd3efc-39db-4fa0-8fc4-d9f986ce9fba</t>
+  </si>
+  <si>
+    <t>5e653786-c039-4a54-b093-07b0cf519896</t>
+  </si>
+  <si>
+    <t>775129ef-7ed8-43e6-be63-a5f447ed0d50</t>
+  </si>
+  <si>
+    <t>5a147ae9-117e-4f8f-882a-5d143a03b4a1</t>
+  </si>
+  <si>
+    <t>a3e42822-2f44-4ecb-adc2-7a7f18b910d1</t>
+  </si>
+  <si>
+    <t>49b2745c-9808-4f43-88c5-4f795266769c</t>
   </si>
   <si>
     <t>Value false in VISIT_OMH_FLAG not in allowed list ('TRUE','FALSE')</t>
@@ -903,85 +903,85 @@
     <t>Use only allowed values 'TRUE','FALSE' in VISIT_OMH_FLAG</t>
   </si>
   <si>
-    <t>f3e1bda2-63fe-49c7-9fd9-0a86b8ce3682</t>
-  </si>
-  <si>
-    <t>bada0d52-c0f9-4a56-8dff-29b9ce12be6c</t>
-  </si>
-  <si>
-    <t>03b4b01b-3e78-4518-a92b-7a669484a5f3</t>
-  </si>
-  <si>
-    <t>43d6e5f2-d832-4cae-ab87-65759218a9f8</t>
-  </si>
-  <si>
-    <t>4d230d85-c67e-4b26-9aca-23ab70aa44d7</t>
-  </si>
-  <si>
-    <t>6e6fbab4-9cf0-412c-8458-6812336e090a</t>
-  </si>
-  <si>
-    <t>c16a5219-c048-46b9-a8fa-0ee344e1b7f4</t>
-  </si>
-  <si>
-    <t>eb8299ca-1bec-4a8b-a69c-eb80b23a51ce</t>
-  </si>
-  <si>
-    <t>70d625d5-32d0-4bb3-bb2f-6aeb2b660755</t>
-  </si>
-  <si>
-    <t>68104db7-1081-4d59-8fee-827765fbd71c</t>
-  </si>
-  <si>
-    <t>8e7e334b-4c92-4b16-8ee4-7a71a61adcea</t>
-  </si>
-  <si>
-    <t>34ed810c-acd2-4e25-a89d-7e39bf3f23b2</t>
-  </si>
-  <si>
-    <t>f71bcad1-bca8-4901-9294-4cd7db7693f8</t>
-  </si>
-  <si>
-    <t>8d36586c-0b11-4c22-b249-b05f5da5a54d</t>
-  </si>
-  <si>
-    <t>fc24824f-404b-4945-a907-e4503e7475df</t>
-  </si>
-  <si>
-    <t>cedde292-b624-46ac-aa2f-0e0d1129d28f</t>
-  </si>
-  <si>
-    <t>6a1363e0-1b06-4b1e-896b-f05deab75041</t>
-  </si>
-  <si>
-    <t>a94fb550-9355-46de-803a-6803115d16da</t>
-  </si>
-  <si>
-    <t>0faa1afb-3322-4152-aab4-0167fd0b8ed9</t>
-  </si>
-  <si>
-    <t>b76adcae-95f5-4a8b-bb14-dc5e9a5d4b1e</t>
-  </si>
-  <si>
-    <t>770ed0e2-886d-4fae-b60c-ae4d563f2469</t>
-  </si>
-  <si>
-    <t>872b5d08-c726-4d1e-a207-2439c3029daa</t>
-  </si>
-  <si>
-    <t>2f5f8358-41ba-4cf3-a3eb-b626e99afe59</t>
-  </si>
-  <si>
-    <t>484fe084-e063-4aee-bb7b-b328917fdaeb</t>
-  </si>
-  <si>
-    <t>23339f9a-f7be-41c7-9604-accffe337b0a</t>
-  </si>
-  <si>
-    <t>80a87d81-e5f1-4fd6-84a8-491193a6cf0e</t>
-  </si>
-  <si>
-    <t>7b8c16f3-24de-4499-9cb7-9f53ddf359b9</t>
+    <t>f40efa01-fcf9-49ad-bf4f-76710e8ea3fb</t>
+  </si>
+  <si>
+    <t>b8dba63d-64dd-467a-95eb-12dee7767f8a</t>
+  </si>
+  <si>
+    <t>2f42d80d-b187-4447-913f-3cb7fb3f4dec</t>
+  </si>
+  <si>
+    <t>50133f7e-1838-4723-b3c0-ece159cc3ef9</t>
+  </si>
+  <si>
+    <t>0634126e-1f22-46af-bb41-e56fc8dd7f94</t>
+  </si>
+  <si>
+    <t>823c104a-b1e5-4eda-b3ba-fc3bfb0c645b</t>
+  </si>
+  <si>
+    <t>92e764f9-38b5-4cfb-aecf-ceddf3f15b41</t>
+  </si>
+  <si>
+    <t>e805ec8e-586b-463b-8e44-6e70cbdda858</t>
+  </si>
+  <si>
+    <t>38438400-b781-4977-9036-ca921d3e3be4</t>
+  </si>
+  <si>
+    <t>401d3934-b3b1-49ad-b94c-9436ac1ab9c4</t>
+  </si>
+  <si>
+    <t>7f132f2a-b41f-41f8-bbfa-1b976d0e3824</t>
+  </si>
+  <si>
+    <t>ad4b79b6-27f4-42f6-9b24-7c0d97bbbfe2</t>
+  </si>
+  <si>
+    <t>8c3afdc2-36f5-4c40-b9b1-fa979d2f5d14</t>
+  </si>
+  <si>
+    <t>3e4dab5a-c1c7-43d9-a30d-4e2b1b1e935b</t>
+  </si>
+  <si>
+    <t>f13cd8c5-0d42-46d2-88cb-0951900284a7</t>
+  </si>
+  <si>
+    <t>66a86182-c4f1-495d-bb51-da4fc23394ae</t>
+  </si>
+  <si>
+    <t>fbd861c8-ee2d-42df-bca2-91eb19088fc1</t>
+  </si>
+  <si>
+    <t>6d500bf7-18d4-4e35-8d6f-0f87946cffa1</t>
+  </si>
+  <si>
+    <t>9dd28fed-9e61-4a25-90a5-f159ec4ce5a0</t>
+  </si>
+  <si>
+    <t>245df81e-ef4a-4a61-a66a-36b95fb8b83a</t>
+  </si>
+  <si>
+    <t>43b02858-7bb4-4790-8c7c-ebf97ddf67bc</t>
+  </si>
+  <si>
+    <t>8ad937cb-f6bb-4329-b3ec-90fb28475aa9</t>
+  </si>
+  <si>
+    <t>55184d24-ab4f-4b14-abc5-8a5fa2c5826c</t>
+  </si>
+  <si>
+    <t>79ecbb21-9380-487c-b8c6-4a279d4f416a</t>
+  </si>
+  <si>
+    <t>773f6128-e1a2-4d72-bc3f-97b8f5f6ea37</t>
+  </si>
+  <si>
+    <t>5d69ad98-39ee-4513-a723-27f12e9d7311</t>
+  </si>
+  <si>
+    <t>0d0a2286-5f68-44ff-b110-aee2b8a34ed7</t>
   </si>
   <si>
     <t>Value false in VISIT_OPWDD_FLAG not in allowed list ('TRUE','FALSE')</t>
@@ -993,94 +993,94 @@
     <t>Use only allowed values 'TRUE','FALSE' in VISIT_OPWDD_FLAG</t>
   </si>
   <si>
-    <t>58b3495d-925f-4c35-8d73-5a1be9a95c4f</t>
-  </si>
-  <si>
-    <t>34c5b6b8-a92a-438b-b425-3953556876af</t>
-  </si>
-  <si>
-    <t>395d497a-0e8e-4dc4-b5c4-91060afd969c</t>
-  </si>
-  <si>
-    <t>556e09fb-719b-4350-92ea-7e66d70e8994</t>
-  </si>
-  <si>
-    <t>09393601-1eff-48b3-b81c-0c500fa42136</t>
-  </si>
-  <si>
-    <t>72a1e7bc-b366-4d60-9dd6-84c350ff35b3</t>
-  </si>
-  <si>
-    <t>9f77d07a-9b43-4564-a83b-13aac3313c73</t>
-  </si>
-  <si>
-    <t>6740d6f9-06db-447c-a593-77f9ded0c5e2</t>
-  </si>
-  <si>
-    <t>a49b2702-7f52-4e73-a15b-4fe6a9a10499</t>
-  </si>
-  <si>
-    <t>b075a877-3a40-4235-8cc0-ce666cd6d168</t>
-  </si>
-  <si>
-    <t>689c9134-f5bb-47a6-82f9-9a6b715d6d8e</t>
-  </si>
-  <si>
-    <t>d2492bea-bda9-4dec-a44a-045296d9623a</t>
-  </si>
-  <si>
-    <t>966190b7-11de-4e08-ae12-84c4e181ebef</t>
-  </si>
-  <si>
-    <t>b7d07a9b-4472-4566-8340-cad030b50cf8</t>
-  </si>
-  <si>
-    <t>4edc647b-d63b-473d-8355-18df8ff504d0</t>
-  </si>
-  <si>
-    <t>9178c936-e288-4784-9b06-7f3144fc544e</t>
-  </si>
-  <si>
-    <t>0e2320ee-261f-49a9-bd5c-d9225b01a937</t>
-  </si>
-  <si>
-    <t>1ef4ed47-63fe-45ec-9382-1d4eb3a04a5e</t>
-  </si>
-  <si>
-    <t>4154334a-0d73-4501-861f-8461b7d8e03d</t>
-  </si>
-  <si>
-    <t>751239b2-b6a4-48a7-80c2-af9f55bbed7e</t>
-  </si>
-  <si>
-    <t>a1e3a8ae-6883-4cfa-a266-f11d79c55c19</t>
-  </si>
-  <si>
-    <t>5dacbd20-4279-4b36-8b4d-b9443981863b</t>
-  </si>
-  <si>
-    <t>b55ab072-2992-4bc5-ab48-bf7ee069876c</t>
-  </si>
-  <si>
-    <t>df86d8dd-c1d2-449a-aedf-eba74c3c9c1c</t>
-  </si>
-  <si>
-    <t>054bafaa-e4f0-461f-8a82-88e0c25dd03e</t>
-  </si>
-  <si>
-    <t>667647ed-6e03-4a01-a02b-051b17b9e85e</t>
+    <t>1f37c31a-172f-4c45-8bf1-e7439093a612</t>
+  </si>
+  <si>
+    <t>9161c72d-909b-470b-81c2-4a48616bcec8</t>
+  </si>
+  <si>
+    <t>b6128705-93d7-4abf-ab17-5466b3899630</t>
+  </si>
+  <si>
+    <t>7bb9ca8e-7bf1-4a8c-8296-d87978a7e2a7</t>
+  </si>
+  <si>
+    <t>6a8d998b-efc5-42e3-a2f0-752d596bdcd4</t>
+  </si>
+  <si>
+    <t>28d3bf5e-d84d-433c-8f0a-a0b51a8ef07e</t>
+  </si>
+  <si>
+    <t>c696a8a7-f7a9-47d8-994b-0d9a1c4621c5</t>
+  </si>
+  <si>
+    <t>14ffa4ea-5b83-4400-bb8f-48b79adcfe09</t>
+  </si>
+  <si>
+    <t>89638681-1790-48ae-a688-3cc79efb8aef</t>
+  </si>
+  <si>
+    <t>325cbafd-076e-4216-924e-0241c4443487</t>
+  </si>
+  <si>
+    <t>1a74f5cf-18dd-4075-ae1a-dcc231f25f36</t>
+  </si>
+  <si>
+    <t>21126f73-ebac-424e-82d1-f0a3cb7003f1</t>
+  </si>
+  <si>
+    <t>f943957e-b616-412f-b5fd-029e38e24b70</t>
+  </si>
+  <si>
+    <t>e780cb51-5833-4f39-9d73-2d6e52d52378</t>
+  </si>
+  <si>
+    <t>6b9528e9-512f-4a77-ba48-a8b3fdf68523</t>
+  </si>
+  <si>
+    <t>84df4029-9c7d-4999-b927-700051e565e4</t>
+  </si>
+  <si>
+    <t>c611836c-f6a3-4136-9a5f-0fab7b91a135</t>
+  </si>
+  <si>
+    <t>26530df2-d505-49b6-8874-5eaaf938aec4</t>
+  </si>
+  <si>
+    <t>899f2c82-9d9f-4f07-acec-ce5ca68b02ea</t>
+  </si>
+  <si>
+    <t>a6e6aef8-d36b-4567-8768-8aed6a98091c</t>
+  </si>
+  <si>
+    <t>f28d0b04-fd71-4a0b-b52b-7b45777d3235</t>
+  </si>
+  <si>
+    <t>8f9db998-9649-4bba-99b1-25be8ff35d55</t>
+  </si>
+  <si>
+    <t>23787d48-6afa-4905-a8d8-bc802eb8a969</t>
+  </si>
+  <si>
+    <t>e9d96d3b-c5e5-4d26-9a85-01727b0e1d72</t>
+  </si>
+  <si>
+    <t>6112342f-4740-4497-994b-b249371adc12</t>
+  </si>
+  <si>
+    <t>ec9df83d-c8b6-4b53-a4f7-51d81b46023d</t>
   </si>
   <si>
     <t>2afb3098-bcfd-5a54-8ebb-4d65d399c55e</t>
   </si>
   <si>
-    <t>/home/snshah/workspaces/github.com/qe-collaborative-services/1115-hub/support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2024-01-25-valid.xlsx</t>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2024-01-25-valid.xlsx</t>
   </si>
   <si>
     <t>ahc_hrsn_2024_01_25_valid_admin_demographic</t>
   </si>
   <si>
-    <t>73405275-9054-4dba-8c76-4a3f7e97bc92</t>
+    <t>eddd3845-7b27-408b-8ab6-f35e78a7a68f</t>
   </si>
   <si>
     <t>Value 	20430005 in SEXUAL_ORIENTATION_CODE not in allowed list ('42035005','20430005','38628009','OTH','UNK')</t>
@@ -1101,7 +1101,7 @@
     <t>ahc_hrsn_2024_01_25_valid_screening</t>
   </si>
   <si>
-    <t>91722004-9020-4eb6-bab5-909de59b04eb</t>
+    <t>de72bb8f-3cae-4756-8b31-719f2c2014af</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -1116,16 +1116,16 @@
     <t>Provide a value for SCREENING_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>f7e9a73c-e8c6-482c-9cd1-d35a7050be00</t>
-  </si>
-  <si>
-    <t>6763e66d-e77a-4b16-a2ef-efeb757ceee4</t>
-  </si>
-  <si>
-    <t>63ca0389-77d9-412d-8330-80e7d5a8b59f</t>
-  </si>
-  <si>
-    <t>64f7eaaa-a5e0-43a8-938c-e00faf146855</t>
+    <t>182ba2b6-b6ac-440c-a8fa-596c311910fc</t>
+  </si>
+  <si>
+    <t>1bee9ba4-381e-4d32-8c77-db534d5b62c9</t>
+  </si>
+  <si>
+    <t>7f5b51f6-d230-424d-8b31-98e6f65e0851</t>
+  </si>
+  <si>
+    <t>14c77d8e-c715-4f67-9c9f-283a11f3b6ff</t>
   </si>
   <si>
     <t>Mandatory field SCREENING_CODE is empty</t>
@@ -1137,16 +1137,16 @@
     <t>Provide a value for SCREENING_CODE</t>
   </si>
   <si>
-    <t>0326f614-ad3e-43b9-bf5b-e7c59a1b0411</t>
-  </si>
-  <si>
-    <t>129949c0-37d0-4611-a97b-e6095f882d9c</t>
-  </si>
-  <si>
-    <t>cb970457-300d-4a00-9415-702035eeca0d</t>
-  </si>
-  <si>
-    <t>f0871593-a570-4b87-b125-27708eaf198b</t>
+    <t>0ef14305-a472-4e81-945b-b720e8d5e2ab</t>
+  </si>
+  <si>
+    <t>dbb86d90-4d2e-434b-a8ac-5ddb73c9aa31</t>
+  </si>
+  <si>
+    <t>4e6dcd5d-6e1d-458c-ad0b-fc5df4a1222e</t>
+  </si>
+  <si>
+    <t>81f5bc07-3b5f-4ee5-8f6a-d1261e5a54a0</t>
   </si>
   <si>
     <t>Mandatory field QUESTION_CODE is empty</t>
@@ -1155,16 +1155,16 @@
     <t>Provide a value for QUESTION_CODE</t>
   </si>
   <si>
-    <t>03a0d417-0724-4a66-9b54-803473080d0b</t>
-  </si>
-  <si>
-    <t>72e9c77e-c78e-4792-a707-cb284b158e6a</t>
-  </si>
-  <si>
-    <t>11602052-a7ea-4e2b-9367-d1b907d117fa</t>
-  </si>
-  <si>
-    <t>9cebe92d-c5ab-4efe-9c93-f0b87dd354e9</t>
+    <t>32475d64-1cc2-4208-827f-c142721b3de8</t>
+  </si>
+  <si>
+    <t>5794c0e7-7f06-46f7-9574-de9d844d7573</t>
+  </si>
+  <si>
+    <t>3da3798d-6512-459a-8e3a-ca656f1a7ec8</t>
+  </si>
+  <si>
+    <t>23953516-979a-4422-95f7-b4639cab53ed</t>
   </si>
   <si>
     <t>Mandatory field QUESTION_CODE_SYSTEM_NAME is empty</t>
@@ -1176,16 +1176,16 @@
     <t>Provide a value for QUESTION_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>d8ed4451-eaad-48c2-bc14-79951d522edc</t>
-  </si>
-  <si>
-    <t>367208b3-ae91-4873-a297-d5d4a36bea26</t>
-  </si>
-  <si>
-    <t>07959b46-d913-4753-bf5d-696af801237e</t>
-  </si>
-  <si>
-    <t>ec7d9603-a7ef-4112-be67-e598e0b67da0</t>
+    <t>dd9845a9-3f49-4e05-8ea2-bf334699c5ed</t>
+  </si>
+  <si>
+    <t>f5f671fd-f9e5-40e4-8bed-11c016c33430</t>
+  </si>
+  <si>
+    <t>2f5120bb-4917-4730-b1bd-f0f80e6f84c5</t>
+  </si>
+  <si>
+    <t>0c01dddd-1f4d-4a1f-8e4c-bdf191227197</t>
   </si>
   <si>
     <t>Mandatory field ANSWER_CODE is empty</t>
@@ -1197,22 +1197,22 @@
     <t>Provide a value for ANSWER_CODE</t>
   </si>
   <si>
-    <t>2f946053-6387-4466-b9c7-44f11e985f4a</t>
-  </si>
-  <si>
-    <t>037bbebc-9b6a-43a9-9744-d9e183dd0f3b</t>
-  </si>
-  <si>
-    <t>e84e31e9-911e-44cf-96f8-3473ac2d881d</t>
-  </si>
-  <si>
-    <t>68db9b57-561d-4549-ba4b-122753659610</t>
-  </si>
-  <si>
-    <t>ef806370-d294-4900-af73-668d4e6c549a</t>
-  </si>
-  <si>
-    <t>aa7e72f2-80d9-4163-aaca-ecb0d8e37220</t>
+    <t>db6f820d-1125-4b36-a95b-e713fa8b560b</t>
+  </si>
+  <si>
+    <t>785102dc-1994-4895-8b9d-36a7e9186cac</t>
+  </si>
+  <si>
+    <t>21903c48-e896-42b8-bd2c-bdb5e81a2c77</t>
+  </si>
+  <si>
+    <t>899289fe-bc27-407f-9e11-4e3a67f4463e</t>
+  </si>
+  <si>
+    <t>01379e06-d895-4f8e-85e6-3c4ddd10e561</t>
+  </si>
+  <si>
+    <t>24832ebf-2914-4c25-8272-f7d010ff0841</t>
   </si>
   <si>
     <t>Mandatory field ANSWER_CODE_SYSTEM_NAME is empty</t>
@@ -1224,19 +1224,19 @@
     <t>Provide a value for ANSWER_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>07bc494d-508b-4682-9819-393969403c63</t>
-  </si>
-  <si>
-    <t>46b25d0d-4385-43b7-b0d4-1278541c47cb</t>
-  </si>
-  <si>
-    <t>ca04bbf9-610b-4131-be63-31333a04d75a</t>
-  </si>
-  <si>
-    <t>06d1a211-bb43-4ceb-93b2-3815c3af1478</t>
-  </si>
-  <si>
-    <t>99a5a44c-57c2-4eb1-ba92-78b7e0e86d22</t>
+    <t>f19e1dfe-ee96-41c5-9873-dd6a1cdf2f87</t>
+  </si>
+  <si>
+    <t>18c63dcb-2228-4ac4-87f1-2002acf92a79</t>
+  </si>
+  <si>
+    <t>239901e6-5b5a-4177-a75b-11c45485efc0</t>
+  </si>
+  <si>
+    <t>24ee30d6-2be7-4dd7-a662-76ff65948e77</t>
+  </si>
+  <si>
+    <t>c83cf69c-5488-4f2c-9084-58f5f0441d07</t>
   </si>
   <si>
     <t>86ff3ab6-900d-5474-b63c-cbcac3c66f1a</t>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -282,7 +282,7 @@
     <t>screening_2_01hpkty3hctk826tvx5tasga55</t>
   </si>
   <si>
-    <t>b1e8f805-1372-46b6-b46b-b56f9c52de30</t>
+    <t>c7c69ba0-f858-4e90-aa64-a6dcd57a8fcb</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -297,16 +297,16 @@
     <t>Provide a value for SCREENING_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>3b274bc0-391c-4340-8265-0f4e5cfe69f9</t>
-  </si>
-  <si>
-    <t>82bbb7fe-c6e8-4bc9-81f6-696fcf344b2b</t>
-  </si>
-  <si>
-    <t>62836633-ea1b-42f0-9ee2-4e09018d68f1</t>
-  </si>
-  <si>
-    <t>fe098e07-a22b-4f8b-bca9-a522a5830680</t>
+    <t>0e352222-93c8-4557-a641-9158c83c6477</t>
+  </si>
+  <si>
+    <t>202d2b17-8cf8-4215-a471-c9c07fe2f42e</t>
+  </si>
+  <si>
+    <t>a606f389-719e-43ff-9785-e23ebb0511a1</t>
+  </si>
+  <si>
+    <t>22714e1c-6534-4305-bb9f-1d27e47b7e42</t>
   </si>
   <si>
     <t>Mandatory field SCREENING_CODE is empty</t>
@@ -318,16 +318,16 @@
     <t>Provide a value for SCREENING_CODE</t>
   </si>
   <si>
-    <t>49c5d95c-6a07-4635-ba60-2e3491a7094d</t>
-  </si>
-  <si>
-    <t>a241a926-62c8-4e62-8003-2ccae04890f0</t>
-  </si>
-  <si>
-    <t>a44dc398-be46-465d-8f4d-9291d5e2f5e7</t>
-  </si>
-  <si>
-    <t>483b6b10-2508-4f50-bbc5-ea8a45f8eb88</t>
+    <t>51b35066-9c15-4914-bc9c-514d19b09dd5</t>
+  </si>
+  <si>
+    <t>a896ecfc-80df-41e8-acd5-bc2653941ff5</t>
+  </si>
+  <si>
+    <t>3b6941b2-e0be-4591-9231-c35bd19e2c92</t>
+  </si>
+  <si>
+    <t>466b36f1-86ad-4d4c-b856-a1689bd39f77</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -345,94 +345,94 @@
     <t>Please be sure to provide both a valid date and time.</t>
   </si>
   <si>
-    <t>7ef5f20f-61d5-4d2d-9385-b690ede3dd1d</t>
-  </si>
-  <si>
-    <t>bb1e2dc6-55b7-4cae-b82d-adb3650939b0</t>
-  </si>
-  <si>
-    <t>285250e3-5233-48de-8152-28714b29b36a</t>
-  </si>
-  <si>
-    <t>e3944935-3da3-4c18-b6bc-0c79083e2eec</t>
-  </si>
-  <si>
-    <t>f59cb819-0af8-41d9-aae3-cbf40acd2173</t>
-  </si>
-  <si>
-    <t>9d8f6c62-9bcc-4a5f-a666-3064a27c61e4</t>
-  </si>
-  <si>
-    <t>7a723d0e-9b8f-43df-af54-a2cd1d570427</t>
-  </si>
-  <si>
-    <t>62af1a07-d420-46d0-8404-49b9acdef74a</t>
-  </si>
-  <si>
-    <t>6ed211be-25a2-4af0-a780-70b26405827c</t>
-  </si>
-  <si>
-    <t>efa0dcfc-2823-4379-bbec-a2ddcac188a5</t>
-  </si>
-  <si>
-    <t>baba8d89-c410-4b9f-872b-70950756c455</t>
-  </si>
-  <si>
-    <t>79e2efca-a593-4aae-983f-29dafe147401</t>
-  </si>
-  <si>
-    <t>ce309d50-5cc2-45cb-9304-f0713fe724fc</t>
-  </si>
-  <si>
-    <t>b49f1fee-0677-47fd-9ce4-c73ad90ee569</t>
-  </si>
-  <si>
-    <t>e8654306-bbb4-40fd-a55d-39628a7452a9</t>
-  </si>
-  <si>
-    <t>735be803-1681-4c9f-8fcf-cf413a4a6479</t>
-  </si>
-  <si>
-    <t>428d4c44-a549-4daa-b844-a23ca982911d</t>
-  </si>
-  <si>
-    <t>0749feed-4224-470c-8145-9eda5202b718</t>
-  </si>
-  <si>
-    <t>2e6cb585-8402-4a47-b507-e87ed182cabc</t>
-  </si>
-  <si>
-    <t>f6634aeb-8334-4b56-832d-ee67732ce2c8</t>
-  </si>
-  <si>
-    <t>be2ffc50-8da1-4d66-9194-9a619d319486</t>
-  </si>
-  <si>
-    <t>5b793654-719c-444f-8934-400d01483e2d</t>
-  </si>
-  <si>
-    <t>4ee59a66-a8b6-480a-959e-ff0497cd1f67</t>
-  </si>
-  <si>
-    <t>1fa04d8f-56c6-4284-8a4b-62d7cfe90441</t>
-  </si>
-  <si>
-    <t>6f68e286-69d6-42f4-aa39-35fae5b202ba</t>
-  </si>
-  <si>
-    <t>0ba2fd47-eae0-4250-99dc-63232a41037c</t>
-  </si>
-  <si>
-    <t>8adb112c-3377-4151-91d8-440b68788d72</t>
-  </si>
-  <si>
-    <t>558c9340-3846-415c-b4e2-b019e85f33f0</t>
-  </si>
-  <si>
-    <t>97f67b38-32b3-4655-9fc5-ce0c25a64d6a</t>
-  </si>
-  <si>
-    <t>6eaba49b-800d-43b1-9245-43ef52c00249</t>
+    <t>6e0e1568-9aac-444b-8814-b460028af9e8</t>
+  </si>
+  <si>
+    <t>6268d063-41cd-4f4e-93eb-7f8680b0a253</t>
+  </si>
+  <si>
+    <t>9cb81b78-f5cf-4d73-80d3-a09470b3e4c1</t>
+  </si>
+  <si>
+    <t>bcb64404-e307-41c2-b7ea-a45beb781eb5</t>
+  </si>
+  <si>
+    <t>97c1251c-860b-42a0-befc-d73e32fb9784</t>
+  </si>
+  <si>
+    <t>67632208-780a-469c-94e5-00005c442d32</t>
+  </si>
+  <si>
+    <t>488407d6-5457-4863-a8de-3610e941c486</t>
+  </si>
+  <si>
+    <t>f8975d05-dcf2-47fc-b4ba-edc92ffe9f09</t>
+  </si>
+  <si>
+    <t>ab39d8fb-27e8-4d34-866b-d0bfed43c99c</t>
+  </si>
+  <si>
+    <t>56bdf120-34a3-4546-93ad-53f00a5ea289</t>
+  </si>
+  <si>
+    <t>0dbe55c0-164d-4bd1-b150-9d7ad8f95666</t>
+  </si>
+  <si>
+    <t>6005387c-55d9-426d-944e-db531a3e5e2b</t>
+  </si>
+  <si>
+    <t>954981de-5187-4c3f-8e39-77d9af36d9c8</t>
+  </si>
+  <si>
+    <t>1adad4cb-b05c-4692-b1ee-4ff26c8ba110</t>
+  </si>
+  <si>
+    <t>41070fbc-c819-4bd2-b840-f9d5a8cebbd8</t>
+  </si>
+  <si>
+    <t>98062f52-6acf-4df6-bbb3-4e6bcc9673d8</t>
+  </si>
+  <si>
+    <t>32fd55b4-3397-438d-a9e8-d8df046e4b9b</t>
+  </si>
+  <si>
+    <t>b68a60b4-6656-45a5-bc5d-ecf7ac3c9d4e</t>
+  </si>
+  <si>
+    <t>7b5b33f6-b5a1-40c3-afeb-d56a34c7822f</t>
+  </si>
+  <si>
+    <t>781c1c32-229e-46f1-a11f-bb8086fe4d62</t>
+  </si>
+  <si>
+    <t>68da8bd6-6a43-446e-9668-07d4e6fed358</t>
+  </si>
+  <si>
+    <t>dfe986ef-f14b-4521-abcc-9744e57f97b8</t>
+  </si>
+  <si>
+    <t>2bbe56cc-d76d-4f6a-8e1f-6564c7e74099</t>
+  </si>
+  <si>
+    <t>630d39ae-d04b-48e4-a540-489be79757a9</t>
+  </si>
+  <si>
+    <t>f341e321-a51f-4bb4-80d5-b7e15ad06c0d</t>
+  </si>
+  <si>
+    <t>1e80f7a7-a503-4d0c-9452-789b2378c40b</t>
+  </si>
+  <si>
+    <t>aa3ecc24-9883-413e-920b-c57a6712f2f9</t>
+  </si>
+  <si>
+    <t>0203acab-2899-46dc-b7d7-2464587fa1fc</t>
+  </si>
+  <si>
+    <t>f21f6279-fec9-496c-be0a-2084ab209892</t>
+  </si>
+  <si>
+    <t>6b71b40a-baca-46c4-ae49-2017d69fe829</t>
   </si>
   <si>
     <t>Invalid timestamp "2023152  2:38:06 PM" found in RECORDED_TIME</t>
@@ -441,94 +441,94 @@
     <t>2023152  2:38:06 PM</t>
   </si>
   <si>
-    <t>e562126e-2f50-4d64-b175-f4dc837de4a2</t>
-  </si>
-  <si>
-    <t>bc1e059c-4233-412e-b7e6-a894dcd7571e</t>
-  </si>
-  <si>
-    <t>ad769353-6a3b-4976-8cfe-c9e72560a238</t>
-  </si>
-  <si>
-    <t>a8bda894-631a-439a-98fd-7ef9b4f547c5</t>
-  </si>
-  <si>
-    <t>c9e2c6f3-ab68-4e78-87cd-1ef4258b2c1e</t>
-  </si>
-  <si>
-    <t>76400075-78cb-4d81-a476-9aae2ebbb66b</t>
-  </si>
-  <si>
-    <t>b8831a2f-64a9-4840-8d52-ba53a2f34c02</t>
-  </si>
-  <si>
-    <t>8dce82f7-e472-4644-98b3-60804e0805a0</t>
-  </si>
-  <si>
-    <t>e03ae580-eb2e-48e4-bf72-2b937c1b70c0</t>
-  </si>
-  <si>
-    <t>e0d96555-ed44-4b55-a107-01b2f6db7bae</t>
-  </si>
-  <si>
-    <t>282db258-490a-4c63-bf2e-4bd639101c41</t>
-  </si>
-  <si>
-    <t>a6e8eaf6-f3b8-4be1-8ad2-e0924b2be23a</t>
-  </si>
-  <si>
-    <t>b923267f-23f0-40e4-853f-2de072b6101e</t>
-  </si>
-  <si>
-    <t>82c8abb4-0179-434c-bb3a-046abd4333d7</t>
-  </si>
-  <si>
-    <t>35328533-8527-4aa7-af43-664e033c14cd</t>
-  </si>
-  <si>
-    <t>45a70b1f-7bcc-40cd-af52-db4ec50f64e4</t>
-  </si>
-  <si>
-    <t>76abf82f-3753-4883-994d-c76e235d0892</t>
-  </si>
-  <si>
-    <t>99e48503-6146-4915-b00b-ecee87fa167b</t>
-  </si>
-  <si>
-    <t>19bc3e30-db6b-4c40-993a-d51a35d817c1</t>
-  </si>
-  <si>
-    <t>fcee4836-ed0e-441e-9a8e-5bafb25d2a07</t>
-  </si>
-  <si>
-    <t>1ca990f8-8c15-4d1a-88ca-39435d9c44aa</t>
-  </si>
-  <si>
-    <t>946e38f4-37b2-467d-8d07-10f7d99d7db9</t>
-  </si>
-  <si>
-    <t>8d48ce82-ce89-41c6-8592-7733b1f48ae4</t>
-  </si>
-  <si>
-    <t>6336a989-a4d7-467b-85b8-0023861347c9</t>
-  </si>
-  <si>
-    <t>0fa877ed-b611-4fce-a04a-d1cb66493e9b</t>
-  </si>
-  <si>
-    <t>3658da22-6c42-4e78-9ff8-4ea20551bda8</t>
-  </si>
-  <si>
-    <t>cfd24335-2229-43f5-be88-991c4805cf5a</t>
-  </si>
-  <si>
-    <t>8d7e638d-3821-4181-9102-6c7fd4696c2c</t>
-  </si>
-  <si>
-    <t>a85ea834-7fe9-491f-a306-63462e15d63f</t>
-  </si>
-  <si>
-    <t>040020fc-ede5-4670-8075-e6fd0f918e1e</t>
+    <t>34767309-75b8-4710-8d4e-8bc4d2e6b45c</t>
+  </si>
+  <si>
+    <t>027ddff8-b1b6-47a2-8c51-c897c9089ce3</t>
+  </si>
+  <si>
+    <t>68697c64-13db-4735-b1ce-3bbea7c08739</t>
+  </si>
+  <si>
+    <t>dae0cd7d-6942-474b-995d-0dd20acacdc9</t>
+  </si>
+  <si>
+    <t>720ae89c-daf0-44c4-8745-ab7bf875ac10</t>
+  </si>
+  <si>
+    <t>b40c8afc-cc1b-4be8-ad63-59321edecf31</t>
+  </si>
+  <si>
+    <t>31815b6f-c96e-43c9-8fb6-7fcbaaa63f14</t>
+  </si>
+  <si>
+    <t>e2d46a1a-4e7a-4e8f-8957-2408eb3a60e0</t>
+  </si>
+  <si>
+    <t>a3fb126f-285d-46f0-89c1-bafe1df05623</t>
+  </si>
+  <si>
+    <t>97435109-e58d-4e5e-b476-4a2848ff8a7b</t>
+  </si>
+  <si>
+    <t>2a9773a4-c60d-4dc3-a4f5-cffdaceb6f83</t>
+  </si>
+  <si>
+    <t>840f4e8a-148c-424a-9ccd-251896ca737d</t>
+  </si>
+  <si>
+    <t>9eb8c6eb-14bd-48a4-a8df-b84d3a8562fe</t>
+  </si>
+  <si>
+    <t>ea561f9b-7b77-416a-b970-2882e408a0c5</t>
+  </si>
+  <si>
+    <t>452efb45-239a-4c2e-84b2-6a733c59183d</t>
+  </si>
+  <si>
+    <t>6f5aedb4-f2db-4134-8ed9-e85d8d63a002</t>
+  </si>
+  <si>
+    <t>38dd49b7-a478-47fb-8aae-f7e38b3adc67</t>
+  </si>
+  <si>
+    <t>d1794036-118e-4e4b-938c-aebdce18dbd3</t>
+  </si>
+  <si>
+    <t>5cd83bdd-91f1-4c8e-bd85-c78357d0c588</t>
+  </si>
+  <si>
+    <t>a45db671-f0ab-43dd-9f0d-0f3521dc6335</t>
+  </si>
+  <si>
+    <t>87e6e272-b9bc-48f5-a758-e3c1808e9aef</t>
+  </si>
+  <si>
+    <t>ae3b9b1b-4ca5-472b-a8bc-4e6024d12740</t>
+  </si>
+  <si>
+    <t>9e8819cb-9d7b-4eb4-835d-04248f9502ef</t>
+  </si>
+  <si>
+    <t>907bcec3-c618-40e0-9494-cf805e290ee8</t>
+  </si>
+  <si>
+    <t>7fad2beb-db26-4441-9d2d-c5b1cab67ac7</t>
+  </si>
+  <si>
+    <t>41e23d15-c190-410f-85f6-9e4c62d4f8aa</t>
+  </si>
+  <si>
+    <t>c31921e3-fdc8-4dd2-8b2e-d421f580c183</t>
+  </si>
+  <si>
+    <t>e32650be-23c7-4380-befb-8716e8d23196</t>
+  </si>
+  <si>
+    <t>61b0dbb4-7332-4162-b830-4ff3b696a8f0</t>
+  </si>
+  <si>
+    <t>8a05fa10-8a9c-4064-9868-52e526fb1e4a</t>
   </si>
   <si>
     <t>Mandatory field QUESTION_CODE is empty</t>
@@ -540,16 +540,16 @@
     <t>Provide a value for QUESTION_CODE</t>
   </si>
   <si>
-    <t>ee661250-14da-4004-8ff0-11d39d22b07b</t>
-  </si>
-  <si>
-    <t>87cd65a5-48d8-4b5d-9434-6f99ae6fbe8b</t>
-  </si>
-  <si>
-    <t>4db46032-79ee-4c0b-b1fd-dd4f6df0efa2</t>
-  </si>
-  <si>
-    <t>0c3c5015-3279-4a38-bd46-324690828096</t>
+    <t>20deaa51-651b-4923-9fba-392e6cb41bc8</t>
+  </si>
+  <si>
+    <t>d469a47a-5f43-4816-94e4-319c8e9241ea</t>
+  </si>
+  <si>
+    <t>6cc8d07a-9051-4615-8b46-8f354fd6d186</t>
+  </si>
+  <si>
+    <t>8e82ef9d-8778-4a87-9565-312af629bee5</t>
   </si>
   <si>
     <t>Mandatory field QUESTION_CODE_SYSTEM_NAME is empty</t>
@@ -561,16 +561,16 @@
     <t>Provide a value for QUESTION_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>5a119ded-ad20-4261-b152-c5ad9587d9b0</t>
-  </si>
-  <si>
-    <t>54499a0b-9ff5-4c42-a670-b18999998369</t>
-  </si>
-  <si>
-    <t>d1a80c25-ea8d-456b-b204-d4b63dd208fd</t>
-  </si>
-  <si>
-    <t>3b17c0f3-485d-4845-aa32-adaaefa02367</t>
+    <t>19a0239a-aefe-4e3b-a3ee-ce54461b124c</t>
+  </si>
+  <si>
+    <t>83f16d06-c095-4392-b5fb-d0455f800897</t>
+  </si>
+  <si>
+    <t>b91b9c08-954b-4498-b2a3-4c56fd09fce8</t>
+  </si>
+  <si>
+    <t>89eadf09-6d6d-403d-9667-084794ec1103</t>
   </si>
   <si>
     <t>Mandatory field ANSWER_CODE is empty</t>
@@ -582,22 +582,22 @@
     <t>Provide a value for ANSWER_CODE</t>
   </si>
   <si>
-    <t>bfcb83f5-c2eb-49fc-a40c-a7adaeae7933</t>
-  </si>
-  <si>
-    <t>c4807a1c-ef41-4dfb-a9b9-2d82df47e8bf</t>
-  </si>
-  <si>
-    <t>6e97f819-5ae9-475a-94d3-536f5123d9d3</t>
-  </si>
-  <si>
-    <t>2b427257-d432-402c-ad18-4a1b5b98eb43</t>
-  </si>
-  <si>
-    <t>795670ea-c579-47ba-9428-3b64fa58bb73</t>
-  </si>
-  <si>
-    <t>721d067c-ebda-441a-9cea-a7aa243ea481</t>
+    <t>3c433083-e284-4cec-bdbd-5095b4ae66ac</t>
+  </si>
+  <si>
+    <t>02bbfea6-1016-466a-b3df-ef24c42f1d7f</t>
+  </si>
+  <si>
+    <t>c7b08b01-dacd-424e-8711-7779f02486c0</t>
+  </si>
+  <si>
+    <t>b3abbd32-b6ee-48a4-baf5-c56e6eaa093f</t>
+  </si>
+  <si>
+    <t>55d7c9cb-f6ea-40d3-b3f1-3e452ec0217c</t>
+  </si>
+  <si>
+    <t>55324869-d02e-4a88-b841-b7ad372ee148</t>
   </si>
   <si>
     <t>Mandatory field ANSWER_CODE_SYSTEM_NAME is empty</t>
@@ -609,19 +609,19 @@
     <t>Provide a value for ANSWER_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>716c09e4-63f3-463b-beab-ce1117fbcb3b</t>
-  </si>
-  <si>
-    <t>dae87729-0843-4475-bfc5-1d05fb16627d</t>
-  </si>
-  <si>
-    <t>394a44f4-2ea9-4b29-bd73-70f725d212f5</t>
-  </si>
-  <si>
-    <t>90198ae3-1104-42b3-b63d-9f746e96f7ad</t>
-  </si>
-  <si>
-    <t>dcf4a540-55ad-4378-bf12-eaba6ed4ca8a</t>
+    <t>418f562d-fe9b-44aa-9b00-636f9da04aa8</t>
+  </si>
+  <si>
+    <t>8e02ad38-bb3e-403c-baf0-a3c476cdfb3d</t>
+  </si>
+  <si>
+    <t>1bb7ca21-9b29-4af2-ad84-4a42756e061c</t>
+  </si>
+  <si>
+    <t>2ffd5191-70cd-45c3-b3ac-054369dc5136</t>
+  </si>
+  <si>
+    <t>0dd6a98f-deb5-492c-9ae6-177877b5092f</t>
   </si>
   <si>
     <t>5b77d127-e62a-50a9-acee-bea63ff64dd5</t>
@@ -633,7 +633,7 @@
     <t>ahc_hrsn_2024_01_25_valid_admin_demographic</t>
   </si>
   <si>
-    <t>ad15e050-9877-4842-bf0c-e072f6d75322</t>
+    <t>a6b6a0ab-d615-45fa-950b-f31cc2be6c01</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -657,88 +657,88 @@
     <t>ahc_hrsn_2024_01_25_valid_screening</t>
   </si>
   <si>
-    <t>8d81d446-4829-44e8-9423-4f32308f1fcb</t>
-  </si>
-  <si>
-    <t>5208ae96-002f-48ae-b0f0-a22e35c98f0d</t>
-  </si>
-  <si>
-    <t>5d1d7d11-500b-4e1e-bf41-9e7e33f83be5</t>
-  </si>
-  <si>
-    <t>d30057fb-c172-4ffd-8355-022461f5c678</t>
-  </si>
-  <si>
-    <t>c1821f00-34c3-4219-9648-e1bb9acbf6b8</t>
-  </si>
-  <si>
-    <t>c16d6795-2545-440b-a159-e11e8c6d59da</t>
-  </si>
-  <si>
-    <t>b63a4252-51d3-40e3-b5da-c853e0b62b8d</t>
-  </si>
-  <si>
-    <t>453b1236-0c6d-438a-bdf0-f12204f737a8</t>
-  </si>
-  <si>
-    <t>f0d70413-f4db-4332-91d4-0895f8d44778</t>
-  </si>
-  <si>
-    <t>49e7d211-7fb6-44fc-9d51-b1fd392d65ac</t>
-  </si>
-  <si>
-    <t>e5b95487-7833-41c5-9f6e-160810284b99</t>
-  </si>
-  <si>
-    <t>ec33acf8-5e6d-46aa-a053-076bc1bfa203</t>
-  </si>
-  <si>
-    <t>33d62e26-2575-4ae8-838e-05ac02a4420a</t>
-  </si>
-  <si>
-    <t>56421bca-4e37-4197-8677-36c19f13806d</t>
-  </si>
-  <si>
-    <t>13c920e3-06ea-4b73-b2e3-1eacedcd101d</t>
-  </si>
-  <si>
-    <t>f513a313-b990-4196-8c8d-a15f8a85fd95</t>
-  </si>
-  <si>
-    <t>c9ac8b4b-2544-432d-8493-0f3b4c0deb18</t>
-  </si>
-  <si>
-    <t>1168c218-92d2-4855-9a1c-3ca9b8f38f73</t>
-  </si>
-  <si>
-    <t>4f95b720-7848-4a5f-874e-e2460e0ab5d7</t>
-  </si>
-  <si>
-    <t>9f727189-605a-4317-8d50-17eacc675d72</t>
-  </si>
-  <si>
-    <t>5c1567db-166e-47f4-add8-a7f303a7c3b2</t>
-  </si>
-  <si>
-    <t>b86bb2c2-6ebe-415b-a140-ef15f7a89784</t>
-  </si>
-  <si>
-    <t>0efd8cab-9648-4563-b2d5-863ca581bc6a</t>
-  </si>
-  <si>
-    <t>36139345-d31b-469e-ad25-abc5bcacc950</t>
-  </si>
-  <si>
-    <t>a4e920b1-8976-447b-99af-555fa9c49bb2</t>
-  </si>
-  <si>
-    <t>b520e33f-7fc0-4508-851e-d395b41f7026</t>
-  </si>
-  <si>
-    <t>e23f3a01-6b85-49f0-b6d7-feddc4d41914</t>
-  </si>
-  <si>
-    <t>8a0d51b8-8d0a-4600-abf7-7c1c646e5afd</t>
+    <t>64a5dcc4-625f-4c09-a535-79ff35cd3d5a</t>
+  </si>
+  <si>
+    <t>201b7405-3603-44a0-967b-0483a81cb937</t>
+  </si>
+  <si>
+    <t>94d1af43-19ba-4cf6-b438-7db42772068a</t>
+  </si>
+  <si>
+    <t>7067fc04-1f8a-41f2-a41f-fca30d872f50</t>
+  </si>
+  <si>
+    <t>4639ff42-71a3-4bc3-891e-e9a0c3b122cd</t>
+  </si>
+  <si>
+    <t>9288295b-a41c-4fdf-b488-7c20b467f5e5</t>
+  </si>
+  <si>
+    <t>4c8f738f-0c83-4350-80b4-0a9ed20d4799</t>
+  </si>
+  <si>
+    <t>e2b4adb3-0c0f-4411-9ea1-4e4726acaa6b</t>
+  </si>
+  <si>
+    <t>38038d0e-91a7-469b-8d15-c59962b507b2</t>
+  </si>
+  <si>
+    <t>ce5ba600-35b8-4697-86d3-d37108e9cb0a</t>
+  </si>
+  <si>
+    <t>e3e0cf5d-1075-437d-b12d-8326671dccb4</t>
+  </si>
+  <si>
+    <t>1a80c7fa-39d4-42eb-bb2f-d6da49e527be</t>
+  </si>
+  <si>
+    <t>b395917a-423e-44d5-8c78-384d04931861</t>
+  </si>
+  <si>
+    <t>095d52a4-2eb9-486e-89d8-724353ac08e6</t>
+  </si>
+  <si>
+    <t>9d056191-a091-4af0-b693-e06d96f85bff</t>
+  </si>
+  <si>
+    <t>7a8bd44d-615a-4cc3-940e-fd214a499d15</t>
+  </si>
+  <si>
+    <t>148ab7fb-1eb7-4f8b-a32e-5b614b7b4683</t>
+  </si>
+  <si>
+    <t>eae3afe6-adec-40b6-9b49-01d00c84971d</t>
+  </si>
+  <si>
+    <t>b4edc9eb-f96d-48d5-beaa-14bdca734be4</t>
+  </si>
+  <si>
+    <t>be569bbf-0fda-415b-866b-d9e4b9ccaefd</t>
+  </si>
+  <si>
+    <t>4b5e09fc-9370-436c-aee7-6a5ff5107628</t>
+  </si>
+  <si>
+    <t>8153de51-2609-446a-98da-55c7ec1aec91</t>
+  </si>
+  <si>
+    <t>f7d07424-e9bd-4c42-b905-5a4db6cd6336</t>
+  </si>
+  <si>
+    <t>70e4d562-c243-4a32-bacf-9dc8f86b8f5b</t>
+  </si>
+  <si>
+    <t>b2ea2d37-4870-423f-8fc2-fb978f2bf09d</t>
+  </si>
+  <si>
+    <t>94f9454c-a5f6-4912-a012-acfc819000e7</t>
+  </si>
+  <si>
+    <t>0571fba4-406d-4357-93a2-54eaca25740b</t>
+  </si>
+  <si>
+    <t>dbdf1164-ed8c-45f4-9223-20343968fe4e</t>
   </si>
   <si>
     <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -282,7 +282,7 @@
     <t>screening_2_01hpkty3hctk826tvx5tasga55</t>
   </si>
   <si>
-    <t>c7c69ba0-f858-4e90-aa64-a6dcd57a8fcb</t>
+    <t>372cb3aa-d3cc-455b-a905-55d42e516ed1</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -297,16 +297,16 @@
     <t>Provide a value for SCREENING_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>0e352222-93c8-4557-a641-9158c83c6477</t>
-  </si>
-  <si>
-    <t>202d2b17-8cf8-4215-a471-c9c07fe2f42e</t>
-  </si>
-  <si>
-    <t>a606f389-719e-43ff-9785-e23ebb0511a1</t>
-  </si>
-  <si>
-    <t>22714e1c-6534-4305-bb9f-1d27e47b7e42</t>
+    <t>0ed122a5-5c70-4cad-9cec-53362f0d714b</t>
+  </si>
+  <si>
+    <t>0637a275-a245-4bd1-904d-38462b3f8c12</t>
+  </si>
+  <si>
+    <t>c812b8c4-786a-4566-84b2-207142fe1175</t>
+  </si>
+  <si>
+    <t>85c0de35-8816-4631-abfb-2d3a290d3d59</t>
   </si>
   <si>
     <t>Mandatory field SCREENING_CODE is empty</t>
@@ -318,16 +318,16 @@
     <t>Provide a value for SCREENING_CODE</t>
   </si>
   <si>
-    <t>51b35066-9c15-4914-bc9c-514d19b09dd5</t>
-  </si>
-  <si>
-    <t>a896ecfc-80df-41e8-acd5-bc2653941ff5</t>
-  </si>
-  <si>
-    <t>3b6941b2-e0be-4591-9231-c35bd19e2c92</t>
-  </si>
-  <si>
-    <t>466b36f1-86ad-4d4c-b856-a1689bd39f77</t>
+    <t>a2ae6296-de2b-45e3-862a-a1fa81caed99</t>
+  </si>
+  <si>
+    <t>83c2aa69-9cd6-4379-bf1c-58680e3a79e1</t>
+  </si>
+  <si>
+    <t>0041ec7b-0505-4fd9-9cf1-98bab786f898</t>
+  </si>
+  <si>
+    <t>4372dc0b-137f-425e-862b-8779645a1edd</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -345,94 +345,94 @@
     <t>Please be sure to provide both a valid date and time.</t>
   </si>
   <si>
-    <t>6e0e1568-9aac-444b-8814-b460028af9e8</t>
-  </si>
-  <si>
-    <t>6268d063-41cd-4f4e-93eb-7f8680b0a253</t>
-  </si>
-  <si>
-    <t>9cb81b78-f5cf-4d73-80d3-a09470b3e4c1</t>
-  </si>
-  <si>
-    <t>bcb64404-e307-41c2-b7ea-a45beb781eb5</t>
-  </si>
-  <si>
-    <t>97c1251c-860b-42a0-befc-d73e32fb9784</t>
-  </si>
-  <si>
-    <t>67632208-780a-469c-94e5-00005c442d32</t>
-  </si>
-  <si>
-    <t>488407d6-5457-4863-a8de-3610e941c486</t>
-  </si>
-  <si>
-    <t>f8975d05-dcf2-47fc-b4ba-edc92ffe9f09</t>
-  </si>
-  <si>
-    <t>ab39d8fb-27e8-4d34-866b-d0bfed43c99c</t>
-  </si>
-  <si>
-    <t>56bdf120-34a3-4546-93ad-53f00a5ea289</t>
-  </si>
-  <si>
-    <t>0dbe55c0-164d-4bd1-b150-9d7ad8f95666</t>
-  </si>
-  <si>
-    <t>6005387c-55d9-426d-944e-db531a3e5e2b</t>
-  </si>
-  <si>
-    <t>954981de-5187-4c3f-8e39-77d9af36d9c8</t>
-  </si>
-  <si>
-    <t>1adad4cb-b05c-4692-b1ee-4ff26c8ba110</t>
-  </si>
-  <si>
-    <t>41070fbc-c819-4bd2-b840-f9d5a8cebbd8</t>
-  </si>
-  <si>
-    <t>98062f52-6acf-4df6-bbb3-4e6bcc9673d8</t>
-  </si>
-  <si>
-    <t>32fd55b4-3397-438d-a9e8-d8df046e4b9b</t>
-  </si>
-  <si>
-    <t>b68a60b4-6656-45a5-bc5d-ecf7ac3c9d4e</t>
-  </si>
-  <si>
-    <t>7b5b33f6-b5a1-40c3-afeb-d56a34c7822f</t>
-  </si>
-  <si>
-    <t>781c1c32-229e-46f1-a11f-bb8086fe4d62</t>
-  </si>
-  <si>
-    <t>68da8bd6-6a43-446e-9668-07d4e6fed358</t>
-  </si>
-  <si>
-    <t>dfe986ef-f14b-4521-abcc-9744e57f97b8</t>
-  </si>
-  <si>
-    <t>2bbe56cc-d76d-4f6a-8e1f-6564c7e74099</t>
-  </si>
-  <si>
-    <t>630d39ae-d04b-48e4-a540-489be79757a9</t>
-  </si>
-  <si>
-    <t>f341e321-a51f-4bb4-80d5-b7e15ad06c0d</t>
-  </si>
-  <si>
-    <t>1e80f7a7-a503-4d0c-9452-789b2378c40b</t>
-  </si>
-  <si>
-    <t>aa3ecc24-9883-413e-920b-c57a6712f2f9</t>
-  </si>
-  <si>
-    <t>0203acab-2899-46dc-b7d7-2464587fa1fc</t>
-  </si>
-  <si>
-    <t>f21f6279-fec9-496c-be0a-2084ab209892</t>
-  </si>
-  <si>
-    <t>6b71b40a-baca-46c4-ae49-2017d69fe829</t>
+    <t>2daf847a-7c6c-4430-a71d-ec28c5fea551</t>
+  </si>
+  <si>
+    <t>9bdc4625-b04c-4ff8-b01f-cf79aa0adf7d</t>
+  </si>
+  <si>
+    <t>701dc41b-d2c1-4d97-bf1c-d348b334904b</t>
+  </si>
+  <si>
+    <t>2159dc03-98c8-4bd5-ae57-525d75881eba</t>
+  </si>
+  <si>
+    <t>ae3bbbe0-944c-44e7-926a-50915cfc6e1f</t>
+  </si>
+  <si>
+    <t>3a591750-d1ce-4d62-9669-efbf6ee90631</t>
+  </si>
+  <si>
+    <t>db8aabcb-8085-4dbd-8e49-ebd9364c181f</t>
+  </si>
+  <si>
+    <t>ed0a18d5-11cd-4fc4-ba5d-adf873b7595c</t>
+  </si>
+  <si>
+    <t>b96fd29f-efae-45c4-ac8a-80420a6c5936</t>
+  </si>
+  <si>
+    <t>cd278cf5-384d-4729-996c-0420f5d9d628</t>
+  </si>
+  <si>
+    <t>9a3a41b1-2a42-452a-8c27-b29fe55214f4</t>
+  </si>
+  <si>
+    <t>d70754be-cc55-41ec-b06d-96243a529b1e</t>
+  </si>
+  <si>
+    <t>24a5bcc3-ddb9-4a9e-b730-0bebd0b42617</t>
+  </si>
+  <si>
+    <t>73706993-b444-4171-bca6-566335e3fffc</t>
+  </si>
+  <si>
+    <t>0046b82e-9ab4-43c5-bf80-ecd54c160e30</t>
+  </si>
+  <si>
+    <t>bab249b5-51eb-444b-818b-de6dc059ff41</t>
+  </si>
+  <si>
+    <t>d92f112a-93d1-4bdd-bc82-ac2f0d8d5d2e</t>
+  </si>
+  <si>
+    <t>6a4ec714-33e6-44e3-a238-0e60838c8a8c</t>
+  </si>
+  <si>
+    <t>59aa3cc6-efe0-40b3-b430-92f4278e0a3a</t>
+  </si>
+  <si>
+    <t>d0197805-5078-40ff-82da-52ab10602dbf</t>
+  </si>
+  <si>
+    <t>975f06e4-d477-4015-9a9d-9ddf165ed0c9</t>
+  </si>
+  <si>
+    <t>b1fcdaf0-bcb4-464b-8e6d-b8e2abb5ccc8</t>
+  </si>
+  <si>
+    <t>0e5864ae-9696-49dd-866b-1224bb8ca615</t>
+  </si>
+  <si>
+    <t>2907bfbd-9c8b-45d4-bc74-12fb54d3fd24</t>
+  </si>
+  <si>
+    <t>b4a27f1e-19fe-4c6b-8ce8-3e60f9d85655</t>
+  </si>
+  <si>
+    <t>9f36a0c8-3e4e-4ee5-9a83-a905decfa0d8</t>
+  </si>
+  <si>
+    <t>82c3873f-b121-42e2-9bf0-9806370453b3</t>
+  </si>
+  <si>
+    <t>72929b93-50b1-4489-8a67-73bb09af0ff2</t>
+  </si>
+  <si>
+    <t>c72075d5-a03f-4a50-9f7c-3674efc50f8a</t>
+  </si>
+  <si>
+    <t>b084fa4d-c34b-4e49-bef4-6088df401a96</t>
   </si>
   <si>
     <t>Invalid timestamp "2023152  2:38:06 PM" found in RECORDED_TIME</t>
@@ -441,94 +441,94 @@
     <t>2023152  2:38:06 PM</t>
   </si>
   <si>
-    <t>34767309-75b8-4710-8d4e-8bc4d2e6b45c</t>
-  </si>
-  <si>
-    <t>027ddff8-b1b6-47a2-8c51-c897c9089ce3</t>
-  </si>
-  <si>
-    <t>68697c64-13db-4735-b1ce-3bbea7c08739</t>
-  </si>
-  <si>
-    <t>dae0cd7d-6942-474b-995d-0dd20acacdc9</t>
-  </si>
-  <si>
-    <t>720ae89c-daf0-44c4-8745-ab7bf875ac10</t>
-  </si>
-  <si>
-    <t>b40c8afc-cc1b-4be8-ad63-59321edecf31</t>
-  </si>
-  <si>
-    <t>31815b6f-c96e-43c9-8fb6-7fcbaaa63f14</t>
-  </si>
-  <si>
-    <t>e2d46a1a-4e7a-4e8f-8957-2408eb3a60e0</t>
-  </si>
-  <si>
-    <t>a3fb126f-285d-46f0-89c1-bafe1df05623</t>
-  </si>
-  <si>
-    <t>97435109-e58d-4e5e-b476-4a2848ff8a7b</t>
-  </si>
-  <si>
-    <t>2a9773a4-c60d-4dc3-a4f5-cffdaceb6f83</t>
-  </si>
-  <si>
-    <t>840f4e8a-148c-424a-9ccd-251896ca737d</t>
-  </si>
-  <si>
-    <t>9eb8c6eb-14bd-48a4-a8df-b84d3a8562fe</t>
-  </si>
-  <si>
-    <t>ea561f9b-7b77-416a-b970-2882e408a0c5</t>
-  </si>
-  <si>
-    <t>452efb45-239a-4c2e-84b2-6a733c59183d</t>
-  </si>
-  <si>
-    <t>6f5aedb4-f2db-4134-8ed9-e85d8d63a002</t>
-  </si>
-  <si>
-    <t>38dd49b7-a478-47fb-8aae-f7e38b3adc67</t>
-  </si>
-  <si>
-    <t>d1794036-118e-4e4b-938c-aebdce18dbd3</t>
-  </si>
-  <si>
-    <t>5cd83bdd-91f1-4c8e-bd85-c78357d0c588</t>
-  </si>
-  <si>
-    <t>a45db671-f0ab-43dd-9f0d-0f3521dc6335</t>
-  </si>
-  <si>
-    <t>87e6e272-b9bc-48f5-a758-e3c1808e9aef</t>
-  </si>
-  <si>
-    <t>ae3b9b1b-4ca5-472b-a8bc-4e6024d12740</t>
-  </si>
-  <si>
-    <t>9e8819cb-9d7b-4eb4-835d-04248f9502ef</t>
-  </si>
-  <si>
-    <t>907bcec3-c618-40e0-9494-cf805e290ee8</t>
-  </si>
-  <si>
-    <t>7fad2beb-db26-4441-9d2d-c5b1cab67ac7</t>
-  </si>
-  <si>
-    <t>41e23d15-c190-410f-85f6-9e4c62d4f8aa</t>
-  </si>
-  <si>
-    <t>c31921e3-fdc8-4dd2-8b2e-d421f580c183</t>
-  </si>
-  <si>
-    <t>e32650be-23c7-4380-befb-8716e8d23196</t>
-  </si>
-  <si>
-    <t>61b0dbb4-7332-4162-b830-4ff3b696a8f0</t>
-  </si>
-  <si>
-    <t>8a05fa10-8a9c-4064-9868-52e526fb1e4a</t>
+    <t>763b57a5-c33c-442b-88d3-f2a9b1a99213</t>
+  </si>
+  <si>
+    <t>ac910329-0262-4d62-84a8-d2c6bd40638e</t>
+  </si>
+  <si>
+    <t>91b551a8-6f96-433e-bd34-4a8744009d83</t>
+  </si>
+  <si>
+    <t>dc749e63-1e6d-44b8-9c79-361abed985a7</t>
+  </si>
+  <si>
+    <t>ad3004cb-1002-40b9-baca-169df14c1700</t>
+  </si>
+  <si>
+    <t>c94524a8-53a1-4f75-8aba-a3e137cef2e6</t>
+  </si>
+  <si>
+    <t>d746cfb4-4bfc-4dfd-9d8d-eaa011bec22b</t>
+  </si>
+  <si>
+    <t>49899fc0-ad1a-4a1e-b72d-0b9e1888b952</t>
+  </si>
+  <si>
+    <t>378a9579-bd6a-44d0-b9cb-bdcd2ff88270</t>
+  </si>
+  <si>
+    <t>ecdd500f-7b06-40da-b868-c3bb5ca413d4</t>
+  </si>
+  <si>
+    <t>0f9eaa0e-6b7e-4b54-a464-27abcd79d613</t>
+  </si>
+  <si>
+    <t>c9e048e4-389e-4274-b9c4-11e86d7337ee</t>
+  </si>
+  <si>
+    <t>2ee0b975-83d1-4fe6-9a2a-7cabbbd15cb9</t>
+  </si>
+  <si>
+    <t>8f62aacd-7797-482e-bf40-adebd0532de2</t>
+  </si>
+  <si>
+    <t>c4e64aa2-49a1-4f3d-9074-90f7f756e3fd</t>
+  </si>
+  <si>
+    <t>0b981b84-11ed-4c66-b8c5-75626c99d5e7</t>
+  </si>
+  <si>
+    <t>d735378e-eb64-42a4-80f4-fc4e175fa6aa</t>
+  </si>
+  <si>
+    <t>4a31bde2-3396-4e79-92dd-6cd9f3a9f21a</t>
+  </si>
+  <si>
+    <t>025cabee-24af-4ff9-99a8-31c9c1adde43</t>
+  </si>
+  <si>
+    <t>554e4017-bd12-4917-847c-b755f3b47824</t>
+  </si>
+  <si>
+    <t>f90c2bef-ee88-44e6-b475-f9cff7f97a65</t>
+  </si>
+  <si>
+    <t>d4ce1835-46f4-49c7-a8a9-7447a67b6b16</t>
+  </si>
+  <si>
+    <t>693431ed-8f29-4f7f-8906-48b117729456</t>
+  </si>
+  <si>
+    <t>9f8d9646-eaf1-4ec4-8434-4a2c1a70ec40</t>
+  </si>
+  <si>
+    <t>e26a68bc-aa42-4fc5-9bc8-d669f2d8366a</t>
+  </si>
+  <si>
+    <t>a62f8413-a713-4c95-9a7e-2093a36e58ad</t>
+  </si>
+  <si>
+    <t>4da7cbcb-8083-483a-be7c-67c7a6baac6a</t>
+  </si>
+  <si>
+    <t>70c885bf-80a6-42d8-b0d4-c8897471757e</t>
+  </si>
+  <si>
+    <t>4929f468-ab9f-46db-81f7-c5c368329ce0</t>
+  </si>
+  <si>
+    <t>2fcf07f2-20fd-47c8-8218-6a92d1109299</t>
   </si>
   <si>
     <t>Mandatory field QUESTION_CODE is empty</t>
@@ -540,16 +540,16 @@
     <t>Provide a value for QUESTION_CODE</t>
   </si>
   <si>
-    <t>20deaa51-651b-4923-9fba-392e6cb41bc8</t>
-  </si>
-  <si>
-    <t>d469a47a-5f43-4816-94e4-319c8e9241ea</t>
-  </si>
-  <si>
-    <t>6cc8d07a-9051-4615-8b46-8f354fd6d186</t>
-  </si>
-  <si>
-    <t>8e82ef9d-8778-4a87-9565-312af629bee5</t>
+    <t>37af9c50-b101-4988-92bc-7c32844139d1</t>
+  </si>
+  <si>
+    <t>1f4c623b-b4cd-439a-ab5c-43b4cefae2d3</t>
+  </si>
+  <si>
+    <t>09da1850-3489-471e-aa5a-b062ba695ff3</t>
+  </si>
+  <si>
+    <t>56cf1db1-c906-4a84-a31f-d3cd405132bc</t>
   </si>
   <si>
     <t>Mandatory field QUESTION_CODE_SYSTEM_NAME is empty</t>
@@ -561,16 +561,16 @@
     <t>Provide a value for QUESTION_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>19a0239a-aefe-4e3b-a3ee-ce54461b124c</t>
-  </si>
-  <si>
-    <t>83f16d06-c095-4392-b5fb-d0455f800897</t>
-  </si>
-  <si>
-    <t>b91b9c08-954b-4498-b2a3-4c56fd09fce8</t>
-  </si>
-  <si>
-    <t>89eadf09-6d6d-403d-9667-084794ec1103</t>
+    <t>f4c55d4e-ddcc-4948-9bdb-772896b2630f</t>
+  </si>
+  <si>
+    <t>71f17a13-d9a6-46fe-932f-0d0cfbf4cd66</t>
+  </si>
+  <si>
+    <t>97b346ef-5a26-42a9-be25-4820c856a724</t>
+  </si>
+  <si>
+    <t>2076b7b3-18b8-401a-a8ce-df6031bec2d8</t>
   </si>
   <si>
     <t>Mandatory field ANSWER_CODE is empty</t>
@@ -582,22 +582,22 @@
     <t>Provide a value for ANSWER_CODE</t>
   </si>
   <si>
-    <t>3c433083-e284-4cec-bdbd-5095b4ae66ac</t>
-  </si>
-  <si>
-    <t>02bbfea6-1016-466a-b3df-ef24c42f1d7f</t>
-  </si>
-  <si>
-    <t>c7b08b01-dacd-424e-8711-7779f02486c0</t>
-  </si>
-  <si>
-    <t>b3abbd32-b6ee-48a4-baf5-c56e6eaa093f</t>
-  </si>
-  <si>
-    <t>55d7c9cb-f6ea-40d3-b3f1-3e452ec0217c</t>
-  </si>
-  <si>
-    <t>55324869-d02e-4a88-b841-b7ad372ee148</t>
+    <t>bbc9b991-5063-4394-bd46-c4cce43d9bcb</t>
+  </si>
+  <si>
+    <t>54e0d1e2-b526-4ff8-b88b-1bb3eb75947b</t>
+  </si>
+  <si>
+    <t>efaaa067-0e50-47e6-acd9-0ab3a5ce05fc</t>
+  </si>
+  <si>
+    <t>3fdab6c9-39a3-4905-9019-33f3dd3711db</t>
+  </si>
+  <si>
+    <t>c2b2ec59-31ba-4ab4-a006-2c95b3cb0dd8</t>
+  </si>
+  <si>
+    <t>0593ced6-b74c-4d75-a958-59f034317205</t>
   </si>
   <si>
     <t>Mandatory field ANSWER_CODE_SYSTEM_NAME is empty</t>
@@ -609,19 +609,19 @@
     <t>Provide a value for ANSWER_CODE_SYSTEM_NAME</t>
   </si>
   <si>
-    <t>418f562d-fe9b-44aa-9b00-636f9da04aa8</t>
-  </si>
-  <si>
-    <t>8e02ad38-bb3e-403c-baf0-a3c476cdfb3d</t>
-  </si>
-  <si>
-    <t>1bb7ca21-9b29-4af2-ad84-4a42756e061c</t>
-  </si>
-  <si>
-    <t>2ffd5191-70cd-45c3-b3ac-054369dc5136</t>
-  </si>
-  <si>
-    <t>0dd6a98f-deb5-492c-9ae6-177877b5092f</t>
+    <t>419a5c1d-c836-4e6e-9870-97c855ea29fa</t>
+  </si>
+  <si>
+    <t>3f7f17e7-56e7-4b1d-be14-bb1e9239d956</t>
+  </si>
+  <si>
+    <t>3f89b6b0-4b5d-49f7-9b11-81f91f9511ca</t>
+  </si>
+  <si>
+    <t>b47ecb57-539e-4fcb-8fbc-a1a1fe0c6c67</t>
+  </si>
+  <si>
+    <t>8d5a54ef-5289-4c7f-80a0-48359746709f</t>
   </si>
   <si>
     <t>5b77d127-e62a-50a9-acee-bea63ff64dd5</t>
@@ -633,7 +633,7 @@
     <t>ahc_hrsn_2024_01_25_valid_admin_demographic</t>
   </si>
   <si>
-    <t>a6b6a0ab-d615-45fa-950b-f31cc2be6c01</t>
+    <t>3ab0389a-057e-4eef-9135-78fa900f5810</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -657,88 +657,88 @@
     <t>ahc_hrsn_2024_01_25_valid_screening</t>
   </si>
   <si>
-    <t>64a5dcc4-625f-4c09-a535-79ff35cd3d5a</t>
-  </si>
-  <si>
-    <t>201b7405-3603-44a0-967b-0483a81cb937</t>
-  </si>
-  <si>
-    <t>94d1af43-19ba-4cf6-b438-7db42772068a</t>
-  </si>
-  <si>
-    <t>7067fc04-1f8a-41f2-a41f-fca30d872f50</t>
-  </si>
-  <si>
-    <t>4639ff42-71a3-4bc3-891e-e9a0c3b122cd</t>
-  </si>
-  <si>
-    <t>9288295b-a41c-4fdf-b488-7c20b467f5e5</t>
-  </si>
-  <si>
-    <t>4c8f738f-0c83-4350-80b4-0a9ed20d4799</t>
-  </si>
-  <si>
-    <t>e2b4adb3-0c0f-4411-9ea1-4e4726acaa6b</t>
-  </si>
-  <si>
-    <t>38038d0e-91a7-469b-8d15-c59962b507b2</t>
-  </si>
-  <si>
-    <t>ce5ba600-35b8-4697-86d3-d37108e9cb0a</t>
-  </si>
-  <si>
-    <t>e3e0cf5d-1075-437d-b12d-8326671dccb4</t>
-  </si>
-  <si>
-    <t>1a80c7fa-39d4-42eb-bb2f-d6da49e527be</t>
-  </si>
-  <si>
-    <t>b395917a-423e-44d5-8c78-384d04931861</t>
-  </si>
-  <si>
-    <t>095d52a4-2eb9-486e-89d8-724353ac08e6</t>
-  </si>
-  <si>
-    <t>9d056191-a091-4af0-b693-e06d96f85bff</t>
-  </si>
-  <si>
-    <t>7a8bd44d-615a-4cc3-940e-fd214a499d15</t>
-  </si>
-  <si>
-    <t>148ab7fb-1eb7-4f8b-a32e-5b614b7b4683</t>
-  </si>
-  <si>
-    <t>eae3afe6-adec-40b6-9b49-01d00c84971d</t>
-  </si>
-  <si>
-    <t>b4edc9eb-f96d-48d5-beaa-14bdca734be4</t>
-  </si>
-  <si>
-    <t>be569bbf-0fda-415b-866b-d9e4b9ccaefd</t>
-  </si>
-  <si>
-    <t>4b5e09fc-9370-436c-aee7-6a5ff5107628</t>
-  </si>
-  <si>
-    <t>8153de51-2609-446a-98da-55c7ec1aec91</t>
-  </si>
-  <si>
-    <t>f7d07424-e9bd-4c42-b905-5a4db6cd6336</t>
-  </si>
-  <si>
-    <t>70e4d562-c243-4a32-bacf-9dc8f86b8f5b</t>
-  </si>
-  <si>
-    <t>b2ea2d37-4870-423f-8fc2-fb978f2bf09d</t>
-  </si>
-  <si>
-    <t>94f9454c-a5f6-4912-a012-acfc819000e7</t>
-  </si>
-  <si>
-    <t>0571fba4-406d-4357-93a2-54eaca25740b</t>
-  </si>
-  <si>
-    <t>dbdf1164-ed8c-45f4-9223-20343968fe4e</t>
+    <t>83257be3-215b-4065-a54a-0ad6682cf23a</t>
+  </si>
+  <si>
+    <t>32a94177-aa6e-4e52-bb40-4da5966c144c</t>
+  </si>
+  <si>
+    <t>6568617e-58a7-405d-b583-ed4e86551044</t>
+  </si>
+  <si>
+    <t>1ac97b52-297e-4ecb-bdac-c34828e7d60c</t>
+  </si>
+  <si>
+    <t>7acdac34-7ae3-4e42-95b9-dc3ec74e5f1a</t>
+  </si>
+  <si>
+    <t>b2c22bec-fa9a-4ed8-a546-de2835af7776</t>
+  </si>
+  <si>
+    <t>67066532-86a1-4645-87d5-0ce62b34d801</t>
+  </si>
+  <si>
+    <t>2a75fb98-d523-47ba-9141-598845efde37</t>
+  </si>
+  <si>
+    <t>79575c63-9e16-41db-8e95-febc68cdb703</t>
+  </si>
+  <si>
+    <t>f6ff5e47-86a5-4afa-a442-b19a87d2f3b9</t>
+  </si>
+  <si>
+    <t>e5b5e157-8fe5-43c0-9649-6ccd9af6aa44</t>
+  </si>
+  <si>
+    <t>3a9eb28a-f9fc-4b1a-a3c5-7eacfe0f5188</t>
+  </si>
+  <si>
+    <t>9b6d9dcd-e9ad-45cb-90c5-88c941a832c7</t>
+  </si>
+  <si>
+    <t>770bccb5-9e72-4e5f-b2ed-7016cd145c75</t>
+  </si>
+  <si>
+    <t>267f305b-6cd0-40af-bb69-76c45cd358e2</t>
+  </si>
+  <si>
+    <t>73af36cd-a77a-4e3d-8840-503958201bc0</t>
+  </si>
+  <si>
+    <t>619d6334-c993-408c-a7a6-1cf7ed1db415</t>
+  </si>
+  <si>
+    <t>5c3cad25-d713-4d4f-9ca3-fc8275069a71</t>
+  </si>
+  <si>
+    <t>6c8ff5fa-9e7d-4de7-b381-1b66b81672bb</t>
+  </si>
+  <si>
+    <t>f3cf86ad-0b3a-43a9-8733-d548e2094dad</t>
+  </si>
+  <si>
+    <t>ad9bfcd1-e193-496e-8756-27c8d38ea84a</t>
+  </si>
+  <si>
+    <t>b110e34b-b1a5-46ee-9971-7d4535561f28</t>
+  </si>
+  <si>
+    <t>9df52aea-f06e-403a-a82e-9010d3adc9d2</t>
+  </si>
+  <si>
+    <t>2597f3e4-7cd9-44ff-8159-2da33dfbfcc9</t>
+  </si>
+  <si>
+    <t>c97455cd-54b3-495f-b762-10a1a960415f</t>
+  </si>
+  <si>
+    <t>1885623d-c36a-41f7-8fed-9f303a0897b1</t>
+  </si>
+  <si>
+    <t>c0ea0aa3-962f-4869-aa6b-fc368a8cc634</t>
+  </si>
+  <si>
+    <t>34a0f612-b3f8-4888-86ce-28ca5ba496fd</t>
   </si>
   <si>
     <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
   <si>
     <t>orch_session_id</t>
   </si>
@@ -78,7 +78,7 @@
     <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
   </si>
   <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2023-12-12-valid.csv</t>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx</t>
   </si>
   <si>
     <t>ERROR</t>
@@ -87,25 +87,19 @@
     <t>7b979b68-7227-53fd-b689-e4fe153afb76</t>
   </si>
   <si>
-    <t>Unknown CSV File Type</t>
-  </si>
-  <si>
-    <t>CSV file 'ahc-hrsn-2023-12-12-valid.csv' not found in 'ahc-hrsn-2023-12-12-valid.csv'</t>
+    <t>Sheet Missing</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Admin_Demographic' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
   </si>
   <si>
     <t>abf5c680-a135-5d89-b871-fa5b9b99aed6</t>
   </si>
   <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx</t>
-  </si>
-  <si>
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
   </si>
   <si>
-    <t>Sheet Missing</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Admin_Demographic' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
+    <t>Excel workbook sheet 'Screening' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
   </si>
   <si>
     <t>d70a4700-6b40-52fc-a7a2-69ef0d7f69ff</t>
@@ -114,7 +108,7 @@
     <t>47277588-99e8-59f5-8384-b24344a86073</t>
   </si>
   <si>
-    <t>Excel workbook sheet 'Screening' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
+    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
   </si>
   <si>
     <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
@@ -123,7 +117,7 @@
     <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
   </si>
   <si>
-    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
+    <t>Excel workbook sheet 'Question_Reference' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
   </si>
   <si>
     <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
@@ -132,649 +126,628 @@
     <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
   </si>
   <si>
-    <t>Excel workbook sheet 'Question_Reference' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
+    <t>Excel workbook sheet 'Answer_Reference' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
+  </si>
+  <si>
+    <t>591191c7-f693-5957-8734-ac87151ca981</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2023-12-25-valid.xlsx</t>
+  </si>
+  <si>
+    <t>3b4eb0e5-6239-537a-8e67-e50e172e72a2</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Question_Reference' not found in 'ahc-hrsn-2023-12-25-valid.xlsx' (available: Admin_Demographic, Screening, QE_Admin_Data)</t>
+  </si>
+  <si>
+    <t>071f8fe1-4899-5c71-9c86-7d7377661d45</t>
+  </si>
+  <si>
+    <t>86b4a49e-7378-5159-9f41-b005208c31bc</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Answer_Reference' not found in 'ahc-hrsn-2023-12-25-valid.xlsx' (available: Admin_Demographic, Screening, QE_Admin_Data)</t>
+  </si>
+  <si>
+    <t>a530fe1b-57ef-5a90-8bea-835ece2483da</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/jrchc-hrsn-file-spec.xlsx</t>
+  </si>
+  <si>
+    <t>a3fe7098-8ae8-5612-81ac-cbe10780c19b</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Admin_Demographic' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>99e72a60-96ab-5ef1-a3af-3e7759777664</t>
+  </si>
+  <si>
+    <t>e36daa69-3c63-5384-b6a7-03fa3b00641d</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Screening' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>89f7ec04-277a-5799-afaa-a70d0f2a8ed5</t>
+  </si>
+  <si>
+    <t>c60cf3db-b1bf-5103-b278-b0c128ce924a</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>b2a7c7e8-5ffe-5f28-8112-4eb7abb6397f</t>
+  </si>
+  <si>
+    <t>b10e248d-8c94-59ec-83fc-a1249dd3b111</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Question_Reference' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>5222b730-9add-5b52-b0c9-6f2506b0af9d</t>
+  </si>
+  <si>
+    <t>fa7874f6-f848-572b-a9ab-9db4c8d5e959</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Answer_Reference' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>c302047e-21cf-5059-a32c-e81a9bd3a9b9</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
+  </si>
+  <si>
+    <t>3252fee6-3a9a-5f4c-81c6-739201046d79</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>78d6a904-035e-54ae-8ac2-ca5cdf3f75f7</t>
+  </si>
+  <si>
+    <t>9860873a-c387-5d98-9930-4ff296eb7192</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>d5d6e25d-81b4-5f98-8b91-ea2dbc155a9c</t>
+  </si>
+  <si>
+    <t>46171763-bd21-57a8-a403-0785f72643cf</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>4971a2f5-06a3-5898-823d-364145d3b9a5</t>
+  </si>
+  <si>
+    <t>c2c0cbca-70cb-54f6-9dc7-66b47c4f3157</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Question_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>8640a4b5-53ef-506e-bcde-83f00315d4b2</t>
+  </si>
+  <si>
+    <t>544998d3-58c5-5f65-9dc8-9f998508495f</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>0adb81bc-3df2-5f86-99cc-2d20e1dd5efd</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/SCREENING-2_01HPKTY3HCTK826TVX5TASGA55.csv</t>
+  </si>
+  <si>
+    <t>screening_2_01hpkty3hctk826tvx5tasga55</t>
+  </si>
+  <si>
+    <t>7d9203de-b06d-452f-8aee-74c9e90460b5</t>
+  </si>
+  <si>
+    <t>Missing Mandatory Value</t>
+  </si>
+  <si>
+    <t>Mandatory field SCREENING_CODE_SYSTEM_NAME is empty</t>
+  </si>
+  <si>
+    <t>SCREENING_CODE_SYSTEM_NAME</t>
+  </si>
+  <si>
+    <t>Provide a value for SCREENING_CODE_SYSTEM_NAME</t>
+  </si>
+  <si>
+    <t>5f871934-c309-49ad-9ac4-d2f4089b94b2</t>
+  </si>
+  <si>
+    <t>45ec9ab8-a9c3-4861-b217-ebe131d8d6ce</t>
+  </si>
+  <si>
+    <t>8aa34aab-39d9-4cff-aae5-b0d3ede2270f</t>
+  </si>
+  <si>
+    <t>6ed3e531-63fe-40b3-a743-99876fcb129b</t>
+  </si>
+  <si>
+    <t>Mandatory field SCREENING_CODE is empty</t>
+  </si>
+  <si>
+    <t>SCREENING_CODE</t>
+  </si>
+  <si>
+    <t>Provide a value for SCREENING_CODE</t>
+  </si>
+  <si>
+    <t>f845b946-d0d2-4b8c-8fb3-ba81ae3df76d</t>
+  </si>
+  <si>
+    <t>11571e13-a423-412b-9a24-47d163808f6d</t>
+  </si>
+  <si>
+    <t>77a14783-22f1-4d81-8144-e7a2bcf0b655</t>
+  </si>
+  <si>
+    <t>3a56ea38-a746-40ba-a140-c0e134b6933b</t>
+  </si>
+  <si>
+    <t>Invalid Date</t>
+  </si>
+  <si>
+    <t>Invalid timestamp "2023127  4:08:01 PM" found in RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>2023127  4:08:01 PM</t>
+  </si>
+  <si>
+    <t>Please be sure to provide both a valid date and time.</t>
+  </si>
+  <si>
+    <t>483f6f5b-6381-474c-8ef4-d49889fb0c99</t>
+  </si>
+  <si>
+    <t>d03bfb8d-29a7-4f7f-afc1-efd206afb463</t>
+  </si>
+  <si>
+    <t>7d4d320d-e6e1-4bb4-a139-7023743586c7</t>
+  </si>
+  <si>
+    <t>2cf504db-abe6-4f77-b9e5-5069211f1c68</t>
+  </si>
+  <si>
+    <t>d52f9749-69f9-41cc-bf42-590c0b534f28</t>
+  </si>
+  <si>
+    <t>59afc254-1fb7-428a-8658-9eba656cf5e2</t>
+  </si>
+  <si>
+    <t>453b446c-564b-47b6-b7e0-1237033c07b0</t>
+  </si>
+  <si>
+    <t>7fb0f91e-01cb-4c6c-bd60-9985b25e9018</t>
+  </si>
+  <si>
+    <t>e98f6186-732f-4087-856d-0e35873d2ebb</t>
+  </si>
+  <si>
+    <t>4e217634-a05f-4c19-8faa-1c3ccdc35ea8</t>
+  </si>
+  <si>
+    <t>ecb26aa9-9f05-4d1e-ae7f-08fc62b5a87c</t>
+  </si>
+  <si>
+    <t>728eceb2-aa75-4915-b48f-228f9a355157</t>
+  </si>
+  <si>
+    <t>08161e54-2dda-47c9-9b4e-7651800ca1e9</t>
+  </si>
+  <si>
+    <t>60df6b85-4e6e-4c3b-994a-e8dde6798678</t>
+  </si>
+  <si>
+    <t>89553217-4ecb-4b5a-b7e5-315a34227c67</t>
+  </si>
+  <si>
+    <t>10a3c24c-9e02-439b-a5a6-cad6faf4e462</t>
+  </si>
+  <si>
+    <t>78cfc298-0f02-45d0-b707-caa2bba8a1d7</t>
+  </si>
+  <si>
+    <t>344d1aa9-1b01-4a63-853b-1bb65cd2a6ae</t>
+  </si>
+  <si>
+    <t>81236f6a-594f-4ced-8276-2b8c9540fbb1</t>
+  </si>
+  <si>
+    <t>504243ad-46b4-4063-9fa0-8bc4fb3f40ad</t>
+  </si>
+  <si>
+    <t>ae5f00dc-d343-4b1c-b364-f8128c19ede9</t>
+  </si>
+  <si>
+    <t>0d95cdec-3ab9-40e9-ab57-034a4effe164</t>
+  </si>
+  <si>
+    <t>4d749c38-d4d3-49be-9ff7-9d64ea37e73d</t>
+  </si>
+  <si>
+    <t>4284c3c3-e675-4a58-a5e0-73ab7c90fca7</t>
+  </si>
+  <si>
+    <t>5e093393-98b9-4a47-8443-c2ef1ccce604</t>
+  </si>
+  <si>
+    <t>abecde21-8371-4361-b0c9-52bf106b40fc</t>
+  </si>
+  <si>
+    <t>31fdbf7e-8039-4e44-a3d5-752e05db270f</t>
+  </si>
+  <si>
+    <t>019dd7a8-1d97-4bd6-a50f-ad572f24140f</t>
+  </si>
+  <si>
+    <t>90773bae-fa3d-44fe-8744-8fc18240fdec</t>
+  </si>
+  <si>
+    <t>5d077128-c873-40b3-839f-10e2d97d183b</t>
+  </si>
+  <si>
+    <t>Invalid timestamp "2023152  2:38:06 PM" found in RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>2023152  2:38:06 PM</t>
+  </si>
+  <si>
+    <t>e6947b80-1376-4b5f-b19d-419345c253be</t>
+  </si>
+  <si>
+    <t>8e1b6f48-7749-48fd-a4ad-b762072eaa10</t>
+  </si>
+  <si>
+    <t>7320f8aa-1660-4aee-9c79-edf138478305</t>
+  </si>
+  <si>
+    <t>316204b3-02ff-4ef7-abe1-3a3e51ceca9d</t>
+  </si>
+  <si>
+    <t>bf4616f0-2099-47c8-9dce-4d1ff3c8a368</t>
+  </si>
+  <si>
+    <t>aa18ffd8-32db-4a4e-97b9-b04fa5ea2926</t>
+  </si>
+  <si>
+    <t>a41bae67-6dea-40ac-ad5d-2b7c61d519f0</t>
+  </si>
+  <si>
+    <t>5b89c362-e916-414a-be76-7f03c9a94c61</t>
+  </si>
+  <si>
+    <t>732b6e04-fe08-49f2-af7d-34cd8cf40f00</t>
+  </si>
+  <si>
+    <t>3c49b0e3-4588-4079-b6df-d2e88facd067</t>
+  </si>
+  <si>
+    <t>c0dfb75c-e553-4327-bbb7-75438f5fe035</t>
+  </si>
+  <si>
+    <t>a4bafb82-ae54-4a2d-aca9-16d05642212d</t>
+  </si>
+  <si>
+    <t>03163385-ea14-4153-81e4-2c8324cb7410</t>
+  </si>
+  <si>
+    <t>e77d1b5b-2b99-4c57-9b26-cb7c961f67fd</t>
+  </si>
+  <si>
+    <t>4c18b400-0b5e-46c7-9829-9344c26104b1</t>
+  </si>
+  <si>
+    <t>52be0a98-a76a-48cc-864c-18b77284394c</t>
+  </si>
+  <si>
+    <t>617942cf-911e-4320-b806-4e738aee6712</t>
+  </si>
+  <si>
+    <t>37e105c1-fcd1-4905-a4d1-0eb687dfd8fc</t>
+  </si>
+  <si>
+    <t>6859dfe9-8aa3-4dab-a08a-5cdf3197f344</t>
+  </si>
+  <si>
+    <t>2295ce6b-4e3d-4f06-8f61-87d3d77cfe54</t>
+  </si>
+  <si>
+    <t>7863f058-cc3d-476b-885b-8cb347cbabb9</t>
+  </si>
+  <si>
+    <t>2b60a31c-2c62-4101-946a-f2d206d56cb2</t>
+  </si>
+  <si>
+    <t>93fc230e-9bf7-48a1-b355-c6d1875091ed</t>
+  </si>
+  <si>
+    <t>eb2750ab-5ae5-4e81-a28c-1e6d7c1d3ad7</t>
+  </si>
+  <si>
+    <t>048e5733-9489-4afe-a651-edb17a956d1f</t>
+  </si>
+  <si>
+    <t>969a02ae-612b-4a6b-ad67-20e2a88d7032</t>
+  </si>
+  <si>
+    <t>40f130c8-e896-4189-bdf1-a23e54dcd6d9</t>
+  </si>
+  <si>
+    <t>8fcd7dcf-8a78-4da1-9880-1c931bbcfb53</t>
+  </si>
+  <si>
+    <t>850dfc1e-5ad2-47c4-bfd2-599dfc676e62</t>
+  </si>
+  <si>
+    <t>bdfda804-8e8f-455a-ba76-4edaf2f950b8</t>
+  </si>
+  <si>
+    <t>Mandatory field QUESTION_CODE is empty</t>
+  </si>
+  <si>
+    <t>QUESTION_CODE</t>
+  </si>
+  <si>
+    <t>Provide a value for QUESTION_CODE</t>
+  </si>
+  <si>
+    <t>3348f65f-1b91-486b-b747-dee9f0181557</t>
+  </si>
+  <si>
+    <t>ee7af0f1-692b-4251-8e25-81ad7e721ca3</t>
+  </si>
+  <si>
+    <t>2fff969c-b43c-4abb-93a9-c53a9d3262b3</t>
+  </si>
+  <si>
+    <t>6546340b-8f79-49e7-8c50-918ec1e6a4a4</t>
+  </si>
+  <si>
+    <t>Mandatory field QUESTION_CODE_SYSTEM_NAME is empty</t>
+  </si>
+  <si>
+    <t>QUESTION_CODE_SYSTEM_NAME</t>
+  </si>
+  <si>
+    <t>Provide a value for QUESTION_CODE_SYSTEM_NAME</t>
+  </si>
+  <si>
+    <t>deb88f0a-860d-47e8-a55a-a6c19a3ee46f</t>
+  </si>
+  <si>
+    <t>de1c75f6-7d7e-4014-9687-4123aea14252</t>
+  </si>
+  <si>
+    <t>00387c07-1f50-4545-b04f-4883f3be881c</t>
+  </si>
+  <si>
+    <t>17933404-ead1-404a-9283-df99b625d8d9</t>
+  </si>
+  <si>
+    <t>Mandatory field ANSWER_CODE is empty</t>
+  </si>
+  <si>
+    <t>ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>Provide a value for ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>4ecb96f2-cacc-4ae4-9df8-d2c30b95e658</t>
+  </si>
+  <si>
+    <t>0d2ac6f1-a872-42dc-8d13-4c7e2bfebdf4</t>
+  </si>
+  <si>
+    <t>aab3a059-1a04-4d18-86de-6398796e5ea1</t>
+  </si>
+  <si>
+    <t>aa89efaf-bdcc-4332-8998-9fce24435568</t>
+  </si>
+  <si>
+    <t>37d01dfd-3135-4bc4-99bb-9223a562cee0</t>
+  </si>
+  <si>
+    <t>df7aa2f5-d73b-4bd6-bc35-8e28ed72c539</t>
+  </si>
+  <si>
+    <t>Mandatory field ANSWER_CODE_SYSTEM_NAME is empty</t>
+  </si>
+  <si>
+    <t>ANSWER_CODE_SYSTEM_NAME</t>
+  </si>
+  <si>
+    <t>Provide a value for ANSWER_CODE_SYSTEM_NAME</t>
+  </si>
+  <si>
+    <t>9fe1b25f-33c5-4b84-b8c1-79698ac303f2</t>
+  </si>
+  <si>
+    <t>074491d4-f831-4dd1-82f0-fe3ec43fb268</t>
+  </si>
+  <si>
+    <t>c1152a1a-f900-42e0-b84b-a2ec17567c37</t>
+  </si>
+  <si>
+    <t>5f2b072d-d260-46e8-897c-ec49c4ec149f</t>
+  </si>
+  <si>
+    <t>ba941b9a-361a-45ce-88cf-d879330c713f</t>
+  </si>
+  <si>
+    <t>9dabd022-4a26-55f2-98f4-e534e7704b23</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2024-01-25-valid.xlsx</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_2024_01_25_valid_admin_demographic</t>
+  </si>
+  <si>
+    <t>9fc8c7fe-3222-4338-9a2d-6cfe7eb71f0a</t>
+  </si>
+  <si>
+    <t>Invalid Value</t>
+  </si>
+  <si>
+    <t>Value 	20430005 in SEXUAL_ORIENTATION_CODE not in allowed list ('42035005','20430005','38628009','OTH','UNK')</t>
+  </si>
+  <si>
+    <t>SEXUAL_ORIENTATION_CODE</t>
+  </si>
+  <si>
+    <t>	20430005</t>
+  </si>
+  <si>
+    <t>Use only allowed values '42035005','20430005','38628009','OTH','UNK' in SEXUAL_ORIENTATION_CODE</t>
+  </si>
+  <si>
+    <t>7e65e3a7-4415-55f4-866b-3b0cc4e85fc6</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_2024_01_25_valid_screening</t>
+  </si>
+  <si>
+    <t>29519655-a339-4df4-86d1-56a5e35aa7b5</t>
+  </si>
+  <si>
+    <t>914f4c36-6a19-43ff-baf6-b73fd8b819ec</t>
+  </si>
+  <si>
+    <t>483b9ea9-ab77-4c24-ac53-87342c7b8b50</t>
+  </si>
+  <si>
+    <t>aba694bb-1eda-4b5d-90f3-c3b3ca582d5f</t>
+  </si>
+  <si>
+    <t>db5c0020-3dc2-4f6d-8634-4b31e6c03a4f</t>
+  </si>
+  <si>
+    <t>3f5181af-1af2-4aed-b0bb-47259c1c10d9</t>
+  </si>
+  <si>
+    <t>5f2605f9-7170-4be3-a074-54e9ad42e9ae</t>
+  </si>
+  <si>
+    <t>a333ea9a-a1ef-473b-97ff-9a69950d4bb1</t>
+  </si>
+  <si>
+    <t>12115b6b-a470-4c88-bdbc-def28d58405a</t>
+  </si>
+  <si>
+    <t>32e3cfcb-b37a-4f28-a8b9-a336e3ecc8b1</t>
+  </si>
+  <si>
+    <t>c789b35f-a9bd-4dc5-9032-2e138738634f</t>
+  </si>
+  <si>
+    <t>55a794f0-6866-4516-b978-ad8a93707c8d</t>
+  </si>
+  <si>
+    <t>edc4ecfe-5638-4776-87de-f1f24fa63371</t>
+  </si>
+  <si>
+    <t>6184e444-dcca-4ea4-858b-f5450e2ff91f</t>
+  </si>
+  <si>
+    <t>8ed494ef-934f-4882-8d34-f0e00a3b5c57</t>
+  </si>
+  <si>
+    <t>c90e2cb5-938f-45d4-b4d7-e85eea353f74</t>
+  </si>
+  <si>
+    <t>51dde6d8-7904-4375-9a22-09d9aebe8382</t>
+  </si>
+  <si>
+    <t>4a070971-0748-45de-8978-829d120a4f1b</t>
+  </si>
+  <si>
+    <t>03a2f3aa-683f-4878-88ed-87cb8a1fe3de</t>
+  </si>
+  <si>
+    <t>7289477b-267c-4a6a-9ee0-35a2216aa592</t>
+  </si>
+  <si>
+    <t>4e6f5fdf-0c4f-45c7-9a44-afba46a41505</t>
+  </si>
+  <si>
+    <t>72875562-13df-4933-91f5-e75b2ea6d042</t>
+  </si>
+  <si>
+    <t>3b4723fd-6e94-44fa-9d71-1a171a004111</t>
+  </si>
+  <si>
+    <t>881ff206-184e-4295-baa2-c37dd78a78b2</t>
+  </si>
+  <si>
+    <t>86238d68-2e83-4a4a-9756-9bf17bb91cd5</t>
+  </si>
+  <si>
+    <t>2a68b850-150c-4f65-b4fd-649d9b07e537</t>
+  </si>
+  <si>
+    <t>84b1f9fe-f0cf-4583-8d5b-f43e9add1b66</t>
+  </si>
+  <si>
+    <t>9055c31a-df6a-400e-b5d1-1323a897e06e</t>
+  </si>
+  <si>
+    <t>4b7537b2-9d60-59f3-8c61-fa2ff4265c02</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_2024_01_25_valid_answer_reference</t>
+  </si>
+  <si>
+    <t>2afb3098-bcfd-5a54-8ebb-4d65d399c55e</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/DEMOGRAPHIC_DATA-2_01HPKTY3HCTK826TVX5TASGA55.csv</t>
+  </si>
+  <si>
+    <t>admin_demographics_2_01hpkty3hctk826tvx5tasga55</t>
+  </si>
+  <si>
+    <t>86ff3ab6-900d-5474-b63c-cbcac3c66f1a</t>
+  </si>
+  <si>
+    <t>ahc_hrsn_2024_01_25_valid_question_reference</t>
   </si>
   <si>
     <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
   </si>
   <si>
-    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Answer_Reference' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
-  </si>
-  <si>
-    <t>071f8fe1-4899-5c71-9c86-7d7377661d45</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2023-12-25-valid.xlsx</t>
-  </si>
-  <si>
-    <t>86b4a49e-7378-5159-9f41-b005208c31bc</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Question_Reference' not found in 'ahc-hrsn-2023-12-25-valid.xlsx' (available: Admin_Demographic, Screening, QE_Admin_Data)</t>
-  </si>
-  <si>
-    <t>a530fe1b-57ef-5a90-8bea-835ece2483da</t>
-  </si>
-  <si>
-    <t>a3fe7098-8ae8-5612-81ac-cbe10780c19b</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Answer_Reference' not found in 'ahc-hrsn-2023-12-25-valid.xlsx' (available: Admin_Demographic, Screening, QE_Admin_Data)</t>
-  </si>
-  <si>
-    <t>99e72a60-96ab-5ef1-a3af-3e7759777664</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/jrchc-hrsn-file-spec.xlsx</t>
-  </si>
-  <si>
-    <t>e36daa69-3c63-5384-b6a7-03fa3b00641d</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Admin_Demographic' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
-  </si>
-  <si>
-    <t>89f7ec04-277a-5799-afaa-a70d0f2a8ed5</t>
-  </si>
-  <si>
-    <t>c60cf3db-b1bf-5103-b278-b0c128ce924a</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Screening' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
-  </si>
-  <si>
-    <t>b2a7c7e8-5ffe-5f28-8112-4eb7abb6397f</t>
-  </si>
-  <si>
-    <t>b10e248d-8c94-59ec-83fc-a1249dd3b111</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
-  </si>
-  <si>
-    <t>5222b730-9add-5b52-b0c9-6f2506b0af9d</t>
-  </si>
-  <si>
-    <t>fa7874f6-f848-572b-a9ab-9db4c8d5e959</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Question_Reference' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
-  </si>
-  <si>
-    <t>c302047e-21cf-5059-a32c-e81a9bd3a9b9</t>
-  </si>
-  <si>
-    <t>3252fee6-3a9a-5f4c-81c6-739201046d79</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Answer_Reference' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
-  </si>
-  <si>
-    <t>78d6a904-035e-54ae-8ac2-ca5cdf3f75f7</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
-  </si>
-  <si>
-    <t>9860873a-c387-5d98-9930-4ff296eb7192</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>d5d6e25d-81b4-5f98-8b91-ea2dbc155a9c</t>
-  </si>
-  <si>
-    <t>46171763-bd21-57a8-a403-0785f72643cf</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>4971a2f5-06a3-5898-823d-364145d3b9a5</t>
-  </si>
-  <si>
-    <t>c2c0cbca-70cb-54f6-9dc7-66b47c4f3157</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>8640a4b5-53ef-506e-bcde-83f00315d4b2</t>
-  </si>
-  <si>
-    <t>544998d3-58c5-5f65-9dc8-9f998508495f</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Question_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>0adb81bc-3df2-5f86-99cc-2d20e1dd5efd</t>
-  </si>
-  <si>
-    <t>10d0290c-b2eb-581e-b627-b5b8fcbb830f</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>e6951d0b-be59-58c3-8a04-01181208c601</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail.csv</t>
-  </si>
-  <si>
-    <t>2afb3098-bcfd-5a54-8ebb-4d65d399c55e</t>
-  </si>
-  <si>
-    <t>CSV file 'synthetic-fail.csv' not found in 'synthetic-fail.csv'</t>
-  </si>
-  <si>
-    <t>0e074bf2-f1fe-55d4-bd44-a88cbed79aeb</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/SCREENING-2_01HPKTY3HCTK826TVX5TASGA55.csv</t>
-  </si>
-  <si>
-    <t>screening_2_01hpkty3hctk826tvx5tasga55</t>
-  </si>
-  <si>
-    <t>372cb3aa-d3cc-455b-a905-55d42e516ed1</t>
-  </si>
-  <si>
-    <t>Missing Mandatory Value</t>
-  </si>
-  <si>
-    <t>Mandatory field SCREENING_CODE_SYSTEM_NAME is empty</t>
-  </si>
-  <si>
-    <t>SCREENING_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>Provide a value for SCREENING_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>0ed122a5-5c70-4cad-9cec-53362f0d714b</t>
-  </si>
-  <si>
-    <t>0637a275-a245-4bd1-904d-38462b3f8c12</t>
-  </si>
-  <si>
-    <t>c812b8c4-786a-4566-84b2-207142fe1175</t>
-  </si>
-  <si>
-    <t>85c0de35-8816-4631-abfb-2d3a290d3d59</t>
-  </si>
-  <si>
-    <t>Mandatory field SCREENING_CODE is empty</t>
-  </si>
-  <si>
-    <t>SCREENING_CODE</t>
-  </si>
-  <si>
-    <t>Provide a value for SCREENING_CODE</t>
-  </si>
-  <si>
-    <t>a2ae6296-de2b-45e3-862a-a1fa81caed99</t>
-  </si>
-  <si>
-    <t>83c2aa69-9cd6-4379-bf1c-58680e3a79e1</t>
-  </si>
-  <si>
-    <t>0041ec7b-0505-4fd9-9cf1-98bab786f898</t>
-  </si>
-  <si>
-    <t>4372dc0b-137f-425e-862b-8779645a1edd</t>
-  </si>
-  <si>
-    <t>Invalid Date</t>
-  </si>
-  <si>
-    <t>Invalid timestamp "2023127  4:08:01 PM" found in RECORDED_TIME</t>
-  </si>
-  <si>
-    <t>RECORDED_TIME</t>
-  </si>
-  <si>
-    <t>2023127  4:08:01 PM</t>
-  </si>
-  <si>
-    <t>Please be sure to provide both a valid date and time.</t>
-  </si>
-  <si>
-    <t>2daf847a-7c6c-4430-a71d-ec28c5fea551</t>
-  </si>
-  <si>
-    <t>9bdc4625-b04c-4ff8-b01f-cf79aa0adf7d</t>
-  </si>
-  <si>
-    <t>701dc41b-d2c1-4d97-bf1c-d348b334904b</t>
-  </si>
-  <si>
-    <t>2159dc03-98c8-4bd5-ae57-525d75881eba</t>
-  </si>
-  <si>
-    <t>ae3bbbe0-944c-44e7-926a-50915cfc6e1f</t>
-  </si>
-  <si>
-    <t>3a591750-d1ce-4d62-9669-efbf6ee90631</t>
-  </si>
-  <si>
-    <t>db8aabcb-8085-4dbd-8e49-ebd9364c181f</t>
-  </si>
-  <si>
-    <t>ed0a18d5-11cd-4fc4-ba5d-adf873b7595c</t>
-  </si>
-  <si>
-    <t>b96fd29f-efae-45c4-ac8a-80420a6c5936</t>
-  </si>
-  <si>
-    <t>cd278cf5-384d-4729-996c-0420f5d9d628</t>
-  </si>
-  <si>
-    <t>9a3a41b1-2a42-452a-8c27-b29fe55214f4</t>
-  </si>
-  <si>
-    <t>d70754be-cc55-41ec-b06d-96243a529b1e</t>
-  </si>
-  <si>
-    <t>24a5bcc3-ddb9-4a9e-b730-0bebd0b42617</t>
-  </si>
-  <si>
-    <t>73706993-b444-4171-bca6-566335e3fffc</t>
-  </si>
-  <si>
-    <t>0046b82e-9ab4-43c5-bf80-ecd54c160e30</t>
-  </si>
-  <si>
-    <t>bab249b5-51eb-444b-818b-de6dc059ff41</t>
-  </si>
-  <si>
-    <t>d92f112a-93d1-4bdd-bc82-ac2f0d8d5d2e</t>
-  </si>
-  <si>
-    <t>6a4ec714-33e6-44e3-a238-0e60838c8a8c</t>
-  </si>
-  <si>
-    <t>59aa3cc6-efe0-40b3-b430-92f4278e0a3a</t>
-  </si>
-  <si>
-    <t>d0197805-5078-40ff-82da-52ab10602dbf</t>
-  </si>
-  <si>
-    <t>975f06e4-d477-4015-9a9d-9ddf165ed0c9</t>
-  </si>
-  <si>
-    <t>b1fcdaf0-bcb4-464b-8e6d-b8e2abb5ccc8</t>
-  </si>
-  <si>
-    <t>0e5864ae-9696-49dd-866b-1224bb8ca615</t>
-  </si>
-  <si>
-    <t>2907bfbd-9c8b-45d4-bc74-12fb54d3fd24</t>
-  </si>
-  <si>
-    <t>b4a27f1e-19fe-4c6b-8ce8-3e60f9d85655</t>
-  </si>
-  <si>
-    <t>9f36a0c8-3e4e-4ee5-9a83-a905decfa0d8</t>
-  </si>
-  <si>
-    <t>82c3873f-b121-42e2-9bf0-9806370453b3</t>
-  </si>
-  <si>
-    <t>72929b93-50b1-4489-8a67-73bb09af0ff2</t>
-  </si>
-  <si>
-    <t>c72075d5-a03f-4a50-9f7c-3674efc50f8a</t>
-  </si>
-  <si>
-    <t>b084fa4d-c34b-4e49-bef4-6088df401a96</t>
-  </si>
-  <si>
-    <t>Invalid timestamp "2023152  2:38:06 PM" found in RECORDED_TIME</t>
-  </si>
-  <si>
-    <t>2023152  2:38:06 PM</t>
-  </si>
-  <si>
-    <t>763b57a5-c33c-442b-88d3-f2a9b1a99213</t>
-  </si>
-  <si>
-    <t>ac910329-0262-4d62-84a8-d2c6bd40638e</t>
-  </si>
-  <si>
-    <t>91b551a8-6f96-433e-bd34-4a8744009d83</t>
-  </si>
-  <si>
-    <t>dc749e63-1e6d-44b8-9c79-361abed985a7</t>
-  </si>
-  <si>
-    <t>ad3004cb-1002-40b9-baca-169df14c1700</t>
-  </si>
-  <si>
-    <t>c94524a8-53a1-4f75-8aba-a3e137cef2e6</t>
-  </si>
-  <si>
-    <t>d746cfb4-4bfc-4dfd-9d8d-eaa011bec22b</t>
-  </si>
-  <si>
-    <t>49899fc0-ad1a-4a1e-b72d-0b9e1888b952</t>
-  </si>
-  <si>
-    <t>378a9579-bd6a-44d0-b9cb-bdcd2ff88270</t>
-  </si>
-  <si>
-    <t>ecdd500f-7b06-40da-b868-c3bb5ca413d4</t>
-  </si>
-  <si>
-    <t>0f9eaa0e-6b7e-4b54-a464-27abcd79d613</t>
-  </si>
-  <si>
-    <t>c9e048e4-389e-4274-b9c4-11e86d7337ee</t>
-  </si>
-  <si>
-    <t>2ee0b975-83d1-4fe6-9a2a-7cabbbd15cb9</t>
-  </si>
-  <si>
-    <t>8f62aacd-7797-482e-bf40-adebd0532de2</t>
-  </si>
-  <si>
-    <t>c4e64aa2-49a1-4f3d-9074-90f7f756e3fd</t>
-  </si>
-  <si>
-    <t>0b981b84-11ed-4c66-b8c5-75626c99d5e7</t>
-  </si>
-  <si>
-    <t>d735378e-eb64-42a4-80f4-fc4e175fa6aa</t>
-  </si>
-  <si>
-    <t>4a31bde2-3396-4e79-92dd-6cd9f3a9f21a</t>
-  </si>
-  <si>
-    <t>025cabee-24af-4ff9-99a8-31c9c1adde43</t>
-  </si>
-  <si>
-    <t>554e4017-bd12-4917-847c-b755f3b47824</t>
-  </si>
-  <si>
-    <t>f90c2bef-ee88-44e6-b475-f9cff7f97a65</t>
-  </si>
-  <si>
-    <t>d4ce1835-46f4-49c7-a8a9-7447a67b6b16</t>
-  </si>
-  <si>
-    <t>693431ed-8f29-4f7f-8906-48b117729456</t>
-  </si>
-  <si>
-    <t>9f8d9646-eaf1-4ec4-8434-4a2c1a70ec40</t>
-  </si>
-  <si>
-    <t>e26a68bc-aa42-4fc5-9bc8-d669f2d8366a</t>
-  </si>
-  <si>
-    <t>a62f8413-a713-4c95-9a7e-2093a36e58ad</t>
-  </si>
-  <si>
-    <t>4da7cbcb-8083-483a-be7c-67c7a6baac6a</t>
-  </si>
-  <si>
-    <t>70c885bf-80a6-42d8-b0d4-c8897471757e</t>
-  </si>
-  <si>
-    <t>4929f468-ab9f-46db-81f7-c5c368329ce0</t>
-  </si>
-  <si>
-    <t>2fcf07f2-20fd-47c8-8218-6a92d1109299</t>
-  </si>
-  <si>
-    <t>Mandatory field QUESTION_CODE is empty</t>
-  </si>
-  <si>
-    <t>QUESTION_CODE</t>
-  </si>
-  <si>
-    <t>Provide a value for QUESTION_CODE</t>
-  </si>
-  <si>
-    <t>37af9c50-b101-4988-92bc-7c32844139d1</t>
-  </si>
-  <si>
-    <t>1f4c623b-b4cd-439a-ab5c-43b4cefae2d3</t>
-  </si>
-  <si>
-    <t>09da1850-3489-471e-aa5a-b062ba695ff3</t>
-  </si>
-  <si>
-    <t>56cf1db1-c906-4a84-a31f-d3cd405132bc</t>
-  </si>
-  <si>
-    <t>Mandatory field QUESTION_CODE_SYSTEM_NAME is empty</t>
-  </si>
-  <si>
-    <t>QUESTION_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>Provide a value for QUESTION_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>f4c55d4e-ddcc-4948-9bdb-772896b2630f</t>
-  </si>
-  <si>
-    <t>71f17a13-d9a6-46fe-932f-0d0cfbf4cd66</t>
-  </si>
-  <si>
-    <t>97b346ef-5a26-42a9-be25-4820c856a724</t>
-  </si>
-  <si>
-    <t>2076b7b3-18b8-401a-a8ce-df6031bec2d8</t>
-  </si>
-  <si>
-    <t>Mandatory field ANSWER_CODE is empty</t>
-  </si>
-  <si>
-    <t>ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>Provide a value for ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>bbc9b991-5063-4394-bd46-c4cce43d9bcb</t>
-  </si>
-  <si>
-    <t>54e0d1e2-b526-4ff8-b88b-1bb3eb75947b</t>
-  </si>
-  <si>
-    <t>efaaa067-0e50-47e6-acd9-0ab3a5ce05fc</t>
-  </si>
-  <si>
-    <t>3fdab6c9-39a3-4905-9019-33f3dd3711db</t>
-  </si>
-  <si>
-    <t>c2b2ec59-31ba-4ab4-a006-2c95b3cb0dd8</t>
-  </si>
-  <si>
-    <t>0593ced6-b74c-4d75-a958-59f034317205</t>
-  </si>
-  <si>
-    <t>Mandatory field ANSWER_CODE_SYSTEM_NAME is empty</t>
-  </si>
-  <si>
-    <t>ANSWER_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>Provide a value for ANSWER_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>419a5c1d-c836-4e6e-9870-97c855ea29fa</t>
-  </si>
-  <si>
-    <t>3f7f17e7-56e7-4b1d-be14-bb1e9239d956</t>
-  </si>
-  <si>
-    <t>3f89b6b0-4b5d-49f7-9b11-81f91f9511ca</t>
-  </si>
-  <si>
-    <t>b47ecb57-539e-4fcb-8fbc-a1a1fe0c6c67</t>
-  </si>
-  <si>
-    <t>8d5a54ef-5289-4c7f-80a0-48359746709f</t>
-  </si>
-  <si>
-    <t>5b77d127-e62a-50a9-acee-bea63ff64dd5</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/ahc-hrsn-2024-01-25-valid.xlsx</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_2024_01_25_valid_admin_demographic</t>
-  </si>
-  <si>
-    <t>3ab0389a-057e-4eef-9135-78fa900f5810</t>
-  </si>
-  <si>
-    <t>Invalid Value</t>
-  </si>
-  <si>
-    <t>Value 	20430005 in SEXUAL_ORIENTATION_CODE not in allowed list ('42035005','20430005','38628009','OTH','UNK')</t>
-  </si>
-  <si>
-    <t>SEXUAL_ORIENTATION_CODE</t>
-  </si>
-  <si>
-    <t>	20430005</t>
-  </si>
-  <si>
-    <t>Use only allowed values '42035005','20430005','38628009','OTH','UNK' in SEXUAL_ORIENTATION_CODE</t>
-  </si>
-  <si>
-    <t>21d7e4ec-32e3-5e20-9029-28fdd6c5fa66</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_2024_01_25_valid_screening</t>
-  </si>
-  <si>
-    <t>83257be3-215b-4065-a54a-0ad6682cf23a</t>
-  </si>
-  <si>
-    <t>32a94177-aa6e-4e52-bb40-4da5966c144c</t>
-  </si>
-  <si>
-    <t>6568617e-58a7-405d-b583-ed4e86551044</t>
-  </si>
-  <si>
-    <t>1ac97b52-297e-4ecb-bdac-c34828e7d60c</t>
-  </si>
-  <si>
-    <t>7acdac34-7ae3-4e42-95b9-dc3ec74e5f1a</t>
-  </si>
-  <si>
-    <t>b2c22bec-fa9a-4ed8-a546-de2835af7776</t>
-  </si>
-  <si>
-    <t>67066532-86a1-4645-87d5-0ce62b34d801</t>
-  </si>
-  <si>
-    <t>2a75fb98-d523-47ba-9141-598845efde37</t>
-  </si>
-  <si>
-    <t>79575c63-9e16-41db-8e95-febc68cdb703</t>
-  </si>
-  <si>
-    <t>f6ff5e47-86a5-4afa-a442-b19a87d2f3b9</t>
-  </si>
-  <si>
-    <t>e5b5e157-8fe5-43c0-9649-6ccd9af6aa44</t>
-  </si>
-  <si>
-    <t>3a9eb28a-f9fc-4b1a-a3c5-7eacfe0f5188</t>
-  </si>
-  <si>
-    <t>9b6d9dcd-e9ad-45cb-90c5-88c941a832c7</t>
-  </si>
-  <si>
-    <t>770bccb5-9e72-4e5f-b2ed-7016cd145c75</t>
-  </si>
-  <si>
-    <t>267f305b-6cd0-40af-bb69-76c45cd358e2</t>
-  </si>
-  <si>
-    <t>73af36cd-a77a-4e3d-8840-503958201bc0</t>
-  </si>
-  <si>
-    <t>619d6334-c993-408c-a7a6-1cf7ed1db415</t>
-  </si>
-  <si>
-    <t>5c3cad25-d713-4d4f-9ca3-fc8275069a71</t>
-  </si>
-  <si>
-    <t>6c8ff5fa-9e7d-4de7-b381-1b66b81672bb</t>
-  </si>
-  <si>
-    <t>f3cf86ad-0b3a-43a9-8733-d548e2094dad</t>
-  </si>
-  <si>
-    <t>ad9bfcd1-e193-496e-8756-27c8d38ea84a</t>
-  </si>
-  <si>
-    <t>b110e34b-b1a5-46ee-9971-7d4535561f28</t>
-  </si>
-  <si>
-    <t>9df52aea-f06e-403a-a82e-9010d3adc9d2</t>
-  </si>
-  <si>
-    <t>2597f3e4-7cd9-44ff-8159-2da33dfbfcc9</t>
-  </si>
-  <si>
-    <t>c97455cd-54b3-495f-b762-10a1a960415f</t>
-  </si>
-  <si>
-    <t>1885623d-c36a-41f7-8fed-9f303a0897b1</t>
-  </si>
-  <si>
-    <t>c0ea0aa3-962f-4869-aa6b-fc368a8cc634</t>
-  </si>
-  <si>
-    <t>34a0f612-b3f8-4888-86ce-28ca5ba496fd</t>
-  </si>
-  <si>
-    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
-  </si>
-  <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/QE_ADMIN_DATA-2_01HPKTY3HCTK826TVX5TASGA55.csv</t>
   </si>
   <si>
     <t>qe_admin_data_2_01hpkty3hctk826tvx5tasga55</t>
   </si>
   <si>
-    <t>657d6337-8d24-5b67-b139-87db6a228264</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_2024_01_25_valid_question_reference</t>
-  </si>
-  <si>
-    <t>80af4eff-d697-565b-9e3f-a587e322b1da</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/DEMOGRAPHIC_DATA-2_01HPKTY3HCTK826TVX5TASGA55.csv</t>
-  </si>
-  <si>
-    <t>demographic_data_2_01hpkty3hctk826tvx5tasga55</t>
-  </si>
-  <si>
-    <t>f6d4aff4-4b71-5662-8f57-00ee247dc57c</t>
+    <t>34e90086-3d06-5b10-972d-7d0b40a02289</t>
   </si>
   <si>
     <t>ahc_hrsn_2024_01_25_valid_q_e_admin_data</t>
-  </si>
-  <si>
-    <t>e2816d61-4406-5073-ac60-f129a107d938</t>
-  </si>
-  <si>
-    <t>ahc_hrsn_2024_01_25_valid_answer_reference</t>
   </si>
 </sst>
 </file>
@@ -953,22 +926,22 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -982,25 +955,25 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1014,25 +987,25 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1046,25 +1019,25 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1078,25 +1051,25 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
       <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
         <v>42</v>
       </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
       <c r="P7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1110,25 +1083,25 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
         <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -1142,25 +1115,25 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
       </c>
       <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
         <v>49</v>
       </c>
-      <c r="L9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" t="s">
-        <v>50</v>
-      </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -1174,25 +1147,25 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1206,25 +1179,25 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
         <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -1238,25 +1211,25 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1270,25 +1243,25 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
         <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -1302,25 +1275,25 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
       </c>
       <c r="K14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
         <v>65</v>
       </c>
-      <c r="L14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" t="s">
-        <v>66</v>
-      </c>
       <c r="P14" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -1334,25 +1307,25 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
         <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -1366,25 +1339,25 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
         <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -1398,25 +1371,25 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
         <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -1430,25 +1403,25 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
         <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -1462,25 +1435,31 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s">
         <v>81</v>
       </c>
       <c r="L19" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
-      </c>
-      <c r="P19" t="s">
-        <v>68</v>
+        <v>83</v>
+      </c>
+      <c r="N19">
+        <v>20</v>
+      </c>
+      <c r="O19" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -1494,25 +1473,31 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" t="s">
         <v>83</v>
       </c>
-      <c r="H20" t="s">
+      <c r="N20">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
         <v>84</v>
       </c>
-      <c r="I20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="Q20" t="s">
         <v>85</v>
-      </c>
-      <c r="L20" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" t="s">
-        <v>86</v>
-      </c>
-      <c r="P20" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -1526,31 +1511,31 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" t="s">
         <v>87</v>
       </c>
-      <c r="H21" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" t="s">
-        <v>90</v>
-      </c>
       <c r="L21" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M21" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="N21">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O21" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Q21" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -1564,31 +1549,31 @@
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" t="s">
         <v>88</v>
       </c>
-      <c r="I22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" t="s">
-        <v>95</v>
-      </c>
       <c r="L22" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M22" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="N22">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="O22" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Q22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -1602,31 +1587,31 @@
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" t="s">
         <v>89</v>
       </c>
-      <c r="K23" t="s">
-        <v>96</v>
-      </c>
       <c r="L23" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" t="s">
+        <v>90</v>
+      </c>
+      <c r="N23">
+        <v>20</v>
+      </c>
+      <c r="O23" t="s">
         <v>91</v>
       </c>
-      <c r="M23" t="s">
+      <c r="Q23" t="s">
         <v>92</v>
-      </c>
-      <c r="N23">
-        <v>50</v>
-      </c>
-      <c r="O23" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -1640,31 +1625,31 @@
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M24" t="s">
+        <v>90</v>
+      </c>
+      <c r="N24">
+        <v>27</v>
+      </c>
+      <c r="O24" t="s">
         <v>91</v>
       </c>
-      <c r="M24" t="s">
+      <c r="Q24" t="s">
         <v>92</v>
-      </c>
-      <c r="N24">
-        <v>57</v>
-      </c>
-      <c r="O24" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -1678,31 +1663,31 @@
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L25" t="s">
+        <v>82</v>
+      </c>
+      <c r="M25" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25">
+        <v>50</v>
+      </c>
+      <c r="O25" t="s">
         <v>91</v>
       </c>
-      <c r="M25" t="s">
-        <v>99</v>
-      </c>
-      <c r="N25">
-        <v>20</v>
-      </c>
-      <c r="O25" t="s">
-        <v>100</v>
-      </c>
       <c r="Q25" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
@@ -1716,31 +1701,31 @@
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L26" t="s">
+        <v>82</v>
+      </c>
+      <c r="M26" t="s">
+        <v>90</v>
+      </c>
+      <c r="N26">
+        <v>57</v>
+      </c>
+      <c r="O26" t="s">
         <v>91</v>
       </c>
-      <c r="M26" t="s">
-        <v>99</v>
-      </c>
-      <c r="N26">
-        <v>27</v>
-      </c>
-      <c r="O26" t="s">
-        <v>100</v>
-      </c>
       <c r="Q26" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -1754,27 +1739,30 @@
         <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L27" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
         <v>99</v>
       </c>
-      <c r="N27">
-        <v>50</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>100</v>
       </c>
       <c r="Q27" t="s">
@@ -1792,27 +1780,30 @@
         <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L28" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M28" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
         <v>99</v>
       </c>
-      <c r="N28">
-        <v>57</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>100</v>
       </c>
       <c r="Q28" t="s">
@@ -1830,34 +1821,34 @@
         <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M29" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O29" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q29" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
@@ -1871,34 +1862,34 @@
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L30" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M30" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O30" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q30" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
@@ -1912,34 +1903,34 @@
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L31" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M31" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O31" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q31" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -1953,34 +1944,34 @@
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L32" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M32" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O32" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q32" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
@@ -1994,34 +1985,34 @@
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L33" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M33" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O33" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q33" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
@@ -2035,34 +2026,34 @@
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L34" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M34" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O34" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q34" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
@@ -2076,34 +2067,34 @@
         <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M35" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O35" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q35" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
@@ -2117,34 +2108,34 @@
         <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L36" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M36" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O36" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P36" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q36" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
@@ -2158,34 +2149,34 @@
         <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L37" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M37" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N37">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O37" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q37" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
@@ -2199,34 +2190,34 @@
         <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="L38" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M38" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N38">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O38" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P38" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q38" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
@@ -2240,34 +2231,34 @@
         <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L39" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M39" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N39">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O39" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P39" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q39" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -2281,34 +2272,34 @@
         <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="L40" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M40" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N40">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O40" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q40" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
@@ -2322,34 +2313,34 @@
         <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="L41" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M41" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N41">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O41" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q41" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -2363,34 +2354,34 @@
         <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L42" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M42" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N42">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O42" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P42" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q42" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -2404,34 +2395,34 @@
         <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L43" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M43" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O43" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P43" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q43" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
@@ -2445,34 +2436,34 @@
         <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L44" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M44" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N44">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O44" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q44" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
@@ -2486,34 +2477,34 @@
         <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="L45" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M45" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N45">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O45" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P45" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q45" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
@@ -2527,34 +2518,34 @@
         <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L46" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M46" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N46">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O46" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P46" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q46" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
@@ -2568,34 +2559,34 @@
         <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L47" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M47" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N47">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O47" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P47" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q47" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48">
@@ -2609,34 +2600,34 @@
         <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L48" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M48" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N48">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O48" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P48" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q48" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
@@ -2650,34 +2641,34 @@
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L49" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M49" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N49">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O49" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P49" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q49" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
@@ -2691,34 +2682,34 @@
         <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L50" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M50" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N50">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O50" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P50" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q50" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
@@ -2732,34 +2723,34 @@
         <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L51" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M51" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N51">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O51" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P51" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q51" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
@@ -2773,34 +2764,34 @@
         <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L52" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M52" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N52">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O52" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P52" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q52" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
@@ -2814,34 +2805,34 @@
         <v>20</v>
       </c>
       <c r="G53" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L53" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M53" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N53">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O53" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P53" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q53" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54">
@@ -2855,34 +2846,34 @@
         <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L54" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M54" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N54">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O54" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P54" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q54" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55">
@@ -2896,34 +2887,34 @@
         <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L55" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M55" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N55">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O55" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P55" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q55" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56">
@@ -2937,34 +2928,34 @@
         <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L56" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M56" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N56">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O56" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P56" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q56" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57">
@@ -2978,34 +2969,34 @@
         <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M57" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="N57">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O57" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P57" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="Q57" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58">
@@ -3019,34 +3010,34 @@
         <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M58" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="N58">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O58" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P58" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="Q58" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59">
@@ -3060,34 +3051,34 @@
         <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L59" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M59" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N59">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O59" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P59" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q59" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60">
@@ -3101,34 +3092,34 @@
         <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K60" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="L60" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M60" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N60">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O60" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P60" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q60" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61">
@@ -3142,34 +3133,34 @@
         <v>20</v>
       </c>
       <c r="G61" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K61" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L61" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M61" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N61">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O61" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P61" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q61" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62">
@@ -3183,34 +3174,34 @@
         <v>20</v>
       </c>
       <c r="G62" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L62" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M62" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N62">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O62" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P62" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q62" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63">
@@ -3224,34 +3215,34 @@
         <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I63" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="L63" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M63" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N63">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O63" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P63" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q63" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64">
@@ -3265,34 +3256,34 @@
         <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L64" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M64" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N64">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O64" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P64" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q64" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65">
@@ -3306,34 +3297,34 @@
         <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K65" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L65" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M65" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N65">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O65" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P65" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q65" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66">
@@ -3347,34 +3338,34 @@
         <v>20</v>
       </c>
       <c r="G66" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="L66" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M66" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N66">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O66" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P66" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q66" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67">
@@ -3388,34 +3379,34 @@
         <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I67" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L67" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M67" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N67">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O67" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P67" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q67" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68">
@@ -3429,34 +3420,34 @@
         <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I68" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L68" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M68" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N68">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O68" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P68" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q68" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69">
@@ -3470,34 +3461,34 @@
         <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I69" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L69" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M69" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N69">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O69" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P69" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q69" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70">
@@ -3511,34 +3502,34 @@
         <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I70" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K70" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="L70" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M70" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N70">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O70" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P70" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q70" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71">
@@ -3552,34 +3543,34 @@
         <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I71" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L71" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M71" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N71">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O71" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P71" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q71" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72">
@@ -3593,34 +3584,34 @@
         <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I72" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L72" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M72" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N72">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O72" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P72" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q72" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73">
@@ -3634,34 +3625,34 @@
         <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I73" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L73" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M73" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N73">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O73" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P73" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q73" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74">
@@ -3675,34 +3666,34 @@
         <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I74" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L74" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M74" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N74">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O74" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P74" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q74" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75">
@@ -3716,34 +3707,34 @@
         <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I75" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K75" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L75" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M75" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N75">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O75" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P75" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q75" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76">
@@ -3757,34 +3748,34 @@
         <v>20</v>
       </c>
       <c r="G76" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H76" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I76" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K76" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L76" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M76" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N76">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O76" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P76" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q76" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77">
@@ -3798,34 +3789,34 @@
         <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I77" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="L77" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M77" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N77">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O77" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P77" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q77" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78">
@@ -3839,34 +3830,34 @@
         <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I78" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K78" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L78" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M78" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N78">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O78" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P78" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q78" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79">
@@ -3880,34 +3871,34 @@
         <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I79" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K79" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="L79" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M79" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N79">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O79" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P79" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q79" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80">
@@ -3921,34 +3912,34 @@
         <v>20</v>
       </c>
       <c r="G80" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I80" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K80" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L80" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M80" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N80">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O80" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P80" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q80" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81">
@@ -3962,34 +3953,34 @@
         <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I81" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K81" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L81" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M81" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N81">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O81" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P81" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q81" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82">
@@ -4003,34 +3994,34 @@
         <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H82" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I82" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K82" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L82" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M82" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N82">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O82" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P82" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q82" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83">
@@ -4044,34 +4035,34 @@
         <v>20</v>
       </c>
       <c r="G83" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H83" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I83" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K83" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="L83" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M83" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N83">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O83" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P83" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q83" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84">
@@ -4085,34 +4076,34 @@
         <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H84" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I84" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K84" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="L84" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M84" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N84">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O84" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P84" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q84" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85">
@@ -4126,34 +4117,34 @@
         <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H85" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I85" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K85" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L85" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M85" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N85">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O85" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P85" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q85" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86">
@@ -4167,34 +4158,34 @@
         <v>20</v>
       </c>
       <c r="G86" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H86" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I86" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K86" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="L86" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M86" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N86">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O86" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P86" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Q86" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87">
@@ -4208,34 +4199,31 @@
         <v>20</v>
       </c>
       <c r="G87" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I87" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K87" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="L87" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="M87" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="N87">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="O87" t="s">
-        <v>108</v>
-      </c>
-      <c r="P87" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="Q87" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88">
@@ -4249,34 +4237,31 @@
         <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H88" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I88" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K88" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L88" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="M88" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="N88">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="O88" t="s">
-        <v>108</v>
-      </c>
-      <c r="P88" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="Q88" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89">
@@ -4290,31 +4275,31 @@
         <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H89" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I89" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K89" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L89" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M89" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="N89">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O89" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="Q89" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90">
@@ -4328,31 +4313,31 @@
         <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H90" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I90" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K90" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L90" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M90" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="N90">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="O90" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="Q90" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91">
@@ -4366,31 +4351,31 @@
         <v>20</v>
       </c>
       <c r="G91" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H91" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I91" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K91" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="L91" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M91" t="s">
+        <v>171</v>
+      </c>
+      <c r="N91">
+        <v>20</v>
+      </c>
+      <c r="O91" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q91" t="s">
         <v>173</v>
-      </c>
-      <c r="N91">
-        <v>50</v>
-      </c>
-      <c r="O91" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="92">
@@ -4404,31 +4389,31 @@
         <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H92" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I92" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K92" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L92" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M92" t="s">
+        <v>171</v>
+      </c>
+      <c r="N92">
+        <v>27</v>
+      </c>
+      <c r="O92" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q92" t="s">
         <v>173</v>
-      </c>
-      <c r="N92">
-        <v>57</v>
-      </c>
-      <c r="O92" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="93">
@@ -4442,31 +4427,31 @@
         <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H93" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I93" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K93" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L93" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M93" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="N93">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O93" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q93" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94">
@@ -4480,31 +4465,31 @@
         <v>20</v>
       </c>
       <c r="G94" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H94" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I94" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K94" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="L94" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M94" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="N94">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="O94" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q94" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95">
@@ -4518,31 +4503,31 @@
         <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H95" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I95" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K95" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L95" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M95" t="s">
+        <v>178</v>
+      </c>
+      <c r="N95">
+        <v>11</v>
+      </c>
+      <c r="O95" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q95" t="s">
         <v>180</v>
-      </c>
-      <c r="N95">
-        <v>50</v>
-      </c>
-      <c r="O95" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="96">
@@ -4556,31 +4541,31 @@
         <v>20</v>
       </c>
       <c r="G96" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H96" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I96" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K96" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L96" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M96" t="s">
+        <v>178</v>
+      </c>
+      <c r="N96">
+        <v>20</v>
+      </c>
+      <c r="O96" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q96" t="s">
         <v>180</v>
-      </c>
-      <c r="N96">
-        <v>57</v>
-      </c>
-      <c r="O96" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="97">
@@ -4594,31 +4579,31 @@
         <v>20</v>
       </c>
       <c r="G97" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H97" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I97" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K97" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L97" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M97" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="N97">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="O97" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="Q97" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98">
@@ -4632,31 +4617,31 @@
         <v>20</v>
       </c>
       <c r="G98" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H98" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I98" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K98" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="L98" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M98" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="N98">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="O98" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="Q98" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99">
@@ -4670,31 +4655,31 @@
         <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H99" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I99" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K99" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L99" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M99" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="N99">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="O99" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="Q99" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100">
@@ -4708,31 +4693,31 @@
         <v>20</v>
       </c>
       <c r="G100" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H100" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I100" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K100" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L100" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M100" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="N100">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="O100" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="Q100" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101">
@@ -4746,25 +4731,25 @@
         <v>20</v>
       </c>
       <c r="G101" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H101" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I101" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K101" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L101" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M101" t="s">
         <v>187</v>
       </c>
       <c r="N101">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="O101" t="s">
         <v>188</v>
@@ -4784,25 +4769,25 @@
         <v>20</v>
       </c>
       <c r="G102" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H102" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I102" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K102" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L102" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M102" t="s">
         <v>187</v>
       </c>
       <c r="N102">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="O102" t="s">
         <v>188</v>
@@ -4822,31 +4807,31 @@
         <v>20</v>
       </c>
       <c r="G103" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H103" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I103" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K103" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L103" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M103" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N103">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="O103" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="Q103" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104">
@@ -4860,31 +4845,31 @@
         <v>20</v>
       </c>
       <c r="G104" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H104" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I104" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K104" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="L104" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M104" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N104">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="O104" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="Q104" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105">
@@ -4898,31 +4883,31 @@
         <v>20</v>
       </c>
       <c r="G105" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H105" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I105" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K105" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L105" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M105" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N105">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="O105" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="Q105" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106">
@@ -4936,31 +4921,31 @@
         <v>20</v>
       </c>
       <c r="G106" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H106" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I106" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K106" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L106" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M106" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N106">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="O106" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="Q106" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107">
@@ -4974,31 +4959,34 @@
         <v>20</v>
       </c>
       <c r="G107" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="H107" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="I107" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="K107" t="s">
+        <v>198</v>
+      </c>
+      <c r="L107" t="s">
+        <v>199</v>
+      </c>
+      <c r="M107" t="s">
+        <v>200</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>201</v>
+      </c>
+      <c r="P107" t="s">
         <v>202</v>
       </c>
-      <c r="L107" t="s">
-        <v>91</v>
-      </c>
-      <c r="M107" t="s">
-        <v>196</v>
-      </c>
-      <c r="N107">
-        <v>50</v>
-      </c>
-      <c r="O107" t="s">
-        <v>197</v>
-      </c>
       <c r="Q107" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108">
@@ -5012,31 +5000,31 @@
         <v>20</v>
       </c>
       <c r="G108" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="H108" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="I108" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="K108" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L108" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M108" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="N108">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="O108" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="Q108" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109">
@@ -5053,31 +5041,28 @@
         <v>204</v>
       </c>
       <c r="H109" t="s">
+        <v>196</v>
+      </c>
+      <c r="I109" t="s">
         <v>205</v>
-      </c>
-      <c r="I109" t="s">
-        <v>206</v>
       </c>
       <c r="K109" t="s">
         <v>207</v>
       </c>
       <c r="L109" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="M109" t="s">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="O109" t="s">
-        <v>210</v>
-      </c>
-      <c r="P109" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="Q109" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110">
@@ -5091,31 +5076,31 @@
         <v>20</v>
       </c>
       <c r="G110" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H110" t="s">
+        <v>196</v>
+      </c>
+      <c r="I110" t="s">
         <v>205</v>
       </c>
-      <c r="I110" t="s">
-        <v>214</v>
-      </c>
       <c r="K110" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L110" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M110" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="N110">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O110" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Q110" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111">
@@ -5129,31 +5114,31 @@
         <v>20</v>
       </c>
       <c r="G111" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H111" t="s">
+        <v>196</v>
+      </c>
+      <c r="I111" t="s">
         <v>205</v>
       </c>
-      <c r="I111" t="s">
-        <v>214</v>
-      </c>
       <c r="K111" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L111" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M111" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="N111">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="O111" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Q111" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112">
@@ -5167,31 +5152,31 @@
         <v>20</v>
       </c>
       <c r="G112" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H112" t="s">
+        <v>196</v>
+      </c>
+      <c r="I112" t="s">
         <v>205</v>
       </c>
-      <c r="I112" t="s">
-        <v>214</v>
-      </c>
       <c r="K112" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L112" t="s">
+        <v>82</v>
+      </c>
+      <c r="M112" t="s">
+        <v>90</v>
+      </c>
+      <c r="N112">
+        <v>20</v>
+      </c>
+      <c r="O112" t="s">
         <v>91</v>
       </c>
-      <c r="M112" t="s">
+      <c r="Q112" t="s">
         <v>92</v>
-      </c>
-      <c r="N112">
-        <v>50</v>
-      </c>
-      <c r="O112" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="113">
@@ -5205,31 +5190,31 @@
         <v>20</v>
       </c>
       <c r="G113" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H113" t="s">
+        <v>196</v>
+      </c>
+      <c r="I113" t="s">
         <v>205</v>
       </c>
-      <c r="I113" t="s">
-        <v>214</v>
-      </c>
       <c r="K113" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="L113" t="s">
+        <v>82</v>
+      </c>
+      <c r="M113" t="s">
+        <v>90</v>
+      </c>
+      <c r="N113">
+        <v>27</v>
+      </c>
+      <c r="O113" t="s">
         <v>91</v>
       </c>
-      <c r="M113" t="s">
+      <c r="Q113" t="s">
         <v>92</v>
-      </c>
-      <c r="N113">
-        <v>57</v>
-      </c>
-      <c r="O113" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="114">
@@ -5243,31 +5228,31 @@
         <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H114" t="s">
+        <v>196</v>
+      </c>
+      <c r="I114" t="s">
         <v>205</v>
       </c>
-      <c r="I114" t="s">
-        <v>214</v>
-      </c>
       <c r="K114" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L114" t="s">
+        <v>82</v>
+      </c>
+      <c r="M114" t="s">
+        <v>90</v>
+      </c>
+      <c r="N114">
+        <v>50</v>
+      </c>
+      <c r="O114" t="s">
         <v>91</v>
       </c>
-      <c r="M114" t="s">
-        <v>99</v>
-      </c>
-      <c r="N114">
-        <v>20</v>
-      </c>
-      <c r="O114" t="s">
-        <v>100</v>
-      </c>
       <c r="Q114" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115">
@@ -5281,31 +5266,31 @@
         <v>20</v>
       </c>
       <c r="G115" t="s">
+        <v>204</v>
+      </c>
+      <c r="H115" t="s">
+        <v>196</v>
+      </c>
+      <c r="I115" t="s">
+        <v>205</v>
+      </c>
+      <c r="K115" t="s">
         <v>213</v>
       </c>
-      <c r="H115" t="s">
-        <v>205</v>
-      </c>
-      <c r="I115" t="s">
-        <v>214</v>
-      </c>
-      <c r="K115" t="s">
-        <v>220</v>
-      </c>
       <c r="L115" t="s">
+        <v>82</v>
+      </c>
+      <c r="M115" t="s">
+        <v>90</v>
+      </c>
+      <c r="N115">
+        <v>57</v>
+      </c>
+      <c r="O115" t="s">
         <v>91</v>
       </c>
-      <c r="M115" t="s">
-        <v>99</v>
-      </c>
-      <c r="N115">
-        <v>27</v>
-      </c>
-      <c r="O115" t="s">
-        <v>100</v>
-      </c>
       <c r="Q115" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116">
@@ -5319,31 +5304,31 @@
         <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H116" t="s">
+        <v>196</v>
+      </c>
+      <c r="I116" t="s">
         <v>205</v>
       </c>
-      <c r="I116" t="s">
+      <c r="K116" t="s">
         <v>214</v>
       </c>
-      <c r="K116" t="s">
-        <v>221</v>
-      </c>
       <c r="L116" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M116" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="N116">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O116" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="Q116" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117">
@@ -5357,31 +5342,31 @@
         <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H117" t="s">
+        <v>196</v>
+      </c>
+      <c r="I117" t="s">
         <v>205</v>
       </c>
-      <c r="I117" t="s">
-        <v>214</v>
-      </c>
       <c r="K117" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L117" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M117" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="N117">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="O117" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="Q117" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
@@ -5395,31 +5380,31 @@
         <v>20</v>
       </c>
       <c r="G118" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H118" t="s">
+        <v>196</v>
+      </c>
+      <c r="I118" t="s">
         <v>205</v>
       </c>
-      <c r="I118" t="s">
-        <v>214</v>
-      </c>
       <c r="K118" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L118" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M118" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="N118">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O118" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="Q118" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
@@ -5433,31 +5418,31 @@
         <v>20</v>
       </c>
       <c r="G119" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H119" t="s">
+        <v>196</v>
+      </c>
+      <c r="I119" t="s">
         <v>205</v>
       </c>
-      <c r="I119" t="s">
-        <v>214</v>
-      </c>
       <c r="K119" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L119" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M119" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="N119">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="O119" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="Q119" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
@@ -5471,31 +5456,31 @@
         <v>20</v>
       </c>
       <c r="G120" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H120" t="s">
+        <v>196</v>
+      </c>
+      <c r="I120" t="s">
         <v>205</v>
       </c>
-      <c r="I120" t="s">
-        <v>214</v>
-      </c>
       <c r="K120" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L120" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M120" t="s">
+        <v>171</v>
+      </c>
+      <c r="N120">
+        <v>20</v>
+      </c>
+      <c r="O120" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q120" t="s">
         <v>173</v>
-      </c>
-      <c r="N120">
-        <v>50</v>
-      </c>
-      <c r="O120" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="121">
@@ -5509,31 +5494,31 @@
         <v>20</v>
       </c>
       <c r="G121" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H121" t="s">
+        <v>196</v>
+      </c>
+      <c r="I121" t="s">
         <v>205</v>
       </c>
-      <c r="I121" t="s">
-        <v>214</v>
-      </c>
       <c r="K121" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L121" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M121" t="s">
+        <v>171</v>
+      </c>
+      <c r="N121">
+        <v>27</v>
+      </c>
+      <c r="O121" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q121" t="s">
         <v>173</v>
-      </c>
-      <c r="N121">
-        <v>57</v>
-      </c>
-      <c r="O121" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="122">
@@ -5547,31 +5532,31 @@
         <v>20</v>
       </c>
       <c r="G122" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H122" t="s">
+        <v>196</v>
+      </c>
+      <c r="I122" t="s">
         <v>205</v>
       </c>
-      <c r="I122" t="s">
-        <v>214</v>
-      </c>
       <c r="K122" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L122" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M122" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="N122">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O122" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q122" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123">
@@ -5585,31 +5570,31 @@
         <v>20</v>
       </c>
       <c r="G123" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H123" t="s">
+        <v>196</v>
+      </c>
+      <c r="I123" t="s">
         <v>205</v>
       </c>
-      <c r="I123" t="s">
-        <v>214</v>
-      </c>
       <c r="K123" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L123" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M123" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="N123">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="O123" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q123" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="124">
@@ -5623,31 +5608,31 @@
         <v>20</v>
       </c>
       <c r="G124" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H124" t="s">
+        <v>196</v>
+      </c>
+      <c r="I124" t="s">
         <v>205</v>
       </c>
-      <c r="I124" t="s">
-        <v>214</v>
-      </c>
       <c r="K124" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="L124" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M124" t="s">
+        <v>178</v>
+      </c>
+      <c r="N124">
+        <v>11</v>
+      </c>
+      <c r="O124" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q124" t="s">
         <v>180</v>
-      </c>
-      <c r="N124">
-        <v>50</v>
-      </c>
-      <c r="O124" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="125">
@@ -5661,31 +5646,31 @@
         <v>20</v>
       </c>
       <c r="G125" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H125" t="s">
+        <v>196</v>
+      </c>
+      <c r="I125" t="s">
         <v>205</v>
       </c>
-      <c r="I125" t="s">
-        <v>214</v>
-      </c>
       <c r="K125" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L125" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M125" t="s">
+        <v>178</v>
+      </c>
+      <c r="N125">
+        <v>20</v>
+      </c>
+      <c r="O125" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q125" t="s">
         <v>180</v>
-      </c>
-      <c r="N125">
-        <v>57</v>
-      </c>
-      <c r="O125" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="126">
@@ -5699,31 +5684,31 @@
         <v>20</v>
       </c>
       <c r="G126" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H126" t="s">
+        <v>196</v>
+      </c>
+      <c r="I126" t="s">
         <v>205</v>
       </c>
-      <c r="I126" t="s">
-        <v>214</v>
-      </c>
       <c r="K126" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L126" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M126" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="N126">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="O126" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="Q126" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127">
@@ -5737,31 +5722,31 @@
         <v>20</v>
       </c>
       <c r="G127" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H127" t="s">
+        <v>196</v>
+      </c>
+      <c r="I127" t="s">
         <v>205</v>
       </c>
-      <c r="I127" t="s">
-        <v>214</v>
-      </c>
       <c r="K127" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L127" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M127" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="N127">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="O127" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="Q127" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128">
@@ -5775,31 +5760,31 @@
         <v>20</v>
       </c>
       <c r="G128" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H128" t="s">
+        <v>196</v>
+      </c>
+      <c r="I128" t="s">
         <v>205</v>
       </c>
-      <c r="I128" t="s">
-        <v>214</v>
-      </c>
       <c r="K128" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L128" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M128" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="N128">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="O128" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="Q128" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129">
@@ -5813,31 +5798,31 @@
         <v>20</v>
       </c>
       <c r="G129" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H129" t="s">
+        <v>196</v>
+      </c>
+      <c r="I129" t="s">
         <v>205</v>
       </c>
-      <c r="I129" t="s">
-        <v>214</v>
-      </c>
       <c r="K129" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="L129" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M129" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="N129">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="O129" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="Q129" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130">
@@ -5851,25 +5836,25 @@
         <v>20</v>
       </c>
       <c r="G130" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H130" t="s">
+        <v>196</v>
+      </c>
+      <c r="I130" t="s">
         <v>205</v>
       </c>
-      <c r="I130" t="s">
-        <v>214</v>
-      </c>
       <c r="K130" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L130" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M130" t="s">
         <v>187</v>
       </c>
       <c r="N130">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="O130" t="s">
         <v>188</v>
@@ -5889,25 +5874,25 @@
         <v>20</v>
       </c>
       <c r="G131" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H131" t="s">
+        <v>196</v>
+      </c>
+      <c r="I131" t="s">
         <v>205</v>
       </c>
-      <c r="I131" t="s">
-        <v>214</v>
-      </c>
       <c r="K131" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L131" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M131" t="s">
         <v>187</v>
       </c>
       <c r="N131">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="O131" t="s">
         <v>188</v>
@@ -5927,31 +5912,31 @@
         <v>20</v>
       </c>
       <c r="G132" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H132" t="s">
+        <v>196</v>
+      </c>
+      <c r="I132" t="s">
         <v>205</v>
       </c>
-      <c r="I132" t="s">
-        <v>214</v>
-      </c>
       <c r="K132" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L132" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M132" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N132">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="O132" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="Q132" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133">
@@ -5965,31 +5950,31 @@
         <v>20</v>
       </c>
       <c r="G133" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H133" t="s">
+        <v>196</v>
+      </c>
+      <c r="I133" t="s">
         <v>205</v>
       </c>
-      <c r="I133" t="s">
-        <v>214</v>
-      </c>
       <c r="K133" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L133" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M133" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N133">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="O133" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="Q133" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134">
@@ -6003,31 +5988,31 @@
         <v>20</v>
       </c>
       <c r="G134" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H134" t="s">
+        <v>196</v>
+      </c>
+      <c r="I134" t="s">
         <v>205</v>
       </c>
-      <c r="I134" t="s">
-        <v>214</v>
-      </c>
       <c r="K134" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="L134" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M134" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N134">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="O134" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="Q134" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135">
@@ -6041,31 +6026,31 @@
         <v>20</v>
       </c>
       <c r="G135" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H135" t="s">
+        <v>196</v>
+      </c>
+      <c r="I135" t="s">
         <v>205</v>
       </c>
-      <c r="I135" t="s">
-        <v>214</v>
-      </c>
       <c r="K135" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L135" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M135" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N135">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="O135" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="Q135" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136">
@@ -6079,31 +6064,13 @@
         <v>20</v>
       </c>
       <c r="G136" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="H136" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="I136" t="s">
-        <v>214</v>
-      </c>
-      <c r="K136" t="s">
-        <v>241</v>
-      </c>
-      <c r="L136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M136" t="s">
-        <v>196</v>
-      </c>
-      <c r="N136">
-        <v>50</v>
-      </c>
-      <c r="O136" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137">
@@ -6117,31 +6084,13 @@
         <v>20</v>
       </c>
       <c r="G137" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="H137" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="I137" t="s">
-        <v>214</v>
-      </c>
-      <c r="K137" t="s">
-        <v>242</v>
-      </c>
-      <c r="L137" t="s">
-        <v>91</v>
-      </c>
-      <c r="M137" t="s">
-        <v>196</v>
-      </c>
-      <c r="N137">
-        <v>57</v>
-      </c>
-      <c r="O137" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138">
@@ -6155,13 +6104,13 @@
         <v>20</v>
       </c>
       <c r="G138" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H138" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="I138" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139">
@@ -6175,13 +6124,13 @@
         <v>20</v>
       </c>
       <c r="G139" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H139" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="I139" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140">
@@ -6195,53 +6144,13 @@
         <v>20</v>
       </c>
       <c r="G140" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H140" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="I140" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>18</v>
-      </c>
-      <c r="B141" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s">
-        <v>251</v>
-      </c>
-      <c r="H141" t="s">
-        <v>205</v>
-      </c>
-      <c r="I141" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>18</v>
-      </c>
-      <c r="B142" t="s">
-        <v>19</v>
-      </c>
-      <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>253</v>
-      </c>
-      <c r="H142" t="s">
-        <v>205</v>
-      </c>
-      <c r="I142" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>orch_session_id</t>
   </si>
@@ -87,79 +87,115 @@
     <t>Session 05269d28-15ae-5bd6-bd88-f949ccfa52d7 markdown diagnostics not provided (not completed?)</t>
   </si>
   <si>
+    <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/SCREENING_20240307.csv</t>
+  </si>
+  <si>
+    <t>screening_20240307</t>
+  </si>
+  <si>
+    <t>9e04c08e-ce47-42f1-b0e6-ea2faa81ef86</t>
+  </si>
+  <si>
+    <t>Invalid Date</t>
+  </si>
+  <si>
+    <t>Invalid timestamp "01/27/02 15:42" found in RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>01/27/02 15:42</t>
+  </si>
+  <si>
+    <t>Please be sure to provide both a valid date and time (Format: YYYYMMDD HH:MM:SS).</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>9cfbd778-d553-48b6-b13d-c13109798043</t>
+  </si>
+  <si>
+    <t>Invalid Answer Code</t>
+  </si>
+  <si>
+    <t>Invalid Answer Code "LA32-8" for Question Code "69861-3" found in ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>LA32-8</t>
+  </si>
+  <si>
+    <t>Validate Question Code and Answer Code with ahc cross walk reference data</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>Resolved By QE/QCS</t>
+  </si>
+  <si>
+    <t>5ce08072-9956-4dc3-815d-185daf2def62</t>
+  </si>
+  <si>
+    <t>Missing Mandatory Value</t>
+  </si>
+  <si>
+    <t>Mandatory field POTENTIAL_NEED_INDICATED is empty</t>
+  </si>
+  <si>
+    <t>POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>Provide a value for POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>REJECTION</t>
+  </si>
+  <si>
     <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
   </si>
   <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/SCREENING_healthix-20240307-testcase1.csv</t>
-  </si>
-  <si>
-    <t>screening_healthix_20240307_testcase1</t>
-  </si>
-  <si>
-    <t>77fffdfe-e7a8-4b61-8541-b079f6e39b1c</t>
-  </si>
-  <si>
-    <t>Invalid Date</t>
-  </si>
-  <si>
-    <t>Invalid timestamp "1988-05-30 01:09:07" found in RECORDED_TIME</t>
-  </si>
-  <si>
-    <t>RECORDED_TIME</t>
-  </si>
-  <si>
-    <t>1988-05-30 01:09:07</t>
-  </si>
-  <si>
-    <t>Please be sure to provide both a valid date and time (Format: YYYYMMDD HH:MM:SS).</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>8a2ea7b1-6b5d-4261-80ff-c0d8b1b100fe</t>
-  </si>
-  <si>
-    <t>Invalid value in QUESTION_CODE</t>
-  </si>
-  <si>
-    <t>Balnk/Empty value for QUESTION_CODE_DESCRIPTION "Do you speak a language other than English at home?" found in QUESTION_CODE</t>
-  </si>
-  <si>
-    <t>QUESTION_CODE</t>
-  </si>
-  <si>
-    <t>Do you speak a language other than English at home?</t>
-  </si>
-  <si>
-    <t>The required field value QUESTION_CODE is missing</t>
-  </si>
-  <si>
-    <t>WARNING</t>
-  </si>
-  <si>
-    <t>Resolved By QE/QCS</t>
-  </si>
-  <si>
-    <t>cb45537b-1d88-476c-a4dd-d0b7f65f9d77</t>
-  </si>
-  <si>
-    <t>Invalid Answer Code</t>
-  </si>
-  <si>
-    <t>Invalid Answer Code "LA32-8" for Question Code "69861-3" found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>LA32-8</t>
-  </si>
-  <si>
-    <t>Validate Question Code and Answer Code with ahc cross walk reference data</t>
-  </si>
-  <si>
-    <t>64b154e9-98d3-4e42-bcd3-66a6e03c5537</t>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/DEMOGRAPHIC_DATA_20240307.csv</t>
+  </si>
+  <si>
+    <t>admin_demographics_20240307</t>
+  </si>
+  <si>
+    <t>294b0491-31dd-4be7-91d3-3003d31f9e30</t>
+  </si>
+  <si>
+    <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION "unknown" found in SEX_AT_BIRTH_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SEX_AT_BIRTH_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Validate SEX_AT_BIRTH_CODE_DESCRIPTION with sex at birth reference data</t>
+  </si>
+  <si>
+    <t>78c1b73d-1fad-4f32-b450-19f3f3a6c6c5</t>
+  </si>
+  <si>
+    <t>bbfa8aa7-72de-4516-a0cc-bcaaa736e610</t>
+  </si>
+  <si>
+    <t>9f5d6783-d15d-4fc8-9d5c-38f65689f510</t>
+  </si>
+  <si>
+    <t>dd053beb-145e-4db0-86dd-79d13f7139eb</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -168,247 +204,178 @@
     <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA')</t>
   </si>
   <si>
-    <t>POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>Use only allowed values 'Yes','No','NA' in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>REJECTION</t>
+    <t>8251c962-311d-4b2e-abd2-35bb6081364e</t>
+  </si>
+  <si>
+    <t>bf006df1-137b-4380-94e7-6270f8580d7f</t>
+  </si>
+  <si>
+    <t>de324845-e6ad-4adb-b478-d988166efc9d</t>
+  </si>
+  <si>
+    <t>fbcab063-caf1-4534-8966-69689f5e9bd0</t>
+  </si>
+  <si>
+    <t>ab832d16-7982-4f5a-9fbd-594f52de55e2</t>
+  </si>
+  <si>
+    <t>d0ca0bbc-d440-416d-8589-ca9bebed39f5</t>
+  </si>
+  <si>
+    <t>a3f719df-8c38-4b38-9183-ec22d71f6329</t>
+  </si>
+  <si>
+    <t>75fd5f77-02ab-410f-87e2-4f14325131ca</t>
+  </si>
+  <si>
+    <t>2565ffdd-00e2-49d0-a37f-69fb18a58b58</t>
+  </si>
+  <si>
+    <t>4a9a9347-5057-437f-8e6e-555bddd11328</t>
+  </si>
+  <si>
+    <t>a0251d0c-869f-472c-89b2-cc429df93b7a</t>
+  </si>
+  <si>
+    <t>7b821f3d-63d4-4706-9a85-de3dce2f77a9</t>
+  </si>
+  <si>
+    <t>dd09ee58-27ac-4935-961f-d558309ae066</t>
+  </si>
+  <si>
+    <t>80d6e4f1-f10c-4c74-874d-3f07bd7fdc8a</t>
+  </si>
+  <si>
+    <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>03/05/94 13:08</t>
+  </si>
+  <si>
+    <t>3ca38a70-ac64-4035-845a-4c1d0154348e</t>
+  </si>
+  <si>
+    <t>be6986e1-e466-4927-8371-373a029574f6</t>
+  </si>
+  <si>
+    <t>2f42b780-25a4-44a5-8d4c-fcfdf813ed3a</t>
+  </si>
+  <si>
+    <t>05c81f04-3639-4a92-8cc9-0089cd548cc2</t>
+  </si>
+  <si>
+    <t>8989d84d-32ed-4575-8d9d-c51f07840a4b</t>
+  </si>
+  <si>
+    <t>6cedce8e-d18c-4636-922b-75feeff36db9</t>
+  </si>
+  <si>
+    <t>dd360ca8-eb17-4c9c-9a52-52b797d160ea</t>
+  </si>
+  <si>
+    <t>eddbc773-dae5-49b7-9a4d-8bdf89f53e3a</t>
+  </si>
+  <si>
+    <t>71311173-4497-4ab1-a86b-505ee8afc99c</t>
+  </si>
+  <si>
+    <t>186986b1-3b32-4298-91a9-8a868a852be1</t>
+  </si>
+  <si>
+    <t>906b9e45-9277-4ec9-aeba-6bc5932b50d0</t>
+  </si>
+  <si>
+    <t>11a8345b-fdf3-4dbb-88a7-81dba0654a0f</t>
+  </si>
+  <si>
+    <t>51f52e0b-f0b6-45b2-a07a-3af86befae27</t>
+  </si>
+  <si>
+    <t>2f8c2b78-0364-433c-bf76-f48b91d43f04</t>
+  </si>
+  <si>
+    <t>bc2a1c4f-e021-4a8b-92dc-01fa84eddae5</t>
+  </si>
+  <si>
+    <t>d1696b90-357c-4430-9111-a2a1b2074680</t>
+  </si>
+  <si>
+    <t>a0ecd25b-80a7-4ed7-9002-a00d6799d48a</t>
+  </si>
+  <si>
+    <t>7da5ebc6-4077-45ca-a1b3-a0a7da3139aa</t>
+  </si>
+  <si>
+    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
+  </si>
+  <si>
+    <t>Sheet Missing</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
+  </si>
+  <si>
+    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>591191c7-f693-5957-8734-ac87151ca981</t>
+  </si>
+  <si>
+    <t>3b4eb0e5-6239-537a-8e67-e50e172e72a2</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>071f8fe1-4899-5c71-9c86-7d7377661d45</t>
   </si>
   <si>
     <t>86b4a49e-7378-5159-9f41-b005208c31bc</t>
   </si>
   <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/DEMOGRAPHIC_DATA_healthix-20240307-testcase1.csv</t>
-  </si>
-  <si>
-    <t>admin_demographics_healthix_20240307_testcase1</t>
-  </si>
-  <si>
-    <t>4e28c9f2-4bb2-4a0f-b273-8cc294c2d8d0</t>
-  </si>
-  <si>
-    <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION "other" found in SEX_AT_BIRTH_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>SEX_AT_BIRTH_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Validate SEX_AT_BIRTH_CODE_DESCRIPTION with sex at birth reference data</t>
-  </si>
-  <si>
-    <t>c4c20e42-108c-416d-af8e-f6af1061df9e</t>
-  </si>
-  <si>
-    <t>Value urn:oid:2.16.840.1.113883.6.238 in RACE_CODE_SYSTEM_NAME not in allowed list ('CDC','CDCRE','2.16.840.1.113883.6.23')</t>
-  </si>
-  <si>
-    <t>RACE_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.840.1.113883.6.238</t>
-  </si>
-  <si>
-    <t>Use only allowed values 'CDC','CDCRE','2.16.840.1.113883.6.23' in RACE_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>dc3bb706-5336-432e-b456-b7f91359c6ec</t>
-  </si>
-  <si>
-    <t>Value urn:oid:2.16.840.1.113883.6.238 in ETHNICITY_CODE_SYSTEM_NAME not in allowed list ('CDC','CDCRE','2.16.840.1.113883.6.23')</t>
-  </si>
-  <si>
-    <t>ETHNICITY_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>Use only allowed values 'CDC','CDCRE','2.16.840.1.113883.6.23' in ETHNICITY_CODE_SYSTEM_NAME</t>
-  </si>
-  <si>
-    <t>5565385a-4c6f-42c2-b74c-63852fa99cce</t>
-  </si>
-  <si>
-    <t>f7affba8-f0e2-4e45-82d2-220f94df0d80</t>
-  </si>
-  <si>
-    <t>Invalid Answer Code "LA10139-6" for Question Code "89555-7" found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>LA10139-6</t>
-  </si>
-  <si>
-    <t>6506cbdd-a46f-46a7-8574-5e35493b36e5</t>
-  </si>
-  <si>
-    <t>19732e2d-7c74-4dcc-88e4-aeef6edb4829</t>
-  </si>
-  <si>
-    <t>e1374640-e45a-4e3f-8b92-d886188d0545</t>
-  </si>
-  <si>
-    <t>1315388f-d745-4ca5-8e3b-91fc8af459dc</t>
-  </si>
-  <si>
-    <t>21e0a270-5c6d-4db0-be24-b6d51dff5aae</t>
-  </si>
-  <si>
-    <t>95b9b606-0d8a-4164-b594-331c59569ffc</t>
-  </si>
-  <si>
-    <t>3690a92b-d6e3-4b2f-b20d-05fb89b7173b</t>
-  </si>
-  <si>
-    <t>c4bebf80-cd28-4371-b50c-6066e75860d4</t>
-  </si>
-  <si>
-    <t>95d05c4d-c412-41e8-9553-66224c93bb4b</t>
-  </si>
-  <si>
-    <t>619866d1-da69-4bec-9ca6-96b90a50926c</t>
-  </si>
-  <si>
-    <t>227b870a-7a0e-422f-893d-341ec9002f45</t>
-  </si>
-  <si>
-    <t>263a2cd3-019b-4cab-9f54-db4d0dea6fa8</t>
-  </si>
-  <si>
-    <t>4fd81d8a-f79a-451e-9394-131c4bfaab6e</t>
-  </si>
-  <si>
-    <t>d528bb43-387c-4828-a411-db7bc0c401c3</t>
-  </si>
-  <si>
-    <t>6810671a-17ab-42e0-89ad-e6c513f6bcc4</t>
-  </si>
-  <si>
-    <t>70bf9234-742b-40e1-9448-0efaf498bbaf</t>
-  </si>
-  <si>
-    <t>3cf8b4b9-343b-4514-835e-9450f6cac31a</t>
-  </si>
-  <si>
-    <t>Invalid timestamp "2000-06-05 20:25:02" found in RECORDED_TIME</t>
-  </si>
-  <si>
-    <t>2000-06-05 20:25:02</t>
-  </si>
-  <si>
-    <t>920165c6-575b-47d9-aae8-35653a4385c9</t>
-  </si>
-  <si>
-    <t>e30ed58f-df22-4bef-b7c7-0c3658059070</t>
-  </si>
-  <si>
-    <t>1076ce6d-6430-49ed-9c95-8a6ad994c129</t>
-  </si>
-  <si>
-    <t>d8f14533-9fe7-4716-91a5-0eb680f46bb7</t>
-  </si>
-  <si>
-    <t>fc108e30-f341-418f-8ff3-ec4baedd1811</t>
-  </si>
-  <si>
-    <t>946accf0-cdb9-4500-8546-50cb86d00eb2</t>
-  </si>
-  <si>
-    <t>c43c377e-fd5b-4348-ad6f-94d4e4ce01c9</t>
-  </si>
-  <si>
-    <t>35ac73bb-0aea-4d1b-b526-cf3a6bbbacd5</t>
-  </si>
-  <si>
-    <t>f49c8221-e5b6-48a4-b36c-920f74f45166</t>
-  </si>
-  <si>
-    <t>0d02ef1f-ad9f-4629-aca8-6eb61c7416f3</t>
-  </si>
-  <si>
-    <t>d358ccfc-02b9-4783-9a15-f8fee2585a5e</t>
-  </si>
-  <si>
-    <t>1f03b8b1-7058-4209-a1ef-20c95e8a24e7</t>
-  </si>
-  <si>
-    <t>d4b079e2-4907-4c68-b1c2-873119b56dd4</t>
-  </si>
-  <si>
-    <t>0cfbaab2-2c0b-4213-bebb-3edbee573804</t>
-  </si>
-  <si>
-    <t>aa29a908-6d26-438c-8f5d-2b3c94badfac</t>
-  </si>
-  <si>
-    <t>5193b0f7-2abf-46b0-b0df-5ad178de6c59</t>
-  </si>
-  <si>
-    <t>00a92b20-67ca-4fa6-9c38-f3b934d7ee68</t>
-  </si>
-  <si>
-    <t>733d532b-b48f-4142-8f56-61a035957cc0</t>
-  </si>
-  <si>
-    <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
-  </si>
-  <si>
-    <t>Sheet Missing</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
-  </si>
-  <si>
-    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
-  </si>
-  <si>
-    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
-  </si>
-  <si>
-    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
-  </si>
-  <si>
-    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
-  </si>
-  <si>
-    <t>591191c7-f693-5957-8734-ac87151ca981</t>
-  </si>
-  <si>
     <t>Excel workbook sheet 'Question_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>3b4eb0e5-6239-537a-8e67-e50e172e72a2</t>
-  </si>
-  <si>
-    <t>071f8fe1-4899-5c71-9c86-7d7377661d45</t>
+    <t>a530fe1b-57ef-5a90-8bea-835ece2483da</t>
+  </si>
+  <si>
+    <t>a3fe7098-8ae8-5612-81ac-cbe10780c19b</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
+  </si>
+  <si>
+    <t>b2f9fd0b-01c6-41ba-8fe6-a7b469e06227</t>
+  </si>
+  <si>
+    <t>Mandatory field CONSENT is empty</t>
+  </si>
+  <si>
+    <t>CONSENT</t>
+  </si>
+  <si>
+    <t>Provide a value for CONSENT</t>
   </si>
 </sst>
 </file>
@@ -632,7 +599,7 @@
         <v>37</v>
       </c>
       <c r="O3">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P3" t="s">
         <v>38</v>
@@ -682,22 +649,16 @@
         <v>45</v>
       </c>
       <c r="O4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>47</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>48</v>
-      </c>
-      <c r="T4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -714,37 +675,37 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -761,34 +722,34 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
         <v>58</v>
       </c>
-      <c r="L6" t="s">
-        <v>59</v>
-      </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="T6" t="s">
         <v>34</v>
@@ -808,37 +769,34 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="T7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -855,34 +813,34 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T8" t="s">
         <v>34</v>
@@ -911,28 +869,28 @@
         <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N9" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="T9" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -958,31 +916,28 @@
         <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="O10">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q10" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="T10" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1008,28 +963,28 @@
         <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="N11" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O11">
         <v>8</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q11" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="R11" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -1055,7 +1010,7 @@
         <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="M12" t="s">
         <v>29</v>
@@ -1064,7 +1019,7 @@
         <v>30</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P12" t="s">
         <v>31</v>
@@ -1102,28 +1057,28 @@
         <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="M13" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="N13" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O13">
         <v>9</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q13" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="R13" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -1149,7 +1104,7 @@
         <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="M14" t="s">
         <v>29</v>
@@ -1158,7 +1113,7 @@
         <v>30</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P14" t="s">
         <v>31</v>
@@ -1196,28 +1151,28 @@
         <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="N15" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O15">
         <v>10</v>
       </c>
       <c r="P15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q15" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="R15" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -1243,7 +1198,7 @@
         <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s">
         <v>29</v>
@@ -1252,7 +1207,7 @@
         <v>30</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P16" t="s">
         <v>31</v>
@@ -1290,28 +1245,28 @@
         <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="N17" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O17">
         <v>18</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q17" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="R17" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -1337,7 +1292,7 @@
         <v>27</v>
       </c>
       <c r="L18" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="M18" t="s">
         <v>29</v>
@@ -1346,7 +1301,7 @@
         <v>30</v>
       </c>
       <c r="O18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P18" t="s">
         <v>31</v>
@@ -1384,28 +1339,28 @@
         <v>27</v>
       </c>
       <c r="L19" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="M19" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="N19" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O19">
         <v>19</v>
       </c>
       <c r="P19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q19" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="R19" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -1431,7 +1386,7 @@
         <v>27</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="M20" t="s">
         <v>29</v>
@@ -1440,7 +1395,7 @@
         <v>30</v>
       </c>
       <c r="O20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P20" t="s">
         <v>31</v>
@@ -1478,28 +1433,28 @@
         <v>27</v>
       </c>
       <c r="L21" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="M21" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N21" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="O21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="Q21" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -1525,7 +1480,7 @@
         <v>27</v>
       </c>
       <c r="L22" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="M22" t="s">
         <v>29</v>
@@ -1534,7 +1489,7 @@
         <v>30</v>
       </c>
       <c r="O22">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P22" t="s">
         <v>31</v>
@@ -1572,28 +1527,28 @@
         <v>27</v>
       </c>
       <c r="L23" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="M23" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="O23">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="P23" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="Q23" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="R23" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -1619,22 +1574,22 @@
         <v>27</v>
       </c>
       <c r="L24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M24" t="s">
         <v>29</v>
       </c>
       <c r="N24" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="O24">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="P24" t="s">
         <v>31</v>
       </c>
       <c r="Q24" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="R24" t="s">
         <v>33</v>
@@ -1666,22 +1621,22 @@
         <v>27</v>
       </c>
       <c r="L25" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="M25" t="s">
         <v>29</v>
       </c>
       <c r="N25" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="O25">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P25" t="s">
         <v>31</v>
       </c>
       <c r="Q25" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="R25" t="s">
         <v>33</v>
@@ -1713,22 +1668,22 @@
         <v>27</v>
       </c>
       <c r="L26" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M26" t="s">
         <v>29</v>
       </c>
       <c r="N26" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="O26">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P26" t="s">
         <v>31</v>
       </c>
       <c r="Q26" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="R26" t="s">
         <v>33</v>
@@ -1760,22 +1715,22 @@
         <v>27</v>
       </c>
       <c r="L27" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M27" t="s">
         <v>29</v>
       </c>
       <c r="N27" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O27">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P27" t="s">
         <v>31</v>
       </c>
       <c r="Q27" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R27" t="s">
         <v>33</v>
@@ -1807,22 +1762,22 @@
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="M28" t="s">
         <v>29</v>
       </c>
       <c r="N28" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O28">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P28" t="s">
         <v>31</v>
       </c>
       <c r="Q28" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R28" t="s">
         <v>33</v>
@@ -1854,22 +1809,22 @@
         <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="M29" t="s">
         <v>29</v>
       </c>
       <c r="N29" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O29">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P29" t="s">
         <v>31</v>
       </c>
       <c r="Q29" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R29" t="s">
         <v>33</v>
@@ -1901,22 +1856,22 @@
         <v>27</v>
       </c>
       <c r="L30" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M30" t="s">
         <v>29</v>
       </c>
       <c r="N30" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P30" t="s">
         <v>31</v>
       </c>
       <c r="Q30" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R30" t="s">
         <v>33</v>
@@ -1948,22 +1903,22 @@
         <v>27</v>
       </c>
       <c r="L31" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="M31" t="s">
         <v>29</v>
       </c>
       <c r="N31" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O31">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P31" t="s">
         <v>31</v>
       </c>
       <c r="Q31" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R31" t="s">
         <v>33</v>
@@ -1995,22 +1950,22 @@
         <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="M32" t="s">
         <v>29</v>
       </c>
       <c r="N32" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O32">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P32" t="s">
         <v>31</v>
       </c>
       <c r="Q32" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R32" t="s">
         <v>33</v>
@@ -2042,22 +1997,22 @@
         <v>27</v>
       </c>
       <c r="L33" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M33" t="s">
         <v>29</v>
       </c>
       <c r="N33" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O33">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P33" t="s">
         <v>31</v>
       </c>
       <c r="Q33" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R33" t="s">
         <v>33</v>
@@ -2089,22 +2044,22 @@
         <v>27</v>
       </c>
       <c r="L34" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="M34" t="s">
         <v>29</v>
       </c>
       <c r="N34" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O34">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P34" t="s">
         <v>31</v>
       </c>
       <c r="Q34" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R34" t="s">
         <v>33</v>
@@ -2136,22 +2091,22 @@
         <v>27</v>
       </c>
       <c r="L35" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="M35" t="s">
         <v>29</v>
       </c>
       <c r="N35" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O35">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P35" t="s">
         <v>31</v>
       </c>
       <c r="Q35" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R35" t="s">
         <v>33</v>
@@ -2183,22 +2138,22 @@
         <v>27</v>
       </c>
       <c r="L36" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="M36" t="s">
         <v>29</v>
       </c>
       <c r="N36" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O36">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P36" t="s">
         <v>31</v>
       </c>
       <c r="Q36" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R36" t="s">
         <v>33</v>
@@ -2230,22 +2185,22 @@
         <v>27</v>
       </c>
       <c r="L37" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="M37" t="s">
         <v>29</v>
       </c>
       <c r="N37" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O37">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P37" t="s">
         <v>31</v>
       </c>
       <c r="Q37" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R37" t="s">
         <v>33</v>
@@ -2277,22 +2232,22 @@
         <v>27</v>
       </c>
       <c r="L38" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="M38" t="s">
         <v>29</v>
       </c>
       <c r="N38" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O38">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P38" t="s">
         <v>31</v>
       </c>
       <c r="Q38" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R38" t="s">
         <v>33</v>
@@ -2324,22 +2279,22 @@
         <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="M39" t="s">
         <v>29</v>
       </c>
       <c r="N39" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O39">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P39" t="s">
         <v>31</v>
       </c>
       <c r="Q39" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R39" t="s">
         <v>33</v>
@@ -2371,22 +2326,22 @@
         <v>27</v>
       </c>
       <c r="L40" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="M40" t="s">
         <v>29</v>
       </c>
       <c r="N40" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O40">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P40" t="s">
         <v>31</v>
       </c>
       <c r="Q40" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R40" t="s">
         <v>33</v>
@@ -2418,22 +2373,22 @@
         <v>27</v>
       </c>
       <c r="L41" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="M41" t="s">
         <v>29</v>
       </c>
       <c r="N41" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="O41">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P41" t="s">
         <v>31</v>
       </c>
       <c r="Q41" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="R41" t="s">
         <v>33</v>
@@ -2456,37 +2411,25 @@
         <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="J42" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="L42" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M42" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="N42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O42">
-        <v>27</v>
-      </c>
-      <c r="P42" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="Q42" t="s">
-        <v>96</v>
-      </c>
-      <c r="R42" t="s">
-        <v>33</v>
-      </c>
-      <c r="T42" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -2503,37 +2446,25 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="I43" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="J43" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M43" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="N43" t="s">
-        <v>95</v>
-      </c>
-      <c r="O43">
-        <v>28</v>
-      </c>
-      <c r="P43" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="Q43" t="s">
-        <v>96</v>
-      </c>
-      <c r="R43" t="s">
-        <v>33</v>
-      </c>
-      <c r="T43" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
@@ -2550,37 +2481,25 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="I44" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="J44" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M44" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="N44" t="s">
-        <v>95</v>
-      </c>
-      <c r="O44">
-        <v>29</v>
-      </c>
-      <c r="P44" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="Q44" t="s">
-        <v>96</v>
-      </c>
-      <c r="R44" t="s">
-        <v>33</v>
-      </c>
-      <c r="T44" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
@@ -2597,37 +2516,25 @@
         <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="I45" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="J45" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s">
+        <v>113</v>
+      </c>
+      <c r="M45" t="s">
+        <v>104</v>
+      </c>
+      <c r="N45" t="s">
         <v>114</v>
       </c>
-      <c r="M45" t="s">
-        <v>29</v>
-      </c>
-      <c r="N45" t="s">
-        <v>95</v>
-      </c>
-      <c r="O45">
-        <v>30</v>
-      </c>
-      <c r="P45" t="s">
-        <v>31</v>
-      </c>
       <c r="Q45" t="s">
-        <v>96</v>
-      </c>
-      <c r="R45" t="s">
-        <v>33</v>
-      </c>
-      <c r="T45" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
@@ -2647,22 +2554,22 @@
         <v>115</v>
       </c>
       <c r="I46" t="s">
+        <v>101</v>
+      </c>
+      <c r="J46" t="s">
+        <v>102</v>
+      </c>
+      <c r="L46" t="s">
         <v>116</v>
       </c>
-      <c r="J46" t="s">
+      <c r="M46" t="s">
+        <v>104</v>
+      </c>
+      <c r="N46" t="s">
         <v>117</v>
       </c>
-      <c r="L46" t="s">
-        <v>118</v>
-      </c>
-      <c r="M46" t="s">
-        <v>119</v>
-      </c>
-      <c r="N46" t="s">
-        <v>120</v>
-      </c>
       <c r="Q46" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
@@ -2679,130 +2586,31 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" t="s">
+        <v>51</v>
+      </c>
+      <c r="L47" t="s">
+        <v>118</v>
+      </c>
+      <c r="M47" t="s">
+        <v>44</v>
+      </c>
+      <c r="N47" t="s">
+        <v>119</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47" t="s">
+        <v>120</v>
+      </c>
+      <c r="R47" t="s">
         <v>121</v>
-      </c>
-      <c r="I47" t="s">
-        <v>116</v>
-      </c>
-      <c r="J47" t="s">
-        <v>117</v>
-      </c>
-      <c r="L47" t="s">
-        <v>122</v>
-      </c>
-      <c r="M47" t="s">
-        <v>119</v>
-      </c>
-      <c r="N47" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" t="s">
-        <v>124</v>
-      </c>
-      <c r="I48" t="s">
-        <v>116</v>
-      </c>
-      <c r="J48" t="s">
-        <v>117</v>
-      </c>
-      <c r="L48" t="s">
-        <v>125</v>
-      </c>
-      <c r="M48" t="s">
-        <v>119</v>
-      </c>
-      <c r="N48" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I49" t="s">
-        <v>116</v>
-      </c>
-      <c r="J49" t="s">
-        <v>117</v>
-      </c>
-      <c r="L49" t="s">
-        <v>128</v>
-      </c>
-      <c r="M49" t="s">
-        <v>119</v>
-      </c>
-      <c r="N49" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" t="s">
-        <v>130</v>
-      </c>
-      <c r="I50" t="s">
-        <v>116</v>
-      </c>
-      <c r="J50" t="s">
-        <v>117</v>
-      </c>
-      <c r="L50" t="s">
-        <v>131</v>
-      </c>
-      <c r="M50" t="s">
-        <v>119</v>
-      </c>
-      <c r="N50" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
   <si>
     <t>orch_session_id</t>
   </si>
@@ -81,292 +81,721 @@
     <t>7bab389e-54af-5a13-a39f-079abdc73a48</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Session 05269d28-15ae-5bd6-bd88-f949ccfa52d7 markdown diagnostics not provided (not completed?)</t>
   </si>
   <si>
+    <t>6fcd9df5-34cf-5c09-8fb5-e73617e28d73</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/SCREENING_healthelink-20240305-testcase1.csv</t>
+  </si>
+  <si>
+    <t>screening_healthelink_20240305_testcase1</t>
+  </si>
+  <si>
+    <t>7efd302a-fac3-422e-af99-a85b89ad5c33</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER STATUS CODE</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER STATUS CODE "finished" found in ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>Validate ENCOUNTER STATUS CODE with encounter status reference data</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>Resolved By QE/QCS</t>
+  </si>
+  <si>
+    <t>a12b2dd8-6fb1-455d-a7e1-b2922870d1e7</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER STATUS CODE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER STATUS CODE DESCRIPTION "Finished" found in ENCOUNTER_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Validate ENCOUNTER STATUS CODE DESCRIPTION with encounter status reference data</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>5b7ba100-944e-4ad9-9cb8-be2e3814b0ea</t>
+  </si>
+  <si>
+    <t>Invalid Date</t>
+  </si>
+  <si>
+    <t>Invalid timestamp "01/28/84 17:56" found in RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>01/28/84 17:56</t>
+  </si>
+  <si>
+    <t>Please be sure to provide both a valid date and time (Format: YYYYMMDD HH:MM:SS).</t>
+  </si>
+  <si>
+    <t>fbca0bed-086b-460b-bf4c-e7e79119fa8e</t>
+  </si>
+  <si>
+    <t>Missing Mandatory Value</t>
+  </si>
+  <si>
+    <t>Mandatory field POTENTIAL_NEED_INDICATED is empty</t>
+  </si>
+  <si>
+    <t>POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>Provide a value for POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>REJECTION</t>
+  </si>
+  <si>
+    <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/DEMOGRAPHIC_DATA_20240307.csv</t>
+  </si>
+  <si>
+    <t>admin_demographics_20240307</t>
+  </si>
+  <si>
+    <t>2996bd51-f0bb-46f3-a687-a3d08b94ac2a</t>
+  </si>
+  <si>
+    <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION "unknown" found in SEX_AT_BIRTH_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SEX_AT_BIRTH_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Validate SEX_AT_BIRTH_CODE_DESCRIPTION with sex at birth reference data</t>
+  </si>
+  <si>
+    <t>9941114d-bec4-48c5-ba73-d1da1809a5d6</t>
+  </si>
+  <si>
+    <t>17e4b4ea-2ac3-4a3c-806c-31776d1b3a39</t>
+  </si>
+  <si>
+    <t>99e72a60-96ab-5ef1-a3af-3e7759777664</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/SCREENING_20240307.csv</t>
+  </si>
+  <si>
+    <t>screening_20240307</t>
+  </si>
+  <si>
+    <t>1f821b95-1c20-41ee-9ee0-54542e327339</t>
+  </si>
+  <si>
+    <t>Invalid timestamp "01/27/02 15:42" found in RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>01/27/02 15:42</t>
+  </si>
+  <si>
+    <t>1815d57a-f95d-4703-9986-349158fdb494</t>
+  </si>
+  <si>
+    <t>a5de7d97-0b20-4b53-bbfb-ff2a00ab5506</t>
+  </si>
+  <si>
+    <t>f13adb6a-cacf-4650-84f7-9d183baa0cad</t>
+  </si>
+  <si>
+    <t>886c6692-ab71-49be-9223-9fac832834e2</t>
+  </si>
+  <si>
+    <t>be504473-8e6c-4c92-8cf5-410ed5ab382d</t>
+  </si>
+  <si>
+    <t>Invalid Value</t>
+  </si>
+  <si>
+    <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA')</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Use only allowed values 'Yes','No','NA' in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>1335bd0a-1fd5-4eef-94ea-28f57cb0c737</t>
+  </si>
+  <si>
+    <t>c85b2f23-3988-4339-992b-b62181e15373</t>
+  </si>
+  <si>
+    <t>a5b26541-5462-4165-8747-0c5112279c06</t>
+  </si>
+  <si>
+    <t>70de3fec-a12f-4f01-be70-7963a121c720</t>
+  </si>
+  <si>
+    <t>b5902f00-00d0-4a7a-98a7-9545bfe47287</t>
+  </si>
+  <si>
+    <t>ba232ad3-e3d7-4665-b5a1-182965217d2e</t>
+  </si>
+  <si>
+    <t>4766d41a-7ef1-4f80-814b-6996eaf6ce28</t>
+  </si>
+  <si>
+    <t>4d4921be-1129-438e-9465-3b534ee767a8</t>
+  </si>
+  <si>
+    <t>cba85e5a-2ccb-4d9e-8751-a8ce91601507</t>
+  </si>
+  <si>
+    <t>77f37eed-1aa6-4776-826b-3d33f329df58</t>
+  </si>
+  <si>
+    <t>236a2dcb-d989-4500-9211-aaef08816072</t>
+  </si>
+  <si>
+    <t>19ba48c9-03f4-4087-a6bf-088fc6b1aba9</t>
+  </si>
+  <si>
+    <t>c5bf9602-e6c5-4bd2-bd3a-30f52762ea12</t>
+  </si>
+  <si>
+    <t>5fb32686-b0d0-4d69-960b-b0352241d3d2</t>
+  </si>
+  <si>
+    <t>8e706f59-2070-4fbb-9632-d11a0db6b731</t>
+  </si>
+  <si>
+    <t>961e2cde-8bf4-411c-870d-d0f8089a7ed6</t>
+  </si>
+  <si>
+    <t>f67c04b5-7d4a-4266-be77-ae7f0d265676</t>
+  </si>
+  <si>
+    <t>7840c5af-c3bc-4349-84ff-a58ba946359d</t>
+  </si>
+  <si>
+    <t>2cf7e0ba-4ec2-4d37-ac8d-f9a602142357</t>
+  </si>
+  <si>
+    <t>664da19c-54af-4e91-a096-7f0776670131</t>
+  </si>
+  <si>
+    <t>215f12df-0ab2-4f3c-bcbf-007063680c75</t>
+  </si>
+  <si>
+    <t>0ba92549-aaff-44b9-9af3-aa050fe99acc</t>
+  </si>
+  <si>
+    <t>3307125a-f314-4c79-a12e-bf7729242eb8</t>
+  </si>
+  <si>
+    <t>45fd272a-4667-4610-82bd-63b03003a140</t>
+  </si>
+  <si>
+    <t>82a7aefb-5cb4-453e-a5fc-efeb693efd68</t>
+  </si>
+  <si>
+    <t>7e9179f6-287d-4999-9c17-2cc27ba7c952</t>
+  </si>
+  <si>
+    <t>80c18831-fbeb-40d1-b655-d24af5b7fad4</t>
+  </si>
+  <si>
+    <t>fe62e391-d435-4a0f-a575-a009c5858ab7</t>
+  </si>
+  <si>
+    <t>2eebf317-9af4-4c17-8801-1cd6483268a7</t>
+  </si>
+  <si>
+    <t>f884f18f-9070-462f-8db3-07db0e836091</t>
+  </si>
+  <si>
+    <t>290e1627-ee13-4c04-a8c8-5e86d64a97ea</t>
+  </si>
+  <si>
+    <t>60af060d-f72f-4df1-b3cc-6150802f35d0</t>
+  </si>
+  <si>
+    <t>4cceaf11-058a-4708-a9da-52c662f84e43</t>
+  </si>
+  <si>
+    <t>e9ba66e9-9d57-4410-bde0-a7a707d4d527</t>
+  </si>
+  <si>
+    <t>b91a8f29-cc39-40fe-b82c-4085fd00ea87</t>
+  </si>
+  <si>
+    <t>f92cbe69-5119-4d0c-b492-d61e80f4d219</t>
+  </si>
+  <si>
+    <t>8d70f2dc-56ef-467c-a49f-1c31bb9e5aa7</t>
+  </si>
+  <si>
+    <t>0ed64884-4fe0-422d-8683-4804a170f772</t>
+  </si>
+  <si>
+    <t>95b8e793-f4f7-4e95-a62a-880191c96ce8</t>
+  </si>
+  <si>
+    <t>b3013f04-8f1a-42be-88ce-188faa74a7e9</t>
+  </si>
+  <si>
+    <t>54ab8f20-6e4e-488b-9a34-e1415e87f57b</t>
+  </si>
+  <si>
+    <t>0fc41f50-07cd-47cb-8008-b89340e8d850</t>
+  </si>
+  <si>
+    <t>b25c16c4-e2fb-47e0-bd2b-b0d827ce6e09</t>
+  </si>
+  <si>
+    <t>c536c2f3-7027-4e98-a859-e3741cc5e69b</t>
+  </si>
+  <si>
+    <t>2787c516-ccbb-4a09-ad5e-554f5a79e35e</t>
+  </si>
+  <si>
+    <t>327c9bcd-8bc5-4cc5-a5c6-43e2811f7e33</t>
+  </si>
+  <si>
+    <t>3da0b412-6af2-48bf-a17e-4a2465393ddc</t>
+  </si>
+  <si>
+    <t>f428b128-79ae-48fd-b84c-fe07bfcc8839</t>
+  </si>
+  <si>
+    <t>Value Need indicated across questions in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA')</t>
+  </si>
+  <si>
+    <t>Need indicated across questions</t>
+  </si>
+  <si>
+    <t>8179c219-2824-4f27-ac17-8a1a977babad</t>
+  </si>
+  <si>
+    <t>af493000-0676-404a-b508-a0ca6bd794c5</t>
+  </si>
+  <si>
+    <t>0d4f42d3-626e-4e3e-b224-5a78f0dc2415</t>
+  </si>
+  <si>
+    <t>15e6a480-b9ee-4054-9706-212f351d2b31</t>
+  </si>
+  <si>
+    <t>0b56f28f-6407-43aa-b5f7-bc1198954086</t>
+  </si>
+  <si>
+    <t>4700c5ea-fea2-468a-80cf-2bfd87883e47</t>
+  </si>
+  <si>
+    <t>7e9ef3f7-221a-4171-abe0-c1cab0fa3620</t>
+  </si>
+  <si>
+    <t>7c09b5c5-be57-4577-ab79-60443016ec43</t>
+  </si>
+  <si>
+    <t>37641c26-c9b1-4422-aeba-b69eb6491280</t>
+  </si>
+  <si>
+    <t>88f0c296-c34f-4908-910b-eb2e24b9b6b8</t>
+  </si>
+  <si>
+    <t>2db1cd48-983b-48d0-94a8-8a161e7fe77b</t>
+  </si>
+  <si>
+    <t>dc150d72-bda2-4746-b218-1953e9833356</t>
+  </si>
+  <si>
+    <t>148bb783-9b2c-4e22-a77c-70346c10a6ef</t>
+  </si>
+  <si>
+    <t>f53b6709-87ab-4c75-ad21-f3e8abbf8e22</t>
+  </si>
+  <si>
+    <t>8a1b0b0a-e571-4ece-8f09-c8e73a0f71c2</t>
+  </si>
+  <si>
+    <t>33c63f14-0267-419c-acb8-e88441ee55e0</t>
+  </si>
+  <si>
+    <t>1f75dc29-8e09-499d-8474-32e6129d49d5</t>
+  </si>
+  <si>
+    <t>6b48a133-883d-4627-943e-fc0f4767aa2b</t>
+  </si>
+  <si>
+    <t>e932cc88-5f93-4ec0-825d-70bb244a2d32</t>
+  </si>
+  <si>
+    <t>d98a1ebc-38e5-45b5-add3-64b444c6f28d</t>
+  </si>
+  <si>
+    <t>909fbe14-8a54-4244-b116-38c163b033af</t>
+  </si>
+  <si>
+    <t>51c14a01-7cd2-49f4-895a-183604b26280</t>
+  </si>
+  <si>
+    <t>4ea48ebe-15ec-4629-92f1-fe6652e4ee9a</t>
+  </si>
+  <si>
+    <t>d71849c8-5953-47d3-a953-54b06d6e7757</t>
+  </si>
+  <si>
+    <t>d33e404c-097f-4bb6-a3dc-f7ddf9ab1501</t>
+  </si>
+  <si>
+    <t>Invalid timestamp "10/12/10 07:33" found in RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>10/12/10 07:33</t>
+  </si>
+  <si>
+    <t>2c39ddff-fb61-48e7-833c-18aa12b7c018</t>
+  </si>
+  <si>
+    <t>7d9c5844-7332-4c50-8198-5bde286ed99b</t>
+  </si>
+  <si>
+    <t>95908b5f-635f-4f61-8b30-7c0684491eb4</t>
+  </si>
+  <si>
+    <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>03/05/94 13:08</t>
+  </si>
+  <si>
+    <t>a15d8bff-23dd-4983-95a1-f0a889b21d24</t>
+  </si>
+  <si>
+    <t>50df71c7-fd88-4b04-bb5f-37ac6fa29458</t>
+  </si>
+  <si>
+    <t>8e7c4eee-dabb-46c5-93e8-65509975102c</t>
+  </si>
+  <si>
+    <t>d6843784-bf91-495d-8c10-5defc758212c</t>
+  </si>
+  <si>
+    <t>454216bb-e9b1-438b-b5d8-1c65d33e282e</t>
+  </si>
+  <si>
+    <t>a30f9d01-0f6f-4fa0-96b8-fef8fb18bd3e</t>
+  </si>
+  <si>
+    <t>13cd1ece-b10e-41c5-ade7-6f29ab2951d2</t>
+  </si>
+  <si>
+    <t>e9fbff9c-e3e6-4076-968a-622bf9839210</t>
+  </si>
+  <si>
+    <t>9c8eebd9-0944-4d7e-8393-e3ff7494007b</t>
+  </si>
+  <si>
+    <t>1b67a9d5-16d0-498a-88d7-4b342f9ba119</t>
+  </si>
+  <si>
+    <t>07aa537f-babf-4e4e-98f1-debf6b357500</t>
+  </si>
+  <si>
+    <t>a1c8c7a1-9f17-4100-a01e-76575917e06b</t>
+  </si>
+  <si>
+    <t>f80ec89c-abb9-4e82-b73e-7dd60426b14a</t>
+  </si>
+  <si>
+    <t>66b13a80-2c87-4a9c-b4c3-96ce003429b3</t>
+  </si>
+  <si>
+    <t>358d7328-68ee-4960-b301-46aec6eb851c</t>
+  </si>
+  <si>
+    <t>6bef3cfb-f263-4729-8f8f-6b6f55c8e72d</t>
+  </si>
+  <si>
+    <t>07346ab8-e9c8-415e-9e01-0b42d25f4ab4</t>
+  </si>
+  <si>
+    <t>92bee116-66c7-4784-b8a9-131d135784cb</t>
+  </si>
+  <si>
+    <t>c40335a3-4f1a-4b7a-8af8-795872b88276</t>
+  </si>
+  <si>
+    <t>744f4a66-216f-4c0f-9116-8cdc3f16f34e</t>
+  </si>
+  <si>
+    <t>52188542-dc5a-4291-8bd0-8b96382ee2b2</t>
+  </si>
+  <si>
+    <t>82c62967-bf12-4e96-a64e-e2f05ae0d368</t>
+  </si>
+  <si>
+    <t>c3197c2e-9de6-4372-b6da-4a9d969e8ff9</t>
+  </si>
+  <si>
+    <t>6ad43e9e-0a2d-44b1-98eb-f4f8b239824e</t>
+  </si>
+  <si>
+    <t>a7c28ded-d831-48ef-b127-afbd6f2e793f</t>
+  </si>
+  <si>
+    <t>5b73ab89-8759-403a-9ad7-7bd3bf2dfdfe</t>
+  </si>
+  <si>
+    <t>3d8a697c-f2d5-4d54-a9ee-b45e0e35adea</t>
+  </si>
+  <si>
+    <t>e23c5ac7-bb7c-456f-b5ec-bb2a06901945</t>
+  </si>
+  <si>
+    <t>0ccafea1-7f8e-4f00-85bd-f984e4c857aa</t>
+  </si>
+  <si>
+    <t>be78b9cf-fcd2-4913-8a15-68364f65a620</t>
+  </si>
+  <si>
+    <t>94861c93-bc38-4618-93ae-dfe94a040f77</t>
+  </si>
+  <si>
+    <t>421a0aa9-b0a8-4955-ad78-9e0d607cf143</t>
+  </si>
+  <si>
+    <t>6d55b284-4cc1-4d95-8d55-669d704d4bee</t>
+  </si>
+  <si>
+    <t>fc0e7a63-1994-432f-b4b7-434fbcc24a16</t>
+  </si>
+  <si>
+    <t>9c27406d-b318-49d7-8209-4af580bf6086</t>
+  </si>
+  <si>
+    <t>0361fffc-45cf-45d8-9654-78e0ba5780bc</t>
+  </si>
+  <si>
+    <t>1b658b17-814a-48fd-990a-72bd64d0093c</t>
+  </si>
+  <si>
+    <t>b6307520-40ca-4680-b400-1bf976a55946</t>
+  </si>
+  <si>
+    <t>41ba2c75-14f2-4934-9694-3c46f57df931</t>
+  </si>
+  <si>
+    <t>79cc3a43-c69a-46ef-b9e7-bc4c5d6d5f66</t>
+  </si>
+  <si>
+    <t>4ec583f4-b6ea-4bc0-9420-2ad28a5bb6e4</t>
+  </si>
+  <si>
+    <t>1e4894e5-5ce0-42da-b836-14ad2438adf1</t>
+  </si>
+  <si>
+    <t>50eea80b-eaf1-4c4b-b2ac-bc76a8a32b2a</t>
+  </si>
+  <si>
+    <t>3e8e492e-56d2-4508-88b0-d704b097644a</t>
+  </si>
+  <si>
+    <t>d216569f-8c87-4413-9df9-9648c1124299</t>
+  </si>
+  <si>
+    <t>84ea65c7-47b4-446b-979b-238fbdd31604</t>
+  </si>
+  <si>
+    <t>b6b03b7e-f8d0-4983-a37c-78878459096a</t>
+  </si>
+  <si>
+    <t>d9c34fa8-1483-433e-80d7-b15349c2864c</t>
+  </si>
+  <si>
     <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
   </si>
   <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/SCREENING_20240307.csv</t>
-  </si>
-  <si>
-    <t>screening_20240307</t>
-  </si>
-  <si>
-    <t>9e04c08e-ce47-42f1-b0e6-ea2faa81ef86</t>
-  </si>
-  <si>
-    <t>Invalid Date</t>
-  </si>
-  <si>
-    <t>Invalid timestamp "01/27/02 15:42" found in RECORDED_TIME</t>
-  </si>
-  <si>
-    <t>RECORDED_TIME</t>
-  </si>
-  <si>
-    <t>01/27/02 15:42</t>
-  </si>
-  <si>
-    <t>Please be sure to provide both a valid date and time (Format: YYYYMMDD HH:MM:SS).</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>9cfbd778-d553-48b6-b13d-c13109798043</t>
-  </si>
-  <si>
-    <t>Invalid Answer Code</t>
-  </si>
-  <si>
-    <t>Invalid Answer Code "LA32-8" for Question Code "69861-3" found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>LA32-8</t>
-  </si>
-  <si>
-    <t>Validate Question Code and Answer Code with ahc cross walk reference data</t>
-  </si>
-  <si>
-    <t>WARNING</t>
-  </si>
-  <si>
-    <t>Resolved By QE/QCS</t>
-  </si>
-  <si>
-    <t>5ce08072-9956-4dc3-815d-185daf2def62</t>
-  </si>
-  <si>
-    <t>Missing Mandatory Value</t>
-  </si>
-  <si>
-    <t>Mandatory field POTENTIAL_NEED_INDICATED is empty</t>
-  </si>
-  <si>
-    <t>POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>Provide a value for POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>REJECTION</t>
-  </si>
-  <si>
-    <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/DEMOGRAPHIC_DATA_20240307.csv</t>
-  </si>
-  <si>
-    <t>admin_demographics_20240307</t>
-  </si>
-  <si>
-    <t>294b0491-31dd-4be7-91d3-3003d31f9e30</t>
-  </si>
-  <si>
-    <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION "unknown" found in SEX_AT_BIRTH_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>SEX_AT_BIRTH_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>Validate SEX_AT_BIRTH_CODE_DESCRIPTION with sex at birth reference data</t>
-  </si>
-  <si>
-    <t>78c1b73d-1fad-4f32-b450-19f3f3a6c6c5</t>
-  </si>
-  <si>
-    <t>bbfa8aa7-72de-4516-a0cc-bcaaa736e610</t>
-  </si>
-  <si>
-    <t>9f5d6783-d15d-4fc8-9d5c-38f65689f510</t>
-  </si>
-  <si>
-    <t>dd053beb-145e-4db0-86dd-79d13f7139eb</t>
-  </si>
-  <si>
-    <t>Invalid Value</t>
-  </si>
-  <si>
-    <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA')</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Use only allowed values 'Yes','No','NA' in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>8251c962-311d-4b2e-abd2-35bb6081364e</t>
-  </si>
-  <si>
-    <t>bf006df1-137b-4380-94e7-6270f8580d7f</t>
-  </si>
-  <si>
-    <t>de324845-e6ad-4adb-b478-d988166efc9d</t>
-  </si>
-  <si>
-    <t>fbcab063-caf1-4534-8966-69689f5e9bd0</t>
-  </si>
-  <si>
-    <t>ab832d16-7982-4f5a-9fbd-594f52de55e2</t>
-  </si>
-  <si>
-    <t>d0ca0bbc-d440-416d-8589-ca9bebed39f5</t>
-  </si>
-  <si>
-    <t>a3f719df-8c38-4b38-9183-ec22d71f6329</t>
-  </si>
-  <si>
-    <t>75fd5f77-02ab-410f-87e2-4f14325131ca</t>
-  </si>
-  <si>
-    <t>2565ffdd-00e2-49d0-a37f-69fb18a58b58</t>
-  </si>
-  <si>
-    <t>4a9a9347-5057-437f-8e6e-555bddd11328</t>
-  </si>
-  <si>
-    <t>a0251d0c-869f-472c-89b2-cc429df93b7a</t>
-  </si>
-  <si>
-    <t>7b821f3d-63d4-4706-9a85-de3dce2f77a9</t>
-  </si>
-  <si>
-    <t>dd09ee58-27ac-4935-961f-d558309ae066</t>
-  </si>
-  <si>
-    <t>80d6e4f1-f10c-4c74-874d-3f07bd7fdc8a</t>
-  </si>
-  <si>
-    <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
-  </si>
-  <si>
-    <t>03/05/94 13:08</t>
-  </si>
-  <si>
-    <t>3ca38a70-ac64-4035-845a-4c1d0154348e</t>
-  </si>
-  <si>
-    <t>be6986e1-e466-4927-8371-373a029574f6</t>
-  </si>
-  <si>
-    <t>2f42b780-25a4-44a5-8d4c-fcfdf813ed3a</t>
-  </si>
-  <si>
-    <t>05c81f04-3639-4a92-8cc9-0089cd548cc2</t>
-  </si>
-  <si>
-    <t>8989d84d-32ed-4575-8d9d-c51f07840a4b</t>
-  </si>
-  <si>
-    <t>6cedce8e-d18c-4636-922b-75feeff36db9</t>
-  </si>
-  <si>
-    <t>dd360ca8-eb17-4c9c-9a52-52b797d160ea</t>
-  </si>
-  <si>
-    <t>eddbc773-dae5-49b7-9a4d-8bdf89f53e3a</t>
-  </si>
-  <si>
-    <t>71311173-4497-4ab1-a86b-505ee8afc99c</t>
-  </si>
-  <si>
-    <t>186986b1-3b32-4298-91a9-8a868a852be1</t>
-  </si>
-  <si>
-    <t>906b9e45-9277-4ec9-aeba-6bc5932b50d0</t>
-  </si>
-  <si>
-    <t>11a8345b-fdf3-4dbb-88a7-81dba0654a0f</t>
-  </si>
-  <si>
-    <t>51f52e0b-f0b6-45b2-a07a-3af86befae27</t>
-  </si>
-  <si>
-    <t>2f8c2b78-0364-433c-bf76-f48b91d43f04</t>
-  </si>
-  <si>
-    <t>bc2a1c4f-e021-4a8b-92dc-01fa84eddae5</t>
-  </si>
-  <si>
-    <t>d1696b90-357c-4430-9111-a2a1b2074680</t>
-  </si>
-  <si>
-    <t>a0ecd25b-80a7-4ed7-9002-a00d6799d48a</t>
-  </si>
-  <si>
-    <t>7da5ebc6-4077-45ca-a1b3-a0a7da3139aa</t>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
+  </si>
+  <si>
+    <t>Sheet Missing</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Admin_Demographic' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
+  </si>
+  <si>
+    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
   </si>
   <si>
     <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
   </si>
   <si>
+    <t>Excel workbook sheet 'Screening' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
+  </si>
+  <si>
+    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
+  </si>
+  <si>
+    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
+  </si>
+  <si>
+    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
+  </si>
+  <si>
+    <t>591191c7-f693-5957-8734-ac87151ca981</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Question_Reference' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
+  </si>
+  <si>
+    <t>3b4eb0e5-6239-537a-8e67-e50e172e72a2</t>
+  </si>
+  <si>
+    <t>071f8fe1-4899-5c71-9c86-7d7377661d45</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Answer_Reference' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
+  </si>
+  <si>
+    <t>5222b730-9add-5b52-b0c9-6f2506b0af9d</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/jrchc-hrsn-file-spec.xlsx</t>
+  </si>
+  <si>
+    <t>fa7874f6-f848-572b-a9ab-9db4c8d5e959</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Admin_Demographic' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>c302047e-21cf-5059-a32c-e81a9bd3a9b9</t>
+  </si>
+  <si>
+    <t>3252fee6-3a9a-5f4c-81c6-739201046d79</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Screening' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>78d6a904-035e-54ae-8ac2-ca5cdf3f75f7</t>
+  </si>
+  <si>
+    <t>9860873a-c387-5d98-9930-4ff296eb7192</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>d5d6e25d-81b4-5f98-8b91-ea2dbc155a9c</t>
+  </si>
+  <si>
+    <t>46171763-bd21-57a8-a403-0785f72643cf</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Question_Reference' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>4971a2f5-06a3-5898-823d-364145d3b9a5</t>
+  </si>
+  <si>
+    <t>c2c0cbca-70cb-54f6-9dc7-66b47c4f3157</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Answer_Reference' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>8640a4b5-53ef-506e-bcde-83f00315d4b2</t>
+  </si>
+  <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
   </si>
   <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
-  </si>
-  <si>
-    <t>Sheet Missing</t>
+    <t>544998d3-58c5-5f65-9dc8-9f998508495f</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
-  </si>
-  <si>
-    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
+    <t>0adb81bc-3df2-5f86-99cc-2d20e1dd5efd</t>
+  </si>
+  <si>
+    <t>10d0290c-b2eb-581e-b627-b5b8fcbb830f</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>591191c7-f693-5957-8734-ac87151ca981</t>
-  </si>
-  <si>
-    <t>3b4eb0e5-6239-537a-8e67-e50e172e72a2</t>
+    <t>e6951d0b-be59-58c3-8a04-01181208c601</t>
+  </si>
+  <si>
+    <t>2afb3098-bcfd-5a54-8ebb-4d65d399c55e</t>
   </si>
   <si>
     <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>071f8fe1-4899-5c71-9c86-7d7377661d45</t>
-  </si>
-  <si>
-    <t>86b4a49e-7378-5159-9f41-b005208c31bc</t>
+    <t>0e074bf2-f1fe-55d4-bd44-a88cbed79aeb</t>
+  </si>
+  <si>
+    <t>e8b3dab4-5058-5c79-8088-45b423119149</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Question_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>a530fe1b-57ef-5a90-8bea-835ece2483da</t>
-  </si>
-  <si>
-    <t>a3fe7098-8ae8-5612-81ac-cbe10780c19b</t>
+    <t>9dabd022-4a26-55f2-98f4-e534e7704b23</t>
+  </si>
+  <si>
+    <t>80af4eff-d697-565b-9e3f-a587e322b1da</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>b2f9fd0b-01c6-41ba-8fe6-a7b469e06227</t>
+    <t>382a7246-6a31-4302-81e7-7c13c1239bfb</t>
   </si>
   <si>
     <t>Mandatory field CONSENT is empty</t>
@@ -566,6 +995,9 @@
       <c r="T2" t="s">
         <v>34</v>
       </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -590,31 +1022,31 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" t="s">
         <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -649,16 +1081,19 @@
         <v>45</v>
       </c>
       <c r="O4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
         <v>46</v>
       </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
       <c r="R4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -675,37 +1110,34 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>51</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
         <v>52</v>
       </c>
-      <c r="M5" t="s">
+      <c r="R5" t="s">
         <v>53</v>
       </c>
-      <c r="N5" t="s">
+      <c r="T5" t="s">
         <v>54</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -722,37 +1154,37 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
         <v>58</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="R6" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="T6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -778,25 +1210,31 @@
         <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="O7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="T7" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="U7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -822,28 +1260,31 @@
         <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="U8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -860,37 +1301,37 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P9" t="s">
         <v>46</v>
       </c>
       <c r="Q9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="T9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -907,37 +1348,34 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -963,28 +1401,31 @@
         <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="O11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q11" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="U11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1010,28 +1451,31 @@
         <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="U12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -1057,28 +1501,28 @@
         <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M13" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="O13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P13" t="s">
         <v>46</v>
       </c>
       <c r="Q13" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="R13" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="T13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -1104,28 +1548,28 @@
         <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="O14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P14" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="Q14" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="R14" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -1151,28 +1595,31 @@
         <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M15" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="N15" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="O15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P15" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q15" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="T15" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="U15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -1198,28 +1645,31 @@
         <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T16" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="U16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17">
@@ -1236,37 +1686,37 @@
         <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="N17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="O17">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="P17" t="s">
         <v>46</v>
       </c>
       <c r="Q17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="R17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="T17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -1283,37 +1733,34 @@
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="L18" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="M18" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="N18" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="O18">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="P18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="R18" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -1339,28 +1786,31 @@
         <v>27</v>
       </c>
       <c r="L19" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M19" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="N19" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="O19">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q19" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="R19" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="T19" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="U19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -1386,28 +1836,31 @@
         <v>27</v>
       </c>
       <c r="L20" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N20" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P20" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q20" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R20" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T20" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="U20" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1433,28 +1886,28 @@
         <v>27</v>
       </c>
       <c r="L21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q21" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="R21" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="T21" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1480,28 +1933,28 @@
         <v>27</v>
       </c>
       <c r="L22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" t="s">
         <v>78</v>
       </c>
-      <c r="M22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" t="s">
-        <v>30</v>
-      </c>
       <c r="O22">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="Q22" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="R22" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -1527,22 +1980,22 @@
         <v>27</v>
       </c>
       <c r="L23" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M23" t="s">
         <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="O23">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P23" t="s">
         <v>31</v>
       </c>
       <c r="Q23" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="R23" t="s">
         <v>33</v>
@@ -1550,6 +2003,9 @@
       <c r="T23" t="s">
         <v>34</v>
       </c>
+      <c r="U23" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1574,28 +2030,31 @@
         <v>27</v>
       </c>
       <c r="L24" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N24" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="O24">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="P24" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q24" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="R24" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T24" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="U24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25">
@@ -1612,37 +2071,37 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="M25" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O25">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P25" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q25" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="R25" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="T25" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1659,37 +2118,37 @@
         <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M26" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="N26" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>79</v>
+      </c>
+      <c r="R26" t="s">
         <v>80</v>
       </c>
-      <c r="O26">
-        <v>15</v>
-      </c>
-      <c r="P26" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>81</v>
-      </c>
-      <c r="R26" t="s">
-        <v>33</v>
-      </c>
       <c r="T26" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
@@ -1715,22 +2174,22 @@
         <v>27</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M27" t="s">
         <v>29</v>
       </c>
       <c r="N27" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="O27">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="P27" t="s">
         <v>31</v>
       </c>
       <c r="Q27" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="R27" t="s">
         <v>33</v>
@@ -1738,6 +2197,9 @@
       <c r="T27" t="s">
         <v>34</v>
       </c>
+      <c r="U27" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1762,28 +2224,31 @@
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M28" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N28" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="O28">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="P28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q28" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="R28" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T28" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="U28" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -1809,28 +2274,28 @@
         <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N29" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="O29">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P29" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q29" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="R29" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="T29" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
@@ -1856,28 +2321,28 @@
         <v>27</v>
       </c>
       <c r="L30" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M30" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="N30" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30">
+        <v>9</v>
+      </c>
+      <c r="P30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>79</v>
+      </c>
+      <c r="R30" t="s">
         <v>80</v>
       </c>
-      <c r="O30">
-        <v>19</v>
-      </c>
-      <c r="P30" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>81</v>
-      </c>
-      <c r="R30" t="s">
-        <v>33</v>
-      </c>
       <c r="T30" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31">
@@ -1903,22 +2368,22 @@
         <v>27</v>
       </c>
       <c r="L31" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M31" t="s">
         <v>29</v>
       </c>
       <c r="N31" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="O31">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P31" t="s">
         <v>31</v>
       </c>
       <c r="Q31" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="R31" t="s">
         <v>33</v>
@@ -1926,6 +2391,9 @@
       <c r="T31" t="s">
         <v>34</v>
       </c>
+      <c r="U31" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1950,28 +2418,31 @@
         <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="M32" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N32" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="O32">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="P32" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q32" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="R32" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T32" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="U32" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -1988,37 +2459,37 @@
         <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="J33" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="L33" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M33" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N33" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O33">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="P33" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q33" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="R33" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="T33" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -2035,37 +2506,37 @@
         <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I34" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="J34" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="L34" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M34" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="N34" t="s">
+        <v>78</v>
+      </c>
+      <c r="O34">
+        <v>8</v>
+      </c>
+      <c r="P34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>79</v>
+      </c>
+      <c r="R34" t="s">
         <v>80</v>
       </c>
-      <c r="O34">
-        <v>23</v>
-      </c>
-      <c r="P34" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>81</v>
-      </c>
-      <c r="R34" t="s">
-        <v>33</v>
-      </c>
       <c r="T34" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
@@ -2091,22 +2562,22 @@
         <v>27</v>
       </c>
       <c r="L35" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M35" t="s">
         <v>29</v>
       </c>
       <c r="N35" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="O35">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="P35" t="s">
         <v>31</v>
       </c>
       <c r="Q35" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="R35" t="s">
         <v>33</v>
@@ -2114,6 +2585,9 @@
       <c r="T35" t="s">
         <v>34</v>
       </c>
+      <c r="U35" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -2138,28 +2612,31 @@
         <v>27</v>
       </c>
       <c r="L36" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M36" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N36" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="O36">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="P36" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q36" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="R36" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T36" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="U36" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -2185,28 +2662,28 @@
         <v>27</v>
       </c>
       <c r="L37" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M37" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N37" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="O37">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="P37" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q37" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="R37" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="T37" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -2232,28 +2709,28 @@
         <v>27</v>
       </c>
       <c r="L38" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M38" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="N38" t="s">
+        <v>78</v>
+      </c>
+      <c r="O38">
+        <v>10</v>
+      </c>
+      <c r="P38" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>79</v>
+      </c>
+      <c r="R38" t="s">
         <v>80</v>
       </c>
-      <c r="O38">
-        <v>27</v>
-      </c>
-      <c r="P38" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>81</v>
-      </c>
-      <c r="R38" t="s">
-        <v>33</v>
-      </c>
       <c r="T38" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39">
@@ -2279,22 +2756,22 @@
         <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M39" t="s">
         <v>29</v>
       </c>
       <c r="N39" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="O39">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="P39" t="s">
         <v>31</v>
       </c>
       <c r="Q39" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="R39" t="s">
         <v>33</v>
@@ -2302,6 +2779,9 @@
       <c r="T39" t="s">
         <v>34</v>
       </c>
+      <c r="U39" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -2326,28 +2806,31 @@
         <v>27</v>
       </c>
       <c r="L40" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M40" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N40" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="O40">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P40" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q40" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="R40" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T40" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="U40" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41">
@@ -2364,37 +2847,37 @@
         <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I41" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="J41" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="L41" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M41" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N41" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O41">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="P41" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q41" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="R41" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="T41" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
@@ -2411,25 +2894,37 @@
         <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="I42" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="J42" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="L42" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M42" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="N42" t="s">
-        <v>105</v>
+        <v>78</v>
+      </c>
+      <c r="O42">
+        <v>9</v>
+      </c>
+      <c r="P42" t="s">
+        <v>52</v>
       </c>
       <c r="Q42" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="R42" t="s">
+        <v>80</v>
+      </c>
+      <c r="T42" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43">
@@ -2446,25 +2941,40 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="I43" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="J43" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="L43" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M43" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="N43" t="s">
-        <v>108</v>
+        <v>30</v>
+      </c>
+      <c r="O43">
+        <v>11</v>
+      </c>
+      <c r="P43" t="s">
+        <v>31</v>
       </c>
       <c r="Q43" t="s">
-        <v>101</v>
+        <v>32</v>
+      </c>
+      <c r="R43" t="s">
+        <v>33</v>
+      </c>
+      <c r="T43" t="s">
+        <v>34</v>
+      </c>
+      <c r="U43" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="44">
@@ -2481,25 +2991,40 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="J44" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="L44" t="s">
         <v>110</v>
       </c>
       <c r="M44" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="N44" t="s">
-        <v>111</v>
+        <v>38</v>
+      </c>
+      <c r="O44">
+        <v>11</v>
+      </c>
+      <c r="P44" t="s">
+        <v>39</v>
       </c>
       <c r="Q44" t="s">
-        <v>101</v>
+        <v>40</v>
+      </c>
+      <c r="R44" t="s">
+        <v>41</v>
+      </c>
+      <c r="T44" t="s">
+        <v>42</v>
+      </c>
+      <c r="U44" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="45">
@@ -2516,25 +3041,37 @@
         <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="I45" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="L45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M45" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="N45" t="s">
-        <v>114</v>
+        <v>45</v>
+      </c>
+      <c r="O45">
+        <v>6</v>
+      </c>
+      <c r="P45" t="s">
+        <v>46</v>
       </c>
       <c r="Q45" t="s">
-        <v>101</v>
+        <v>47</v>
+      </c>
+      <c r="R45" t="s">
+        <v>48</v>
+      </c>
+      <c r="T45" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="46">
@@ -2551,25 +3088,37 @@
         <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="I46" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="J46" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="L46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M46" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="N46" t="s">
-        <v>117</v>
+        <v>78</v>
+      </c>
+      <c r="O46">
+        <v>18</v>
+      </c>
+      <c r="P46" t="s">
+        <v>52</v>
       </c>
       <c r="Q46" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="R46" t="s">
+        <v>80</v>
+      </c>
+      <c r="T46" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="47">
@@ -2586,31 +3135,4994 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s">
+        <v>113</v>
+      </c>
+      <c r="M47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" t="s">
+        <v>30</v>
+      </c>
+      <c r="O47">
+        <v>12</v>
+      </c>
+      <c r="P47" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>32</v>
+      </c>
+      <c r="R47" t="s">
+        <v>33</v>
+      </c>
+      <c r="T47" t="s">
+        <v>34</v>
+      </c>
+      <c r="U47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
+        <v>114</v>
+      </c>
+      <c r="M48" t="s">
+        <v>37</v>
+      </c>
+      <c r="N48" t="s">
+        <v>38</v>
+      </c>
+      <c r="O48">
+        <v>12</v>
+      </c>
+      <c r="P48" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s">
+        <v>41</v>
+      </c>
+      <c r="T48" t="s">
+        <v>42</v>
+      </c>
+      <c r="U48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" t="s">
+        <v>67</v>
+      </c>
+      <c r="J49" t="s">
+        <v>68</v>
+      </c>
+      <c r="L49" t="s">
+        <v>115</v>
+      </c>
+      <c r="M49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N49" t="s">
+        <v>70</v>
+      </c>
+      <c r="O49">
+        <v>6</v>
+      </c>
+      <c r="P49" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>71</v>
+      </c>
+      <c r="R49" t="s">
+        <v>48</v>
+      </c>
+      <c r="T49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L50" t="s">
+        <v>116</v>
+      </c>
+      <c r="M50" t="s">
+        <v>77</v>
+      </c>
+      <c r="N50" t="s">
+        <v>78</v>
+      </c>
+      <c r="O50">
+        <v>10</v>
+      </c>
+      <c r="P50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>79</v>
+      </c>
+      <c r="R50" t="s">
+        <v>80</v>
+      </c>
+      <c r="T50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" t="s">
+        <v>117</v>
+      </c>
+      <c r="M51" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" t="s">
+        <v>30</v>
+      </c>
+      <c r="O51">
+        <v>13</v>
+      </c>
+      <c r="P51" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>32</v>
+      </c>
+      <c r="R51" t="s">
+        <v>33</v>
+      </c>
+      <c r="T51" t="s">
+        <v>34</v>
+      </c>
+      <c r="U51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" t="s">
+        <v>118</v>
+      </c>
+      <c r="M52" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" t="s">
+        <v>38</v>
+      </c>
+      <c r="O52">
+        <v>13</v>
+      </c>
+      <c r="P52" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>40</v>
+      </c>
+      <c r="R52" t="s">
+        <v>41</v>
+      </c>
+      <c r="T52" t="s">
+        <v>42</v>
+      </c>
+      <c r="U52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" t="s">
+        <v>119</v>
+      </c>
+      <c r="M53" t="s">
+        <v>44</v>
+      </c>
+      <c r="N53" t="s">
+        <v>45</v>
+      </c>
+      <c r="O53">
+        <v>7</v>
+      </c>
+      <c r="P53" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>47</v>
+      </c>
+      <c r="R53" t="s">
+        <v>48</v>
+      </c>
+      <c r="T53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" t="s">
+        <v>120</v>
+      </c>
+      <c r="M54" t="s">
+        <v>77</v>
+      </c>
+      <c r="N54" t="s">
+        <v>78</v>
+      </c>
+      <c r="O54">
+        <v>19</v>
+      </c>
+      <c r="P54" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>79</v>
+      </c>
+      <c r="R54" t="s">
+        <v>80</v>
+      </c>
+      <c r="T54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" t="s">
+        <v>121</v>
+      </c>
+      <c r="M55" t="s">
+        <v>29</v>
+      </c>
+      <c r="N55" t="s">
+        <v>30</v>
+      </c>
+      <c r="O55">
+        <v>14</v>
+      </c>
+      <c r="P55" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>32</v>
+      </c>
+      <c r="R55" t="s">
+        <v>33</v>
+      </c>
+      <c r="T55" t="s">
+        <v>34</v>
+      </c>
+      <c r="U55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" t="s">
+        <v>122</v>
+      </c>
+      <c r="M56" t="s">
+        <v>37</v>
+      </c>
+      <c r="N56" t="s">
+        <v>38</v>
+      </c>
+      <c r="O56">
+        <v>14</v>
+      </c>
+      <c r="P56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>40</v>
+      </c>
+      <c r="R56" t="s">
+        <v>41</v>
+      </c>
+      <c r="T56" t="s">
+        <v>42</v>
+      </c>
+      <c r="U56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s">
+        <v>66</v>
+      </c>
+      <c r="I57" t="s">
+        <v>67</v>
+      </c>
+      <c r="J57" t="s">
+        <v>68</v>
+      </c>
+      <c r="L57" t="s">
+        <v>123</v>
+      </c>
+      <c r="M57" t="s">
+        <v>44</v>
+      </c>
+      <c r="N57" t="s">
+        <v>70</v>
+      </c>
+      <c r="O57">
+        <v>7</v>
+      </c>
+      <c r="P57" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>71</v>
+      </c>
+      <c r="R57" t="s">
+        <v>48</v>
+      </c>
+      <c r="T57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" t="s">
+        <v>67</v>
+      </c>
+      <c r="J58" t="s">
+        <v>68</v>
+      </c>
+      <c r="L58" t="s">
+        <v>124</v>
+      </c>
+      <c r="M58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N58" t="s">
+        <v>78</v>
+      </c>
+      <c r="O58">
+        <v>18</v>
+      </c>
+      <c r="P58" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>79</v>
+      </c>
+      <c r="R58" t="s">
+        <v>80</v>
+      </c>
+      <c r="T58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" t="s">
+        <v>125</v>
+      </c>
+      <c r="M59" t="s">
+        <v>29</v>
+      </c>
+      <c r="N59" t="s">
+        <v>30</v>
+      </c>
+      <c r="O59">
+        <v>15</v>
+      </c>
+      <c r="P59" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>32</v>
+      </c>
+      <c r="R59" t="s">
+        <v>33</v>
+      </c>
+      <c r="T59" t="s">
+        <v>34</v>
+      </c>
+      <c r="U59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" t="s">
+        <v>126</v>
+      </c>
+      <c r="M60" t="s">
+        <v>37</v>
+      </c>
+      <c r="N60" t="s">
+        <v>38</v>
+      </c>
+      <c r="O60">
+        <v>15</v>
+      </c>
+      <c r="P60" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>40</v>
+      </c>
+      <c r="R60" t="s">
+        <v>41</v>
+      </c>
+      <c r="T60" t="s">
+        <v>42</v>
+      </c>
+      <c r="U60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
+      <c r="L61" t="s">
+        <v>127</v>
+      </c>
+      <c r="M61" t="s">
+        <v>44</v>
+      </c>
+      <c r="N61" t="s">
+        <v>45</v>
+      </c>
+      <c r="O61">
+        <v>8</v>
+      </c>
+      <c r="P61" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>47</v>
+      </c>
+      <c r="R61" t="s">
+        <v>48</v>
+      </c>
+      <c r="T61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" t="s">
+        <v>128</v>
+      </c>
+      <c r="M62" t="s">
+        <v>77</v>
+      </c>
+      <c r="N62" t="s">
+        <v>129</v>
+      </c>
+      <c r="O62">
+        <v>25</v>
+      </c>
+      <c r="P62" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>130</v>
+      </c>
+      <c r="R62" t="s">
+        <v>80</v>
+      </c>
+      <c r="T62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" t="s">
+        <v>131</v>
+      </c>
+      <c r="M63" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" t="s">
+        <v>30</v>
+      </c>
+      <c r="O63">
+        <v>16</v>
+      </c>
+      <c r="P63" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>32</v>
+      </c>
+      <c r="R63" t="s">
+        <v>33</v>
+      </c>
+      <c r="T63" t="s">
+        <v>34</v>
+      </c>
+      <c r="U63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" t="s">
+        <v>132</v>
+      </c>
+      <c r="M64" t="s">
+        <v>37</v>
+      </c>
+      <c r="N64" t="s">
+        <v>38</v>
+      </c>
+      <c r="O64">
+        <v>16</v>
+      </c>
+      <c r="P64" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s">
+        <v>41</v>
+      </c>
+      <c r="T64" t="s">
+        <v>42</v>
+      </c>
+      <c r="U64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s">
+        <v>66</v>
+      </c>
+      <c r="I65" t="s">
+        <v>67</v>
+      </c>
+      <c r="J65" t="s">
+        <v>68</v>
+      </c>
+      <c r="L65" t="s">
+        <v>133</v>
+      </c>
+      <c r="M65" t="s">
+        <v>44</v>
+      </c>
+      <c r="N65" t="s">
+        <v>70</v>
+      </c>
+      <c r="O65">
+        <v>8</v>
+      </c>
+      <c r="P65" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>71</v>
+      </c>
+      <c r="R65" t="s">
+        <v>48</v>
+      </c>
+      <c r="T65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s">
+        <v>66</v>
+      </c>
+      <c r="I66" t="s">
+        <v>67</v>
+      </c>
+      <c r="J66" t="s">
+        <v>68</v>
+      </c>
+      <c r="L66" t="s">
+        <v>134</v>
+      </c>
+      <c r="M66" t="s">
+        <v>77</v>
+      </c>
+      <c r="N66" t="s">
+        <v>78</v>
+      </c>
+      <c r="O66">
+        <v>19</v>
+      </c>
+      <c r="P66" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>79</v>
+      </c>
+      <c r="R66" t="s">
+        <v>80</v>
+      </c>
+      <c r="T66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" t="s">
+        <v>135</v>
+      </c>
+      <c r="M67" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" t="s">
+        <v>30</v>
+      </c>
+      <c r="O67">
+        <v>17</v>
+      </c>
+      <c r="P67" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>32</v>
+      </c>
+      <c r="R67" t="s">
+        <v>33</v>
+      </c>
+      <c r="T67" t="s">
+        <v>34</v>
+      </c>
+      <c r="U67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68" t="s">
+        <v>27</v>
+      </c>
+      <c r="L68" t="s">
+        <v>136</v>
+      </c>
+      <c r="M68" t="s">
+        <v>37</v>
+      </c>
+      <c r="N68" t="s">
+        <v>38</v>
+      </c>
+      <c r="O68">
+        <v>17</v>
+      </c>
+      <c r="P68" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s">
+        <v>41</v>
+      </c>
+      <c r="T68" t="s">
+        <v>42</v>
+      </c>
+      <c r="U68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" t="s">
+        <v>27</v>
+      </c>
+      <c r="L69" t="s">
+        <v>137</v>
+      </c>
+      <c r="M69" t="s">
+        <v>44</v>
+      </c>
+      <c r="N69" t="s">
+        <v>45</v>
+      </c>
+      <c r="O69">
+        <v>9</v>
+      </c>
+      <c r="P69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>47</v>
+      </c>
+      <c r="R69" t="s">
+        <v>48</v>
+      </c>
+      <c r="T69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" t="s">
+        <v>27</v>
+      </c>
+      <c r="L70" t="s">
+        <v>138</v>
+      </c>
+      <c r="M70" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" t="s">
+        <v>30</v>
+      </c>
+      <c r="O70">
+        <v>18</v>
+      </c>
+      <c r="P70" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>32</v>
+      </c>
+      <c r="R70" t="s">
+        <v>33</v>
+      </c>
+      <c r="T70" t="s">
+        <v>34</v>
+      </c>
+      <c r="U70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" t="s">
+        <v>27</v>
+      </c>
+      <c r="L71" t="s">
+        <v>139</v>
+      </c>
+      <c r="M71" t="s">
+        <v>37</v>
+      </c>
+      <c r="N71" t="s">
+        <v>38</v>
+      </c>
+      <c r="O71">
+        <v>18</v>
+      </c>
+      <c r="P71" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s">
+        <v>41</v>
+      </c>
+      <c r="T71" t="s">
+        <v>42</v>
+      </c>
+      <c r="U71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I72" t="s">
+        <v>67</v>
+      </c>
+      <c r="J72" t="s">
+        <v>68</v>
+      </c>
+      <c r="L72" t="s">
+        <v>140</v>
+      </c>
+      <c r="M72" t="s">
+        <v>44</v>
+      </c>
+      <c r="N72" t="s">
+        <v>70</v>
+      </c>
+      <c r="O72">
+        <v>9</v>
+      </c>
+      <c r="P72" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>71</v>
+      </c>
+      <c r="R72" t="s">
+        <v>48</v>
+      </c>
+      <c r="T72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s">
+        <v>26</v>
+      </c>
+      <c r="J73" t="s">
+        <v>27</v>
+      </c>
+      <c r="L73" t="s">
+        <v>141</v>
+      </c>
+      <c r="M73" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" t="s">
+        <v>30</v>
+      </c>
+      <c r="O73">
+        <v>19</v>
+      </c>
+      <c r="P73" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>32</v>
+      </c>
+      <c r="R73" t="s">
+        <v>33</v>
+      </c>
+      <c r="T73" t="s">
+        <v>34</v>
+      </c>
+      <c r="U73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" t="s">
+        <v>27</v>
+      </c>
+      <c r="L74" t="s">
+        <v>142</v>
+      </c>
+      <c r="M74" t="s">
+        <v>37</v>
+      </c>
+      <c r="N74" t="s">
+        <v>38</v>
+      </c>
+      <c r="O74">
+        <v>19</v>
+      </c>
+      <c r="P74" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>40</v>
+      </c>
+      <c r="R74" t="s">
+        <v>41</v>
+      </c>
+      <c r="T74" t="s">
+        <v>42</v>
+      </c>
+      <c r="U74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L75" t="s">
+        <v>143</v>
+      </c>
+      <c r="M75" t="s">
+        <v>44</v>
+      </c>
+      <c r="N75" t="s">
+        <v>45</v>
+      </c>
+      <c r="O75">
+        <v>10</v>
+      </c>
+      <c r="P75" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>47</v>
+      </c>
+      <c r="R75" t="s">
+        <v>48</v>
+      </c>
+      <c r="T75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" t="s">
+        <v>144</v>
+      </c>
+      <c r="M76" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" t="s">
+        <v>30</v>
+      </c>
+      <c r="O76">
+        <v>20</v>
+      </c>
+      <c r="P76" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>32</v>
+      </c>
+      <c r="R76" t="s">
+        <v>33</v>
+      </c>
+      <c r="T76" t="s">
+        <v>34</v>
+      </c>
+      <c r="U76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" t="s">
+        <v>27</v>
+      </c>
+      <c r="L77" t="s">
+        <v>145</v>
+      </c>
+      <c r="M77" t="s">
+        <v>37</v>
+      </c>
+      <c r="N77" t="s">
+        <v>38</v>
+      </c>
+      <c r="O77">
+        <v>20</v>
+      </c>
+      <c r="P77" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>40</v>
+      </c>
+      <c r="R77" t="s">
+        <v>41</v>
+      </c>
+      <c r="T77" t="s">
+        <v>42</v>
+      </c>
+      <c r="U77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" t="s">
+        <v>66</v>
+      </c>
+      <c r="I78" t="s">
+        <v>67</v>
+      </c>
+      <c r="J78" t="s">
+        <v>68</v>
+      </c>
+      <c r="L78" t="s">
+        <v>146</v>
+      </c>
+      <c r="M78" t="s">
+        <v>44</v>
+      </c>
+      <c r="N78" t="s">
+        <v>70</v>
+      </c>
+      <c r="O78">
+        <v>10</v>
+      </c>
+      <c r="P78" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>71</v>
+      </c>
+      <c r="R78" t="s">
+        <v>48</v>
+      </c>
+      <c r="T78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" t="s">
+        <v>27</v>
+      </c>
+      <c r="L79" t="s">
+        <v>147</v>
+      </c>
+      <c r="M79" t="s">
+        <v>29</v>
+      </c>
+      <c r="N79" t="s">
+        <v>30</v>
+      </c>
+      <c r="O79">
+        <v>21</v>
+      </c>
+      <c r="P79" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>32</v>
+      </c>
+      <c r="R79" t="s">
+        <v>33</v>
+      </c>
+      <c r="T79" t="s">
+        <v>34</v>
+      </c>
+      <c r="U79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" t="s">
+        <v>27</v>
+      </c>
+      <c r="L80" t="s">
+        <v>148</v>
+      </c>
+      <c r="M80" t="s">
+        <v>37</v>
+      </c>
+      <c r="N80" t="s">
+        <v>38</v>
+      </c>
+      <c r="O80">
+        <v>21</v>
+      </c>
+      <c r="P80" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s">
+        <v>41</v>
+      </c>
+      <c r="T80" t="s">
+        <v>42</v>
+      </c>
+      <c r="U80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" t="s">
+        <v>27</v>
+      </c>
+      <c r="L81" t="s">
+        <v>149</v>
+      </c>
+      <c r="M81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N81" t="s">
+        <v>45</v>
+      </c>
+      <c r="O81">
+        <v>11</v>
+      </c>
+      <c r="P81" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>47</v>
+      </c>
+      <c r="R81" t="s">
+        <v>48</v>
+      </c>
+      <c r="T81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" t="s">
+        <v>26</v>
+      </c>
+      <c r="J82" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" t="s">
+        <v>150</v>
+      </c>
+      <c r="M82" t="s">
+        <v>29</v>
+      </c>
+      <c r="N82" t="s">
+        <v>30</v>
+      </c>
+      <c r="O82">
+        <v>22</v>
+      </c>
+      <c r="P82" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>32</v>
+      </c>
+      <c r="R82" t="s">
+        <v>33</v>
+      </c>
+      <c r="T82" t="s">
+        <v>34</v>
+      </c>
+      <c r="U82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" t="s">
+        <v>26</v>
+      </c>
+      <c r="J83" t="s">
+        <v>27</v>
+      </c>
+      <c r="L83" t="s">
+        <v>151</v>
+      </c>
+      <c r="M83" t="s">
+        <v>37</v>
+      </c>
+      <c r="N83" t="s">
+        <v>38</v>
+      </c>
+      <c r="O83">
+        <v>22</v>
+      </c>
+      <c r="P83" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>40</v>
+      </c>
+      <c r="R83" t="s">
+        <v>41</v>
+      </c>
+      <c r="T83" t="s">
+        <v>42</v>
+      </c>
+      <c r="U83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s">
+        <v>66</v>
+      </c>
+      <c r="I84" t="s">
+        <v>67</v>
+      </c>
+      <c r="J84" t="s">
+        <v>68</v>
+      </c>
+      <c r="L84" t="s">
+        <v>152</v>
+      </c>
+      <c r="M84" t="s">
+        <v>44</v>
+      </c>
+      <c r="N84" t="s">
+        <v>70</v>
+      </c>
+      <c r="O84">
+        <v>11</v>
+      </c>
+      <c r="P84" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>71</v>
+      </c>
+      <c r="R84" t="s">
+        <v>48</v>
+      </c>
+      <c r="T84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" t="s">
+        <v>26</v>
+      </c>
+      <c r="J85" t="s">
+        <v>27</v>
+      </c>
+      <c r="L85" t="s">
+        <v>153</v>
+      </c>
+      <c r="M85" t="s">
+        <v>29</v>
+      </c>
+      <c r="N85" t="s">
+        <v>30</v>
+      </c>
+      <c r="O85">
+        <v>23</v>
+      </c>
+      <c r="P85" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>32</v>
+      </c>
+      <c r="R85" t="s">
+        <v>33</v>
+      </c>
+      <c r="T85" t="s">
+        <v>34</v>
+      </c>
+      <c r="U85" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" t="s">
+        <v>27</v>
+      </c>
+      <c r="L86" t="s">
+        <v>154</v>
+      </c>
+      <c r="M86" t="s">
+        <v>37</v>
+      </c>
+      <c r="N86" t="s">
+        <v>38</v>
+      </c>
+      <c r="O86">
+        <v>23</v>
+      </c>
+      <c r="P86" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>40</v>
+      </c>
+      <c r="R86" t="s">
+        <v>41</v>
+      </c>
+      <c r="T86" t="s">
+        <v>42</v>
+      </c>
+      <c r="U86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" t="s">
+        <v>27</v>
+      </c>
+      <c r="L87" t="s">
+        <v>155</v>
+      </c>
+      <c r="M87" t="s">
+        <v>44</v>
+      </c>
+      <c r="N87" t="s">
+        <v>156</v>
+      </c>
+      <c r="O87">
+        <v>12</v>
+      </c>
+      <c r="P87" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>157</v>
+      </c>
+      <c r="R87" t="s">
+        <v>48</v>
+      </c>
+      <c r="T87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" t="s">
+        <v>26</v>
+      </c>
+      <c r="J88" t="s">
+        <v>27</v>
+      </c>
+      <c r="L88" t="s">
+        <v>158</v>
+      </c>
+      <c r="M88" t="s">
+        <v>29</v>
+      </c>
+      <c r="N88" t="s">
+        <v>30</v>
+      </c>
+      <c r="O88">
+        <v>24</v>
+      </c>
+      <c r="P88" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>32</v>
+      </c>
+      <c r="R88" t="s">
+        <v>33</v>
+      </c>
+      <c r="T88" t="s">
+        <v>34</v>
+      </c>
+      <c r="U88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" t="s">
+        <v>27</v>
+      </c>
+      <c r="L89" t="s">
+        <v>159</v>
+      </c>
+      <c r="M89" t="s">
+        <v>37</v>
+      </c>
+      <c r="N89" t="s">
+        <v>38</v>
+      </c>
+      <c r="O89">
+        <v>24</v>
+      </c>
+      <c r="P89" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>40</v>
+      </c>
+      <c r="R89" t="s">
+        <v>41</v>
+      </c>
+      <c r="T89" t="s">
+        <v>42</v>
+      </c>
+      <c r="U89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" t="s">
+        <v>66</v>
+      </c>
+      <c r="I90" t="s">
+        <v>67</v>
+      </c>
+      <c r="J90" t="s">
+        <v>68</v>
+      </c>
+      <c r="L90" t="s">
+        <v>160</v>
+      </c>
+      <c r="M90" t="s">
+        <v>44</v>
+      </c>
+      <c r="N90" t="s">
+        <v>161</v>
+      </c>
+      <c r="O90">
+        <v>12</v>
+      </c>
+      <c r="P90" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>162</v>
+      </c>
+      <c r="R90" t="s">
+        <v>48</v>
+      </c>
+      <c r="T90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" t="s">
+        <v>26</v>
+      </c>
+      <c r="J91" t="s">
+        <v>27</v>
+      </c>
+      <c r="L91" t="s">
+        <v>163</v>
+      </c>
+      <c r="M91" t="s">
+        <v>29</v>
+      </c>
+      <c r="N91" t="s">
+        <v>30</v>
+      </c>
+      <c r="O91">
+        <v>25</v>
+      </c>
+      <c r="P91" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>32</v>
+      </c>
+      <c r="R91" t="s">
+        <v>33</v>
+      </c>
+      <c r="T91" t="s">
+        <v>34</v>
+      </c>
+      <c r="U91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" t="s">
+        <v>25</v>
+      </c>
+      <c r="I92" t="s">
+        <v>26</v>
+      </c>
+      <c r="J92" t="s">
+        <v>27</v>
+      </c>
+      <c r="L92" t="s">
+        <v>164</v>
+      </c>
+      <c r="M92" t="s">
+        <v>37</v>
+      </c>
+      <c r="N92" t="s">
+        <v>38</v>
+      </c>
+      <c r="O92">
+        <v>25</v>
+      </c>
+      <c r="P92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>40</v>
+      </c>
+      <c r="R92" t="s">
+        <v>41</v>
+      </c>
+      <c r="T92" t="s">
+        <v>42</v>
+      </c>
+      <c r="U92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" t="s">
+        <v>25</v>
+      </c>
+      <c r="I93" t="s">
+        <v>26</v>
+      </c>
+      <c r="J93" t="s">
+        <v>27</v>
+      </c>
+      <c r="L93" t="s">
+        <v>165</v>
+      </c>
+      <c r="M93" t="s">
+        <v>44</v>
+      </c>
+      <c r="N93" t="s">
+        <v>156</v>
+      </c>
+      <c r="O93">
+        <v>13</v>
+      </c>
+      <c r="P93" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>157</v>
+      </c>
+      <c r="R93" t="s">
+        <v>48</v>
+      </c>
+      <c r="T93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" t="s">
+        <v>25</v>
+      </c>
+      <c r="I94" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" t="s">
+        <v>27</v>
+      </c>
+      <c r="L94" t="s">
+        <v>166</v>
+      </c>
+      <c r="M94" t="s">
+        <v>29</v>
+      </c>
+      <c r="N94" t="s">
+        <v>30</v>
+      </c>
+      <c r="O94">
+        <v>26</v>
+      </c>
+      <c r="P94" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>32</v>
+      </c>
+      <c r="R94" t="s">
+        <v>33</v>
+      </c>
+      <c r="T94" t="s">
+        <v>34</v>
+      </c>
+      <c r="U94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" t="s">
+        <v>25</v>
+      </c>
+      <c r="I95" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" t="s">
+        <v>27</v>
+      </c>
+      <c r="L95" t="s">
+        <v>167</v>
+      </c>
+      <c r="M95" t="s">
+        <v>37</v>
+      </c>
+      <c r="N95" t="s">
+        <v>38</v>
+      </c>
+      <c r="O95">
+        <v>26</v>
+      </c>
+      <c r="P95" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>40</v>
+      </c>
+      <c r="R95" t="s">
+        <v>41</v>
+      </c>
+      <c r="T95" t="s">
+        <v>42</v>
+      </c>
+      <c r="U95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" t="s">
+        <v>66</v>
+      </c>
+      <c r="I96" t="s">
+        <v>67</v>
+      </c>
+      <c r="J96" t="s">
+        <v>68</v>
+      </c>
+      <c r="L96" t="s">
+        <v>168</v>
+      </c>
+      <c r="M96" t="s">
+        <v>44</v>
+      </c>
+      <c r="N96" t="s">
+        <v>161</v>
+      </c>
+      <c r="O96">
+        <v>13</v>
+      </c>
+      <c r="P96" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>162</v>
+      </c>
+      <c r="R96" t="s">
+        <v>48</v>
+      </c>
+      <c r="T96" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" t="s">
+        <v>25</v>
+      </c>
+      <c r="I97" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" t="s">
+        <v>27</v>
+      </c>
+      <c r="L97" t="s">
+        <v>169</v>
+      </c>
+      <c r="M97" t="s">
+        <v>29</v>
+      </c>
+      <c r="N97" t="s">
+        <v>30</v>
+      </c>
+      <c r="O97">
+        <v>27</v>
+      </c>
+      <c r="P97" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>32</v>
+      </c>
+      <c r="R97" t="s">
+        <v>33</v>
+      </c>
+      <c r="T97" t="s">
+        <v>34</v>
+      </c>
+      <c r="U97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" t="s">
+        <v>27</v>
+      </c>
+      <c r="L98" t="s">
+        <v>170</v>
+      </c>
+      <c r="M98" t="s">
+        <v>37</v>
+      </c>
+      <c r="N98" t="s">
+        <v>38</v>
+      </c>
+      <c r="O98">
+        <v>27</v>
+      </c>
+      <c r="P98" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>40</v>
+      </c>
+      <c r="R98" t="s">
+        <v>41</v>
+      </c>
+      <c r="T98" t="s">
+        <v>42</v>
+      </c>
+      <c r="U98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" t="s">
+        <v>27</v>
+      </c>
+      <c r="L99" t="s">
+        <v>171</v>
+      </c>
+      <c r="M99" t="s">
+        <v>44</v>
+      </c>
+      <c r="N99" t="s">
+        <v>156</v>
+      </c>
+      <c r="O99">
+        <v>14</v>
+      </c>
+      <c r="P99" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>157</v>
+      </c>
+      <c r="R99" t="s">
+        <v>48</v>
+      </c>
+      <c r="T99" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" t="s">
+        <v>25</v>
+      </c>
+      <c r="I100" t="s">
+        <v>26</v>
+      </c>
+      <c r="J100" t="s">
+        <v>27</v>
+      </c>
+      <c r="L100" t="s">
+        <v>172</v>
+      </c>
+      <c r="M100" t="s">
+        <v>29</v>
+      </c>
+      <c r="N100" t="s">
+        <v>30</v>
+      </c>
+      <c r="O100">
+        <v>28</v>
+      </c>
+      <c r="P100" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>32</v>
+      </c>
+      <c r="R100" t="s">
+        <v>33</v>
+      </c>
+      <c r="T100" t="s">
+        <v>34</v>
+      </c>
+      <c r="U100" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" t="s">
+        <v>26</v>
+      </c>
+      <c r="J101" t="s">
+        <v>27</v>
+      </c>
+      <c r="L101" t="s">
+        <v>173</v>
+      </c>
+      <c r="M101" t="s">
+        <v>37</v>
+      </c>
+      <c r="N101" t="s">
+        <v>38</v>
+      </c>
+      <c r="O101">
+        <v>28</v>
+      </c>
+      <c r="P101" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>40</v>
+      </c>
+      <c r="R101" t="s">
+        <v>41</v>
+      </c>
+      <c r="T101" t="s">
+        <v>42</v>
+      </c>
+      <c r="U101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" t="s">
+        <v>66</v>
+      </c>
+      <c r="I102" t="s">
+        <v>67</v>
+      </c>
+      <c r="J102" t="s">
+        <v>68</v>
+      </c>
+      <c r="L102" t="s">
+        <v>174</v>
+      </c>
+      <c r="M102" t="s">
+        <v>44</v>
+      </c>
+      <c r="N102" t="s">
+        <v>161</v>
+      </c>
+      <c r="O102">
+        <v>14</v>
+      </c>
+      <c r="P102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>162</v>
+      </c>
+      <c r="R102" t="s">
+        <v>48</v>
+      </c>
+      <c r="T102" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" t="s">
+        <v>26</v>
+      </c>
+      <c r="J103" t="s">
+        <v>27</v>
+      </c>
+      <c r="L103" t="s">
+        <v>175</v>
+      </c>
+      <c r="M103" t="s">
+        <v>29</v>
+      </c>
+      <c r="N103" t="s">
+        <v>30</v>
+      </c>
+      <c r="O103">
+        <v>29</v>
+      </c>
+      <c r="P103" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>32</v>
+      </c>
+      <c r="R103" t="s">
+        <v>33</v>
+      </c>
+      <c r="T103" t="s">
+        <v>34</v>
+      </c>
+      <c r="U103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104" t="s">
+        <v>26</v>
+      </c>
+      <c r="J104" t="s">
+        <v>27</v>
+      </c>
+      <c r="L104" t="s">
+        <v>176</v>
+      </c>
+      <c r="M104" t="s">
+        <v>37</v>
+      </c>
+      <c r="N104" t="s">
+        <v>38</v>
+      </c>
+      <c r="O104">
+        <v>29</v>
+      </c>
+      <c r="P104" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>40</v>
+      </c>
+      <c r="R104" t="s">
+        <v>41</v>
+      </c>
+      <c r="T104" t="s">
+        <v>42</v>
+      </c>
+      <c r="U104" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" t="s">
+        <v>27</v>
+      </c>
+      <c r="L105" t="s">
+        <v>177</v>
+      </c>
+      <c r="M105" t="s">
+        <v>44</v>
+      </c>
+      <c r="N105" t="s">
+        <v>156</v>
+      </c>
+      <c r="O105">
+        <v>15</v>
+      </c>
+      <c r="P105" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>157</v>
+      </c>
+      <c r="R105" t="s">
+        <v>48</v>
+      </c>
+      <c r="T105" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" t="s">
+        <v>26</v>
+      </c>
+      <c r="J106" t="s">
+        <v>27</v>
+      </c>
+      <c r="L106" t="s">
+        <v>178</v>
+      </c>
+      <c r="M106" t="s">
+        <v>29</v>
+      </c>
+      <c r="N106" t="s">
+        <v>30</v>
+      </c>
+      <c r="O106">
+        <v>30</v>
+      </c>
+      <c r="P106" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>32</v>
+      </c>
+      <c r="R106" t="s">
+        <v>33</v>
+      </c>
+      <c r="T106" t="s">
+        <v>34</v>
+      </c>
+      <c r="U106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107" t="s">
+        <v>26</v>
+      </c>
+      <c r="J107" t="s">
+        <v>27</v>
+      </c>
+      <c r="L107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M107" t="s">
+        <v>37</v>
+      </c>
+      <c r="N107" t="s">
+        <v>38</v>
+      </c>
+      <c r="O107">
+        <v>30</v>
+      </c>
+      <c r="P107" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>40</v>
+      </c>
+      <c r="R107" t="s">
+        <v>41</v>
+      </c>
+      <c r="T107" t="s">
+        <v>42</v>
+      </c>
+      <c r="U107" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" t="s">
+        <v>66</v>
+      </c>
+      <c r="I108" t="s">
+        <v>67</v>
+      </c>
+      <c r="J108" t="s">
+        <v>68</v>
+      </c>
+      <c r="L108" t="s">
+        <v>180</v>
+      </c>
+      <c r="M108" t="s">
+        <v>44</v>
+      </c>
+      <c r="N108" t="s">
+        <v>161</v>
+      </c>
+      <c r="O108">
+        <v>15</v>
+      </c>
+      <c r="P108" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>162</v>
+      </c>
+      <c r="R108" t="s">
+        <v>48</v>
+      </c>
+      <c r="T108" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" t="s">
+        <v>25</v>
+      </c>
+      <c r="I109" t="s">
+        <v>26</v>
+      </c>
+      <c r="J109" t="s">
+        <v>27</v>
+      </c>
+      <c r="L109" t="s">
+        <v>181</v>
+      </c>
+      <c r="M109" t="s">
+        <v>44</v>
+      </c>
+      <c r="N109" t="s">
+        <v>156</v>
+      </c>
+      <c r="O109">
+        <v>16</v>
+      </c>
+      <c r="P109" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>157</v>
+      </c>
+      <c r="R109" t="s">
+        <v>48</v>
+      </c>
+      <c r="T109" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>24</v>
+      </c>
+      <c r="H110" t="s">
+        <v>66</v>
+      </c>
+      <c r="I110" t="s">
+        <v>67</v>
+      </c>
+      <c r="J110" t="s">
+        <v>68</v>
+      </c>
+      <c r="L110" t="s">
+        <v>182</v>
+      </c>
+      <c r="M110" t="s">
+        <v>44</v>
+      </c>
+      <c r="N110" t="s">
+        <v>161</v>
+      </c>
+      <c r="O110">
+        <v>16</v>
+      </c>
+      <c r="P110" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>162</v>
+      </c>
+      <c r="R110" t="s">
+        <v>48</v>
+      </c>
+      <c r="T110" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" t="s">
+        <v>25</v>
+      </c>
+      <c r="I111" t="s">
+        <v>26</v>
+      </c>
+      <c r="J111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L111" t="s">
+        <v>183</v>
+      </c>
+      <c r="M111" t="s">
+        <v>44</v>
+      </c>
+      <c r="N111" t="s">
+        <v>156</v>
+      </c>
+      <c r="O111">
+        <v>17</v>
+      </c>
+      <c r="P111" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>157</v>
+      </c>
+      <c r="R111" t="s">
+        <v>48</v>
+      </c>
+      <c r="T111" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" t="s">
+        <v>66</v>
+      </c>
+      <c r="I112" t="s">
+        <v>67</v>
+      </c>
+      <c r="J112" t="s">
+        <v>68</v>
+      </c>
+      <c r="L112" t="s">
+        <v>184</v>
+      </c>
+      <c r="M112" t="s">
+        <v>44</v>
+      </c>
+      <c r="N112" t="s">
+        <v>161</v>
+      </c>
+      <c r="O112">
+        <v>17</v>
+      </c>
+      <c r="P112" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>162</v>
+      </c>
+      <c r="R112" t="s">
+        <v>48</v>
+      </c>
+      <c r="T112" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" t="s">
+        <v>25</v>
+      </c>
+      <c r="I113" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" t="s">
+        <v>27</v>
+      </c>
+      <c r="L113" t="s">
+        <v>185</v>
+      </c>
+      <c r="M113" t="s">
+        <v>44</v>
+      </c>
+      <c r="N113" t="s">
+        <v>156</v>
+      </c>
+      <c r="O113">
+        <v>18</v>
+      </c>
+      <c r="P113" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>157</v>
+      </c>
+      <c r="R113" t="s">
+        <v>48</v>
+      </c>
+      <c r="T113" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" t="s">
+        <v>66</v>
+      </c>
+      <c r="I114" t="s">
+        <v>67</v>
+      </c>
+      <c r="J114" t="s">
+        <v>68</v>
+      </c>
+      <c r="L114" t="s">
+        <v>186</v>
+      </c>
+      <c r="M114" t="s">
+        <v>44</v>
+      </c>
+      <c r="N114" t="s">
+        <v>161</v>
+      </c>
+      <c r="O114">
+        <v>18</v>
+      </c>
+      <c r="P114" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>162</v>
+      </c>
+      <c r="R114" t="s">
+        <v>48</v>
+      </c>
+      <c r="T114" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" t="s">
+        <v>25</v>
+      </c>
+      <c r="I115" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" t="s">
+        <v>27</v>
+      </c>
+      <c r="L115" t="s">
+        <v>187</v>
+      </c>
+      <c r="M115" t="s">
+        <v>44</v>
+      </c>
+      <c r="N115" t="s">
+        <v>156</v>
+      </c>
+      <c r="O115">
+        <v>19</v>
+      </c>
+      <c r="P115" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>157</v>
+      </c>
+      <c r="R115" t="s">
+        <v>48</v>
+      </c>
+      <c r="T115" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" t="s">
+        <v>66</v>
+      </c>
+      <c r="I116" t="s">
+        <v>67</v>
+      </c>
+      <c r="J116" t="s">
+        <v>68</v>
+      </c>
+      <c r="L116" t="s">
+        <v>188</v>
+      </c>
+      <c r="M116" t="s">
+        <v>44</v>
+      </c>
+      <c r="N116" t="s">
+        <v>161</v>
+      </c>
+      <c r="O116">
+        <v>19</v>
+      </c>
+      <c r="P116" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>162</v>
+      </c>
+      <c r="R116" t="s">
+        <v>48</v>
+      </c>
+      <c r="T116" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
+        <v>23</v>
+      </c>
+      <c r="G117" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" t="s">
+        <v>25</v>
+      </c>
+      <c r="I117" t="s">
+        <v>26</v>
+      </c>
+      <c r="J117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L117" t="s">
+        <v>189</v>
+      </c>
+      <c r="M117" t="s">
+        <v>44</v>
+      </c>
+      <c r="N117" t="s">
+        <v>156</v>
+      </c>
+      <c r="O117">
+        <v>20</v>
+      </c>
+      <c r="P117" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>157</v>
+      </c>
+      <c r="R117" t="s">
+        <v>48</v>
+      </c>
+      <c r="T117" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" t="s">
+        <v>66</v>
+      </c>
+      <c r="I118" t="s">
+        <v>67</v>
+      </c>
+      <c r="J118" t="s">
+        <v>68</v>
+      </c>
+      <c r="L118" t="s">
+        <v>190</v>
+      </c>
+      <c r="M118" t="s">
+        <v>44</v>
+      </c>
+      <c r="N118" t="s">
+        <v>161</v>
+      </c>
+      <c r="O118">
+        <v>20</v>
+      </c>
+      <c r="P118" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>162</v>
+      </c>
+      <c r="R118" t="s">
+        <v>48</v>
+      </c>
+      <c r="T118" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" t="s">
+        <v>25</v>
+      </c>
+      <c r="I119" t="s">
+        <v>26</v>
+      </c>
+      <c r="J119" t="s">
+        <v>27</v>
+      </c>
+      <c r="L119" t="s">
+        <v>191</v>
+      </c>
+      <c r="M119" t="s">
+        <v>44</v>
+      </c>
+      <c r="N119" t="s">
+        <v>156</v>
+      </c>
+      <c r="O119">
+        <v>21</v>
+      </c>
+      <c r="P119" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>157</v>
+      </c>
+      <c r="R119" t="s">
+        <v>48</v>
+      </c>
+      <c r="T119" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" t="s">
+        <v>23</v>
+      </c>
+      <c r="G120" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" t="s">
+        <v>66</v>
+      </c>
+      <c r="I120" t="s">
+        <v>67</v>
+      </c>
+      <c r="J120" t="s">
+        <v>68</v>
+      </c>
+      <c r="L120" t="s">
+        <v>192</v>
+      </c>
+      <c r="M120" t="s">
+        <v>44</v>
+      </c>
+      <c r="N120" t="s">
+        <v>161</v>
+      </c>
+      <c r="O120">
+        <v>21</v>
+      </c>
+      <c r="P120" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>162</v>
+      </c>
+      <c r="R120" t="s">
+        <v>48</v>
+      </c>
+      <c r="T120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" t="s">
+        <v>25</v>
+      </c>
+      <c r="I121" t="s">
+        <v>26</v>
+      </c>
+      <c r="J121" t="s">
+        <v>27</v>
+      </c>
+      <c r="L121" t="s">
+        <v>193</v>
+      </c>
+      <c r="M121" t="s">
+        <v>44</v>
+      </c>
+      <c r="N121" t="s">
+        <v>156</v>
+      </c>
+      <c r="O121">
+        <v>22</v>
+      </c>
+      <c r="P121" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>157</v>
+      </c>
+      <c r="R121" t="s">
+        <v>48</v>
+      </c>
+      <c r="T121" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" t="s">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s">
+        <v>24</v>
+      </c>
+      <c r="H122" t="s">
+        <v>66</v>
+      </c>
+      <c r="I122" t="s">
+        <v>67</v>
+      </c>
+      <c r="J122" t="s">
+        <v>68</v>
+      </c>
+      <c r="L122" t="s">
+        <v>194</v>
+      </c>
+      <c r="M122" t="s">
+        <v>44</v>
+      </c>
+      <c r="N122" t="s">
+        <v>161</v>
+      </c>
+      <c r="O122">
+        <v>22</v>
+      </c>
+      <c r="P122" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>162</v>
+      </c>
+      <c r="R122" t="s">
+        <v>48</v>
+      </c>
+      <c r="T122" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s">
+        <v>24</v>
+      </c>
+      <c r="H123" t="s">
+        <v>25</v>
+      </c>
+      <c r="I123" t="s">
+        <v>26</v>
+      </c>
+      <c r="J123" t="s">
+        <v>27</v>
+      </c>
+      <c r="L123" t="s">
+        <v>195</v>
+      </c>
+      <c r="M123" t="s">
+        <v>44</v>
+      </c>
+      <c r="N123" t="s">
+        <v>156</v>
+      </c>
+      <c r="O123">
+        <v>23</v>
+      </c>
+      <c r="P123" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>157</v>
+      </c>
+      <c r="R123" t="s">
+        <v>48</v>
+      </c>
+      <c r="T123" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" t="s">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" t="s">
+        <v>66</v>
+      </c>
+      <c r="I124" t="s">
+        <v>67</v>
+      </c>
+      <c r="J124" t="s">
+        <v>68</v>
+      </c>
+      <c r="L124" t="s">
+        <v>196</v>
+      </c>
+      <c r="M124" t="s">
+        <v>44</v>
+      </c>
+      <c r="N124" t="s">
+        <v>161</v>
+      </c>
+      <c r="O124">
+        <v>23</v>
+      </c>
+      <c r="P124" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>162</v>
+      </c>
+      <c r="R124" t="s">
+        <v>48</v>
+      </c>
+      <c r="T124" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" t="s">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s">
+        <v>24</v>
+      </c>
+      <c r="H125" t="s">
+        <v>25</v>
+      </c>
+      <c r="I125" t="s">
+        <v>26</v>
+      </c>
+      <c r="J125" t="s">
+        <v>27</v>
+      </c>
+      <c r="L125" t="s">
+        <v>197</v>
+      </c>
+      <c r="M125" t="s">
+        <v>44</v>
+      </c>
+      <c r="N125" t="s">
+        <v>156</v>
+      </c>
+      <c r="O125">
+        <v>24</v>
+      </c>
+      <c r="P125" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>157</v>
+      </c>
+      <c r="R125" t="s">
+        <v>48</v>
+      </c>
+      <c r="T125" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" t="s">
+        <v>23</v>
+      </c>
+      <c r="G126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" t="s">
+        <v>66</v>
+      </c>
+      <c r="I126" t="s">
+        <v>67</v>
+      </c>
+      <c r="J126" t="s">
+        <v>68</v>
+      </c>
+      <c r="L126" t="s">
+        <v>198</v>
+      </c>
+      <c r="M126" t="s">
+        <v>44</v>
+      </c>
+      <c r="N126" t="s">
+        <v>161</v>
+      </c>
+      <c r="O126">
+        <v>24</v>
+      </c>
+      <c r="P126" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>162</v>
+      </c>
+      <c r="R126" t="s">
+        <v>48</v>
+      </c>
+      <c r="T126" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="G127" t="s">
+        <v>24</v>
+      </c>
+      <c r="H127" t="s">
+        <v>25</v>
+      </c>
+      <c r="I127" t="s">
+        <v>26</v>
+      </c>
+      <c r="J127" t="s">
+        <v>27</v>
+      </c>
+      <c r="L127" t="s">
+        <v>199</v>
+      </c>
+      <c r="M127" t="s">
+        <v>44</v>
+      </c>
+      <c r="N127" t="s">
+        <v>156</v>
+      </c>
+      <c r="O127">
+        <v>25</v>
+      </c>
+      <c r="P127" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>157</v>
+      </c>
+      <c r="R127" t="s">
+        <v>48</v>
+      </c>
+      <c r="T127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" t="s">
+        <v>23</v>
+      </c>
+      <c r="G128" t="s">
+        <v>24</v>
+      </c>
+      <c r="H128" t="s">
+        <v>66</v>
+      </c>
+      <c r="I128" t="s">
+        <v>67</v>
+      </c>
+      <c r="J128" t="s">
+        <v>68</v>
+      </c>
+      <c r="L128" t="s">
+        <v>200</v>
+      </c>
+      <c r="M128" t="s">
+        <v>44</v>
+      </c>
+      <c r="N128" t="s">
+        <v>161</v>
+      </c>
+      <c r="O128">
+        <v>25</v>
+      </c>
+      <c r="P128" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>162</v>
+      </c>
+      <c r="R128" t="s">
+        <v>48</v>
+      </c>
+      <c r="T128" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" t="s">
+        <v>25</v>
+      </c>
+      <c r="I129" t="s">
+        <v>26</v>
+      </c>
+      <c r="J129" t="s">
+        <v>27</v>
+      </c>
+      <c r="L129" t="s">
+        <v>201</v>
+      </c>
+      <c r="M129" t="s">
+        <v>44</v>
+      </c>
+      <c r="N129" t="s">
+        <v>156</v>
+      </c>
+      <c r="O129">
+        <v>26</v>
+      </c>
+      <c r="P129" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>157</v>
+      </c>
+      <c r="R129" t="s">
+        <v>48</v>
+      </c>
+      <c r="T129" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" t="s">
+        <v>23</v>
+      </c>
+      <c r="G130" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" t="s">
+        <v>66</v>
+      </c>
+      <c r="I130" t="s">
+        <v>67</v>
+      </c>
+      <c r="J130" t="s">
+        <v>68</v>
+      </c>
+      <c r="L130" t="s">
+        <v>202</v>
+      </c>
+      <c r="M130" t="s">
+        <v>44</v>
+      </c>
+      <c r="N130" t="s">
+        <v>161</v>
+      </c>
+      <c r="O130">
+        <v>26</v>
+      </c>
+      <c r="P130" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>162</v>
+      </c>
+      <c r="R130" t="s">
+        <v>48</v>
+      </c>
+      <c r="T130" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" t="s">
+        <v>23</v>
+      </c>
+      <c r="G131" t="s">
+        <v>24</v>
+      </c>
+      <c r="H131" t="s">
+        <v>25</v>
+      </c>
+      <c r="I131" t="s">
+        <v>26</v>
+      </c>
+      <c r="J131" t="s">
+        <v>27</v>
+      </c>
+      <c r="L131" t="s">
+        <v>203</v>
+      </c>
+      <c r="M131" t="s">
+        <v>44</v>
+      </c>
+      <c r="N131" t="s">
+        <v>156</v>
+      </c>
+      <c r="O131">
+        <v>27</v>
+      </c>
+      <c r="P131" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>157</v>
+      </c>
+      <c r="R131" t="s">
+        <v>48</v>
+      </c>
+      <c r="T131" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="s">
+        <v>23</v>
+      </c>
+      <c r="G132" t="s">
+        <v>24</v>
+      </c>
+      <c r="H132" t="s">
+        <v>66</v>
+      </c>
+      <c r="I132" t="s">
+        <v>67</v>
+      </c>
+      <c r="J132" t="s">
+        <v>68</v>
+      </c>
+      <c r="L132" t="s">
+        <v>204</v>
+      </c>
+      <c r="M132" t="s">
+        <v>44</v>
+      </c>
+      <c r="N132" t="s">
+        <v>161</v>
+      </c>
+      <c r="O132">
+        <v>27</v>
+      </c>
+      <c r="P132" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>162</v>
+      </c>
+      <c r="R132" t="s">
+        <v>48</v>
+      </c>
+      <c r="T132" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" t="s">
+        <v>23</v>
+      </c>
+      <c r="G133" t="s">
+        <v>24</v>
+      </c>
+      <c r="H133" t="s">
+        <v>25</v>
+      </c>
+      <c r="I133" t="s">
+        <v>26</v>
+      </c>
+      <c r="J133" t="s">
+        <v>27</v>
+      </c>
+      <c r="L133" t="s">
+        <v>205</v>
+      </c>
+      <c r="M133" t="s">
+        <v>44</v>
+      </c>
+      <c r="N133" t="s">
+        <v>156</v>
+      </c>
+      <c r="O133">
+        <v>28</v>
+      </c>
+      <c r="P133" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>157</v>
+      </c>
+      <c r="R133" t="s">
+        <v>48</v>
+      </c>
+      <c r="T133" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>24</v>
+      </c>
+      <c r="H134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I134" t="s">
+        <v>67</v>
+      </c>
+      <c r="J134" t="s">
+        <v>68</v>
+      </c>
+      <c r="L134" t="s">
+        <v>206</v>
+      </c>
+      <c r="M134" t="s">
+        <v>44</v>
+      </c>
+      <c r="N134" t="s">
+        <v>161</v>
+      </c>
+      <c r="O134">
+        <v>28</v>
+      </c>
+      <c r="P134" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>162</v>
+      </c>
+      <c r="R134" t="s">
+        <v>48</v>
+      </c>
+      <c r="T134" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>24</v>
+      </c>
+      <c r="H135" t="s">
+        <v>25</v>
+      </c>
+      <c r="I135" t="s">
+        <v>26</v>
+      </c>
+      <c r="J135" t="s">
+        <v>27</v>
+      </c>
+      <c r="L135" t="s">
+        <v>207</v>
+      </c>
+      <c r="M135" t="s">
+        <v>44</v>
+      </c>
+      <c r="N135" t="s">
+        <v>156</v>
+      </c>
+      <c r="O135">
+        <v>29</v>
+      </c>
+      <c r="P135" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>157</v>
+      </c>
+      <c r="R135" t="s">
+        <v>48</v>
+      </c>
+      <c r="T135" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" t="s">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>24</v>
+      </c>
+      <c r="H136" t="s">
+        <v>66</v>
+      </c>
+      <c r="I136" t="s">
+        <v>67</v>
+      </c>
+      <c r="J136" t="s">
+        <v>68</v>
+      </c>
+      <c r="L136" t="s">
+        <v>208</v>
+      </c>
+      <c r="M136" t="s">
+        <v>44</v>
+      </c>
+      <c r="N136" t="s">
+        <v>161</v>
+      </c>
+      <c r="O136">
+        <v>29</v>
+      </c>
+      <c r="P136" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>162</v>
+      </c>
+      <c r="R136" t="s">
+        <v>48</v>
+      </c>
+      <c r="T136" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" t="s">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>24</v>
+      </c>
+      <c r="H137" t="s">
+        <v>25</v>
+      </c>
+      <c r="I137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J137" t="s">
+        <v>27</v>
+      </c>
+      <c r="L137" t="s">
+        <v>209</v>
+      </c>
+      <c r="M137" t="s">
+        <v>44</v>
+      </c>
+      <c r="N137" t="s">
+        <v>156</v>
+      </c>
+      <c r="O137">
+        <v>30</v>
+      </c>
+      <c r="P137" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>157</v>
+      </c>
+      <c r="R137" t="s">
+        <v>48</v>
+      </c>
+      <c r="T137" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" t="s">
+        <v>66</v>
+      </c>
+      <c r="I138" t="s">
+        <v>67</v>
+      </c>
+      <c r="J138" t="s">
+        <v>68</v>
+      </c>
+      <c r="L138" t="s">
+        <v>210</v>
+      </c>
+      <c r="M138" t="s">
+        <v>44</v>
+      </c>
+      <c r="N138" t="s">
+        <v>161</v>
+      </c>
+      <c r="O138">
+        <v>30</v>
+      </c>
+      <c r="P138" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>162</v>
+      </c>
+      <c r="R138" t="s">
+        <v>48</v>
+      </c>
+      <c r="T138" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" t="s">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>24</v>
+      </c>
+      <c r="H139" t="s">
+        <v>211</v>
+      </c>
+      <c r="I139" t="s">
+        <v>212</v>
+      </c>
+      <c r="J139" t="s">
+        <v>213</v>
+      </c>
+      <c r="L139" t="s">
+        <v>214</v>
+      </c>
+      <c r="M139" t="s">
+        <v>215</v>
+      </c>
+      <c r="N139" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G140" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" t="s">
+        <v>217</v>
+      </c>
+      <c r="I140" t="s">
+        <v>212</v>
+      </c>
+      <c r="J140" t="s">
+        <v>213</v>
+      </c>
+      <c r="L140" t="s">
+        <v>218</v>
+      </c>
+      <c r="M140" t="s">
+        <v>215</v>
+      </c>
+      <c r="N140" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" t="s">
+        <v>23</v>
+      </c>
+      <c r="G141" t="s">
+        <v>24</v>
+      </c>
+      <c r="H141" t="s">
+        <v>220</v>
+      </c>
+      <c r="I141" t="s">
+        <v>212</v>
+      </c>
+      <c r="J141" t="s">
+        <v>213</v>
+      </c>
+      <c r="L141" t="s">
+        <v>221</v>
+      </c>
+      <c r="M141" t="s">
+        <v>215</v>
+      </c>
+      <c r="N141" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" t="s">
+        <v>23</v>
+      </c>
+      <c r="G142" t="s">
+        <v>24</v>
+      </c>
+      <c r="H142" t="s">
+        <v>223</v>
+      </c>
+      <c r="I142" t="s">
+        <v>212</v>
+      </c>
+      <c r="J142" t="s">
+        <v>213</v>
+      </c>
+      <c r="L142" t="s">
+        <v>224</v>
+      </c>
+      <c r="M142" t="s">
+        <v>215</v>
+      </c>
+      <c r="N142" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" t="s">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s">
+        <v>24</v>
+      </c>
+      <c r="H143" t="s">
+        <v>226</v>
+      </c>
+      <c r="I143" t="s">
+        <v>212</v>
+      </c>
+      <c r="J143" t="s">
+        <v>213</v>
+      </c>
+      <c r="L143" t="s">
+        <v>227</v>
+      </c>
+      <c r="M143" t="s">
+        <v>215</v>
+      </c>
+      <c r="N143" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" t="s">
+        <v>23</v>
+      </c>
+      <c r="G144" t="s">
+        <v>24</v>
+      </c>
+      <c r="H144" t="s">
+        <v>229</v>
+      </c>
+      <c r="I144" t="s">
+        <v>230</v>
+      </c>
+      <c r="J144" t="s">
+        <v>213</v>
+      </c>
+      <c r="L144" t="s">
+        <v>231</v>
+      </c>
+      <c r="M144" t="s">
+        <v>215</v>
+      </c>
+      <c r="N144" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" t="s">
+        <v>23</v>
+      </c>
+      <c r="G145" t="s">
+        <v>24</v>
+      </c>
+      <c r="H145" t="s">
+        <v>233</v>
+      </c>
+      <c r="I145" t="s">
+        <v>230</v>
+      </c>
+      <c r="J145" t="s">
+        <v>213</v>
+      </c>
+      <c r="L145" t="s">
+        <v>234</v>
+      </c>
+      <c r="M145" t="s">
+        <v>215</v>
+      </c>
+      <c r="N145" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" t="s">
+        <v>23</v>
+      </c>
+      <c r="G146" t="s">
+        <v>24</v>
+      </c>
+      <c r="H146" t="s">
+        <v>236</v>
+      </c>
+      <c r="I146" t="s">
+        <v>230</v>
+      </c>
+      <c r="J146" t="s">
+        <v>213</v>
+      </c>
+      <c r="L146" t="s">
+        <v>237</v>
+      </c>
+      <c r="M146" t="s">
+        <v>215</v>
+      </c>
+      <c r="N146" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" t="s">
+        <v>23</v>
+      </c>
+      <c r="G147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H147" t="s">
+        <v>239</v>
+      </c>
+      <c r="I147" t="s">
+        <v>230</v>
+      </c>
+      <c r="J147" t="s">
+        <v>213</v>
+      </c>
+      <c r="L147" t="s">
+        <v>240</v>
+      </c>
+      <c r="M147" t="s">
+        <v>215</v>
+      </c>
+      <c r="N147" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" t="s">
+        <v>23</v>
+      </c>
+      <c r="G148" t="s">
+        <v>24</v>
+      </c>
+      <c r="H148" t="s">
+        <v>242</v>
+      </c>
+      <c r="I148" t="s">
+        <v>230</v>
+      </c>
+      <c r="J148" t="s">
+        <v>213</v>
+      </c>
+      <c r="L148" t="s">
+        <v>243</v>
+      </c>
+      <c r="M148" t="s">
+        <v>215</v>
+      </c>
+      <c r="N148" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" t="s">
+        <v>23</v>
+      </c>
+      <c r="G149" t="s">
+        <v>24</v>
+      </c>
+      <c r="H149" t="s">
+        <v>245</v>
+      </c>
+      <c r="I149" t="s">
+        <v>246</v>
+      </c>
+      <c r="J149" t="s">
+        <v>213</v>
+      </c>
+      <c r="L149" t="s">
+        <v>247</v>
+      </c>
+      <c r="M149" t="s">
+        <v>215</v>
+      </c>
+      <c r="N149" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G150" t="s">
+        <v>24</v>
+      </c>
+      <c r="H150" t="s">
+        <v>249</v>
+      </c>
+      <c r="I150" t="s">
+        <v>246</v>
+      </c>
+      <c r="J150" t="s">
+        <v>213</v>
+      </c>
+      <c r="L150" t="s">
+        <v>250</v>
+      </c>
+      <c r="M150" t="s">
+        <v>215</v>
+      </c>
+      <c r="N150" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" t="s">
+        <v>23</v>
+      </c>
+      <c r="G151" t="s">
+        <v>24</v>
+      </c>
+      <c r="H151" t="s">
+        <v>252</v>
+      </c>
+      <c r="I151" t="s">
+        <v>246</v>
+      </c>
+      <c r="J151" t="s">
+        <v>213</v>
+      </c>
+      <c r="L151" t="s">
+        <v>253</v>
+      </c>
+      <c r="M151" t="s">
+        <v>215</v>
+      </c>
+      <c r="N151" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" t="s">
+        <v>23</v>
+      </c>
+      <c r="G152" t="s">
+        <v>24</v>
+      </c>
+      <c r="H152" t="s">
+        <v>255</v>
+      </c>
+      <c r="I152" t="s">
+        <v>246</v>
+      </c>
+      <c r="J152" t="s">
+        <v>213</v>
+      </c>
+      <c r="L152" t="s">
+        <v>256</v>
+      </c>
+      <c r="M152" t="s">
+        <v>215</v>
+      </c>
+      <c r="N152" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" t="s">
+        <v>23</v>
+      </c>
+      <c r="G153" t="s">
+        <v>24</v>
+      </c>
+      <c r="H153" t="s">
+        <v>258</v>
+      </c>
+      <c r="I153" t="s">
+        <v>246</v>
+      </c>
+      <c r="J153" t="s">
+        <v>213</v>
+      </c>
+      <c r="L153" t="s">
+        <v>259</v>
+      </c>
+      <c r="M153" t="s">
+        <v>215</v>
+      </c>
+      <c r="N153" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" t="s">
+        <v>23</v>
+      </c>
+      <c r="G154" t="s">
+        <v>24</v>
+      </c>
+      <c r="H154" t="s">
+        <v>55</v>
+      </c>
+      <c r="I154" t="s">
+        <v>56</v>
+      </c>
+      <c r="J154" t="s">
+        <v>57</v>
+      </c>
+      <c r="L154" t="s">
+        <v>261</v>
+      </c>
+      <c r="M154" t="s">
         <v>50</v>
       </c>
-      <c r="J47" t="s">
-        <v>51</v>
-      </c>
-      <c r="L47" t="s">
-        <v>118</v>
-      </c>
-      <c r="M47" t="s">
-        <v>44</v>
-      </c>
-      <c r="N47" t="s">
-        <v>119</v>
-      </c>
-      <c r="O47">
+      <c r="N154" t="s">
+        <v>262</v>
+      </c>
+      <c r="O154">
         <v>1</v>
       </c>
-      <c r="P47" t="s">
-        <v>120</v>
-      </c>
-      <c r="R47" t="s">
-        <v>121</v>
+      <c r="P154" t="s">
+        <v>263</v>
+      </c>
+      <c r="R154" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t>orch_session_id</t>
   </si>
@@ -81,247 +81,382 @@
     <t>7bab389e-54af-5a13-a39f-079abdc73a48</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Session 05269d28-15ae-5bd6-bd88-f949ccfa52d7 markdown diagnostics not provided (not completed?)</t>
   </si>
   <si>
+    <t>86b4a49e-7378-5159-9f41-b005208c31bc</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/SCREENING_20240307.csv</t>
+  </si>
+  <si>
+    <t>screening_20240307</t>
+  </si>
+  <si>
+    <t>79455500-9915-4c11-936f-5840f098a231</t>
+  </si>
+  <si>
+    <t>Invalid Date</t>
+  </si>
+  <si>
+    <t>Invalid timestamp "01/27/02 15:42" found in RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>01/27/02 15:42</t>
+  </si>
+  <si>
+    <t>Please be sure to provide both a valid date and time (Format: YYYY-MM-DDTHH:MM:SS.000Z).</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>742748e5-f3f9-49ea-9dd5-227aa5383a65</t>
+  </si>
+  <si>
+    <t>Missing Mandatory Value</t>
+  </si>
+  <si>
+    <t>Mandatory field POTENTIAL_NEED_INDICATED is empty</t>
+  </si>
+  <si>
+    <t>POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>Provide a value for POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>REJECTION</t>
+  </si>
+  <si>
+    <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/DEMOGRAPHIC_DATA_20240307.csv</t>
+  </si>
+  <si>
+    <t>admin_demographics_20240307</t>
+  </si>
+  <si>
+    <t>2d8b7e3d-27a7-49bb-9252-9b39c2065df4</t>
+  </si>
+  <si>
+    <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION "unknown" found in SEX_AT_BIRTH_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SEX_AT_BIRTH_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Validate SEX_AT_BIRTH_CODE_DESCRIPTION with sex at birth reference data</t>
+  </si>
+  <si>
+    <t>af71efe7-b375-4057-a1cd-61eb5b6dada5</t>
+  </si>
+  <si>
+    <t>Invalid RACE CODE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Invalid RACE CODE DESCRIPTION "Coquille" found in RACE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>RACE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Coquille</t>
+  </si>
+  <si>
+    <t>Validate RACE CODE DESCRIPTION with race reference data</t>
+  </si>
+  <si>
+    <t>d4b74416-6fdd-4f27-b2d9-794c792bfd6a</t>
+  </si>
+  <si>
+    <t>2108ec21-561f-465b-84fa-64ef33a441ad</t>
+  </si>
+  <si>
+    <t>667cc0df-1825-4e00-9d03-d916e84e89c1</t>
+  </si>
+  <si>
+    <t>cab24d3a-a25a-4635-927e-35c4face85bb</t>
+  </si>
+  <si>
+    <t>Invalid Value</t>
+  </si>
+  <si>
+    <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA')</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Use only allowed values 'Yes','No','NA' in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>ac4e23cc-b7ee-4dbe-8731-efdb07398dba</t>
+  </si>
+  <si>
+    <t>753a48ee-23e2-4212-85fb-4c3eaa376005</t>
+  </si>
+  <si>
+    <t>1af5c88b-638e-402c-86d3-61f045a53daa</t>
+  </si>
+  <si>
+    <t>cbd53a72-c77e-4027-a3d7-66283e2dcedb</t>
+  </si>
+  <si>
+    <t>879099c8-671b-494d-847c-6dc2c5a5b33c</t>
+  </si>
+  <si>
+    <t>aad9ad7f-5cfc-426f-b655-536c4849193d</t>
+  </si>
+  <si>
+    <t>3bf5593e-776b-43dc-b765-55b9d1e9bc2a</t>
+  </si>
+  <si>
+    <t>e28895f8-8fdb-4d8e-a66a-fd85b19d8bff</t>
+  </si>
+  <si>
+    <t>f310e1a3-ed3b-4697-ac7b-cb1c6c1d98c1</t>
+  </si>
+  <si>
+    <t>ba23d574-a236-4018-8d46-9b09fa6c0288</t>
+  </si>
+  <si>
+    <t>fae38e27-c700-400c-83cc-a4ac40244493</t>
+  </si>
+  <si>
+    <t>5eab58b6-7d33-4e09-816f-20b719bd61d5</t>
+  </si>
+  <si>
+    <t>0ff7b2db-6998-47eb-bd2d-a72f98766d33</t>
+  </si>
+  <si>
+    <t>8b5cf674-6a0a-4fd7-96e7-c0e640801894</t>
+  </si>
+  <si>
+    <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>03/05/94 13:08</t>
+  </si>
+  <si>
+    <t>a9d6fa36-725a-425d-b2be-16fdbed731ee</t>
+  </si>
+  <si>
+    <t>52844900-2e98-4624-a79e-fd6729735b4e</t>
+  </si>
+  <si>
+    <t>0cd2d3b4-598c-45af-be14-869b03ddc029</t>
+  </si>
+  <si>
+    <t>7df69de1-5c35-4463-a713-cdb4ee2cd4c1</t>
+  </si>
+  <si>
+    <t>e90e5431-7721-461e-9774-515a02c0b325</t>
+  </si>
+  <si>
+    <t>a8d8737f-7ddf-4f5c-97ed-f9dd3aeb6a8c</t>
+  </si>
+  <si>
+    <t>88ceb88f-f851-4e51-97e9-42622f1c98e6</t>
+  </si>
+  <si>
+    <t>0aaef67b-5dfc-47b9-8bf9-b0dd0786fc62</t>
+  </si>
+  <si>
+    <t>6a008556-e84c-4f8d-811e-6d6f5d7a4aae</t>
+  </si>
+  <si>
+    <t>9add894b-3758-4b2f-9c83-5d2be4368967</t>
+  </si>
+  <si>
+    <t>d38eaf2b-6ad5-427c-8e9d-7318b7088393</t>
+  </si>
+  <si>
+    <t>eb1ac4f9-ff60-4517-a9bd-1242fcf800d5</t>
+  </si>
+  <si>
+    <t>b7a098dc-245b-4c52-b493-ae1c2fe97d36</t>
+  </si>
+  <si>
+    <t>c7883f8d-c753-45ea-9d4f-431b9316d8aa</t>
+  </si>
+  <si>
+    <t>0c994e63-ed24-44c0-85d8-8eacf5fd3a6a</t>
+  </si>
+  <si>
+    <t>6cfea61e-c2c0-49b0-8e4b-3292b43501c6</t>
+  </si>
+  <si>
+    <t>7c3b44ee-ffb2-4bae-8bed-4f9787fbe8c9</t>
+  </si>
+  <si>
+    <t>7fa2fc5a-3d96-4093-9c96-3eb323df7376</t>
+  </si>
+  <si>
+    <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>d70a4700-6b40-52fc-a7a2-69ef0d7f69ff</t>
+  </si>
+  <si>
+    <t>Sheet Missing</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Admin_Demographic' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
+  </si>
+  <si>
+    <t>47277588-99e8-59f5-8384-b24344a86073</t>
+  </si>
+  <si>
     <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
   </si>
   <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/SCREENING_20240307.csv</t>
-  </si>
-  <si>
-    <t>screening_20240307</t>
-  </si>
-  <si>
-    <t>f6947fba-efb6-413b-a794-b37a10d4b6fe</t>
-  </si>
-  <si>
-    <t>Invalid Date</t>
-  </si>
-  <si>
-    <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
-  </si>
-  <si>
-    <t>RECORDED_TIME</t>
-  </si>
-  <si>
-    <t>03/05/94 13:08</t>
-  </si>
-  <si>
-    <t>Please be sure to provide both a valid date and time (Format: YYYY-MM-DDTHH:MM:SS.000Z).</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>034bf5e2-9294-466a-b14f-6994cb150368</t>
-  </si>
-  <si>
-    <t>Missing Mandatory Value</t>
-  </si>
-  <si>
-    <t>Mandatory field POTENTIAL_NEED_INDICATED is empty</t>
-  </si>
-  <si>
-    <t>POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>Provide a value for POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>REJECTION</t>
-  </si>
-  <si>
-    <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
-  </si>
-  <si>
-    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/DEMOGRAPHIC_DATA_20240307.csv</t>
-  </si>
-  <si>
-    <t>admin_demographics_20240307</t>
-  </si>
-  <si>
-    <t>26f09f30-078a-48b5-8946-6479a7331e4d</t>
-  </si>
-  <si>
-    <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION "unknown" found in SEX_AT_BIRTH_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>SEX_AT_BIRTH_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>Validate SEX_AT_BIRTH_CODE_DESCRIPTION with sex at birth reference data</t>
-  </si>
-  <si>
-    <t>f5da1c86-67d5-4787-ad8f-fe543ddf4a23</t>
-  </si>
-  <si>
-    <t>Invalid RACE CODE DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Invalid RACE CODE DESCRIPTION "Coquille" found in RACE_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>RACE_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Coquille</t>
-  </si>
-  <si>
-    <t>Validate RACE CODE DESCRIPTION with race reference data</t>
-  </si>
-  <si>
-    <t>30e0b720-1468-4220-9228-f7bffe885b0b</t>
-  </si>
-  <si>
-    <t>ddc72b43-0266-4b35-a793-7263b1206e17</t>
-  </si>
-  <si>
-    <t>2bcd30e2-6b8b-4d0a-bd7d-7e01ef39ffbf</t>
-  </si>
-  <si>
-    <t>286fa4e7-58cf-4834-8842-0b3541d5b5df</t>
-  </si>
-  <si>
-    <t>Invalid Value</t>
-  </si>
-  <si>
-    <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA')</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Use only allowed values 'Yes','No','NA' in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>6c9efe99-dbd4-4b45-b261-e0beef238916</t>
-  </si>
-  <si>
-    <t>5cb9f0c9-0f14-4077-9b6b-2abef60d1f42</t>
-  </si>
-  <si>
-    <t>a4c75b20-0161-4d7f-aa21-0eb5e279f5e2</t>
-  </si>
-  <si>
-    <t>f3293c17-6e1b-4dff-8d06-b6bf5973a5d3</t>
-  </si>
-  <si>
-    <t>c89fa242-36ea-4bec-a2e5-aa30eed157c0</t>
-  </si>
-  <si>
-    <t>9d1edf10-2987-4acc-8188-cf77ac17e24d</t>
-  </si>
-  <si>
-    <t>16cfe7be-b9d5-41bb-b665-d8c0ba23a5f4</t>
-  </si>
-  <si>
-    <t>72d83e16-1ec2-497b-9ad3-e3170dde7c4f</t>
-  </si>
-  <si>
-    <t>71f89f84-f9c9-45aa-bc4d-70a906cbc1fa</t>
-  </si>
-  <si>
-    <t>3f201b0e-0719-4b5c-bb30-38f8bda4493a</t>
-  </si>
-  <si>
-    <t>ca0fda07-54e3-4569-b08a-80382588bc21</t>
-  </si>
-  <si>
-    <t>d828ce2d-097e-467d-9e52-dd3fd1b324c9</t>
-  </si>
-  <si>
-    <t>708bd762-68c8-4e02-af19-dc0ca7b9d00e</t>
-  </si>
-  <si>
-    <t>491a785b-86d0-460e-847f-ba7684144766</t>
-  </si>
-  <si>
-    <t>374ac1da-ad47-4bac-9fe2-bb69ffd62dc6</t>
-  </si>
-  <si>
-    <t>817533d7-56ad-411f-b3ca-550834003125</t>
-  </si>
-  <si>
-    <t>8ef5dd35-afd7-45f2-b112-479d046f48fa</t>
-  </si>
-  <si>
-    <t>dccb1c29-7117-48ab-8029-cf323d5947c9</t>
-  </si>
-  <si>
-    <t>41115e57-157b-42ba-8a82-e9c11443bd0b</t>
-  </si>
-  <si>
-    <t>bf4e670e-c661-47ea-87ab-5efdb6e69f0e</t>
-  </si>
-  <si>
-    <t>5b556c00-78cb-4c93-88cb-666955f2c40f</t>
+    <t>Excel workbook sheet 'Screening' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
+  </si>
+  <si>
+    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
+  </si>
+  <si>
+    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
   </si>
   <si>
     <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
   </si>
   <si>
+    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Question_Reference' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
+  </si>
+  <si>
+    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
+  </si>
+  <si>
+    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Answer_Reference' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
+  </si>
+  <si>
+    <t>99e72a60-96ab-5ef1-a3af-3e7759777664</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/jrchc-hrsn-file-spec.xlsx</t>
+  </si>
+  <si>
+    <t>e36daa69-3c63-5384-b6a7-03fa3b00641d</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Admin_Demographic' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>89f7ec04-277a-5799-afaa-a70d0f2a8ed5</t>
+  </si>
+  <si>
+    <t>c60cf3db-b1bf-5103-b278-b0c128ce924a</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Screening' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>b2a7c7e8-5ffe-5f28-8112-4eb7abb6397f</t>
+  </si>
+  <si>
+    <t>b10e248d-8c94-59ec-83fc-a1249dd3b111</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'QE_Admin_Data' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>5222b730-9add-5b52-b0c9-6f2506b0af9d</t>
+  </si>
+  <si>
+    <t>fa7874f6-f848-572b-a9ab-9db4c8d5e959</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Question_Reference' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>c302047e-21cf-5059-a32c-e81a9bd3a9b9</t>
+  </si>
+  <si>
+    <t>3252fee6-3a9a-5f4c-81c6-739201046d79</t>
+  </si>
+  <si>
+    <t>Excel workbook sheet 'Answer_Reference' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
+  </si>
+  <si>
+    <t>78d6a904-035e-54ae-8ac2-ca5cdf3f75f7</t>
+  </si>
+  <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
   </si>
   <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
-  </si>
-  <si>
-    <t>Sheet Missing</t>
+    <t>9860873a-c387-5d98-9930-4ff296eb7192</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
-  </si>
-  <si>
-    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
+    <t>d5d6e25d-81b4-5f98-8b91-ea2dbc155a9c</t>
+  </si>
+  <si>
+    <t>46171763-bd21-57a8-a403-0785f72643cf</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>591191c7-f693-5957-8734-ac87151ca981</t>
-  </si>
-  <si>
-    <t>3b4eb0e5-6239-537a-8e67-e50e172e72a2</t>
+    <t>4971a2f5-06a3-5898-823d-364145d3b9a5</t>
+  </si>
+  <si>
+    <t>c2c0cbca-70cb-54f6-9dc7-66b47c4f3157</t>
   </si>
   <si>
     <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>071f8fe1-4899-5c71-9c86-7d7377661d45</t>
-  </si>
-  <si>
-    <t>86b4a49e-7378-5159-9f41-b005208c31bc</t>
+    <t>8640a4b5-53ef-506e-bcde-83f00315d4b2</t>
+  </si>
+  <si>
+    <t>544998d3-58c5-5f65-9dc8-9f998508495f</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Question_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>a530fe1b-57ef-5a90-8bea-835ece2483da</t>
-  </si>
-  <si>
-    <t>a3fe7098-8ae8-5612-81ac-cbe10780c19b</t>
+    <t>0adb81bc-3df2-5f86-99cc-2d20e1dd5efd</t>
+  </si>
+  <si>
+    <t>10d0290c-b2eb-581e-b627-b5b8fcbb830f</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>849cfea8-7c12-4092-a122-0d57a5d4a451</t>
+    <t>bed34595-89ee-4f43-8c4e-0dae5f1dc086</t>
   </si>
   <si>
     <t>Mandatory field CONSENT is empty</t>
@@ -507,7 +642,7 @@
         <v>30</v>
       </c>
       <c r="O2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P2" t="s">
         <v>31</v>
@@ -692,7 +827,7 @@
         <v>30</v>
       </c>
       <c r="O6">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="P6" t="s">
         <v>31</v>
@@ -783,7 +918,7 @@
         <v>30</v>
       </c>
       <c r="O8">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P8" t="s">
         <v>31</v>
@@ -877,7 +1012,7 @@
         <v>30</v>
       </c>
       <c r="O10">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P10" t="s">
         <v>31</v>
@@ -971,7 +1106,7 @@
         <v>30</v>
       </c>
       <c r="O12">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P12" t="s">
         <v>31</v>
@@ -1065,7 +1200,7 @@
         <v>30</v>
       </c>
       <c r="O14">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="P14" t="s">
         <v>31</v>
@@ -1159,7 +1294,7 @@
         <v>30</v>
       </c>
       <c r="O16">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="P16" t="s">
         <v>31</v>
@@ -1253,7 +1388,7 @@
         <v>30</v>
       </c>
       <c r="O18">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="P18" t="s">
         <v>31</v>
@@ -1347,7 +1482,7 @@
         <v>30</v>
       </c>
       <c r="O20">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="P20" t="s">
         <v>31</v>
@@ -1394,7 +1529,7 @@
         <v>30</v>
       </c>
       <c r="O21">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P21" t="s">
         <v>31</v>
@@ -1441,7 +1576,7 @@
         <v>30</v>
       </c>
       <c r="O22">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P22" t="s">
         <v>31</v>
@@ -1485,16 +1620,16 @@
         <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="O23">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="P23" t="s">
         <v>31</v>
       </c>
       <c r="Q23" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="R23" t="s">
         <v>33</v>
@@ -1526,22 +1661,22 @@
         <v>27</v>
       </c>
       <c r="L24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M24" t="s">
         <v>29</v>
       </c>
       <c r="N24" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="O24">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P24" t="s">
         <v>31</v>
       </c>
       <c r="Q24" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="R24" t="s">
         <v>33</v>
@@ -1573,22 +1708,22 @@
         <v>27</v>
       </c>
       <c r="L25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M25" t="s">
         <v>29</v>
       </c>
       <c r="N25" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="O25">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="P25" t="s">
         <v>31</v>
       </c>
       <c r="Q25" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="R25" t="s">
         <v>33</v>
@@ -1620,22 +1755,22 @@
         <v>27</v>
       </c>
       <c r="L26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M26" t="s">
         <v>29</v>
       </c>
       <c r="N26" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="O26">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="P26" t="s">
         <v>31</v>
       </c>
       <c r="Q26" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s">
         <v>33</v>
@@ -1667,22 +1802,22 @@
         <v>27</v>
       </c>
       <c r="L27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M27" t="s">
         <v>29</v>
       </c>
       <c r="N27" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="O27">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="P27" t="s">
         <v>31</v>
       </c>
       <c r="Q27" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="R27" t="s">
         <v>33</v>
@@ -1714,22 +1849,22 @@
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M28" t="s">
         <v>29</v>
       </c>
       <c r="N28" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="O28">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="P28" t="s">
         <v>31</v>
       </c>
       <c r="Q28" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="R28" t="s">
         <v>33</v>
@@ -1761,22 +1896,22 @@
         <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M29" t="s">
         <v>29</v>
       </c>
       <c r="N29" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="O29">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="P29" t="s">
         <v>31</v>
       </c>
       <c r="Q29" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="R29" t="s">
         <v>33</v>
@@ -1808,22 +1943,22 @@
         <v>27</v>
       </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M30" t="s">
         <v>29</v>
       </c>
       <c r="N30" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="O30">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P30" t="s">
         <v>31</v>
       </c>
       <c r="Q30" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="R30" t="s">
         <v>33</v>
@@ -1846,25 +1981,37 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
         <v>87</v>
       </c>
-      <c r="L31" t="s">
-        <v>88</v>
-      </c>
       <c r="M31" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="N31" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="O31">
+        <v>20</v>
+      </c>
+      <c r="P31" t="s">
+        <v>31</v>
       </c>
       <c r="Q31" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="R31" t="s">
+        <v>33</v>
+      </c>
+      <c r="T31" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -1881,25 +2028,37 @@
         <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="J32" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M32" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="N32" t="s">
-        <v>93</v>
+        <v>78</v>
+      </c>
+      <c r="O32">
+        <v>21</v>
+      </c>
+      <c r="P32" t="s">
+        <v>31</v>
       </c>
       <c r="Q32" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="R32" t="s">
+        <v>33</v>
+      </c>
+      <c r="T32" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -1916,25 +2075,37 @@
         <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="L33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M33" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="N33" t="s">
-        <v>96</v>
+        <v>78</v>
+      </c>
+      <c r="O33">
+        <v>22</v>
+      </c>
+      <c r="P33" t="s">
+        <v>31</v>
       </c>
       <c r="Q33" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="R33" t="s">
+        <v>33</v>
+      </c>
+      <c r="T33" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -1951,25 +2122,37 @@
         <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="L34" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="M34" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="N34" t="s">
-        <v>99</v>
+        <v>78</v>
+      </c>
+      <c r="O34">
+        <v>23</v>
+      </c>
+      <c r="P34" t="s">
+        <v>31</v>
       </c>
       <c r="Q34" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="R34" t="s">
+        <v>33</v>
+      </c>
+      <c r="T34" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -1986,25 +2169,37 @@
         <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I35" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="J35" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="L35" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M35" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="N35" t="s">
-        <v>102</v>
+        <v>78</v>
+      </c>
+      <c r="O35">
+        <v>24</v>
+      </c>
+      <c r="P35" t="s">
+        <v>31</v>
       </c>
       <c r="Q35" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="R35" t="s">
+        <v>33</v>
+      </c>
+      <c r="T35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -2021,31 +2216,838 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>92</v>
+      </c>
+      <c r="M36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O36">
+        <v>25</v>
+      </c>
+      <c r="P36" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>79</v>
+      </c>
+      <c r="R36" t="s">
+        <v>33</v>
+      </c>
+      <c r="T36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>93</v>
+      </c>
+      <c r="M37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" t="s">
+        <v>78</v>
+      </c>
+      <c r="O37">
+        <v>26</v>
+      </c>
+      <c r="P37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>79</v>
+      </c>
+      <c r="R37" t="s">
+        <v>33</v>
+      </c>
+      <c r="T37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" t="s">
+        <v>94</v>
+      </c>
+      <c r="M38" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" t="s">
+        <v>78</v>
+      </c>
+      <c r="O38">
+        <v>27</v>
+      </c>
+      <c r="P38" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>79</v>
+      </c>
+      <c r="R38" t="s">
+        <v>33</v>
+      </c>
+      <c r="T38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>95</v>
+      </c>
+      <c r="M39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" t="s">
+        <v>78</v>
+      </c>
+      <c r="O39">
+        <v>28</v>
+      </c>
+      <c r="P39" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>79</v>
+      </c>
+      <c r="R39" t="s">
+        <v>33</v>
+      </c>
+      <c r="T39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>96</v>
+      </c>
+      <c r="M40" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" t="s">
+        <v>78</v>
+      </c>
+      <c r="O40">
+        <v>29</v>
+      </c>
+      <c r="P40" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>79</v>
+      </c>
+      <c r="R40" t="s">
+        <v>33</v>
+      </c>
+      <c r="T40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
+        <v>97</v>
+      </c>
+      <c r="M41" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" t="s">
+        <v>78</v>
+      </c>
+      <c r="O41">
+        <v>30</v>
+      </c>
+      <c r="P41" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>79</v>
+      </c>
+      <c r="R41" t="s">
+        <v>33</v>
+      </c>
+      <c r="T41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L42" t="s">
+        <v>101</v>
+      </c>
+      <c r="M42" t="s">
+        <v>102</v>
+      </c>
+      <c r="N42" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" t="s">
+        <v>100</v>
+      </c>
+      <c r="L43" t="s">
+        <v>105</v>
+      </c>
+      <c r="M43" t="s">
+        <v>102</v>
+      </c>
+      <c r="N43" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" t="s">
+        <v>99</v>
+      </c>
+      <c r="J44" t="s">
+        <v>100</v>
+      </c>
+      <c r="L44" t="s">
+        <v>108</v>
+      </c>
+      <c r="M44" t="s">
+        <v>102</v>
+      </c>
+      <c r="N44" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" t="s">
+        <v>99</v>
+      </c>
+      <c r="J45" t="s">
+        <v>100</v>
+      </c>
+      <c r="L45" t="s">
+        <v>111</v>
+      </c>
+      <c r="M45" t="s">
+        <v>102</v>
+      </c>
+      <c r="N45" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s">
+        <v>113</v>
+      </c>
+      <c r="I46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L46" t="s">
+        <v>114</v>
+      </c>
+      <c r="M46" t="s">
+        <v>102</v>
+      </c>
+      <c r="N46" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" t="s">
+        <v>117</v>
+      </c>
+      <c r="J47" t="s">
+        <v>100</v>
+      </c>
+      <c r="L47" t="s">
+        <v>118</v>
+      </c>
+      <c r="M47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N47" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>120</v>
+      </c>
+      <c r="I48" t="s">
+        <v>117</v>
+      </c>
+      <c r="J48" t="s">
+        <v>100</v>
+      </c>
+      <c r="L48" t="s">
+        <v>121</v>
+      </c>
+      <c r="M48" t="s">
+        <v>102</v>
+      </c>
+      <c r="N48" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49" t="s">
+        <v>117</v>
+      </c>
+      <c r="J49" t="s">
+        <v>100</v>
+      </c>
+      <c r="L49" t="s">
+        <v>124</v>
+      </c>
+      <c r="M49" t="s">
+        <v>102</v>
+      </c>
+      <c r="N49" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" t="s">
+        <v>117</v>
+      </c>
+      <c r="J50" t="s">
+        <v>100</v>
+      </c>
+      <c r="L50" t="s">
+        <v>127</v>
+      </c>
+      <c r="M50" t="s">
+        <v>102</v>
+      </c>
+      <c r="N50" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" t="s">
+        <v>129</v>
+      </c>
+      <c r="I51" t="s">
+        <v>117</v>
+      </c>
+      <c r="J51" t="s">
+        <v>100</v>
+      </c>
+      <c r="L51" t="s">
+        <v>130</v>
+      </c>
+      <c r="M51" t="s">
+        <v>102</v>
+      </c>
+      <c r="N51" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s">
+        <v>132</v>
+      </c>
+      <c r="I52" t="s">
+        <v>133</v>
+      </c>
+      <c r="J52" t="s">
+        <v>100</v>
+      </c>
+      <c r="L52" t="s">
+        <v>134</v>
+      </c>
+      <c r="M52" t="s">
+        <v>102</v>
+      </c>
+      <c r="N52" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" t="s">
+        <v>136</v>
+      </c>
+      <c r="I53" t="s">
+        <v>133</v>
+      </c>
+      <c r="J53" t="s">
+        <v>100</v>
+      </c>
+      <c r="L53" t="s">
+        <v>137</v>
+      </c>
+      <c r="M53" t="s">
+        <v>102</v>
+      </c>
+      <c r="N53" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s">
+        <v>139</v>
+      </c>
+      <c r="I54" t="s">
+        <v>133</v>
+      </c>
+      <c r="J54" t="s">
+        <v>100</v>
+      </c>
+      <c r="L54" t="s">
+        <v>140</v>
+      </c>
+      <c r="M54" t="s">
+        <v>102</v>
+      </c>
+      <c r="N54" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s">
+        <v>142</v>
+      </c>
+      <c r="I55" t="s">
+        <v>133</v>
+      </c>
+      <c r="J55" t="s">
+        <v>100</v>
+      </c>
+      <c r="L55" t="s">
+        <v>143</v>
+      </c>
+      <c r="M55" t="s">
+        <v>102</v>
+      </c>
+      <c r="N55" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56" t="s">
+        <v>133</v>
+      </c>
+      <c r="J56" t="s">
+        <v>100</v>
+      </c>
+      <c r="L56" t="s">
+        <v>146</v>
+      </c>
+      <c r="M56" t="s">
+        <v>102</v>
+      </c>
+      <c r="N56" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s">
         <v>41</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I57" t="s">
         <v>42</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J57" t="s">
         <v>43</v>
       </c>
-      <c r="L36" t="s">
-        <v>103</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="L57" t="s">
+        <v>148</v>
+      </c>
+      <c r="M57" t="s">
         <v>36</v>
       </c>
-      <c r="N36" t="s">
-        <v>104</v>
-      </c>
-      <c r="O36">
+      <c r="N57" t="s">
+        <v>149</v>
+      </c>
+      <c r="O57">
         <v>1</v>
       </c>
-      <c r="P36" t="s">
-        <v>105</v>
-      </c>
-      <c r="R36" t="s">
-        <v>106</v>
+      <c r="P57" t="s">
+        <v>150</v>
+      </c>
+      <c r="R57" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
   <si>
     <t>orch_session_id</t>
   </si>
@@ -96,31 +96,124 @@
     <t>screening_20240307</t>
   </si>
   <si>
-    <t>79455500-9915-4c11-936f-5840f098a231</t>
+    <t>71deb9f6-3bcf-4690-b6fb-61b850c19d94</t>
+  </si>
+  <si>
+    <t>Missing Mandatory Value</t>
+  </si>
+  <si>
+    <t>Mandatory field ENCOUNTER_CLASS_CODE is empty</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_CLASS_CODE</t>
+  </si>
+  <si>
+    <t>Provide a value for ENCOUNTER_CLASS_CODE</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>Resolved By QE/QCS</t>
+  </si>
+  <si>
+    <t>cba6f08d-acfa-4f40-8a47-3562f75b7bb5</t>
+  </si>
+  <si>
+    <t>Combination Not Matching</t>
+  </si>
+  <si>
+    <t>Invalid value "inpatient non-acute" found in ENCOUNTER_CLASS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_CLASS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>inpatient non-acute</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_CLASS_CODE_DESCRIPTION "inpatient non-acute" of ENCOUNTER_CLASS_CODE "ACUTE" is not matching with the ENCOUNTER_CLASS_CODE_DESCRIPTION of ENCOUNTER_CLASS_CODE in reference data</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>cb44aab8-103c-4147-b881-6e3adb9c73be</t>
+  </si>
+  <si>
+    <t>Mandatory field ENCOUNTER_STATUS_CODE is empty</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>Provide a value for ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>04beb0b1-7d98-41f8-adba-34dffe720dc9</t>
+  </si>
+  <si>
+    <t>Invalid value "Unknown" found in ENCOUNTER_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_STATUS_CODE_DESCRIPTION "Unknown" of ENCOUNTER_STATUS_CODE "entered-in-error" is not matching with the ENCOUNTER_STATUS_CODE_DESCRIPTION of ENCOUNTER_STATUS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>04640aa8-0218-466f-949f-5523d3d98a7c</t>
+  </si>
+  <si>
+    <t>Invalid value "185317003" found in ENCOUNTER_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>185317003</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_TYPE_CODE "185317003" of ENCOUNTER_TYPE_CODE_DESCRIPTION "History taking, self-administered, questionnaire" is not matching with the ENCOUNTER_TYPE_CODE of ENCOUNTER_TYPE_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>df37a164-3665-46fe-83ef-a0d614b35db3</t>
+  </si>
+  <si>
+    <t>Invalid value "In-person encounter" found in ENCOUNTER_TYPE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_TYPE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>In-person encounter</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_TYPE_CODE_DESCRIPTION "In-person encounter" of ENCOUNTER_TYPE_CODE "32166003" is not matching with the ENCOUNTER_TYPE_CODE_DESCRIPTION of ENCOUNTER_TYPE_CODE in reference data</t>
+  </si>
+  <si>
+    <t>60616f01-9491-4f0b-a38e-e7b69bf5b20b</t>
   </si>
   <si>
     <t>Invalid Date</t>
   </si>
   <si>
-    <t>Invalid timestamp "01/27/02 15:42" found in RECORDED_TIME</t>
+    <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
   </si>
   <si>
     <t>RECORDED_TIME</t>
   </si>
   <si>
-    <t>01/27/02 15:42</t>
-  </si>
-  <si>
-    <t>Please be sure to provide both a valid date and time (Format: YYYY-MM-DDTHH:MM:SS.000Z).</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>742748e5-f3f9-49ea-9dd5-227aa5383a65</t>
-  </si>
-  <si>
-    <t>Missing Mandatory Value</t>
+    <t>03/05/94 13:08</t>
+  </si>
+  <si>
+    <t>Please be sure to provide both a valid date and time.</t>
+  </si>
+  <si>
+    <t>c31be6eb-6233-4b86-b203-48bd076d8ad0</t>
   </si>
   <si>
     <t>Mandatory field POTENTIAL_NEED_INDICATED is empty</t>
@@ -144,7 +237,22 @@
     <t>admin_demographics_20240307</t>
   </si>
   <si>
-    <t>2d8b7e3d-27a7-49bb-9252-9b39c2065df4</t>
+    <t>d387023f-c351-4931-86ab-e1869b06a346</t>
+  </si>
+  <si>
+    <t>Invalid value "UNK" found in SEX_AT_BIRTH_CODE</t>
+  </si>
+  <si>
+    <t>SEX_AT_BIRTH_CODE</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>The SEX_AT_BIRTH_CODE "UNK" of SEX_AT_BIRTH_CODE_DESCRIPTION "unknown" is not matching with the SEX_AT_BIRTH_CODE of SEX_AT_BIRTH_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>0cfd0b0f-ac89-4afa-90e4-d0fe6227be9a</t>
   </si>
   <si>
     <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION</t>
@@ -162,7 +270,22 @@
     <t>Validate SEX_AT_BIRTH_CODE_DESCRIPTION with sex at birth reference data</t>
   </si>
   <si>
-    <t>af71efe7-b375-4057-a1cd-61eb5b6dada5</t>
+    <t>bbb9fdc3-e68b-4dc1-b49b-db6d484d1f68</t>
+  </si>
+  <si>
+    <t>Invalid value "1142-9" found in RACE_CODE</t>
+  </si>
+  <si>
+    <t>RACE_CODE</t>
+  </si>
+  <si>
+    <t>1142-9</t>
+  </si>
+  <si>
+    <t>The RACE_CODE "1142-9" of RACE_CODE_DESCRIPTION "Coquille" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>3bc6f543-8444-4e59-8c91-2b60fe6e58c5</t>
   </si>
   <si>
     <t>Invalid RACE CODE DESCRIPTION</t>
@@ -180,16 +303,106 @@
     <t>Validate RACE CODE DESCRIPTION with race reference data</t>
   </si>
   <si>
-    <t>d4b74416-6fdd-4f27-b2d9-794c792bfd6a</t>
-  </si>
-  <si>
-    <t>2108ec21-561f-465b-84fa-64ef33a441ad</t>
-  </si>
-  <si>
-    <t>667cc0df-1825-4e00-9d03-d916e84e89c1</t>
-  </si>
-  <si>
-    <t>cab24d3a-a25a-4635-927e-35c4face85bb</t>
+    <t>5d1126c4-b72a-4b1b-b62d-deeda85f41dd</t>
+  </si>
+  <si>
+    <t>f3082526-a5de-415c-8f79-6bcd2dc6456a</t>
+  </si>
+  <si>
+    <t>Invalid value "pre-admission" found in ENCOUNTER_CLASS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>pre-admission</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_CLASS_CODE_DESCRIPTION "pre-admission" of ENCOUNTER_CLASS_CODE "IMP" is not matching with the ENCOUNTER_CLASS_CODE_DESCRIPTION of ENCOUNTER_CLASS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>06ebfbf1-535d-406d-b055-c50d59bde4da</t>
+  </si>
+  <si>
+    <t>424c4575-77f3-42d4-859c-c73db0057957</t>
+  </si>
+  <si>
+    <t>Invalid value "Entered in Error" found in ENCOUNTER_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Entered in Error</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_STATUS_CODE_DESCRIPTION "Entered in Error" of ENCOUNTER_STATUS_CODE "discontinued" is not matching with the ENCOUNTER_STATUS_CODE_DESCRIPTION of ENCOUNTER_STATUS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>39c39e9c-2436-4117-8fef-9f84f593857a</t>
+  </si>
+  <si>
+    <t>Invalid value "32166003" found in ENCOUNTER_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>32166003</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_TYPE_CODE "32166003" of ENCOUNTER_TYPE_CODE_DESCRIPTION "In-person encounter" is not matching with the ENCOUNTER_TYPE_CODE of ENCOUNTER_TYPE_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>55ee7873-727b-417f-8db2-75ed9cda797c</t>
+  </si>
+  <si>
+    <t>Invalid value "History taking, self-administered, questionnaire" found in ENCOUNTER_TYPE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>History taking, self-administered, questionnaire</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_TYPE_CODE_DESCRIPTION "History taking, self-administered, questionnaire" of ENCOUNTER_TYPE_CODE "185317003" is not matching with the ENCOUNTER_TYPE_CODE_DESCRIPTION of ENCOUNTER_TYPE_CODE in reference data</t>
+  </si>
+  <si>
+    <t>6df1cd15-e806-4b2c-a7d1-cc8cafaa3767</t>
+  </si>
+  <si>
+    <t>6320c0bd-28ce-4a7b-9625-67a3386a998a</t>
+  </si>
+  <si>
+    <t>d488667a-dd64-45e8-bbec-124f95cddf01</t>
+  </si>
+  <si>
+    <t>Invalid value "EMER" found in ENCOUNTER_CLASS_CODE</t>
+  </si>
+  <si>
+    <t>EMER</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_CLASS_CODE "EMER" of ENCOUNTER_CLASS_CODE_DESCRIPTION "inpatient acute" is not matching with the ENCOUNTER_CLASS_CODE of ENCOUNTER_CLASS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>ae54abe1-68b8-46c9-b0f1-7334976b600f</t>
+  </si>
+  <si>
+    <t>Invalid value "inpatient acute" found in ENCOUNTER_CLASS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>inpatient acute</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_CLASS_CODE_DESCRIPTION "inpatient acute" of ENCOUNTER_CLASS_CODE "EMER" is not matching with the ENCOUNTER_CLASS_CODE_DESCRIPTION of ENCOUNTER_CLASS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>d99e20d4-f610-42d6-8502-16c3276d7a08</t>
+  </si>
+  <si>
+    <t>Invalid value "discontinued" found in ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>discontinued</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_STATUS_CODE "discontinued" of ENCOUNTER_STATUS_CODE_DESCRIPTION "Entered in Error" is not matching with the ENCOUNTER_STATUS_CODE of ENCOUNTER_STATUS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>ccb99cfe-99bf-4018-a5d8-4689bb9b86cc</t>
+  </si>
+  <si>
+    <t>56a676a1-96d1-4b7a-ad5e-b401201cc310</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -204,106 +417,121 @@
     <t>Use only allowed values 'Yes','No','NA' in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>ac4e23cc-b7ee-4dbe-8731-efdb07398dba</t>
-  </si>
-  <si>
-    <t>753a48ee-23e2-4212-85fb-4c3eaa376005</t>
-  </si>
-  <si>
-    <t>1af5c88b-638e-402c-86d3-61f045a53daa</t>
-  </si>
-  <si>
-    <t>cbd53a72-c77e-4027-a3d7-66283e2dcedb</t>
-  </si>
-  <si>
-    <t>879099c8-671b-494d-847c-6dc2c5a5b33c</t>
-  </si>
-  <si>
-    <t>aad9ad7f-5cfc-426f-b655-536c4849193d</t>
-  </si>
-  <si>
-    <t>3bf5593e-776b-43dc-b765-55b9d1e9bc2a</t>
-  </si>
-  <si>
-    <t>e28895f8-8fdb-4d8e-a66a-fd85b19d8bff</t>
-  </si>
-  <si>
-    <t>f310e1a3-ed3b-4697-ac7b-cb1c6c1d98c1</t>
-  </si>
-  <si>
-    <t>ba23d574-a236-4018-8d46-9b09fa6c0288</t>
-  </si>
-  <si>
-    <t>fae38e27-c700-400c-83cc-a4ac40244493</t>
-  </si>
-  <si>
-    <t>5eab58b6-7d33-4e09-816f-20b719bd61d5</t>
-  </si>
-  <si>
-    <t>0ff7b2db-6998-47eb-bd2d-a72f98766d33</t>
-  </si>
-  <si>
-    <t>8b5cf674-6a0a-4fd7-96e7-c0e640801894</t>
-  </si>
-  <si>
-    <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
-  </si>
-  <si>
-    <t>03/05/94 13:08</t>
-  </si>
-  <si>
-    <t>a9d6fa36-725a-425d-b2be-16fdbed731ee</t>
-  </si>
-  <si>
-    <t>52844900-2e98-4624-a79e-fd6729735b4e</t>
-  </si>
-  <si>
-    <t>0cd2d3b4-598c-45af-be14-869b03ddc029</t>
-  </si>
-  <si>
-    <t>7df69de1-5c35-4463-a713-cdb4ee2cd4c1</t>
-  </si>
-  <si>
-    <t>e90e5431-7721-461e-9774-515a02c0b325</t>
-  </si>
-  <si>
-    <t>a8d8737f-7ddf-4f5c-97ed-f9dd3aeb6a8c</t>
-  </si>
-  <si>
-    <t>88ceb88f-f851-4e51-97e9-42622f1c98e6</t>
-  </si>
-  <si>
-    <t>0aaef67b-5dfc-47b9-8bf9-b0dd0786fc62</t>
-  </si>
-  <si>
-    <t>6a008556-e84c-4f8d-811e-6d6f5d7a4aae</t>
-  </si>
-  <si>
-    <t>9add894b-3758-4b2f-9c83-5d2be4368967</t>
-  </si>
-  <si>
-    <t>d38eaf2b-6ad5-427c-8e9d-7318b7088393</t>
-  </si>
-  <si>
-    <t>eb1ac4f9-ff60-4517-a9bd-1242fcf800d5</t>
-  </si>
-  <si>
-    <t>b7a098dc-245b-4c52-b493-ae1c2fe97d36</t>
-  </si>
-  <si>
-    <t>c7883f8d-c753-45ea-9d4f-431b9316d8aa</t>
-  </si>
-  <si>
-    <t>0c994e63-ed24-44c0-85d8-8eacf5fd3a6a</t>
-  </si>
-  <si>
-    <t>6cfea61e-c2c0-49b0-8e4b-3292b43501c6</t>
-  </si>
-  <si>
-    <t>7c3b44ee-ffb2-4bae-8bed-4f9787fbe8c9</t>
-  </si>
-  <si>
-    <t>7fa2fc5a-3d96-4093-9c96-3eb323df7376</t>
+    <t>2cc917b2-96b0-4400-9ae1-cd4dca2705d4</t>
+  </si>
+  <si>
+    <t>Invalid value "IMP" found in ENCOUNTER_CLASS_CODE</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_CLASS_CODE "IMP" of ENCOUNTER_CLASS_CODE_DESCRIPTION "pre-admission" is not matching with the ENCOUNTER_CLASS_CODE of ENCOUNTER_CLASS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>0aafc770-0e0b-456e-bb55-9aa4783c0e4a</t>
+  </si>
+  <si>
+    <t>Invalid value "entered-in-error" found in ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>entered-in-error</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_STATUS_CODE "entered-in-error" of ENCOUNTER_STATUS_CODE_DESCRIPTION "Unknown" is not matching with the ENCOUNTER_STATUS_CODE of ENCOUNTER_STATUS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>f86eb570-5152-4756-a79d-067e57310e19</t>
+  </si>
+  <si>
+    <t>68630e44-cec7-4100-81f8-0fc18598036c</t>
+  </si>
+  <si>
+    <t>ebfa9351-726c-41cf-8505-1b40d2017e2b</t>
+  </si>
+  <si>
+    <t>Invalid value "ACUTE" found in ENCOUNTER_CLASS_CODE</t>
+  </si>
+  <si>
+    <t>ACUTE</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_CLASS_CODE "ACUTE" of ENCOUNTER_CLASS_CODE_DESCRIPTION "inpatient non-acute" is not matching with the ENCOUNTER_CLASS_CODE of ENCOUNTER_CLASS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>8ceedfad-3ede-46de-b4c6-423b8d49b491</t>
+  </si>
+  <si>
+    <t>6a99b10e-8eaf-4642-a804-e60b771d2919</t>
+  </si>
+  <si>
+    <t>b0f7aeed-807f-4195-b192-310942322f88</t>
+  </si>
+  <si>
+    <t>23d1981f-17f0-461d-ac36-690c94f95e46</t>
+  </si>
+  <si>
+    <t>adc2f12e-c8e0-4181-ade1-ca16a3f620a7</t>
+  </si>
+  <si>
+    <t>65242383-d63d-4004-848a-b3de99556695</t>
+  </si>
+  <si>
+    <t>601538aa-4fe5-4d0f-b317-45bbca859531</t>
+  </si>
+  <si>
+    <t>e0bd95e9-9021-44ae-8fc0-e155f466d746</t>
+  </si>
+  <si>
+    <t>73a62ab3-df0e-4af2-8fdb-21e7d5afa6dc</t>
+  </si>
+  <si>
+    <t>f62fe2b3-8dbc-4a5f-86b3-017cc2659175</t>
+  </si>
+  <si>
+    <t>7bc3a739-04ad-4e61-a2ee-4117b6953d9a</t>
+  </si>
+  <si>
+    <t>138cb6bc-5c67-446d-a879-2446cada9942</t>
+  </si>
+  <si>
+    <t>32615edd-f094-4564-b2a4-71f757c64894</t>
+  </si>
+  <si>
+    <t>cafe24d2-f087-4eff-a810-1e38c427f8f1</t>
+  </si>
+  <si>
+    <t>812e110e-0f9d-4fa4-9ed3-38bc2b939513</t>
+  </si>
+  <si>
+    <t>d4760d6d-79c5-44f7-8518-ca3d2aab1317</t>
+  </si>
+  <si>
+    <t>09f3a0ee-68fa-410a-8e1a-77b916f2b1e3</t>
+  </si>
+  <si>
+    <t>ff6b7b59-ea8b-4c9f-99db-6ae8bbbaf99d</t>
+  </si>
+  <si>
+    <t>96930927-20d4-4936-9c6e-e2627dd5aa71</t>
+  </si>
+  <si>
+    <t>b2e7b30b-f027-4780-8137-71ada604597b</t>
+  </si>
+  <si>
+    <t>Invalid timestamp "2023-02-02" found in RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>6eeeb0e0-dc5a-4c0b-91a0-a62f903c70c8</t>
+  </si>
+  <si>
+    <t>Invalid timestamp "2021-02-02T13:40:12.000Z" found in RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>2021-02-02T13:40:12.000Z</t>
   </si>
   <si>
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
@@ -456,7 +684,7 @@
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>bed34595-89ee-4f43-8c4e-0dae5f1dc086</t>
+    <t>d691f880-40f4-4549-983b-2093d9b6eca4</t>
   </si>
   <si>
     <t>Mandatory field CONSENT is empty</t>
@@ -642,18 +870,18 @@
         <v>30</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>33</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -689,16 +917,22 @@
         <v>37</v>
       </c>
       <c r="O3">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
         <v>38</v>
       </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +949,36 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4">
+        <v>9</v>
+      </c>
+      <c r="P4" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
+      <c r="R4" t="s">
         <v>45</v>
       </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" t="s">
-        <v>49</v>
-      </c>
       <c r="T4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -762,36 +996,39 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" t="s">
         <v>41</v>
       </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -818,28 +1055,28 @@
         <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="R6" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="T6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -865,25 +1102,28 @@
         <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s">
         <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="O7">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>59</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="T7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -909,28 +1149,28 @@
         <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="R8" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="T8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -956,28 +1196,25 @@
         <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="P9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="R9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="T9" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -994,37 +1231,37 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1041,37 +1278,37 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="O11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="Q11" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="R11" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="T11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1088,37 +1325,37 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="Q12" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="R12" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="T12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -1135,37 +1372,37 @@
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="M13" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="N13" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="O13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="Q13" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="R13" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="T13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -1191,7 +1428,7 @@
         <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="M14" t="s">
         <v>29</v>
@@ -1205,13 +1442,13 @@
       <c r="P14" t="s">
         <v>31</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>32</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>33</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1238,28 +1475,31 @@
         <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="M15" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="O15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P15" t="s">
         <v>38</v>
       </c>
       <c r="Q15" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="R15" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="T15" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="U15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -1285,27 +1525,27 @@
         <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="M16" t="s">
         <v>29</v>
       </c>
       <c r="N16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="R16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" t="s">
         <v>33</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1332,28 +1572,31 @@
         <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="M17" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="O17">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="P17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="Q17" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="R17" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="T17" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="U17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -1379,28 +1622,28 @@
         <v>27</v>
       </c>
       <c r="L18" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="M18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N18" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="O18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P18" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="Q18" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="R18" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="T18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -1426,28 +1669,28 @@
         <v>27</v>
       </c>
       <c r="L19" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="M19" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="O19">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="P19" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Q19" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="R19" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="T19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1473,28 +1716,28 @@
         <v>27</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="M20" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N20" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="O20">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="P20" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="Q20" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="R20" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="T20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -1520,28 +1763,25 @@
         <v>27</v>
       </c>
       <c r="L21" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="M21" t="s">
         <v>29</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="O21">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="R21" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="T21" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
@@ -1567,27 +1807,30 @@
         <v>27</v>
       </c>
       <c r="L22" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N22" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="O22">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P22" t="s">
         <v>31</v>
       </c>
       <c r="Q22" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="R22" t="s">
+        <v>120</v>
+      </c>
+      <c r="T22" t="s">
         <v>33</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1614,27 +1857,30 @@
         <v>27</v>
       </c>
       <c r="L23" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N23" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="O23">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q23" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="R23" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="T23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1661,27 +1907,30 @@
         <v>27</v>
       </c>
       <c r="L24" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N24" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="O24">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P24" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Q24" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="R24" t="s">
+        <v>128</v>
+      </c>
+      <c r="T24" t="s">
         <v>33</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1708,28 +1957,28 @@
         <v>27</v>
       </c>
       <c r="L25" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="M25" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N25" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O25">
         <v>14</v>
       </c>
       <c r="P25" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="Q25" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="R25" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="T25" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -1755,28 +2004,28 @@
         <v>27</v>
       </c>
       <c r="L26" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="M26" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="N26" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="O26">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P26" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="Q26" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="R26" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="T26" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
@@ -1802,27 +2051,30 @@
         <v>27</v>
       </c>
       <c r="L27" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="M27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N27" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="O27">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P27" t="s">
         <v>31</v>
       </c>
       <c r="Q27" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="R27" t="s">
+        <v>138</v>
+      </c>
+      <c r="T27" t="s">
         <v>33</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1849,27 +2101,30 @@
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="M28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N28" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="O28">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="P28" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Q28" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="R28" t="s">
+        <v>142</v>
+      </c>
+      <c r="T28" t="s">
         <v>33</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1896,28 +2151,28 @@
         <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N29" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O29">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P29" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="Q29" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="R29" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="T29" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
@@ -1943,28 +2198,28 @@
         <v>27</v>
       </c>
       <c r="L30" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="M30" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="N30" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="O30">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="P30" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="Q30" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="R30" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="T30" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
@@ -1990,27 +2245,30 @@
         <v>27</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="M31" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N31" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="O31">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P31" t="s">
         <v>31</v>
       </c>
       <c r="Q31" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="R31" t="s">
+        <v>148</v>
+      </c>
+      <c r="T31" t="s">
         <v>33</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2037,28 +2295,28 @@
         <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="M32" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N32" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O32">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P32" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="Q32" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="R32" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="T32" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
@@ -2084,28 +2342,28 @@
         <v>27</v>
       </c>
       <c r="L33" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="M33" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="N33" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="O33">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="P33" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="Q33" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="R33" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="T33" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
@@ -2131,28 +2389,28 @@
         <v>27</v>
       </c>
       <c r="L34" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="M34" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N34" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O34">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P34" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="Q34" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="R34" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="T34" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -2178,28 +2436,28 @@
         <v>27</v>
       </c>
       <c r="L35" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="M35" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="N35" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="O35">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P35" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="Q35" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="R35" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="T35" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -2225,28 +2483,28 @@
         <v>27</v>
       </c>
       <c r="L36" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="M36" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N36" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O36">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P36" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="Q36" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="R36" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="T36" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -2272,28 +2530,28 @@
         <v>27</v>
       </c>
       <c r="L37" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="M37" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="N37" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="O37">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P37" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="Q37" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="R37" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="T37" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
@@ -2319,28 +2577,28 @@
         <v>27</v>
       </c>
       <c r="L38" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="M38" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N38" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O38">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="P38" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="Q38" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="R38" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="T38" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
@@ -2366,28 +2624,28 @@
         <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="M39" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="N39" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="O39">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P39" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="Q39" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="R39" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="T39" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
@@ -2413,28 +2671,28 @@
         <v>27</v>
       </c>
       <c r="L40" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="M40" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N40" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O40">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P40" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="Q40" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="R40" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="T40" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
@@ -2460,28 +2718,28 @@
         <v>27</v>
       </c>
       <c r="L41" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="M41" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N41" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="O41">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P41" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="Q41" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="R41" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="T41" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
@@ -2498,25 +2756,37 @@
         <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="J42" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L42" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="M42" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="N42" t="s">
-        <v>103</v>
+        <v>63</v>
+      </c>
+      <c r="O42">
+        <v>22</v>
+      </c>
+      <c r="P42" t="s">
+        <v>64</v>
       </c>
       <c r="Q42" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="R42" t="s">
+        <v>66</v>
+      </c>
+      <c r="T42" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43">
@@ -2533,25 +2803,37 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I43" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L43" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="M43" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="N43" t="s">
-        <v>106</v>
+        <v>63</v>
+      </c>
+      <c r="O43">
+        <v>23</v>
+      </c>
+      <c r="P43" t="s">
+        <v>64</v>
       </c>
       <c r="Q43" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="R43" t="s">
+        <v>66</v>
+      </c>
+      <c r="T43" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44">
@@ -2568,25 +2850,37 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L44" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="M44" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="N44" t="s">
-        <v>109</v>
+        <v>63</v>
+      </c>
+      <c r="O44">
+        <v>24</v>
+      </c>
+      <c r="P44" t="s">
+        <v>64</v>
       </c>
       <c r="Q44" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="R44" t="s">
+        <v>66</v>
+      </c>
+      <c r="T44" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="45">
@@ -2603,25 +2897,37 @@
         <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="I45" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L45" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="M45" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="N45" t="s">
-        <v>112</v>
+        <v>63</v>
+      </c>
+      <c r="O45">
+        <v>25</v>
+      </c>
+      <c r="P45" t="s">
+        <v>64</v>
       </c>
       <c r="Q45" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="R45" t="s">
+        <v>66</v>
+      </c>
+      <c r="T45" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46">
@@ -2638,25 +2944,37 @@
         <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I46" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="J46" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L46" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="M46" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="N46" t="s">
-        <v>115</v>
+        <v>63</v>
+      </c>
+      <c r="O46">
+        <v>26</v>
+      </c>
+      <c r="P46" t="s">
+        <v>64</v>
       </c>
       <c r="Q46" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="R46" t="s">
+        <v>66</v>
+      </c>
+      <c r="T46" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="47">
@@ -2673,25 +2991,37 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="J47" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L47" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="M47" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="N47" t="s">
-        <v>119</v>
+        <v>63</v>
+      </c>
+      <c r="O47">
+        <v>27</v>
+      </c>
+      <c r="P47" t="s">
+        <v>64</v>
       </c>
       <c r="Q47" t="s">
-        <v>117</v>
+        <v>65</v>
+      </c>
+      <c r="R47" t="s">
+        <v>66</v>
+      </c>
+      <c r="T47" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="48">
@@ -2708,25 +3038,37 @@
         <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="I48" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="J48" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L48" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="M48" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="N48" t="s">
-        <v>122</v>
+        <v>63</v>
+      </c>
+      <c r="O48">
+        <v>28</v>
+      </c>
+      <c r="P48" t="s">
+        <v>64</v>
       </c>
       <c r="Q48" t="s">
-        <v>117</v>
+        <v>65</v>
+      </c>
+      <c r="R48" t="s">
+        <v>66</v>
+      </c>
+      <c r="T48" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="49">
@@ -2743,25 +3085,37 @@
         <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="I49" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="J49" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L49" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="M49" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="N49" t="s">
-        <v>125</v>
+        <v>63</v>
+      </c>
+      <c r="O49">
+        <v>29</v>
+      </c>
+      <c r="P49" t="s">
+        <v>64</v>
       </c>
       <c r="Q49" t="s">
-        <v>117</v>
+        <v>65</v>
+      </c>
+      <c r="R49" t="s">
+        <v>66</v>
+      </c>
+      <c r="T49" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="50">
@@ -2778,25 +3132,37 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="I50" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="J50" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L50" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="M50" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="N50" t="s">
-        <v>128</v>
+        <v>63</v>
+      </c>
+      <c r="O50">
+        <v>30</v>
+      </c>
+      <c r="P50" t="s">
+        <v>64</v>
       </c>
       <c r="Q50" t="s">
-        <v>117</v>
+        <v>65</v>
+      </c>
+      <c r="R50" t="s">
+        <v>66</v>
+      </c>
+      <c r="T50" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="51">
@@ -2813,25 +3179,37 @@
         <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="I51" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="J51" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L51" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="M51" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="N51" t="s">
-        <v>131</v>
+        <v>169</v>
+      </c>
+      <c r="O51">
+        <v>7</v>
+      </c>
+      <c r="P51" t="s">
+        <v>64</v>
       </c>
       <c r="Q51" t="s">
-        <v>117</v>
+        <v>170</v>
+      </c>
+      <c r="R51" t="s">
+        <v>66</v>
+      </c>
+      <c r="T51" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="52">
@@ -2848,25 +3226,37 @@
         <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="I52" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="J52" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L52" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="M52" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="N52" t="s">
-        <v>135</v>
+        <v>172</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52" t="s">
+        <v>64</v>
       </c>
       <c r="Q52" t="s">
-        <v>133</v>
+        <v>173</v>
+      </c>
+      <c r="R52" t="s">
+        <v>66</v>
+      </c>
+      <c r="T52" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="53">
@@ -2883,25 +3273,25 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="I53" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="J53" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="L53" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="M53" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="N53" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="Q53" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54">
@@ -2918,25 +3308,25 @@
         <v>24</v>
       </c>
       <c r="H54" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="I54" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="J54" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="L54" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="M54" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="N54" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="Q54" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55">
@@ -2953,25 +3343,25 @@
         <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="I55" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="J55" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="L55" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="M55" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="N55" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="Q55" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56">
@@ -2988,25 +3378,25 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="I56" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="J56" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="L56" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="M56" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="N56" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="Q56" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57">
@@ -3023,31 +3413,416 @@
         <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="I57" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="L57" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="M57" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="N57" t="s">
-        <v>149</v>
-      </c>
-      <c r="O57">
+        <v>191</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s">
+        <v>192</v>
+      </c>
+      <c r="I58" t="s">
+        <v>193</v>
+      </c>
+      <c r="J58" t="s">
+        <v>176</v>
+      </c>
+      <c r="L58" t="s">
+        <v>194</v>
+      </c>
+      <c r="M58" t="s">
+        <v>178</v>
+      </c>
+      <c r="N58" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" t="s">
+        <v>196</v>
+      </c>
+      <c r="I59" t="s">
+        <v>193</v>
+      </c>
+      <c r="J59" t="s">
+        <v>176</v>
+      </c>
+      <c r="L59" t="s">
+        <v>197</v>
+      </c>
+      <c r="M59" t="s">
+        <v>178</v>
+      </c>
+      <c r="N59" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s">
+        <v>199</v>
+      </c>
+      <c r="I60" t="s">
+        <v>193</v>
+      </c>
+      <c r="J60" t="s">
+        <v>176</v>
+      </c>
+      <c r="L60" t="s">
+        <v>200</v>
+      </c>
+      <c r="M60" t="s">
+        <v>178</v>
+      </c>
+      <c r="N60" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" t="s">
+        <v>202</v>
+      </c>
+      <c r="I61" t="s">
+        <v>193</v>
+      </c>
+      <c r="J61" t="s">
+        <v>176</v>
+      </c>
+      <c r="L61" t="s">
+        <v>203</v>
+      </c>
+      <c r="M61" t="s">
+        <v>178</v>
+      </c>
+      <c r="N61" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s">
+        <v>205</v>
+      </c>
+      <c r="I62" t="s">
+        <v>193</v>
+      </c>
+      <c r="J62" t="s">
+        <v>176</v>
+      </c>
+      <c r="L62" t="s">
+        <v>206</v>
+      </c>
+      <c r="M62" t="s">
+        <v>178</v>
+      </c>
+      <c r="N62" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s">
+        <v>208</v>
+      </c>
+      <c r="I63" t="s">
+        <v>209</v>
+      </c>
+      <c r="J63" t="s">
+        <v>176</v>
+      </c>
+      <c r="L63" t="s">
+        <v>210</v>
+      </c>
+      <c r="M63" t="s">
+        <v>178</v>
+      </c>
+      <c r="N63" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s">
+        <v>212</v>
+      </c>
+      <c r="I64" t="s">
+        <v>209</v>
+      </c>
+      <c r="J64" t="s">
+        <v>176</v>
+      </c>
+      <c r="L64" t="s">
+        <v>213</v>
+      </c>
+      <c r="M64" t="s">
+        <v>178</v>
+      </c>
+      <c r="N64" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s">
+        <v>215</v>
+      </c>
+      <c r="I65" t="s">
+        <v>209</v>
+      </c>
+      <c r="J65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L65" t="s">
+        <v>216</v>
+      </c>
+      <c r="M65" t="s">
+        <v>178</v>
+      </c>
+      <c r="N65" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s">
+        <v>218</v>
+      </c>
+      <c r="I66" t="s">
+        <v>209</v>
+      </c>
+      <c r="J66" t="s">
+        <v>176</v>
+      </c>
+      <c r="L66" t="s">
+        <v>219</v>
+      </c>
+      <c r="M66" t="s">
+        <v>178</v>
+      </c>
+      <c r="N66" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" t="s">
+        <v>221</v>
+      </c>
+      <c r="I67" t="s">
+        <v>209</v>
+      </c>
+      <c r="J67" t="s">
+        <v>176</v>
+      </c>
+      <c r="L67" t="s">
+        <v>222</v>
+      </c>
+      <c r="M67" t="s">
+        <v>178</v>
+      </c>
+      <c r="N67" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s">
+        <v>72</v>
+      </c>
+      <c r="I68" t="s">
+        <v>73</v>
+      </c>
+      <c r="J68" t="s">
+        <v>74</v>
+      </c>
+      <c r="L68" t="s">
+        <v>224</v>
+      </c>
+      <c r="M68" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" t="s">
+        <v>225</v>
+      </c>
+      <c r="O68">
         <v>1</v>
       </c>
-      <c r="P57" t="s">
-        <v>150</v>
-      </c>
-      <c r="R57" t="s">
-        <v>151</v>
+      <c r="P68" t="s">
+        <v>226</v>
+      </c>
+      <c r="R68" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -96,7 +96,7 @@
     <t>screening_20240307</t>
   </si>
   <si>
-    <t>6fe6f3ba-15d5-4c14-9cee-05f9055fa85c</t>
+    <t>a1bcd225-38c1-41dc-ba77-02cd2193d596</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -117,7 +117,7 @@
     <t/>
   </si>
   <si>
-    <t>6cd57301-72ee-45b2-a89e-7c64505e493c</t>
+    <t>2dbd073c-6684-4224-bb4c-a91ca15222a4</t>
   </si>
   <si>
     <t>Combination Not Matching</t>
@@ -141,7 +141,7 @@
     <t>Resolved By QE/QCS</t>
   </si>
   <si>
-    <t>42289c37-5242-44ac-844b-bc027714c711</t>
+    <t>0244304a-5deb-48da-875a-627182e9e89b</t>
   </si>
   <si>
     <t>Invalid value "LA6729-3" found in ANSWER_CODE</t>
@@ -156,7 +156,7 @@
     <t>The ANSWER_CODE "LA6729-3" of ANSWER_CODE_DESCRIPTION "Sometimes true" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>247e9575-fa58-4fd5-ac10-6818afc1f1a5</t>
+    <t>026f475b-1f07-4fda-b482-105264f86fd2</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -186,7 +186,7 @@
     <t>admin_demographics_20240307</t>
   </si>
   <si>
-    <t>b2efd78e-a606-412c-9e75-9e63c310f277</t>
+    <t>7b8faadd-6850-401c-8b0c-2ac7dd11c42c</t>
   </si>
   <si>
     <t>Invalid value "UNK" found in SEX_AT_BIRTH_CODE</t>
@@ -201,7 +201,7 @@
     <t>The SEX_AT_BIRTH_CODE "UNK" of SEX_AT_BIRTH_CODE_DESCRIPTION "unknown" is not matching with the SEX_AT_BIRTH_CODE of SEX_AT_BIRTH_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>6e449d32-c1d8-4040-977e-a5a23b025518</t>
+    <t>6625dac4-cae1-4679-82c2-0917df6bf522</t>
   </si>
   <si>
     <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION</t>
@@ -219,7 +219,7 @@
     <t>Validate SEX_AT_BIRTH_CODE_DESCRIPTION with sex at birth reference data</t>
   </si>
   <si>
-    <t>f3120386-3344-401f-941f-514a4dc1d3dc</t>
+    <t>3ce331ee-5dc8-42d7-a7f7-b97ffd1c5751</t>
   </si>
   <si>
     <t>Invalid value "1142-9" found in RACE_CODE</t>
@@ -234,7 +234,7 @@
     <t>The RACE_CODE "1142-9" of RACE_CODE_DESCRIPTION "Coquille" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>7ea7272c-ca5d-4a76-9a8f-6a52d1fc6171</t>
+    <t>33d51eb2-8ad2-4328-824a-1f8b5f795cde</t>
   </si>
   <si>
     <t>Invalid RACE CODE DESCRIPTION</t>
@@ -252,25 +252,25 @@
     <t>Validate RACE CODE DESCRIPTION with race reference data</t>
   </si>
   <si>
-    <t>dc3f0bfc-debf-47e0-82af-20d9619d2103</t>
-  </si>
-  <si>
-    <t>68b7f069-6cb0-4611-8a75-a41074c545a6</t>
-  </si>
-  <si>
-    <t>859addfe-2ffe-4f28-b739-b302a4a12e9a</t>
-  </si>
-  <si>
-    <t>8d1799a3-7233-41d6-943f-e1cfbb8a5cc9</t>
-  </si>
-  <si>
-    <t>7e4b58ae-4370-4549-831e-a4aa75a32943</t>
-  </si>
-  <si>
-    <t>1c46bd54-2a52-4d35-b332-8666da8d7aea</t>
-  </si>
-  <si>
-    <t>f5c0c5ee-9216-413e-8031-8f3e9112053e</t>
+    <t>2dcf1ec1-b9cd-4130-8f25-94815546c0eb</t>
+  </si>
+  <si>
+    <t>44463e7d-a7dc-419c-9637-6a35ea551d02</t>
+  </si>
+  <si>
+    <t>3011a340-e82b-4b7e-b2de-1c6ce6d7a64b</t>
+  </si>
+  <si>
+    <t>dbbad070-10bc-4ba3-8ab0-2ed53fb5db9b</t>
+  </si>
+  <si>
+    <t>7b0ebc60-137d-4566-91e6-3ccfc897a2fb</t>
+  </si>
+  <si>
+    <t>4b5d504e-fcaf-460a-9e41-d767f2be504f</t>
+  </si>
+  <si>
+    <t>28f5cba4-6f00-4644-9da8-7d0bd9552050</t>
   </si>
   <si>
     <t>Invalid value "LA6571-9" found in ANSWER_CODE</t>
@@ -282,16 +282,16 @@
     <t>The ANSWER_CODE "LA6571-9" of ANSWER_CODE_DESCRIPTION "Nearly every day" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>9381c195-36c2-446e-a23b-8166f7038c0a</t>
-  </si>
-  <si>
-    <t>3e0d3620-571f-418b-a0e4-a1df981c5719</t>
-  </si>
-  <si>
-    <t>f45562e3-6074-432e-90b2-21a6b6d8d30d</t>
-  </si>
-  <si>
-    <t>6e6ac80f-6859-4d98-909e-1d550e57d8ab</t>
+    <t>89f31848-70e7-4d5c-9c2a-73ca02e3cdb7</t>
+  </si>
+  <si>
+    <t>b9e6e10f-eb9a-49e5-a3fa-6dea8584ecdc</t>
+  </si>
+  <si>
+    <t>d886d3e9-fc19-414d-b847-0ba764eaa70e</t>
+  </si>
+  <si>
+    <t>c4996409-8355-45b6-95a8-b721d815150a</t>
   </si>
   <si>
     <t>Invalid value "LA6569-3" found in ANSWER_CODE</t>
@@ -303,25 +303,25 @@
     <t>The ANSWER_CODE "LA6569-3" of ANSWER_CODE_DESCRIPTION "Several days" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>8ec5f7e4-57c9-4c01-ac0b-16d7d3c0688c</t>
-  </si>
-  <si>
-    <t>472431c3-727a-4392-a6f4-c7164101cd5d</t>
-  </si>
-  <si>
-    <t>db78d6f8-1d41-4c69-bf4c-1b0af2bb40c7</t>
-  </si>
-  <si>
-    <t>6069b482-c551-458d-a460-34f55b97ff05</t>
-  </si>
-  <si>
-    <t>66ae6e97-2424-48db-baaf-279e749c11d4</t>
-  </si>
-  <si>
-    <t>61018a01-9f0f-4968-ae86-6f80e5e0d3d9</t>
-  </si>
-  <si>
-    <t>dd4f3549-ff00-45bc-a0ed-83b4f681085e</t>
+    <t>32556711-1f15-48ee-8b47-22aa919daab9</t>
+  </si>
+  <si>
+    <t>028f835f-37d1-4395-b2b1-de57d76803cd</t>
+  </si>
+  <si>
+    <t>efd473db-0aba-47e4-b2fb-01b4fa608999</t>
+  </si>
+  <si>
+    <t>23dd376f-566f-4e49-abbd-2779b2028319</t>
+  </si>
+  <si>
+    <t>d146a4dd-00da-442d-ba17-1fab3b3d84ac</t>
+  </si>
+  <si>
+    <t>013363e2-fe12-49f6-ba93-6c6afa64e762</t>
+  </si>
+  <si>
+    <t>64354630-7e22-48eb-a5ec-9b400ebbc5e9</t>
   </si>
   <si>
     <t>Invalid value "69861-3" found in QUESTION_CODE</t>
@@ -333,19 +333,19 @@
     <t>The QUESTION_CODE "69861-3" of QUESTION_CODE_DESCRIPTION "Because of a physical, mental, or emotional condition, do you have difficulty doing errands alone such as visiting a physician's office or shopping" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>48d32e54-e949-4ebd-9a1c-28337ae5516b</t>
-  </si>
-  <si>
-    <t>d3263673-9b38-409d-afd9-4bedf39458ad</t>
-  </si>
-  <si>
-    <t>d23cf982-273a-465b-8988-9f4ec7eb677a</t>
-  </si>
-  <si>
-    <t>36c0650d-9f85-4624-ad2c-0fa0da80abf1</t>
-  </si>
-  <si>
-    <t>2a8e077b-5cbf-448f-8cc8-d400894ab689</t>
+    <t>5147668f-02fa-43bf-a232-411b0011f374</t>
+  </si>
+  <si>
+    <t>356ca88d-410a-4803-ac69-47f536f47977</t>
+  </si>
+  <si>
+    <t>fa2ec750-ef9b-430e-accc-09a037cf049f</t>
+  </si>
+  <si>
+    <t>04f1fc8d-fe47-4689-80e1-3a6af42f3a25</t>
+  </si>
+  <si>
+    <t>99f54569-f1ed-4cf8-8b23-fb5f259ddd2a</t>
   </si>
   <si>
     <t>Invalid value "LA31983-2" found in ANSWER_CODE</t>
@@ -357,7 +357,7 @@
     <t>The ANSWER_CODE "LA31983-2" of ANSWER_CODE_DESCRIPTION "I do not need or want help" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>0cf58aaa-d22c-439e-ac43-cbb9579fc44f</t>
+    <t>afb5a289-b43c-448d-be33-ec669bf1ff4b</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -369,10 +369,10 @@
     <t>Provide a value for POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>c974ee29-12cf-41e8-942c-3576575d19b9</t>
-  </si>
-  <si>
-    <t>4ff52ec2-b4a9-40a5-b57a-13a03d08e0e9</t>
+    <t>824464b1-0c1b-45f9-9d9c-e4a5116e20ee</t>
+  </si>
+  <si>
+    <t>d86d77e9-84b1-4d75-b7d6-82b100461f48</t>
   </si>
   <si>
     <t>Invalid value "69858-9" found in QUESTION_CODE</t>
@@ -384,7 +384,7 @@
     <t>The QUESTION_CODE "69858-9" of QUESTION_CODE_DESCRIPTION "Because of a physical, mental, or emotional condition, do you have serious difficulty concentrating, remembering, or making decisions?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>98bcf9f1-ae48-4cd3-8e2f-134a57acc426</t>
+    <t>f6452619-643c-4803-9934-d8fd5e3f39ce</t>
   </si>
   <si>
     <t>Invalid value "LA16644-9" found in ANSWER_CODE</t>
@@ -396,22 +396,22 @@
     <t>The ANSWER_CODE "LA16644-9" of ANSWER_CODE_DESCRIPTION "Fairly often" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>6cc4f247-ad9c-45e8-8b64-ec51ad7c6e97</t>
-  </si>
-  <si>
-    <t>92a1e0a7-42dc-45c8-aab8-1b656faaf505</t>
-  </si>
-  <si>
-    <t>78bc4e30-9ebf-4b0a-a2e9-214efdeeaf5d</t>
-  </si>
-  <si>
-    <t>487ab317-914a-45a4-95dc-5d27081df473</t>
-  </si>
-  <si>
-    <t>3efe3ac1-d6ca-43fb-a7f9-ee1de492b3c0</t>
-  </si>
-  <si>
-    <t>dfd88fdf-ae1c-4077-8e7d-834db21ea29c</t>
+    <t>bbf0765f-ffa2-4700-9509-0d826e427157</t>
+  </si>
+  <si>
+    <t>d45208ae-beec-4494-a328-196bd7bdbc79</t>
+  </si>
+  <si>
+    <t>526116c7-4e05-4dc3-8a2b-549d9b3b2fe3</t>
+  </si>
+  <si>
+    <t>80b4e25d-ba60-43f3-8c30-894d9de52a3a</t>
+  </si>
+  <si>
+    <t>5b032a52-619d-40fd-b0bd-06faeee229f7</t>
+  </si>
+  <si>
+    <t>8654345f-2c5d-491d-8c4e-486967444406</t>
   </si>
   <si>
     <t>Invalid value "93038-8" found in QUESTION_CODE</t>
@@ -423,25 +423,25 @@
     <t>The QUESTION_CODE "93038-8" of QUESTION_CODE_DESCRIPTION "Stress means a situation in which a person feels tense, restless, nervous, or anxious, or is unable to sleep at night because his or her mind is troubled all the time. Do you feel this kind of stress these days?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>4d1532eb-9e13-4868-80a9-8f3d3bc4fbdd</t>
-  </si>
-  <si>
-    <t>2f2aa9fc-5561-4991-8d0c-24769cf5322f</t>
-  </si>
-  <si>
-    <t>719127e3-96aa-43e3-b08d-634b1332e766</t>
-  </si>
-  <si>
-    <t>d9ed0aa6-4cd2-4c1d-90bc-36555e4e4ae6</t>
-  </si>
-  <si>
-    <t>a93d837a-fd74-44e6-9cf6-525eba837994</t>
-  </si>
-  <si>
-    <t>1c614f0b-6d6e-4889-be9a-0a7cd6dceb8b</t>
-  </si>
-  <si>
-    <t>353c84d2-2b9c-4f59-853a-fde73bf0c6a3</t>
+    <t>767f2996-7ca0-4966-9d26-2ace48e272e6</t>
+  </si>
+  <si>
+    <t>93e03c23-a563-4441-bf83-da1750557c44</t>
+  </si>
+  <si>
+    <t>dc82faa1-2368-4be5-adb4-3bf887f76457</t>
+  </si>
+  <si>
+    <t>3abde441-aed7-4571-85af-52117905b126</t>
+  </si>
+  <si>
+    <t>eff18ffb-c6c3-4a47-8585-144989e29b43</t>
+  </si>
+  <si>
+    <t>40514b18-159d-4a5f-ac16-2adf6bde21da</t>
+  </si>
+  <si>
+    <t>312ef8f2-102c-457f-8acb-32dcdee2ade1</t>
   </si>
   <si>
     <t>Invalid value "LA32002-0" found in ANSWER_CODE</t>
@@ -453,31 +453,31 @@
     <t>The ANSWER_CODE "LA32002-0" of ANSWER_CODE_DESCRIPTION "Already shut off" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>736a20dd-544b-44e3-abbd-0052945a2d75</t>
-  </si>
-  <si>
-    <t>cec958a2-1421-4107-b675-b5eaa6a45ca0</t>
-  </si>
-  <si>
-    <t>e4c7c565-f393-4980-9e30-bc297defbe95</t>
-  </si>
-  <si>
-    <t>7c3e9b9d-a33f-4977-ac9c-893f4e5e1a9e</t>
-  </si>
-  <si>
-    <t>7231c125-06bf-4d21-aa89-ee551cfa67a0</t>
-  </si>
-  <si>
-    <t>1138f0e3-7f5b-46ac-84b9-69e9c31250a4</t>
-  </si>
-  <si>
-    <t>dcc10036-cc8c-48df-a50f-da428ca79d8d</t>
-  </si>
-  <si>
-    <t>f6eddaf5-6f1e-42ee-9d1f-4dc0ab0d5898</t>
-  </si>
-  <si>
-    <t>56e30650-888d-40b9-b4eb-7aba2ffc9cef</t>
+    <t>40a6be8c-599c-458b-b9d5-84d852ca15b1</t>
+  </si>
+  <si>
+    <t>0c65eae8-d47c-4e00-b2cb-99c76621a0ec</t>
+  </si>
+  <si>
+    <t>4f70c607-e509-43b4-937d-5806775ba5cf</t>
+  </si>
+  <si>
+    <t>aba6753f-52d0-4a2d-acf1-cbdeff656287</t>
+  </si>
+  <si>
+    <t>d07efb67-2f11-4c57-a7b1-5118a03327b4</t>
+  </si>
+  <si>
+    <t>cec0699f-5a01-4cc5-bc7e-c5e688240bbc</t>
+  </si>
+  <si>
+    <t>2630f5fd-b9a5-4a7c-b8c7-bb7b9897d473</t>
+  </si>
+  <si>
+    <t>25266ec9-5a20-42e9-bd8b-598c4123d7c4</t>
+  </si>
+  <si>
+    <t>c1599033-6475-48e4-862b-0394eb7a66cc</t>
   </si>
   <si>
     <t>Invalid value "LA31997-2" found in ANSWER_CODE</t>
@@ -489,10 +489,10 @@
     <t>The ANSWER_CODE "LA31997-2" of ANSWER_CODE_DESCRIPTION "Lead paint or pipes" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>ba4e94ec-810d-42d5-a6ef-d95da261a429</t>
-  </si>
-  <si>
-    <t>094bb63b-5074-494e-8716-93cd019338be</t>
+    <t>de1c606d-8abc-455a-947b-b0cf82c11418</t>
+  </si>
+  <si>
+    <t>d10943bf-66d3-43cd-ba7b-c48f5faf9b10</t>
   </si>
   <si>
     <t>Invalid value "44255-8" found in QUESTION_CODE</t>
@@ -504,7 +504,7 @@
     <t>The QUESTION_CODE "44255-8" of QUESTION_CODE_DESCRIPTION "Feeling down, depressed, or hopeless?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>b89184fb-839f-4cd6-a03e-b42409e56dfe</t>
+    <t>f421ac6a-f469-4e56-855f-375546663940</t>
   </si>
   <si>
     <t>Invalid value "LA31994-9" found in ANSWER_CODE</t>
@@ -516,25 +516,25 @@
     <t>The ANSWER_CODE "LA31994-9" of ANSWER_CODE_DESCRIPTION "I have a place to live today, but I am worried about losing it in the future" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>3352d97b-75b8-4d00-b5b6-b0242fc96403</t>
-  </si>
-  <si>
-    <t>2eb73d30-d76b-42f9-8f3f-2a28b51d7509</t>
-  </si>
-  <si>
-    <t>b4f9f53d-d245-41b5-a666-8ff65ea7c21c</t>
-  </si>
-  <si>
-    <t>d30b951f-bd95-43ca-a1d7-2c91394c84a6</t>
-  </si>
-  <si>
-    <t>176d6daf-0c60-4d72-8e23-b9dffaac19ae</t>
-  </si>
-  <si>
-    <t>387a982c-b38d-4198-a200-a00e55697693</t>
-  </si>
-  <si>
-    <t>21fb471f-c95b-4f71-a068-f8615a32fe00</t>
+    <t>cf3b7ecc-1174-4007-ad37-6af41f4325f9</t>
+  </si>
+  <si>
+    <t>dbb4167a-7b7f-46aa-b63e-b6aca7e3ec0a</t>
+  </si>
+  <si>
+    <t>14f2856e-96ca-4945-9058-38f23556911f</t>
+  </si>
+  <si>
+    <t>4667e558-62d3-485e-8a2f-461931879bd6</t>
+  </si>
+  <si>
+    <t>73276c43-50a5-45c4-8598-b631972ec0ef</t>
+  </si>
+  <si>
+    <t>138043b7-9296-40b6-bb9f-af77d9374047</t>
+  </si>
+  <si>
+    <t>6da64f13-3237-4f72-a733-1cc76ea361e8</t>
   </si>
   <si>
     <t>Invalid timestamp "01/27/02 15:42" found in RECORDED_TIME</t>
@@ -543,7 +543,7 @@
     <t>01/27/02 15:42</t>
   </si>
   <si>
-    <t>19449a60-ffab-438a-bd89-a80357c1758f</t>
+    <t>9f1763cc-cbdb-468c-a436-7a70b4e315f6</t>
   </si>
   <si>
     <t>Invalid value "44250-9" found in QUESTION_CODE</t>
@@ -555,28 +555,28 @@
     <t>The QUESTION_CODE "44250-9" of QUESTION_CODE_DESCRIPTION "Little interest or pleasure in doing things?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>30a3f770-b3e5-4459-a034-6c8926c7231f</t>
-  </si>
-  <si>
-    <t>82b8db3b-7762-4ce2-9d39-7f99f825fbae</t>
-  </si>
-  <si>
-    <t>b368b7d9-d8ae-40cd-a215-874bb230cc9d</t>
-  </si>
-  <si>
-    <t>b22b0c1b-efae-4b3f-80e6-86bbab20a756</t>
-  </si>
-  <si>
-    <t>9f1bf01c-cc97-4276-9017-52ebaa5ea1ef</t>
-  </si>
-  <si>
-    <t>a0d29604-0097-4ebe-96fc-190861216639</t>
-  </si>
-  <si>
-    <t>ee112236-9519-4edc-a315-e2e1a30d6f4b</t>
-  </si>
-  <si>
-    <t>2789674f-f0fc-422f-9a7f-0247646291c2</t>
+    <t>85959c3d-5f97-41f6-a8d4-5558a0a3ffde</t>
+  </si>
+  <si>
+    <t>c09995e2-a81d-4c2f-8264-df31c5d91ce9</t>
+  </si>
+  <si>
+    <t>f6a6a254-7114-4e25-bbc0-e8bfb978b02a</t>
+  </si>
+  <si>
+    <t>2aa5cce0-a98d-4bfb-84b3-07fd8d2559a6</t>
+  </si>
+  <si>
+    <t>af12fd1c-2975-489d-81a6-e0c1b138f6b0</t>
+  </si>
+  <si>
+    <t>3571ce63-68f4-4dbf-b49a-390aea0241d0</t>
+  </si>
+  <si>
+    <t>1261d7ca-3896-4e7d-a05f-e7ad5f4f4eb7</t>
+  </si>
+  <si>
+    <t>aa522703-b495-45b7-91d3-38ddf24dc9ee</t>
   </si>
   <si>
     <t>Invalid value "95530-2" found in QUESTION_CODE</t>
@@ -588,34 +588,34 @@
     <t>The QUESTION_CODE "95530-2" of QUESTION_CODE_DESCRIPTION "How many times in the past year have you used prescription drugs for non-medical reasons?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>3c1a30fd-679b-40c4-bee8-67f783dd7e57</t>
-  </si>
-  <si>
-    <t>4f7f4107-51b3-4a28-b852-83c9bba80dde</t>
-  </si>
-  <si>
-    <t>514722d1-7ec0-4448-9e4a-c0b4ee0b3c29</t>
-  </si>
-  <si>
-    <t>8486e340-cc21-4f77-b4df-c7c336504dc0</t>
-  </si>
-  <si>
-    <t>e9ebbc27-6f31-4bbd-8f51-1bde9bd3c6a3</t>
-  </si>
-  <si>
-    <t>ade4a853-8c9a-4d06-b6d9-7a883df82473</t>
-  </si>
-  <si>
-    <t>8cf568a7-b03f-4a84-8327-8ac12ab7b0dc</t>
-  </si>
-  <si>
-    <t>0c52a2ab-c617-4883-af00-31a9f349d86e</t>
-  </si>
-  <si>
-    <t>647fce0b-4c0b-4cee-8e4b-848e526687c5</t>
-  </si>
-  <si>
-    <t>9e897be8-25d3-49bb-90e5-f4262f99eab3</t>
+    <t>18dbf305-d7b9-4aea-9996-a6e8c1bc90c6</t>
+  </si>
+  <si>
+    <t>ca13a2c5-bb8a-4409-bcf2-908ab6e2691e</t>
+  </si>
+  <si>
+    <t>215aee41-f0fa-4cfd-99e8-366be7f2e9a1</t>
+  </si>
+  <si>
+    <t>e4efb683-4e31-416e-b09a-5c7ed990bae8</t>
+  </si>
+  <si>
+    <t>a0c615c9-d1dd-4fb9-b075-f73ee2b382fb</t>
+  </si>
+  <si>
+    <t>d9a66f4b-c730-40fa-8260-9c8c088e4adc</t>
+  </si>
+  <si>
+    <t>7a1ac753-5106-403e-b204-2be8f379c7cc</t>
+  </si>
+  <si>
+    <t>31ffa4b5-990d-4f80-802c-a4194451bf17</t>
+  </si>
+  <si>
+    <t>0c0acf40-e9a5-4dcc-926c-38cbbb262935</t>
+  </si>
+  <si>
+    <t>7e0429e9-681f-45bf-a029-571142c593bc</t>
   </si>
   <si>
     <t>Invalid value "96842-0" found in QUESTION_CODE</t>
@@ -627,22 +627,22 @@
     <t>The QUESTION_CODE "96842-0" of QUESTION_CODE_DESCRIPTION "How many times in the past 12 months have you used tobacco products (like cigarettes, cigars, snuff, chew, electronic cigarettes)?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>6cf634a9-3f74-4147-8f08-63fa6520ceae</t>
-  </si>
-  <si>
-    <t>d566d765-cfdf-4057-afd0-a1873204aa03</t>
-  </si>
-  <si>
-    <t>3c0181f3-2d65-4ea5-909f-e6e9e2f7700d</t>
-  </si>
-  <si>
-    <t>38542657-b9f5-4210-ac6e-bdebf26522e2</t>
-  </si>
-  <si>
-    <t>4d4acf79-e170-4ff3-8ca1-82b2760733b8</t>
-  </si>
-  <si>
-    <t>5aa950cc-b2dc-45dc-b7ce-a86c66e9cf48</t>
+    <t>36895c4c-8a5f-4c5f-aa15-c5210ee8ae59</t>
+  </si>
+  <si>
+    <t>4e9d6ecf-c8ef-4f23-85be-68f59179cc57</t>
+  </si>
+  <si>
+    <t>bc882015-bb26-47f7-9285-30be66c23c31</t>
+  </si>
+  <si>
+    <t>102df668-587f-44ef-a67b-78e94ef0e5b7</t>
+  </si>
+  <si>
+    <t>7fc48b4d-e92e-4d2b-a489-126c5b021d72</t>
+  </si>
+  <si>
+    <t>595bef24-4546-4cdb-b233-7913ee3cd4fc</t>
   </si>
   <si>
     <t>Invalid value "68517-2" found in QUESTION_CODE</t>
@@ -654,19 +654,19 @@
     <t>The QUESTION_CODE "68517-2" of QUESTION_CODE_DESCRIPTION "How many times in the past 12 months have you had 5 or more drinks in a day (males) or 4 or more drinks in a day (females)?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>09762927-92b4-4994-8857-872d4e8abba0</t>
-  </si>
-  <si>
-    <t>eb593d95-ed21-455d-8c01-ec0648de1c1d</t>
-  </si>
-  <si>
-    <t>78378e31-3750-4ad9-b466-222573e047a1</t>
-  </si>
-  <si>
-    <t>db3c864c-841a-447c-b478-d2de1e9abf6d</t>
-  </si>
-  <si>
-    <t>899299eb-a3da-4cf2-aeeb-e192b96d96e1</t>
+    <t>0ab327b9-0d46-465b-ad45-1b7e6f1dc53f</t>
+  </si>
+  <si>
+    <t>cd2cee0a-a52a-4b58-99f7-1f05936e9d6c</t>
+  </si>
+  <si>
+    <t>8406f92b-7934-4153-b3b4-cc5f286b53ca</t>
+  </si>
+  <si>
+    <t>03df60e8-4414-430c-9d1b-6dd030bf3825</t>
+  </si>
+  <si>
+    <t>6cfa8140-a036-4e82-a8ae-e9890cb34877</t>
   </si>
   <si>
     <t>Invalid value "68516-4" found in QUESTION_CODE</t>
@@ -678,34 +678,34 @@
     <t>The QUESTION_CODE "68516-4" of QUESTION_CODE_DESCRIPTION "On average, how many minutes did you usually spend exercising at this level on one of those days?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>68decd91-a5c3-41f3-a67c-ba26e7744e59</t>
-  </si>
-  <si>
-    <t>c96b8f07-6f15-4e80-9d33-0e104b8bb29c</t>
-  </si>
-  <si>
-    <t>402ed204-c824-449f-8307-2aecdb67fe9a</t>
-  </si>
-  <si>
-    <t>4a2b7728-35a8-4174-b8d3-e1c2fc2dfed3</t>
-  </si>
-  <si>
-    <t>f79aa222-93e4-4002-8915-6482c02fdd20</t>
-  </si>
-  <si>
-    <t>42b57c4d-f0f9-45ca-bf4c-5685e9d8873e</t>
-  </si>
-  <si>
-    <t>1093aa5e-2f6b-4acd-b7a7-166f9d916706</t>
-  </si>
-  <si>
-    <t>7a4786bb-1f58-4386-a824-0bce8c0b8540</t>
-  </si>
-  <si>
-    <t>ff4f9851-1ba3-4124-bc6f-d746102d9e4d</t>
-  </si>
-  <si>
-    <t>4c91f909-640f-47ce-a05f-d611b43c07be</t>
+    <t>5d95bb27-f9af-4327-b6e4-f4edf4d22f41</t>
+  </si>
+  <si>
+    <t>c2274b2f-f783-46a3-9791-95ddd16b9844</t>
+  </si>
+  <si>
+    <t>b1158a96-7d03-4dac-b5b2-3b17fbc8c100</t>
+  </si>
+  <si>
+    <t>e3367ccc-807d-4bb4-bd2f-3527899958e1</t>
+  </si>
+  <si>
+    <t>6d981628-3848-442d-8c01-983e23343ed7</t>
+  </si>
+  <si>
+    <t>d06b3a88-54d2-4f08-b8bb-d6f28431031d</t>
+  </si>
+  <si>
+    <t>c69c0970-83cb-46da-8b1a-358363bcc070</t>
+  </si>
+  <si>
+    <t>6c257f25-c808-4f6c-942b-0b602ecb5015</t>
+  </si>
+  <si>
+    <t>874d1721-7c6c-4174-b7c7-af689e515da3</t>
+  </si>
+  <si>
+    <t>d31dfd3e-2992-428e-a220-e74b2b31ca91</t>
   </si>
   <si>
     <t>Invalid value "89555-7" found in QUESTION_CODE</t>
@@ -717,28 +717,28 @@
     <t>The QUESTION_CODE "89555-7" of QUESTION_CODE_DESCRIPTION "In the last 30 days, other than the activities you did for work, on average, how many days per week did you engage in moderate exercise (like walking fast, running, jogging, dancing, swimming, biking, or other similar activities)" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>e7441233-1e8c-45ca-96cd-afc57e241a50</t>
-  </si>
-  <si>
-    <t>a0dc28d6-1e37-4b32-89c4-7214ee0c77bf</t>
-  </si>
-  <si>
-    <t>4c0d512c-340b-4463-8431-8cd61db22fd5</t>
-  </si>
-  <si>
-    <t>a4c61193-ec02-4053-ac58-189f106ff070</t>
-  </si>
-  <si>
-    <t>6a19d8e1-3df7-4bfd-b3d8-fa0d3733d72e</t>
-  </si>
-  <si>
-    <t>7a523c50-47fb-418f-851f-60d9b574d924</t>
-  </si>
-  <si>
-    <t>7fc5b2a7-f246-4e0a-9378-541e9026226a</t>
-  </si>
-  <si>
-    <t>c6883bd1-6ef8-4dee-a97f-4fa0eef81dff</t>
+    <t>e046e991-8eb9-4e48-8ef4-f0513cebb7af</t>
+  </si>
+  <si>
+    <t>ea7f3d8a-b394-4c2a-bfe6-e23d8fa435dd</t>
+  </si>
+  <si>
+    <t>55834042-340c-4841-963c-1a3b29188bef</t>
+  </si>
+  <si>
+    <t>b86067ef-dfd2-48b4-a9a6-f4b779aa5907</t>
+  </si>
+  <si>
+    <t>a2884190-b5a2-46d1-a33e-5a5b7e44b1b9</t>
+  </si>
+  <si>
+    <t>a01630fb-36c5-43a6-b359-0cfbdc4c4688</t>
+  </si>
+  <si>
+    <t>8c659026-2121-49be-aa84-4c311eccbcdb</t>
+  </si>
+  <si>
+    <t>3e0d8a1d-1922-4c63-8c20-9ee6a89782b3</t>
   </si>
   <si>
     <t>Invalid value "96782-8" found in QUESTION_CODE</t>
@@ -750,10 +750,10 @@
     <t>The QUESTION_CODE "96782-8" of QUESTION_CODE_DESCRIPTION "Do you want help with school or training? For example, starting or completing job training or getting a high school diploma, GED or equivalent." is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>fea1c890-c144-4768-b042-913e3a49c8e0</t>
-  </si>
-  <si>
-    <t>b3fa3ccc-78ad-4fbc-8edd-3b4df4c8be62</t>
+    <t>c0256116-c5f6-4544-ba40-0849177cf3d3</t>
+  </si>
+  <si>
+    <t>4509604c-d6ba-4530-ac15-de8969bc89e7</t>
   </si>
   <si>
     <t>Invalid value "97027-7" found in QUESTION_CODE</t>
@@ -765,10 +765,10 @@
     <t>The QUESTION_CODE "97027-7" of QUESTION_CODE_DESCRIPTION "Do you speak a language other than English at home?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>ebfc677d-a077-400e-a88d-eaf0256fc1fc</t>
-  </si>
-  <si>
-    <t>4b121f66-615c-46b8-9b1e-324bebb1dccf</t>
+    <t>28f57a2f-8476-46ff-8029-441c7e1c0f9a</t>
+  </si>
+  <si>
+    <t>76a78d17-4089-481a-8e46-9215601f86d5</t>
   </si>
   <si>
     <t>Invalid value "93159-2" found in QUESTION_CODE</t>
@@ -780,19 +780,19 @@
     <t>The QUESTION_CODE "93159-2" of QUESTION_CODE_DESCRIPTION "How often do you feel lonely or isolated from those around you?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>9491e2ef-e574-497b-8622-367d55b4a4ef</t>
-  </si>
-  <si>
-    <t>47418a66-0d96-43ae-8933-408e317a8ce8</t>
-  </si>
-  <si>
-    <t>5945fe21-df67-4444-b7ef-c4d889944ba6</t>
-  </si>
-  <si>
-    <t>feb08f78-945d-4925-b7e0-562152848b88</t>
-  </si>
-  <si>
-    <t>27520fcc-9da7-4e32-9252-ed1684e6687d</t>
+    <t>87a85d1a-119a-4a1d-a25b-9eb374b18a92</t>
+  </si>
+  <si>
+    <t>228a68a1-44c8-4e31-8996-4356a241ce03</t>
+  </si>
+  <si>
+    <t>ca806489-f13f-43bf-80e5-7899a24966d8</t>
+  </si>
+  <si>
+    <t>7fc0933a-f915-4874-a96e-b19641965fbe</t>
+  </si>
+  <si>
+    <t>7f1e730f-be4b-43aa-844d-21d191b9afe2</t>
   </si>
   <si>
     <t>Invalid value "96781-0" found in QUESTION_CODE</t>
@@ -804,16 +804,16 @@
     <t>The QUESTION_CODE "96781-0" of QUESTION_CODE_DESCRIPTION "If for any reason you need help with day-to-day activities such as bathing, preparing meals, shopping, managing finances, etc., do you get the help you need?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>a3cc0402-78ce-43b6-9e64-8ed8a2abf758</t>
-  </si>
-  <si>
-    <t>7fb1ff47-466d-4a68-b357-742c05f231c6</t>
-  </si>
-  <si>
-    <t>3f6f091d-0257-4a64-8706-0352c1963adb</t>
-  </si>
-  <si>
-    <t>4a73c804-5bd2-46f2-b839-84d5b8d95ccc</t>
+    <t>350b9aa1-7873-4b63-9682-7020a9d5f0d6</t>
+  </si>
+  <si>
+    <t>2e3c9f73-e922-4652-8225-83e6c2afcef1</t>
+  </si>
+  <si>
+    <t>2bdbf7c1-6e17-4e9b-8a06-0bb6e6729671</t>
+  </si>
+  <si>
+    <t>3b51f035-1b4e-4262-a4df-0e1120b17e93</t>
   </si>
   <si>
     <t>Invalid value "96780-2" found in QUESTION_CODE</t>
@@ -825,13 +825,13 @@
     <t>The QUESTION_CODE "96780-2" of QUESTION_CODE_DESCRIPTION "Do you want help finding or keeping work or a job?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>71ac4ea2-125d-4d77-a45d-b73e81b4e0e5</t>
-  </si>
-  <si>
-    <t>72d5d119-5d1f-41a2-b135-63d05692da73</t>
-  </si>
-  <si>
-    <t>6b9ab95c-c388-445d-a23a-b5332cc7a55c</t>
+    <t>1e042273-b252-4d12-aadd-5a931b74b910</t>
+  </si>
+  <si>
+    <t>ead2ffc2-fde5-4d3c-8745-4a606e4cd80e</t>
+  </si>
+  <si>
+    <t>13be2bb0-89ee-41a3-b953-c9c05d9c7c64</t>
   </si>
   <si>
     <t>Invalid value "76513-1" found in QUESTION_CODE</t>
@@ -843,13 +843,13 @@
     <t>The QUESTION_CODE "76513-1" of QUESTION_CODE_DESCRIPTION "How hard is it for you to pay for the very basics like food, housing, medical care, and heating? Would you say it is" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>8a08d0ca-921d-4e5b-b0f6-65d9a84bd59a</t>
-  </si>
-  <si>
-    <t>f48ac24c-797a-4c3c-b88b-a909b371e011</t>
-  </si>
-  <si>
-    <t>f128bb67-9e08-4aa9-870f-74d7c785e94a</t>
+    <t>f55722da-7e74-4439-b182-be317a739903</t>
+  </si>
+  <si>
+    <t>e26a9934-31bd-4fac-8cda-93e815206c92</t>
+  </si>
+  <si>
+    <t>0c245ecc-b68f-486b-a752-e17c6e105a5c</t>
   </si>
   <si>
     <t>Invalid value "95615-1" found in QUESTION_CODE</t>
@@ -861,19 +861,19 @@
     <t>The QUESTION_CODE "95615-1" of QUESTION_CODE_DESCRIPTION "How often does anyone, including family and friends, scream or curse at you?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>dcba302b-75a8-4311-887c-cb9a553b5b56</t>
-  </si>
-  <si>
-    <t>66c39655-6c04-42c7-a973-5880e85b86e3</t>
-  </si>
-  <si>
-    <t>9e97f7d4-2d5e-4c18-af64-29447d401861</t>
-  </si>
-  <si>
-    <t>1a65c494-d8e5-4460-acaa-6aafa68d7a1f</t>
-  </si>
-  <si>
-    <t>65d6836d-a955-4451-a69f-08364e895f1d</t>
+    <t>7723b547-20dd-42b8-8bb8-7a32177324a9</t>
+  </si>
+  <si>
+    <t>04e5d591-9cab-41be-9cbc-89bd4ef80c8f</t>
+  </si>
+  <si>
+    <t>d2f8836b-ac82-4c16-80be-b61cae2bee34</t>
+  </si>
+  <si>
+    <t>bbdd66a6-21da-4f65-9030-215153adcfcf</t>
+  </si>
+  <si>
+    <t>acfe0583-349c-4cfd-8a95-712d331ef9e0</t>
   </si>
   <si>
     <t>Invalid value "95616-9" found in QUESTION_CODE</t>
@@ -885,19 +885,19 @@
     <t>The QUESTION_CODE "95616-9" of QUESTION_CODE_DESCRIPTION "How often does anyone, including family and friends, threaten you with harm?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>a25a3192-7bb3-4e1b-ae72-b370657e4120</t>
-  </si>
-  <si>
-    <t>4a33df0f-9d5c-48d1-b4e4-639defb890d3</t>
-  </si>
-  <si>
-    <t>14c49a04-7f27-4bcc-ab26-a163766bdda4</t>
-  </si>
-  <si>
-    <t>a94783b6-b248-448f-aee0-743e76ad2dcb</t>
-  </si>
-  <si>
-    <t>94829422-fb29-4c24-9c93-dec931d38027</t>
+    <t>51cf83b9-275a-47a1-b191-0be20bad2355</t>
+  </si>
+  <si>
+    <t>fe893f03-860c-4c93-b260-b864687a535e</t>
+  </si>
+  <si>
+    <t>99d42e3f-1fb5-4cb8-a5af-4bbeeb238d66</t>
+  </si>
+  <si>
+    <t>5a46dcd5-61c9-4770-a843-e08abe0f07af</t>
+  </si>
+  <si>
+    <t>1510c3c5-6ea0-4727-a54f-6c37c093cd10</t>
   </si>
   <si>
     <t>Invalid value "95617-7" found in QUESTION_CODE</t>
@@ -909,19 +909,19 @@
     <t>The QUESTION_CODE "95617-7" of QUESTION_CODE_DESCRIPTION "How often does anyone, including family and friends, insult or talk down to you?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>7444d6dc-d842-4f45-be24-5a2af15fb967</t>
-  </si>
-  <si>
-    <t>33695f5a-4a63-4fb1-ab11-5d48492ab4b0</t>
-  </si>
-  <si>
-    <t>e973cc9a-fc07-4c69-a7f2-d2011aea3185</t>
-  </si>
-  <si>
-    <t>87848db4-1b4e-4b3d-b44f-5d9a6d71075c</t>
-  </si>
-  <si>
-    <t>a8285eae-5ae2-4dd4-92ed-0be411e725d6</t>
+    <t>53e4f0f7-fb2a-4439-8b76-fb6de535773a</t>
+  </si>
+  <si>
+    <t>d9bd2720-628f-40a1-9726-60b29eacc547</t>
+  </si>
+  <si>
+    <t>90cbcc9c-8ff1-4749-8a1a-1585025883ce</t>
+  </si>
+  <si>
+    <t>7c62a06a-d774-49ca-b795-11abcfcdda3e</t>
+  </si>
+  <si>
+    <t>0e203110-5bae-4633-a394-8d5b56961d82</t>
   </si>
   <si>
     <t>Invalid value "95618-5" found in QUESTION_CODE</t>
@@ -933,19 +933,19 @@
     <t>The QUESTION_CODE "95618-5" of QUESTION_CODE_DESCRIPTION "How often does anyone, including family and friends, physically hurt you?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>4c1a9f2b-8c08-487d-ade1-86d4ea9801a5</t>
-  </si>
-  <si>
-    <t>d40477ee-7170-4a46-a8ed-39c7d9487212</t>
-  </si>
-  <si>
-    <t>4acf2f7c-e792-4c73-a3f7-d1b98a80e028</t>
-  </si>
-  <si>
-    <t>c631c8f1-4510-4396-843a-9a2d621c226e</t>
-  </si>
-  <si>
-    <t>2a135b2c-772f-44e1-b93d-d4241e988628</t>
+    <t>226ef428-913d-4210-a116-f65275fb5adb</t>
+  </si>
+  <si>
+    <t>0320e909-f0c3-44e5-a70d-9f78f79dd3cd</t>
+  </si>
+  <si>
+    <t>b4848954-585b-4485-a9fb-1deb64f8285c</t>
+  </si>
+  <si>
+    <t>3d3f9ee3-623c-411e-8209-9708dfabb7c7</t>
+  </si>
+  <si>
+    <t>eeb2cbcb-40d9-4b1b-9f8a-0858e4e8b12b</t>
   </si>
   <si>
     <t>Invalid value "96779-4" found in QUESTION_CODE</t>
@@ -957,13 +957,13 @@
     <t>The QUESTION_CODE "96779-4" of QUESTION_CODE_DESCRIPTION "In the past 12 months has the electric, gas, oil, or water company threatened to shut off services in your home?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>b65219e5-67be-49f4-b666-08dcf19f6ac4</t>
-  </si>
-  <si>
-    <t>344a45c8-584d-478e-9c62-3979727e0a4e</t>
-  </si>
-  <si>
-    <t>614c2af3-e344-415f-85c8-4c01296e967c</t>
+    <t>f32ecd3a-0296-4736-b171-55f9a7f796c1</t>
+  </si>
+  <si>
+    <t>6399f78e-84e5-4eea-b02b-18a4f95e2484</t>
+  </si>
+  <si>
+    <t>77fc3dac-a5cd-4ab7-bb56-0ff0cd939dab</t>
   </si>
   <si>
     <t>Invalid value "93030-5" found in QUESTION_CODE</t>
@@ -975,10 +975,10 @@
     <t>The QUESTION_CODE "93030-5" of QUESTION_CODE_DESCRIPTION "In the past 12 months, has lack of reliable transportation kept you from medical appointments, meetings, work or from getting things needed for daily living?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>5ba4cad2-93e7-4ad5-8201-c21f88510876</t>
-  </si>
-  <si>
-    <t>9bea84e8-35eb-4e61-bfbd-26eaf8be35b9</t>
+    <t>fd4f67d4-d54e-46ad-a1be-3efc78944e5b</t>
+  </si>
+  <si>
+    <t>9720ddbd-99cf-4e67-9ccd-8170d0acf84e</t>
   </si>
   <si>
     <t>Invalid value "88123-5" found in QUESTION_CODE</t>
@@ -990,13 +990,13 @@
     <t>The QUESTION_CODE "88123-5" of QUESTION_CODE_DESCRIPTION "Within the past 12 months, the food you bought just didn't last and you didn't have money to get more." is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>2450c9d4-9e71-459f-9cff-dc4cb7754c03</t>
-  </si>
-  <si>
-    <t>0e92569f-d4e0-4ab6-9880-46b7a67de43c</t>
-  </si>
-  <si>
-    <t>19a01fad-2dd3-4205-b6fc-54ed8722f980</t>
+    <t>5e47fc5e-fd16-4ca3-8aa6-693d5e78e2fc</t>
+  </si>
+  <si>
+    <t>7089d0f7-053a-4f9e-8233-2e25334cc3ee</t>
+  </si>
+  <si>
+    <t>365c4546-d3cc-4f92-9d8a-bb6069d7e37e</t>
   </si>
   <si>
     <t>Invalid value "96778-6" found in QUESTION_CODE</t>
@@ -1008,28 +1008,28 @@
     <t>The QUESTION_CODE "96778-6" of QUESTION_CODE_DESCRIPTION "Think about the place you live. Do you have problems with any of the following?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>cd2805c9-7f1d-4587-9be3-2a40a58cc649</t>
-  </si>
-  <si>
-    <t>387c4ed4-1677-4194-aa33-19ff745a8772</t>
-  </si>
-  <si>
-    <t>72b706a4-950a-4f54-a8c1-d779de46dbcd</t>
-  </si>
-  <si>
-    <t>89d2339c-ead3-4aff-8183-4ea6fe7d1c80</t>
-  </si>
-  <si>
-    <t>41ea2112-031b-4d4d-850b-8774a4be6304</t>
-  </si>
-  <si>
-    <t>df2f4d06-6ffb-4fb0-b20e-577c5561a889</t>
-  </si>
-  <si>
-    <t>c09ffb6f-4070-4c39-b129-301affe44d9f</t>
-  </si>
-  <si>
-    <t>7d41d228-cf85-4c77-9b60-434af97b78fd</t>
+    <t>c62bf1e9-0323-48de-93cc-24e5c282a1f4</t>
+  </si>
+  <si>
+    <t>090b4d5d-d8d7-4bf0-8a3c-66ca6c6b2062</t>
+  </si>
+  <si>
+    <t>1f49c97b-6ec5-4c7c-ae8c-0647498f8580</t>
+  </si>
+  <si>
+    <t>e8b5615c-8019-4fde-a0d4-cde166ee7912</t>
+  </si>
+  <si>
+    <t>314b893c-0bfa-4d43-9f35-4863a7ba92f7</t>
+  </si>
+  <si>
+    <t>06d693e3-da4d-4b02-9c90-28d46fe1e757</t>
+  </si>
+  <si>
+    <t>cd98dd3a-cda4-4b9c-90e7-c65011ee47f1</t>
+  </si>
+  <si>
+    <t>08dee596-4b55-443c-a132-95096baef18d</t>
   </si>
   <si>
     <t>Invalid value "71802-3" found in QUESTION_CODE</t>
@@ -1041,10 +1041,10 @@
     <t>The QUESTION_CODE "71802-3" of QUESTION_CODE_DESCRIPTION "What is your living situation today?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>8acc0107-6c08-4a36-b38b-e1d8e2116a9a</t>
-  </si>
-  <si>
-    <t>68c444b1-d8d5-42fb-991b-7e7334b504a1</t>
+    <t>78f67f03-0588-42f0-8bb4-9d6e84935d88</t>
+  </si>
+  <si>
+    <t>988a3fd7-8637-4ec8-a649-ae763485f7e5</t>
   </si>
   <si>
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
@@ -1197,7 +1197,7 @@
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>a853f09d-f2c0-4268-a8cb-251306ce09c8</t>
+    <t>c76cae54-6214-42e8-9af5-cd11cc221e3b</t>
   </si>
   <si>
     <t>Mandatory field CONSENT is empty</t>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -96,7 +96,7 @@
     <t>screening_20240307</t>
   </si>
   <si>
-    <t>a1bcd225-38c1-41dc-ba77-02cd2193d596</t>
+    <t>d581987c-0790-4ce6-9402-82aa0e578f2f</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -117,7 +117,7 @@
     <t/>
   </si>
   <si>
-    <t>2dbd073c-6684-4224-bb4c-a91ca15222a4</t>
+    <t>9786dcd4-83c0-40cf-9d88-6e7546b7206d</t>
   </si>
   <si>
     <t>Combination Not Matching</t>
@@ -141,7 +141,7 @@
     <t>Resolved By QE/QCS</t>
   </si>
   <si>
-    <t>0244304a-5deb-48da-875a-627182e9e89b</t>
+    <t>c42d5cf2-4eea-43bc-b41c-f0ada3d82ae3</t>
   </si>
   <si>
     <t>Invalid value "LA6729-3" found in ANSWER_CODE</t>
@@ -156,7 +156,7 @@
     <t>The ANSWER_CODE "LA6729-3" of ANSWER_CODE_DESCRIPTION "Sometimes true" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>026f475b-1f07-4fda-b482-105264f86fd2</t>
+    <t>6016edd8-ea21-4862-b337-20f06be2d78f</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -186,7 +186,7 @@
     <t>admin_demographics_20240307</t>
   </si>
   <si>
-    <t>7b8faadd-6850-401c-8b0c-2ac7dd11c42c</t>
+    <t>cd7d700d-8fa4-4c81-af62-8778878c7a4d</t>
   </si>
   <si>
     <t>Invalid value "UNK" found in SEX_AT_BIRTH_CODE</t>
@@ -201,7 +201,7 @@
     <t>The SEX_AT_BIRTH_CODE "UNK" of SEX_AT_BIRTH_CODE_DESCRIPTION "unknown" is not matching with the SEX_AT_BIRTH_CODE of SEX_AT_BIRTH_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>6625dac4-cae1-4679-82c2-0917df6bf522</t>
+    <t>7b9e03b0-385c-49ac-94a4-d8c3c925a492</t>
   </si>
   <si>
     <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION</t>
@@ -219,7 +219,7 @@
     <t>Validate SEX_AT_BIRTH_CODE_DESCRIPTION with sex at birth reference data</t>
   </si>
   <si>
-    <t>3ce331ee-5dc8-42d7-a7f7-b97ffd1c5751</t>
+    <t>e5e3d881-353d-4aed-a19d-b9ba6395a6c1</t>
   </si>
   <si>
     <t>Invalid value "1142-9" found in RACE_CODE</t>
@@ -234,7 +234,7 @@
     <t>The RACE_CODE "1142-9" of RACE_CODE_DESCRIPTION "Coquille" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>33d51eb2-8ad2-4328-824a-1f8b5f795cde</t>
+    <t>99e02555-2865-4552-86f0-159c2dc3721b</t>
   </si>
   <si>
     <t>Invalid RACE CODE DESCRIPTION</t>
@@ -252,25 +252,25 @@
     <t>Validate RACE CODE DESCRIPTION with race reference data</t>
   </si>
   <si>
-    <t>2dcf1ec1-b9cd-4130-8f25-94815546c0eb</t>
-  </si>
-  <si>
-    <t>44463e7d-a7dc-419c-9637-6a35ea551d02</t>
-  </si>
-  <si>
-    <t>3011a340-e82b-4b7e-b2de-1c6ce6d7a64b</t>
-  </si>
-  <si>
-    <t>dbbad070-10bc-4ba3-8ab0-2ed53fb5db9b</t>
-  </si>
-  <si>
-    <t>7b0ebc60-137d-4566-91e6-3ccfc897a2fb</t>
-  </si>
-  <si>
-    <t>4b5d504e-fcaf-460a-9e41-d767f2be504f</t>
-  </si>
-  <si>
-    <t>28f5cba4-6f00-4644-9da8-7d0bd9552050</t>
+    <t>1b1f11e8-0d0b-4509-a43b-37ff16cbffc0</t>
+  </si>
+  <si>
+    <t>d53350f5-ad64-4db5-9aca-6a1c34110a31</t>
+  </si>
+  <si>
+    <t>e63329b5-6b65-44c9-852e-ee4e716d6fbd</t>
+  </si>
+  <si>
+    <t>becd9ce6-6fd6-4813-bced-b425a8c31ff3</t>
+  </si>
+  <si>
+    <t>12bc3ce1-3237-433c-ab40-25178edc4882</t>
+  </si>
+  <si>
+    <t>26cb79b8-48e5-41b5-9f26-54675d1c770d</t>
+  </si>
+  <si>
+    <t>06541c4a-2abd-4293-80e7-a8710ba096d6</t>
   </si>
   <si>
     <t>Invalid value "LA6571-9" found in ANSWER_CODE</t>
@@ -282,16 +282,16 @@
     <t>The ANSWER_CODE "LA6571-9" of ANSWER_CODE_DESCRIPTION "Nearly every day" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>89f31848-70e7-4d5c-9c2a-73ca02e3cdb7</t>
-  </si>
-  <si>
-    <t>b9e6e10f-eb9a-49e5-a3fa-6dea8584ecdc</t>
-  </si>
-  <si>
-    <t>d886d3e9-fc19-414d-b847-0ba764eaa70e</t>
-  </si>
-  <si>
-    <t>c4996409-8355-45b6-95a8-b721d815150a</t>
+    <t>99b0f6a8-6273-4ce1-9e64-c495b43fdf95</t>
+  </si>
+  <si>
+    <t>b9ee4ab4-a4d7-40b6-870b-bddd0c5eae59</t>
+  </si>
+  <si>
+    <t>d4aafff1-5a71-4e12-ad49-8f74f3707568</t>
+  </si>
+  <si>
+    <t>2d4cd45c-3134-43f1-bcb1-850edc931eae</t>
   </si>
   <si>
     <t>Invalid value "LA6569-3" found in ANSWER_CODE</t>
@@ -303,25 +303,25 @@
     <t>The ANSWER_CODE "LA6569-3" of ANSWER_CODE_DESCRIPTION "Several days" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>32556711-1f15-48ee-8b47-22aa919daab9</t>
-  </si>
-  <si>
-    <t>028f835f-37d1-4395-b2b1-de57d76803cd</t>
-  </si>
-  <si>
-    <t>efd473db-0aba-47e4-b2fb-01b4fa608999</t>
-  </si>
-  <si>
-    <t>23dd376f-566f-4e49-abbd-2779b2028319</t>
-  </si>
-  <si>
-    <t>d146a4dd-00da-442d-ba17-1fab3b3d84ac</t>
-  </si>
-  <si>
-    <t>013363e2-fe12-49f6-ba93-6c6afa64e762</t>
-  </si>
-  <si>
-    <t>64354630-7e22-48eb-a5ec-9b400ebbc5e9</t>
+    <t>1d0fc0c0-df09-4127-b443-a9cd1606eb1e</t>
+  </si>
+  <si>
+    <t>e5ccd776-17c8-4766-8afa-0afbce0732be</t>
+  </si>
+  <si>
+    <t>df7878c8-a62a-48fb-9f04-fe88ee3e7d94</t>
+  </si>
+  <si>
+    <t>d5642072-bbdd-4ce4-978e-32dd71bee55f</t>
+  </si>
+  <si>
+    <t>e3097184-0fa6-4e37-b54c-d220ae1e4416</t>
+  </si>
+  <si>
+    <t>8b6bce6f-1147-4562-bdd5-2f83366f7116</t>
+  </si>
+  <si>
+    <t>b5189876-7972-442d-95f5-f90870daac66</t>
   </si>
   <si>
     <t>Invalid value "69861-3" found in QUESTION_CODE</t>
@@ -333,19 +333,19 @@
     <t>The QUESTION_CODE "69861-3" of QUESTION_CODE_DESCRIPTION "Because of a physical, mental, or emotional condition, do you have difficulty doing errands alone such as visiting a physician's office or shopping" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>5147668f-02fa-43bf-a232-411b0011f374</t>
-  </si>
-  <si>
-    <t>356ca88d-410a-4803-ac69-47f536f47977</t>
-  </si>
-  <si>
-    <t>fa2ec750-ef9b-430e-accc-09a037cf049f</t>
-  </si>
-  <si>
-    <t>04f1fc8d-fe47-4689-80e1-3a6af42f3a25</t>
-  </si>
-  <si>
-    <t>99f54569-f1ed-4cf8-8b23-fb5f259ddd2a</t>
+    <t>92d4a412-1eff-43ce-b8b7-21a7aad86c1e</t>
+  </si>
+  <si>
+    <t>a22b4ab1-ad3b-4cdb-a79a-cc2a15af1582</t>
+  </si>
+  <si>
+    <t>38b12b40-b850-45ba-8534-e3df0be1fb95</t>
+  </si>
+  <si>
+    <t>a3784cc3-02e1-45a1-8b0f-a8896d6bdf9f</t>
+  </si>
+  <si>
+    <t>9406f52d-f6d5-4614-982e-1ff4792d4919</t>
   </si>
   <si>
     <t>Invalid value "LA31983-2" found in ANSWER_CODE</t>
@@ -357,7 +357,7 @@
     <t>The ANSWER_CODE "LA31983-2" of ANSWER_CODE_DESCRIPTION "I do not need or want help" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>afb5a289-b43c-448d-be33-ec669bf1ff4b</t>
+    <t>3815d48b-5dcc-4242-91cd-7ced54f119e4</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -369,10 +369,10 @@
     <t>Provide a value for POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>824464b1-0c1b-45f9-9d9c-e4a5116e20ee</t>
-  </si>
-  <si>
-    <t>d86d77e9-84b1-4d75-b7d6-82b100461f48</t>
+    <t>2e3c4911-d8b0-41dd-a2a3-c1d331796e60</t>
+  </si>
+  <si>
+    <t>52befe13-cd2b-4b55-bb0e-ac48b4c36ab2</t>
   </si>
   <si>
     <t>Invalid value "69858-9" found in QUESTION_CODE</t>
@@ -384,7 +384,7 @@
     <t>The QUESTION_CODE "69858-9" of QUESTION_CODE_DESCRIPTION "Because of a physical, mental, or emotional condition, do you have serious difficulty concentrating, remembering, or making decisions?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>f6452619-643c-4803-9934-d8fd5e3f39ce</t>
+    <t>eed12e3b-9053-4229-9870-1cdebbfb6823</t>
   </si>
   <si>
     <t>Invalid value "LA16644-9" found in ANSWER_CODE</t>
@@ -396,22 +396,22 @@
     <t>The ANSWER_CODE "LA16644-9" of ANSWER_CODE_DESCRIPTION "Fairly often" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>bbf0765f-ffa2-4700-9509-0d826e427157</t>
-  </si>
-  <si>
-    <t>d45208ae-beec-4494-a328-196bd7bdbc79</t>
-  </si>
-  <si>
-    <t>526116c7-4e05-4dc3-8a2b-549d9b3b2fe3</t>
-  </si>
-  <si>
-    <t>80b4e25d-ba60-43f3-8c30-894d9de52a3a</t>
-  </si>
-  <si>
-    <t>5b032a52-619d-40fd-b0bd-06faeee229f7</t>
-  </si>
-  <si>
-    <t>8654345f-2c5d-491d-8c4e-486967444406</t>
+    <t>754e11dd-db16-4678-87c2-d596eba882f3</t>
+  </si>
+  <si>
+    <t>b5a113ad-dda4-4b62-a5bc-b3ed9f95d7b2</t>
+  </si>
+  <si>
+    <t>25662acc-ac37-4d75-b78a-dbf86d7fcabd</t>
+  </si>
+  <si>
+    <t>27b76015-b643-41f3-8e3d-14b6bdf5640a</t>
+  </si>
+  <si>
+    <t>bf7251b9-ef69-4bdf-89f9-6254e91ad264</t>
+  </si>
+  <si>
+    <t>15847fe6-fb87-4a40-8b2a-43aafe4a1043</t>
   </si>
   <si>
     <t>Invalid value "93038-8" found in QUESTION_CODE</t>
@@ -423,25 +423,25 @@
     <t>The QUESTION_CODE "93038-8" of QUESTION_CODE_DESCRIPTION "Stress means a situation in which a person feels tense, restless, nervous, or anxious, or is unable to sleep at night because his or her mind is troubled all the time. Do you feel this kind of stress these days?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>767f2996-7ca0-4966-9d26-2ace48e272e6</t>
-  </si>
-  <si>
-    <t>93e03c23-a563-4441-bf83-da1750557c44</t>
-  </si>
-  <si>
-    <t>dc82faa1-2368-4be5-adb4-3bf887f76457</t>
-  </si>
-  <si>
-    <t>3abde441-aed7-4571-85af-52117905b126</t>
-  </si>
-  <si>
-    <t>eff18ffb-c6c3-4a47-8585-144989e29b43</t>
-  </si>
-  <si>
-    <t>40514b18-159d-4a5f-ac16-2adf6bde21da</t>
-  </si>
-  <si>
-    <t>312ef8f2-102c-457f-8acb-32dcdee2ade1</t>
+    <t>9b2e1792-88f3-4a41-8078-f7080e637df8</t>
+  </si>
+  <si>
+    <t>6f0cae53-547e-4713-87fb-16d8fce111d2</t>
+  </si>
+  <si>
+    <t>f6a0077e-8116-4ccf-91cf-d6db057a50b9</t>
+  </si>
+  <si>
+    <t>e9328f02-58f1-4b27-8bfb-3ea80f4dc23e</t>
+  </si>
+  <si>
+    <t>4b747da0-88f0-4f57-be70-4396244d457e</t>
+  </si>
+  <si>
+    <t>d676e89d-fd22-4947-bbaa-37da8cac1cc4</t>
+  </si>
+  <si>
+    <t>e72ffb9f-d50a-4c72-b0f2-f950c9644034</t>
   </si>
   <si>
     <t>Invalid value "LA32002-0" found in ANSWER_CODE</t>
@@ -453,31 +453,31 @@
     <t>The ANSWER_CODE "LA32002-0" of ANSWER_CODE_DESCRIPTION "Already shut off" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>40a6be8c-599c-458b-b9d5-84d852ca15b1</t>
-  </si>
-  <si>
-    <t>0c65eae8-d47c-4e00-b2cb-99c76621a0ec</t>
-  </si>
-  <si>
-    <t>4f70c607-e509-43b4-937d-5806775ba5cf</t>
-  </si>
-  <si>
-    <t>aba6753f-52d0-4a2d-acf1-cbdeff656287</t>
-  </si>
-  <si>
-    <t>d07efb67-2f11-4c57-a7b1-5118a03327b4</t>
-  </si>
-  <si>
-    <t>cec0699f-5a01-4cc5-bc7e-c5e688240bbc</t>
-  </si>
-  <si>
-    <t>2630f5fd-b9a5-4a7c-b8c7-bb7b9897d473</t>
-  </si>
-  <si>
-    <t>25266ec9-5a20-42e9-bd8b-598c4123d7c4</t>
-  </si>
-  <si>
-    <t>c1599033-6475-48e4-862b-0394eb7a66cc</t>
+    <t>017cabc5-2754-4be5-860e-5de15bab9594</t>
+  </si>
+  <si>
+    <t>853a5bfb-2a38-48de-a3ad-615344b4daf6</t>
+  </si>
+  <si>
+    <t>2e8d50b5-d694-428b-bf53-41945b60701a</t>
+  </si>
+  <si>
+    <t>b3f2b990-496f-4acb-be35-74c80b0d16d7</t>
+  </si>
+  <si>
+    <t>909ef15a-3b3c-4baa-97a5-cf79c19b97a8</t>
+  </si>
+  <si>
+    <t>e7db4778-f263-4e3b-97b1-2a4d593985b1</t>
+  </si>
+  <si>
+    <t>c6847d4b-cc04-42f0-8da9-7cd12298284b</t>
+  </si>
+  <si>
+    <t>64cf5fa4-ed2d-4c37-8526-cd56916d0b0b</t>
+  </si>
+  <si>
+    <t>792092a0-e67c-4fd1-a823-ad93faa9ad9d</t>
   </si>
   <si>
     <t>Invalid value "LA31997-2" found in ANSWER_CODE</t>
@@ -489,10 +489,10 @@
     <t>The ANSWER_CODE "LA31997-2" of ANSWER_CODE_DESCRIPTION "Lead paint or pipes" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>de1c606d-8abc-455a-947b-b0cf82c11418</t>
-  </si>
-  <si>
-    <t>d10943bf-66d3-43cd-ba7b-c48f5faf9b10</t>
+    <t>9cf9c3a1-a724-4cd0-a0c5-d6aa73869cc1</t>
+  </si>
+  <si>
+    <t>5c0c2ba0-3920-4bda-b095-e4303ad4814d</t>
   </si>
   <si>
     <t>Invalid value "44255-8" found in QUESTION_CODE</t>
@@ -504,7 +504,7 @@
     <t>The QUESTION_CODE "44255-8" of QUESTION_CODE_DESCRIPTION "Feeling down, depressed, or hopeless?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>f421ac6a-f469-4e56-855f-375546663940</t>
+    <t>0966bece-8eae-4ed3-9f7f-68bd3ae77230</t>
   </si>
   <si>
     <t>Invalid value "LA31994-9" found in ANSWER_CODE</t>
@@ -516,25 +516,25 @@
     <t>The ANSWER_CODE "LA31994-9" of ANSWER_CODE_DESCRIPTION "I have a place to live today, but I am worried about losing it in the future" is not matching with the ANSWER_CODE of ANSWER_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>cf3b7ecc-1174-4007-ad37-6af41f4325f9</t>
-  </si>
-  <si>
-    <t>dbb4167a-7b7f-46aa-b63e-b6aca7e3ec0a</t>
-  </si>
-  <si>
-    <t>14f2856e-96ca-4945-9058-38f23556911f</t>
-  </si>
-  <si>
-    <t>4667e558-62d3-485e-8a2f-461931879bd6</t>
-  </si>
-  <si>
-    <t>73276c43-50a5-45c4-8598-b631972ec0ef</t>
-  </si>
-  <si>
-    <t>138043b7-9296-40b6-bb9f-af77d9374047</t>
-  </si>
-  <si>
-    <t>6da64f13-3237-4f72-a733-1cc76ea361e8</t>
+    <t>a1ed3541-cdbc-4e02-b2a5-4531531f1e6b</t>
+  </si>
+  <si>
+    <t>c1b69c19-8287-4f5d-857c-d839cf627788</t>
+  </si>
+  <si>
+    <t>b92c0daa-2e2e-4fe6-b586-e625b96e1a5b</t>
+  </si>
+  <si>
+    <t>3cc0c4e4-f886-4456-a3ce-ecec4679aa54</t>
+  </si>
+  <si>
+    <t>a7d51c42-3f3f-4eb7-81f9-6d8eeb7a6f9d</t>
+  </si>
+  <si>
+    <t>d689ac33-1a27-47fa-af14-e27c86e97abd</t>
+  </si>
+  <si>
+    <t>30f2d4f6-d170-4097-b596-7785570d8629</t>
   </si>
   <si>
     <t>Invalid timestamp "01/27/02 15:42" found in RECORDED_TIME</t>
@@ -543,7 +543,7 @@
     <t>01/27/02 15:42</t>
   </si>
   <si>
-    <t>9f1763cc-cbdb-468c-a436-7a70b4e315f6</t>
+    <t>2039a4f8-cb67-4c35-86a0-a1d1ff53ee90</t>
   </si>
   <si>
     <t>Invalid value "44250-9" found in QUESTION_CODE</t>
@@ -555,28 +555,28 @@
     <t>The QUESTION_CODE "44250-9" of QUESTION_CODE_DESCRIPTION "Little interest or pleasure in doing things?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>85959c3d-5f97-41f6-a8d4-5558a0a3ffde</t>
-  </si>
-  <si>
-    <t>c09995e2-a81d-4c2f-8264-df31c5d91ce9</t>
-  </si>
-  <si>
-    <t>f6a6a254-7114-4e25-bbc0-e8bfb978b02a</t>
-  </si>
-  <si>
-    <t>2aa5cce0-a98d-4bfb-84b3-07fd8d2559a6</t>
-  </si>
-  <si>
-    <t>af12fd1c-2975-489d-81a6-e0c1b138f6b0</t>
-  </si>
-  <si>
-    <t>3571ce63-68f4-4dbf-b49a-390aea0241d0</t>
-  </si>
-  <si>
-    <t>1261d7ca-3896-4e7d-a05f-e7ad5f4f4eb7</t>
-  </si>
-  <si>
-    <t>aa522703-b495-45b7-91d3-38ddf24dc9ee</t>
+    <t>f4518ce7-d1fd-4db7-a6ea-a0e2ac705ab8</t>
+  </si>
+  <si>
+    <t>a581a358-4e11-4ad0-93ed-58bd2bbb7ef8</t>
+  </si>
+  <si>
+    <t>6bea34f0-0457-4e3d-9bcf-3225705d938f</t>
+  </si>
+  <si>
+    <t>5f060223-227c-44a4-9384-9e1e58a210db</t>
+  </si>
+  <si>
+    <t>894d8992-3133-4aee-8c19-d426a448cb38</t>
+  </si>
+  <si>
+    <t>bde3cd07-a715-4fd1-afd5-9e759eb1fb9a</t>
+  </si>
+  <si>
+    <t>ba81fdcd-6c46-4e65-bc3f-902abc62bda9</t>
+  </si>
+  <si>
+    <t>1332f845-af6d-4381-ae45-dd9943ae9d46</t>
   </si>
   <si>
     <t>Invalid value "95530-2" found in QUESTION_CODE</t>
@@ -588,34 +588,34 @@
     <t>The QUESTION_CODE "95530-2" of QUESTION_CODE_DESCRIPTION "How many times in the past year have you used prescription drugs for non-medical reasons?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>18dbf305-d7b9-4aea-9996-a6e8c1bc90c6</t>
-  </si>
-  <si>
-    <t>ca13a2c5-bb8a-4409-bcf2-908ab6e2691e</t>
-  </si>
-  <si>
-    <t>215aee41-f0fa-4cfd-99e8-366be7f2e9a1</t>
-  </si>
-  <si>
-    <t>e4efb683-4e31-416e-b09a-5c7ed990bae8</t>
-  </si>
-  <si>
-    <t>a0c615c9-d1dd-4fb9-b075-f73ee2b382fb</t>
-  </si>
-  <si>
-    <t>d9a66f4b-c730-40fa-8260-9c8c088e4adc</t>
-  </si>
-  <si>
-    <t>7a1ac753-5106-403e-b204-2be8f379c7cc</t>
-  </si>
-  <si>
-    <t>31ffa4b5-990d-4f80-802c-a4194451bf17</t>
-  </si>
-  <si>
-    <t>0c0acf40-e9a5-4dcc-926c-38cbbb262935</t>
-  </si>
-  <si>
-    <t>7e0429e9-681f-45bf-a029-571142c593bc</t>
+    <t>ec1ed839-b604-463e-a8b7-228ecccd6f4d</t>
+  </si>
+  <si>
+    <t>70333eaa-5432-4dd4-b3da-1b6067f39b56</t>
+  </si>
+  <si>
+    <t>6ed42d19-9391-451f-987b-b6428475f33c</t>
+  </si>
+  <si>
+    <t>ce6dfe18-8508-49ce-bcce-51511f64ffcd</t>
+  </si>
+  <si>
+    <t>be5ac01e-113e-4d13-b7bb-4d2fe3004d37</t>
+  </si>
+  <si>
+    <t>cf36567a-fa7e-4eac-a107-76db81050426</t>
+  </si>
+  <si>
+    <t>22e64b94-14f8-4f46-b014-313b15ad9f91</t>
+  </si>
+  <si>
+    <t>b7987cf3-eb60-4628-b912-f2924334e199</t>
+  </si>
+  <si>
+    <t>0795995a-d7c1-4d45-8b21-92884f4e13b2</t>
+  </si>
+  <si>
+    <t>76978555-375a-4864-9eed-d3bf8f866f24</t>
   </si>
   <si>
     <t>Invalid value "96842-0" found in QUESTION_CODE</t>
@@ -627,22 +627,22 @@
     <t>The QUESTION_CODE "96842-0" of QUESTION_CODE_DESCRIPTION "How many times in the past 12 months have you used tobacco products (like cigarettes, cigars, snuff, chew, electronic cigarettes)?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>36895c4c-8a5f-4c5f-aa15-c5210ee8ae59</t>
-  </si>
-  <si>
-    <t>4e9d6ecf-c8ef-4f23-85be-68f59179cc57</t>
-  </si>
-  <si>
-    <t>bc882015-bb26-47f7-9285-30be66c23c31</t>
-  </si>
-  <si>
-    <t>102df668-587f-44ef-a67b-78e94ef0e5b7</t>
-  </si>
-  <si>
-    <t>7fc48b4d-e92e-4d2b-a489-126c5b021d72</t>
-  </si>
-  <si>
-    <t>595bef24-4546-4cdb-b233-7913ee3cd4fc</t>
+    <t>30440734-5aa4-41ae-9eda-d25fd945ad9b</t>
+  </si>
+  <si>
+    <t>9049ecb4-c71f-493a-ac9a-3a03d7609f1a</t>
+  </si>
+  <si>
+    <t>a8b1bd01-11af-4deb-a3b8-9923560af0f8</t>
+  </si>
+  <si>
+    <t>2e9c43db-c153-4b1a-9670-0517df46bb89</t>
+  </si>
+  <si>
+    <t>1d3d763e-b02a-4237-99b9-09160fdd025e</t>
+  </si>
+  <si>
+    <t>bce8a8fd-3b3d-4964-9bca-8a9bccfccd94</t>
   </si>
   <si>
     <t>Invalid value "68517-2" found in QUESTION_CODE</t>
@@ -654,19 +654,19 @@
     <t>The QUESTION_CODE "68517-2" of QUESTION_CODE_DESCRIPTION "How many times in the past 12 months have you had 5 or more drinks in a day (males) or 4 or more drinks in a day (females)?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>0ab327b9-0d46-465b-ad45-1b7e6f1dc53f</t>
-  </si>
-  <si>
-    <t>cd2cee0a-a52a-4b58-99f7-1f05936e9d6c</t>
-  </si>
-  <si>
-    <t>8406f92b-7934-4153-b3b4-cc5f286b53ca</t>
-  </si>
-  <si>
-    <t>03df60e8-4414-430c-9d1b-6dd030bf3825</t>
-  </si>
-  <si>
-    <t>6cfa8140-a036-4e82-a8ae-e9890cb34877</t>
+    <t>0395db6d-9bb0-4f0a-8dd5-8738acb56078</t>
+  </si>
+  <si>
+    <t>58640cf0-4751-4432-a925-9c4602d0577a</t>
+  </si>
+  <si>
+    <t>ff66329e-db42-4df8-8038-b87c3db60c20</t>
+  </si>
+  <si>
+    <t>c21f7c06-b481-4b02-915c-74cd68f7f38e</t>
+  </si>
+  <si>
+    <t>c17bbb84-1e37-46d6-aefa-9d4c7c775304</t>
   </si>
   <si>
     <t>Invalid value "68516-4" found in QUESTION_CODE</t>
@@ -678,34 +678,34 @@
     <t>The QUESTION_CODE "68516-4" of QUESTION_CODE_DESCRIPTION "On average, how many minutes did you usually spend exercising at this level on one of those days?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>5d95bb27-f9af-4327-b6e4-f4edf4d22f41</t>
-  </si>
-  <si>
-    <t>c2274b2f-f783-46a3-9791-95ddd16b9844</t>
-  </si>
-  <si>
-    <t>b1158a96-7d03-4dac-b5b2-3b17fbc8c100</t>
-  </si>
-  <si>
-    <t>e3367ccc-807d-4bb4-bd2f-3527899958e1</t>
-  </si>
-  <si>
-    <t>6d981628-3848-442d-8c01-983e23343ed7</t>
-  </si>
-  <si>
-    <t>d06b3a88-54d2-4f08-b8bb-d6f28431031d</t>
-  </si>
-  <si>
-    <t>c69c0970-83cb-46da-8b1a-358363bcc070</t>
-  </si>
-  <si>
-    <t>6c257f25-c808-4f6c-942b-0b602ecb5015</t>
-  </si>
-  <si>
-    <t>874d1721-7c6c-4174-b7c7-af689e515da3</t>
-  </si>
-  <si>
-    <t>d31dfd3e-2992-428e-a220-e74b2b31ca91</t>
+    <t>3e62027a-9c6a-440c-9db9-027b51f13e76</t>
+  </si>
+  <si>
+    <t>cad83c8b-d824-421c-bdc9-f0aebd61e7fc</t>
+  </si>
+  <si>
+    <t>06a64437-1071-4ace-af4e-42ae3240f60a</t>
+  </si>
+  <si>
+    <t>8e676b28-c10e-473e-9eb4-e1f2d5c35825</t>
+  </si>
+  <si>
+    <t>71cb4322-e382-4ee4-aa0f-812186b9898a</t>
+  </si>
+  <si>
+    <t>69d13a1a-3190-4c68-a59f-3712588a1357</t>
+  </si>
+  <si>
+    <t>7d072c64-1895-44da-b1ca-fd9ed203256e</t>
+  </si>
+  <si>
+    <t>9880cdb5-fc78-491b-9523-f54c83847712</t>
+  </si>
+  <si>
+    <t>bd5a0e6f-cbe0-4b62-ad46-4f5aaf7989c3</t>
+  </si>
+  <si>
+    <t>fbf14e02-429c-404a-9288-8e6b818c0921</t>
   </si>
   <si>
     <t>Invalid value "89555-7" found in QUESTION_CODE</t>
@@ -717,28 +717,28 @@
     <t>The QUESTION_CODE "89555-7" of QUESTION_CODE_DESCRIPTION "In the last 30 days, other than the activities you did for work, on average, how many days per week did you engage in moderate exercise (like walking fast, running, jogging, dancing, swimming, biking, or other similar activities)" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>e046e991-8eb9-4e48-8ef4-f0513cebb7af</t>
-  </si>
-  <si>
-    <t>ea7f3d8a-b394-4c2a-bfe6-e23d8fa435dd</t>
-  </si>
-  <si>
-    <t>55834042-340c-4841-963c-1a3b29188bef</t>
-  </si>
-  <si>
-    <t>b86067ef-dfd2-48b4-a9a6-f4b779aa5907</t>
-  </si>
-  <si>
-    <t>a2884190-b5a2-46d1-a33e-5a5b7e44b1b9</t>
-  </si>
-  <si>
-    <t>a01630fb-36c5-43a6-b359-0cfbdc4c4688</t>
-  </si>
-  <si>
-    <t>8c659026-2121-49be-aa84-4c311eccbcdb</t>
-  </si>
-  <si>
-    <t>3e0d8a1d-1922-4c63-8c20-9ee6a89782b3</t>
+    <t>ac39de96-e56d-472f-bc41-39b45a0ba3d9</t>
+  </si>
+  <si>
+    <t>7c0aef64-c763-4756-931c-d5db0a2217e5</t>
+  </si>
+  <si>
+    <t>06428e77-0e8e-4cea-aafc-deb1fdc23360</t>
+  </si>
+  <si>
+    <t>3994e7ee-bf77-4235-bfe3-04fca9730660</t>
+  </si>
+  <si>
+    <t>253729f8-f135-4821-b41c-b4f79757738e</t>
+  </si>
+  <si>
+    <t>e7a3ae60-cf2f-4ed2-8da0-5607841d8cb5</t>
+  </si>
+  <si>
+    <t>7121cf04-8191-4217-8173-b171bad1783e</t>
+  </si>
+  <si>
+    <t>cfeab8dd-dddc-4b1d-98db-5afe572a06ff</t>
   </si>
   <si>
     <t>Invalid value "96782-8" found in QUESTION_CODE</t>
@@ -750,10 +750,10 @@
     <t>The QUESTION_CODE "96782-8" of QUESTION_CODE_DESCRIPTION "Do you want help with school or training? For example, starting or completing job training or getting a high school diploma, GED or equivalent." is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>c0256116-c5f6-4544-ba40-0849177cf3d3</t>
-  </si>
-  <si>
-    <t>4509604c-d6ba-4530-ac15-de8969bc89e7</t>
+    <t>b7f2f92b-7dc8-4ffe-bfa3-e88270b52a0f</t>
+  </si>
+  <si>
+    <t>6d122876-6085-4011-b2cd-e749ba46493f</t>
   </si>
   <si>
     <t>Invalid value "97027-7" found in QUESTION_CODE</t>
@@ -765,10 +765,10 @@
     <t>The QUESTION_CODE "97027-7" of QUESTION_CODE_DESCRIPTION "Do you speak a language other than English at home?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>28f57a2f-8476-46ff-8029-441c7e1c0f9a</t>
-  </si>
-  <si>
-    <t>76a78d17-4089-481a-8e46-9215601f86d5</t>
+    <t>ab8d6571-26d0-4f0d-b337-71ba5308b33a</t>
+  </si>
+  <si>
+    <t>2a8bc1b8-e21e-4225-b9b0-fa14d1354e4b</t>
   </si>
   <si>
     <t>Invalid value "93159-2" found in QUESTION_CODE</t>
@@ -780,19 +780,19 @@
     <t>The QUESTION_CODE "93159-2" of QUESTION_CODE_DESCRIPTION "How often do you feel lonely or isolated from those around you?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>87a85d1a-119a-4a1d-a25b-9eb374b18a92</t>
-  </si>
-  <si>
-    <t>228a68a1-44c8-4e31-8996-4356a241ce03</t>
-  </si>
-  <si>
-    <t>ca806489-f13f-43bf-80e5-7899a24966d8</t>
-  </si>
-  <si>
-    <t>7fc0933a-f915-4874-a96e-b19641965fbe</t>
-  </si>
-  <si>
-    <t>7f1e730f-be4b-43aa-844d-21d191b9afe2</t>
+    <t>99888c27-2706-4cd7-845a-1d77279fde10</t>
+  </si>
+  <si>
+    <t>f87c97f1-480b-4bfd-af50-bde1eb4c9624</t>
+  </si>
+  <si>
+    <t>0518a6c5-b32b-4d13-9aee-cff332c8e55e</t>
+  </si>
+  <si>
+    <t>b02498f3-e165-47f6-9f4b-f4487ecab343</t>
+  </si>
+  <si>
+    <t>ef6eb984-3cd0-4e5a-b519-ad75cf44d8a8</t>
   </si>
   <si>
     <t>Invalid value "96781-0" found in QUESTION_CODE</t>
@@ -804,16 +804,16 @@
     <t>The QUESTION_CODE "96781-0" of QUESTION_CODE_DESCRIPTION "If for any reason you need help with day-to-day activities such as bathing, preparing meals, shopping, managing finances, etc., do you get the help you need?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>350b9aa1-7873-4b63-9682-7020a9d5f0d6</t>
-  </si>
-  <si>
-    <t>2e3c9f73-e922-4652-8225-83e6c2afcef1</t>
-  </si>
-  <si>
-    <t>2bdbf7c1-6e17-4e9b-8a06-0bb6e6729671</t>
-  </si>
-  <si>
-    <t>3b51f035-1b4e-4262-a4df-0e1120b17e93</t>
+    <t>576c6556-b963-46ab-a696-65c14bd833f3</t>
+  </si>
+  <si>
+    <t>5a742f4b-6397-4b20-a398-0faad5044ca2</t>
+  </si>
+  <si>
+    <t>658d64f7-828c-4b7d-aa1b-cf36ad8031d9</t>
+  </si>
+  <si>
+    <t>3c162475-ed60-4b1d-8029-d5753fe39784</t>
   </si>
   <si>
     <t>Invalid value "96780-2" found in QUESTION_CODE</t>
@@ -825,13 +825,13 @@
     <t>The QUESTION_CODE "96780-2" of QUESTION_CODE_DESCRIPTION "Do you want help finding or keeping work or a job?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>1e042273-b252-4d12-aadd-5a931b74b910</t>
-  </si>
-  <si>
-    <t>ead2ffc2-fde5-4d3c-8745-4a606e4cd80e</t>
-  </si>
-  <si>
-    <t>13be2bb0-89ee-41a3-b953-c9c05d9c7c64</t>
+    <t>9485159f-4fd1-4360-a13c-f96eeb3602be</t>
+  </si>
+  <si>
+    <t>540b5ba0-d25b-4b22-b18d-132b93a64804</t>
+  </si>
+  <si>
+    <t>9786b0bf-c65b-4cdd-aa91-19352ebf464d</t>
   </si>
   <si>
     <t>Invalid value "76513-1" found in QUESTION_CODE</t>
@@ -843,13 +843,13 @@
     <t>The QUESTION_CODE "76513-1" of QUESTION_CODE_DESCRIPTION "How hard is it for you to pay for the very basics like food, housing, medical care, and heating? Would you say it is" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>f55722da-7e74-4439-b182-be317a739903</t>
-  </si>
-  <si>
-    <t>e26a9934-31bd-4fac-8cda-93e815206c92</t>
-  </si>
-  <si>
-    <t>0c245ecc-b68f-486b-a752-e17c6e105a5c</t>
+    <t>8e16142e-2cda-4f6e-b9a3-9366a71be9ce</t>
+  </si>
+  <si>
+    <t>f1edff38-d6f9-4a95-8299-c1a7dfe7a596</t>
+  </si>
+  <si>
+    <t>c588e678-d52a-4d94-a27b-19f9cd7e1334</t>
   </si>
   <si>
     <t>Invalid value "95615-1" found in QUESTION_CODE</t>
@@ -861,19 +861,19 @@
     <t>The QUESTION_CODE "95615-1" of QUESTION_CODE_DESCRIPTION "How often does anyone, including family and friends, scream or curse at you?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>7723b547-20dd-42b8-8bb8-7a32177324a9</t>
-  </si>
-  <si>
-    <t>04e5d591-9cab-41be-9cbc-89bd4ef80c8f</t>
-  </si>
-  <si>
-    <t>d2f8836b-ac82-4c16-80be-b61cae2bee34</t>
-  </si>
-  <si>
-    <t>bbdd66a6-21da-4f65-9030-215153adcfcf</t>
-  </si>
-  <si>
-    <t>acfe0583-349c-4cfd-8a95-712d331ef9e0</t>
+    <t>f46b80fc-c6c5-4dab-9170-73e286406c93</t>
+  </si>
+  <si>
+    <t>088e0491-abd4-4945-aaba-3a0ca4d313dc</t>
+  </si>
+  <si>
+    <t>deced043-d11f-45a5-8095-92d80b0509e7</t>
+  </si>
+  <si>
+    <t>17634ee5-2b15-4172-b57f-121d60ae94f3</t>
+  </si>
+  <si>
+    <t>b0052510-47e2-43ff-a477-e88f8b705333</t>
   </si>
   <si>
     <t>Invalid value "95616-9" found in QUESTION_CODE</t>
@@ -885,19 +885,19 @@
     <t>The QUESTION_CODE "95616-9" of QUESTION_CODE_DESCRIPTION "How often does anyone, including family and friends, threaten you with harm?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>51cf83b9-275a-47a1-b191-0be20bad2355</t>
-  </si>
-  <si>
-    <t>fe893f03-860c-4c93-b260-b864687a535e</t>
-  </si>
-  <si>
-    <t>99d42e3f-1fb5-4cb8-a5af-4bbeeb238d66</t>
-  </si>
-  <si>
-    <t>5a46dcd5-61c9-4770-a843-e08abe0f07af</t>
-  </si>
-  <si>
-    <t>1510c3c5-6ea0-4727-a54f-6c37c093cd10</t>
+    <t>2762daf7-8e1f-4f97-8de3-f0c525d8acfb</t>
+  </si>
+  <si>
+    <t>32d8aa93-e748-47f3-b93a-49663f719c04</t>
+  </si>
+  <si>
+    <t>3554a23c-eab0-40ac-bcd5-116498bbeed7</t>
+  </si>
+  <si>
+    <t>5a19942e-e2be-4e03-959a-8d7fc0e392bf</t>
+  </si>
+  <si>
+    <t>dea0a54f-565a-4535-b24a-f4fb48d4af03</t>
   </si>
   <si>
     <t>Invalid value "95617-7" found in QUESTION_CODE</t>
@@ -909,19 +909,19 @@
     <t>The QUESTION_CODE "95617-7" of QUESTION_CODE_DESCRIPTION "How often does anyone, including family and friends, insult or talk down to you?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>53e4f0f7-fb2a-4439-8b76-fb6de535773a</t>
-  </si>
-  <si>
-    <t>d9bd2720-628f-40a1-9726-60b29eacc547</t>
-  </si>
-  <si>
-    <t>90cbcc9c-8ff1-4749-8a1a-1585025883ce</t>
-  </si>
-  <si>
-    <t>7c62a06a-d774-49ca-b795-11abcfcdda3e</t>
-  </si>
-  <si>
-    <t>0e203110-5bae-4633-a394-8d5b56961d82</t>
+    <t>34cb5204-db65-4b52-bd7a-aec5a8645a08</t>
+  </si>
+  <si>
+    <t>b2346258-d471-4b05-bb80-4c62b31c0fc3</t>
+  </si>
+  <si>
+    <t>8830800a-95b1-4899-9c9d-3af05a20e718</t>
+  </si>
+  <si>
+    <t>421427ea-506a-4dd0-8767-f5207037f08d</t>
+  </si>
+  <si>
+    <t>fcb2227d-329e-456c-8da2-278f1b117300</t>
   </si>
   <si>
     <t>Invalid value "95618-5" found in QUESTION_CODE</t>
@@ -933,19 +933,19 @@
     <t>The QUESTION_CODE "95618-5" of QUESTION_CODE_DESCRIPTION "How often does anyone, including family and friends, physically hurt you?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>226ef428-913d-4210-a116-f65275fb5adb</t>
-  </si>
-  <si>
-    <t>0320e909-f0c3-44e5-a70d-9f78f79dd3cd</t>
-  </si>
-  <si>
-    <t>b4848954-585b-4485-a9fb-1deb64f8285c</t>
-  </si>
-  <si>
-    <t>3d3f9ee3-623c-411e-8209-9708dfabb7c7</t>
-  </si>
-  <si>
-    <t>eeb2cbcb-40d9-4b1b-9f8a-0858e4e8b12b</t>
+    <t>bc27af21-bc23-4cc5-a915-336fdc489049</t>
+  </si>
+  <si>
+    <t>e326b364-287f-4f18-897c-93fb93beb445</t>
+  </si>
+  <si>
+    <t>1b4a34f5-97e4-4d68-b61e-86ffcc551a15</t>
+  </si>
+  <si>
+    <t>4dc4c596-63e3-44ec-b9c3-ee2d6c6fc89a</t>
+  </si>
+  <si>
+    <t>08146eb7-2063-4b2d-a43a-f5ad6460fa8b</t>
   </si>
   <si>
     <t>Invalid value "96779-4" found in QUESTION_CODE</t>
@@ -957,13 +957,13 @@
     <t>The QUESTION_CODE "96779-4" of QUESTION_CODE_DESCRIPTION "In the past 12 months has the electric, gas, oil, or water company threatened to shut off services in your home?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>f32ecd3a-0296-4736-b171-55f9a7f796c1</t>
-  </si>
-  <si>
-    <t>6399f78e-84e5-4eea-b02b-18a4f95e2484</t>
-  </si>
-  <si>
-    <t>77fc3dac-a5cd-4ab7-bb56-0ff0cd939dab</t>
+    <t>9b1d938f-4822-459e-9c9a-9bc99e087d74</t>
+  </si>
+  <si>
+    <t>c4ab8ddf-c3d2-4304-98f3-d96e18c31bc4</t>
+  </si>
+  <si>
+    <t>3687effd-dacb-418c-aaae-d6df05bb54f6</t>
   </si>
   <si>
     <t>Invalid value "93030-5" found in QUESTION_CODE</t>
@@ -975,10 +975,10 @@
     <t>The QUESTION_CODE "93030-5" of QUESTION_CODE_DESCRIPTION "In the past 12 months, has lack of reliable transportation kept you from medical appointments, meetings, work or from getting things needed for daily living?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>fd4f67d4-d54e-46ad-a1be-3efc78944e5b</t>
-  </si>
-  <si>
-    <t>9720ddbd-99cf-4e67-9ccd-8170d0acf84e</t>
+    <t>31868d1d-06f7-4bbb-813f-4fb959a78171</t>
+  </si>
+  <si>
+    <t>e9ba6557-65ac-408e-b637-0b54ead40dce</t>
   </si>
   <si>
     <t>Invalid value "88123-5" found in QUESTION_CODE</t>
@@ -990,13 +990,13 @@
     <t>The QUESTION_CODE "88123-5" of QUESTION_CODE_DESCRIPTION "Within the past 12 months, the food you bought just didn't last and you didn't have money to get more." is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>5e47fc5e-fd16-4ca3-8aa6-693d5e78e2fc</t>
-  </si>
-  <si>
-    <t>7089d0f7-053a-4f9e-8233-2e25334cc3ee</t>
-  </si>
-  <si>
-    <t>365c4546-d3cc-4f92-9d8a-bb6069d7e37e</t>
+    <t>37eb7a76-d018-4548-857b-6b2ef8188979</t>
+  </si>
+  <si>
+    <t>1838630c-77d3-4e63-8bcf-a22d7e979b84</t>
+  </si>
+  <si>
+    <t>6370d234-804e-498a-ad2f-ef87b404eac9</t>
   </si>
   <si>
     <t>Invalid value "96778-6" found in QUESTION_CODE</t>
@@ -1008,28 +1008,28 @@
     <t>The QUESTION_CODE "96778-6" of QUESTION_CODE_DESCRIPTION "Think about the place you live. Do you have problems with any of the following?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>c62bf1e9-0323-48de-93cc-24e5c282a1f4</t>
-  </si>
-  <si>
-    <t>090b4d5d-d8d7-4bf0-8a3c-66ca6c6b2062</t>
-  </si>
-  <si>
-    <t>1f49c97b-6ec5-4c7c-ae8c-0647498f8580</t>
-  </si>
-  <si>
-    <t>e8b5615c-8019-4fde-a0d4-cde166ee7912</t>
-  </si>
-  <si>
-    <t>314b893c-0bfa-4d43-9f35-4863a7ba92f7</t>
-  </si>
-  <si>
-    <t>06d693e3-da4d-4b02-9c90-28d46fe1e757</t>
-  </si>
-  <si>
-    <t>cd98dd3a-cda4-4b9c-90e7-c65011ee47f1</t>
-  </si>
-  <si>
-    <t>08dee596-4b55-443c-a132-95096baef18d</t>
+    <t>a145fb39-0c8c-4548-8d2a-1890705c26e4</t>
+  </si>
+  <si>
+    <t>85c5a6ec-979f-4756-9a2c-56902d49f9ec</t>
+  </si>
+  <si>
+    <t>90e48fb2-6ad3-4ea4-a61b-4e160b15de8a</t>
+  </si>
+  <si>
+    <t>4c5244d5-6fae-4980-a9c2-8ac0e03e62f3</t>
+  </si>
+  <si>
+    <t>4f45f40e-64b6-4cc4-99d0-e3292636b7a4</t>
+  </si>
+  <si>
+    <t>6a2419f5-dc5f-47f8-9172-efae71ee75f8</t>
+  </si>
+  <si>
+    <t>7e01a46f-93a5-412d-a4e8-fb497c406675</t>
+  </si>
+  <si>
+    <t>b7f7b896-ef7d-4b39-810a-b44b88a85717</t>
   </si>
   <si>
     <t>Invalid value "71802-3" found in QUESTION_CODE</t>
@@ -1041,10 +1041,10 @@
     <t>The QUESTION_CODE "71802-3" of QUESTION_CODE_DESCRIPTION "What is your living situation today?" is not matching with the QUESTION_CODE of QUESTION_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>78f67f03-0588-42f0-8bb4-9d6e84935d88</t>
-  </si>
-  <si>
-    <t>988a3fd7-8637-4ec8-a649-ae763485f7e5</t>
+    <t>1387d1f1-7b75-4231-bd15-03d216a78b04</t>
+  </si>
+  <si>
+    <t>735876b7-9d53-451a-8cf0-e109a9b21ab8</t>
   </si>
   <si>
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
@@ -1197,7 +1197,7 @@
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>c76cae54-6214-42e8-9af5-cd11cc221e3b</t>
+    <t>53a28cc7-c24d-4f2b-9ec0-3ee8ea0f05a3</t>
   </si>
   <si>
     <t>Mandatory field CONSENT is empty</t>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>orch_session_id</t>
   </si>
@@ -96,7 +96,31 @@
     <t>screening_20240307</t>
   </si>
   <si>
-    <t>a5a0a85b-2f55-4587-938e-cf158fc7559e</t>
+    <t>1692bea9-e0a4-46bc-912e-921d08524dcc</t>
+  </si>
+  <si>
+    <t>Invalid Value</t>
+  </si>
+  <si>
+    <t>Value http://terminology.hl7.org/CodeSystem/v3-ActCode in ENCOUNTER_CLASS_CODE_SYSTEM not in allowed list ('http://terminology.hl7.org/ValueSet/v3-ActEncounterCode')</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_CLASS_CODE_SYSTEM</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v3-ActCode</t>
+  </si>
+  <si>
+    <t>Use only allowed values 'http://terminology.hl7.org/ValueSet/v3-ActEncounterCode' in ENCOUNTER_CLASS_CODE_SYSTEM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Resolved By QE/QCS</t>
+  </si>
+  <si>
+    <t>986ce9cb-bfe8-4605-b55c-147bd0d1ea63</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -114,10 +138,7 @@
     <t>Please be sure to provide both a valid date and time.</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>16607bff-5777-4028-ad0f-ffa8bf5166a3</t>
+    <t>a5346f2a-db69-4325-b11f-0a9ed6c6a722</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -144,7 +165,7 @@
     <t>admin_demographics_20240307</t>
   </si>
   <si>
-    <t>49d495db-6fab-4457-a42a-a5bc99aaaedf</t>
+    <t>09890ed6-ccf2-478f-ade7-9cf748010bcc</t>
   </si>
   <si>
     <t>Invalid ADMINISTRATIVE SEX CODE</t>
@@ -165,172 +186,133 @@
     <t>WARNING</t>
   </si>
   <si>
-    <t>Resolved By QE/QCS</t>
-  </si>
-  <si>
-    <t>97c4048a-4d1d-4dc1-927e-0b967106c3b3</t>
+    <t>c534c4da-80e0-4047-95d1-295b3402e324</t>
   </si>
   <si>
     <t>Combination Not Matching</t>
   </si>
   <si>
-    <t>Invalid value "UNK" found in SEX_AT_BIRTH_CODE</t>
-  </si>
-  <si>
-    <t>SEX_AT_BIRTH_CODE</t>
+    <t>Invalid value "1142-9" found in RACE_CODE</t>
+  </si>
+  <si>
+    <t>RACE_CODE</t>
+  </si>
+  <si>
+    <t>1142-9</t>
+  </si>
+  <si>
+    <t>The RACE_CODE "1142-9" of RACE_CODE_DESCRIPTION "Coquille" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>466799b7-a911-4c0d-be92-3c527c0d7e65</t>
+  </si>
+  <si>
+    <t>Invalid RACE CODE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Invalid RACE CODE DESCRIPTION "Coquille" found in RACE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>RACE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Coquille</t>
+  </si>
+  <si>
+    <t>Validate RACE CODE DESCRIPTION with race reference data</t>
+  </si>
+  <si>
+    <t>6dd3e498-c5b8-4f4c-a810-7dfd066cf2ed</t>
+  </si>
+  <si>
+    <t>Invalid Unique Medicaid Cin Per Mrn</t>
+  </si>
+  <si>
+    <t>Invalid Unique Medicaid Cin Per Mrn "QK65113L" found in MEDICAID_CIN</t>
+  </si>
+  <si>
+    <t>MEDICAID_CIN</t>
+  </si>
+  <si>
+    <t>QK65113L</t>
+  </si>
+  <si>
+    <t>Validate Unique Medicaid Cin Per Mrn</t>
+  </si>
+  <si>
+    <t>9ee63488-6365-47c3-92d6-2d83fa7bb0ff</t>
+  </si>
+  <si>
+    <t>2a0bd043-6c7d-4e5a-9676-0b4c0387b43b</t>
+  </si>
+  <si>
+    <t>2df4a9b4-8f55-44ad-b78f-b52ffbb56214</t>
+  </si>
+  <si>
+    <t>199967ec-72a3-402b-bac2-278226e2218d</t>
+  </si>
+  <si>
+    <t>Invalid value "X" found in ADMINISTRATIVE_SEX_CODE</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>The ADMINISTRATIVE_SEX_CODE "X" of ADMINISTRATIVE_SEX _CODE_DESCRIPTION "Other" is not matching with the ADMINISTRATIVE_SEX_CODE of ADMINISTRATIVE_SEX _CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>0f08e5f0-67df-4c18-93a0-bf267c6af2e9</t>
+  </si>
+  <si>
+    <t>aae32651-9577-4081-9339-95d21dcb95ae</t>
+  </si>
+  <si>
+    <t>6f773ae4-b9f4-47fd-a6d5-2563a6198331</t>
+  </si>
+  <si>
+    <t>168a77d8-34ba-46a8-963a-c3de7e7e290d</t>
+  </si>
+  <si>
+    <t>2e41c9a7-36f1-4b91-8914-5b919fc83363</t>
+  </si>
+  <si>
+    <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA')</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Use only allowed values 'Yes','No','NA' in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>488cd801-e4d5-46ac-ad8a-a3ad50c78679</t>
+  </si>
+  <si>
+    <t>Invalid value "UNK" found in ADMINISTRATIVE_SEX_CODE</t>
   </si>
   <si>
     <t>UNK</t>
   </si>
   <si>
-    <t>The SEX_AT_BIRTH_CODE "UNK" of SEX_AT_BIRTH_CODE_DESCRIPTION "unknown" is not matching with the SEX_AT_BIRTH_CODE of SEX_AT_BIRTH_CODE_DESCRIPTION in reference data</t>
-  </si>
-  <si>
-    <t>403a915e-1c99-40a5-bcd3-07e763653fba</t>
-  </si>
-  <si>
-    <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Invalid SEX_AT_BIRTH_CODE_DESCRIPTION "unknown" found in SEX_AT_BIRTH_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>SEX_AT_BIRTH_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>Validate SEX_AT_BIRTH_CODE_DESCRIPTION with sex at birth reference data</t>
-  </si>
-  <si>
-    <t>b8abcddc-4526-4f24-a333-3286cc3723b0</t>
-  </si>
-  <si>
-    <t>Invalid value "1142-9" found in RACE_CODE</t>
-  </si>
-  <si>
-    <t>RACE_CODE</t>
-  </si>
-  <si>
-    <t>1142-9</t>
-  </si>
-  <si>
-    <t>The RACE_CODE "1142-9" of RACE_CODE_DESCRIPTION "Coquille" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
-  </si>
-  <si>
-    <t>85d51026-b211-49e3-a236-83967e6f0335</t>
-  </si>
-  <si>
-    <t>Invalid RACE CODE DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Invalid RACE CODE DESCRIPTION "Coquille" found in RACE_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>RACE_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Coquille</t>
-  </si>
-  <si>
-    <t>Validate RACE CODE DESCRIPTION with race reference data</t>
-  </si>
-  <si>
-    <t>2d5a6d99-fa27-44f3-ad4e-bc40fa8a99dd</t>
-  </si>
-  <si>
-    <t>Invalid Unique Medicaid Cin Per Mrn</t>
-  </si>
-  <si>
-    <t>Invalid Unique Medicaid Cin Per Mrn "QK65113L" found in MEDICAID_CIN</t>
-  </si>
-  <si>
-    <t>MEDICAID_CIN</t>
-  </si>
-  <si>
-    <t>QK65113L</t>
-  </si>
-  <si>
-    <t>Validate Unique Medicaid Cin Per Mrn</t>
-  </si>
-  <si>
-    <t>a170c5ea-d2dd-41fe-90db-161e3dc20c6b</t>
-  </si>
-  <si>
-    <t>0dfc5aab-f5da-47de-9cb5-68a6bd70ddfb</t>
-  </si>
-  <si>
-    <t>faa89b45-1dfe-4837-9a8a-7c523e479630</t>
-  </si>
-  <si>
-    <t>Invalid value "X" found in ADMINISTRATIVE_SEX_CODE</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>The ADMINISTRATIVE_SEX_CODE "X" of ADMINISTRATIVE_SEX _CODE_DESCRIPTION "Other" is not matching with the ADMINISTRATIVE_SEX_CODE of ADMINISTRATIVE_SEX _CODE_DESCRIPTION in reference data</t>
-  </si>
-  <si>
-    <t>ba64e48c-e986-4b6c-9413-bc717ad42d32</t>
-  </si>
-  <si>
-    <t>b21ff7a8-0925-4b1d-ac1e-e6aa6cf8b5b8</t>
-  </si>
-  <si>
-    <t>96cfdc1a-cb6c-4630-8600-7a25757c747a</t>
-  </si>
-  <si>
-    <t>a495149d-a2b6-4946-9dc1-405dc3800472</t>
-  </si>
-  <si>
-    <t>8c494cfb-bd54-4da9-98d8-ac67c9cf1054</t>
-  </si>
-  <si>
-    <t>4dc1f327-d77e-417e-8caf-502599b15226</t>
-  </si>
-  <si>
-    <t>Invalid Value</t>
-  </si>
-  <si>
-    <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA')</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Use only allowed values 'Yes','No','NA' in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>b627dee0-98d5-4917-90e7-bda5165e08f6</t>
-  </si>
-  <si>
-    <t>Invalid value "UNK" found in ADMINISTRATIVE_SEX_CODE</t>
-  </si>
-  <si>
     <t>The ADMINISTRATIVE_SEX_CODE "UNK" of ADMINISTRATIVE_SEX _CODE_DESCRIPTION "Undifferentiated" is not matching with the ADMINISTRATIVE_SEX_CODE of ADMINISTRATIVE_SEX _CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>bba823ec-7ea2-4dc9-b9ce-f144459856c1</t>
-  </si>
-  <si>
-    <t>3a99eb35-3b69-40a8-8ceb-7a080c276271</t>
-  </si>
-  <si>
-    <t>f8d94ae8-2885-4b96-ad63-c6104e33dc12</t>
-  </si>
-  <si>
-    <t>a3a66b75-319f-4071-a08c-4c0af694fcd7</t>
-  </si>
-  <si>
-    <t>72236ccc-e6c6-4e5a-ad7b-ae210580cd78</t>
-  </si>
-  <si>
-    <t>59f4e6ef-f2af-443c-b6de-9e7a83194aa9</t>
-  </si>
-  <si>
-    <t>f77fcbec-7d93-4469-b5b0-ce552a1945bf</t>
+    <t>af957b9a-9ba8-4cea-bb62-d47e98ed5788</t>
+  </si>
+  <si>
+    <t>0957f61d-de63-4f2e-b062-9459f57d52fa</t>
+  </si>
+  <si>
+    <t>341bdcae-d923-4d84-9f5d-38b8de72bf8d</t>
+  </si>
+  <si>
+    <t>f344f978-27a4-44fe-94c9-76ffcbfab431</t>
+  </si>
+  <si>
+    <t>ede95950-40f6-4cb8-931e-fdfaceda9798</t>
+  </si>
+  <si>
+    <t>29bcd30d-2cc5-40ba-a6a0-400d3e391d16</t>
   </si>
   <si>
     <t>Invalid value "vfdgvdfv" found in ADMINISTRATIVE_SEX_CODE</t>
@@ -339,34 +321,22 @@
     <t>The ADMINISTRATIVE_SEX_CODE "vfdgvdfv" of ADMINISTRATIVE_SEX _CODE_DESCRIPTION "Undifferentiated" is not matching with the ADMINISTRATIVE_SEX_CODE of ADMINISTRATIVE_SEX _CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>b2d8ee2e-85a5-441f-8d9c-d138e6c39327</t>
-  </si>
-  <si>
-    <t>7814c154-94fd-4c3c-a0d8-60b49c9badc2</t>
-  </si>
-  <si>
-    <t>152127cf-8c6d-4920-a440-182ae9b65eae</t>
-  </si>
-  <si>
-    <t>163944b9-5800-46cf-b065-86cc8e99442d</t>
-  </si>
-  <si>
-    <t>e46cc278-b36a-4275-84b8-20a6eb10d6de</t>
-  </si>
-  <si>
-    <t>1c1bfd21-ecfd-4b22-9dc9-83add8839370</t>
-  </si>
-  <si>
-    <t>cf3ca8d4-bb9d-49a8-9b30-62064689955a</t>
-  </si>
-  <si>
-    <t>Invalid value "unknown" found in SEX_AT_BIRTH_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>The SEX_AT_BIRTH_CODE_DESCRIPTION "unknown" of SEX_AT_BIRTH_CODE "UNK" is not matching with the SEX_AT_BIRTH_CODE_DESCRIPTION of SEX_AT_BIRTH_CODE in reference data</t>
-  </si>
-  <si>
-    <t>c179a217-1c1d-491b-9ca6-8212174d33b1</t>
+    <t>0cd5ab07-0015-47e4-870b-0ce627aeac43</t>
+  </si>
+  <si>
+    <t>16861563-78ba-4c93-86b4-93817530989f</t>
+  </si>
+  <si>
+    <t>e59c15ed-8c0d-40e4-aa08-b1a78ed33669</t>
+  </si>
+  <si>
+    <t>8f1d45a7-c538-404c-8812-2f51e977b151</t>
+  </si>
+  <si>
+    <t>eb89084e-b51a-4f7d-8115-158dc260ba73</t>
+  </si>
+  <si>
+    <t>568fb1f8-ac96-4202-b111-badaa69c558c</t>
   </si>
   <si>
     <t>Invalid value "Coquille" found in RACE_CODE_DESCRIPTION</t>
@@ -375,73 +345,139 @@
     <t>The RACE_CODE_DESCRIPTION "Coquille" of RACE_CODE "1142-9" is not matching with the RACE_CODE_DESCRIPTION of RACE_CODE in reference data</t>
   </si>
   <si>
-    <t>3e55da91-e2f0-44fb-ac3a-e7f6cb23d1f3</t>
-  </si>
-  <si>
-    <t>eda230d3-6fc2-4c1e-882c-4725e428708d</t>
-  </si>
-  <si>
-    <t>b9dcd807-9b99-4cc5-a7a7-49e57e9a15c2</t>
-  </si>
-  <si>
-    <t>7b7f21a9-7a43-4386-8a5f-f907691e32a7</t>
-  </si>
-  <si>
-    <t>163ba05b-dca2-47ef-95ab-5f46ec367137</t>
-  </si>
-  <si>
-    <t>20c0046a-6326-403d-86d7-ffbef7410409</t>
-  </si>
-  <si>
-    <t>c5f2b522-44f0-48b0-8acb-72db8fd13374</t>
-  </si>
-  <si>
-    <t>d888942f-65de-40e0-a2da-33fac1d910a3</t>
-  </si>
-  <si>
-    <t>7a5fbc2f-2144-40c6-a72e-c9ed6c7af5f4</t>
-  </si>
-  <si>
-    <t>299115f4-d975-409f-abb1-24e42540d6e6</t>
-  </si>
-  <si>
-    <t>f25f2de1-f3cc-4b8a-8678-025c7bdc810a</t>
-  </si>
-  <si>
-    <t>ee9cc7e5-8c0b-4ade-83cf-e2f2a875d47f</t>
-  </si>
-  <si>
-    <t>4ac1012e-41be-431b-b309-4bd04bc38bd8</t>
-  </si>
-  <si>
-    <t>236a6349-f10b-477e-b1ec-677a5c15b602</t>
-  </si>
-  <si>
-    <t>a7f652b7-eae1-42f9-a4f0-99a3d73ec74b</t>
-  </si>
-  <si>
-    <t>ec98bc78-297f-4fdb-946b-483dcd76717e</t>
-  </si>
-  <si>
-    <t>21a1f300-bc96-479e-af76-df07ba6bb896</t>
-  </si>
-  <si>
-    <t>3514484e-fe04-4569-8bf6-1e79d7b5f1d6</t>
-  </si>
-  <si>
-    <t>00916e53-0b23-4a2a-bdfa-f243e1328e61</t>
-  </si>
-  <si>
-    <t>35aeac32-4442-43f1-9927-338fafdc93ed</t>
-  </si>
-  <si>
-    <t>3da32385-4ea6-4fb5-96b4-63e4e7322abf</t>
-  </si>
-  <si>
-    <t>34d6c7f5-a4a3-4b39-9e3f-4878f5114c74</t>
-  </si>
-  <si>
-    <t>a277f65f-4efd-48d2-b14b-b028e0d59165</t>
+    <t>1c76d8bb-054f-47d7-8665-075229775a23</t>
+  </si>
+  <si>
+    <t>588993fb-b2b3-4323-af9d-af874897819d</t>
+  </si>
+  <si>
+    <t>7b975a28-b0a9-41de-b7dd-28def8d778b2</t>
+  </si>
+  <si>
+    <t>90d3ef77-63b2-4a5b-83be-5eea615cc116</t>
+  </si>
+  <si>
+    <t>d35b314f-8cf8-4406-a9c1-52f843d7e43c</t>
+  </si>
+  <si>
+    <t>dd58e0f7-4e91-4492-80c3-31fffcf12cb8</t>
+  </si>
+  <si>
+    <t>2fd5a300-72dd-4a08-9dc3-4a6aa90b4519</t>
+  </si>
+  <si>
+    <t>b702a226-dea6-4929-bc13-4de58cc25731</t>
+  </si>
+  <si>
+    <t>7e4abb4e-6695-4889-b600-41c0579effe5</t>
+  </si>
+  <si>
+    <t>5f183fde-70bd-4ccd-8c32-26649afcf647</t>
+  </si>
+  <si>
+    <t>0dc55637-39ff-4e4f-9a8a-39f2ed49c8ee</t>
+  </si>
+  <si>
+    <t>fd703836-7655-4357-872d-58876c897aca</t>
+  </si>
+  <si>
+    <t>182dd371-4335-4ac7-b21b-d25b86111dab</t>
+  </si>
+  <si>
+    <t>0d704199-945a-4d92-acb1-5b8d33a43590</t>
+  </si>
+  <si>
+    <t>b1742745-95ea-4c4e-a182-359740c396bc</t>
+  </si>
+  <si>
+    <t>4f587d66-9baa-448a-a184-e61806c79374</t>
+  </si>
+  <si>
+    <t>15d795c9-ce95-4669-825d-11b80c9a067a</t>
+  </si>
+  <si>
+    <t>ec355a48-1d91-45d0-9040-7eb458648fd3</t>
+  </si>
+  <si>
+    <t>99484d3d-4f0a-415f-a5dd-a67269bd370a</t>
+  </si>
+  <si>
+    <t>9c6ce71d-5cf7-4e97-b290-db6773cb30c9</t>
+  </si>
+  <si>
+    <t>a3b65db1-6ed1-4a19-9aac-fd2a343e6099</t>
+  </si>
+  <si>
+    <t>e12c9161-c152-405c-aebe-b2dfc07d89e0</t>
+  </si>
+  <si>
+    <t>0e0f4fd8-261a-4379-8223-aa3abfc6d731</t>
+  </si>
+  <si>
+    <t>d2c65f5d-a214-4f96-9a99-6445b679ee22</t>
+  </si>
+  <si>
+    <t>73d74b99-71f3-4cd5-ae9a-a99a5eeea82c</t>
+  </si>
+  <si>
+    <t>3a9e4220-d474-4df6-97d5-3880b99b1809</t>
+  </si>
+  <si>
+    <t>f52cbd93-9b5b-431e-b056-2cfec471f8eb</t>
+  </si>
+  <si>
+    <t>2f87fb99-4859-4a03-8e3f-916bb7d805fc</t>
+  </si>
+  <si>
+    <t>b2968daa-64de-4aab-a45b-9e85591120b3</t>
+  </si>
+  <si>
+    <t>f823ee04-fcc9-4619-81d7-9821deb02837</t>
+  </si>
+  <si>
+    <t>d202cbb2-3e90-4480-b3dd-08f6c0756ef4</t>
+  </si>
+  <si>
+    <t>8397454d-5e40-4152-93bf-c963e0b7441b</t>
+  </si>
+  <si>
+    <t>6705e6bc-cdcc-4a1d-9b61-864630e38a8d</t>
+  </si>
+  <si>
+    <t>d847259c-9245-4c4d-a6ca-2f875fb4d73e</t>
+  </si>
+  <si>
+    <t>3a964dda-2f73-4d58-829d-0b6f8d64a8b8</t>
+  </si>
+  <si>
+    <t>3f196366-e49c-4a89-b3f9-a8d0b1e36e4c</t>
+  </si>
+  <si>
+    <t>0d0909e3-b202-4d21-9e52-efa7edea8f29</t>
+  </si>
+  <si>
+    <t>82643a2a-e15f-4955-bf80-834a356087ff</t>
+  </si>
+  <si>
+    <t>fe55d25c-867d-473c-9c48-458a84beba82</t>
+  </si>
+  <si>
+    <t>d76d2039-8dfa-4ca7-b0cf-8e1ac3ac20cb</t>
+  </si>
+  <si>
+    <t>4868e535-865c-485e-a867-90f138df9713</t>
+  </si>
+  <si>
+    <t>b466df89-97b9-4a28-8ac0-c3279a9a7ebb</t>
+  </si>
+  <si>
+    <t>8a11e4a6-cb54-4587-8986-d951752a3a0f</t>
+  </si>
+  <si>
+    <t>11a46304-4ad8-4d39-989c-47a402f15bed</t>
+  </si>
+  <si>
+    <t>a9edec7e-6387-44e4-8c83-ba776b32a240</t>
   </si>
   <si>
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
@@ -594,7 +630,7 @@
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>1ea5ce2a-92ab-4473-9875-001c63e649b4</t>
+    <t>b4be663b-ccef-49da-bd21-4955749d9a8c</t>
   </si>
   <si>
     <t>Mandatory field CONSENT is empty</t>
@@ -606,16 +642,16 @@
     <t>Provide a value for CONSENT</t>
   </si>
   <si>
-    <t>4ceaea17-f5f9-4f50-883c-0bf5989f6dba</t>
-  </si>
-  <si>
-    <t>227bceb7-98b8-4bf7-a434-cbc17096c642</t>
-  </si>
-  <si>
-    <t>1d3edb3f-ed4b-4d72-8b51-6ddf1624246f</t>
-  </si>
-  <si>
-    <t>cc774ff6-462c-4c4b-a8f8-f21c208ef3a7</t>
+    <t>07be4f9c-112f-4fec-8848-5cbd3dc82d3a</t>
+  </si>
+  <si>
+    <t>6d3d0889-6923-46d1-8885-7f65dbcc47e9</t>
+  </si>
+  <si>
+    <t>c6da2667-bb9f-4e75-9425-9b01c0a86500</t>
+  </si>
+  <si>
+    <t>aae0769b-cc66-4252-945a-fabe518c80f1</t>
   </si>
   <si>
     <t>Invalid value "Undifferentiated" found in ADMINISTRATIVE_SEX _CODE_DESCRIPTION</t>
@@ -630,13 +666,13 @@
     <t>The ADMINISTRATIVE_SEX _CODE_DESCRIPTION "Undifferentiated" of ADMINISTRATIVE_SEX_CODE "vfdgvdfv" is not matching with the ADMINISTRATIVE_SEX _CODE_DESCRIPTION of ADMINISTRATIVE_SEX_CODE in reference data</t>
   </si>
   <si>
-    <t>37138611-f2f2-4876-b4ed-f67c32ca9440</t>
+    <t>86e54486-7cc5-49b9-a97b-c9e10f29ac8e</t>
   </si>
   <si>
     <t>The ADMINISTRATIVE_SEX _CODE_DESCRIPTION "Undifferentiated" of ADMINISTRATIVE_SEX_CODE "UNK" is not matching with the ADMINISTRATIVE_SEX _CODE_DESCRIPTION of ADMINISTRATIVE_SEX_CODE in reference data</t>
   </si>
   <si>
-    <t>8fff981b-6993-4907-a323-e1c063e8256d</t>
+    <t>c09557c9-2c1a-447a-835c-0058bb800b07</t>
   </si>
   <si>
     <t>Invalid value "Other" found in ADMINISTRATIVE_SEX _CODE_DESCRIPTION</t>
@@ -822,7 +858,7 @@
         <v>30</v>
       </c>
       <c r="O2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P2" t="s">
         <v>31</v>
@@ -836,6 +872,9 @@
       <c r="T2" t="s">
         <v>34</v>
       </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -860,25 +899,28 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -895,40 +937,34 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
         <v>45</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>46</v>
       </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="T4" t="s">
         <v>47</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -945,37 +981,40 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
         <v>52</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>53</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
         <v>54</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>56</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>57</v>
       </c>
-      <c r="T5" t="s">
-        <v>34</v>
+      <c r="U5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -992,13 +1031,13 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
         <v>58</v>
@@ -1039,34 +1078,34 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
         <v>64</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T7" t="s">
         <v>34</v>
@@ -1086,37 +1125,40 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s">
-        <v>34</v>
+        <v>57</v>
+      </c>
+      <c r="U8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1133,40 +1175,40 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="T9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="U9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1192,25 +1234,25 @@
         <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O10">
         <v>13</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s">
         <v>34</v>
@@ -1239,25 +1281,25 @@
         <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="O11">
         <v>26</v>
       </c>
       <c r="P11" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="R11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="T11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -1274,40 +1316,40 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -1324,34 +1366,34 @@
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O13">
         <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="Q13" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="R13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="T13" t="s">
         <v>34</v>
@@ -1371,34 +1413,34 @@
         <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O14">
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="R14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="T14" t="s">
         <v>34</v>
@@ -1418,37 +1460,40 @@
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="N15" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="Q15" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="T15" t="s">
         <v>34</v>
+      </c>
+      <c r="U15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -1465,34 +1510,34 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" t="s">
         <v>41</v>
-      </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" t="s">
-        <v>70</v>
-      </c>
-      <c r="N16" t="s">
-        <v>71</v>
-      </c>
-      <c r="O16">
-        <v>2</v>
-      </c>
-      <c r="P16" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R16" t="s">
-        <v>74</v>
       </c>
       <c r="T16" t="s">
         <v>34</v>
@@ -1521,28 +1566,28 @@
         <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M17" t="s">
         <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="O17">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P17" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q17" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="R17" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="T17" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1559,37 +1604,40 @@
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="L18" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" t="s">
         <v>92</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" t="s">
         <v>93</v>
       </c>
-      <c r="N18" t="s">
+      <c r="R18" t="s">
         <v>94</v>
       </c>
-      <c r="O18">
-        <v>7</v>
-      </c>
-      <c r="P18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>95</v>
-      </c>
-      <c r="R18" t="s">
-        <v>96</v>
-      </c>
       <c r="T18" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="U18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -1606,40 +1654,37 @@
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N19" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="O19">
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="Q19" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="R19" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="T19" t="s">
-        <v>50</v>
-      </c>
-      <c r="U19" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -1656,34 +1701,34 @@
         <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M20" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="N20" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="O20">
         <v>3</v>
       </c>
       <c r="P20" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q20" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="R20" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="T20" t="s">
         <v>34</v>
@@ -1703,37 +1748,40 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N21" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P21" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="Q21" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="T21" t="s">
         <v>34</v>
+      </c>
+      <c r="U21" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22">
@@ -1750,34 +1798,34 @@
         <v>24</v>
       </c>
       <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22">
+        <v>15</v>
+      </c>
+      <c r="P22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" t="s">
         <v>41</v>
-      </c>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" t="s">
-        <v>102</v>
-      </c>
-      <c r="M22" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22">
-        <v>3</v>
-      </c>
-      <c r="P22" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>67</v>
-      </c>
-      <c r="R22" t="s">
-        <v>68</v>
       </c>
       <c r="T22" t="s">
         <v>34</v>
@@ -1797,37 +1845,37 @@
         <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M23" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P23" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="Q23" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="R23" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="T23" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
@@ -1844,37 +1892,40 @@
         <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="L24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N24" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="O24">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P24" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="Q24" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="R24" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="T24" t="s">
-        <v>34</v>
+        <v>57</v>
+      </c>
+      <c r="U24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25">
@@ -1891,37 +1942,37 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="L25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M25" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="N25" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="O25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P25" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="Q25" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="R25" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="T25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1938,40 +1989,37 @@
         <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M26" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="N26" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="O26">
         <v>4</v>
       </c>
       <c r="P26" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="Q26" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="R26" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="T26" t="s">
-        <v>50</v>
-      </c>
-      <c r="U26" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -1988,37 +2036,40 @@
         <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M27" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="N27" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P27" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="Q27" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="R27" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="T27" t="s">
         <v>34</v>
+      </c>
+      <c r="U27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -2035,34 +2086,34 @@
         <v>24</v>
       </c>
       <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" t="s">
+        <v>37</v>
+      </c>
+      <c r="N28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28">
+        <v>16</v>
+      </c>
+      <c r="P28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>40</v>
+      </c>
+      <c r="R28" t="s">
         <v>41</v>
-      </c>
-      <c r="I28" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" t="s">
-        <v>110</v>
-      </c>
-      <c r="M28" t="s">
-        <v>59</v>
-      </c>
-      <c r="N28" t="s">
-        <v>60</v>
-      </c>
-      <c r="O28">
-        <v>4</v>
-      </c>
-      <c r="P28" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>62</v>
-      </c>
-      <c r="R28" t="s">
-        <v>63</v>
       </c>
       <c r="T28" t="s">
         <v>34</v>
@@ -2082,37 +2133,37 @@
         <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M29" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="N29" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P29" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="Q29" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="R29" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="T29" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -2129,34 +2180,34 @@
         <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M30" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="N30" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q30" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R30" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="T30" t="s">
         <v>34</v>
@@ -2185,7 +2236,7 @@
         <v>27</v>
       </c>
       <c r="L31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M31" t="s">
         <v>29</v>
@@ -2194,7 +2245,7 @@
         <v>30</v>
       </c>
       <c r="O31">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P31" t="s">
         <v>31</v>
@@ -2208,6 +2259,9 @@
       <c r="T31" t="s">
         <v>34</v>
       </c>
+      <c r="U31" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2232,28 +2286,28 @@
         <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M32" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="N32" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="O32">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="P32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q32" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="R32" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="T32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -2270,37 +2324,37 @@
         <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M33" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="N33" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P33" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="Q33" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="R33" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="T33" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
@@ -2317,34 +2371,34 @@
         <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M34" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N34" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R34" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="T34" t="s">
         <v>34</v>
@@ -2373,7 +2427,7 @@
         <v>27</v>
       </c>
       <c r="L35" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M35" t="s">
         <v>29</v>
@@ -2382,7 +2436,7 @@
         <v>30</v>
       </c>
       <c r="O35">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="P35" t="s">
         <v>31</v>
@@ -2396,6 +2450,9 @@
       <c r="T35" t="s">
         <v>34</v>
       </c>
+      <c r="U35" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -2420,28 +2477,28 @@
         <v>27</v>
       </c>
       <c r="L36" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M36" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="N36" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="O36">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q36" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="R36" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="T36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -2458,37 +2515,37 @@
         <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L37" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M37" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="N37" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="O37">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P37" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="Q37" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="R37" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="T37" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
@@ -2505,34 +2562,34 @@
         <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L38" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M38" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N38" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="O38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P38" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q38" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R38" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="T38" t="s">
         <v>34</v>
@@ -2561,7 +2618,7 @@
         <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M39" t="s">
         <v>29</v>
@@ -2570,7 +2627,7 @@
         <v>30</v>
       </c>
       <c r="O39">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P39" t="s">
         <v>31</v>
@@ -2584,6 +2641,9 @@
       <c r="T39" t="s">
         <v>34</v>
       </c>
+      <c r="U39" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -2608,28 +2668,28 @@
         <v>27</v>
       </c>
       <c r="L40" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M40" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="N40" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="O40">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q40" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="R40" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="T40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -2646,37 +2706,37 @@
         <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L41" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M41" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="N41" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="P41" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="Q41" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="R41" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="T41" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42">
@@ -2693,34 +2753,34 @@
         <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L42" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M42" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N42" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q42" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R42" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="T42" t="s">
         <v>34</v>
@@ -2749,7 +2809,7 @@
         <v>27</v>
       </c>
       <c r="L43" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M43" t="s">
         <v>29</v>
@@ -2758,7 +2818,7 @@
         <v>30</v>
       </c>
       <c r="O43">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="P43" t="s">
         <v>31</v>
@@ -2772,6 +2832,9 @@
       <c r="T43" t="s">
         <v>34</v>
       </c>
+      <c r="U43" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -2796,28 +2859,28 @@
         <v>27</v>
       </c>
       <c r="L44" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M44" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="N44" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="O44">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q44" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="R44" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="T44" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
@@ -2834,37 +2897,40 @@
         <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L45" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M45" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="N45" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P45" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="Q45" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="T45" t="s">
         <v>34</v>
+      </c>
+      <c r="U45" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="46">
@@ -2881,34 +2947,34 @@
         <v>24</v>
       </c>
       <c r="H46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
+        <v>126</v>
+      </c>
+      <c r="M46" t="s">
+        <v>37</v>
+      </c>
+      <c r="N46" t="s">
+        <v>38</v>
+      </c>
+      <c r="O46">
+        <v>21</v>
+      </c>
+      <c r="P46" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>40</v>
+      </c>
+      <c r="R46" t="s">
         <v>41</v>
-      </c>
-      <c r="I46" t="s">
-        <v>42</v>
-      </c>
-      <c r="J46" t="s">
-        <v>43</v>
-      </c>
-      <c r="L46" t="s">
-        <v>132</v>
-      </c>
-      <c r="M46" t="s">
-        <v>53</v>
-      </c>
-      <c r="N46" t="s">
-        <v>119</v>
-      </c>
-      <c r="O46">
-        <v>4</v>
-      </c>
-      <c r="P46" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>73</v>
-      </c>
-      <c r="R46" t="s">
-        <v>120</v>
       </c>
       <c r="T46" t="s">
         <v>34</v>
@@ -2937,7 +3003,7 @@
         <v>27</v>
       </c>
       <c r="L47" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M47" t="s">
         <v>29</v>
@@ -2946,7 +3012,7 @@
         <v>30</v>
       </c>
       <c r="O47">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P47" t="s">
         <v>31</v>
@@ -2960,6 +3026,9 @@
       <c r="T47" t="s">
         <v>34</v>
       </c>
+      <c r="U47" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -2984,25 +3053,25 @@
         <v>27</v>
       </c>
       <c r="L48" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M48" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N48" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O48">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P48" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q48" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R48" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T48" t="s">
         <v>34</v>
@@ -3031,7 +3100,7 @@
         <v>27</v>
       </c>
       <c r="L49" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M49" t="s">
         <v>29</v>
@@ -3040,7 +3109,7 @@
         <v>30</v>
       </c>
       <c r="O49">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="P49" t="s">
         <v>31</v>
@@ -3054,6 +3123,9 @@
       <c r="T49" t="s">
         <v>34</v>
       </c>
+      <c r="U49" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -3078,25 +3150,25 @@
         <v>27</v>
       </c>
       <c r="L50" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N50" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O50">
         <v>23</v>
       </c>
       <c r="P50" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q50" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R50" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T50" t="s">
         <v>34</v>
@@ -3125,7 +3197,7 @@
         <v>27</v>
       </c>
       <c r="L51" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M51" t="s">
         <v>29</v>
@@ -3134,7 +3206,7 @@
         <v>30</v>
       </c>
       <c r="O51">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P51" t="s">
         <v>31</v>
@@ -3148,6 +3220,9 @@
       <c r="T51" t="s">
         <v>34</v>
       </c>
+      <c r="U51" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -3172,25 +3247,25 @@
         <v>27</v>
       </c>
       <c r="L52" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M52" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N52" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O52">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P52" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q52" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R52" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T52" t="s">
         <v>34</v>
@@ -3219,7 +3294,7 @@
         <v>27</v>
       </c>
       <c r="L53" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M53" t="s">
         <v>29</v>
@@ -3228,7 +3303,7 @@
         <v>30</v>
       </c>
       <c r="O53">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P53" t="s">
         <v>31</v>
@@ -3242,6 +3317,9 @@
       <c r="T53" t="s">
         <v>34</v>
       </c>
+      <c r="U53" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -3266,25 +3344,25 @@
         <v>27</v>
       </c>
       <c r="L54" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M54" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N54" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O54">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P54" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q54" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R54" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T54" t="s">
         <v>34</v>
@@ -3313,7 +3391,7 @@
         <v>27</v>
       </c>
       <c r="L55" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M55" t="s">
         <v>29</v>
@@ -3322,7 +3400,7 @@
         <v>30</v>
       </c>
       <c r="O55">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="P55" t="s">
         <v>31</v>
@@ -3336,6 +3414,9 @@
       <c r="T55" t="s">
         <v>34</v>
       </c>
+      <c r="U55" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -3360,25 +3441,25 @@
         <v>27</v>
       </c>
       <c r="L56" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M56" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N56" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O56">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P56" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q56" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R56" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T56" t="s">
         <v>34</v>
@@ -3407,7 +3488,7 @@
         <v>27</v>
       </c>
       <c r="L57" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M57" t="s">
         <v>29</v>
@@ -3416,7 +3497,7 @@
         <v>30</v>
       </c>
       <c r="O57">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P57" t="s">
         <v>31</v>
@@ -3430,6 +3511,9 @@
       <c r="T57" t="s">
         <v>34</v>
       </c>
+      <c r="U57" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -3445,25 +3529,37 @@
         <v>24</v>
       </c>
       <c r="H58" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="I58" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="J58" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="L58" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M58" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="N58" t="s">
-        <v>149</v>
+        <v>38</v>
+      </c>
+      <c r="O58">
+        <v>27</v>
+      </c>
+      <c r="P58" t="s">
+        <v>39</v>
       </c>
       <c r="Q58" t="s">
-        <v>145</v>
+        <v>40</v>
+      </c>
+      <c r="R58" t="s">
+        <v>41</v>
+      </c>
+      <c r="T58" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -3480,25 +3576,40 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="I59" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="J59" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="L59" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M59" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="N59" t="s">
-        <v>152</v>
+        <v>30</v>
+      </c>
+      <c r="O59">
+        <v>17</v>
+      </c>
+      <c r="P59" t="s">
+        <v>31</v>
       </c>
       <c r="Q59" t="s">
-        <v>145</v>
+        <v>32</v>
+      </c>
+      <c r="R59" t="s">
+        <v>33</v>
+      </c>
+      <c r="T59" t="s">
+        <v>34</v>
+      </c>
+      <c r="U59" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="60">
@@ -3515,25 +3626,37 @@
         <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="I60" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="J60" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="L60" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="M60" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="N60" t="s">
-        <v>155</v>
+        <v>38</v>
+      </c>
+      <c r="O60">
+        <v>28</v>
+      </c>
+      <c r="P60" t="s">
+        <v>39</v>
       </c>
       <c r="Q60" t="s">
-        <v>145</v>
+        <v>40</v>
+      </c>
+      <c r="R60" t="s">
+        <v>41</v>
+      </c>
+      <c r="T60" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -3550,25 +3673,40 @@
         <v>24</v>
       </c>
       <c r="H61" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="I61" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="J61" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="L61" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="M61" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="N61" t="s">
-        <v>158</v>
+        <v>30</v>
+      </c>
+      <c r="O61">
+        <v>18</v>
+      </c>
+      <c r="P61" t="s">
+        <v>31</v>
       </c>
       <c r="Q61" t="s">
-        <v>145</v>
+        <v>32</v>
+      </c>
+      <c r="R61" t="s">
+        <v>33</v>
+      </c>
+      <c r="T61" t="s">
+        <v>34</v>
+      </c>
+      <c r="U61" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="62">
@@ -3585,25 +3723,37 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="I62" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="J62" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="L62" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="M62" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="N62" t="s">
-        <v>161</v>
+        <v>38</v>
+      </c>
+      <c r="O62">
+        <v>29</v>
+      </c>
+      <c r="P62" t="s">
+        <v>39</v>
       </c>
       <c r="Q62" t="s">
-        <v>145</v>
+        <v>40</v>
+      </c>
+      <c r="R62" t="s">
+        <v>41</v>
+      </c>
+      <c r="T62" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="63">
@@ -3620,25 +3770,40 @@
         <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="I63" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="J63" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="L63" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="M63" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="N63" t="s">
-        <v>165</v>
+        <v>30</v>
+      </c>
+      <c r="O63">
+        <v>19</v>
+      </c>
+      <c r="P63" t="s">
+        <v>31</v>
       </c>
       <c r="Q63" t="s">
-        <v>163</v>
+        <v>32</v>
+      </c>
+      <c r="R63" t="s">
+        <v>33</v>
+      </c>
+      <c r="T63" t="s">
+        <v>34</v>
+      </c>
+      <c r="U63" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="64">
@@ -3655,25 +3820,37 @@
         <v>24</v>
       </c>
       <c r="H64" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="I64" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="J64" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="L64" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="M64" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="N64" t="s">
-        <v>168</v>
+        <v>38</v>
+      </c>
+      <c r="O64">
+        <v>30</v>
+      </c>
+      <c r="P64" t="s">
+        <v>39</v>
       </c>
       <c r="Q64" t="s">
-        <v>163</v>
+        <v>40</v>
+      </c>
+      <c r="R64" t="s">
+        <v>41</v>
+      </c>
+      <c r="T64" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="65">
@@ -3690,25 +3867,40 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="I65" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="J65" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="L65" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="M65" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="N65" t="s">
-        <v>171</v>
+        <v>30</v>
+      </c>
+      <c r="O65">
+        <v>20</v>
+      </c>
+      <c r="P65" t="s">
+        <v>31</v>
       </c>
       <c r="Q65" t="s">
-        <v>163</v>
+        <v>32</v>
+      </c>
+      <c r="R65" t="s">
+        <v>33</v>
+      </c>
+      <c r="T65" t="s">
+        <v>34</v>
+      </c>
+      <c r="U65" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="66">
@@ -3725,25 +3917,40 @@
         <v>24</v>
       </c>
       <c r="H66" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="I66" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="J66" t="s">
+        <v>27</v>
+      </c>
+      <c r="L66" t="s">
         <v>146</v>
       </c>
-      <c r="L66" t="s">
-        <v>173</v>
-      </c>
       <c r="M66" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="N66" t="s">
-        <v>174</v>
+        <v>30</v>
+      </c>
+      <c r="O66">
+        <v>21</v>
+      </c>
+      <c r="P66" t="s">
+        <v>31</v>
       </c>
       <c r="Q66" t="s">
-        <v>163</v>
+        <v>32</v>
+      </c>
+      <c r="R66" t="s">
+        <v>33</v>
+      </c>
+      <c r="T66" t="s">
+        <v>34</v>
+      </c>
+      <c r="U66" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="67">
@@ -3760,25 +3967,40 @@
         <v>24</v>
       </c>
       <c r="H67" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="I67" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="J67" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="L67" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="M67" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="N67" t="s">
-        <v>177</v>
+        <v>30</v>
+      </c>
+      <c r="O67">
+        <v>22</v>
+      </c>
+      <c r="P67" t="s">
+        <v>31</v>
       </c>
       <c r="Q67" t="s">
-        <v>163</v>
+        <v>32</v>
+      </c>
+      <c r="R67" t="s">
+        <v>33</v>
+      </c>
+      <c r="T67" t="s">
+        <v>34</v>
+      </c>
+      <c r="U67" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="68">
@@ -3795,25 +4017,40 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="I68" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="J68" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="L68" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="M68" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="N68" t="s">
-        <v>181</v>
+        <v>30</v>
+      </c>
+      <c r="O68">
+        <v>23</v>
+      </c>
+      <c r="P68" t="s">
+        <v>31</v>
       </c>
       <c r="Q68" t="s">
-        <v>179</v>
+        <v>32</v>
+      </c>
+      <c r="R68" t="s">
+        <v>33</v>
+      </c>
+      <c r="T68" t="s">
+        <v>34</v>
+      </c>
+      <c r="U68" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="69">
@@ -3830,25 +4067,40 @@
         <v>24</v>
       </c>
       <c r="H69" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="I69" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="J69" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="L69" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="M69" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="N69" t="s">
-        <v>184</v>
+        <v>30</v>
+      </c>
+      <c r="O69">
+        <v>24</v>
+      </c>
+      <c r="P69" t="s">
+        <v>31</v>
       </c>
       <c r="Q69" t="s">
-        <v>179</v>
+        <v>32</v>
+      </c>
+      <c r="R69" t="s">
+        <v>33</v>
+      </c>
+      <c r="T69" t="s">
+        <v>34</v>
+      </c>
+      <c r="U69" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="70">
@@ -3865,25 +4117,40 @@
         <v>24</v>
       </c>
       <c r="H70" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="I70" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="J70" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="L70" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="M70" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="N70" t="s">
-        <v>187</v>
+        <v>30</v>
+      </c>
+      <c r="O70">
+        <v>25</v>
+      </c>
+      <c r="P70" t="s">
+        <v>31</v>
       </c>
       <c r="Q70" t="s">
-        <v>179</v>
+        <v>32</v>
+      </c>
+      <c r="R70" t="s">
+        <v>33</v>
+      </c>
+      <c r="T70" t="s">
+        <v>34</v>
+      </c>
+      <c r="U70" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="71">
@@ -3900,25 +4167,40 @@
         <v>24</v>
       </c>
       <c r="H71" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="I71" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="J71" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="L71" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="M71" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="N71" t="s">
-        <v>190</v>
+        <v>30</v>
+      </c>
+      <c r="O71">
+        <v>26</v>
+      </c>
+      <c r="P71" t="s">
+        <v>31</v>
       </c>
       <c r="Q71" t="s">
-        <v>179</v>
+        <v>32</v>
+      </c>
+      <c r="R71" t="s">
+        <v>33</v>
+      </c>
+      <c r="T71" t="s">
+        <v>34</v>
+      </c>
+      <c r="U71" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="72">
@@ -3935,25 +4217,40 @@
         <v>24</v>
       </c>
       <c r="H72" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="I72" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="J72" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="L72" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="M72" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="N72" t="s">
-        <v>193</v>
+        <v>30</v>
+      </c>
+      <c r="O72">
+        <v>27</v>
+      </c>
+      <c r="P72" t="s">
+        <v>31</v>
       </c>
       <c r="Q72" t="s">
-        <v>179</v>
+        <v>32</v>
+      </c>
+      <c r="R72" t="s">
+        <v>33</v>
+      </c>
+      <c r="T72" t="s">
+        <v>34</v>
+      </c>
+      <c r="U72" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="73">
@@ -3970,31 +4267,40 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L73" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="M73" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N73" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>31</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>32</v>
       </c>
       <c r="R73" t="s">
-        <v>197</v>
+        <v>33</v>
+      </c>
+      <c r="T73" t="s">
+        <v>34</v>
+      </c>
+      <c r="U73" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="74">
@@ -4011,31 +4317,40 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L74" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="M74" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N74" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>31</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>32</v>
       </c>
       <c r="R74" t="s">
-        <v>197</v>
+        <v>33</v>
+      </c>
+      <c r="T74" t="s">
+        <v>34</v>
+      </c>
+      <c r="U74" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="75">
@@ -4052,31 +4367,40 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L75" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="M75" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N75" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="O75">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>31</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>32</v>
       </c>
       <c r="R75" t="s">
-        <v>197</v>
+        <v>33</v>
+      </c>
+      <c r="T75" t="s">
+        <v>34</v>
+      </c>
+      <c r="U75" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="76">
@@ -4093,31 +4417,25 @@
         <v>24</v>
       </c>
       <c r="H76" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="L76" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="M76" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="N76" t="s">
-        <v>195</v>
-      </c>
-      <c r="O76">
-        <v>1</v>
-      </c>
-      <c r="P76" t="s">
-        <v>196</v>
-      </c>
-      <c r="R76" t="s">
-        <v>197</v>
+        <v>161</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="77">
@@ -4134,34 +4452,25 @@
         <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="L77" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="M77" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="N77" t="s">
-        <v>202</v>
-      </c>
-      <c r="O77">
-        <v>4</v>
-      </c>
-      <c r="P77" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="Q77" t="s">
-        <v>204</v>
-      </c>
-      <c r="R77" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78">
@@ -4178,34 +4487,25 @@
         <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="L78" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="M78" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="N78" t="s">
-        <v>202</v>
-      </c>
-      <c r="O78">
-        <v>3</v>
-      </c>
-      <c r="P78" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="Q78" t="s">
-        <v>204</v>
-      </c>
-      <c r="R78" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79">
@@ -4222,34 +4522,706 @@
         <v>24</v>
       </c>
       <c r="H79" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="J79" t="s">
+        <v>158</v>
+      </c>
+      <c r="L79" t="s">
+        <v>169</v>
+      </c>
+      <c r="M79" t="s">
+        <v>160</v>
+      </c>
+      <c r="N79" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" t="s">
+        <v>171</v>
+      </c>
+      <c r="I80" t="s">
+        <v>157</v>
+      </c>
+      <c r="J80" t="s">
+        <v>158</v>
+      </c>
+      <c r="L80" t="s">
+        <v>172</v>
+      </c>
+      <c r="M80" t="s">
+        <v>160</v>
+      </c>
+      <c r="N80" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" t="s">
+        <v>174</v>
+      </c>
+      <c r="I81" t="s">
+        <v>175</v>
+      </c>
+      <c r="J81" t="s">
+        <v>158</v>
+      </c>
+      <c r="L81" t="s">
+        <v>176</v>
+      </c>
+      <c r="M81" t="s">
+        <v>160</v>
+      </c>
+      <c r="N81" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" t="s">
+        <v>178</v>
+      </c>
+      <c r="I82" t="s">
+        <v>175</v>
+      </c>
+      <c r="J82" t="s">
+        <v>158</v>
+      </c>
+      <c r="L82" t="s">
+        <v>179</v>
+      </c>
+      <c r="M82" t="s">
+        <v>160</v>
+      </c>
+      <c r="N82" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" t="s">
+        <v>181</v>
+      </c>
+      <c r="I83" t="s">
+        <v>175</v>
+      </c>
+      <c r="J83" t="s">
+        <v>158</v>
+      </c>
+      <c r="L83" t="s">
+        <v>182</v>
+      </c>
+      <c r="M83" t="s">
+        <v>160</v>
+      </c>
+      <c r="N83" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s">
+        <v>184</v>
+      </c>
+      <c r="I84" t="s">
+        <v>175</v>
+      </c>
+      <c r="J84" t="s">
+        <v>158</v>
+      </c>
+      <c r="L84" t="s">
+        <v>185</v>
+      </c>
+      <c r="M84" t="s">
+        <v>160</v>
+      </c>
+      <c r="N84" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" t="s">
+        <v>187</v>
+      </c>
+      <c r="I85" t="s">
+        <v>175</v>
+      </c>
+      <c r="J85" t="s">
+        <v>158</v>
+      </c>
+      <c r="L85" t="s">
+        <v>188</v>
+      </c>
+      <c r="M85" t="s">
+        <v>160</v>
+      </c>
+      <c r="N85" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" t="s">
+        <v>190</v>
+      </c>
+      <c r="I86" t="s">
+        <v>191</v>
+      </c>
+      <c r="J86" t="s">
+        <v>158</v>
+      </c>
+      <c r="L86" t="s">
+        <v>192</v>
+      </c>
+      <c r="M86" t="s">
+        <v>160</v>
+      </c>
+      <c r="N86" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" t="s">
+        <v>194</v>
+      </c>
+      <c r="I87" t="s">
+        <v>191</v>
+      </c>
+      <c r="J87" t="s">
+        <v>158</v>
+      </c>
+      <c r="L87" t="s">
+        <v>195</v>
+      </c>
+      <c r="M87" t="s">
+        <v>160</v>
+      </c>
+      <c r="N87" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" t="s">
+        <v>197</v>
+      </c>
+      <c r="I88" t="s">
+        <v>191</v>
+      </c>
+      <c r="J88" t="s">
+        <v>158</v>
+      </c>
+      <c r="L88" t="s">
+        <v>198</v>
+      </c>
+      <c r="M88" t="s">
+        <v>160</v>
+      </c>
+      <c r="N88" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" t="s">
+        <v>200</v>
+      </c>
+      <c r="I89" t="s">
+        <v>191</v>
+      </c>
+      <c r="J89" t="s">
+        <v>158</v>
+      </c>
+      <c r="L89" t="s">
+        <v>201</v>
+      </c>
+      <c r="M89" t="s">
+        <v>160</v>
+      </c>
+      <c r="N89" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" t="s">
+        <v>203</v>
+      </c>
+      <c r="I90" t="s">
+        <v>191</v>
+      </c>
+      <c r="J90" t="s">
+        <v>158</v>
+      </c>
+      <c r="L90" t="s">
+        <v>204</v>
+      </c>
+      <c r="M90" t="s">
+        <v>160</v>
+      </c>
+      <c r="N90" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" t="s">
+        <v>48</v>
+      </c>
+      <c r="I91" t="s">
+        <v>49</v>
+      </c>
+      <c r="J91" t="s">
+        <v>50</v>
+      </c>
+      <c r="L91" t="s">
+        <v>206</v>
+      </c>
+      <c r="M91" t="s">
         <v>43</v>
       </c>
-      <c r="L79" t="s">
+      <c r="N91" t="s">
+        <v>207</v>
+      </c>
+      <c r="O91">
+        <v>4</v>
+      </c>
+      <c r="P91" t="s">
         <v>208</v>
       </c>
-      <c r="M79" t="s">
-        <v>53</v>
-      </c>
-      <c r="N79" t="s">
+      <c r="R91" t="s">
         <v>209</v>
       </c>
-      <c r="O79">
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" t="s">
+        <v>48</v>
+      </c>
+      <c r="I92" t="s">
+        <v>49</v>
+      </c>
+      <c r="J92" t="s">
+        <v>50</v>
+      </c>
+      <c r="L92" t="s">
+        <v>210</v>
+      </c>
+      <c r="M92" t="s">
+        <v>43</v>
+      </c>
+      <c r="N92" t="s">
+        <v>207</v>
+      </c>
+      <c r="O92">
+        <v>3</v>
+      </c>
+      <c r="P92" t="s">
+        <v>208</v>
+      </c>
+      <c r="R92" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" t="s">
+        <v>48</v>
+      </c>
+      <c r="I93" t="s">
+        <v>49</v>
+      </c>
+      <c r="J93" t="s">
+        <v>50</v>
+      </c>
+      <c r="L93" t="s">
+        <v>211</v>
+      </c>
+      <c r="M93" t="s">
+        <v>43</v>
+      </c>
+      <c r="N93" t="s">
+        <v>207</v>
+      </c>
+      <c r="O93">
+        <v>2</v>
+      </c>
+      <c r="P93" t="s">
+        <v>208</v>
+      </c>
+      <c r="R93" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" t="s">
+        <v>48</v>
+      </c>
+      <c r="I94" t="s">
+        <v>49</v>
+      </c>
+      <c r="J94" t="s">
+        <v>50</v>
+      </c>
+      <c r="L94" t="s">
+        <v>212</v>
+      </c>
+      <c r="M94" t="s">
+        <v>43</v>
+      </c>
+      <c r="N94" t="s">
+        <v>207</v>
+      </c>
+      <c r="O94">
         <v>1</v>
       </c>
-      <c r="P79" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>210</v>
-      </c>
-      <c r="R79" t="s">
-        <v>211</v>
+      <c r="P94" t="s">
+        <v>208</v>
+      </c>
+      <c r="R94" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I95" t="s">
+        <v>49</v>
+      </c>
+      <c r="J95" t="s">
+        <v>50</v>
+      </c>
+      <c r="L95" t="s">
+        <v>213</v>
+      </c>
+      <c r="M95" t="s">
+        <v>59</v>
+      </c>
+      <c r="N95" t="s">
+        <v>214</v>
+      </c>
+      <c r="O95">
+        <v>4</v>
+      </c>
+      <c r="P95" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>216</v>
+      </c>
+      <c r="R95" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" t="s">
+        <v>48</v>
+      </c>
+      <c r="I96" t="s">
+        <v>49</v>
+      </c>
+      <c r="J96" t="s">
+        <v>50</v>
+      </c>
+      <c r="L96" t="s">
+        <v>218</v>
+      </c>
+      <c r="M96" t="s">
+        <v>59</v>
+      </c>
+      <c r="N96" t="s">
+        <v>214</v>
+      </c>
+      <c r="O96">
+        <v>3</v>
+      </c>
+      <c r="P96" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>216</v>
+      </c>
+      <c r="R96" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I97" t="s">
+        <v>49</v>
+      </c>
+      <c r="J97" t="s">
+        <v>50</v>
+      </c>
+      <c r="L97" t="s">
+        <v>220</v>
+      </c>
+      <c r="M97" t="s">
+        <v>59</v>
+      </c>
+      <c r="N97" t="s">
+        <v>221</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>222</v>
+      </c>
+      <c r="R97" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="447">
   <si>
     <t>orch_session_id</t>
   </si>
@@ -81,13 +81,13 @@
     <t>7bab389e-54af-5a13-a39f-079abdc73a48</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Session 05269d28-15ae-5bd6-bd88-f949ccfa52d7 markdown diagnostics not provided (not completed?)</t>
   </si>
   <si>
-    <t>86b4a49e-7378-5159-9f41-b005208c31bc</t>
+    <t>99e72a60-96ab-5ef1-a3af-3e7759777664</t>
   </si>
   <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/SCREENING_20240307.csv</t>
@@ -96,7 +96,7 @@
     <t>screening_20240307</t>
   </si>
   <si>
-    <t>1692bea9-e0a4-46bc-912e-921d08524dcc</t>
+    <t>bb46f8a6-a1ea-4c36-881b-7fdafb9083bf</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -120,7 +120,157 @@
     <t>Resolved By QE/QCS</t>
   </si>
   <si>
-    <t>986ce9cb-bfe8-4605-b55c-147bd0d1ea63</t>
+    <t>6fcd9df5-34cf-5c09-8fb5-e73617e28d73</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/SCREENING_healthelink-20240305-testcase1.csv</t>
+  </si>
+  <si>
+    <t>screening_healthelink_20240305_testcase1</t>
+  </si>
+  <si>
+    <t>fc2b1280-1adf-47d4-bec8-524b3af89b66</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER CLASS CODE</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER CLASS CODE "fggh" found in ENCOUNTER_CLASS_CODE</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_CLASS_CODE</t>
+  </si>
+  <si>
+    <t>fggh</t>
+  </si>
+  <si>
+    <t>Validate ENCOUNTER CLASS CODE with encounter class reference data</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>96d4edb5-da33-4bb1-8c8e-c06f311a4af1</t>
+  </si>
+  <si>
+    <t>Combination Not Matching</t>
+  </si>
+  <si>
+    <t>Invalid value "emergency" found in ENCOUNTER_CLASS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_CLASS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_CLASS_CODE_DESCRIPTION "emergency" of ENCOUNTER_CLASS_CODE "FLD" is not matching with the ENCOUNTER_CLASS_CODE_DESCRIPTION of ENCOUNTER_CLASS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>f5444130-4d80-4bc2-8c94-3df7e2501f77</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER STATUS CODE</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER STATUS CODE "dfgdg" found in ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>dfgdg</t>
+  </si>
+  <si>
+    <t>Validate ENCOUNTER STATUS CODE with encounter status reference data</t>
+  </si>
+  <si>
+    <t>ccba198c-9096-4fb8-ad64-096b1bba0702</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER STATUS CODE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER STATUS CODE DESCRIPTION "Compldgdgeted" found in ENCOUNTER_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Compldgdgeted</t>
+  </si>
+  <si>
+    <t>Validate ENCOUNTER STATUS CODE DESCRIPTION with encounter status reference data</t>
+  </si>
+  <si>
+    <t>a7b05824-0c04-4a63-aa2b-c716b80ee398</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER TYPE CODE</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER TYPE CODE "dgdfg" found in ENCOUNTER_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>dgdfg</t>
+  </si>
+  <si>
+    <t>Validate ENCOUNTER TYPE CODE with encounter type reference data</t>
+  </si>
+  <si>
+    <t>23437ebc-b27a-4745-af0f-725786f4845d</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER TYPE CODE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER TYPE CODE DESCRIPTION "Encounter by computer link567" found in ENCOUNTER_TYPE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ENCOUNTER_TYPE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Encounter by computer link567</t>
+  </si>
+  <si>
+    <t>Validate ENCOUNTER TYPE CODE DESCRIPTION with encounter type reference data</t>
+  </si>
+  <si>
+    <t>57a64128-03f0-491b-a4f7-49fbde92d7a8</t>
+  </si>
+  <si>
+    <t>Invalid SCREENING STATUS CODE</t>
+  </si>
+  <si>
+    <t>Invalid SCREENING STATUS CODE "entered-in-errorgfdgfdg" found in SCREENING_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>SCREENING_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>entered-in-errorgfdgfdg</t>
+  </si>
+  <si>
+    <t>Validate SCREENING STATUS CODE with screening status code reference data</t>
+  </si>
+  <si>
+    <t>23a3854f-2d30-440f-8e8e-6125449dbd2e</t>
+  </si>
+  <si>
+    <t>Invalid SCREENING STATUS CODE "Entered in Errorfdgfdg" found in SCREENING_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SCREENING_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Entered in Errorfdgfdg</t>
+  </si>
+  <si>
+    <t>fc01961e-1796-4f93-8549-d65a69c92d26</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -138,7 +288,7 @@
     <t>Please be sure to provide both a valid date and time.</t>
   </si>
   <si>
-    <t>a5346f2a-db69-4325-b11f-0a9ed6c6a722</t>
+    <t>e459b19e-5f50-4e5a-916b-f21aebb4f740</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -156,6 +306,816 @@
     <t>REJECTION</t>
   </si>
   <si>
+    <t>c60cf3db-b1bf-5103-b278-b0c128ce924a</t>
+  </si>
+  <si>
+    <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/DEMOGRAPHIC_DATA_healthelink-20240305-testcase1.csv</t>
+  </si>
+  <si>
+    <t>admin_demographics_healthelink_20240305_testcase1</t>
+  </si>
+  <si>
+    <t>e0febebe-5b15-4795-b969-bafea0e39766</t>
+  </si>
+  <si>
+    <t>Invalid value "X" found in ADMINISTRATIVE_SEX_CODE</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVE_SEX_CODE</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>The ADMINISTRATIVE_SEX_CODE "X" of ADMINISTRATIVE_SEX _CODE_DESCRIPTION "Other" is not matching with the ADMINISTRATIVE_SEX_CODE of ADMINISTRATIVE_SEX _CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>4cdf23b7-2789-4e4c-925e-e2ec01d1ef39</t>
+  </si>
+  <si>
+    <t>Invalid value "M" found in SEX_AT_BIRTH_CODE</t>
+  </si>
+  <si>
+    <t>SEX_AT_BIRTH_CODE</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>The SEX_AT_BIRTH_CODE "M" of SEX_AT_BIRTH_CODE_DESCRIPTION "Female" is not matching with the SEX_AT_BIRTH_CODE of SEX_AT_BIRTH_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>9ca8aa74-9117-4527-afd7-62fbba4cb745</t>
+  </si>
+  <si>
+    <t>Invalid value "Female" found in SEX_AT_BIRTH_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SEX_AT_BIRTH_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>The SEX_AT_BIRTH_CODE_DESCRIPTION "Female" of SEX_AT_BIRTH_CODE "M" is not matching with the SEX_AT_BIRTH_CODE_DESCRIPTION of SEX_AT_BIRTH_CODE in reference data</t>
+  </si>
+  <si>
+    <t>7dff1e4c-4724-48e9-a191-bf2040c9b4d1</t>
+  </si>
+  <si>
+    <t>Invalid value "407376001" found in GENDER_IDENTITY_CODE</t>
+  </si>
+  <si>
+    <t>GENDER_IDENTITY_CODE</t>
+  </si>
+  <si>
+    <t>407376001</t>
+  </si>
+  <si>
+    <t>The GENDER_IDENTITY_CODE "407376001" of GENDER_IDENTITY_CODE_DESCRIPTION "Other" is not matching with the GENDER_IDENTITY_CODE of GENDER_IDENTITY_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>3a623daa-7b74-47d6-aee8-9f4989a0d269</t>
+  </si>
+  <si>
+    <t>Invalid value "UNK" found in SEXUAL_ORIENTATION_CODE</t>
+  </si>
+  <si>
+    <t>SEXUAL_ORIENTATION_CODE</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>The SEXUAL_ORIENTATION_CODE "UNK" of SEXUAL_ORIENTATION_DESCRIPTION "Other" is not matching with the SEXUAL_ORIENTATION_CODE of SEXUAL_ORIENTATION_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>89c7dd0c-80bc-4fec-be81-de0928897356</t>
+  </si>
+  <si>
+    <t>Invalid value "Other" found in SEXUAL_ORIENTATION_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SEXUAL_ORIENTATION_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>The SEXUAL_ORIENTATION_DESCRIPTION "Other" of SEXUAL_ORIENTATION_CODE "UNK" is not matching with the SEXUAL_ORIENTATION_DESCRIPTION of SEXUAL_ORIENTATION_CODE in reference data</t>
+  </si>
+  <si>
+    <t>dd7a4bce-3084-4c21-9200-c7e14f13ee99</t>
+  </si>
+  <si>
+    <t>Invalid value "1002-5" found in RACE_CODE</t>
+  </si>
+  <si>
+    <t>RACE_CODE</t>
+  </si>
+  <si>
+    <t>1002-5</t>
+  </si>
+  <si>
+    <t>The RACE_CODE "1002-5" of RACE_CODE_DESCRIPTION "Black or African American" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>dc1ff3b2-77c4-43c3-96f7-c2439737e838</t>
+  </si>
+  <si>
+    <t>Invalid value "Black or African American" found in RACE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>RACE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Black or African American</t>
+  </si>
+  <si>
+    <t>The RACE_CODE_DESCRIPTION "Black or African American" of RACE_CODE "1002-5" is not matching with the RACE_CODE_DESCRIPTION of RACE_CODE in reference data</t>
+  </si>
+  <si>
+    <t>6d3958c4-1488-4cf3-9546-53c6df9ba4f7</t>
+  </si>
+  <si>
+    <t>Invalid value "2135-2" found in ETHNICITY_CODE</t>
+  </si>
+  <si>
+    <t>ETHNICITY_CODE</t>
+  </si>
+  <si>
+    <t>2135-2</t>
+  </si>
+  <si>
+    <t>The ETHNICITY_CODE "2135-2" of ETHNICITY_CODE_DESCRIPTION "Not Hispanic or Latino" is not matching with the ETHNICITY_CODE of ETHNICITY_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>e3985cfd-0e06-4b19-a749-4c4158a55f8b</t>
+  </si>
+  <si>
+    <t>Invalid value "Not Hispanic or Latino" found in ETHNICITY_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ETHNICITY_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>The ETHNICITY_CODE_DESCRIPTION "Not Hispanic or Latino" of ETHNICITY_CODE "2135-2" is not matching with the ETHNICITY_CODE_DESCRIPTION of ETHNICITY_CODE in reference data</t>
+  </si>
+  <si>
+    <t>57afb003-ce94-4091-b45d-8a96bfba162a</t>
+  </si>
+  <si>
+    <t>1798e82a-aaf9-4265-9a87-48ba799c7659</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER CLASS CODE "111" found in ENCOUNTER_CLASS_CODE</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>a2016404-4fb6-4b4c-9b4d-20d6a80f098d</t>
+  </si>
+  <si>
+    <t>Invalid value "fghfgh" found in ENCOUNTER_CLASS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>fghfgh</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_CLASS_CODE_DESCRIPTION "fghfgh" of ENCOUNTER_CLASS_CODE "fggh" is not matching with the ENCOUNTER_CLASS_CODE_DESCRIPTION of ENCOUNTER_CLASS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>23c92b34-c1db-442a-b912-f360d135200e</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER STATUS CODE "3434" found in ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>3434</t>
+  </si>
+  <si>
+    <t>d77333e0-7451-4d50-a5b5-ba86f51dcb15</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER STATUS CODE DESCRIPTION "3444" found in ENCOUNTER_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>3444</t>
+  </si>
+  <si>
+    <t>81f93d92-2ab7-435f-b2e2-0f177240e952</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER TYPE CODE "454" found in ENCOUNTER_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>4042e947-cba6-4799-9a46-54abb25d2913</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER TYPE CODE DESCRIPTION "Encounter by computer link5677" found in ENCOUNTER_TYPE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Encounter by computer link5677</t>
+  </si>
+  <si>
+    <t>139f5217-cbbf-40f6-a4ed-38fcdf7dcfd1</t>
+  </si>
+  <si>
+    <t>Invalid value "entered-in-error" found in SCREENING_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>entered-in-error</t>
+  </si>
+  <si>
+    <t>The SCREENING_STATUS_CODE "entered-in-error" of SCREENING_STATUS_CODE_DESCRIPTION "Unknown" is not matching with the SCREENING_STATUS_CODE of SCREENING_STATUS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>39afca91-c7d8-411a-8751-1b21c0da5d19</t>
+  </si>
+  <si>
+    <t>Invalid SCREENING STATUS CODE "666" found in SCREENING_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>22f7fc6b-9580-4e9f-8a13-9d1548aab2c0</t>
+  </si>
+  <si>
+    <t>501a15b8-2d41-4edf-b0f1-9c7c305f272f</t>
+  </si>
+  <si>
+    <t>15564bc7-eb3c-4cf4-a8c3-b19098d0577f</t>
+  </si>
+  <si>
+    <t>The ADMINISTRATIVE_SEX_CODE "X" of ADMINISTRATIVE_SEX _CODE_DESCRIPTION "gdfgdg" is not matching with the ADMINISTRATIVE_SEX_CODE of ADMINISTRATIVE_SEX _CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>7ddcf789-c1ef-437b-a076-bf3599300023</t>
+  </si>
+  <si>
+    <t>00a60a25-4f76-46b9-a6e1-cae10e8223d6</t>
+  </si>
+  <si>
+    <t>Invalid value "FLD" found in ENCOUNTER_CLASS_CODE</t>
+  </si>
+  <si>
+    <t>FLD</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_CLASS_CODE "FLD" of ENCOUNTER_CLASS_CODE_DESCRIPTION "emergency" is not matching with the ENCOUNTER_CLASS_CODE of ENCOUNTER_CLASS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>7a8c2391-4d4b-45c4-9ddb-42ccb34c507d</t>
+  </si>
+  <si>
+    <t>Invalid value "2222" found in ENCOUNTER_CLASS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_CLASS_CODE_DESCRIPTION "2222" of ENCOUNTER_CLASS_CODE "111" is not matching with the ENCOUNTER_CLASS_CODE_DESCRIPTION of ENCOUNTER_CLASS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>9f7a5af3-5c0d-4b8b-ac45-a97fe0347c33</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER STATUS CODE "444" found in ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>fc4d6a31-2236-405b-b8dd-3eb69274c408</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER STATUS CODE DESCRIPTION "444" found in ENCOUNTER_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>801fe285-4599-47c5-abea-b2e12ae9a099</t>
+  </si>
+  <si>
+    <t>Invalid value "185320006" found in ENCOUNTER_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>185320006</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_TYPE_CODE "185320006" of ENCOUNTER_TYPE_CODE_DESCRIPTION "Telephone encounter" is not matching with the ENCOUNTER_TYPE_CODE of ENCOUNTER_TYPE_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>7431d8ba-cd33-4566-b621-d86451e896df</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER TYPE CODE DESCRIPTION "555" found in ENCOUNTER_TYPE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>67de9ef4-463a-41a8-87b1-7bfa7aaa3464</t>
+  </si>
+  <si>
+    <t>Invalid value "entered-in-errorgfdgfdg" found in SCREENING_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>The SCREENING_STATUS_CODE "entered-in-errorgfdgfdg" of SCREENING_STATUS_CODE_DESCRIPTION "Entered in Error" is not matching with the SCREENING_STATUS_CODE of SCREENING_STATUS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>64f13351-45ff-48ed-b4cf-01de7b906f2d</t>
+  </si>
+  <si>
+    <t>Invalid SCREENING STATUS CODE "ENntered-in-error" found in SCREENING_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ENntered-in-error</t>
+  </si>
+  <si>
+    <t>1033b445-9fdd-4a6a-8ea5-18874c540fae</t>
+  </si>
+  <si>
+    <t>874833fa-a143-4a08-aef3-66608c7b24c1</t>
+  </si>
+  <si>
+    <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA','yes','no','na')</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Use only allowed values 'Yes','No','NA','yes','no','na' in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>40ed7948-6142-47c2-94b3-1f23dbb78c89</t>
+  </si>
+  <si>
+    <t>2f4b7b33-134e-4e52-a58b-9cddd97f572e</t>
+  </si>
+  <si>
+    <t>Invalid value "fggh" found in ENCOUNTER_CLASS_CODE</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_CLASS_CODE "fggh" of ENCOUNTER_CLASS_CODE_DESCRIPTION "fghfgh" is not matching with the ENCOUNTER_CLASS_CODE of ENCOUNTER_CLASS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>aea325ee-4fe2-4c5b-b100-4d889699da1f</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER CLASS CODE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER CLASS CODE DESCRIPTION "fghfgh" found in ENCOUNTER_CLASS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Validate ENCOUNTER CLASS CODE DESCRIPTION with encounter class reference data</t>
+  </si>
+  <si>
+    <t>0a18076a-bd6b-4657-8d72-a23f0752d48d</t>
+  </si>
+  <si>
+    <t>Invalid value "completed" found in ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_STATUS_CODE "completed" of ENCOUNTER_STATUS_CODE_DESCRIPTION "Unknown" is not matching with the ENCOUNTER_STATUS_CODE of ENCOUNTER_STATUS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>33041847-8b19-4736-ac6b-d5f8d0f79ef0</t>
+  </si>
+  <si>
+    <t>Invalid value "Unknown" found in ENCOUNTER_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_STATUS_CODE_DESCRIPTION "Unknown" of ENCOUNTER_STATUS_CODE "completed" is not matching with the ENCOUNTER_STATUS_CODE_DESCRIPTION of ENCOUNTER_STATUS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>a5eb4aa9-0b67-433a-ac36-c78ddf3fcc1f</t>
+  </si>
+  <si>
+    <t>Invalid value "dgdfg" found in ENCOUNTER_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_TYPE_CODE "dgdfg" of ENCOUNTER_TYPE_CODE_DESCRIPTION "Encounter by computer link567" is not matching with the ENCOUNTER_TYPE_CODE of ENCOUNTER_TYPE_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>990bf9bc-ae82-4b9c-9d6e-daa30c78e434</t>
+  </si>
+  <si>
+    <t>Invalid value "Telephone encounter" found in ENCOUNTER_TYPE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Telephone encounter</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_TYPE_CODE_DESCRIPTION "Telephone encounter" of ENCOUNTER_TYPE_CODE "185320006" is not matching with the ENCOUNTER_TYPE_CODE_DESCRIPTION of ENCOUNTER_TYPE_CODE in reference data</t>
+  </si>
+  <si>
+    <t>a235b707-02af-4aa6-8959-d9a0b5e1cf2f</t>
+  </si>
+  <si>
+    <t>The SCREENING_STATUS_CODE "entered-in-error" of SCREENING_STATUS_CODE_DESCRIPTION "Entered in Errorfdgfdg" is not matching with the SCREENING_STATUS_CODE of SCREENING_STATUS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>191f2152-a9ce-4a46-a95f-9db5fed23289</t>
+  </si>
+  <si>
+    <t>Invalid value "Unknown" found in SCREENING_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>The SCREENING_STATUS_CODE_DESCRIPTION "Unknown" of SCREENING_STATUS_CODE "entered-in-error" is not matching with the SCREENING_STATUS_CODE_DESCRIPTION of SCREENING_STATUS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>912b2b4a-5567-4d9d-aa75-ce35c9e16ca2</t>
+  </si>
+  <si>
+    <t>31ba0311-7b2c-4ad7-8b82-b415a8a00131</t>
+  </si>
+  <si>
+    <t>530abc90-d3ce-491a-ace3-316c6d05d2d3</t>
+  </si>
+  <si>
+    <t>c399031b-734c-41b1-bc47-9aa529fa1b58</t>
+  </si>
+  <si>
+    <t>Invalid value "111" found in ENCOUNTER_CLASS_CODE</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_CLASS_CODE "111" of ENCOUNTER_CLASS_CODE_DESCRIPTION "2222" is not matching with the ENCOUNTER_CLASS_CODE of ENCOUNTER_CLASS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>e917afbc-bb6e-4b94-adef-1d1b802bfc4e</t>
+  </si>
+  <si>
+    <t>Invalid ENCOUNTER CLASS CODE DESCRIPTION "2222" found in ENCOUNTER_CLASS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>242f2fa7-5308-4e2b-9b59-73c6f8ec695b</t>
+  </si>
+  <si>
+    <t>Invalid value "dfgdg" found in ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_STATUS_CODE "dfgdg" of ENCOUNTER_STATUS_CODE_DESCRIPTION "Compldgdgeted" is not matching with the ENCOUNTER_STATUS_CODE of ENCOUNTER_STATUS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>a7ae37a0-ee31-413c-88bb-cb1593dc3b32</t>
+  </si>
+  <si>
+    <t>Invalid value "Compldgdgeted" found in ENCOUNTER_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_STATUS_CODE_DESCRIPTION "Compldgdgeted" of ENCOUNTER_STATUS_CODE "dfgdg" is not matching with the ENCOUNTER_STATUS_CODE_DESCRIPTION of ENCOUNTER_STATUS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>adfa7ac7-50f4-440f-ba9c-bc98f6b6a5e8</t>
+  </si>
+  <si>
+    <t>Invalid value "454" found in ENCOUNTER_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_TYPE_CODE "454" of ENCOUNTER_TYPE_CODE_DESCRIPTION "Encounter by computer link5677" is not matching with the ENCOUNTER_TYPE_CODE of ENCOUNTER_TYPE_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>d8486ef5-25fd-40b0-b7dc-f5b6d0cc26f4</t>
+  </si>
+  <si>
+    <t>Invalid value "Encounter by computer link567" found in ENCOUNTER_TYPE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_TYPE_CODE_DESCRIPTION "Encounter by computer link567" of ENCOUNTER_TYPE_CODE "dgdfg" is not matching with the ENCOUNTER_TYPE_CODE_DESCRIPTION of ENCOUNTER_TYPE_CODE in reference data</t>
+  </si>
+  <si>
+    <t>6014d907-4c53-43e8-a419-884af4060c65</t>
+  </si>
+  <si>
+    <t>The SCREENING_STATUS_CODE "entered-in-error" of SCREENING_STATUS_CODE_DESCRIPTION "666" is not matching with the SCREENING_STATUS_CODE of SCREENING_STATUS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>a80467f5-95f0-472c-af53-17ecb8b72854</t>
+  </si>
+  <si>
+    <t>Invalid value "Entered in Error" found in SCREENING_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Entered in Error</t>
+  </si>
+  <si>
+    <t>The SCREENING_STATUS_CODE_DESCRIPTION "Entered in Error" of SCREENING_STATUS_CODE "entered-in-errorgfdgfdg" is not matching with the SCREENING_STATUS_CODE_DESCRIPTION of SCREENING_STATUS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>c0fe9cea-7fc7-4883-9c46-2faf1b38c319</t>
+  </si>
+  <si>
+    <t>e209d8bc-4c4b-4a9a-9442-8f51e710efb4</t>
+  </si>
+  <si>
+    <t>6c63467a-a7ca-4bc1-9c8b-f13df573bdac</t>
+  </si>
+  <si>
+    <t>42b2685b-662a-47ec-8a4d-1a352e06fc34</t>
+  </si>
+  <si>
+    <t>Invalid value "3434" found in ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_STATUS_CODE "3434" of ENCOUNTER_STATUS_CODE_DESCRIPTION "3444" is not matching with the ENCOUNTER_STATUS_CODE of ENCOUNTER_STATUS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>6a3ef5d0-b739-4671-9f21-9e2906f5302a</t>
+  </si>
+  <si>
+    <t>Invalid value "3444" found in ENCOUNTER_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_STATUS_CODE_DESCRIPTION "3444" of ENCOUNTER_STATUS_CODE "3434" is not matching with the ENCOUNTER_STATUS_CODE_DESCRIPTION of ENCOUNTER_STATUS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>d47b6c32-2dc0-4747-88f7-0589b65b71f8</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_TYPE_CODE "185320006" of ENCOUNTER_TYPE_CODE_DESCRIPTION "555" is not matching with the ENCOUNTER_TYPE_CODE of ENCOUNTER_TYPE_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>60bebc8d-80c7-48a4-a825-c22200bcc337</t>
+  </si>
+  <si>
+    <t>Invalid value "Encounter by computer link5677" found in ENCOUNTER_TYPE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_TYPE_CODE_DESCRIPTION "Encounter by computer link5677" of ENCOUNTER_TYPE_CODE "454" is not matching with the ENCOUNTER_TYPE_CODE_DESCRIPTION of ENCOUNTER_TYPE_CODE in reference data</t>
+  </si>
+  <si>
+    <t>f700615d-3af8-4961-9e53-81f18ea78084</t>
+  </si>
+  <si>
+    <t>The SCREENING_STATUS_CODE "entered-in-error" of SCREENING_STATUS_CODE_DESCRIPTION "ENntered-in-error" is not matching with the SCREENING_STATUS_CODE of SCREENING_STATUS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>a038ad8b-1926-4ba7-9ce0-5487271ffba8</t>
+  </si>
+  <si>
+    <t>Invalid value "Entered in Errorfdgfdg" found in SCREENING_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>The SCREENING_STATUS_CODE_DESCRIPTION "Entered in Errorfdgfdg" of SCREENING_STATUS_CODE "entered-in-error" is not matching with the SCREENING_STATUS_CODE_DESCRIPTION of SCREENING_STATUS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>5413c803-b980-4758-bc51-220c2312235c</t>
+  </si>
+  <si>
+    <t>b4b139ce-6b0e-474b-a422-c20594250cda</t>
+  </si>
+  <si>
+    <t>e56d6837-7dc3-4b7d-8d11-f37515c11094</t>
+  </si>
+  <si>
+    <t>92e596c1-2007-48d4-9eb6-c945b12ea807</t>
+  </si>
+  <si>
+    <t>Invalid value "444" found in ENCOUNTER_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_STATUS_CODE "444" of ENCOUNTER_STATUS_CODE_DESCRIPTION "444" is not matching with the ENCOUNTER_STATUS_CODE of ENCOUNTER_STATUS_CODE_DESCRIPTION in reference data</t>
+  </si>
+  <si>
+    <t>61ae4ef8-0b40-4ca0-919f-9e474d1aea5b</t>
+  </si>
+  <si>
+    <t>Invalid value "444" found in ENCOUNTER_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_STATUS_CODE_DESCRIPTION "444" of ENCOUNTER_STATUS_CODE "444" is not matching with the ENCOUNTER_STATUS_CODE_DESCRIPTION of ENCOUNTER_STATUS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>c31db64c-fb4f-4b27-b011-3302c513b2dd</t>
+  </si>
+  <si>
+    <t>Invalid value "555" found in ENCOUNTER_TYPE_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>The ENCOUNTER_TYPE_CODE_DESCRIPTION "555" of ENCOUNTER_TYPE_CODE "185320006" is not matching with the ENCOUNTER_TYPE_CODE_DESCRIPTION of ENCOUNTER_TYPE_CODE in reference data</t>
+  </si>
+  <si>
+    <t>567a8fac-5efb-489c-968e-e132658fdb06</t>
+  </si>
+  <si>
+    <t>Invalid value "666" found in SCREENING_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>The SCREENING_STATUS_CODE_DESCRIPTION "666" of SCREENING_STATUS_CODE "entered-in-error" is not matching with the SCREENING_STATUS_CODE_DESCRIPTION of SCREENING_STATUS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>41f8dc4c-3227-4299-95b1-a23d46821498</t>
+  </si>
+  <si>
+    <t>dbd69037-cb61-49d6-84b0-ce5752cc5b66</t>
+  </si>
+  <si>
+    <t>2c88a74e-7077-43f8-999a-efebe0dac414</t>
+  </si>
+  <si>
+    <t>2affcb94-e576-4e5e-a284-b606b7a20d61</t>
+  </si>
+  <si>
+    <t>Invalid value "ENntered-in-error" found in SCREENING_STATUS_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>The SCREENING_STATUS_CODE_DESCRIPTION "ENntered-in-error" of SCREENING_STATUS_CODE "entered-in-error" is not matching with the SCREENING_STATUS_CODE_DESCRIPTION of SCREENING_STATUS_CODE in reference data</t>
+  </si>
+  <si>
+    <t>85b68052-3001-4789-ae7a-6cd7a127a6d0</t>
+  </si>
+  <si>
+    <t>7890eb39-c3f1-45b8-a321-8901acfa3ebd</t>
+  </si>
+  <si>
+    <t>47d4df63-f8af-456a-9687-a710e3ecbe76</t>
+  </si>
+  <si>
+    <t>0fe88014-01af-4425-be3a-fb0dc8a10850</t>
+  </si>
+  <si>
+    <t>7002ac17-2ede-4875-872d-ca585b264606</t>
+  </si>
+  <si>
+    <t>Invalid value in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44255-8" and Answer Code "LA6569-3" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Validate Potential Need Indicated, Screening Code, Question Code and Answer Code with ahc cross walk reference data</t>
+  </si>
+  <si>
+    <t>36f3f973-1ddf-46da-b9ba-258697bae672</t>
+  </si>
+  <si>
+    <t>b56ba557-64f7-411c-a5ae-fd08fa8ed067</t>
+  </si>
+  <si>
+    <t>50a7c656-3dcd-47fe-b4c9-d5f37498bd7d</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95618-5" and Answer Code "LA10066-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>db65821c-a7b8-4a24-bacd-217d17d0130f</t>
+  </si>
+  <si>
+    <t>13ef3a1e-9e5b-4fbe-a641-7ac97a217a20</t>
+  </si>
+  <si>
+    <t>d3077e40-f45e-44a7-ad57-4befc17f0dc9</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95615-1" and Answer Code "LA10082-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>3935bb02-a84a-4665-aad0-d60d2c4bc0be</t>
+  </si>
+  <si>
+    <t>a81ced9a-8f22-4479-baae-9ea9fe180476</t>
+  </si>
+  <si>
+    <t>2c7891e0-bf02-462c-8661-008de205ecd9</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95616-9" and Answer Code "LA16644-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>df646eb3-58c3-4205-9a3b-1e372087d6b7</t>
+  </si>
+  <si>
+    <t>203759ff-6c04-489e-8d0b-c814e56bf624</t>
+  </si>
+  <si>
+    <t>766813e5-6b56-48ba-94a2-2dceec1d1698</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "68516-4" and Answer Code "LA28853-2" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>92dc3c7b-4081-478b-bfda-80a5485b662a</t>
+  </si>
+  <si>
+    <t>68d6d218-a353-4bd5-a5db-9f9d8320cfb0</t>
+  </si>
+  <si>
+    <t>ad22089c-9404-4bc1-ac83-727f12ab1bee</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95617-7" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>c623aa7f-13ad-4772-acc4-61718ee4c6f9</t>
+  </si>
+  <si>
+    <t>477498dc-803f-48c5-bae5-2b81bd52e841</t>
+  </si>
+  <si>
+    <t>944ea8be-01ae-4488-b3f4-3567f246a1c8</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "na", Screening Code "97023-6", Question Code "44250-9" and Answer Code "LA6568-5" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>184ce5c6-a7c6-447c-a8ec-24dbb9f44ce8</t>
+  </si>
+  <si>
+    <t>81c89a5b-c8c1-43ed-a180-a9ec2999d59d</t>
+  </si>
+  <si>
+    <t>73874cf8-035b-4443-93fd-c5cbbf234dce</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44250-9" and Answer Code "LA6571-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>55168e19-d3ce-44d7-bf0b-5eae05cd8221</t>
+  </si>
+  <si>
+    <t>f51712f4-7857-49bc-addc-4245372f206d</t>
+  </si>
+  <si>
+    <t>8656ac2d-98e3-4b5d-b3a4-aca1d065f408</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "NA", Screening Code "97023-6", Question Code "44255-8" and Answer Code "LA6570-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>499cb238-d6a6-4ba2-a438-db9ccb541e56</t>
+  </si>
+  <si>
+    <t>8879b4e8-f3f4-4d63-b3e1-bbb190dbeab9</t>
+  </si>
+  <si>
+    <t>3f86a7f2-bf82-466a-afc1-a0fe71d54100</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "89555-7" and Answer Code "LA6113-0" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>ce97160d-e84c-4f38-81fa-904adc789f60</t>
+  </si>
+  <si>
+    <t>021fb0c8-e9da-47a4-8d0f-6907126cbfd0</t>
+  </si>
+  <si>
+    <t>2042b3b8-cce0-4b62-b25b-f0302d73800a</t>
+  </si>
+  <si>
+    <t>01986292-e549-44d8-ab99-b7970b863879</t>
+  </si>
+  <si>
+    <t>05efed18-dd15-48f5-95ea-6a6c4c972424</t>
+  </si>
+  <si>
+    <t>a213e587-6710-49e1-94f7-995f95b50f91</t>
+  </si>
+  <si>
+    <t>68907491-9022-4d3c-808d-6a709244caec</t>
+  </si>
+  <si>
+    <t>84babaaa-6a90-40b8-81c5-5f49b4985786</t>
+  </si>
+  <si>
+    <t>e13be11f-5c56-4934-900d-d8d8a8452f7b</t>
+  </si>
+  <si>
+    <t>47c8901b-e055-40ee-aebd-80332717b062</t>
+  </si>
+  <si>
+    <t>cf283d0f-a339-4173-a247-19311059f5de</t>
+  </si>
+  <si>
+    <t>6bc228ca-5c24-4d92-93ba-e37ffcd52f1d</t>
+  </si>
+  <si>
+    <t>01c7c314-09a2-4cb9-be37-cf1217ccb16b</t>
+  </si>
+  <si>
     <t>8b7c669c-1795-5f6b-8f3a-3e502b74c628</t>
   </si>
   <si>
@@ -165,322 +1125,22 @@
     <t>admin_demographics_20240307</t>
   </si>
   <si>
-    <t>09890ed6-ccf2-478f-ade7-9cf748010bcc</t>
-  </si>
-  <si>
-    <t>Invalid ADMINISTRATIVE SEX CODE</t>
-  </si>
-  <si>
-    <t>Invalid ADMINISTRATIVE SEX CODE "vfdgvdfv" found in ADMINISTRATIVE_SEX_CODE</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVE_SEX_CODE</t>
-  </si>
-  <si>
-    <t>vfdgvdfv</t>
-  </si>
-  <si>
-    <t>Validate ADMINISTRATIVE SEX CODE with administrative sex reference data</t>
-  </si>
-  <si>
-    <t>WARNING</t>
-  </si>
-  <si>
-    <t>c534c4da-80e0-4047-95d1-295b3402e324</t>
-  </si>
-  <si>
-    <t>Combination Not Matching</t>
-  </si>
-  <si>
-    <t>Invalid value "1142-9" found in RACE_CODE</t>
-  </si>
-  <si>
-    <t>RACE_CODE</t>
-  </si>
-  <si>
-    <t>1142-9</t>
-  </si>
-  <si>
-    <t>The RACE_CODE "1142-9" of RACE_CODE_DESCRIPTION "Coquille" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
-  </si>
-  <si>
-    <t>466799b7-a911-4c0d-be92-3c527c0d7e65</t>
-  </si>
-  <si>
-    <t>Invalid RACE CODE DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Invalid RACE CODE DESCRIPTION "Coquille" found in RACE_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>RACE_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Coquille</t>
-  </si>
-  <si>
-    <t>Validate RACE CODE DESCRIPTION with race reference data</t>
-  </si>
-  <si>
-    <t>6dd3e498-c5b8-4f4c-a810-7dfd066cf2ed</t>
-  </si>
-  <si>
-    <t>Invalid Unique Medicaid Cin Per Mrn</t>
-  </si>
-  <si>
-    <t>Invalid Unique Medicaid Cin Per Mrn "QK65113L" found in MEDICAID_CIN</t>
-  </si>
-  <si>
-    <t>MEDICAID_CIN</t>
-  </si>
-  <si>
-    <t>QK65113L</t>
-  </si>
-  <si>
-    <t>Validate Unique Medicaid Cin Per Mrn</t>
-  </si>
-  <si>
-    <t>9ee63488-6365-47c3-92d6-2d83fa7bb0ff</t>
-  </si>
-  <si>
-    <t>2a0bd043-6c7d-4e5a-9676-0b4c0387b43b</t>
-  </si>
-  <si>
-    <t>2df4a9b4-8f55-44ad-b78f-b52ffbb56214</t>
-  </si>
-  <si>
-    <t>199967ec-72a3-402b-bac2-278226e2218d</t>
-  </si>
-  <si>
-    <t>Invalid value "X" found in ADMINISTRATIVE_SEX_CODE</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>The ADMINISTRATIVE_SEX_CODE "X" of ADMINISTRATIVE_SEX _CODE_DESCRIPTION "Other" is not matching with the ADMINISTRATIVE_SEX_CODE of ADMINISTRATIVE_SEX _CODE_DESCRIPTION in reference data</t>
-  </si>
-  <si>
-    <t>0f08e5f0-67df-4c18-93a0-bf267c6af2e9</t>
-  </si>
-  <si>
-    <t>aae32651-9577-4081-9339-95d21dcb95ae</t>
-  </si>
-  <si>
-    <t>6f773ae4-b9f4-47fd-a6d5-2563a6198331</t>
-  </si>
-  <si>
-    <t>168a77d8-34ba-46a8-963a-c3de7e7e290d</t>
-  </si>
-  <si>
-    <t>2e41c9a7-36f1-4b91-8914-5b919fc83363</t>
-  </si>
-  <si>
-    <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA')</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Use only allowed values 'Yes','No','NA' in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>488cd801-e4d5-46ac-ad8a-a3ad50c78679</t>
-  </si>
-  <si>
-    <t>Invalid value "UNK" found in ADMINISTRATIVE_SEX_CODE</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>The ADMINISTRATIVE_SEX_CODE "UNK" of ADMINISTRATIVE_SEX _CODE_DESCRIPTION "Undifferentiated" is not matching with the ADMINISTRATIVE_SEX_CODE of ADMINISTRATIVE_SEX _CODE_DESCRIPTION in reference data</t>
-  </si>
-  <si>
-    <t>af957b9a-9ba8-4cea-bb62-d47e98ed5788</t>
-  </si>
-  <si>
-    <t>0957f61d-de63-4f2e-b062-9459f57d52fa</t>
-  </si>
-  <si>
-    <t>341bdcae-d923-4d84-9f5d-38b8de72bf8d</t>
-  </si>
-  <si>
-    <t>f344f978-27a4-44fe-94c9-76ffcbfab431</t>
-  </si>
-  <si>
-    <t>ede95950-40f6-4cb8-931e-fdfaceda9798</t>
-  </si>
-  <si>
-    <t>29bcd30d-2cc5-40ba-a6a0-400d3e391d16</t>
-  </si>
-  <si>
-    <t>Invalid value "vfdgvdfv" found in ADMINISTRATIVE_SEX_CODE</t>
-  </si>
-  <si>
-    <t>The ADMINISTRATIVE_SEX_CODE "vfdgvdfv" of ADMINISTRATIVE_SEX _CODE_DESCRIPTION "Undifferentiated" is not matching with the ADMINISTRATIVE_SEX_CODE of ADMINISTRATIVE_SEX _CODE_DESCRIPTION in reference data</t>
-  </si>
-  <si>
-    <t>0cd5ab07-0015-47e4-870b-0ce627aeac43</t>
-  </si>
-  <si>
-    <t>16861563-78ba-4c93-86b4-93817530989f</t>
-  </si>
-  <si>
-    <t>e59c15ed-8c0d-40e4-aa08-b1a78ed33669</t>
-  </si>
-  <si>
-    <t>8f1d45a7-c538-404c-8812-2f51e977b151</t>
-  </si>
-  <si>
-    <t>eb89084e-b51a-4f7d-8115-158dc260ba73</t>
-  </si>
-  <si>
-    <t>568fb1f8-ac96-4202-b111-badaa69c558c</t>
-  </si>
-  <si>
-    <t>Invalid value "Coquille" found in RACE_CODE_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>The RACE_CODE_DESCRIPTION "Coquille" of RACE_CODE "1142-9" is not matching with the RACE_CODE_DESCRIPTION of RACE_CODE in reference data</t>
-  </si>
-  <si>
-    <t>1c76d8bb-054f-47d7-8665-075229775a23</t>
-  </si>
-  <si>
-    <t>588993fb-b2b3-4323-af9d-af874897819d</t>
-  </si>
-  <si>
-    <t>7b975a28-b0a9-41de-b7dd-28def8d778b2</t>
-  </si>
-  <si>
-    <t>90d3ef77-63b2-4a5b-83be-5eea615cc116</t>
-  </si>
-  <si>
-    <t>d35b314f-8cf8-4406-a9c1-52f843d7e43c</t>
-  </si>
-  <si>
-    <t>dd58e0f7-4e91-4492-80c3-31fffcf12cb8</t>
-  </si>
-  <si>
-    <t>2fd5a300-72dd-4a08-9dc3-4a6aa90b4519</t>
-  </si>
-  <si>
-    <t>b702a226-dea6-4929-bc13-4de58cc25731</t>
-  </si>
-  <si>
-    <t>7e4abb4e-6695-4889-b600-41c0579effe5</t>
-  </si>
-  <si>
-    <t>5f183fde-70bd-4ccd-8c32-26649afcf647</t>
-  </si>
-  <si>
-    <t>0dc55637-39ff-4e4f-9a8a-39f2ed49c8ee</t>
-  </si>
-  <si>
-    <t>fd703836-7655-4357-872d-58876c897aca</t>
-  </si>
-  <si>
-    <t>182dd371-4335-4ac7-b21b-d25b86111dab</t>
-  </si>
-  <si>
-    <t>0d704199-945a-4d92-acb1-5b8d33a43590</t>
-  </si>
-  <si>
-    <t>b1742745-95ea-4c4e-a182-359740c396bc</t>
-  </si>
-  <si>
-    <t>4f587d66-9baa-448a-a184-e61806c79374</t>
-  </si>
-  <si>
-    <t>15d795c9-ce95-4669-825d-11b80c9a067a</t>
-  </si>
-  <si>
-    <t>ec355a48-1d91-45d0-9040-7eb458648fd3</t>
-  </si>
-  <si>
-    <t>99484d3d-4f0a-415f-a5dd-a67269bd370a</t>
-  </si>
-  <si>
-    <t>9c6ce71d-5cf7-4e97-b290-db6773cb30c9</t>
-  </si>
-  <si>
-    <t>a3b65db1-6ed1-4a19-9aac-fd2a343e6099</t>
-  </si>
-  <si>
-    <t>e12c9161-c152-405c-aebe-b2dfc07d89e0</t>
-  </si>
-  <si>
-    <t>0e0f4fd8-261a-4379-8223-aa3abfc6d731</t>
-  </si>
-  <si>
-    <t>d2c65f5d-a214-4f96-9a99-6445b679ee22</t>
-  </si>
-  <si>
-    <t>73d74b99-71f3-4cd5-ae9a-a99a5eeea82c</t>
-  </si>
-  <si>
-    <t>3a9e4220-d474-4df6-97d5-3880b99b1809</t>
-  </si>
-  <si>
-    <t>f52cbd93-9b5b-431e-b056-2cfec471f8eb</t>
-  </si>
-  <si>
-    <t>2f87fb99-4859-4a03-8e3f-916bb7d805fc</t>
-  </si>
-  <si>
-    <t>b2968daa-64de-4aab-a45b-9e85591120b3</t>
-  </si>
-  <si>
-    <t>f823ee04-fcc9-4619-81d7-9821deb02837</t>
-  </si>
-  <si>
-    <t>d202cbb2-3e90-4480-b3dd-08f6c0756ef4</t>
-  </si>
-  <si>
-    <t>8397454d-5e40-4152-93bf-c963e0b7441b</t>
-  </si>
-  <si>
-    <t>6705e6bc-cdcc-4a1d-9b61-864630e38a8d</t>
-  </si>
-  <si>
-    <t>d847259c-9245-4c4d-a6ca-2f875fb4d73e</t>
-  </si>
-  <si>
-    <t>3a964dda-2f73-4d58-829d-0b6f8d64a8b8</t>
-  </si>
-  <si>
-    <t>3f196366-e49c-4a89-b3f9-a8d0b1e36e4c</t>
-  </si>
-  <si>
-    <t>0d0909e3-b202-4d21-9e52-efa7edea8f29</t>
-  </si>
-  <si>
-    <t>82643a2a-e15f-4955-bf80-834a356087ff</t>
-  </si>
-  <si>
-    <t>fe55d25c-867d-473c-9c48-458a84beba82</t>
-  </si>
-  <si>
-    <t>d76d2039-8dfa-4ca7-b0cf-8e1ac3ac20cb</t>
-  </si>
-  <si>
-    <t>4868e535-865c-485e-a867-90f138df9713</t>
-  </si>
-  <si>
-    <t>b466df89-97b9-4a28-8ac0-c3279a9a7ebb</t>
-  </si>
-  <si>
-    <t>8a11e4a6-cb54-4587-8986-d951752a3a0f</t>
-  </si>
-  <si>
-    <t>11a46304-4ad8-4d39-989c-47a402f15bed</t>
-  </si>
-  <si>
-    <t>a9edec7e-6387-44e4-8c83-ba776b32a240</t>
-  </si>
-  <si>
-    <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
+    <t>6536b2b6-d19d-4567-8aa2-4c82053c760d</t>
+  </si>
+  <si>
+    <t>Missing Column</t>
+  </si>
+  <si>
+    <t>Required column GENDER_IDENTITY_CODE_DESCRIPTION is missing in admin_demographics_20240307.</t>
+  </si>
+  <si>
+    <t>Ensure admin_demographics_20240307 contains the column "GENDER_IDENTITY_CODE_DESCRIPTION"</t>
+  </si>
+  <si>
+    <t>STRUCTURAL ISSUE</t>
+  </si>
+  <si>
+    <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
   </si>
   <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx</t>
@@ -489,7 +1149,7 @@
     <t>ERROR</t>
   </si>
   <si>
-    <t>d70a4700-6b40-52fc-a7a2-69ef0d7f69ff</t>
+    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
   </si>
   <si>
     <t>Sheet Missing</t>
@@ -498,190 +1158,199 @@
     <t>Excel workbook sheet 'Admin_Demographic' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
   </si>
   <si>
-    <t>47277588-99e8-59f5-8384-b24344a86073</t>
-  </si>
-  <si>
-    <t>58b22e99-5854-53bf-adbe-08e67df99b85</t>
+    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
+  </si>
+  <si>
+    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Screening' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
   </si>
   <si>
-    <t>a26ce332-3ced-5623-861d-23a2ef78e4a9</t>
-  </si>
-  <si>
-    <t>bc0c03b5-d1ba-5301-850f-5e4c42c1bf09</t>
+    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
+  </si>
+  <si>
+    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
   </si>
   <si>
     <t>Excel workbook sheet 'QE_Admin_Data' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
   </si>
   <si>
-    <t>ae477ba1-c7f1-5f34-847a-50bddb7130aa</t>
-  </si>
-  <si>
-    <t>8aad9cfa-b1a2-5fb1-a6ab-613a79a7e839</t>
+    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
+  </si>
+  <si>
+    <t>591191c7-f693-5957-8734-ac87151ca981</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Question_Reference' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
   </si>
   <si>
-    <t>b41ccd27-9a4f-5cc8-9c5d-b55242d90fb0</t>
-  </si>
-  <si>
-    <t>7ef8bdeb-fd56-5eb9-a09b-ef15ce18dc49</t>
+    <t>3b4eb0e5-6239-537a-8e67-e50e172e72a2</t>
+  </si>
+  <si>
+    <t>071f8fe1-4899-5c71-9c86-7d7377661d45</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Answer_Reference' not found in 'JRCHC_SDOH HEL_Report 2452_ran 020124DeIdent.xlsx' (available: JRCHC_SDOH HEL_Report 2452_ran )</t>
   </si>
   <si>
-    <t>99e72a60-96ab-5ef1-a3af-3e7759777664</t>
+    <t>5222b730-9add-5b52-b0c9-6f2506b0af9d</t>
   </si>
   <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/jrchc-hrsn-file-spec.xlsx</t>
   </si>
   <si>
-    <t>e36daa69-3c63-5384-b6a7-03fa3b00641d</t>
+    <t>fa7874f6-f848-572b-a9ab-9db4c8d5e959</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Admin_Demographic' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
   </si>
   <si>
-    <t>89f7ec04-277a-5799-afaa-a70d0f2a8ed5</t>
-  </si>
-  <si>
-    <t>c60cf3db-b1bf-5103-b278-b0c128ce924a</t>
+    <t>c302047e-21cf-5059-a32c-e81a9bd3a9b9</t>
+  </si>
+  <si>
+    <t>3252fee6-3a9a-5f4c-81c6-739201046d79</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Screening' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
   </si>
   <si>
-    <t>b2a7c7e8-5ffe-5f28-8112-4eb7abb6397f</t>
-  </si>
-  <si>
-    <t>b10e248d-8c94-59ec-83fc-a1249dd3b111</t>
+    <t>78d6a904-035e-54ae-8ac2-ca5cdf3f75f7</t>
+  </si>
+  <si>
+    <t>9860873a-c387-5d98-9930-4ff296eb7192</t>
   </si>
   <si>
     <t>Excel workbook sheet 'QE_Admin_Data' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
   </si>
   <si>
-    <t>5222b730-9add-5b52-b0c9-6f2506b0af9d</t>
-  </si>
-  <si>
-    <t>fa7874f6-f848-572b-a9ab-9db4c8d5e959</t>
+    <t>d5d6e25d-81b4-5f98-8b91-ea2dbc155a9c</t>
+  </si>
+  <si>
+    <t>46171763-bd21-57a8-a403-0785f72643cf</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Question_Reference' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
   </si>
   <si>
-    <t>c302047e-21cf-5059-a32c-e81a9bd3a9b9</t>
-  </si>
-  <si>
-    <t>3252fee6-3a9a-5f4c-81c6-739201046d79</t>
+    <t>4971a2f5-06a3-5898-823d-364145d3b9a5</t>
+  </si>
+  <si>
+    <t>c2c0cbca-70cb-54f6-9dc7-66b47c4f3157</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Answer_Reference' not found in 'jrchc-hrsn-file-spec.xlsx' (available: Original Report, HeL LOINC Mapping)</t>
   </si>
   <si>
-    <t>78d6a904-035e-54ae-8ac2-ca5cdf3f75f7</t>
+    <t>8640a4b5-53ef-506e-bcde-83f00315d4b2</t>
   </si>
   <si>
     <t>support/assurance/ahc-hrsn-elt/screening/synthetic-content/synthetic-fail-excel-01.xlsx</t>
   </si>
   <si>
-    <t>9860873a-c387-5d98-9930-4ff296eb7192</t>
+    <t>544998d3-58c5-5f65-9dc8-9f998508495f</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Admin_Demographic' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>d5d6e25d-81b4-5f98-8b91-ea2dbc155a9c</t>
-  </si>
-  <si>
-    <t>46171763-bd21-57a8-a403-0785f72643cf</t>
+    <t>0adb81bc-3df2-5f86-99cc-2d20e1dd5efd</t>
+  </si>
+  <si>
+    <t>10d0290c-b2eb-581e-b627-b5b8fcbb830f</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Screening' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>4971a2f5-06a3-5898-823d-364145d3b9a5</t>
-  </si>
-  <si>
-    <t>c2c0cbca-70cb-54f6-9dc7-66b47c4f3157</t>
+    <t>e6951d0b-be59-58c3-8a04-01181208c601</t>
+  </si>
+  <si>
+    <t>2afb3098-bcfd-5a54-8ebb-4d65d399c55e</t>
   </si>
   <si>
     <t>Excel workbook sheet 'QE_Admin_Data' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>8640a4b5-53ef-506e-bcde-83f00315d4b2</t>
-  </si>
-  <si>
-    <t>544998d3-58c5-5f65-9dc8-9f998508495f</t>
+    <t>0e074bf2-f1fe-55d4-bd44-a88cbed79aeb</t>
+  </si>
+  <si>
+    <t>e8b3dab4-5058-5c79-8088-45b423119149</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Question_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>0adb81bc-3df2-5f86-99cc-2d20e1dd5efd</t>
-  </si>
-  <si>
-    <t>10d0290c-b2eb-581e-b627-b5b8fcbb830f</t>
+    <t>9dabd022-4a26-55f2-98f4-e534e7704b23</t>
+  </si>
+  <si>
+    <t>80af4eff-d697-565b-9e3f-a587e322b1da</t>
   </si>
   <si>
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>b4be663b-ccef-49da-bd21-4955749d9a8c</t>
-  </si>
-  <si>
-    <t>Mandatory field CONSENT is empty</t>
-  </si>
-  <si>
-    <t>CONSENT</t>
-  </si>
-  <si>
-    <t>Provide a value for CONSENT</t>
-  </si>
-  <si>
-    <t>07be4f9c-112f-4fec-8848-5cbd3dc82d3a</t>
-  </si>
-  <si>
-    <t>6d3d0889-6923-46d1-8885-7f65dbcc47e9</t>
-  </si>
-  <si>
-    <t>c6da2667-bb9f-4e75-9425-9b01c0a86500</t>
-  </si>
-  <si>
-    <t>aae0769b-cc66-4252-945a-fabe518c80f1</t>
-  </si>
-  <si>
-    <t>Invalid value "Undifferentiated" found in ADMINISTRATIVE_SEX _CODE_DESCRIPTION</t>
+    <t>d3913018-d8e2-41dd-9b28-3f8f779fbf5d</t>
+  </si>
+  <si>
+    <t>Invalid value in SCREENING_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Mandatory field "SCREENING_CODE_DESCRIPTION" is empty</t>
+  </si>
+  <si>
+    <t>SCREENING_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>The required field value SCREENING_CODE_DESCRIPTION is missing</t>
+  </si>
+  <si>
+    <t>f933eb1c-567f-498f-999d-1d552b0c43d0</t>
+  </si>
+  <si>
+    <t>Invalid value "Other" found in GENDER_IDENTITY_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>GENDER_IDENTITY_CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>The GENDER_IDENTITY_CODE_DESCRIPTION "Other" of GENDER_IDENTITY_CODE "407376001" is not matching with the GENDER_IDENTITY_CODE_DESCRIPTION of GENDER_IDENTITY_CODE in reference data</t>
+  </si>
+  <si>
+    <t>049370cb-4152-41d6-b40b-f23cd3677532</t>
+  </si>
+  <si>
+    <t>Invalid value "gdfgdg" found in ADMINISTRATIVE_SEX _CODE_DESCRIPTION</t>
   </si>
   <si>
     <t>ADMINISTRATIVE_SEX _CODE_DESCRIPTION</t>
   </si>
   <si>
-    <t>Undifferentiated</t>
-  </si>
-  <si>
-    <t>The ADMINISTRATIVE_SEX _CODE_DESCRIPTION "Undifferentiated" of ADMINISTRATIVE_SEX_CODE "vfdgvdfv" is not matching with the ADMINISTRATIVE_SEX _CODE_DESCRIPTION of ADMINISTRATIVE_SEX_CODE in reference data</t>
-  </si>
-  <si>
-    <t>86e54486-7cc5-49b9-a97b-c9e10f29ac8e</t>
-  </si>
-  <si>
-    <t>The ADMINISTRATIVE_SEX _CODE_DESCRIPTION "Undifferentiated" of ADMINISTRATIVE_SEX_CODE "UNK" is not matching with the ADMINISTRATIVE_SEX _CODE_DESCRIPTION of ADMINISTRATIVE_SEX_CODE in reference data</t>
-  </si>
-  <si>
-    <t>c09557c9-2c1a-447a-835c-0058bb800b07</t>
+    <t>gdfgdg</t>
+  </si>
+  <si>
+    <t>The ADMINISTRATIVE_SEX _CODE_DESCRIPTION "gdfgdg" of ADMINISTRATIVE_SEX_CODE "X" is not matching with the ADMINISTRATIVE_SEX _CODE_DESCRIPTION of ADMINISTRATIVE_SEX_CODE in reference data</t>
+  </si>
+  <si>
+    <t>d4c2c271-64ad-4f4d-a4df-f4ab43ccd14c</t>
   </si>
   <si>
     <t>Invalid value "Other" found in ADMINISTRATIVE_SEX _CODE_DESCRIPTION</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>The ADMINISTRATIVE_SEX _CODE_DESCRIPTION "Other" of ADMINISTRATIVE_SEX_CODE "X" is not matching with the ADMINISTRATIVE_SEX _CODE_DESCRIPTION of ADMINISTRATIVE_SEX_CODE in reference data</t>
+  </si>
+  <si>
+    <t>76eacb1f-2a16-4b49-848f-b871c5a38eac</t>
+  </si>
+  <si>
+    <t>Invalid ADMINISTRATIVE SEX CODE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Invalid ADMINISTRATIVE SEX CODE DESCRIPTION "gdfgdg" found in ADMINISTRATIVE_SEX _CODE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Validate ADMINISTRATIVE SEX CODE DESCRIPTION with administrative sex reference data</t>
   </si>
 </sst>
 </file>
@@ -890,37 +1559,40 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -937,34 +1609,40 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>50</v>
       </c>
       <c r="R4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="U4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -981,37 +1659,37 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s">
         <v>35</v>
@@ -1031,13 +1709,13 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
         <v>58</v>
@@ -1049,7 +1727,7 @@
         <v>60</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P6" t="s">
         <v>61</v>
@@ -1063,6 +1741,9 @@
       <c r="T6" t="s">
         <v>34</v>
       </c>
+      <c r="U6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1078,13 +1759,13 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
         <v>64</v>
@@ -1096,7 +1777,7 @@
         <v>66</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" t="s">
         <v>67</v>
@@ -1125,13 +1806,13 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
         <v>70</v>
@@ -1155,10 +1836,7 @@
         <v>75</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
-      </c>
-      <c r="U8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1175,37 +1853,37 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L9" t="s">
         <v>76</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="N9" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s">
         <v>35</v>
@@ -1225,37 +1903,40 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" t="s">
         <v>77</v>
       </c>
-      <c r="M10" t="s">
-        <v>37</v>
-      </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="O10">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="Q10" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s">
         <v>34</v>
+      </c>
+      <c r="U10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1281,25 +1962,28 @@
         <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="O11">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>89</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>90</v>
       </c>
       <c r="R11" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="T11" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1316,40 +2000,34 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="N12" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="P12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="R12" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U12" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
@@ -1366,37 +2044,40 @@
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N13" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="Q13" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="R13" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="T13" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="U13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -1413,34 +2094,34 @@
         <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="M14" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="Q14" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="R14" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="T14" t="s">
         <v>34</v>
@@ -1460,40 +2141,37 @@
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="L15" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="M15" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N15" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="Q15" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="R15" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="T15" t="s">
         <v>34</v>
-      </c>
-      <c r="U15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -1510,34 +2188,34 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="M16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N16" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="O16">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="Q16" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="R16" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="T16" t="s">
         <v>34</v>
@@ -1557,37 +2235,37 @@
         <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="M17" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N17" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="O17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q17" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="R17" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="T17" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -1604,40 +2282,37 @@
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L18" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N18" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="Q18" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="R18" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
-      </c>
-      <c r="U18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -1654,34 +2329,34 @@
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N19" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="Q19" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="R19" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="T19" t="s">
         <v>34</v>
@@ -1701,34 +2376,34 @@
         <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="M20" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="N20" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="Q20" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="R20" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="T20" t="s">
         <v>34</v>
@@ -1748,40 +2423,37 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="L21" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="Q21" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="R21" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="T21" t="s">
         <v>34</v>
-      </c>
-      <c r="U21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22">
@@ -1798,34 +2470,34 @@
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="M22" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N22" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="O22">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="Q22" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="R22" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="T22" t="s">
         <v>34</v>
@@ -1854,28 +2526,31 @@
         <v>27</v>
       </c>
       <c r="L23" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="M23" t="s">
         <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="O23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q23" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="R23" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="T23" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="U23" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -1892,37 +2567,37 @@
         <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L24" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="N24" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="O24">
         <v>4</v>
       </c>
       <c r="P24" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="Q24" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="R24" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="U24" t="s">
         <v>35</v>
@@ -1942,37 +2617,40 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" t="s">
+        <v>155</v>
+      </c>
+      <c r="M25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" t="s">
+        <v>156</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25" t="s">
         <v>49</v>
       </c>
-      <c r="J25" t="s">
-        <v>50</v>
-      </c>
-      <c r="L25" t="s">
-        <v>103</v>
-      </c>
-      <c r="M25" t="s">
-        <v>59</v>
-      </c>
-      <c r="N25" t="s">
-        <v>60</v>
-      </c>
-      <c r="O25">
-        <v>4</v>
-      </c>
-      <c r="P25" t="s">
-        <v>61</v>
-      </c>
       <c r="Q25" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="R25" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="T25" t="s">
         <v>34</v>
+      </c>
+      <c r="U25" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -1989,37 +2667,40 @@
         <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L26" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="M26" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="N26" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="O26">
         <v>4</v>
       </c>
       <c r="P26" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="Q26" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="R26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="U26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -2036,34 +2717,34 @@
         <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J27" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L27" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="M27" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N27" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="O27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P27" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="Q27" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="R27" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="T27" t="s">
         <v>34</v>
@@ -2086,34 +2767,34 @@
         <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L28" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="M28" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="N28" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="O28">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P28" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q28" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="R28" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="T28" t="s">
         <v>34</v>
@@ -2133,37 +2814,37 @@
         <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I29" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L29" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N29" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="O29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P29" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="Q29" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="R29" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="T29" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -2180,37 +2861,40 @@
         <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L30" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="M30" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N30" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="O30">
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="Q30" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="R30" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="T30" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="U30" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -2227,34 +2911,34 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I31" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J31" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L31" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="M31" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="N31" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="O31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P31" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="Q31" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="R31" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s">
         <v>34</v>
@@ -2286,25 +2970,25 @@
         <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="N32" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="O32">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P32" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="Q32" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="R32" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="T32" t="s">
         <v>34</v>
@@ -2333,28 +3017,25 @@
         <v>27</v>
       </c>
       <c r="L33" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="M33" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="N33" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O33">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="P33" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="R33" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="T33" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
@@ -2371,37 +3052,40 @@
         <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="M34" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N34" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P34" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="Q34" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="R34" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="T34" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="U34" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35">
@@ -2427,7 +3111,7 @@
         <v>27</v>
       </c>
       <c r="L35" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="M35" t="s">
         <v>29</v>
@@ -2436,7 +3120,7 @@
         <v>30</v>
       </c>
       <c r="O35">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P35" t="s">
         <v>31</v>
@@ -2468,37 +3152,40 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J36" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L36" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="M36" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N36" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="O36">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q36" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="R36" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="T36" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="U36" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -2515,37 +3202,40 @@
         <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I37" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L37" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="M37" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N37" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="O37">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P37" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q37" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="R37" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="T37" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="U37" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -2562,37 +3252,40 @@
         <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L38" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="M38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N38" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P38" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="Q38" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="R38" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="U38" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="39">
@@ -2609,34 +3302,34 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J39" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="M39" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N39" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="O39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P39" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="Q39" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="R39" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="T39" t="s">
         <v>34</v>
@@ -2659,34 +3352,34 @@
         <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J40" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L40" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="M40" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N40" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="O40">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q40" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="R40" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="T40" t="s">
         <v>34</v>
@@ -2706,37 +3399,37 @@
         <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I41" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J41" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L41" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="M41" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N41" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="O41">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P41" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="Q41" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="R41" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="T41" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -2753,37 +3446,40 @@
         <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I42" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="L42" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="M42" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N42" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P42" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="Q42" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="R42" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="T42" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="U42" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="43">
@@ -2800,34 +3496,34 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I43" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J43" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L43" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="M43" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="N43" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="O43">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P43" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="Q43" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="R43" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s">
         <v>34</v>
@@ -2859,25 +3555,25 @@
         <v>27</v>
       </c>
       <c r="L44" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="M44" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="N44" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="O44">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P44" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="Q44" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="R44" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="T44" t="s">
         <v>34</v>
@@ -2906,31 +3602,28 @@
         <v>27</v>
       </c>
       <c r="L45" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="M45" t="s">
         <v>29</v>
       </c>
       <c r="N45" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="O45">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P45" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="Q45" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="R45" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="T45" t="s">
-        <v>34</v>
-      </c>
-      <c r="U45" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46">
@@ -2956,28 +3649,31 @@
         <v>27</v>
       </c>
       <c r="L46" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="M46" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N46" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O46">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="P46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q46" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="R46" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T46" t="s">
         <v>34</v>
+      </c>
+      <c r="U46" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="47">
@@ -2994,37 +3690,37 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J47" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L47" t="s">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="M47" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N47" t="s">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="O47">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="P47" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q47" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="R47" t="s">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="T47" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="U47" t="s">
         <v>35</v>
@@ -3044,37 +3740,40 @@
         <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I48" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J48" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L48" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="M48" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="N48" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="O48">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="P48" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="Q48" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="R48" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="T48" t="s">
         <v>34</v>
+      </c>
+      <c r="U48" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="49">
@@ -3091,37 +3790,37 @@
         <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I49" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J49" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L49" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="M49" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N49" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="O49">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="Q49" t="s">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="R49" t="s">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="T49" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="U49" t="s">
         <v>35</v>
@@ -3141,37 +3840,40 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I50" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J50" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L50" t="s">
-        <v>130</v>
+        <v>226</v>
       </c>
       <c r="M50" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N50" t="s">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="O50">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="Q50" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="R50" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="T50" t="s">
         <v>34</v>
+      </c>
+      <c r="U50" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -3188,40 +3890,37 @@
         <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I51" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J51" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L51" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="M51" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N51" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="O51">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P51" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="Q51" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="R51" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="T51" t="s">
         <v>34</v>
-      </c>
-      <c r="U51" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="52">
@@ -3238,34 +3937,34 @@
         <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I52" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J52" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L52" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="M52" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N52" t="s">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="O52">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="Q52" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="R52" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="T52" t="s">
         <v>34</v>
@@ -3285,37 +3984,37 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I53" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J53" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L53" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="M53" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N53" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="O53">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P53" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="Q53" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="R53" t="s">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="T53" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="U53" t="s">
         <v>35</v>
@@ -3335,37 +4034,40 @@
         <v>24</v>
       </c>
       <c r="H54" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I54" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J54" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L54" t="s">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="M54" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N54" t="s">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="O54">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="Q54" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="R54" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="T54" t="s">
         <v>34</v>
+      </c>
+      <c r="U54" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="55">
@@ -3391,31 +4093,28 @@
         <v>27</v>
       </c>
       <c r="L55" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="M55" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="N55" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="O55">
         <v>15</v>
       </c>
       <c r="P55" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="Q55" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="R55" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="T55" t="s">
         <v>34</v>
-      </c>
-      <c r="U55" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="56">
@@ -3441,28 +4140,28 @@
         <v>27</v>
       </c>
       <c r="L56" t="s">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="M56" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N56" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="O56">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="P56" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="Q56" t="s">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="R56" t="s">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="T56" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57">
@@ -3488,7 +4187,7 @@
         <v>27</v>
       </c>
       <c r="L57" t="s">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="M57" t="s">
         <v>29</v>
@@ -3497,7 +4196,7 @@
         <v>30</v>
       </c>
       <c r="O57">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P57" t="s">
         <v>31</v>
@@ -3529,37 +4228,40 @@
         <v>24</v>
       </c>
       <c r="H58" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I58" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J58" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L58" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="M58" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N58" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="O58">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="P58" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q58" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="R58" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="T58" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="U58" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="59">
@@ -3576,34 +4278,34 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I59" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J59" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L59" t="s">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="M59" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="N59" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="O59">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="P59" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="Q59" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="R59" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="T59" t="s">
         <v>34</v>
@@ -3626,37 +4328,40 @@
         <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I60" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J60" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L60" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="M60" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N60" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="O60">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="P60" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="Q60" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="R60" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="T60" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="U60" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="61">
@@ -3673,34 +4378,34 @@
         <v>24</v>
       </c>
       <c r="H61" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I61" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J61" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L61" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="M61" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N61" t="s">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="O61">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P61" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="Q61" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="R61" t="s">
-        <v>33</v>
+        <v>255</v>
       </c>
       <c r="T61" t="s">
         <v>34</v>
@@ -3723,34 +4428,34 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I62" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J62" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L62" t="s">
-        <v>142</v>
+        <v>256</v>
       </c>
       <c r="M62" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N62" t="s">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="O62">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="P62" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q62" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="R62" t="s">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="T62" t="s">
         <v>34</v>
@@ -3770,40 +4475,37 @@
         <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I63" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J63" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L63" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="M63" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N63" t="s">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="O63">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="P63" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="Q63" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="R63" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="T63" t="s">
         <v>34</v>
-      </c>
-      <c r="U63" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="64">
@@ -3820,37 +4522,40 @@
         <v>24</v>
       </c>
       <c r="H64" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I64" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J64" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L64" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="M64" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N64" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="O64">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="P64" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q64" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="R64" t="s">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="T64" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="U64" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="65">
@@ -3867,34 +4572,34 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I65" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J65" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L65" t="s">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="M65" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N65" t="s">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c r="O65">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P65" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="Q65" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="R65" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="T65" t="s">
         <v>34</v>
@@ -3926,31 +4631,28 @@
         <v>27</v>
       </c>
       <c r="L66" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="M66" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="N66" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="O66">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P66" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="Q66" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="R66" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="T66" t="s">
         <v>34</v>
-      </c>
-      <c r="U66" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="67">
@@ -3976,31 +4678,28 @@
         <v>27</v>
       </c>
       <c r="L67" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="M67" t="s">
         <v>29</v>
       </c>
       <c r="N67" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="O67">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="P67" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="Q67" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="R67" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="T67" t="s">
-        <v>34</v>
-      </c>
-      <c r="U67" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68">
@@ -4026,7 +4725,7 @@
         <v>27</v>
       </c>
       <c r="L68" t="s">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="M68" t="s">
         <v>29</v>
@@ -4035,7 +4734,7 @@
         <v>30</v>
       </c>
       <c r="O68">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="P68" t="s">
         <v>31</v>
@@ -4067,37 +4766,37 @@
         <v>24</v>
       </c>
       <c r="H69" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I69" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J69" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L69" t="s">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="M69" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N69" t="s">
-        <v>30</v>
+        <v>272</v>
       </c>
       <c r="O69">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P69" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="Q69" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="R69" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="T69" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="U69" t="s">
         <v>35</v>
@@ -4117,34 +4816,34 @@
         <v>24</v>
       </c>
       <c r="H70" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I70" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J70" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L70" t="s">
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="M70" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N70" t="s">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="O70">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="P70" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="Q70" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="R70" t="s">
-        <v>33</v>
+        <v>276</v>
       </c>
       <c r="T70" t="s">
         <v>34</v>
@@ -4167,40 +4866,37 @@
         <v>24</v>
       </c>
       <c r="H71" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I71" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J71" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L71" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="M71" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N71" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="O71">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="P71" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="Q71" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="R71" t="s">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c r="T71" t="s">
         <v>34</v>
-      </c>
-      <c r="U71" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="72">
@@ -4217,40 +4913,37 @@
         <v>24</v>
       </c>
       <c r="H72" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I72" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J72" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L72" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="M72" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N72" t="s">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="O72">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="P72" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="Q72" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="R72" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="T72" t="s">
         <v>34</v>
-      </c>
-      <c r="U72" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="73">
@@ -4267,37 +4960,37 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I73" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J73" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L73" t="s">
-        <v>153</v>
+        <v>282</v>
       </c>
       <c r="M73" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N73" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="O73">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="P73" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="Q73" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="R73" t="s">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c r="T73" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="U73" t="s">
         <v>35</v>
@@ -4317,34 +5010,34 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I74" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J74" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L74" t="s">
-        <v>154</v>
+        <v>284</v>
       </c>
       <c r="M74" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N74" t="s">
-        <v>30</v>
+        <v>285</v>
       </c>
       <c r="O74">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="P74" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="Q74" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="R74" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="T74" t="s">
         <v>34</v>
@@ -4376,31 +5069,28 @@
         <v>27</v>
       </c>
       <c r="L75" t="s">
-        <v>155</v>
+        <v>287</v>
       </c>
       <c r="M75" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="N75" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="O75">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P75" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="Q75" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="R75" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="T75" t="s">
         <v>34</v>
-      </c>
-      <c r="U75" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="76">
@@ -4417,25 +5107,37 @@
         <v>24</v>
       </c>
       <c r="H76" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="I76" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="J76" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="L76" t="s">
-        <v>159</v>
+        <v>288</v>
       </c>
       <c r="M76" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="N76" t="s">
-        <v>161</v>
+        <v>211</v>
+      </c>
+      <c r="O76">
+        <v>10</v>
+      </c>
+      <c r="P76" t="s">
+        <v>95</v>
       </c>
       <c r="Q76" t="s">
-        <v>157</v>
+        <v>212</v>
+      </c>
+      <c r="R76" t="s">
+        <v>213</v>
+      </c>
+      <c r="T76" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="77">
@@ -4452,25 +5154,40 @@
         <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="I77" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="J77" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="L77" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
       <c r="M77" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="N77" t="s">
-        <v>164</v>
+        <v>30</v>
+      </c>
+      <c r="O77">
+        <v>7</v>
+      </c>
+      <c r="P77" t="s">
+        <v>31</v>
       </c>
       <c r="Q77" t="s">
-        <v>157</v>
+        <v>32</v>
+      </c>
+      <c r="R77" t="s">
+        <v>33</v>
+      </c>
+      <c r="T77" t="s">
+        <v>34</v>
+      </c>
+      <c r="U77" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="78">
@@ -4487,25 +5204,40 @@
         <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="I78" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="J78" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="L78" t="s">
-        <v>166</v>
+        <v>290</v>
       </c>
       <c r="M78" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="N78" t="s">
-        <v>167</v>
+        <v>291</v>
+      </c>
+      <c r="O78">
+        <v>6</v>
+      </c>
+      <c r="P78" t="s">
+        <v>55</v>
       </c>
       <c r="Q78" t="s">
-        <v>157</v>
+        <v>193</v>
+      </c>
+      <c r="R78" t="s">
+        <v>292</v>
+      </c>
+      <c r="T78" t="s">
+        <v>45</v>
+      </c>
+      <c r="U78" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="79">
@@ -4522,25 +5254,40 @@
         <v>24</v>
       </c>
       <c r="H79" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="I79" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="J79" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="L79" t="s">
-        <v>169</v>
+        <v>293</v>
       </c>
       <c r="M79" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="N79" t="s">
-        <v>170</v>
+        <v>294</v>
+      </c>
+      <c r="O79">
+        <v>6</v>
+      </c>
+      <c r="P79" t="s">
+        <v>61</v>
       </c>
       <c r="Q79" t="s">
-        <v>157</v>
+        <v>193</v>
+      </c>
+      <c r="R79" t="s">
+        <v>295</v>
+      </c>
+      <c r="T79" t="s">
+        <v>34</v>
+      </c>
+      <c r="U79" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="80">
@@ -4557,25 +5304,37 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="I80" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="J80" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="L80" t="s">
-        <v>172</v>
+        <v>296</v>
       </c>
       <c r="M80" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="N80" t="s">
-        <v>173</v>
+        <v>297</v>
+      </c>
+      <c r="O80">
+        <v>5</v>
+      </c>
+      <c r="P80" t="s">
+        <v>73</v>
       </c>
       <c r="Q80" t="s">
-        <v>157</v>
+        <v>202</v>
+      </c>
+      <c r="R80" t="s">
+        <v>298</v>
+      </c>
+      <c r="T80" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="81">
@@ -4592,25 +5351,40 @@
         <v>24</v>
       </c>
       <c r="H81" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="I81" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="J81" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="L81" t="s">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="M81" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="N81" t="s">
+        <v>300</v>
+      </c>
+      <c r="O81">
+        <v>5</v>
+      </c>
+      <c r="P81" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q81" t="s">
         <v>177</v>
       </c>
-      <c r="Q81" t="s">
-        <v>175</v>
+      <c r="R81" t="s">
+        <v>301</v>
+      </c>
+      <c r="T81" t="s">
+        <v>34</v>
+      </c>
+      <c r="U81" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="82">
@@ -4627,25 +5401,37 @@
         <v>24</v>
       </c>
       <c r="H82" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="I82" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="J82" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="L82" t="s">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="M82" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="N82" t="s">
-        <v>180</v>
+        <v>88</v>
+      </c>
+      <c r="O82">
+        <v>18</v>
+      </c>
+      <c r="P82" t="s">
+        <v>89</v>
       </c>
       <c r="Q82" t="s">
-        <v>175</v>
+        <v>90</v>
+      </c>
+      <c r="R82" t="s">
+        <v>91</v>
+      </c>
+      <c r="T82" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="83">
@@ -4662,25 +5448,37 @@
         <v>24</v>
       </c>
       <c r="H83" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="I83" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="J83" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="L83" t="s">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="M83" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="N83" t="s">
-        <v>183</v>
+        <v>211</v>
+      </c>
+      <c r="O83">
+        <v>18</v>
+      </c>
+      <c r="P83" t="s">
+        <v>95</v>
       </c>
       <c r="Q83" t="s">
-        <v>175</v>
+        <v>212</v>
+      </c>
+      <c r="R83" t="s">
+        <v>213</v>
+      </c>
+      <c r="T83" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="84">
@@ -4697,25 +5495,40 @@
         <v>24</v>
       </c>
       <c r="H84" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="I84" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="J84" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="L84" t="s">
-        <v>185</v>
+        <v>304</v>
       </c>
       <c r="M84" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="N84" t="s">
-        <v>186</v>
+        <v>30</v>
+      </c>
+      <c r="O84">
+        <v>8</v>
+      </c>
+      <c r="P84" t="s">
+        <v>31</v>
       </c>
       <c r="Q84" t="s">
-        <v>175</v>
+        <v>32</v>
+      </c>
+      <c r="R84" t="s">
+        <v>33</v>
+      </c>
+      <c r="T84" t="s">
+        <v>34</v>
+      </c>
+      <c r="U84" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="85">
@@ -4732,25 +5545,40 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="I85" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="J85" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="L85" t="s">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="M85" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="N85" t="s">
-        <v>189</v>
+        <v>306</v>
+      </c>
+      <c r="O85">
+        <v>14</v>
+      </c>
+      <c r="P85" t="s">
+        <v>84</v>
       </c>
       <c r="Q85" t="s">
-        <v>175</v>
+        <v>208</v>
+      </c>
+      <c r="R85" t="s">
+        <v>307</v>
+      </c>
+      <c r="T85" t="s">
+        <v>34</v>
+      </c>
+      <c r="U85" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="86">
@@ -4767,25 +5595,37 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="I86" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="J86" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="L86" t="s">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="M86" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="N86" t="s">
-        <v>193</v>
+        <v>88</v>
+      </c>
+      <c r="O86">
+        <v>19</v>
+      </c>
+      <c r="P86" t="s">
+        <v>89</v>
       </c>
       <c r="Q86" t="s">
-        <v>191</v>
+        <v>90</v>
+      </c>
+      <c r="R86" t="s">
+        <v>91</v>
+      </c>
+      <c r="T86" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="87">
@@ -4802,25 +5642,37 @@
         <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="I87" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="J87" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="L87" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="M87" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="N87" t="s">
-        <v>196</v>
+        <v>211</v>
+      </c>
+      <c r="O87">
+        <v>19</v>
+      </c>
+      <c r="P87" t="s">
+        <v>95</v>
       </c>
       <c r="Q87" t="s">
-        <v>191</v>
+        <v>212</v>
+      </c>
+      <c r="R87" t="s">
+        <v>213</v>
+      </c>
+      <c r="T87" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="88">
@@ -4837,25 +5689,40 @@
         <v>24</v>
       </c>
       <c r="H88" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="I88" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="J88" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="L88" t="s">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="M88" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="N88" t="s">
-        <v>199</v>
+        <v>30</v>
+      </c>
+      <c r="O88">
+        <v>9</v>
+      </c>
+      <c r="P88" t="s">
+        <v>31</v>
       </c>
       <c r="Q88" t="s">
-        <v>191</v>
+        <v>32</v>
+      </c>
+      <c r="R88" t="s">
+        <v>33</v>
+      </c>
+      <c r="T88" t="s">
+        <v>34</v>
+      </c>
+      <c r="U88" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="89">
@@ -4872,25 +5739,37 @@
         <v>24</v>
       </c>
       <c r="H89" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I89" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="J89" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="L89" t="s">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="M89" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="N89" t="s">
-        <v>202</v>
+        <v>88</v>
+      </c>
+      <c r="O89">
+        <v>20</v>
+      </c>
+      <c r="P89" t="s">
+        <v>89</v>
       </c>
       <c r="Q89" t="s">
-        <v>191</v>
+        <v>90</v>
+      </c>
+      <c r="R89" t="s">
+        <v>91</v>
+      </c>
+      <c r="T89" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="90">
@@ -4907,25 +5786,37 @@
         <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="I90" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="J90" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="L90" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="M90" t="s">
-        <v>160</v>
+        <v>313</v>
       </c>
       <c r="N90" t="s">
-        <v>205</v>
+        <v>314</v>
+      </c>
+      <c r="O90">
+        <v>26</v>
+      </c>
+      <c r="P90" t="s">
+        <v>95</v>
       </c>
       <c r="Q90" t="s">
-        <v>191</v>
+        <v>315</v>
+      </c>
+      <c r="R90" t="s">
+        <v>316</v>
+      </c>
+      <c r="T90" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91">
@@ -4942,31 +5833,40 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="L91" t="s">
-        <v>206</v>
+        <v>317</v>
       </c>
       <c r="M91" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N91" t="s">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>31</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>32</v>
       </c>
       <c r="R91" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="T91" t="s">
+        <v>34</v>
+      </c>
+      <c r="U91" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="92">
@@ -4983,31 +5883,37 @@
         <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="L92" t="s">
-        <v>210</v>
+        <v>318</v>
       </c>
       <c r="M92" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="N92" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="O92">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>89</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>90</v>
       </c>
       <c r="R92" t="s">
-        <v>209</v>
+        <v>91</v>
+      </c>
+      <c r="T92" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="93">
@@ -5024,31 +5930,37 @@
         <v>24</v>
       </c>
       <c r="H93" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="L93" t="s">
-        <v>211</v>
+        <v>319</v>
       </c>
       <c r="M93" t="s">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="N93" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="O93">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>95</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>212</v>
       </c>
       <c r="R93" t="s">
-        <v>209</v>
+        <v>316</v>
+      </c>
+      <c r="T93" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="94">
@@ -5065,31 +5977,40 @@
         <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I94" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="L94" t="s">
-        <v>212</v>
+        <v>321</v>
       </c>
       <c r="M94" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N94" t="s">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P94" t="s">
-        <v>208</v>
+        <v>31</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>32</v>
       </c>
       <c r="R94" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="T94" t="s">
+        <v>34</v>
+      </c>
+      <c r="U94" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="95">
@@ -5106,34 +6027,37 @@
         <v>24</v>
       </c>
       <c r="H95" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="L95" t="s">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="M95" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="N95" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="O95">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="P95" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="Q95" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="R95" t="s">
-        <v>217</v>
+        <v>91</v>
+      </c>
+      <c r="T95" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="96">
@@ -5150,34 +6074,37 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I96" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J96" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="L96" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="M96" t="s">
-        <v>59</v>
+        <v>313</v>
       </c>
       <c r="N96" t="s">
-        <v>214</v>
+        <v>324</v>
       </c>
       <c r="O96">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="Q96" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="R96" t="s">
-        <v>219</v>
+        <v>316</v>
+      </c>
+      <c r="T96" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="97">
@@ -5194,34 +6121,2425 @@
         <v>24</v>
       </c>
       <c r="H97" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="L97" t="s">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="M97" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N97" t="s">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="O97">
+        <v>12</v>
+      </c>
+      <c r="P97" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>32</v>
+      </c>
+      <c r="R97" t="s">
+        <v>33</v>
+      </c>
+      <c r="T97" t="s">
+        <v>34</v>
+      </c>
+      <c r="U97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" t="s">
+        <v>27</v>
+      </c>
+      <c r="L98" t="s">
+        <v>326</v>
+      </c>
+      <c r="M98" t="s">
+        <v>87</v>
+      </c>
+      <c r="N98" t="s">
+        <v>88</v>
+      </c>
+      <c r="O98">
+        <v>23</v>
+      </c>
+      <c r="P98" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>90</v>
+      </c>
+      <c r="R98" t="s">
+        <v>91</v>
+      </c>
+      <c r="T98" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" t="s">
+        <v>27</v>
+      </c>
+      <c r="L99" t="s">
+        <v>327</v>
+      </c>
+      <c r="M99" t="s">
+        <v>313</v>
+      </c>
+      <c r="N99" t="s">
+        <v>328</v>
+      </c>
+      <c r="O99">
+        <v>9</v>
+      </c>
+      <c r="P99" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>212</v>
+      </c>
+      <c r="R99" t="s">
+        <v>316</v>
+      </c>
+      <c r="T99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" t="s">
+        <v>25</v>
+      </c>
+      <c r="I100" t="s">
+        <v>26</v>
+      </c>
+      <c r="J100" t="s">
+        <v>27</v>
+      </c>
+      <c r="L100" t="s">
+        <v>329</v>
+      </c>
+      <c r="M100" t="s">
+        <v>29</v>
+      </c>
+      <c r="N100" t="s">
+        <v>30</v>
+      </c>
+      <c r="O100">
+        <v>13</v>
+      </c>
+      <c r="P100" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>32</v>
+      </c>
+      <c r="R100" t="s">
+        <v>33</v>
+      </c>
+      <c r="T100" t="s">
+        <v>34</v>
+      </c>
+      <c r="U100" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" t="s">
+        <v>26</v>
+      </c>
+      <c r="J101" t="s">
+        <v>27</v>
+      </c>
+      <c r="L101" t="s">
+        <v>330</v>
+      </c>
+      <c r="M101" t="s">
+        <v>87</v>
+      </c>
+      <c r="N101" t="s">
+        <v>88</v>
+      </c>
+      <c r="O101">
+        <v>24</v>
+      </c>
+      <c r="P101" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>90</v>
+      </c>
+      <c r="R101" t="s">
+        <v>91</v>
+      </c>
+      <c r="T101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" t="s">
+        <v>26</v>
+      </c>
+      <c r="J102" t="s">
+        <v>27</v>
+      </c>
+      <c r="L102" t="s">
+        <v>331</v>
+      </c>
+      <c r="M102" t="s">
+        <v>313</v>
+      </c>
+      <c r="N102" t="s">
+        <v>332</v>
+      </c>
+      <c r="O102">
+        <v>19</v>
+      </c>
+      <c r="P102" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>212</v>
+      </c>
+      <c r="R102" t="s">
+        <v>316</v>
+      </c>
+      <c r="T102" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" t="s">
+        <v>26</v>
+      </c>
+      <c r="J103" t="s">
+        <v>27</v>
+      </c>
+      <c r="L103" t="s">
+        <v>333</v>
+      </c>
+      <c r="M103" t="s">
+        <v>29</v>
+      </c>
+      <c r="N103" t="s">
+        <v>30</v>
+      </c>
+      <c r="O103">
+        <v>14</v>
+      </c>
+      <c r="P103" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>32</v>
+      </c>
+      <c r="R103" t="s">
+        <v>33</v>
+      </c>
+      <c r="T103" t="s">
+        <v>34</v>
+      </c>
+      <c r="U103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104" t="s">
+        <v>26</v>
+      </c>
+      <c r="J104" t="s">
+        <v>27</v>
+      </c>
+      <c r="L104" t="s">
+        <v>334</v>
+      </c>
+      <c r="M104" t="s">
+        <v>87</v>
+      </c>
+      <c r="N104" t="s">
+        <v>88</v>
+      </c>
+      <c r="O104">
+        <v>25</v>
+      </c>
+      <c r="P104" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>90</v>
+      </c>
+      <c r="R104" t="s">
+        <v>91</v>
+      </c>
+      <c r="T104" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" t="s">
+        <v>27</v>
+      </c>
+      <c r="L105" t="s">
+        <v>335</v>
+      </c>
+      <c r="M105" t="s">
+        <v>313</v>
+      </c>
+      <c r="N105" t="s">
+        <v>336</v>
+      </c>
+      <c r="O105">
+        <v>8</v>
+      </c>
+      <c r="P105" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>212</v>
+      </c>
+      <c r="R105" t="s">
+        <v>316</v>
+      </c>
+      <c r="T105" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" t="s">
+        <v>26</v>
+      </c>
+      <c r="J106" t="s">
+        <v>27</v>
+      </c>
+      <c r="L106" t="s">
+        <v>337</v>
+      </c>
+      <c r="M106" t="s">
+        <v>29</v>
+      </c>
+      <c r="N106" t="s">
+        <v>30</v>
+      </c>
+      <c r="O106">
+        <v>15</v>
+      </c>
+      <c r="P106" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>32</v>
+      </c>
+      <c r="R106" t="s">
+        <v>33</v>
+      </c>
+      <c r="T106" t="s">
+        <v>34</v>
+      </c>
+      <c r="U106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107" t="s">
+        <v>26</v>
+      </c>
+      <c r="J107" t="s">
+        <v>27</v>
+      </c>
+      <c r="L107" t="s">
+        <v>338</v>
+      </c>
+      <c r="M107" t="s">
+        <v>87</v>
+      </c>
+      <c r="N107" t="s">
+        <v>88</v>
+      </c>
+      <c r="O107">
+        <v>26</v>
+      </c>
+      <c r="P107" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>90</v>
+      </c>
+      <c r="R107" t="s">
+        <v>91</v>
+      </c>
+      <c r="T107" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" t="s">
+        <v>36</v>
+      </c>
+      <c r="I108" t="s">
+        <v>37</v>
+      </c>
+      <c r="J108" t="s">
+        <v>38</v>
+      </c>
+      <c r="L108" t="s">
+        <v>339</v>
+      </c>
+      <c r="M108" t="s">
+        <v>313</v>
+      </c>
+      <c r="N108" t="s">
+        <v>340</v>
+      </c>
+      <c r="O108">
+        <v>25</v>
+      </c>
+      <c r="P108" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>341</v>
+      </c>
+      <c r="R108" t="s">
+        <v>316</v>
+      </c>
+      <c r="T108" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" t="s">
+        <v>25</v>
+      </c>
+      <c r="I109" t="s">
+        <v>26</v>
+      </c>
+      <c r="J109" t="s">
+        <v>27</v>
+      </c>
+      <c r="L109" t="s">
+        <v>342</v>
+      </c>
+      <c r="M109" t="s">
+        <v>29</v>
+      </c>
+      <c r="N109" t="s">
+        <v>30</v>
+      </c>
+      <c r="O109">
+        <v>16</v>
+      </c>
+      <c r="P109" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>32</v>
+      </c>
+      <c r="R109" t="s">
+        <v>33</v>
+      </c>
+      <c r="T109" t="s">
+        <v>34</v>
+      </c>
+      <c r="U109" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>24</v>
+      </c>
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" t="s">
+        <v>27</v>
+      </c>
+      <c r="L110" t="s">
+        <v>343</v>
+      </c>
+      <c r="M110" t="s">
+        <v>87</v>
+      </c>
+      <c r="N110" t="s">
+        <v>88</v>
+      </c>
+      <c r="O110">
+        <v>27</v>
+      </c>
+      <c r="P110" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>90</v>
+      </c>
+      <c r="R110" t="s">
+        <v>91</v>
+      </c>
+      <c r="T110" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" t="s">
+        <v>25</v>
+      </c>
+      <c r="I111" t="s">
+        <v>26</v>
+      </c>
+      <c r="J111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L111" t="s">
+        <v>344</v>
+      </c>
+      <c r="M111" t="s">
+        <v>313</v>
+      </c>
+      <c r="N111" t="s">
+        <v>345</v>
+      </c>
+      <c r="O111">
+        <v>25</v>
+      </c>
+      <c r="P111" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>315</v>
+      </c>
+      <c r="R111" t="s">
+        <v>316</v>
+      </c>
+      <c r="T111" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" t="s">
+        <v>25</v>
+      </c>
+      <c r="I112" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" t="s">
+        <v>27</v>
+      </c>
+      <c r="L112" t="s">
+        <v>346</v>
+      </c>
+      <c r="M112" t="s">
+        <v>29</v>
+      </c>
+      <c r="N112" t="s">
+        <v>30</v>
+      </c>
+      <c r="O112">
+        <v>17</v>
+      </c>
+      <c r="P112" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>32</v>
+      </c>
+      <c r="R112" t="s">
+        <v>33</v>
+      </c>
+      <c r="T112" t="s">
+        <v>34</v>
+      </c>
+      <c r="U112" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" t="s">
+        <v>25</v>
+      </c>
+      <c r="I113" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" t="s">
+        <v>27</v>
+      </c>
+      <c r="L113" t="s">
+        <v>347</v>
+      </c>
+      <c r="M113" t="s">
+        <v>87</v>
+      </c>
+      <c r="N113" t="s">
+        <v>88</v>
+      </c>
+      <c r="O113">
+        <v>28</v>
+      </c>
+      <c r="P113" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>90</v>
+      </c>
+      <c r="R113" t="s">
+        <v>91</v>
+      </c>
+      <c r="T113" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" t="s">
+        <v>36</v>
+      </c>
+      <c r="I114" t="s">
+        <v>37</v>
+      </c>
+      <c r="J114" t="s">
+        <v>38</v>
+      </c>
+      <c r="L114" t="s">
+        <v>348</v>
+      </c>
+      <c r="M114" t="s">
+        <v>313</v>
+      </c>
+      <c r="N114" t="s">
+        <v>349</v>
+      </c>
+      <c r="O114">
+        <v>26</v>
+      </c>
+      <c r="P114" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>350</v>
+      </c>
+      <c r="R114" t="s">
+        <v>316</v>
+      </c>
+      <c r="T114" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" t="s">
+        <v>25</v>
+      </c>
+      <c r="I115" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" t="s">
+        <v>27</v>
+      </c>
+      <c r="L115" t="s">
+        <v>351</v>
+      </c>
+      <c r="M115" t="s">
+        <v>29</v>
+      </c>
+      <c r="N115" t="s">
+        <v>30</v>
+      </c>
+      <c r="O115">
+        <v>18</v>
+      </c>
+      <c r="P115" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>32</v>
+      </c>
+      <c r="R115" t="s">
+        <v>33</v>
+      </c>
+      <c r="T115" t="s">
+        <v>34</v>
+      </c>
+      <c r="U115" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" t="s">
+        <v>26</v>
+      </c>
+      <c r="J116" t="s">
+        <v>27</v>
+      </c>
+      <c r="L116" t="s">
+        <v>352</v>
+      </c>
+      <c r="M116" t="s">
+        <v>87</v>
+      </c>
+      <c r="N116" t="s">
+        <v>88</v>
+      </c>
+      <c r="O116">
+        <v>29</v>
+      </c>
+      <c r="P116" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>90</v>
+      </c>
+      <c r="R116" t="s">
+        <v>91</v>
+      </c>
+      <c r="T116" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
+        <v>23</v>
+      </c>
+      <c r="G117" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" t="s">
+        <v>25</v>
+      </c>
+      <c r="I117" t="s">
+        <v>26</v>
+      </c>
+      <c r="J117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L117" t="s">
+        <v>353</v>
+      </c>
+      <c r="M117" t="s">
+        <v>313</v>
+      </c>
+      <c r="N117" t="s">
+        <v>354</v>
+      </c>
+      <c r="O117">
+        <v>18</v>
+      </c>
+      <c r="P117" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>212</v>
+      </c>
+      <c r="R117" t="s">
+        <v>316</v>
+      </c>
+      <c r="T117" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" t="s">
+        <v>25</v>
+      </c>
+      <c r="I118" t="s">
+        <v>26</v>
+      </c>
+      <c r="J118" t="s">
+        <v>27</v>
+      </c>
+      <c r="L118" t="s">
+        <v>355</v>
+      </c>
+      <c r="M118" t="s">
+        <v>29</v>
+      </c>
+      <c r="N118" t="s">
+        <v>30</v>
+      </c>
+      <c r="O118">
+        <v>19</v>
+      </c>
+      <c r="P118" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>32</v>
+      </c>
+      <c r="R118" t="s">
+        <v>33</v>
+      </c>
+      <c r="T118" t="s">
+        <v>34</v>
+      </c>
+      <c r="U118" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" t="s">
+        <v>25</v>
+      </c>
+      <c r="I119" t="s">
+        <v>26</v>
+      </c>
+      <c r="J119" t="s">
+        <v>27</v>
+      </c>
+      <c r="L119" t="s">
+        <v>356</v>
+      </c>
+      <c r="M119" t="s">
+        <v>87</v>
+      </c>
+      <c r="N119" t="s">
+        <v>88</v>
+      </c>
+      <c r="O119">
+        <v>30</v>
+      </c>
+      <c r="P119" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>90</v>
+      </c>
+      <c r="R119" t="s">
+        <v>91</v>
+      </c>
+      <c r="T119" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" t="s">
+        <v>23</v>
+      </c>
+      <c r="G120" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" t="s">
+        <v>25</v>
+      </c>
+      <c r="I120" t="s">
+        <v>26</v>
+      </c>
+      <c r="J120" t="s">
+        <v>27</v>
+      </c>
+      <c r="L120" t="s">
+        <v>357</v>
+      </c>
+      <c r="M120" t="s">
+        <v>29</v>
+      </c>
+      <c r="N120" t="s">
+        <v>30</v>
+      </c>
+      <c r="O120">
+        <v>20</v>
+      </c>
+      <c r="P120" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>32</v>
+      </c>
+      <c r="R120" t="s">
+        <v>33</v>
+      </c>
+      <c r="T120" t="s">
+        <v>34</v>
+      </c>
+      <c r="U120" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" t="s">
+        <v>25</v>
+      </c>
+      <c r="I121" t="s">
+        <v>26</v>
+      </c>
+      <c r="J121" t="s">
+        <v>27</v>
+      </c>
+      <c r="L121" t="s">
+        <v>358</v>
+      </c>
+      <c r="M121" t="s">
+        <v>29</v>
+      </c>
+      <c r="N121" t="s">
+        <v>30</v>
+      </c>
+      <c r="O121">
+        <v>21</v>
+      </c>
+      <c r="P121" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>32</v>
+      </c>
+      <c r="R121" t="s">
+        <v>33</v>
+      </c>
+      <c r="T121" t="s">
+        <v>34</v>
+      </c>
+      <c r="U121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" t="s">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s">
+        <v>24</v>
+      </c>
+      <c r="H122" t="s">
+        <v>25</v>
+      </c>
+      <c r="I122" t="s">
+        <v>26</v>
+      </c>
+      <c r="J122" t="s">
+        <v>27</v>
+      </c>
+      <c r="L122" t="s">
+        <v>359</v>
+      </c>
+      <c r="M122" t="s">
+        <v>29</v>
+      </c>
+      <c r="N122" t="s">
+        <v>30</v>
+      </c>
+      <c r="O122">
+        <v>22</v>
+      </c>
+      <c r="P122" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>32</v>
+      </c>
+      <c r="R122" t="s">
+        <v>33</v>
+      </c>
+      <c r="T122" t="s">
+        <v>34</v>
+      </c>
+      <c r="U122" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s">
+        <v>24</v>
+      </c>
+      <c r="H123" t="s">
+        <v>25</v>
+      </c>
+      <c r="I123" t="s">
+        <v>26</v>
+      </c>
+      <c r="J123" t="s">
+        <v>27</v>
+      </c>
+      <c r="L123" t="s">
+        <v>360</v>
+      </c>
+      <c r="M123" t="s">
+        <v>29</v>
+      </c>
+      <c r="N123" t="s">
+        <v>30</v>
+      </c>
+      <c r="O123">
+        <v>23</v>
+      </c>
+      <c r="P123" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>32</v>
+      </c>
+      <c r="R123" t="s">
+        <v>33</v>
+      </c>
+      <c r="T123" t="s">
+        <v>34</v>
+      </c>
+      <c r="U123" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" t="s">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" t="s">
+        <v>25</v>
+      </c>
+      <c r="I124" t="s">
+        <v>26</v>
+      </c>
+      <c r="J124" t="s">
+        <v>27</v>
+      </c>
+      <c r="L124" t="s">
+        <v>361</v>
+      </c>
+      <c r="M124" t="s">
+        <v>29</v>
+      </c>
+      <c r="N124" t="s">
+        <v>30</v>
+      </c>
+      <c r="O124">
+        <v>24</v>
+      </c>
+      <c r="P124" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>32</v>
+      </c>
+      <c r="R124" t="s">
+        <v>33</v>
+      </c>
+      <c r="T124" t="s">
+        <v>34</v>
+      </c>
+      <c r="U124" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" t="s">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s">
+        <v>24</v>
+      </c>
+      <c r="H125" t="s">
+        <v>25</v>
+      </c>
+      <c r="I125" t="s">
+        <v>26</v>
+      </c>
+      <c r="J125" t="s">
+        <v>27</v>
+      </c>
+      <c r="L125" t="s">
+        <v>362</v>
+      </c>
+      <c r="M125" t="s">
+        <v>29</v>
+      </c>
+      <c r="N125" t="s">
+        <v>30</v>
+      </c>
+      <c r="O125">
+        <v>25</v>
+      </c>
+      <c r="P125" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>32</v>
+      </c>
+      <c r="R125" t="s">
+        <v>33</v>
+      </c>
+      <c r="T125" t="s">
+        <v>34</v>
+      </c>
+      <c r="U125" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" t="s">
+        <v>23</v>
+      </c>
+      <c r="G126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" t="s">
+        <v>25</v>
+      </c>
+      <c r="I126" t="s">
+        <v>26</v>
+      </c>
+      <c r="J126" t="s">
+        <v>27</v>
+      </c>
+      <c r="L126" t="s">
+        <v>363</v>
+      </c>
+      <c r="M126" t="s">
+        <v>29</v>
+      </c>
+      <c r="N126" t="s">
+        <v>30</v>
+      </c>
+      <c r="O126">
+        <v>26</v>
+      </c>
+      <c r="P126" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>32</v>
+      </c>
+      <c r="R126" t="s">
+        <v>33</v>
+      </c>
+      <c r="T126" t="s">
+        <v>34</v>
+      </c>
+      <c r="U126" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="G127" t="s">
+        <v>24</v>
+      </c>
+      <c r="H127" t="s">
+        <v>25</v>
+      </c>
+      <c r="I127" t="s">
+        <v>26</v>
+      </c>
+      <c r="J127" t="s">
+        <v>27</v>
+      </c>
+      <c r="L127" t="s">
+        <v>364</v>
+      </c>
+      <c r="M127" t="s">
+        <v>29</v>
+      </c>
+      <c r="N127" t="s">
+        <v>30</v>
+      </c>
+      <c r="O127">
+        <v>27</v>
+      </c>
+      <c r="P127" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>32</v>
+      </c>
+      <c r="R127" t="s">
+        <v>33</v>
+      </c>
+      <c r="T127" t="s">
+        <v>34</v>
+      </c>
+      <c r="U127" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" t="s">
+        <v>23</v>
+      </c>
+      <c r="G128" t="s">
+        <v>24</v>
+      </c>
+      <c r="H128" t="s">
+        <v>25</v>
+      </c>
+      <c r="I128" t="s">
+        <v>26</v>
+      </c>
+      <c r="J128" t="s">
+        <v>27</v>
+      </c>
+      <c r="L128" t="s">
+        <v>365</v>
+      </c>
+      <c r="M128" t="s">
+        <v>29</v>
+      </c>
+      <c r="N128" t="s">
+        <v>30</v>
+      </c>
+      <c r="O128">
+        <v>28</v>
+      </c>
+      <c r="P128" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>32</v>
+      </c>
+      <c r="R128" t="s">
+        <v>33</v>
+      </c>
+      <c r="T128" t="s">
+        <v>34</v>
+      </c>
+      <c r="U128" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" t="s">
+        <v>25</v>
+      </c>
+      <c r="I129" t="s">
+        <v>26</v>
+      </c>
+      <c r="J129" t="s">
+        <v>27</v>
+      </c>
+      <c r="L129" t="s">
+        <v>366</v>
+      </c>
+      <c r="M129" t="s">
+        <v>29</v>
+      </c>
+      <c r="N129" t="s">
+        <v>30</v>
+      </c>
+      <c r="O129">
+        <v>29</v>
+      </c>
+      <c r="P129" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>32</v>
+      </c>
+      <c r="R129" t="s">
+        <v>33</v>
+      </c>
+      <c r="T129" t="s">
+        <v>34</v>
+      </c>
+      <c r="U129" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" t="s">
+        <v>23</v>
+      </c>
+      <c r="G130" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" t="s">
+        <v>25</v>
+      </c>
+      <c r="I130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J130" t="s">
+        <v>27</v>
+      </c>
+      <c r="L130" t="s">
+        <v>367</v>
+      </c>
+      <c r="M130" t="s">
+        <v>29</v>
+      </c>
+      <c r="N130" t="s">
+        <v>30</v>
+      </c>
+      <c r="O130">
+        <v>30</v>
+      </c>
+      <c r="P130" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>32</v>
+      </c>
+      <c r="R130" t="s">
+        <v>33</v>
+      </c>
+      <c r="T130" t="s">
+        <v>34</v>
+      </c>
+      <c r="U130" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" t="s">
+        <v>23</v>
+      </c>
+      <c r="G131" t="s">
+        <v>24</v>
+      </c>
+      <c r="H131" t="s">
+        <v>368</v>
+      </c>
+      <c r="I131" t="s">
+        <v>369</v>
+      </c>
+      <c r="J131" t="s">
+        <v>370</v>
+      </c>
+      <c r="L131" t="s">
+        <v>371</v>
+      </c>
+      <c r="M131" t="s">
+        <v>372</v>
+      </c>
+      <c r="N131" t="s">
+        <v>373</v>
+      </c>
+      <c r="R131" t="s">
+        <v>374</v>
+      </c>
+      <c r="T131" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="s">
+        <v>23</v>
+      </c>
+      <c r="G132" t="s">
+        <v>24</v>
+      </c>
+      <c r="H132" t="s">
+        <v>376</v>
+      </c>
+      <c r="I132" t="s">
+        <v>377</v>
+      </c>
+      <c r="J132" t="s">
+        <v>378</v>
+      </c>
+      <c r="L132" t="s">
+        <v>379</v>
+      </c>
+      <c r="M132" t="s">
+        <v>380</v>
+      </c>
+      <c r="N132" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" t="s">
+        <v>23</v>
+      </c>
+      <c r="G133" t="s">
+        <v>24</v>
+      </c>
+      <c r="H133" t="s">
+        <v>382</v>
+      </c>
+      <c r="I133" t="s">
+        <v>377</v>
+      </c>
+      <c r="J133" t="s">
+        <v>378</v>
+      </c>
+      <c r="L133" t="s">
+        <v>383</v>
+      </c>
+      <c r="M133" t="s">
+        <v>380</v>
+      </c>
+      <c r="N133" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>24</v>
+      </c>
+      <c r="H134" t="s">
+        <v>385</v>
+      </c>
+      <c r="I134" t="s">
+        <v>377</v>
+      </c>
+      <c r="J134" t="s">
+        <v>378</v>
+      </c>
+      <c r="L134" t="s">
+        <v>386</v>
+      </c>
+      <c r="M134" t="s">
+        <v>380</v>
+      </c>
+      <c r="N134" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>24</v>
+      </c>
+      <c r="H135" t="s">
+        <v>388</v>
+      </c>
+      <c r="I135" t="s">
+        <v>377</v>
+      </c>
+      <c r="J135" t="s">
+        <v>378</v>
+      </c>
+      <c r="L135" t="s">
+        <v>389</v>
+      </c>
+      <c r="M135" t="s">
+        <v>380</v>
+      </c>
+      <c r="N135" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" t="s">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>24</v>
+      </c>
+      <c r="H136" t="s">
+        <v>391</v>
+      </c>
+      <c r="I136" t="s">
+        <v>377</v>
+      </c>
+      <c r="J136" t="s">
+        <v>378</v>
+      </c>
+      <c r="L136" t="s">
+        <v>392</v>
+      </c>
+      <c r="M136" t="s">
+        <v>380</v>
+      </c>
+      <c r="N136" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" t="s">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>24</v>
+      </c>
+      <c r="H137" t="s">
+        <v>394</v>
+      </c>
+      <c r="I137" t="s">
+        <v>395</v>
+      </c>
+      <c r="J137" t="s">
+        <v>378</v>
+      </c>
+      <c r="L137" t="s">
+        <v>396</v>
+      </c>
+      <c r="M137" t="s">
+        <v>380</v>
+      </c>
+      <c r="N137" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" t="s">
+        <v>398</v>
+      </c>
+      <c r="I138" t="s">
+        <v>395</v>
+      </c>
+      <c r="J138" t="s">
+        <v>378</v>
+      </c>
+      <c r="L138" t="s">
+        <v>399</v>
+      </c>
+      <c r="M138" t="s">
+        <v>380</v>
+      </c>
+      <c r="N138" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" t="s">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>24</v>
+      </c>
+      <c r="H139" t="s">
+        <v>401</v>
+      </c>
+      <c r="I139" t="s">
+        <v>395</v>
+      </c>
+      <c r="J139" t="s">
+        <v>378</v>
+      </c>
+      <c r="L139" t="s">
+        <v>402</v>
+      </c>
+      <c r="M139" t="s">
+        <v>380</v>
+      </c>
+      <c r="N139" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G140" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" t="s">
+        <v>404</v>
+      </c>
+      <c r="I140" t="s">
+        <v>395</v>
+      </c>
+      <c r="J140" t="s">
+        <v>378</v>
+      </c>
+      <c r="L140" t="s">
+        <v>405</v>
+      </c>
+      <c r="M140" t="s">
+        <v>380</v>
+      </c>
+      <c r="N140" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" t="s">
+        <v>23</v>
+      </c>
+      <c r="G141" t="s">
+        <v>24</v>
+      </c>
+      <c r="H141" t="s">
+        <v>407</v>
+      </c>
+      <c r="I141" t="s">
+        <v>395</v>
+      </c>
+      <c r="J141" t="s">
+        <v>378</v>
+      </c>
+      <c r="L141" t="s">
+        <v>408</v>
+      </c>
+      <c r="M141" t="s">
+        <v>380</v>
+      </c>
+      <c r="N141" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" t="s">
+        <v>23</v>
+      </c>
+      <c r="G142" t="s">
+        <v>24</v>
+      </c>
+      <c r="H142" t="s">
+        <v>410</v>
+      </c>
+      <c r="I142" t="s">
+        <v>411</v>
+      </c>
+      <c r="J142" t="s">
+        <v>378</v>
+      </c>
+      <c r="L142" t="s">
+        <v>412</v>
+      </c>
+      <c r="M142" t="s">
+        <v>380</v>
+      </c>
+      <c r="N142" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" t="s">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s">
+        <v>24</v>
+      </c>
+      <c r="H143" t="s">
+        <v>414</v>
+      </c>
+      <c r="I143" t="s">
+        <v>411</v>
+      </c>
+      <c r="J143" t="s">
+        <v>378</v>
+      </c>
+      <c r="L143" t="s">
+        <v>415</v>
+      </c>
+      <c r="M143" t="s">
+        <v>380</v>
+      </c>
+      <c r="N143" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" t="s">
+        <v>23</v>
+      </c>
+      <c r="G144" t="s">
+        <v>24</v>
+      </c>
+      <c r="H144" t="s">
+        <v>417</v>
+      </c>
+      <c r="I144" t="s">
+        <v>411</v>
+      </c>
+      <c r="J144" t="s">
+        <v>378</v>
+      </c>
+      <c r="L144" t="s">
+        <v>418</v>
+      </c>
+      <c r="M144" t="s">
+        <v>380</v>
+      </c>
+      <c r="N144" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" t="s">
+        <v>23</v>
+      </c>
+      <c r="G145" t="s">
+        <v>24</v>
+      </c>
+      <c r="H145" t="s">
+        <v>420</v>
+      </c>
+      <c r="I145" t="s">
+        <v>411</v>
+      </c>
+      <c r="J145" t="s">
+        <v>378</v>
+      </c>
+      <c r="L145" t="s">
+        <v>421</v>
+      </c>
+      <c r="M145" t="s">
+        <v>380</v>
+      </c>
+      <c r="N145" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" t="s">
+        <v>23</v>
+      </c>
+      <c r="G146" t="s">
+        <v>24</v>
+      </c>
+      <c r="H146" t="s">
+        <v>423</v>
+      </c>
+      <c r="I146" t="s">
+        <v>411</v>
+      </c>
+      <c r="J146" t="s">
+        <v>378</v>
+      </c>
+      <c r="L146" t="s">
+        <v>424</v>
+      </c>
+      <c r="M146" t="s">
+        <v>380</v>
+      </c>
+      <c r="N146" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" t="s">
+        <v>23</v>
+      </c>
+      <c r="G147" t="s">
+        <v>24</v>
+      </c>
+      <c r="H147" t="s">
+        <v>36</v>
+      </c>
+      <c r="I147" t="s">
+        <v>37</v>
+      </c>
+      <c r="J147" t="s">
+        <v>38</v>
+      </c>
+      <c r="L147" t="s">
+        <v>426</v>
+      </c>
+      <c r="M147" t="s">
+        <v>427</v>
+      </c>
+      <c r="N147" t="s">
+        <v>428</v>
+      </c>
+      <c r="O147">
+        <v>2</v>
+      </c>
+      <c r="P147" t="s">
+        <v>429</v>
+      </c>
+      <c r="R147" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" t="s">
+        <v>23</v>
+      </c>
+      <c r="G148" t="s">
+        <v>24</v>
+      </c>
+      <c r="H148" t="s">
+        <v>98</v>
+      </c>
+      <c r="I148" t="s">
+        <v>99</v>
+      </c>
+      <c r="J148" t="s">
+        <v>100</v>
+      </c>
+      <c r="L148" t="s">
+        <v>431</v>
+      </c>
+      <c r="M148" t="s">
+        <v>47</v>
+      </c>
+      <c r="N148" t="s">
+        <v>432</v>
+      </c>
+      <c r="O148">
         <v>1</v>
       </c>
-      <c r="P97" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>222</v>
-      </c>
-      <c r="R97" t="s">
-        <v>223</v>
+      <c r="P148" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>129</v>
+      </c>
+      <c r="R148" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" t="s">
+        <v>23</v>
+      </c>
+      <c r="G149" t="s">
+        <v>24</v>
+      </c>
+      <c r="H149" t="s">
+        <v>98</v>
+      </c>
+      <c r="I149" t="s">
+        <v>99</v>
+      </c>
+      <c r="J149" t="s">
+        <v>100</v>
+      </c>
+      <c r="L149" t="s">
+        <v>435</v>
+      </c>
+      <c r="M149" t="s">
+        <v>47</v>
+      </c>
+      <c r="N149" t="s">
+        <v>436</v>
+      </c>
+      <c r="O149">
+        <v>3</v>
+      </c>
+      <c r="P149" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>438</v>
+      </c>
+      <c r="R149" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G150" t="s">
+        <v>24</v>
+      </c>
+      <c r="H150" t="s">
+        <v>98</v>
+      </c>
+      <c r="I150" t="s">
+        <v>99</v>
+      </c>
+      <c r="J150" t="s">
+        <v>100</v>
+      </c>
+      <c r="L150" t="s">
+        <v>440</v>
+      </c>
+      <c r="M150" t="s">
+        <v>47</v>
+      </c>
+      <c r="N150" t="s">
+        <v>441</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+      <c r="P150" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>129</v>
+      </c>
+      <c r="R150" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" t="s">
+        <v>23</v>
+      </c>
+      <c r="G151" t="s">
+        <v>24</v>
+      </c>
+      <c r="H151" t="s">
+        <v>98</v>
+      </c>
+      <c r="I151" t="s">
+        <v>99</v>
+      </c>
+      <c r="J151" t="s">
+        <v>100</v>
+      </c>
+      <c r="L151" t="s">
+        <v>443</v>
+      </c>
+      <c r="M151" t="s">
+        <v>444</v>
+      </c>
+      <c r="N151" t="s">
+        <v>445</v>
+      </c>
+      <c r="O151">
+        <v>3</v>
+      </c>
+      <c r="P151" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>438</v>
+      </c>
+      <c r="R151" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
   <si>
     <t>orch_session_id</t>
   </si>
@@ -96,7 +96,7 @@
     <t>screening_20240307</t>
   </si>
   <si>
-    <t>481f10b4-cd99-4b23-93a5-7489ce870b04</t>
+    <t>18f35809-12c4-4686-bbbd-d3340cce7601</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -120,7 +120,7 @@
     <t>Resolved By QE/QCS</t>
   </si>
   <si>
-    <t>725063b3-1885-45ae-aff9-2e6bd8f6fa22</t>
+    <t>8f722592-e71d-4b05-8e7c-3b30bef89e70</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -138,7 +138,28 @@
     <t>Please be sure to provide both a valid date and time.</t>
   </si>
   <si>
-    <t>34153260-498c-46a7-9c8d-ab23938ebd92</t>
+    <t>34df525a-32e5-493c-a1f4-d3408ee4c4d7</t>
+  </si>
+  <si>
+    <t>Invalid Answer Code</t>
+  </si>
+  <si>
+    <t>Provided Screening Code "97023-6", Question Code "76513-1" and Answer Code "LA15832-1" are not matching with the reference data found in ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>LA15832-1</t>
+  </si>
+  <si>
+    <t>Validate Screening Code, Question Code and Answer Code with ahc cross walk reference data</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>9469f810-0689-4da8-a980-621368c15427</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -165,7 +186,7 @@
     <t>admin_demographics_20240307</t>
   </si>
   <si>
-    <t>17e46a23-a697-4043-bc33-e30596cdae18</t>
+    <t>d472a582-0b4b-4120-aed9-301962c39103</t>
   </si>
   <si>
     <t>Combination Not Matching</t>
@@ -183,7 +204,7 @@
     <t>The RACE_CODE "1142-9" of RACE_CODE_DESCRIPTION "Coquille" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>8abd09af-226b-4928-b4c1-a6afca579387</t>
+    <t>99b97686-23ad-4866-8dff-640d5ed58c09</t>
   </si>
   <si>
     <t>Invalid RACE CODE DESCRIPTION</t>
@@ -201,16 +222,25 @@
     <t>Validate RACE CODE DESCRIPTION with race reference data</t>
   </si>
   <si>
-    <t>ef32c36c-2209-47a3-a65b-39f79ad75df2</t>
-  </si>
-  <si>
-    <t>53c46e3a-f3ac-4a95-be53-34c9177a5658</t>
-  </si>
-  <si>
-    <t>a4de61bb-3f0d-486b-8c32-b9538ccf705b</t>
-  </si>
-  <si>
-    <t>601caf32-c678-4072-93d5-9633dc8d7229</t>
+    <t>a5a1d6bc-2ea0-4cc6-92e3-089e1bd9f240</t>
+  </si>
+  <si>
+    <t>7e822635-51ee-4273-8f34-a21a0784dd9b</t>
+  </si>
+  <si>
+    <t>dcdf57ff-b96c-4048-9640-bbf1db7f854d</t>
+  </si>
+  <si>
+    <t>Provided Screening Code "97023-6", Question Code "96842-0" and Answer Code "LA18891-4" are not matching with the reference data found in ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>LA18891-4</t>
+  </si>
+  <si>
+    <t>24e6e0e4-6c11-4ee1-9563-7c926f8e8790</t>
+  </si>
+  <si>
+    <t>7e505f38-0a8a-4f62-ac05-885d80f954fb</t>
   </si>
   <si>
     <t>Invalid value "Coquille" found in RACE_CODE_DESCRIPTION</t>
@@ -219,13 +249,22 @@
     <t>The RACE_CODE_DESCRIPTION "Coquille" of RACE_CODE "1142-9" is not matching with the RACE_CODE_DESCRIPTION of RACE_CODE in reference data</t>
   </si>
   <si>
-    <t>ef0e5961-771f-4527-91b3-268b24bcab46</t>
-  </si>
-  <si>
-    <t>dae62392-8bcc-4e42-93f1-050d931c776e</t>
-  </si>
-  <si>
-    <t>b9098e43-9b36-44fe-ae27-e921dbaf5404</t>
+    <t>4444bdac-5b7c-477f-9753-084dbdcd4494</t>
+  </si>
+  <si>
+    <t>2eb16b50-6b3b-48ce-9cca-c9faed6f1cae</t>
+  </si>
+  <si>
+    <t>0f976ad7-b6ef-4794-a7a9-898954b41f6f</t>
+  </si>
+  <si>
+    <t>Provided Screening Code "97023-6", Question Code "44255-8" and Answer Code "LA6569-3" are not matching with the reference data found in ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>LA6569-3</t>
+  </si>
+  <si>
+    <t>63caee03-619a-45e0-9b8b-adc8582bcd94</t>
   </si>
   <si>
     <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA','yes','no','na')</t>
@@ -237,244 +276,394 @@
     <t>Use only allowed values 'Yes','No','NA','yes','no','na' in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>5468987f-da3a-41f5-b548-7b22322ec567</t>
-  </si>
-  <si>
-    <t>5d53a425-3626-4c9c-8234-1558d283188d</t>
-  </si>
-  <si>
-    <t>6f9283d5-6f62-4fa0-9db4-e82258d88192</t>
-  </si>
-  <si>
-    <t>a542031a-7503-4e4b-81f5-81f3cb48399f</t>
-  </si>
-  <si>
-    <t>83b14e92-08a3-4434-8dfa-a90daa028499</t>
-  </si>
-  <si>
-    <t>cf2b2d62-cb1d-4dc7-8ab6-c5b55052c63b</t>
-  </si>
-  <si>
-    <t>1900736b-3e22-48f1-bc7d-6a5e12044d2e</t>
-  </si>
-  <si>
-    <t>60f77b66-807a-43d5-a5e8-a02406ca2c12</t>
-  </si>
-  <si>
-    <t>bbf8f5c2-28c4-464d-b9df-e49f78462eec</t>
-  </si>
-  <si>
-    <t>fd9363fe-2568-4338-8032-3fa1d810704f</t>
-  </si>
-  <si>
-    <t>ede7ed4e-0164-45c6-a95f-4ba88e31f225</t>
-  </si>
-  <si>
-    <t>a85ba9b7-35d8-4266-8a39-cd33cbf7c07a</t>
-  </si>
-  <si>
-    <t>a66b802d-3886-4677-99c9-5507c7f0fd39</t>
-  </si>
-  <si>
-    <t>6f5e2502-81cb-4198-9d0a-ca966a3b5e1b</t>
-  </si>
-  <si>
-    <t>3b69cda1-7385-4d59-8265-b6c105574f99</t>
-  </si>
-  <si>
-    <t>5ec6a1b1-7855-450f-8e56-9861ce5368b2</t>
-  </si>
-  <si>
-    <t>af907aea-680d-4156-9742-bc8be73255f7</t>
-  </si>
-  <si>
-    <t>60a8df12-3026-4e45-a78d-14ba460ce71e</t>
+    <t>62f5530c-c0db-4c70-bff3-9ec6eda6e377</t>
+  </si>
+  <si>
+    <t>7f3ae49e-8eca-44cf-ad21-5db6632fc78c</t>
+  </si>
+  <si>
+    <t>0a20d09e-6a2e-4344-a426-810035742d85</t>
+  </si>
+  <si>
+    <t>Provided Screening Code "97023-6", Question Code "96781-0" and Answer Code "LA31979-0" are not matching with the reference data found in ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>LA31979-0</t>
+  </si>
+  <si>
+    <t>19c1da9c-6315-4dc3-8a3a-3233bf564ac7</t>
+  </si>
+  <si>
+    <t>0db7fcac-77b7-4a7f-935a-345e23e9c06b</t>
+  </si>
+  <si>
+    <t>8c076cf1-86de-4ced-9141-c0c840179a1c</t>
+  </si>
+  <si>
+    <t>34dc9014-4813-4f8d-895d-4cc2c4b67ecd</t>
+  </si>
+  <si>
+    <t>Provided Screening Code "97023-6", Question Code "68524-8" and Answer Code "LA6270-8" are not matching with the reference data found in ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>LA6270-8</t>
+  </si>
+  <si>
+    <t>d3548573-63d9-4acb-9f4d-62480f2f062f</t>
+  </si>
+  <si>
+    <t>40ccd34a-ee04-42d0-88bf-9924dcce854f</t>
+  </si>
+  <si>
+    <t>6e724ffc-e219-4a40-8274-99d395a9535d</t>
+  </si>
+  <si>
+    <t>64045e52-a909-480a-8f12-c0061b176955</t>
+  </si>
+  <si>
+    <t>Provided Screening Code "97023-6", Question Code "68517-2" and Answer Code "LA6270-8" are not matching with the reference data found in ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>d76bab4a-fdd5-4fbf-b79a-933e0c7671a7</t>
+  </si>
+  <si>
+    <t>68c2108d-5bb5-4e34-b61f-b79c5d70fa26</t>
+  </si>
+  <si>
+    <t>d48bed29-3aa3-470d-be47-9ad4c18faebd</t>
+  </si>
+  <si>
+    <t>43a1abc9-008f-4814-81a1-71913afd2058</t>
+  </si>
+  <si>
+    <t>Provided Screening Code "97023-6", Question Code "69858-9" and Answer Code "LA33-6" are not matching with the reference data found in ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>LA33-6</t>
+  </si>
+  <si>
+    <t>5e06ffda-e146-47b2-9952-13162bc2bc03</t>
+  </si>
+  <si>
+    <t>94f35b70-8d70-4fd5-b908-5633abda107d</t>
+  </si>
+  <si>
+    <t>f95afc54-2829-4f35-8e00-c19f919bdec2</t>
+  </si>
+  <si>
+    <t>709eec19-a26d-45ac-9753-d3a33b8e797d</t>
+  </si>
+  <si>
+    <t>Provided Screening Code "97023-6", Question Code "68516-4" and Answer Code "LA28853-2" are not matching with the reference data found in ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>LA28853-2</t>
+  </si>
+  <si>
+    <t>f7789803-62b8-4452-a9e1-d3572387d7d1</t>
+  </si>
+  <si>
+    <t>f6fed19c-f5a7-4374-b3c6-258c13e874ce</t>
+  </si>
+  <si>
+    <t>236a2fda-352f-43ad-b215-7eb27b90aadf</t>
+  </si>
+  <si>
+    <t>2f69b10c-cc49-4409-80bc-082acc5c4f94</t>
+  </si>
+  <si>
+    <t>Provided Screening Code "97023-6", Question Code "44250-9" and Answer Code "LA6571-9" are not matching with the reference data found in ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>LA6571-9</t>
+  </si>
+  <si>
+    <t>5cb54e2e-d74a-40f9-b3d4-1c89d634192a</t>
   </si>
   <si>
     <t>Invalid value in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
+    <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "68517-2" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Validate Potential Need Indicated, Screening Code, Question Code and Answer Code with ahc cross walk reference data</t>
+  </si>
+  <si>
+    <t>1f7c0114-dadb-463e-8e44-1fbe90dd1b19</t>
+  </si>
+  <si>
+    <t>9d2dbdfa-baa8-4b8f-b757-b2b7b6e859aa</t>
+  </si>
+  <si>
+    <t>1cf085f6-f7f2-4a9a-9103-82afdbc40947</t>
+  </si>
+  <si>
+    <t>Provided Screening Code "97023-6", Question Code "93038-8" and Answer Code "LA13902-4" are not matching with the reference data found in ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>LA13902-4</t>
+  </si>
+  <si>
+    <t>3c1521f8-b6e4-427c-a394-db4da2243e49</t>
+  </si>
+  <si>
     <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44255-8" and Answer Code "LA6569-3" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
     <t>NULL</t>
   </si>
   <si>
-    <t>Validate Potential Need Indicated, Screening Code, Question Code and Answer Code with ahc cross walk reference data</t>
-  </si>
-  <si>
-    <t>884fd61d-3a92-43bd-89fe-b354079addae</t>
-  </si>
-  <si>
-    <t>9eb0157a-5765-4b02-837a-e68f9eb4fbaa</t>
-  </si>
-  <si>
-    <t>8742ea44-756f-44e9-9871-54193263ce52</t>
+    <t>282f9cca-a8d2-4563-93cf-0cf65e5862a4</t>
+  </si>
+  <si>
+    <t>ac11819e-1046-4c6b-9cee-811a34370e23</t>
+  </si>
+  <si>
+    <t>d87c1376-2c74-4ecb-8be1-d299e418fb9f</t>
+  </si>
+  <si>
+    <t>Provided Screening Code "97023-6", Question Code "97027-7" and Answer Code "LA32-8" are not matching with the reference data found in ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>LA32-8</t>
+  </si>
+  <si>
+    <t>11939701-a721-4067-b850-70c0dd57d1ec</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "69858-9" and Answer Code "LA33-6" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>a0d31bb3-d1d2-4ba0-a1ea-e4bd750b3203</t>
+  </si>
+  <si>
+    <t>dc1b16bd-486e-437e-af94-42d64fc92142</t>
+  </si>
+  <si>
+    <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
+  </si>
+  <si>
+    <t>03/05/94 13:08</t>
+  </si>
+  <si>
+    <t>fea8e7fe-4105-4b7d-baba-0edae95646fc</t>
+  </si>
+  <si>
+    <t>Provided Screening Code "97023-6", Question Code "69861-3" and Answer Code "LA32-8" are not matching with the reference data found in ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>ddf2813a-fdb5-4e49-a5f3-f7f2072248ff</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95618-5" and Answer Code "LA10066-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>3f644288-c91d-4fd9-bd3d-748f8e94ae7e</t>
-  </si>
-  <si>
-    <t>db37e3f5-e8b0-423e-a492-8ee2639c7f5e</t>
-  </si>
-  <si>
-    <t>235ef861-ede7-432d-8362-b1d3876c120b</t>
+    <t>7119a7e7-526f-4987-bb34-7970ea26bf71</t>
+  </si>
+  <si>
+    <t>8a1b8e04-b5d7-483c-ab60-c1f3410bc1d5</t>
+  </si>
+  <si>
+    <t>6ef5e26d-765d-47a9-9999-21e06c523cac</t>
+  </si>
+  <si>
+    <t>Provided Screening Code "97023-6", Question Code "93159-2" and Answer Code "LA10044-8" are not matching with the reference data found in ANSWER_CODE</t>
+  </si>
+  <si>
+    <t>LA10044-8</t>
+  </si>
+  <si>
+    <t>f0ea9208-cd26-46f9-834e-45a440999929</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "68524-8" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>c5d16bf4-bb77-43cd-812a-6d03dfa11f7f</t>
+  </si>
+  <si>
+    <t>b4c3394d-c042-442a-b2a7-11431727dc25</t>
+  </si>
+  <si>
+    <t>929c2fcb-5731-44f2-9eb8-038715fd63fc</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95615-1" and Answer Code "LA10082-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>12e8afe0-6e73-4f9f-b7ec-4c97a1087c36</t>
-  </si>
-  <si>
-    <t>c786fe15-cdd7-44ec-ab54-52186cdbf3e0</t>
-  </si>
-  <si>
-    <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
-  </si>
-  <si>
-    <t>03/05/94 13:08</t>
-  </si>
-  <si>
-    <t>62b3f17a-673a-4665-8a00-38e954b32b79</t>
+    <t>f0f97103-6f38-454e-bc3e-40ce70a0b180</t>
+  </si>
+  <si>
+    <t>9d15cc56-53a0-4f08-8f71-84d9ace82416</t>
+  </si>
+  <si>
+    <t>6ef391fa-a23f-455c-8dab-8064d32bf49a</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "76513-1" and Answer Code "LA15832-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>69a287c0-495c-436c-9baa-ecbb3c0c6ed9</t>
+  </si>
+  <si>
+    <t>c75c1085-b113-44f2-899f-00dc17008432</t>
+  </si>
+  <si>
+    <t>fb1122ca-f6d0-484d-8b96-749b2c8a2ca0</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95616-9" and Answer Code "LA16644-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>72d475b3-ae64-43c4-953b-0fe5dd2e411e</t>
-  </si>
-  <si>
-    <t>3caa67b5-318d-4cf9-ac1e-67a21f4068ed</t>
-  </si>
-  <si>
-    <t>f3d80a8b-a8da-420b-a807-e65037e1cb56</t>
+    <t>4271086d-1f1f-4de4-b2e3-163b0b5e7394</t>
+  </si>
+  <si>
+    <t>d64ad7a4-5762-4705-bf1e-b6231cf8a93d</t>
+  </si>
+  <si>
+    <t>8853e600-59db-4081-8fd0-0cffca526a10</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "97027-7" and Answer Code "LA32-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>5c699d09-afbb-469b-b3d1-642593c37da1</t>
+  </si>
+  <si>
+    <t>cf02082d-2405-4ea6-970a-644bb7d43823</t>
+  </si>
+  <si>
+    <t>5394fdb4-8b40-4961-9202-90aae64dfc85</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "68516-4" and Answer Code "LA28853-2" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>5a08169a-9aeb-47a8-929b-5d86bfc8850a</t>
-  </si>
-  <si>
-    <t>3a5b3331-f111-45fd-a5c6-05a275bb21d2</t>
-  </si>
-  <si>
-    <t>900e4857-2614-45d0-b46d-a48416e5fcab</t>
+    <t>2a595655-da66-406d-935e-c15842bc23a2</t>
+  </si>
+  <si>
+    <t>87656cb0-b574-482f-ac26-30ecbbd14b53</t>
+  </si>
+  <si>
+    <t>89ba1e7a-413d-4c86-95d8-009fa86752ae</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95617-7" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>6fb3de51-edd2-4e88-9cd2-696c2fd7956d</t>
-  </si>
-  <si>
-    <t>00d80a06-c08c-4548-8b80-95df0d142759</t>
-  </si>
-  <si>
-    <t>4ff547a0-885e-475d-8d4b-4c2d0beea11f</t>
+    <t>7e47d60d-aa93-4e8f-b5b8-0d9aa55b98be</t>
+  </si>
+  <si>
+    <t>60fad860-feb1-44dd-9d68-204b54b96fdf</t>
+  </si>
+  <si>
+    <t>4923dc54-100a-4bd7-b9fc-5eb7867a65c3</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "96781-0" and Answer Code "LA31979-0" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>a6e60b9f-f570-4a9e-a956-4445459fc626</t>
+  </si>
+  <si>
+    <t>b895de91-8a9a-4acc-8aa3-2fe25f522190</t>
+  </si>
+  <si>
+    <t>f4ece211-1a3e-4dfc-ad7c-2b3d51d9c8e8</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44250-9" and Answer Code "LA6571-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>e97f7f93-7c93-4a9e-8c31-4d0d5838b780</t>
-  </si>
-  <si>
-    <t>9fd9fcda-0699-417a-b8ee-972c3c9b2000</t>
-  </si>
-  <si>
-    <t>1855a114-9aec-415f-8148-d27ad8f2230e</t>
+    <t>0915beef-3bbc-441c-879f-a289a92af788</t>
+  </si>
+  <si>
+    <t>488135a0-bb4d-4ed6-83d5-f70b845fbee6</t>
+  </si>
+  <si>
+    <t>fed6f6fb-6623-447b-9097-33574a0ac4d1</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "93159-2" and Answer Code "LA10044-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>c79ea32f-dc13-4c16-a1e9-ad997ca2ec2b</t>
+  </si>
+  <si>
+    <t>5dc2cd86-31e3-4cf3-b572-d50a6e61d877</t>
+  </si>
+  <si>
+    <t>3006a651-8a3b-4361-bbe4-bfd120b6d1a3</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "89555-7" and Answer Code "LA6113-0" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>25428cdb-1420-4584-8620-ed91e286bd97</t>
-  </si>
-  <si>
-    <t>5cb27015-86ac-4ead-9022-83805929aef4</t>
-  </si>
-  <si>
-    <t>ea72734f-1801-43d3-a05c-db5baef38f4a</t>
-  </si>
-  <si>
-    <t>42d44f9d-f624-4d81-a16e-8dac0e843f1d</t>
-  </si>
-  <si>
-    <t>0cfaeba4-f0ab-4fef-889a-f9203d8536ed</t>
-  </si>
-  <si>
-    <t>7867f405-48d1-48ef-b841-eeb503439532</t>
-  </si>
-  <si>
-    <t>67a539f1-f0f7-4624-b5a4-5e77bba1c538</t>
-  </si>
-  <si>
-    <t>30a20c06-195c-4605-8764-d0f30e0ca10c</t>
-  </si>
-  <si>
-    <t>7211ff68-49c5-4223-8f45-e48509b1a091</t>
-  </si>
-  <si>
-    <t>eaa39a0e-24b4-4b09-966e-6183faf7871b</t>
-  </si>
-  <si>
-    <t>37ea6ad2-21ef-4b40-9ec3-aad480d178c7</t>
-  </si>
-  <si>
-    <t>6400df63-4ead-425b-9698-68f6ab3dfa81</t>
-  </si>
-  <si>
-    <t>3ad914af-ff25-45b3-99e1-1317dcb3a30e</t>
-  </si>
-  <si>
-    <t>9c2471a0-ee2d-4b0e-a53f-2dffc113e398</t>
-  </si>
-  <si>
-    <t>c53a7a19-3aa3-4d91-b8a4-e0352a77f574</t>
-  </si>
-  <si>
-    <t>8b93acbd-1c6b-48e6-b353-cdf26b2ffb22</t>
-  </si>
-  <si>
-    <t>7c741fd7-d30d-4ae6-b61a-c14034052823</t>
-  </si>
-  <si>
-    <t>8d4c197a-6e0f-4c1f-b632-0be02f452a3a</t>
-  </si>
-  <si>
-    <t>968de1ef-e2aa-4398-a0a5-e9e2804f6f4a</t>
-  </si>
-  <si>
-    <t>42a15be3-524f-443c-a0bb-41fcde8aa3d0</t>
-  </si>
-  <si>
-    <t>7961f022-81f0-47be-ac06-a1d5bc265b73</t>
-  </si>
-  <si>
-    <t>2f655e19-84f0-4137-a961-b73bd0eb5cbb</t>
-  </si>
-  <si>
-    <t>342f2847-3c5e-42ad-910c-b734b4c4f2f4</t>
-  </si>
-  <si>
-    <t>995f498c-fbe9-4c25-994e-92fe6a979d6c</t>
-  </si>
-  <si>
-    <t>391fb7df-0183-4ccc-9795-99c10ec1f1fe</t>
-  </si>
-  <si>
-    <t>be5a23ba-8741-429d-bb4f-dd08e8f8a85d</t>
-  </si>
-  <si>
-    <t>fc75a53e-b5fe-4c3c-b919-de3371e0b26c</t>
-  </si>
-  <si>
-    <t>16ea1f59-c936-4b85-b59c-9ea59e7e3f63</t>
+    <t>72279112-c5c0-478f-b522-de27343bc6a8</t>
+  </si>
+  <si>
+    <t>3a2231ab-3981-40f4-b4c5-9b535203c6aa</t>
+  </si>
+  <si>
+    <t>092db5f5-d166-4475-8bb0-7a98b1d4115d</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "93038-8" and Answer Code "LA13902-4" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>73668bd9-3aad-4721-b4cd-50991f01b913</t>
+  </si>
+  <si>
+    <t>4f5be7f8-dfde-40f2-9a2a-9276690cf0b8</t>
+  </si>
+  <si>
+    <t>0ff813c8-6ca6-40d3-90e1-8a83aba8fe4c</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "69861-3" and Answer Code "LA32-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>566d1647-3598-4b8b-ad23-fa72324c716e</t>
+  </si>
+  <si>
+    <t>8a9ccda6-55ee-4185-a15e-4094c0cccd2a</t>
+  </si>
+  <si>
+    <t>ce68942c-1f9f-4753-8869-c8e4d2e6be80</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "96842-0" and Answer Code "LA18891-4" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>92560696-f8a5-4120-9b32-a1a03de932d1</t>
+  </si>
+  <si>
+    <t>634118ee-3d99-47d1-9721-7d60d8ab06ae</t>
+  </si>
+  <si>
+    <t>be5cd47c-eefc-4bd4-878c-030dadf60962</t>
+  </si>
+  <si>
+    <t>34a504bb-63b1-483c-a99a-378da6092009</t>
+  </si>
+  <si>
+    <t>11f01971-da61-48db-a254-621419a49660</t>
+  </si>
+  <si>
+    <t>e00b7b88-7675-478f-8490-655a8c8cbd33</t>
+  </si>
+  <si>
+    <t>7a70f0fc-6794-4521-b20e-e092d0f4b956</t>
+  </si>
+  <si>
+    <t>8c6da3ba-e511-4559-ad92-54518500e979</t>
   </si>
   <si>
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
@@ -627,7 +816,7 @@
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>09be894b-e174-452b-9162-543d63e7969b</t>
+    <t>26c90ffb-d623-406f-8808-67dc499faed9</t>
   </si>
   <si>
     <t>Mandatory field CONSENT is empty</t>
@@ -910,16 +1099,22 @@
         <v>44</v>
       </c>
       <c r="O4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P4" t="s">
         <v>45</v>
       </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
       <c r="R4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="U4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -936,37 +1131,34 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
         <v>49</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>50</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>51</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
         <v>52</v>
       </c>
-      <c r="N5" t="s">
+      <c r="R5" t="s">
         <v>53</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="T5" t="s">
         <v>54</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -983,34 +1175,34 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T6" t="s">
         <v>34</v>
@@ -1030,41 +1222,38 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="R7" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="T7" t="s">
         <v>34</v>
       </c>
-      <c r="U7" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1089,29 +1278,32 @@
         <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O8">
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T8" t="s">
         <v>34</v>
       </c>
+      <c r="U8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1136,25 +1328,28 @@
         <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O9">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>40</v>
       </c>
       <c r="R9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1171,37 +1366,40 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10">
+        <v>22</v>
+      </c>
+      <c r="P10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T10" t="s">
         <v>48</v>
       </c>
-      <c r="I10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" t="s">
-        <v>68</v>
-      </c>
-      <c r="T10" t="s">
-        <v>34</v>
+      <c r="U10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1227,31 +1425,25 @@
         <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M11" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>34</v>
-      </c>
-      <c r="U11" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -1268,34 +1460,34 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q12" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="R12" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s">
         <v>34</v>
@@ -1324,28 +1516,31 @@
         <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M13" t="s">
         <v>29</v>
       </c>
       <c r="N13" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="O13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q13" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="T13" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="U13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -1371,32 +1566,29 @@
         <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T14" t="s">
         <v>34</v>
       </c>
-      <c r="U14" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1421,28 +1613,31 @@
         <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="P15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q15" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="R15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="T15" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="U15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -1468,28 +1663,28 @@
         <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s">
         <v>29</v>
       </c>
       <c r="N16" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="O16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q16" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="R16" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="T16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
@@ -1515,7 +1710,7 @@
         <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="M17" t="s">
         <v>29</v>
@@ -1524,7 +1719,7 @@
         <v>30</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P17" t="s">
         <v>31</v>
@@ -1565,7 +1760,7 @@
         <v>27</v>
       </c>
       <c r="L18" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M18" t="s">
         <v>37</v>
@@ -1574,7 +1769,7 @@
         <v>38</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P18" t="s">
         <v>39</v>
@@ -1612,28 +1807,31 @@
         <v>27</v>
       </c>
       <c r="L19" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M19" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N19" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="O19">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P19" t="s">
         <v>45</v>
       </c>
       <c r="Q19" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="R19" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="T19" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="U19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -1659,31 +1857,28 @@
         <v>27</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="M20" t="s">
         <v>29</v>
       </c>
       <c r="N20" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="O20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P20" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="Q20" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="R20" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="T20" t="s">
-        <v>34</v>
-      </c>
-      <c r="U20" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
@@ -1709,29 +1904,32 @@
         <v>27</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="M21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N21" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T21" t="s">
         <v>34</v>
       </c>
+      <c r="U21" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1756,28 +1954,28 @@
         <v>27</v>
       </c>
       <c r="L22" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N22" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="O22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q22" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="R22" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="T22" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1803,28 +2001,28 @@
         <v>27</v>
       </c>
       <c r="L23" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N23" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="O23">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="P23" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q23" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="R23" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="T23" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="U23" t="s">
         <v>35</v>
@@ -1853,28 +2051,28 @@
         <v>27</v>
       </c>
       <c r="L24" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" t="s">
         <v>85</v>
       </c>
-      <c r="M24" t="s">
-        <v>37</v>
-      </c>
-      <c r="N24" t="s">
-        <v>38</v>
-      </c>
       <c r="O24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P24" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Q24" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="R24" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="T24" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
@@ -1900,28 +2098,31 @@
         <v>27</v>
       </c>
       <c r="L25" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="M25" t="s">
         <v>29</v>
       </c>
       <c r="N25" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="O25">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P25" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q25" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="T25" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="U25" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -1947,32 +2148,29 @@
         <v>27</v>
       </c>
       <c r="L26" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="M26" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N26" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P26" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q26" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T26" t="s">
         <v>34</v>
       </c>
-      <c r="U26" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1997,28 +2195,31 @@
         <v>27</v>
       </c>
       <c r="L27" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="M27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N27" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="O27">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="P27" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q27" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="R27" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="T27" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="U27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -2044,28 +2245,28 @@
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="M28" t="s">
         <v>29</v>
       </c>
       <c r="N28" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="O28">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q28" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="R28" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="T28" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
@@ -2091,7 +2292,7 @@
         <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="M29" t="s">
         <v>29</v>
@@ -2100,7 +2301,7 @@
         <v>30</v>
       </c>
       <c r="O29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P29" t="s">
         <v>31</v>
@@ -2141,7 +2342,7 @@
         <v>27</v>
       </c>
       <c r="L30" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="M30" t="s">
         <v>37</v>
@@ -2150,7 +2351,7 @@
         <v>38</v>
       </c>
       <c r="O30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P30" t="s">
         <v>39</v>
@@ -2188,28 +2389,31 @@
         <v>27</v>
       </c>
       <c r="L31" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="M31" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="N31" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="O31">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P31" t="s">
         <v>45</v>
       </c>
       <c r="Q31" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="R31" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="T31" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="U31" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -2235,31 +2439,28 @@
         <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="M32" t="s">
         <v>29</v>
       </c>
       <c r="N32" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="O32">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P32" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="Q32" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="R32" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="T32" t="s">
-        <v>34</v>
-      </c>
-      <c r="U32" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
@@ -2285,29 +2486,32 @@
         <v>27</v>
       </c>
       <c r="L33" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="M33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N33" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q33" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="R33" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T33" t="s">
         <v>34</v>
       </c>
+      <c r="U33" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2332,28 +2536,28 @@
         <v>27</v>
       </c>
       <c r="L34" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="M34" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="N34" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="O34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P34" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q34" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="R34" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="T34" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -2379,28 +2583,28 @@
         <v>27</v>
       </c>
       <c r="L35" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="M35" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N35" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="O35">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P35" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q35" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="R35" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="T35" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="U35" t="s">
         <v>35</v>
@@ -2429,28 +2633,28 @@
         <v>27</v>
       </c>
       <c r="L36" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="M36" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N36" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="O36">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P36" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Q36" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="R36" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="T36" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
@@ -2476,28 +2680,31 @@
         <v>27</v>
       </c>
       <c r="L37" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="M37" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="N37" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="O37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P37" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q37" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="R37" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="T37" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="U37" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -2523,32 +2730,29 @@
         <v>27</v>
       </c>
       <c r="L38" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="M38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N38" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O38">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q38" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R38" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T38" t="s">
         <v>34</v>
       </c>
-      <c r="U38" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -2573,28 +2777,31 @@
         <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="M39" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N39" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="O39">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="P39" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q39" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="R39" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="T39" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="U39" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40">
@@ -2620,28 +2827,28 @@
         <v>27</v>
       </c>
       <c r="L40" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M40" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="N40" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="O40">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="P40" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q40" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="R40" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="T40" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41">
@@ -2667,7 +2874,7 @@
         <v>27</v>
       </c>
       <c r="L41" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="M41" t="s">
         <v>29</v>
@@ -2676,7 +2883,7 @@
         <v>30</v>
       </c>
       <c r="O41">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P41" t="s">
         <v>31</v>
@@ -2717,22 +2924,22 @@
         <v>27</v>
       </c>
       <c r="L42" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="M42" t="s">
         <v>37</v>
       </c>
       <c r="N42" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="O42">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P42" t="s">
         <v>39</v>
       </c>
       <c r="Q42" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="R42" t="s">
         <v>41</v>
@@ -2764,28 +2971,31 @@
         <v>27</v>
       </c>
       <c r="L43" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="M43" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="N43" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="O43">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P43" t="s">
         <v>45</v>
       </c>
       <c r="Q43" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="R43" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="T43" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="U43" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="44">
@@ -2811,31 +3021,28 @@
         <v>27</v>
       </c>
       <c r="L44" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="M44" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="N44" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="O44">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="P44" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="Q44" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="R44" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="T44" t="s">
-        <v>34</v>
-      </c>
-      <c r="U44" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45">
@@ -2861,29 +3068,32 @@
         <v>27</v>
       </c>
       <c r="L45" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="M45" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N45" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="O45">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P45" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q45" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T45" t="s">
         <v>34</v>
       </c>
+      <c r="U45" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -2908,28 +3118,28 @@
         <v>27</v>
       </c>
       <c r="L46" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M46" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="N46" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="O46">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P46" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q46" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="R46" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="T46" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -2955,28 +3165,28 @@
         <v>27</v>
       </c>
       <c r="L47" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="M47" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N47" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="O47">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P47" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q47" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="R47" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="T47" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="U47" t="s">
         <v>35</v>
@@ -3005,28 +3215,28 @@
         <v>27</v>
       </c>
       <c r="L48" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M48" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="N48" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="O48">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="P48" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Q48" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="R48" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="T48" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49">
@@ -3052,28 +3262,31 @@
         <v>27</v>
       </c>
       <c r="L49" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="M49" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="N49" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="O49">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P49" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q49" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="R49" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="T49" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="U49" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="50">
@@ -3099,32 +3312,29 @@
         <v>27</v>
       </c>
       <c r="L50" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="M50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N50" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="O50">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P50" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q50" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="R50" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T50" t="s">
         <v>34</v>
       </c>
-      <c r="U50" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -3149,28 +3359,31 @@
         <v>27</v>
       </c>
       <c r="L51" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="M51" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N51" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="O51">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P51" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q51" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="R51" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="T51" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="U51" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="52">
@@ -3196,28 +3409,28 @@
         <v>27</v>
       </c>
       <c r="L52" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="M52" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="N52" t="s">
+        <v>150</v>
+      </c>
+      <c r="O52">
+        <v>7</v>
+      </c>
+      <c r="P52" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>86</v>
+      </c>
+      <c r="R52" t="s">
         <v>126</v>
       </c>
-      <c r="O52">
-        <v>18</v>
-      </c>
-      <c r="P52" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>73</v>
-      </c>
-      <c r="R52" t="s">
-        <v>96</v>
-      </c>
       <c r="T52" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
@@ -3243,7 +3456,7 @@
         <v>27</v>
       </c>
       <c r="L53" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="M53" t="s">
         <v>29</v>
@@ -3252,7 +3465,7 @@
         <v>30</v>
       </c>
       <c r="O53">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P53" t="s">
         <v>31</v>
@@ -3293,22 +3506,22 @@
         <v>27</v>
       </c>
       <c r="L54" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="M54" t="s">
         <v>37</v>
       </c>
       <c r="N54" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="O54">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P54" t="s">
         <v>39</v>
       </c>
       <c r="Q54" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="R54" t="s">
         <v>41</v>
@@ -3340,28 +3553,28 @@
         <v>27</v>
       </c>
       <c r="L55" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="M55" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N55" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="O55">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P55" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q55" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="R55" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="T55" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="U55" t="s">
         <v>35</v>
@@ -3390,28 +3603,28 @@
         <v>27</v>
       </c>
       <c r="L56" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="M56" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="N56" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="O56">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="P56" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Q56" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="R56" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="T56" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57">
@@ -3437,7 +3650,7 @@
         <v>27</v>
       </c>
       <c r="L57" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="M57" t="s">
         <v>29</v>
@@ -3446,7 +3659,7 @@
         <v>30</v>
       </c>
       <c r="O57">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P57" t="s">
         <v>31</v>
@@ -3487,22 +3700,22 @@
         <v>27</v>
       </c>
       <c r="L58" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="M58" t="s">
         <v>37</v>
       </c>
       <c r="N58" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="O58">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P58" t="s">
         <v>39</v>
       </c>
       <c r="Q58" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="R58" t="s">
         <v>41</v>
@@ -3534,31 +3747,28 @@
         <v>27</v>
       </c>
       <c r="L59" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="M59" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="N59" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="O59">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P59" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="Q59" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="R59" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="T59" t="s">
-        <v>34</v>
-      </c>
-      <c r="U59" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60">
@@ -3584,29 +3794,32 @@
         <v>27</v>
       </c>
       <c r="L60" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="M60" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N60" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="O60">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P60" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q60" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="R60" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T60" t="s">
         <v>34</v>
       </c>
+      <c r="U60" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -3631,32 +3844,29 @@
         <v>27</v>
       </c>
       <c r="L61" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="M61" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N61" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="O61">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P61" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q61" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="R61" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T61" t="s">
         <v>34</v>
       </c>
-      <c r="U61" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -3681,28 +3891,28 @@
         <v>27</v>
       </c>
       <c r="L62" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="M62" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="N62" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="O62">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P62" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Q62" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="R62" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="T62" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63">
@@ -3728,7 +3938,7 @@
         <v>27</v>
       </c>
       <c r="L63" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="M63" t="s">
         <v>29</v>
@@ -3737,7 +3947,7 @@
         <v>30</v>
       </c>
       <c r="O63">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P63" t="s">
         <v>31</v>
@@ -3778,22 +3988,22 @@
         <v>27</v>
       </c>
       <c r="L64" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="M64" t="s">
         <v>37</v>
       </c>
       <c r="N64" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="O64">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P64" t="s">
         <v>39</v>
       </c>
       <c r="Q64" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="R64" t="s">
         <v>41</v>
@@ -3825,31 +4035,28 @@
         <v>27</v>
       </c>
       <c r="L65" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="M65" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="N65" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="O65">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="P65" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="Q65" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="R65" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="T65" t="s">
-        <v>34</v>
-      </c>
-      <c r="U65" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66">
@@ -3875,29 +4082,32 @@
         <v>27</v>
       </c>
       <c r="L66" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="M66" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N66" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="O66">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P66" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q66" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="R66" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T66" t="s">
         <v>34</v>
       </c>
+      <c r="U66" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -3922,32 +4132,29 @@
         <v>27</v>
       </c>
       <c r="L67" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="M67" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N67" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="O67">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P67" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q67" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="R67" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T67" t="s">
         <v>34</v>
       </c>
-      <c r="U67" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -3972,28 +4179,28 @@
         <v>27</v>
       </c>
       <c r="L68" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="M68" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="N68" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="O68">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P68" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Q68" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="R68" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="T68" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69">
@@ -4019,7 +4226,7 @@
         <v>27</v>
       </c>
       <c r="L69" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="M69" t="s">
         <v>29</v>
@@ -4028,7 +4235,7 @@
         <v>30</v>
       </c>
       <c r="O69">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P69" t="s">
         <v>31</v>
@@ -4069,22 +4276,22 @@
         <v>27</v>
       </c>
       <c r="L70" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="M70" t="s">
         <v>37</v>
       </c>
       <c r="N70" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="O70">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P70" t="s">
         <v>39</v>
       </c>
       <c r="Q70" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="R70" t="s">
         <v>41</v>
@@ -4116,31 +4323,28 @@
         <v>27</v>
       </c>
       <c r="L71" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="M71" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="N71" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="O71">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P71" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="Q71" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="R71" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="T71" t="s">
-        <v>34</v>
-      </c>
-      <c r="U71" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72">
@@ -4166,29 +4370,32 @@
         <v>27</v>
       </c>
       <c r="L72" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="M72" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N72" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="O72">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P72" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q72" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="R72" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T72" t="s">
         <v>34</v>
       </c>
+      <c r="U72" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -4213,32 +4420,29 @@
         <v>27</v>
       </c>
       <c r="L73" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="M73" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N73" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="O73">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="P73" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q73" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="R73" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T73" t="s">
         <v>34</v>
       </c>
-      <c r="U73" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -4263,28 +4467,28 @@
         <v>27</v>
       </c>
       <c r="L74" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="M74" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="N74" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="O74">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="P74" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Q74" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="R74" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="T74" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75">
@@ -4310,7 +4514,7 @@
         <v>27</v>
       </c>
       <c r="L75" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M75" t="s">
         <v>29</v>
@@ -4319,7 +4523,7 @@
         <v>30</v>
       </c>
       <c r="O75">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P75" t="s">
         <v>31</v>
@@ -4360,22 +4564,22 @@
         <v>27</v>
       </c>
       <c r="L76" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="M76" t="s">
         <v>37</v>
       </c>
       <c r="N76" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="O76">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P76" t="s">
         <v>39</v>
       </c>
       <c r="Q76" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="R76" t="s">
         <v>41</v>
@@ -4407,31 +4611,28 @@
         <v>27</v>
       </c>
       <c r="L77" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="M77" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="N77" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="O77">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P77" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="Q77" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="R77" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="T77" t="s">
-        <v>34</v>
-      </c>
-      <c r="U77" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78">
@@ -4457,29 +4658,32 @@
         <v>27</v>
       </c>
       <c r="L78" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="M78" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N78" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="O78">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P78" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q78" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="R78" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T78" t="s">
         <v>34</v>
       </c>
+      <c r="U78" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -4504,32 +4708,29 @@
         <v>27</v>
       </c>
       <c r="L79" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="M79" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N79" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="O79">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P79" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q79" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="R79" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T79" t="s">
         <v>34</v>
       </c>
-      <c r="U79" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -4554,28 +4755,28 @@
         <v>27</v>
       </c>
       <c r="L80" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="M80" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="N80" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="O80">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P80" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Q80" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="R80" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="T80" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81">
@@ -4592,25 +4793,40 @@
         <v>24</v>
       </c>
       <c r="H81" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="I81" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="J81" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L81" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="M81" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="N81" t="s">
-        <v>160</v>
+        <v>30</v>
+      </c>
+      <c r="O81">
+        <v>22</v>
+      </c>
+      <c r="P81" t="s">
+        <v>31</v>
       </c>
       <c r="Q81" t="s">
-        <v>156</v>
+        <v>32</v>
+      </c>
+      <c r="R81" t="s">
+        <v>33</v>
+      </c>
+      <c r="T81" t="s">
+        <v>34</v>
+      </c>
+      <c r="U81" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="82">
@@ -4627,25 +4843,37 @@
         <v>24</v>
       </c>
       <c r="H82" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="I82" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="J82" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L82" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="M82" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="N82" t="s">
-        <v>163</v>
+        <v>145</v>
+      </c>
+      <c r="O82">
+        <v>22</v>
+      </c>
+      <c r="P82" t="s">
+        <v>39</v>
       </c>
       <c r="Q82" t="s">
-        <v>156</v>
+        <v>146</v>
+      </c>
+      <c r="R82" t="s">
+        <v>41</v>
+      </c>
+      <c r="T82" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="83">
@@ -4662,25 +4890,37 @@
         <v>24</v>
       </c>
       <c r="H83" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="I83" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="J83" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L83" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="M83" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="N83" t="s">
-        <v>166</v>
+        <v>193</v>
+      </c>
+      <c r="O83">
+        <v>15</v>
+      </c>
+      <c r="P83" t="s">
+        <v>52</v>
       </c>
       <c r="Q83" t="s">
-        <v>156</v>
+        <v>142</v>
+      </c>
+      <c r="R83" t="s">
+        <v>126</v>
+      </c>
+      <c r="T83" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="84">
@@ -4697,25 +4937,40 @@
         <v>24</v>
       </c>
       <c r="H84" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="I84" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="J84" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L84" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="M84" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="N84" t="s">
-        <v>169</v>
+        <v>30</v>
+      </c>
+      <c r="O84">
+        <v>23</v>
+      </c>
+      <c r="P84" t="s">
+        <v>31</v>
       </c>
       <c r="Q84" t="s">
-        <v>156</v>
+        <v>32</v>
+      </c>
+      <c r="R84" t="s">
+        <v>33</v>
+      </c>
+      <c r="T84" t="s">
+        <v>34</v>
+      </c>
+      <c r="U84" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="85">
@@ -4732,25 +4987,37 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="I85" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="J85" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L85" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="M85" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="N85" t="s">
-        <v>172</v>
+        <v>145</v>
+      </c>
+      <c r="O85">
+        <v>23</v>
+      </c>
+      <c r="P85" t="s">
+        <v>39</v>
       </c>
       <c r="Q85" t="s">
-        <v>156</v>
+        <v>146</v>
+      </c>
+      <c r="R85" t="s">
+        <v>41</v>
+      </c>
+      <c r="T85" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="86">
@@ -4767,25 +5034,37 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="I86" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="J86" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L86" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="M86" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="N86" t="s">
-        <v>176</v>
+        <v>197</v>
+      </c>
+      <c r="O86">
+        <v>18</v>
+      </c>
+      <c r="P86" t="s">
+        <v>52</v>
       </c>
       <c r="Q86" t="s">
-        <v>174</v>
+        <v>86</v>
+      </c>
+      <c r="R86" t="s">
+        <v>126</v>
+      </c>
+      <c r="T86" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="87">
@@ -4802,25 +5081,40 @@
         <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="I87" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="J87" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L87" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="M87" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="N87" t="s">
-        <v>179</v>
+        <v>30</v>
+      </c>
+      <c r="O87">
+        <v>24</v>
+      </c>
+      <c r="P87" t="s">
+        <v>31</v>
       </c>
       <c r="Q87" t="s">
-        <v>174</v>
+        <v>32</v>
+      </c>
+      <c r="R87" t="s">
+        <v>33</v>
+      </c>
+      <c r="T87" t="s">
+        <v>34</v>
+      </c>
+      <c r="U87" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="88">
@@ -4837,25 +5131,37 @@
         <v>24</v>
       </c>
       <c r="H88" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="I88" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="J88" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L88" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="M88" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="N88" t="s">
-        <v>182</v>
+        <v>145</v>
+      </c>
+      <c r="O88">
+        <v>24</v>
+      </c>
+      <c r="P88" t="s">
+        <v>39</v>
       </c>
       <c r="Q88" t="s">
-        <v>174</v>
+        <v>146</v>
+      </c>
+      <c r="R88" t="s">
+        <v>41</v>
+      </c>
+      <c r="T88" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="89">
@@ -4872,25 +5178,37 @@
         <v>24</v>
       </c>
       <c r="H89" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="I89" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="J89" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L89" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="M89" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="N89" t="s">
-        <v>185</v>
+        <v>201</v>
+      </c>
+      <c r="O89">
+        <v>28</v>
+      </c>
+      <c r="P89" t="s">
+        <v>52</v>
       </c>
       <c r="Q89" t="s">
-        <v>174</v>
+        <v>142</v>
+      </c>
+      <c r="R89" t="s">
+        <v>126</v>
+      </c>
+      <c r="T89" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="90">
@@ -4907,25 +5225,40 @@
         <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="I90" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="J90" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L90" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="M90" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="N90" t="s">
-        <v>188</v>
+        <v>30</v>
+      </c>
+      <c r="O90">
+        <v>25</v>
+      </c>
+      <c r="P90" t="s">
+        <v>31</v>
       </c>
       <c r="Q90" t="s">
-        <v>174</v>
+        <v>32</v>
+      </c>
+      <c r="R90" t="s">
+        <v>33</v>
+      </c>
+      <c r="T90" t="s">
+        <v>34</v>
+      </c>
+      <c r="U90" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="91">
@@ -4942,25 +5275,37 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="I91" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="J91" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L91" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="M91" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="N91" t="s">
-        <v>192</v>
+        <v>145</v>
+      </c>
+      <c r="O91">
+        <v>25</v>
+      </c>
+      <c r="P91" t="s">
+        <v>39</v>
       </c>
       <c r="Q91" t="s">
-        <v>190</v>
+        <v>146</v>
+      </c>
+      <c r="R91" t="s">
+        <v>41</v>
+      </c>
+      <c r="T91" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="92">
@@ -4977,25 +5322,37 @@
         <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="I92" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="J92" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L92" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="M92" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="N92" t="s">
-        <v>195</v>
+        <v>205</v>
+      </c>
+      <c r="O92">
+        <v>30</v>
+      </c>
+      <c r="P92" t="s">
+        <v>52</v>
       </c>
       <c r="Q92" t="s">
-        <v>190</v>
+        <v>125</v>
+      </c>
+      <c r="R92" t="s">
+        <v>126</v>
+      </c>
+      <c r="T92" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="93">
@@ -5012,25 +5369,40 @@
         <v>24</v>
       </c>
       <c r="H93" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="I93" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="J93" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L93" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M93" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="N93" t="s">
-        <v>198</v>
+        <v>30</v>
+      </c>
+      <c r="O93">
+        <v>26</v>
+      </c>
+      <c r="P93" t="s">
+        <v>31</v>
       </c>
       <c r="Q93" t="s">
-        <v>190</v>
+        <v>32</v>
+      </c>
+      <c r="R93" t="s">
+        <v>33</v>
+      </c>
+      <c r="T93" t="s">
+        <v>34</v>
+      </c>
+      <c r="U93" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="94">
@@ -5047,25 +5419,37 @@
         <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="I94" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="J94" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L94" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M94" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="N94" t="s">
-        <v>201</v>
+        <v>145</v>
+      </c>
+      <c r="O94">
+        <v>26</v>
+      </c>
+      <c r="P94" t="s">
+        <v>39</v>
       </c>
       <c r="Q94" t="s">
-        <v>190</v>
+        <v>146</v>
+      </c>
+      <c r="R94" t="s">
+        <v>41</v>
+      </c>
+      <c r="T94" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="95">
@@ -5082,25 +5466,37 @@
         <v>24</v>
       </c>
       <c r="H95" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="I95" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="J95" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="L95" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M95" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="N95" t="s">
-        <v>204</v>
+        <v>209</v>
+      </c>
+      <c r="O95">
+        <v>22</v>
+      </c>
+      <c r="P95" t="s">
+        <v>52</v>
       </c>
       <c r="Q95" t="s">
-        <v>190</v>
+        <v>142</v>
+      </c>
+      <c r="R95" t="s">
+        <v>126</v>
+      </c>
+      <c r="T95" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="96">
@@ -5117,31 +5513,944 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I96" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J96" t="s">
+        <v>27</v>
+      </c>
+      <c r="L96" t="s">
+        <v>210</v>
+      </c>
+      <c r="M96" t="s">
+        <v>29</v>
+      </c>
+      <c r="N96" t="s">
+        <v>30</v>
+      </c>
+      <c r="O96">
+        <v>27</v>
+      </c>
+      <c r="P96" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>32</v>
+      </c>
+      <c r="R96" t="s">
+        <v>33</v>
+      </c>
+      <c r="T96" t="s">
+        <v>34</v>
+      </c>
+      <c r="U96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" t="s">
+        <v>25</v>
+      </c>
+      <c r="I97" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" t="s">
+        <v>27</v>
+      </c>
+      <c r="L97" t="s">
+        <v>211</v>
+      </c>
+      <c r="M97" t="s">
+        <v>37</v>
+      </c>
+      <c r="N97" t="s">
+        <v>145</v>
+      </c>
+      <c r="O97">
+        <v>27</v>
+      </c>
+      <c r="P97" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>146</v>
+      </c>
+      <c r="R97" t="s">
+        <v>41</v>
+      </c>
+      <c r="T97" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" t="s">
+        <v>27</v>
+      </c>
+      <c r="L98" t="s">
+        <v>212</v>
+      </c>
+      <c r="M98" t="s">
+        <v>29</v>
+      </c>
+      <c r="N98" t="s">
+        <v>30</v>
+      </c>
+      <c r="O98">
+        <v>28</v>
+      </c>
+      <c r="P98" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>32</v>
+      </c>
+      <c r="R98" t="s">
+        <v>33</v>
+      </c>
+      <c r="T98" t="s">
+        <v>34</v>
+      </c>
+      <c r="U98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" t="s">
+        <v>27</v>
+      </c>
+      <c r="L99" t="s">
+        <v>213</v>
+      </c>
+      <c r="M99" t="s">
+        <v>37</v>
+      </c>
+      <c r="N99" t="s">
+        <v>145</v>
+      </c>
+      <c r="O99">
+        <v>28</v>
+      </c>
+      <c r="P99" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>146</v>
+      </c>
+      <c r="R99" t="s">
+        <v>41</v>
+      </c>
+      <c r="T99" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" t="s">
+        <v>25</v>
+      </c>
+      <c r="I100" t="s">
+        <v>26</v>
+      </c>
+      <c r="J100" t="s">
+        <v>27</v>
+      </c>
+      <c r="L100" t="s">
+        <v>214</v>
+      </c>
+      <c r="M100" t="s">
+        <v>29</v>
+      </c>
+      <c r="N100" t="s">
+        <v>30</v>
+      </c>
+      <c r="O100">
+        <v>29</v>
+      </c>
+      <c r="P100" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>32</v>
+      </c>
+      <c r="R100" t="s">
+        <v>33</v>
+      </c>
+      <c r="T100" t="s">
+        <v>34</v>
+      </c>
+      <c r="U100" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" t="s">
+        <v>26</v>
+      </c>
+      <c r="J101" t="s">
+        <v>27</v>
+      </c>
+      <c r="L101" t="s">
+        <v>215</v>
+      </c>
+      <c r="M101" t="s">
+        <v>37</v>
+      </c>
+      <c r="N101" t="s">
+        <v>145</v>
+      </c>
+      <c r="O101">
+        <v>29</v>
+      </c>
+      <c r="P101" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>146</v>
+      </c>
+      <c r="R101" t="s">
+        <v>41</v>
+      </c>
+      <c r="T101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" t="s">
+        <v>26</v>
+      </c>
+      <c r="J102" t="s">
+        <v>27</v>
+      </c>
+      <c r="L102" t="s">
+        <v>216</v>
+      </c>
+      <c r="M102" t="s">
+        <v>29</v>
+      </c>
+      <c r="N102" t="s">
+        <v>30</v>
+      </c>
+      <c r="O102">
+        <v>30</v>
+      </c>
+      <c r="P102" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>32</v>
+      </c>
+      <c r="R102" t="s">
+        <v>33</v>
+      </c>
+      <c r="T102" t="s">
+        <v>34</v>
+      </c>
+      <c r="U102" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" t="s">
+        <v>26</v>
+      </c>
+      <c r="J103" t="s">
+        <v>27</v>
+      </c>
+      <c r="L103" t="s">
+        <v>217</v>
+      </c>
+      <c r="M103" t="s">
+        <v>37</v>
+      </c>
+      <c r="N103" t="s">
+        <v>145</v>
+      </c>
+      <c r="O103">
+        <v>30</v>
+      </c>
+      <c r="P103" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>146</v>
+      </c>
+      <c r="R103" t="s">
+        <v>41</v>
+      </c>
+      <c r="T103" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" t="s">
+        <v>218</v>
+      </c>
+      <c r="I104" t="s">
+        <v>219</v>
+      </c>
+      <c r="J104" t="s">
+        <v>220</v>
+      </c>
+      <c r="L104" t="s">
+        <v>221</v>
+      </c>
+      <c r="M104" t="s">
+        <v>222</v>
+      </c>
+      <c r="N104" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" t="s">
+        <v>224</v>
+      </c>
+      <c r="I105" t="s">
+        <v>219</v>
+      </c>
+      <c r="J105" t="s">
+        <v>220</v>
+      </c>
+      <c r="L105" t="s">
+        <v>225</v>
+      </c>
+      <c r="M105" t="s">
+        <v>222</v>
+      </c>
+      <c r="N105" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" t="s">
+        <v>227</v>
+      </c>
+      <c r="I106" t="s">
+        <v>219</v>
+      </c>
+      <c r="J106" t="s">
+        <v>220</v>
+      </c>
+      <c r="L106" t="s">
+        <v>228</v>
+      </c>
+      <c r="M106" t="s">
+        <v>222</v>
+      </c>
+      <c r="N106" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" t="s">
+        <v>230</v>
+      </c>
+      <c r="I107" t="s">
+        <v>219</v>
+      </c>
+      <c r="J107" t="s">
+        <v>220</v>
+      </c>
+      <c r="L107" t="s">
+        <v>231</v>
+      </c>
+      <c r="M107" t="s">
+        <v>222</v>
+      </c>
+      <c r="N107" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" t="s">
+        <v>233</v>
+      </c>
+      <c r="I108" t="s">
+        <v>219</v>
+      </c>
+      <c r="J108" t="s">
+        <v>220</v>
+      </c>
+      <c r="L108" t="s">
+        <v>234</v>
+      </c>
+      <c r="M108" t="s">
+        <v>222</v>
+      </c>
+      <c r="N108" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" t="s">
+        <v>236</v>
+      </c>
+      <c r="I109" t="s">
+        <v>237</v>
+      </c>
+      <c r="J109" t="s">
+        <v>220</v>
+      </c>
+      <c r="L109" t="s">
+        <v>238</v>
+      </c>
+      <c r="M109" t="s">
+        <v>222</v>
+      </c>
+      <c r="N109" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>24</v>
+      </c>
+      <c r="H110" t="s">
+        <v>240</v>
+      </c>
+      <c r="I110" t="s">
+        <v>237</v>
+      </c>
+      <c r="J110" t="s">
+        <v>220</v>
+      </c>
+      <c r="L110" t="s">
+        <v>241</v>
+      </c>
+      <c r="M110" t="s">
+        <v>222</v>
+      </c>
+      <c r="N110" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" t="s">
+        <v>243</v>
+      </c>
+      <c r="I111" t="s">
+        <v>237</v>
+      </c>
+      <c r="J111" t="s">
+        <v>220</v>
+      </c>
+      <c r="L111" t="s">
+        <v>244</v>
+      </c>
+      <c r="M111" t="s">
+        <v>222</v>
+      </c>
+      <c r="N111" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" t="s">
+        <v>246</v>
+      </c>
+      <c r="I112" t="s">
+        <v>237</v>
+      </c>
+      <c r="J112" t="s">
+        <v>220</v>
+      </c>
+      <c r="L112" t="s">
+        <v>247</v>
+      </c>
+      <c r="M112" t="s">
+        <v>222</v>
+      </c>
+      <c r="N112" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" t="s">
+        <v>249</v>
+      </c>
+      <c r="I113" t="s">
+        <v>237</v>
+      </c>
+      <c r="J113" t="s">
+        <v>220</v>
+      </c>
+      <c r="L113" t="s">
+        <v>250</v>
+      </c>
+      <c r="M113" t="s">
+        <v>222</v>
+      </c>
+      <c r="N113" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" t="s">
+        <v>252</v>
+      </c>
+      <c r="I114" t="s">
+        <v>253</v>
+      </c>
+      <c r="J114" t="s">
+        <v>220</v>
+      </c>
+      <c r="L114" t="s">
+        <v>254</v>
+      </c>
+      <c r="M114" t="s">
+        <v>222</v>
+      </c>
+      <c r="N114" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" t="s">
+        <v>256</v>
+      </c>
+      <c r="I115" t="s">
+        <v>253</v>
+      </c>
+      <c r="J115" t="s">
+        <v>220</v>
+      </c>
+      <c r="L115" t="s">
+        <v>257</v>
+      </c>
+      <c r="M115" t="s">
+        <v>222</v>
+      </c>
+      <c r="N115" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" t="s">
+        <v>259</v>
+      </c>
+      <c r="I116" t="s">
+        <v>253</v>
+      </c>
+      <c r="J116" t="s">
+        <v>220</v>
+      </c>
+      <c r="L116" t="s">
+        <v>260</v>
+      </c>
+      <c r="M116" t="s">
+        <v>222</v>
+      </c>
+      <c r="N116" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
+        <v>23</v>
+      </c>
+      <c r="G117" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" t="s">
+        <v>262</v>
+      </c>
+      <c r="I117" t="s">
+        <v>253</v>
+      </c>
+      <c r="J117" t="s">
+        <v>220</v>
+      </c>
+      <c r="L117" t="s">
+        <v>263</v>
+      </c>
+      <c r="M117" t="s">
+        <v>222</v>
+      </c>
+      <c r="N117" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" t="s">
+        <v>265</v>
+      </c>
+      <c r="I118" t="s">
+        <v>253</v>
+      </c>
+      <c r="J118" t="s">
+        <v>220</v>
+      </c>
+      <c r="L118" t="s">
+        <v>266</v>
+      </c>
+      <c r="M118" t="s">
+        <v>222</v>
+      </c>
+      <c r="N118" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" t="s">
+        <v>55</v>
+      </c>
+      <c r="I119" t="s">
+        <v>56</v>
+      </c>
+      <c r="J119" t="s">
+        <v>57</v>
+      </c>
+      <c r="L119" t="s">
+        <v>268</v>
+      </c>
+      <c r="M119" t="s">
         <v>50</v>
       </c>
-      <c r="L96" t="s">
-        <v>205</v>
-      </c>
-      <c r="M96" t="s">
-        <v>43</v>
-      </c>
-      <c r="N96" t="s">
-        <v>206</v>
-      </c>
-      <c r="O96">
+      <c r="N119" t="s">
+        <v>269</v>
+      </c>
+      <c r="O119">
         <v>1</v>
       </c>
-      <c r="P96" t="s">
-        <v>207</v>
-      </c>
-      <c r="R96" t="s">
-        <v>208</v>
+      <c r="P119" t="s">
+        <v>270</v>
+      </c>
+      <c r="R119" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -96,7 +96,7 @@
     <t>screening_20240307</t>
   </si>
   <si>
-    <t>18f35809-12c4-4686-bbbd-d3340cce7601</t>
+    <t>acd21a00-9511-48f4-80c3-cead3641eab5</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -120,7 +120,7 @@
     <t>Resolved By QE/QCS</t>
   </si>
   <si>
-    <t>8f722592-e71d-4b05-8e7c-3b30bef89e70</t>
+    <t>a5176fc8-1b39-46ff-8a9e-3b2637ce576d</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -138,7 +138,7 @@
     <t>Please be sure to provide both a valid date and time.</t>
   </si>
   <si>
-    <t>34df525a-32e5-493c-a1f4-d3408ee4c4d7</t>
+    <t>ecfc54ed-a1b2-4a03-a474-570f0327e13f</t>
   </si>
   <si>
     <t>Invalid Answer Code</t>
@@ -159,7 +159,7 @@
     <t>WARNING</t>
   </si>
   <si>
-    <t>9469f810-0689-4da8-a980-621368c15427</t>
+    <t>cc483033-701a-464d-870a-121c406d995d</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -186,7 +186,7 @@
     <t>admin_demographics_20240307</t>
   </si>
   <si>
-    <t>d472a582-0b4b-4120-aed9-301962c39103</t>
+    <t>ee9cf181-0c27-491e-b428-4bbdb13abf68</t>
   </si>
   <si>
     <t>Combination Not Matching</t>
@@ -204,7 +204,7 @@
     <t>The RACE_CODE "1142-9" of RACE_CODE_DESCRIPTION "Coquille" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>99b97686-23ad-4866-8dff-640d5ed58c09</t>
+    <t>e5f726d2-a08a-4017-82fb-6f8adc775ad7</t>
   </si>
   <si>
     <t>Invalid RACE CODE DESCRIPTION</t>
@@ -222,13 +222,13 @@
     <t>Validate RACE CODE DESCRIPTION with race reference data</t>
   </si>
   <si>
-    <t>a5a1d6bc-2ea0-4cc6-92e3-089e1bd9f240</t>
-  </si>
-  <si>
-    <t>7e822635-51ee-4273-8f34-a21a0784dd9b</t>
-  </si>
-  <si>
-    <t>dcdf57ff-b96c-4048-9640-bbf1db7f854d</t>
+    <t>649bff15-140d-4fc5-9a4d-12374ec0536d</t>
+  </si>
+  <si>
+    <t>d924d541-1f77-4a02-a05e-5b45713daef4</t>
+  </si>
+  <si>
+    <t>0014ef4d-b4f9-4bd5-bf4a-58eb318ac552</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "96842-0" and Answer Code "LA18891-4" are not matching with the reference data found in ANSWER_CODE</t>
@@ -237,10 +237,10 @@
     <t>LA18891-4</t>
   </si>
   <si>
-    <t>24e6e0e4-6c11-4ee1-9563-7c926f8e8790</t>
-  </si>
-  <si>
-    <t>7e505f38-0a8a-4f62-ac05-885d80f954fb</t>
+    <t>b0292c27-661a-41f7-b50c-98a14d950b10</t>
+  </si>
+  <si>
+    <t>1fbbbdd0-a252-49b1-81e2-4cbdba850ba3</t>
   </si>
   <si>
     <t>Invalid value "Coquille" found in RACE_CODE_DESCRIPTION</t>
@@ -249,13 +249,13 @@
     <t>The RACE_CODE_DESCRIPTION "Coquille" of RACE_CODE "1142-9" is not matching with the RACE_CODE_DESCRIPTION of RACE_CODE in reference data</t>
   </si>
   <si>
-    <t>4444bdac-5b7c-477f-9753-084dbdcd4494</t>
-  </si>
-  <si>
-    <t>2eb16b50-6b3b-48ce-9cca-c9faed6f1cae</t>
-  </si>
-  <si>
-    <t>0f976ad7-b6ef-4794-a7a9-898954b41f6f</t>
+    <t>9c30ee6e-4f96-4361-85e8-c091c11e333b</t>
+  </si>
+  <si>
+    <t>b51e797e-6a03-4643-ad4f-bcee158c9f1b</t>
+  </si>
+  <si>
+    <t>6e9f267a-20c6-42a8-9a76-cd9c05265110</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "44255-8" and Answer Code "LA6569-3" are not matching with the reference data found in ANSWER_CODE</t>
@@ -264,7 +264,7 @@
     <t>LA6569-3</t>
   </si>
   <si>
-    <t>63caee03-619a-45e0-9b8b-adc8582bcd94</t>
+    <t>debeaf96-c691-4074-9c85-086be4208b84</t>
   </si>
   <si>
     <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA','yes','no','na')</t>
@@ -276,13 +276,13 @@
     <t>Use only allowed values 'Yes','No','NA','yes','no','na' in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>62f5530c-c0db-4c70-bff3-9ec6eda6e377</t>
-  </si>
-  <si>
-    <t>7f3ae49e-8eca-44cf-ad21-5db6632fc78c</t>
-  </si>
-  <si>
-    <t>0a20d09e-6a2e-4344-a426-810035742d85</t>
+    <t>f54a0b04-8459-472f-91cc-662eea6c7680</t>
+  </si>
+  <si>
+    <t>5d29a9e6-a8a5-447c-a52f-036c174e52ab</t>
+  </si>
+  <si>
+    <t>567dd62c-9034-4f3b-b4b3-a729c3c8e08e</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "96781-0" and Answer Code "LA31979-0" are not matching with the reference data found in ANSWER_CODE</t>
@@ -291,16 +291,16 @@
     <t>LA31979-0</t>
   </si>
   <si>
-    <t>19c1da9c-6315-4dc3-8a3a-3233bf564ac7</t>
-  </si>
-  <si>
-    <t>0db7fcac-77b7-4a7f-935a-345e23e9c06b</t>
-  </si>
-  <si>
-    <t>8c076cf1-86de-4ced-9141-c0c840179a1c</t>
-  </si>
-  <si>
-    <t>34dc9014-4813-4f8d-895d-4cc2c4b67ecd</t>
+    <t>aabf14f0-257f-43c9-a4fc-278a346ffa58</t>
+  </si>
+  <si>
+    <t>aab2cf71-dca1-452a-bf14-b56062d9d4f1</t>
+  </si>
+  <si>
+    <t>738e042b-2620-4c82-a642-a5beb55a6a02</t>
+  </si>
+  <si>
+    <t>1c8289ed-7608-4e6b-b7b6-082a8ff11ecf</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "68524-8" and Answer Code "LA6270-8" are not matching with the reference data found in ANSWER_CODE</t>
@@ -309,31 +309,31 @@
     <t>LA6270-8</t>
   </si>
   <si>
-    <t>d3548573-63d9-4acb-9f4d-62480f2f062f</t>
-  </si>
-  <si>
-    <t>40ccd34a-ee04-42d0-88bf-9924dcce854f</t>
-  </si>
-  <si>
-    <t>6e724ffc-e219-4a40-8274-99d395a9535d</t>
-  </si>
-  <si>
-    <t>64045e52-a909-480a-8f12-c0061b176955</t>
+    <t>1aec4b08-791c-40ae-aa4e-099ba2df7423</t>
+  </si>
+  <si>
+    <t>8fa111e5-8af2-4396-9970-a746ee376c85</t>
+  </si>
+  <si>
+    <t>f0bf1e50-97bb-4706-9b9f-56b0cfb20bb4</t>
+  </si>
+  <si>
+    <t>47ca3904-83ea-435c-9b67-5cd16c013598</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "68517-2" and Answer Code "LA6270-8" are not matching with the reference data found in ANSWER_CODE</t>
   </si>
   <si>
-    <t>d76bab4a-fdd5-4fbf-b79a-933e0c7671a7</t>
-  </si>
-  <si>
-    <t>68c2108d-5bb5-4e34-b61f-b79c5d70fa26</t>
-  </si>
-  <si>
-    <t>d48bed29-3aa3-470d-be47-9ad4c18faebd</t>
-  </si>
-  <si>
-    <t>43a1abc9-008f-4814-81a1-71913afd2058</t>
+    <t>c79778a9-cd6c-4572-ab3a-2bd0c469d359</t>
+  </si>
+  <si>
+    <t>1903820c-3c30-4de0-b42f-6e9d27440810</t>
+  </si>
+  <si>
+    <t>8518be33-0bb4-499b-aba0-c9dabb89a160</t>
+  </si>
+  <si>
+    <t>4ef19dd6-1c73-40e1-af0d-30f609cbe595</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "69858-9" and Answer Code "LA33-6" are not matching with the reference data found in ANSWER_CODE</t>
@@ -342,16 +342,16 @@
     <t>LA33-6</t>
   </si>
   <si>
-    <t>5e06ffda-e146-47b2-9952-13162bc2bc03</t>
-  </si>
-  <si>
-    <t>94f35b70-8d70-4fd5-b908-5633abda107d</t>
-  </si>
-  <si>
-    <t>f95afc54-2829-4f35-8e00-c19f919bdec2</t>
-  </si>
-  <si>
-    <t>709eec19-a26d-45ac-9753-d3a33b8e797d</t>
+    <t>6fd52d2e-5a6c-4ee5-8522-393aa7877a87</t>
+  </si>
+  <si>
+    <t>97a205b2-98f5-4fd7-8aef-c17415d402ec</t>
+  </si>
+  <si>
+    <t>693e6a04-3be5-494c-a9b1-67a69e30f51a</t>
+  </si>
+  <si>
+    <t>ac297eb7-8ac6-4052-acb2-4709ef7e0a31</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "68516-4" and Answer Code "LA28853-2" are not matching with the reference data found in ANSWER_CODE</t>
@@ -360,16 +360,16 @@
     <t>LA28853-2</t>
   </si>
   <si>
-    <t>f7789803-62b8-4452-a9e1-d3572387d7d1</t>
-  </si>
-  <si>
-    <t>f6fed19c-f5a7-4374-b3c6-258c13e874ce</t>
-  </si>
-  <si>
-    <t>236a2fda-352f-43ad-b215-7eb27b90aadf</t>
-  </si>
-  <si>
-    <t>2f69b10c-cc49-4409-80bc-082acc5c4f94</t>
+    <t>c3879b21-8ef5-4ffe-97ca-c00a6c45d849</t>
+  </si>
+  <si>
+    <t>7bd429b0-eae0-42fe-8eec-7d21ef655dfd</t>
+  </si>
+  <si>
+    <t>5b5d7707-1f12-4d58-a7ca-56e85111ca23</t>
+  </si>
+  <si>
+    <t>06b68a85-7976-4fa2-ba6f-a121eb363fca</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "44250-9" and Answer Code "LA6571-9" are not matching with the reference data found in ANSWER_CODE</t>
@@ -378,7 +378,7 @@
     <t>LA6571-9</t>
   </si>
   <si>
-    <t>5cb54e2e-d74a-40f9-b3d4-1c89d634192a</t>
+    <t>3dbd6b1d-ff17-40e6-8afc-81d4ef1331ea</t>
   </si>
   <si>
     <t>Invalid value in POTENTIAL_NEED_INDICATED</t>
@@ -393,13 +393,13 @@
     <t>Validate Potential Need Indicated, Screening Code, Question Code and Answer Code with ahc cross walk reference data</t>
   </si>
   <si>
-    <t>1f7c0114-dadb-463e-8e44-1fbe90dd1b19</t>
-  </si>
-  <si>
-    <t>9d2dbdfa-baa8-4b8f-b757-b2b7b6e859aa</t>
-  </si>
-  <si>
-    <t>1cf085f6-f7f2-4a9a-9103-82afdbc40947</t>
+    <t>32afeb54-8ad6-4827-b970-0046d04a7cc8</t>
+  </si>
+  <si>
+    <t>dd6dff5e-3389-4b43-8f65-7cb773adfb40</t>
+  </si>
+  <si>
+    <t>26851362-3e2d-4643-8dfe-765ab4e73f78</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "93038-8" and Answer Code "LA13902-4" are not matching with the reference data found in ANSWER_CODE</t>
@@ -408,7 +408,7 @@
     <t>LA13902-4</t>
   </si>
   <si>
-    <t>3c1521f8-b6e4-427c-a394-db4da2243e49</t>
+    <t>c14f5105-f52e-45d5-8ddf-f51df4ff658d</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44255-8" and Answer Code "LA6569-3" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
@@ -417,13 +417,13 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>282f9cca-a8d2-4563-93cf-0cf65e5862a4</t>
-  </si>
-  <si>
-    <t>ac11819e-1046-4c6b-9cee-811a34370e23</t>
-  </si>
-  <si>
-    <t>d87c1376-2c74-4ecb-8be1-d299e418fb9f</t>
+    <t>a48990c9-04c9-438c-a543-efe791b77dd7</t>
+  </si>
+  <si>
+    <t>6949647c-8eff-42de-9034-764d207e1b29</t>
+  </si>
+  <si>
+    <t>c82edfd8-1811-4947-ba2a-9447b2d7b77e</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "97027-7" and Answer Code "LA32-8" are not matching with the reference data found in ANSWER_CODE</t>
@@ -432,7 +432,7 @@
     <t>LA32-8</t>
   </si>
   <si>
-    <t>11939701-a721-4067-b850-70c0dd57d1ec</t>
+    <t>864f006f-3daf-407f-b3be-d7b4d9e795d2</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "69858-9" and Answer Code "LA33-6" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
@@ -441,10 +441,10 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>a0d31bb3-d1d2-4ba0-a1ea-e4bd750b3203</t>
-  </si>
-  <si>
-    <t>dc1b16bd-486e-437e-af94-42d64fc92142</t>
+    <t>e963b326-b443-4727-9cc1-aca1a9ef2f97</t>
+  </si>
+  <si>
+    <t>09811053-03e8-4351-b9ed-927889907f6c</t>
   </si>
   <si>
     <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
@@ -453,25 +453,25 @@
     <t>03/05/94 13:08</t>
   </si>
   <si>
-    <t>fea8e7fe-4105-4b7d-baba-0edae95646fc</t>
+    <t>5c4657dc-8cff-4f78-83f8-8356e608aada</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "69861-3" and Answer Code "LA32-8" are not matching with the reference data found in ANSWER_CODE</t>
   </si>
   <si>
-    <t>ddf2813a-fdb5-4e49-a5f3-f7f2072248ff</t>
+    <t>a73e0c04-7f06-400b-91f8-4a9d4553d99c</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95618-5" and Answer Code "LA10066-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>7119a7e7-526f-4987-bb34-7970ea26bf71</t>
-  </si>
-  <si>
-    <t>8a1b8e04-b5d7-483c-ab60-c1f3410bc1d5</t>
-  </si>
-  <si>
-    <t>6ef5e26d-765d-47a9-9999-21e06c523cac</t>
+    <t>9b213f1a-2551-4415-9b20-b98782006e5e</t>
+  </si>
+  <si>
+    <t>7a31426b-9330-4387-b9f0-a56a0603310a</t>
+  </si>
+  <si>
+    <t>edb2c003-6fd8-4b62-b87f-36be0eca2ab2</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "93159-2" and Answer Code "LA10044-8" are not matching with the reference data found in ANSWER_CODE</t>
@@ -480,190 +480,190 @@
     <t>LA10044-8</t>
   </si>
   <si>
-    <t>f0ea9208-cd26-46f9-834e-45a440999929</t>
+    <t>1611130b-33a0-4b1c-8e4e-694348e4a344</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "68524-8" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>c5d16bf4-bb77-43cd-812a-6d03dfa11f7f</t>
-  </si>
-  <si>
-    <t>b4c3394d-c042-442a-b2a7-11431727dc25</t>
-  </si>
-  <si>
-    <t>929c2fcb-5731-44f2-9eb8-038715fd63fc</t>
+    <t>a5505694-0081-4d4d-9da9-dc6eb0e4589c</t>
+  </si>
+  <si>
+    <t>c443079e-1771-4ccf-aeee-ba5f2ea821b7</t>
+  </si>
+  <si>
+    <t>6e63d31e-0fdb-41a7-bbf5-f2a9a005db6e</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95615-1" and Answer Code "LA10082-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>f0f97103-6f38-454e-bc3e-40ce70a0b180</t>
-  </si>
-  <si>
-    <t>9d15cc56-53a0-4f08-8f71-84d9ace82416</t>
-  </si>
-  <si>
-    <t>6ef391fa-a23f-455c-8dab-8064d32bf49a</t>
+    <t>0710b8b5-7b25-445e-a118-ab9bbbf436ee</t>
+  </si>
+  <si>
+    <t>ef391bf4-ad8e-488c-b4a6-9e92f7b612d1</t>
+  </si>
+  <si>
+    <t>801fa8dd-c990-4b62-9672-35b863b0b54d</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "76513-1" and Answer Code "LA15832-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>69a287c0-495c-436c-9baa-ecbb3c0c6ed9</t>
-  </si>
-  <si>
-    <t>c75c1085-b113-44f2-899f-00dc17008432</t>
-  </si>
-  <si>
-    <t>fb1122ca-f6d0-484d-8b96-749b2c8a2ca0</t>
+    <t>9b2f456d-f1ba-4638-a38c-d4d0add84488</t>
+  </si>
+  <si>
+    <t>79d3c887-6111-4ee2-bb15-356e02d5d5fa</t>
+  </si>
+  <si>
+    <t>6e176bde-3792-42f5-9d5c-45bf3c40ed0a</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95616-9" and Answer Code "LA16644-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>4271086d-1f1f-4de4-b2e3-163b0b5e7394</t>
-  </si>
-  <si>
-    <t>d64ad7a4-5762-4705-bf1e-b6231cf8a93d</t>
-  </si>
-  <si>
-    <t>8853e600-59db-4081-8fd0-0cffca526a10</t>
+    <t>558d1955-2fb8-4aea-ab86-a6dfdedf5dde</t>
+  </si>
+  <si>
+    <t>35509e26-087f-4b6c-9aec-e6c0fb2599d9</t>
+  </si>
+  <si>
+    <t>85699b23-56ed-424f-ab58-96d44ba3547d</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "97027-7" and Answer Code "LA32-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>5c699d09-afbb-469b-b3d1-642593c37da1</t>
-  </si>
-  <si>
-    <t>cf02082d-2405-4ea6-970a-644bb7d43823</t>
-  </si>
-  <si>
-    <t>5394fdb4-8b40-4961-9202-90aae64dfc85</t>
+    <t>1d2454c1-cb00-4203-aa0e-752a112c9d71</t>
+  </si>
+  <si>
+    <t>4566e1c7-b260-406e-9dc7-335d9b51e84a</t>
+  </si>
+  <si>
+    <t>936c6634-cf5c-4a84-a515-9efc0d7558a7</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "68516-4" and Answer Code "LA28853-2" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>2a595655-da66-406d-935e-c15842bc23a2</t>
-  </si>
-  <si>
-    <t>87656cb0-b574-482f-ac26-30ecbbd14b53</t>
-  </si>
-  <si>
-    <t>89ba1e7a-413d-4c86-95d8-009fa86752ae</t>
+    <t>5f7a94ff-8d8e-4414-8974-ad3f4f3bfe33</t>
+  </si>
+  <si>
+    <t>0daea509-02a1-44ea-8f16-a6532f5aa2db</t>
+  </si>
+  <si>
+    <t>12b91a47-a951-44c6-9f5a-e4b64c1568bc</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95617-7" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>7e47d60d-aa93-4e8f-b5b8-0d9aa55b98be</t>
-  </si>
-  <si>
-    <t>60fad860-feb1-44dd-9d68-204b54b96fdf</t>
-  </si>
-  <si>
-    <t>4923dc54-100a-4bd7-b9fc-5eb7867a65c3</t>
+    <t>46c1984b-4591-4a2a-9f69-c6324793c3dd</t>
+  </si>
+  <si>
+    <t>1bf4ddd3-062f-4ade-95f7-3577f5129124</t>
+  </si>
+  <si>
+    <t>6528c3f4-4a64-42ba-89e5-14342d8d794b</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "96781-0" and Answer Code "LA31979-0" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>a6e60b9f-f570-4a9e-a956-4445459fc626</t>
-  </si>
-  <si>
-    <t>b895de91-8a9a-4acc-8aa3-2fe25f522190</t>
-  </si>
-  <si>
-    <t>f4ece211-1a3e-4dfc-ad7c-2b3d51d9c8e8</t>
+    <t>d60704d3-536a-41e8-bb32-15ea1431e18a</t>
+  </si>
+  <si>
+    <t>0eda4177-5608-49d4-9db9-5eb72a7b91fc</t>
+  </si>
+  <si>
+    <t>d0c95e55-c098-4dbc-a9c0-8779ae476660</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44250-9" and Answer Code "LA6571-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>0915beef-3bbc-441c-879f-a289a92af788</t>
-  </si>
-  <si>
-    <t>488135a0-bb4d-4ed6-83d5-f70b845fbee6</t>
-  </si>
-  <si>
-    <t>fed6f6fb-6623-447b-9097-33574a0ac4d1</t>
+    <t>6e1f2434-21a5-4b11-aeb1-af482a57392f</t>
+  </si>
+  <si>
+    <t>8037f2ef-e125-4bca-ac0e-be3ff1dc1474</t>
+  </si>
+  <si>
+    <t>59b9e6d9-e4e6-4636-8cc4-05d3854ffb21</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "93159-2" and Answer Code "LA10044-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>c79ea32f-dc13-4c16-a1e9-ad997ca2ec2b</t>
-  </si>
-  <si>
-    <t>5dc2cd86-31e3-4cf3-b572-d50a6e61d877</t>
-  </si>
-  <si>
-    <t>3006a651-8a3b-4361-bbe4-bfd120b6d1a3</t>
+    <t>2213cbde-f7cc-4943-bb6c-ba174cb0c4b5</t>
+  </si>
+  <si>
+    <t>56c2c6fc-4885-4142-afbd-d2f6aa719c90</t>
+  </si>
+  <si>
+    <t>12bee8c6-4dd7-45c5-8e55-eeb616020bf4</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "89555-7" and Answer Code "LA6113-0" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>72279112-c5c0-478f-b522-de27343bc6a8</t>
-  </si>
-  <si>
-    <t>3a2231ab-3981-40f4-b4c5-9b535203c6aa</t>
-  </si>
-  <si>
-    <t>092db5f5-d166-4475-8bb0-7a98b1d4115d</t>
+    <t>3eb261de-9001-42e0-afb9-fd861cf16e75</t>
+  </si>
+  <si>
+    <t>1f761cd3-d176-4b7c-a102-bdcae8cb9f44</t>
+  </si>
+  <si>
+    <t>378b1777-5a10-4d4a-a442-059ce3d7c082</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "93038-8" and Answer Code "LA13902-4" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>73668bd9-3aad-4721-b4cd-50991f01b913</t>
-  </si>
-  <si>
-    <t>4f5be7f8-dfde-40f2-9a2a-9276690cf0b8</t>
-  </si>
-  <si>
-    <t>0ff813c8-6ca6-40d3-90e1-8a83aba8fe4c</t>
+    <t>ef76d150-9999-4877-a8b9-a142ae3f98a9</t>
+  </si>
+  <si>
+    <t>66f68cd5-c981-4ba0-95f4-dbc2a55972d5</t>
+  </si>
+  <si>
+    <t>1dbba41f-4527-4a81-afb7-b92f6bc0740a</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "69861-3" and Answer Code "LA32-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>566d1647-3598-4b8b-ad23-fa72324c716e</t>
-  </si>
-  <si>
-    <t>8a9ccda6-55ee-4185-a15e-4094c0cccd2a</t>
-  </si>
-  <si>
-    <t>ce68942c-1f9f-4753-8869-c8e4d2e6be80</t>
+    <t>37d1d80d-e7d0-4b6b-a1eb-d85aed2f6a4b</t>
+  </si>
+  <si>
+    <t>3bb2e3e3-6f3f-4c45-96b8-552880b2c669</t>
+  </si>
+  <si>
+    <t>4cd932df-49f6-42e5-9a66-5ccb03d5b1db</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "96842-0" and Answer Code "LA18891-4" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>92560696-f8a5-4120-9b32-a1a03de932d1</t>
-  </si>
-  <si>
-    <t>634118ee-3d99-47d1-9721-7d60d8ab06ae</t>
-  </si>
-  <si>
-    <t>be5cd47c-eefc-4bd4-878c-030dadf60962</t>
-  </si>
-  <si>
-    <t>34a504bb-63b1-483c-a99a-378da6092009</t>
-  </si>
-  <si>
-    <t>11f01971-da61-48db-a254-621419a49660</t>
-  </si>
-  <si>
-    <t>e00b7b88-7675-478f-8490-655a8c8cbd33</t>
-  </si>
-  <si>
-    <t>7a70f0fc-6794-4521-b20e-e092d0f4b956</t>
-  </si>
-  <si>
-    <t>8c6da3ba-e511-4559-ad92-54518500e979</t>
+    <t>fc5f02b3-048a-49eb-8a52-2c03c256d4b6</t>
+  </si>
+  <si>
+    <t>2e256766-2bed-40ae-9feb-599a5d131a5c</t>
+  </si>
+  <si>
+    <t>d8c10733-24f8-4d3d-aa76-1eb89b665be8</t>
+  </si>
+  <si>
+    <t>3e0aae8a-86c8-4b0b-925c-370dd8a8dedd</t>
+  </si>
+  <si>
+    <t>5c48bb3c-10d0-4da2-845b-1f76bfc5ff91</t>
+  </si>
+  <si>
+    <t>d456a5fe-9b10-4652-b169-5f0feacfef43</t>
+  </si>
+  <si>
+    <t>c12a0fb5-56f6-4bfb-8988-c40c2b976b47</t>
+  </si>
+  <si>
+    <t>2d3bf0d1-5f03-4b83-92ec-d8f13d74ff78</t>
   </si>
   <si>
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
@@ -816,7 +816,7 @@
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>26c90ffb-d623-406f-8808-67dc499faed9</t>
+    <t>99d7158e-91a4-4ed8-825e-4a351a2d7fa9</t>
   </si>
   <si>
     <t>Mandatory field CONSENT is empty</t>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -81,7 +81,7 @@
     <t>7bab389e-54af-5a13-a39f-079abdc73a48</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.10.0</t>
   </si>
   <si>
     <t>Session 05269d28-15ae-5bd6-bd88-f949ccfa52d7 markdown diagnostics not provided (not completed?)</t>
@@ -96,7 +96,7 @@
     <t>screening_20240307</t>
   </si>
   <si>
-    <t>acd21a00-9511-48f4-80c3-cead3641eab5</t>
+    <t>7d3130df-50b7-429c-8354-be2781c2e78b</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -120,7 +120,7 @@
     <t>Resolved By QE/QCS</t>
   </si>
   <si>
-    <t>a5176fc8-1b39-46ff-8a9e-3b2637ce576d</t>
+    <t>970f3a23-308f-4875-aeed-a9c8010732b4</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -138,7 +138,7 @@
     <t>Please be sure to provide both a valid date and time.</t>
   </si>
   <si>
-    <t>ecfc54ed-a1b2-4a03-a474-570f0327e13f</t>
+    <t>2aa428f9-e8ca-4525-872f-bd6224121a31</t>
   </si>
   <si>
     <t>Invalid Answer Code</t>
@@ -159,7 +159,7 @@
     <t>WARNING</t>
   </si>
   <si>
-    <t>cc483033-701a-464d-870a-121c406d995d</t>
+    <t>5f7614c3-9e73-47e7-9bc9-99999364ae19</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -186,7 +186,7 @@
     <t>admin_demographics_20240307</t>
   </si>
   <si>
-    <t>ee9cf181-0c27-491e-b428-4bbdb13abf68</t>
+    <t>5f5046ce-d6bf-40f4-a113-90c87683310e</t>
   </si>
   <si>
     <t>Combination Not Matching</t>
@@ -204,7 +204,7 @@
     <t>The RACE_CODE "1142-9" of RACE_CODE_DESCRIPTION "Coquille" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>e5f726d2-a08a-4017-82fb-6f8adc775ad7</t>
+    <t>0090848b-3389-4f3d-8899-9174dae0c622</t>
   </si>
   <si>
     <t>Invalid RACE CODE DESCRIPTION</t>
@@ -222,13 +222,13 @@
     <t>Validate RACE CODE DESCRIPTION with race reference data</t>
   </si>
   <si>
-    <t>649bff15-140d-4fc5-9a4d-12374ec0536d</t>
-  </si>
-  <si>
-    <t>d924d541-1f77-4a02-a05e-5b45713daef4</t>
-  </si>
-  <si>
-    <t>0014ef4d-b4f9-4bd5-bf4a-58eb318ac552</t>
+    <t>63c20d3e-5a88-4cd1-a6ba-491850a65151</t>
+  </si>
+  <si>
+    <t>5c2f7272-f544-486c-8487-46b3ee126efc</t>
+  </si>
+  <si>
+    <t>6516c754-1959-41ad-80c2-689a5a13341f</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "96842-0" and Answer Code "LA18891-4" are not matching with the reference data found in ANSWER_CODE</t>
@@ -237,10 +237,10 @@
     <t>LA18891-4</t>
   </si>
   <si>
-    <t>b0292c27-661a-41f7-b50c-98a14d950b10</t>
-  </si>
-  <si>
-    <t>1fbbbdd0-a252-49b1-81e2-4cbdba850ba3</t>
+    <t>f7bbe4fd-9832-4732-9014-dab8cc90433c</t>
+  </si>
+  <si>
+    <t>79b706fc-a190-48de-a5be-38b9499c5ff4</t>
   </si>
   <si>
     <t>Invalid value "Coquille" found in RACE_CODE_DESCRIPTION</t>
@@ -249,13 +249,13 @@
     <t>The RACE_CODE_DESCRIPTION "Coquille" of RACE_CODE "1142-9" is not matching with the RACE_CODE_DESCRIPTION of RACE_CODE in reference data</t>
   </si>
   <si>
-    <t>9c30ee6e-4f96-4361-85e8-c091c11e333b</t>
-  </si>
-  <si>
-    <t>b51e797e-6a03-4643-ad4f-bcee158c9f1b</t>
-  </si>
-  <si>
-    <t>6e9f267a-20c6-42a8-9a76-cd9c05265110</t>
+    <t>1bc36a0b-6bec-4d03-91b1-a77580353f2c</t>
+  </si>
+  <si>
+    <t>73ee848c-b9fc-4ee4-af18-a6a5140092c9</t>
+  </si>
+  <si>
+    <t>6d1a4149-7db8-479f-9b12-6a0a1ea06fa4</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "44255-8" and Answer Code "LA6569-3" are not matching with the reference data found in ANSWER_CODE</t>
@@ -264,7 +264,7 @@
     <t>LA6569-3</t>
   </si>
   <si>
-    <t>debeaf96-c691-4074-9c85-086be4208b84</t>
+    <t>8b14cf18-2ccd-4c7f-9146-d78f4d978131</t>
   </si>
   <si>
     <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA','yes','no','na')</t>
@@ -276,13 +276,13 @@
     <t>Use only allowed values 'Yes','No','NA','yes','no','na' in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>f54a0b04-8459-472f-91cc-662eea6c7680</t>
-  </si>
-  <si>
-    <t>5d29a9e6-a8a5-447c-a52f-036c174e52ab</t>
-  </si>
-  <si>
-    <t>567dd62c-9034-4f3b-b4b3-a729c3c8e08e</t>
+    <t>5485f038-d864-4f35-9576-c3fc3f94cc1c</t>
+  </si>
+  <si>
+    <t>edcc23eb-1679-48d7-ab2f-32ddbf286025</t>
+  </si>
+  <si>
+    <t>35cbf2f9-fb17-4ddc-881b-f249aad5c85a</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "96781-0" and Answer Code "LA31979-0" are not matching with the reference data found in ANSWER_CODE</t>
@@ -291,16 +291,16 @@
     <t>LA31979-0</t>
   </si>
   <si>
-    <t>aabf14f0-257f-43c9-a4fc-278a346ffa58</t>
-  </si>
-  <si>
-    <t>aab2cf71-dca1-452a-bf14-b56062d9d4f1</t>
-  </si>
-  <si>
-    <t>738e042b-2620-4c82-a642-a5beb55a6a02</t>
-  </si>
-  <si>
-    <t>1c8289ed-7608-4e6b-b7b6-082a8ff11ecf</t>
+    <t>c03ca390-ee24-4c08-b0f2-8084f2ea28bb</t>
+  </si>
+  <si>
+    <t>1524a424-a9a9-4dfa-89b1-00e74e3dc9d9</t>
+  </si>
+  <si>
+    <t>e0f7d99a-d838-4aad-8f55-ca83037ca84d</t>
+  </si>
+  <si>
+    <t>e3a8a36e-324a-4a21-8b3b-6b9e99e9bf47</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "68524-8" and Answer Code "LA6270-8" are not matching with the reference data found in ANSWER_CODE</t>
@@ -309,31 +309,31 @@
     <t>LA6270-8</t>
   </si>
   <si>
-    <t>1aec4b08-791c-40ae-aa4e-099ba2df7423</t>
-  </si>
-  <si>
-    <t>8fa111e5-8af2-4396-9970-a746ee376c85</t>
-  </si>
-  <si>
-    <t>f0bf1e50-97bb-4706-9b9f-56b0cfb20bb4</t>
-  </si>
-  <si>
-    <t>47ca3904-83ea-435c-9b67-5cd16c013598</t>
+    <t>db33908d-84ab-48a0-8de9-a7344e2fdebc</t>
+  </si>
+  <si>
+    <t>7f2bd43e-efad-4166-a197-caca396c7645</t>
+  </si>
+  <si>
+    <t>edfad29c-cae4-45dc-a477-eb6d0b10520f</t>
+  </si>
+  <si>
+    <t>52a046f3-f40d-4bed-a3c2-9d46ed164066</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "68517-2" and Answer Code "LA6270-8" are not matching with the reference data found in ANSWER_CODE</t>
   </si>
   <si>
-    <t>c79778a9-cd6c-4572-ab3a-2bd0c469d359</t>
-  </si>
-  <si>
-    <t>1903820c-3c30-4de0-b42f-6e9d27440810</t>
-  </si>
-  <si>
-    <t>8518be33-0bb4-499b-aba0-c9dabb89a160</t>
-  </si>
-  <si>
-    <t>4ef19dd6-1c73-40e1-af0d-30f609cbe595</t>
+    <t>1315191e-507c-4860-b5a8-49a930143651</t>
+  </si>
+  <si>
+    <t>fd8de152-86a8-4f5a-91fc-0e8ad6c03a7e</t>
+  </si>
+  <si>
+    <t>5a4e2085-7cdd-4aa2-8dc6-974c00ceb666</t>
+  </si>
+  <si>
+    <t>6c00a0c2-4871-457a-a490-46698eea8d18</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "69858-9" and Answer Code "LA33-6" are not matching with the reference data found in ANSWER_CODE</t>
@@ -342,16 +342,16 @@
     <t>LA33-6</t>
   </si>
   <si>
-    <t>6fd52d2e-5a6c-4ee5-8522-393aa7877a87</t>
-  </si>
-  <si>
-    <t>97a205b2-98f5-4fd7-8aef-c17415d402ec</t>
-  </si>
-  <si>
-    <t>693e6a04-3be5-494c-a9b1-67a69e30f51a</t>
-  </si>
-  <si>
-    <t>ac297eb7-8ac6-4052-acb2-4709ef7e0a31</t>
+    <t>408752d3-5563-40ee-a9d6-68f731bf48f9</t>
+  </si>
+  <si>
+    <t>7b0932d3-3fcc-434f-a3a2-ecd786fa5d13</t>
+  </si>
+  <si>
+    <t>b4a582bd-55b2-4988-b48a-c62c4b70a3d6</t>
+  </si>
+  <si>
+    <t>155f15b6-89ba-41b1-bf39-b3e0cc337de7</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "68516-4" and Answer Code "LA28853-2" are not matching with the reference data found in ANSWER_CODE</t>
@@ -360,16 +360,16 @@
     <t>LA28853-2</t>
   </si>
   <si>
-    <t>c3879b21-8ef5-4ffe-97ca-c00a6c45d849</t>
-  </si>
-  <si>
-    <t>7bd429b0-eae0-42fe-8eec-7d21ef655dfd</t>
-  </si>
-  <si>
-    <t>5b5d7707-1f12-4d58-a7ca-56e85111ca23</t>
-  </si>
-  <si>
-    <t>06b68a85-7976-4fa2-ba6f-a121eb363fca</t>
+    <t>5e900cf0-fcd1-438e-8bcd-23dce6a0d248</t>
+  </si>
+  <si>
+    <t>ef9164f5-5f5f-4a8c-a7cd-4ff1509a996b</t>
+  </si>
+  <si>
+    <t>e93f8c06-7e5e-49b0-9e12-5c52fe1ebb85</t>
+  </si>
+  <si>
+    <t>5bcdbb96-e63a-4f77-9bdf-767492bcfd44</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "44250-9" and Answer Code "LA6571-9" are not matching with the reference data found in ANSWER_CODE</t>
@@ -378,7 +378,7 @@
     <t>LA6571-9</t>
   </si>
   <si>
-    <t>3dbd6b1d-ff17-40e6-8afc-81d4ef1331ea</t>
+    <t>8bf8e88d-5c62-4921-a651-84a690d607f0</t>
   </si>
   <si>
     <t>Invalid value in POTENTIAL_NEED_INDICATED</t>
@@ -393,13 +393,13 @@
     <t>Validate Potential Need Indicated, Screening Code, Question Code and Answer Code with ahc cross walk reference data</t>
   </si>
   <si>
-    <t>32afeb54-8ad6-4827-b970-0046d04a7cc8</t>
-  </si>
-  <si>
-    <t>dd6dff5e-3389-4b43-8f65-7cb773adfb40</t>
-  </si>
-  <si>
-    <t>26851362-3e2d-4643-8dfe-765ab4e73f78</t>
+    <t>025b8512-4c75-4d04-88d2-8f926b3ad26a</t>
+  </si>
+  <si>
+    <t>76110869-eec6-43cc-a8a0-b8753a77d45c</t>
+  </si>
+  <si>
+    <t>5b41f561-a1e0-4f99-8da6-80bbf546da39</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "93038-8" and Answer Code "LA13902-4" are not matching with the reference data found in ANSWER_CODE</t>
@@ -408,7 +408,7 @@
     <t>LA13902-4</t>
   </si>
   <si>
-    <t>c14f5105-f52e-45d5-8ddf-f51df4ff658d</t>
+    <t>a1e06888-6e29-4858-b05c-64b3bfb14bbc</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44255-8" and Answer Code "LA6569-3" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
@@ -417,13 +417,13 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>a48990c9-04c9-438c-a543-efe791b77dd7</t>
-  </si>
-  <si>
-    <t>6949647c-8eff-42de-9034-764d207e1b29</t>
-  </si>
-  <si>
-    <t>c82edfd8-1811-4947-ba2a-9447b2d7b77e</t>
+    <t>d5d43fec-49d9-45de-b5a6-0d313887c5e5</t>
+  </si>
+  <si>
+    <t>d91c129e-dc2c-45c6-812d-7919a5f38b7a</t>
+  </si>
+  <si>
+    <t>067d8643-0b0f-4017-b27e-9b9223780315</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "97027-7" and Answer Code "LA32-8" are not matching with the reference data found in ANSWER_CODE</t>
@@ -432,7 +432,7 @@
     <t>LA32-8</t>
   </si>
   <si>
-    <t>864f006f-3daf-407f-b3be-d7b4d9e795d2</t>
+    <t>3f43598a-3824-42ec-ade3-f449cd4812a4</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "69858-9" and Answer Code "LA33-6" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
@@ -441,10 +441,10 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>e963b326-b443-4727-9cc1-aca1a9ef2f97</t>
-  </si>
-  <si>
-    <t>09811053-03e8-4351-b9ed-927889907f6c</t>
+    <t>e879406b-aa02-4284-ba23-b83f61df3720</t>
+  </si>
+  <si>
+    <t>b9278cc8-f222-4f39-9200-65c99c03bd2d</t>
   </si>
   <si>
     <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
@@ -453,25 +453,25 @@
     <t>03/05/94 13:08</t>
   </si>
   <si>
-    <t>5c4657dc-8cff-4f78-83f8-8356e608aada</t>
+    <t>5c853da9-aba7-4495-9948-3f062fa3fac8</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "69861-3" and Answer Code "LA32-8" are not matching with the reference data found in ANSWER_CODE</t>
   </si>
   <si>
-    <t>a73e0c04-7f06-400b-91f8-4a9d4553d99c</t>
+    <t>2a90d219-3dcf-40cf-b85a-03ec2e035e32</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95618-5" and Answer Code "LA10066-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>9b213f1a-2551-4415-9b20-b98782006e5e</t>
-  </si>
-  <si>
-    <t>7a31426b-9330-4387-b9f0-a56a0603310a</t>
-  </si>
-  <si>
-    <t>edb2c003-6fd8-4b62-b87f-36be0eca2ab2</t>
+    <t>d52121f1-231f-4329-beab-1ca316bdcd13</t>
+  </si>
+  <si>
+    <t>2b93b9ee-dd8e-475d-9183-03628907443b</t>
+  </si>
+  <si>
+    <t>fcccaf8f-55bb-4430-b8bc-39e41c55ac01</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "93159-2" and Answer Code "LA10044-8" are not matching with the reference data found in ANSWER_CODE</t>
@@ -480,190 +480,190 @@
     <t>LA10044-8</t>
   </si>
   <si>
-    <t>1611130b-33a0-4b1c-8e4e-694348e4a344</t>
+    <t>1eb8cd50-8dab-4b93-b30a-9c05a5b24696</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "68524-8" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>a5505694-0081-4d4d-9da9-dc6eb0e4589c</t>
-  </si>
-  <si>
-    <t>c443079e-1771-4ccf-aeee-ba5f2ea821b7</t>
-  </si>
-  <si>
-    <t>6e63d31e-0fdb-41a7-bbf5-f2a9a005db6e</t>
+    <t>362a9ba3-b775-4b2c-a44b-ee0e0701fdb8</t>
+  </si>
+  <si>
+    <t>e921b823-ce17-45d4-b389-1f7ea878370e</t>
+  </si>
+  <si>
+    <t>500f86a2-08c5-42eb-9583-0d5812b7281f</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95615-1" and Answer Code "LA10082-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>0710b8b5-7b25-445e-a118-ab9bbbf436ee</t>
-  </si>
-  <si>
-    <t>ef391bf4-ad8e-488c-b4a6-9e92f7b612d1</t>
-  </si>
-  <si>
-    <t>801fa8dd-c990-4b62-9672-35b863b0b54d</t>
+    <t>7103df56-e279-4012-a281-0e2114f9fa6f</t>
+  </si>
+  <si>
+    <t>87be461b-dd68-499f-b9d5-adebef433033</t>
+  </si>
+  <si>
+    <t>dd4081dd-3c95-4bb0-83bc-74afc385b6b2</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "76513-1" and Answer Code "LA15832-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>9b2f456d-f1ba-4638-a38c-d4d0add84488</t>
-  </si>
-  <si>
-    <t>79d3c887-6111-4ee2-bb15-356e02d5d5fa</t>
-  </si>
-  <si>
-    <t>6e176bde-3792-42f5-9d5c-45bf3c40ed0a</t>
+    <t>6a00c6da-9a2a-4aad-997f-f45be9997179</t>
+  </si>
+  <si>
+    <t>4f142396-71c2-4a8d-ac64-3e0fc5043a09</t>
+  </si>
+  <si>
+    <t>fdcba316-55b2-4385-9358-717507921100</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95616-9" and Answer Code "LA16644-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>558d1955-2fb8-4aea-ab86-a6dfdedf5dde</t>
-  </si>
-  <si>
-    <t>35509e26-087f-4b6c-9aec-e6c0fb2599d9</t>
-  </si>
-  <si>
-    <t>85699b23-56ed-424f-ab58-96d44ba3547d</t>
+    <t>c6c7efbf-93c5-43f9-a778-b0de7a6a4d89</t>
+  </si>
+  <si>
+    <t>3c3bea8b-a30e-411b-b2f6-84f738ba8a7a</t>
+  </si>
+  <si>
+    <t>97bb2498-4268-4777-a8bc-10cc4974de88</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "97027-7" and Answer Code "LA32-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>1d2454c1-cb00-4203-aa0e-752a112c9d71</t>
-  </si>
-  <si>
-    <t>4566e1c7-b260-406e-9dc7-335d9b51e84a</t>
-  </si>
-  <si>
-    <t>936c6634-cf5c-4a84-a515-9efc0d7558a7</t>
+    <t>ad494fe4-0a9d-44bd-8813-524062768d08</t>
+  </si>
+  <si>
+    <t>9fe506d8-6e9b-4ab6-9db6-449c814d229d</t>
+  </si>
+  <si>
+    <t>b71c98ad-bc7c-49d5-87f7-4c3b6ccbb89c</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "68516-4" and Answer Code "LA28853-2" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>5f7a94ff-8d8e-4414-8974-ad3f4f3bfe33</t>
-  </si>
-  <si>
-    <t>0daea509-02a1-44ea-8f16-a6532f5aa2db</t>
-  </si>
-  <si>
-    <t>12b91a47-a951-44c6-9f5a-e4b64c1568bc</t>
+    <t>cf82cd2d-7973-4c20-ae2f-ae2655dbbc9a</t>
+  </si>
+  <si>
+    <t>0fede892-aced-4d19-a33d-4ab95b3dc2aa</t>
+  </si>
+  <si>
+    <t>0b328383-e38d-4efa-bfca-628edb277619</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95617-7" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>46c1984b-4591-4a2a-9f69-c6324793c3dd</t>
-  </si>
-  <si>
-    <t>1bf4ddd3-062f-4ade-95f7-3577f5129124</t>
-  </si>
-  <si>
-    <t>6528c3f4-4a64-42ba-89e5-14342d8d794b</t>
+    <t>b5298a09-0a07-411e-8ce8-2d94a760354d</t>
+  </si>
+  <si>
+    <t>5ae8ea3d-e4dd-4d15-ad93-287aae58fe55</t>
+  </si>
+  <si>
+    <t>a590e431-cb49-420c-bbf0-54269408bdff</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "96781-0" and Answer Code "LA31979-0" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>d60704d3-536a-41e8-bb32-15ea1431e18a</t>
-  </si>
-  <si>
-    <t>0eda4177-5608-49d4-9db9-5eb72a7b91fc</t>
-  </si>
-  <si>
-    <t>d0c95e55-c098-4dbc-a9c0-8779ae476660</t>
+    <t>6e4de5b2-20e6-4a63-af23-c956d30a0db6</t>
+  </si>
+  <si>
+    <t>b02edc1b-e15e-4b9e-b0b7-77f9ce798d64</t>
+  </si>
+  <si>
+    <t>57c1bb4c-92fb-45fd-87e3-3d524dfd9ab0</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44250-9" and Answer Code "LA6571-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>6e1f2434-21a5-4b11-aeb1-af482a57392f</t>
-  </si>
-  <si>
-    <t>8037f2ef-e125-4bca-ac0e-be3ff1dc1474</t>
-  </si>
-  <si>
-    <t>59b9e6d9-e4e6-4636-8cc4-05d3854ffb21</t>
+    <t>b78f0c90-163b-4ce2-95a6-f2e9d81ab56e</t>
+  </si>
+  <si>
+    <t>dd5294bc-9ea8-4a84-95a2-ad95b403b325</t>
+  </si>
+  <si>
+    <t>314f5962-e44d-4653-8973-6cdb4c1999c2</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "93159-2" and Answer Code "LA10044-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>2213cbde-f7cc-4943-bb6c-ba174cb0c4b5</t>
-  </si>
-  <si>
-    <t>56c2c6fc-4885-4142-afbd-d2f6aa719c90</t>
-  </si>
-  <si>
-    <t>12bee8c6-4dd7-45c5-8e55-eeb616020bf4</t>
+    <t>1f8ee814-7404-4c62-b13d-b8d3c95bcceb</t>
+  </si>
+  <si>
+    <t>5ca7f71c-47bd-414a-89bc-3328bee4b4f2</t>
+  </si>
+  <si>
+    <t>8a01c7c5-0485-4e55-bb58-91396edbf552</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "89555-7" and Answer Code "LA6113-0" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>3eb261de-9001-42e0-afb9-fd861cf16e75</t>
-  </si>
-  <si>
-    <t>1f761cd3-d176-4b7c-a102-bdcae8cb9f44</t>
-  </si>
-  <si>
-    <t>378b1777-5a10-4d4a-a442-059ce3d7c082</t>
+    <t>bd608a13-dc4e-44da-9deb-417739471840</t>
+  </si>
+  <si>
+    <t>af37d7a2-20fd-458e-b4c4-8d1cbbb5efb3</t>
+  </si>
+  <si>
+    <t>73b970dc-d0f2-4d06-8d7e-1c54f6c9a4f6</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "93038-8" and Answer Code "LA13902-4" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>ef76d150-9999-4877-a8b9-a142ae3f98a9</t>
-  </si>
-  <si>
-    <t>66f68cd5-c981-4ba0-95f4-dbc2a55972d5</t>
-  </si>
-  <si>
-    <t>1dbba41f-4527-4a81-afb7-b92f6bc0740a</t>
+    <t>cc5e3cbf-6172-4906-8b0b-3707b3b1f83d</t>
+  </si>
+  <si>
+    <t>e2e3e84e-3239-4864-ac88-ac74797ed78a</t>
+  </si>
+  <si>
+    <t>3863779d-d94e-4751-8149-4fc135bbdb5e</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "69861-3" and Answer Code "LA32-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>37d1d80d-e7d0-4b6b-a1eb-d85aed2f6a4b</t>
-  </si>
-  <si>
-    <t>3bb2e3e3-6f3f-4c45-96b8-552880b2c669</t>
-  </si>
-  <si>
-    <t>4cd932df-49f6-42e5-9a66-5ccb03d5b1db</t>
+    <t>aa47fcde-2351-4337-98b3-62c425a72a75</t>
+  </si>
+  <si>
+    <t>9544db2e-42bc-4be7-a77e-03391b7aa215</t>
+  </si>
+  <si>
+    <t>4a2eb67a-88fa-438f-8085-292f5c25efc7</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "96842-0" and Answer Code "LA18891-4" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>fc5f02b3-048a-49eb-8a52-2c03c256d4b6</t>
-  </si>
-  <si>
-    <t>2e256766-2bed-40ae-9feb-599a5d131a5c</t>
-  </si>
-  <si>
-    <t>d8c10733-24f8-4d3d-aa76-1eb89b665be8</t>
-  </si>
-  <si>
-    <t>3e0aae8a-86c8-4b0b-925c-370dd8a8dedd</t>
-  </si>
-  <si>
-    <t>5c48bb3c-10d0-4da2-845b-1f76bfc5ff91</t>
-  </si>
-  <si>
-    <t>d456a5fe-9b10-4652-b169-5f0feacfef43</t>
-  </si>
-  <si>
-    <t>c12a0fb5-56f6-4bfb-8988-c40c2b976b47</t>
-  </si>
-  <si>
-    <t>2d3bf0d1-5f03-4b83-92ec-d8f13d74ff78</t>
+    <t>73034125-5056-4e70-964b-693962875c1d</t>
+  </si>
+  <si>
+    <t>52644959-5383-466d-9694-20c3a3156de7</t>
+  </si>
+  <si>
+    <t>0ada3647-1ff3-4aab-a783-9e5c19be20eb</t>
+  </si>
+  <si>
+    <t>a1492ef7-b2bf-4d10-a71f-04217cd95c12</t>
+  </si>
+  <si>
+    <t>eeb35705-edbe-474d-94b1-344809808c6c</t>
+  </si>
+  <si>
+    <t>53bf2850-4371-4999-8cd1-0a8a18248f65</t>
+  </si>
+  <si>
+    <t>6f4d082c-f89a-43e7-914c-165ce6a81828</t>
+  </si>
+  <si>
+    <t>1842614e-2880-4dad-8a20-6dc676159e7b</t>
   </si>
   <si>
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
@@ -816,7 +816,7 @@
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>99d7158e-91a4-4ed8-825e-4a351a2d7fa9</t>
+    <t>397cde6b-a7f0-4a29-9ab7-4519f9c41b80</t>
   </si>
   <si>
     <t>Mandatory field CONSENT is empty</t>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -96,7 +96,7 @@
     <t>screening_20240307</t>
   </si>
   <si>
-    <t>7d3130df-50b7-429c-8354-be2781c2e78b</t>
+    <t>09b7334a-1514-4de2-b36e-671858821b4f</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -120,7 +120,7 @@
     <t>Resolved By QE/QCS</t>
   </si>
   <si>
-    <t>970f3a23-308f-4875-aeed-a9c8010732b4</t>
+    <t>257bc1e3-35ac-4815-89e5-95244e2d51d6</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -138,7 +138,7 @@
     <t>Please be sure to provide both a valid date and time.</t>
   </si>
   <si>
-    <t>2aa428f9-e8ca-4525-872f-bd6224121a31</t>
+    <t>2310954b-7aa5-44c1-9b20-e3a776857717</t>
   </si>
   <si>
     <t>Invalid Answer Code</t>
@@ -159,7 +159,7 @@
     <t>WARNING</t>
   </si>
   <si>
-    <t>5f7614c3-9e73-47e7-9bc9-99999364ae19</t>
+    <t>91b6a378-6b37-4b75-ae5a-b196a7fd6799</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -186,7 +186,7 @@
     <t>admin_demographics_20240307</t>
   </si>
   <si>
-    <t>5f5046ce-d6bf-40f4-a113-90c87683310e</t>
+    <t>d93cfdb2-6a85-44c9-bc64-02468b7f1b1f</t>
   </si>
   <si>
     <t>Combination Not Matching</t>
@@ -204,7 +204,7 @@
     <t>The RACE_CODE "1142-9" of RACE_CODE_DESCRIPTION "Coquille" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>0090848b-3389-4f3d-8899-9174dae0c622</t>
+    <t>8a286c61-e57a-4c2e-90bf-34b068be4bb6</t>
   </si>
   <si>
     <t>Invalid RACE CODE DESCRIPTION</t>
@@ -222,13 +222,13 @@
     <t>Validate RACE CODE DESCRIPTION with race reference data</t>
   </si>
   <si>
-    <t>63c20d3e-5a88-4cd1-a6ba-491850a65151</t>
-  </si>
-  <si>
-    <t>5c2f7272-f544-486c-8487-46b3ee126efc</t>
-  </si>
-  <si>
-    <t>6516c754-1959-41ad-80c2-689a5a13341f</t>
+    <t>92d6c614-7196-4c63-80f3-137ae4f34c30</t>
+  </si>
+  <si>
+    <t>03b6641e-17ae-428e-a19b-ed9fa33300a0</t>
+  </si>
+  <si>
+    <t>ffe9c8e8-8b86-4473-b860-922d2361d16d</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "96842-0" and Answer Code "LA18891-4" are not matching with the reference data found in ANSWER_CODE</t>
@@ -237,10 +237,10 @@
     <t>LA18891-4</t>
   </si>
   <si>
-    <t>f7bbe4fd-9832-4732-9014-dab8cc90433c</t>
-  </si>
-  <si>
-    <t>79b706fc-a190-48de-a5be-38b9499c5ff4</t>
+    <t>8ba636fc-b681-4c2a-80d6-dd0219d2cd7e</t>
+  </si>
+  <si>
+    <t>4356e83f-d708-496a-8c6b-ffe83779f9b6</t>
   </si>
   <si>
     <t>Invalid value "Coquille" found in RACE_CODE_DESCRIPTION</t>
@@ -249,13 +249,13 @@
     <t>The RACE_CODE_DESCRIPTION "Coquille" of RACE_CODE "1142-9" is not matching with the RACE_CODE_DESCRIPTION of RACE_CODE in reference data</t>
   </si>
   <si>
-    <t>1bc36a0b-6bec-4d03-91b1-a77580353f2c</t>
-  </si>
-  <si>
-    <t>73ee848c-b9fc-4ee4-af18-a6a5140092c9</t>
-  </si>
-  <si>
-    <t>6d1a4149-7db8-479f-9b12-6a0a1ea06fa4</t>
+    <t>ffa827d9-5f1e-4b91-a168-aeb0b13bb274</t>
+  </si>
+  <si>
+    <t>c7999171-b179-445d-bc46-bd194d8907e9</t>
+  </si>
+  <si>
+    <t>11820fe1-94ee-4b33-b0d3-c52c662cf48f</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "44255-8" and Answer Code "LA6569-3" are not matching with the reference data found in ANSWER_CODE</t>
@@ -264,7 +264,7 @@
     <t>LA6569-3</t>
   </si>
   <si>
-    <t>8b14cf18-2ccd-4c7f-9146-d78f4d978131</t>
+    <t>6a22bbc2-3923-46e8-a348-18c416fc2ff6</t>
   </si>
   <si>
     <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA','yes','no','na')</t>
@@ -276,13 +276,13 @@
     <t>Use only allowed values 'Yes','No','NA','yes','no','na' in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>5485f038-d864-4f35-9576-c3fc3f94cc1c</t>
-  </si>
-  <si>
-    <t>edcc23eb-1679-48d7-ab2f-32ddbf286025</t>
-  </si>
-  <si>
-    <t>35cbf2f9-fb17-4ddc-881b-f249aad5c85a</t>
+    <t>80fac7d0-28db-4e02-9589-0fa17257fb7c</t>
+  </si>
+  <si>
+    <t>678fa32b-9d2e-4ef6-84cd-7ce6d01e867f</t>
+  </si>
+  <si>
+    <t>2a1c34ff-dd37-4ee8-b07e-a22b2cdd7346</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "96781-0" and Answer Code "LA31979-0" are not matching with the reference data found in ANSWER_CODE</t>
@@ -291,16 +291,16 @@
     <t>LA31979-0</t>
   </si>
   <si>
-    <t>c03ca390-ee24-4c08-b0f2-8084f2ea28bb</t>
-  </si>
-  <si>
-    <t>1524a424-a9a9-4dfa-89b1-00e74e3dc9d9</t>
-  </si>
-  <si>
-    <t>e0f7d99a-d838-4aad-8f55-ca83037ca84d</t>
-  </si>
-  <si>
-    <t>e3a8a36e-324a-4a21-8b3b-6b9e99e9bf47</t>
+    <t>4662a0a0-31ee-4be0-8ce3-9b38a410f956</t>
+  </si>
+  <si>
+    <t>f15353f2-2ee8-41a8-b605-4e8c883cc35e</t>
+  </si>
+  <si>
+    <t>bea12b49-8b58-48da-ae40-14950f146a97</t>
+  </si>
+  <si>
+    <t>4570ef72-4d1d-4bbb-ac2a-1a5b8b0bcf43</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "68524-8" and Answer Code "LA6270-8" are not matching with the reference data found in ANSWER_CODE</t>
@@ -309,31 +309,31 @@
     <t>LA6270-8</t>
   </si>
   <si>
-    <t>db33908d-84ab-48a0-8de9-a7344e2fdebc</t>
-  </si>
-  <si>
-    <t>7f2bd43e-efad-4166-a197-caca396c7645</t>
-  </si>
-  <si>
-    <t>edfad29c-cae4-45dc-a477-eb6d0b10520f</t>
-  </si>
-  <si>
-    <t>52a046f3-f40d-4bed-a3c2-9d46ed164066</t>
+    <t>564795d4-2594-420b-9026-40c350dc8407</t>
+  </si>
+  <si>
+    <t>8bb86bb1-8d72-44d6-a560-25141a883036</t>
+  </si>
+  <si>
+    <t>99b95f78-9ad8-42a9-ad5a-44484fb0182a</t>
+  </si>
+  <si>
+    <t>5778974f-36ac-4681-b599-a4385343977a</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "68517-2" and Answer Code "LA6270-8" are not matching with the reference data found in ANSWER_CODE</t>
   </si>
   <si>
-    <t>1315191e-507c-4860-b5a8-49a930143651</t>
-  </si>
-  <si>
-    <t>fd8de152-86a8-4f5a-91fc-0e8ad6c03a7e</t>
-  </si>
-  <si>
-    <t>5a4e2085-7cdd-4aa2-8dc6-974c00ceb666</t>
-  </si>
-  <si>
-    <t>6c00a0c2-4871-457a-a490-46698eea8d18</t>
+    <t>c0c70243-00b8-4411-8d91-8d9f38f93bed</t>
+  </si>
+  <si>
+    <t>1db43e86-ff82-4edc-86fd-bb4ec30ca66e</t>
+  </si>
+  <si>
+    <t>a1e856ec-ccd9-4831-9ff0-f07042ed67fa</t>
+  </si>
+  <si>
+    <t>8cdb8af7-12e0-40a7-92f4-d198df058427</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "69858-9" and Answer Code "LA33-6" are not matching with the reference data found in ANSWER_CODE</t>
@@ -342,16 +342,16 @@
     <t>LA33-6</t>
   </si>
   <si>
-    <t>408752d3-5563-40ee-a9d6-68f731bf48f9</t>
-  </si>
-  <si>
-    <t>7b0932d3-3fcc-434f-a3a2-ecd786fa5d13</t>
-  </si>
-  <si>
-    <t>b4a582bd-55b2-4988-b48a-c62c4b70a3d6</t>
-  </si>
-  <si>
-    <t>155f15b6-89ba-41b1-bf39-b3e0cc337de7</t>
+    <t>9c2eb6c8-384b-432d-a6ef-d8403771d2a2</t>
+  </si>
+  <si>
+    <t>8b03b509-7093-40bc-8434-a8bb0e863b8b</t>
+  </si>
+  <si>
+    <t>87692c93-012d-46df-9a34-c00c584ff1aa</t>
+  </si>
+  <si>
+    <t>9c58e938-6860-48d2-811b-7a808fab0100</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "68516-4" and Answer Code "LA28853-2" are not matching with the reference data found in ANSWER_CODE</t>
@@ -360,16 +360,16 @@
     <t>LA28853-2</t>
   </si>
   <si>
-    <t>5e900cf0-fcd1-438e-8bcd-23dce6a0d248</t>
-  </si>
-  <si>
-    <t>ef9164f5-5f5f-4a8c-a7cd-4ff1509a996b</t>
-  </si>
-  <si>
-    <t>e93f8c06-7e5e-49b0-9e12-5c52fe1ebb85</t>
-  </si>
-  <si>
-    <t>5bcdbb96-e63a-4f77-9bdf-767492bcfd44</t>
+    <t>35a25288-788d-4a44-8795-b32fe3cfa30e</t>
+  </si>
+  <si>
+    <t>ca2d65c6-d4c3-4ce0-8feb-b509e67aab4a</t>
+  </si>
+  <si>
+    <t>d52b5367-a67f-4c40-b3d2-3103b549415f</t>
+  </si>
+  <si>
+    <t>c9806066-7233-45af-92e5-908edd1beacd</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "44250-9" and Answer Code "LA6571-9" are not matching with the reference data found in ANSWER_CODE</t>
@@ -378,7 +378,7 @@
     <t>LA6571-9</t>
   </si>
   <si>
-    <t>8bf8e88d-5c62-4921-a651-84a690d607f0</t>
+    <t>98161028-ac3b-43f4-8786-5ca2aec3476f</t>
   </si>
   <si>
     <t>Invalid value in POTENTIAL_NEED_INDICATED</t>
@@ -393,13 +393,13 @@
     <t>Validate Potential Need Indicated, Screening Code, Question Code and Answer Code with ahc cross walk reference data</t>
   </si>
   <si>
-    <t>025b8512-4c75-4d04-88d2-8f926b3ad26a</t>
-  </si>
-  <si>
-    <t>76110869-eec6-43cc-a8a0-b8753a77d45c</t>
-  </si>
-  <si>
-    <t>5b41f561-a1e0-4f99-8da6-80bbf546da39</t>
+    <t>b3fc2e79-a20d-49a9-b5f7-65559ab2c2f1</t>
+  </si>
+  <si>
+    <t>10917618-5003-4daa-a7fc-a28d72a7d49c</t>
+  </si>
+  <si>
+    <t>888edf57-93cd-4561-b79e-66e20d7dabe0</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "93038-8" and Answer Code "LA13902-4" are not matching with the reference data found in ANSWER_CODE</t>
@@ -408,7 +408,7 @@
     <t>LA13902-4</t>
   </si>
   <si>
-    <t>a1e06888-6e29-4858-b05c-64b3bfb14bbc</t>
+    <t>d1868a5a-c510-457b-b519-74860bf9847a</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44255-8" and Answer Code "LA6569-3" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
@@ -417,13 +417,13 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>d5d43fec-49d9-45de-b5a6-0d313887c5e5</t>
-  </si>
-  <si>
-    <t>d91c129e-dc2c-45c6-812d-7919a5f38b7a</t>
-  </si>
-  <si>
-    <t>067d8643-0b0f-4017-b27e-9b9223780315</t>
+    <t>bae8f082-014e-4ba1-aa1b-d487e83421a1</t>
+  </si>
+  <si>
+    <t>18b3fc93-59e5-435e-b3c0-d42c7120c6bb</t>
+  </si>
+  <si>
+    <t>d394acae-f653-4e2b-b653-5bc4df0dbc57</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "97027-7" and Answer Code "LA32-8" are not matching with the reference data found in ANSWER_CODE</t>
@@ -432,7 +432,7 @@
     <t>LA32-8</t>
   </si>
   <si>
-    <t>3f43598a-3824-42ec-ade3-f449cd4812a4</t>
+    <t>c0e9df00-c3f3-49f3-be9e-108ad0df3235</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "69858-9" and Answer Code "LA33-6" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
@@ -441,10 +441,10 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>e879406b-aa02-4284-ba23-b83f61df3720</t>
-  </si>
-  <si>
-    <t>b9278cc8-f222-4f39-9200-65c99c03bd2d</t>
+    <t>80de24d2-5d78-4adf-ad6b-298bac6c0b48</t>
+  </si>
+  <si>
+    <t>0c6099a0-da26-4dd9-bb49-263672f992f5</t>
   </si>
   <si>
     <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
@@ -453,25 +453,25 @@
     <t>03/05/94 13:08</t>
   </si>
   <si>
-    <t>5c853da9-aba7-4495-9948-3f062fa3fac8</t>
+    <t>bb0d442b-2a9b-428f-a685-1fe48460f1a3</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "69861-3" and Answer Code "LA32-8" are not matching with the reference data found in ANSWER_CODE</t>
   </si>
   <si>
-    <t>2a90d219-3dcf-40cf-b85a-03ec2e035e32</t>
+    <t>fca78ffc-18eb-4374-a346-39061a1e26e2</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95618-5" and Answer Code "LA10066-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>d52121f1-231f-4329-beab-1ca316bdcd13</t>
-  </si>
-  <si>
-    <t>2b93b9ee-dd8e-475d-9183-03628907443b</t>
-  </si>
-  <si>
-    <t>fcccaf8f-55bb-4430-b8bc-39e41c55ac01</t>
+    <t>2217ed02-aee9-4123-bf65-54e608e2aaba</t>
+  </si>
+  <si>
+    <t>9d1367c5-58df-40c8-8905-87f663ec6241</t>
+  </si>
+  <si>
+    <t>eeacd526-85bd-4cdb-aa5d-a0142b9e7f49</t>
   </si>
   <si>
     <t>Provided Screening Code "97023-6", Question Code "93159-2" and Answer Code "LA10044-8" are not matching with the reference data found in ANSWER_CODE</t>
@@ -480,190 +480,190 @@
     <t>LA10044-8</t>
   </si>
   <si>
-    <t>1eb8cd50-8dab-4b93-b30a-9c05a5b24696</t>
+    <t>711f21eb-972b-43de-9f17-cb1358a6fe44</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "68524-8" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>362a9ba3-b775-4b2c-a44b-ee0e0701fdb8</t>
-  </si>
-  <si>
-    <t>e921b823-ce17-45d4-b389-1f7ea878370e</t>
-  </si>
-  <si>
-    <t>500f86a2-08c5-42eb-9583-0d5812b7281f</t>
+    <t>037a23ed-b1be-43d8-b546-8cc483b876b5</t>
+  </si>
+  <si>
+    <t>c23e2284-347a-45a6-bcc0-0a92c9c8a88c</t>
+  </si>
+  <si>
+    <t>843d6518-76e5-40b8-a7b3-75ae9d5910c3</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95615-1" and Answer Code "LA10082-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>7103df56-e279-4012-a281-0e2114f9fa6f</t>
-  </si>
-  <si>
-    <t>87be461b-dd68-499f-b9d5-adebef433033</t>
-  </si>
-  <si>
-    <t>dd4081dd-3c95-4bb0-83bc-74afc385b6b2</t>
+    <t>89cf9c31-4a08-41ba-a938-a058de10fa9a</t>
+  </si>
+  <si>
+    <t>85eb3468-c095-4f7d-bd07-b8effc1ce3f3</t>
+  </si>
+  <si>
+    <t>ae44a254-c516-4736-b38b-49bf97a8de17</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "76513-1" and Answer Code "LA15832-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>6a00c6da-9a2a-4aad-997f-f45be9997179</t>
-  </si>
-  <si>
-    <t>4f142396-71c2-4a8d-ac64-3e0fc5043a09</t>
-  </si>
-  <si>
-    <t>fdcba316-55b2-4385-9358-717507921100</t>
+    <t>d0d119bb-d7ad-47c2-9d75-5c4939270e5d</t>
+  </si>
+  <si>
+    <t>fb4b8e18-fe4d-43c4-99cb-71c8df90c721</t>
+  </si>
+  <si>
+    <t>7fc615f1-df1e-41a4-9605-b1d8f2887e9d</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95616-9" and Answer Code "LA16644-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>c6c7efbf-93c5-43f9-a778-b0de7a6a4d89</t>
-  </si>
-  <si>
-    <t>3c3bea8b-a30e-411b-b2f6-84f738ba8a7a</t>
-  </si>
-  <si>
-    <t>97bb2498-4268-4777-a8bc-10cc4974de88</t>
+    <t>71545c6e-cdd3-4d87-851b-5f7c473a52eb</t>
+  </si>
+  <si>
+    <t>348cc385-9a23-41ff-9ef2-b37e2deaf323</t>
+  </si>
+  <si>
+    <t>eb997444-68b6-469a-b2c5-1a52a78981b6</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "97027-7" and Answer Code "LA32-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>ad494fe4-0a9d-44bd-8813-524062768d08</t>
-  </si>
-  <si>
-    <t>9fe506d8-6e9b-4ab6-9db6-449c814d229d</t>
-  </si>
-  <si>
-    <t>b71c98ad-bc7c-49d5-87f7-4c3b6ccbb89c</t>
+    <t>06f7ad6a-821b-47b5-a4fa-511feb95c069</t>
+  </si>
+  <si>
+    <t>5e560bff-b904-4d3c-966c-4fc5e73ac6f7</t>
+  </si>
+  <si>
+    <t>c7a83500-2b26-41f8-a474-bed1a2563bab</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "68516-4" and Answer Code "LA28853-2" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>cf82cd2d-7973-4c20-ae2f-ae2655dbbc9a</t>
-  </si>
-  <si>
-    <t>0fede892-aced-4d19-a33d-4ab95b3dc2aa</t>
-  </si>
-  <si>
-    <t>0b328383-e38d-4efa-bfca-628edb277619</t>
+    <t>e6c3af4d-6e42-4647-b232-2866c22e60cb</t>
+  </si>
+  <si>
+    <t>aa4b48d5-fd5b-4807-930d-e40e35a86364</t>
+  </si>
+  <si>
+    <t>3c91856b-c6fc-4359-ae44-6a5b51866f5c</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95617-7" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>b5298a09-0a07-411e-8ce8-2d94a760354d</t>
-  </si>
-  <si>
-    <t>5ae8ea3d-e4dd-4d15-ad93-287aae58fe55</t>
-  </si>
-  <si>
-    <t>a590e431-cb49-420c-bbf0-54269408bdff</t>
+    <t>4d6b304e-a1ce-417a-8488-3e0e6b1ce102</t>
+  </si>
+  <si>
+    <t>df247289-e4be-44fe-b6fc-4407b1bf2e99</t>
+  </si>
+  <si>
+    <t>ab699f75-21cb-4f69-8892-49127010a39d</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "96781-0" and Answer Code "LA31979-0" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>6e4de5b2-20e6-4a63-af23-c956d30a0db6</t>
-  </si>
-  <si>
-    <t>b02edc1b-e15e-4b9e-b0b7-77f9ce798d64</t>
-  </si>
-  <si>
-    <t>57c1bb4c-92fb-45fd-87e3-3d524dfd9ab0</t>
+    <t>74c97b9c-79ba-4f4f-b66e-537ec3ad2346</t>
+  </si>
+  <si>
+    <t>d81b5b77-5af0-4654-9705-74ee24a46fd4</t>
+  </si>
+  <si>
+    <t>cef5bd3b-fb7e-4851-bf39-c3027d536e66</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44250-9" and Answer Code "LA6571-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>b78f0c90-163b-4ce2-95a6-f2e9d81ab56e</t>
-  </si>
-  <si>
-    <t>dd5294bc-9ea8-4a84-95a2-ad95b403b325</t>
-  </si>
-  <si>
-    <t>314f5962-e44d-4653-8973-6cdb4c1999c2</t>
+    <t>a7c9f6ed-a681-4d52-ba32-01e6d018893e</t>
+  </si>
+  <si>
+    <t>12a9a0e2-3daa-45be-81ab-1593dde148ec</t>
+  </si>
+  <si>
+    <t>8779aafa-e18b-4af1-8749-0cdcf83f9358</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "93159-2" and Answer Code "LA10044-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>1f8ee814-7404-4c62-b13d-b8d3c95bcceb</t>
-  </si>
-  <si>
-    <t>5ca7f71c-47bd-414a-89bc-3328bee4b4f2</t>
-  </si>
-  <si>
-    <t>8a01c7c5-0485-4e55-bb58-91396edbf552</t>
+    <t>dc71351b-6d8d-4031-862c-34249f686a83</t>
+  </si>
+  <si>
+    <t>6438da93-f364-4881-8f60-2e0b5eefd5c8</t>
+  </si>
+  <si>
+    <t>4e9d069e-f036-499f-9c53-e2eb1624a31a</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "89555-7" and Answer Code "LA6113-0" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>bd608a13-dc4e-44da-9deb-417739471840</t>
-  </si>
-  <si>
-    <t>af37d7a2-20fd-458e-b4c4-8d1cbbb5efb3</t>
-  </si>
-  <si>
-    <t>73b970dc-d0f2-4d06-8d7e-1c54f6c9a4f6</t>
+    <t>a5a50acd-c8bb-4384-9817-870013dbbc46</t>
+  </si>
+  <si>
+    <t>483d5484-1f8e-4a1c-984f-63b809a9588d</t>
+  </si>
+  <si>
+    <t>216bb252-4d64-41d9-b191-80d6e5334a4c</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "93038-8" and Answer Code "LA13902-4" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>cc5e3cbf-6172-4906-8b0b-3707b3b1f83d</t>
-  </si>
-  <si>
-    <t>e2e3e84e-3239-4864-ac88-ac74797ed78a</t>
-  </si>
-  <si>
-    <t>3863779d-d94e-4751-8149-4fc135bbdb5e</t>
+    <t>4edc032c-f374-4b49-be12-4ab481923798</t>
+  </si>
+  <si>
+    <t>f108702e-b61d-4d35-bc47-68d78ff93bfd</t>
+  </si>
+  <si>
+    <t>4fdff024-7e14-48b0-9254-e2b04893aad0</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "69861-3" and Answer Code "LA32-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>aa47fcde-2351-4337-98b3-62c425a72a75</t>
-  </si>
-  <si>
-    <t>9544db2e-42bc-4be7-a77e-03391b7aa215</t>
-  </si>
-  <si>
-    <t>4a2eb67a-88fa-438f-8085-292f5c25efc7</t>
+    <t>cbafd002-fe39-4a69-8094-ca8a4ef111b5</t>
+  </si>
+  <si>
+    <t>0cb25ecf-3771-4f9c-98a8-5234b577dad4</t>
+  </si>
+  <si>
+    <t>f243d14f-def2-4469-b206-3e461d75dded</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "96842-0" and Answer Code "LA18891-4" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>73034125-5056-4e70-964b-693962875c1d</t>
-  </si>
-  <si>
-    <t>52644959-5383-466d-9694-20c3a3156de7</t>
-  </si>
-  <si>
-    <t>0ada3647-1ff3-4aab-a783-9e5c19be20eb</t>
-  </si>
-  <si>
-    <t>a1492ef7-b2bf-4d10-a71f-04217cd95c12</t>
-  </si>
-  <si>
-    <t>eeb35705-edbe-474d-94b1-344809808c6c</t>
-  </si>
-  <si>
-    <t>53bf2850-4371-4999-8cd1-0a8a18248f65</t>
-  </si>
-  <si>
-    <t>6f4d082c-f89a-43e7-914c-165ce6a81828</t>
-  </si>
-  <si>
-    <t>1842614e-2880-4dad-8a20-6dc676159e7b</t>
+    <t>a43f158f-7a3e-4801-8852-e1e2505035ca</t>
+  </si>
+  <si>
+    <t>9d9ecca1-7776-4a00-99ce-ba50d95dfab2</t>
+  </si>
+  <si>
+    <t>2c7a77bb-3c13-42f3-b8f4-7c85401235b5</t>
+  </si>
+  <si>
+    <t>c4fa7a04-0f4e-45e9-acc1-4bf7b60322fb</t>
+  </si>
+  <si>
+    <t>d86f090b-e141-4840-83ab-bb706a7b29f6</t>
+  </si>
+  <si>
+    <t>648d0c48-32ce-41f8-81ee-8b1e1e2f1252</t>
+  </si>
+  <si>
+    <t>bd65676e-654c-406c-b241-49b0c50e4441</t>
+  </si>
+  <si>
+    <t>da1c08b4-5f36-4bcb-9c0f-1daf577732bb</t>
   </si>
   <si>
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
@@ -816,7 +816,7 @@
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>397cde6b-a7f0-4a29-9ab7-4519f9c41b80</t>
+    <t>b506f62c-2f97-4388-945d-6fe4bf4f8875</t>
   </si>
   <si>
     <t>Mandatory field CONSENT is empty</t>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t>orch_session_id</t>
   </si>
@@ -81,7 +81,7 @@
     <t>7bab389e-54af-5a13-a39f-079abdc73a48</t>
   </si>
   <si>
-    <t>0.10.0</t>
+    <t>0.10.1</t>
   </si>
   <si>
     <t>Session 05269d28-15ae-5bd6-bd88-f949ccfa52d7 markdown diagnostics not provided (not completed?)</t>
@@ -96,7 +96,7 @@
     <t>screening_20240307</t>
   </si>
   <si>
-    <t>09b7334a-1514-4de2-b36e-671858821b4f</t>
+    <t>4398cddc-d02e-45ea-bc5d-a791d0cc2adc</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -120,7 +120,7 @@
     <t>Resolved By QE/QCS</t>
   </si>
   <si>
-    <t>257bc1e3-35ac-4815-89e5-95244e2d51d6</t>
+    <t>9f596510-c94b-4924-9d6a-0c55445d18b0</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -138,28 +138,7 @@
     <t>Please be sure to provide both a valid date and time.</t>
   </si>
   <si>
-    <t>2310954b-7aa5-44c1-9b20-e3a776857717</t>
-  </si>
-  <si>
-    <t>Invalid Answer Code</t>
-  </si>
-  <si>
-    <t>Provided Screening Code "97023-6", Question Code "76513-1" and Answer Code "LA15832-1" are not matching with the reference data found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>LA15832-1</t>
-  </si>
-  <si>
-    <t>Validate Screening Code, Question Code and Answer Code with ahc cross walk reference data</t>
-  </si>
-  <si>
-    <t>WARNING</t>
-  </si>
-  <si>
-    <t>91b6a378-6b37-4b75-ae5a-b196a7fd6799</t>
+    <t>44bfefd2-a8e2-4619-8ac2-73a8ff307fef</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -186,7 +165,7 @@
     <t>admin_demographics_20240307</t>
   </si>
   <si>
-    <t>d93cfdb2-6a85-44c9-bc64-02468b7f1b1f</t>
+    <t>8c59c0e3-d2b5-48a7-9ace-77c5f6fd543c</t>
   </si>
   <si>
     <t>Combination Not Matching</t>
@@ -204,7 +183,7 @@
     <t>The RACE_CODE "1142-9" of RACE_CODE_DESCRIPTION "Coquille" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>8a286c61-e57a-4c2e-90bf-34b068be4bb6</t>
+    <t>22c619a0-63f3-4d09-a6d1-27e5b10edfe5</t>
   </si>
   <si>
     <t>Invalid RACE CODE DESCRIPTION</t>
@@ -222,25 +201,16 @@
     <t>Validate RACE CODE DESCRIPTION with race reference data</t>
   </si>
   <si>
-    <t>92d6c614-7196-4c63-80f3-137ae4f34c30</t>
-  </si>
-  <si>
-    <t>03b6641e-17ae-428e-a19b-ed9fa33300a0</t>
-  </si>
-  <si>
-    <t>ffe9c8e8-8b86-4473-b860-922d2361d16d</t>
-  </si>
-  <si>
-    <t>Provided Screening Code "97023-6", Question Code "96842-0" and Answer Code "LA18891-4" are not matching with the reference data found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>LA18891-4</t>
-  </si>
-  <si>
-    <t>8ba636fc-b681-4c2a-80d6-dd0219d2cd7e</t>
-  </si>
-  <si>
-    <t>4356e83f-d708-496a-8c6b-ffe83779f9b6</t>
+    <t>a56db7dc-3b2e-466e-b7ac-f4f70e7c4628</t>
+  </si>
+  <si>
+    <t>1c3bb765-aa45-4960-baa0-b3a26da1aa47</t>
+  </si>
+  <si>
+    <t>a59a58cd-e377-414d-85f5-f492c2a506a2</t>
+  </si>
+  <si>
+    <t>4509e571-a68c-4256-b54e-a8dc9e068f7b</t>
   </si>
   <si>
     <t>Invalid value "Coquille" found in RACE_CODE_DESCRIPTION</t>
@@ -249,22 +219,13 @@
     <t>The RACE_CODE_DESCRIPTION "Coquille" of RACE_CODE "1142-9" is not matching with the RACE_CODE_DESCRIPTION of RACE_CODE in reference data</t>
   </si>
   <si>
-    <t>ffa827d9-5f1e-4b91-a168-aeb0b13bb274</t>
-  </si>
-  <si>
-    <t>c7999171-b179-445d-bc46-bd194d8907e9</t>
-  </si>
-  <si>
-    <t>11820fe1-94ee-4b33-b0d3-c52c662cf48f</t>
-  </si>
-  <si>
-    <t>Provided Screening Code "97023-6", Question Code "44255-8" and Answer Code "LA6569-3" are not matching with the reference data found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>LA6569-3</t>
-  </si>
-  <si>
-    <t>6a22bbc2-3923-46e8-a348-18c416fc2ff6</t>
+    <t>c5b0ab4d-3874-4ffa-b21e-63996884b54c</t>
+  </si>
+  <si>
+    <t>27d3c2f6-34ef-45bf-b2b7-74b7c7e9bb7d</t>
+  </si>
+  <si>
+    <t>c165dc6a-168a-4f05-98bb-9e7f094c4e16</t>
   </si>
   <si>
     <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA','yes','no','na')</t>
@@ -276,175 +237,100 @@
     <t>Use only allowed values 'Yes','No','NA','yes','no','na' in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>80fac7d0-28db-4e02-9589-0fa17257fb7c</t>
-  </si>
-  <si>
-    <t>678fa32b-9d2e-4ef6-84cd-7ce6d01e867f</t>
-  </si>
-  <si>
-    <t>2a1c34ff-dd37-4ee8-b07e-a22b2cdd7346</t>
-  </si>
-  <si>
-    <t>Provided Screening Code "97023-6", Question Code "96781-0" and Answer Code "LA31979-0" are not matching with the reference data found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>LA31979-0</t>
-  </si>
-  <si>
-    <t>4662a0a0-31ee-4be0-8ce3-9b38a410f956</t>
-  </si>
-  <si>
-    <t>f15353f2-2ee8-41a8-b605-4e8c883cc35e</t>
-  </si>
-  <si>
-    <t>bea12b49-8b58-48da-ae40-14950f146a97</t>
-  </si>
-  <si>
-    <t>4570ef72-4d1d-4bbb-ac2a-1a5b8b0bcf43</t>
-  </si>
-  <si>
-    <t>Provided Screening Code "97023-6", Question Code "68524-8" and Answer Code "LA6270-8" are not matching with the reference data found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>LA6270-8</t>
-  </si>
-  <si>
-    <t>564795d4-2594-420b-9026-40c350dc8407</t>
-  </si>
-  <si>
-    <t>8bb86bb1-8d72-44d6-a560-25141a883036</t>
-  </si>
-  <si>
-    <t>99b95f78-9ad8-42a9-ad5a-44484fb0182a</t>
-  </si>
-  <si>
-    <t>5778974f-36ac-4681-b599-a4385343977a</t>
-  </si>
-  <si>
-    <t>Provided Screening Code "97023-6", Question Code "68517-2" and Answer Code "LA6270-8" are not matching with the reference data found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>c0c70243-00b8-4411-8d91-8d9f38f93bed</t>
-  </si>
-  <si>
-    <t>1db43e86-ff82-4edc-86fd-bb4ec30ca66e</t>
-  </si>
-  <si>
-    <t>a1e856ec-ccd9-4831-9ff0-f07042ed67fa</t>
-  </si>
-  <si>
-    <t>8cdb8af7-12e0-40a7-92f4-d198df058427</t>
-  </si>
-  <si>
-    <t>Provided Screening Code "97023-6", Question Code "69858-9" and Answer Code "LA33-6" are not matching with the reference data found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>LA33-6</t>
-  </si>
-  <si>
-    <t>9c2eb6c8-384b-432d-a6ef-d8403771d2a2</t>
-  </si>
-  <si>
-    <t>8b03b509-7093-40bc-8434-a8bb0e863b8b</t>
-  </si>
-  <si>
-    <t>87692c93-012d-46df-9a34-c00c584ff1aa</t>
-  </si>
-  <si>
-    <t>9c58e938-6860-48d2-811b-7a808fab0100</t>
-  </si>
-  <si>
-    <t>Provided Screening Code "97023-6", Question Code "68516-4" and Answer Code "LA28853-2" are not matching with the reference data found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>LA28853-2</t>
-  </si>
-  <si>
-    <t>35a25288-788d-4a44-8795-b32fe3cfa30e</t>
-  </si>
-  <si>
-    <t>ca2d65c6-d4c3-4ce0-8feb-b509e67aab4a</t>
-  </si>
-  <si>
-    <t>d52b5367-a67f-4c40-b3d2-3103b549415f</t>
-  </si>
-  <si>
-    <t>c9806066-7233-45af-92e5-908edd1beacd</t>
-  </si>
-  <si>
-    <t>Provided Screening Code "97023-6", Question Code "44250-9" and Answer Code "LA6571-9" are not matching with the reference data found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>LA6571-9</t>
-  </si>
-  <si>
-    <t>98161028-ac3b-43f4-8786-5ca2aec3476f</t>
+    <t>62234f03-b1d7-420f-a772-cbd8fb474445</t>
+  </si>
+  <si>
+    <t>d130e8e6-b121-4827-826c-11bba20a6739</t>
+  </si>
+  <si>
+    <t>74ed63e6-576f-4cdb-96ed-04d27da86214</t>
+  </si>
+  <si>
+    <t>7175152d-b2a4-4ede-986e-3ed77c5b73fc</t>
+  </si>
+  <si>
+    <t>a2ac4a39-a7b8-4923-9a2f-190c61cd2bef</t>
+  </si>
+  <si>
+    <t>f832a674-3866-4a8c-896b-924c2f88f2e0</t>
+  </si>
+  <si>
+    <t>a8b88cce-6ada-471c-82ba-c68fed5ded9d</t>
+  </si>
+  <si>
+    <t>077afc78-dad8-4732-b7c1-f27aee379134</t>
+  </si>
+  <si>
+    <t>b2574f5e-5b2d-4ee3-9ef2-2f7c9b5a0ed1</t>
+  </si>
+  <si>
+    <t>71ae0951-923f-47d3-bc48-0c3065895d39</t>
+  </si>
+  <si>
+    <t>1c824b0f-06ab-4ca3-8dc4-d8f1228a7534</t>
+  </si>
+  <si>
+    <t>8ec86cc4-3a5a-4e59-8499-7ed2ea02969f</t>
+  </si>
+  <si>
+    <t>c4c9c40a-ccde-4897-be82-3859a5e17c46</t>
+  </si>
+  <si>
+    <t>17dac939-1760-49c7-a108-49bbeac853a4</t>
+  </si>
+  <si>
+    <t>d55555e2-65c7-4de6-bbc0-1009e28daedb</t>
+  </si>
+  <si>
+    <t>69e2e2fc-fa4e-42bf-b315-8c31eaa8e1de</t>
+  </si>
+  <si>
+    <t>8847e610-0ae7-4e2e-a5cb-f42671352414</t>
+  </si>
+  <si>
+    <t>8551dfe0-b0a6-469b-8d94-4333d943b344</t>
   </si>
   <si>
     <t>Invalid value in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "68517-2" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44255-8" and Answer Code "LA6569-3" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
   <si>
     <t>Validate Potential Need Indicated, Screening Code, Question Code and Answer Code with ahc cross walk reference data</t>
   </si>
   <si>
-    <t>b3fc2e79-a20d-49a9-b5f7-65559ab2c2f1</t>
-  </si>
-  <si>
-    <t>10917618-5003-4daa-a7fc-a28d72a7d49c</t>
-  </si>
-  <si>
-    <t>888edf57-93cd-4561-b79e-66e20d7dabe0</t>
-  </si>
-  <si>
-    <t>Provided Screening Code "97023-6", Question Code "93038-8" and Answer Code "LA13902-4" are not matching with the reference data found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>LA13902-4</t>
-  </si>
-  <si>
-    <t>d1868a5a-c510-457b-b519-74860bf9847a</t>
-  </si>
-  <si>
-    <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44255-8" and Answer Code "LA6569-3" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>bae8f082-014e-4ba1-aa1b-d487e83421a1</t>
-  </si>
-  <si>
-    <t>18b3fc93-59e5-435e-b3c0-d42c7120c6bb</t>
-  </si>
-  <si>
-    <t>d394acae-f653-4e2b-b653-5bc4df0dbc57</t>
-  </si>
-  <si>
-    <t>Provided Screening Code "97023-6", Question Code "97027-7" and Answer Code "LA32-8" are not matching with the reference data found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>LA32-8</t>
-  </si>
-  <si>
-    <t>c0e9df00-c3f3-49f3-be9e-108ad0df3235</t>
-  </si>
-  <si>
-    <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "69858-9" and Answer Code "LA33-6" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>80de24d2-5d78-4adf-ad6b-298bac6c0b48</t>
-  </si>
-  <si>
-    <t>0c6099a0-da26-4dd9-bb49-263672f992f5</t>
+    <t>4e9213ed-c72d-4f2b-b9ba-e351bf0a072c</t>
+  </si>
+  <si>
+    <t>1671f85a-1e6f-4e52-8caa-c9922156a498</t>
+  </si>
+  <si>
+    <t>308e5769-35f0-4575-a2ab-ec0b8a592ecc</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95618-5" and Answer Code "LA10066-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>3f64946d-ae0f-48a5-8b55-f7dab431d07b</t>
+  </si>
+  <si>
+    <t>0b0d4d04-fa9d-4d34-b4e5-0d38708ca284</t>
+  </si>
+  <si>
+    <t>f0d3290f-0695-4513-a865-33a2f77f76ab</t>
+  </si>
+  <si>
+    <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95615-1" and Answer Code "LA10082-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
+  </si>
+  <si>
+    <t>b49c56e1-72d3-4f70-93c7-f8a5c8cad1d6</t>
+  </si>
+  <si>
+    <t>beb273c9-5ff8-457f-a2fa-baafab45baee</t>
   </si>
   <si>
     <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
@@ -453,217 +339,142 @@
     <t>03/05/94 13:08</t>
   </si>
   <si>
-    <t>bb0d442b-2a9b-428f-a685-1fe48460f1a3</t>
-  </si>
-  <si>
-    <t>Provided Screening Code "97023-6", Question Code "69861-3" and Answer Code "LA32-8" are not matching with the reference data found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>fca78ffc-18eb-4374-a346-39061a1e26e2</t>
-  </si>
-  <si>
-    <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95618-5" and Answer Code "LA10066-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>2217ed02-aee9-4123-bf65-54e608e2aaba</t>
-  </si>
-  <si>
-    <t>9d1367c5-58df-40c8-8905-87f663ec6241</t>
-  </si>
-  <si>
-    <t>eeacd526-85bd-4cdb-aa5d-a0142b9e7f49</t>
-  </si>
-  <si>
-    <t>Provided Screening Code "97023-6", Question Code "93159-2" and Answer Code "LA10044-8" are not matching with the reference data found in ANSWER_CODE</t>
-  </si>
-  <si>
-    <t>LA10044-8</t>
-  </si>
-  <si>
-    <t>711f21eb-972b-43de-9f17-cb1358a6fe44</t>
-  </si>
-  <si>
-    <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "68524-8" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>037a23ed-b1be-43d8-b546-8cc483b876b5</t>
-  </si>
-  <si>
-    <t>c23e2284-347a-45a6-bcc0-0a92c9c8a88c</t>
-  </si>
-  <si>
-    <t>843d6518-76e5-40b8-a7b3-75ae9d5910c3</t>
-  </si>
-  <si>
-    <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95615-1" and Answer Code "LA10082-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>89cf9c31-4a08-41ba-a938-a058de10fa9a</t>
-  </si>
-  <si>
-    <t>85eb3468-c095-4f7d-bd07-b8effc1ce3f3</t>
-  </si>
-  <si>
-    <t>ae44a254-c516-4736-b38b-49bf97a8de17</t>
-  </si>
-  <si>
-    <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "76513-1" and Answer Code "LA15832-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>d0d119bb-d7ad-47c2-9d75-5c4939270e5d</t>
-  </si>
-  <si>
-    <t>fb4b8e18-fe4d-43c4-99cb-71c8df90c721</t>
-  </si>
-  <si>
-    <t>7fc615f1-df1e-41a4-9605-b1d8f2887e9d</t>
+    <t>222de68f-8ec9-4e6e-8f3d-0700e9ccbceb</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95616-9" and Answer Code "LA16644-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>71545c6e-cdd3-4d87-851b-5f7c473a52eb</t>
-  </si>
-  <si>
-    <t>348cc385-9a23-41ff-9ef2-b37e2deaf323</t>
-  </si>
-  <si>
-    <t>eb997444-68b6-469a-b2c5-1a52a78981b6</t>
-  </si>
-  <si>
-    <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "97027-7" and Answer Code "LA32-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>06f7ad6a-821b-47b5-a4fa-511feb95c069</t>
-  </si>
-  <si>
-    <t>5e560bff-b904-4d3c-966c-4fc5e73ac6f7</t>
-  </si>
-  <si>
-    <t>c7a83500-2b26-41f8-a474-bed1a2563bab</t>
+    <t>847f6344-7deb-48b5-88d8-6b1de02a1608</t>
+  </si>
+  <si>
+    <t>482f2bdd-c08e-44ab-a867-ca9e7e860537</t>
+  </si>
+  <si>
+    <t>0a3186ed-b115-4886-b65d-8a0517884b0b</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "68516-4" and Answer Code "LA28853-2" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>e6c3af4d-6e42-4647-b232-2866c22e60cb</t>
-  </si>
-  <si>
-    <t>aa4b48d5-fd5b-4807-930d-e40e35a86364</t>
-  </si>
-  <si>
-    <t>3c91856b-c6fc-4359-ae44-6a5b51866f5c</t>
+    <t>8279f5e9-9c8a-479e-a85e-0404ffb06d4b</t>
+  </si>
+  <si>
+    <t>b383ea60-3a65-4c75-b8ed-b5b02047e620</t>
+  </si>
+  <si>
+    <t>a97348c4-466c-4498-a1a4-87c4cbb42e7e</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95617-7" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>4d6b304e-a1ce-417a-8488-3e0e6b1ce102</t>
-  </si>
-  <si>
-    <t>df247289-e4be-44fe-b6fc-4407b1bf2e99</t>
-  </si>
-  <si>
-    <t>ab699f75-21cb-4f69-8892-49127010a39d</t>
-  </si>
-  <si>
-    <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "96781-0" and Answer Code "LA31979-0" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>74c97b9c-79ba-4f4f-b66e-537ec3ad2346</t>
-  </si>
-  <si>
-    <t>d81b5b77-5af0-4654-9705-74ee24a46fd4</t>
-  </si>
-  <si>
-    <t>cef5bd3b-fb7e-4851-bf39-c3027d536e66</t>
+    <t>6711df7c-8bd6-41ad-be98-e2a27d3aa421</t>
+  </si>
+  <si>
+    <t>3b6b1d80-3eda-42cb-b6ee-4d87a5303996</t>
+  </si>
+  <si>
+    <t>3e5c3b0a-69ab-4c42-a938-636ccebedb7d</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44250-9" and Answer Code "LA6571-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>a7c9f6ed-a681-4d52-ba32-01e6d018893e</t>
-  </si>
-  <si>
-    <t>12a9a0e2-3daa-45be-81ab-1593dde148ec</t>
-  </si>
-  <si>
-    <t>8779aafa-e18b-4af1-8749-0cdcf83f9358</t>
-  </si>
-  <si>
-    <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "93159-2" and Answer Code "LA10044-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>dc71351b-6d8d-4031-862c-34249f686a83</t>
-  </si>
-  <si>
-    <t>6438da93-f364-4881-8f60-2e0b5eefd5c8</t>
-  </si>
-  <si>
-    <t>4e9d069e-f036-499f-9c53-e2eb1624a31a</t>
+    <t>8e1802a8-90bb-4a9d-925b-7dcf7d8d4a71</t>
+  </si>
+  <si>
+    <t>7cc9dd65-ad06-4d4b-8cbb-ba1c04dfc91b</t>
+  </si>
+  <si>
+    <t>f2bb8026-9c74-43a3-a323-91c7f0d4f099</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "89555-7" and Answer Code "LA6113-0" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>a5a50acd-c8bb-4384-9817-870013dbbc46</t>
-  </si>
-  <si>
-    <t>483d5484-1f8e-4a1c-984f-63b809a9588d</t>
-  </si>
-  <si>
-    <t>216bb252-4d64-41d9-b191-80d6e5334a4c</t>
-  </si>
-  <si>
-    <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "93038-8" and Answer Code "LA13902-4" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>4edc032c-f374-4b49-be12-4ab481923798</t>
-  </si>
-  <si>
-    <t>f108702e-b61d-4d35-bc47-68d78ff93bfd</t>
-  </si>
-  <si>
-    <t>4fdff024-7e14-48b0-9254-e2b04893aad0</t>
-  </si>
-  <si>
-    <t>Provided Potential Need Indicated "No", Screening Code "97023-6", Question Code "69861-3" and Answer Code "LA32-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>cbafd002-fe39-4a69-8094-ca8a4ef111b5</t>
-  </si>
-  <si>
-    <t>0cb25ecf-3771-4f9c-98a8-5234b577dad4</t>
-  </si>
-  <si>
-    <t>f243d14f-def2-4469-b206-3e461d75dded</t>
-  </si>
-  <si>
-    <t>Provided Potential Need Indicated "Yes", Screening Code "97023-6", Question Code "96842-0" and Answer Code "LA18891-4" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
-  </si>
-  <si>
-    <t>a43f158f-7a3e-4801-8852-e1e2505035ca</t>
-  </si>
-  <si>
-    <t>9d9ecca1-7776-4a00-99ce-ba50d95dfab2</t>
-  </si>
-  <si>
-    <t>2c7a77bb-3c13-42f3-b8f4-7c85401235b5</t>
-  </si>
-  <si>
-    <t>c4fa7a04-0f4e-45e9-acc1-4bf7b60322fb</t>
-  </si>
-  <si>
-    <t>d86f090b-e141-4840-83ab-bb706a7b29f6</t>
-  </si>
-  <si>
-    <t>648d0c48-32ce-41f8-81ee-8b1e1e2f1252</t>
-  </si>
-  <si>
-    <t>bd65676e-654c-406c-b241-49b0c50e4441</t>
-  </si>
-  <si>
-    <t>da1c08b4-5f36-4bcb-9c0f-1daf577732bb</t>
+    <t>c9fd3a21-f648-4109-88d7-97b56edca893</t>
+  </si>
+  <si>
+    <t>9de47d7c-dcb2-46a8-a2c5-9b7c07807ee7</t>
+  </si>
+  <si>
+    <t>c0c4e945-bd39-4fb8-8288-c16591375aa6</t>
+  </si>
+  <si>
+    <t>b2ccf00c-77d2-4010-b59e-fe0e1d76fbc1</t>
+  </si>
+  <si>
+    <t>c7b44f8b-a9d9-4113-97f9-dfeaf7f4a318</t>
+  </si>
+  <si>
+    <t>68e20638-a529-4f46-b344-1d065e23bd10</t>
+  </si>
+  <si>
+    <t>7bf82214-d4b6-4dd2-9ea4-0dbd0614dc9c</t>
+  </si>
+  <si>
+    <t>8cd3b2c2-a172-4f3d-aba3-61383723aa2a</t>
+  </si>
+  <si>
+    <t>602beacc-1472-4202-9001-443624a8ab8d</t>
+  </si>
+  <si>
+    <t>cbe99ea0-5591-4dd1-8e28-159e372f9dac</t>
+  </si>
+  <si>
+    <t>5c85a3a0-4aed-4085-bf35-0d9e1538855d</t>
+  </si>
+  <si>
+    <t>e808c90a-eb42-4b29-87cd-515b77875b1e</t>
+  </si>
+  <si>
+    <t>899b55e2-ea80-41c3-a77e-b60fe4e33b9c</t>
+  </si>
+  <si>
+    <t>59328b74-efcf-4fc0-a2ca-07bb043359dd</t>
+  </si>
+  <si>
+    <t>612d719d-c234-4b95-836f-3805954bf287</t>
+  </si>
+  <si>
+    <t>bbd49771-4892-4552-a63a-0ee77dc658a7</t>
+  </si>
+  <si>
+    <t>6d8130e8-a251-49f7-b694-52ee5028ed8c</t>
+  </si>
+  <si>
+    <t>89e2add6-5e9e-4970-be06-2385e251829c</t>
+  </si>
+  <si>
+    <t>77b620a3-fe87-4595-be36-2c77b2beb12c</t>
+  </si>
+  <si>
+    <t>63647512-08e4-44ea-b30f-26c5f80eb757</t>
+  </si>
+  <si>
+    <t>eeedb57d-081d-4417-a510-900d4e3990c4</t>
+  </si>
+  <si>
+    <t>9c25280e-f3f9-4810-8da4-cf118a8dada0</t>
+  </si>
+  <si>
+    <t>04acd182-ba3a-436a-85e1-a99ad18c8e3b</t>
+  </si>
+  <si>
+    <t>ef28ae1f-fd92-4f13-8d26-ccccea44c408</t>
+  </si>
+  <si>
+    <t>5c8583b0-e1a9-45a7-94a3-954d35c0e558</t>
+  </si>
+  <si>
+    <t>39278902-8f66-433b-91cd-f9e54bddaafc</t>
+  </si>
+  <si>
+    <t>0de87cdf-1cbd-4bb6-8d5a-5a0f7edc0119</t>
+  </si>
+  <si>
+    <t>78e21599-04b1-4cb7-a267-efa8a6cd9f81</t>
   </si>
   <si>
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
@@ -816,7 +627,7 @@
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>b506f62c-2f97-4388-945d-6fe4bf4f8875</t>
+    <t>7092cbe5-699f-4f3a-8ba0-deef5ca69c6d</t>
   </si>
   <si>
     <t>Mandatory field CONSENT is empty</t>
@@ -1099,22 +910,16 @@
         <v>44</v>
       </c>
       <c r="O4">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>47</v>
-      </c>
-      <c r="T4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1131,34 +936,37 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O5">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>55</v>
       </c>
       <c r="R5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1175,34 +983,34 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
         <v>57</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>58</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>59</v>
-      </c>
-      <c r="N6" t="s">
-        <v>60</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>62</v>
-      </c>
-      <c r="R6" t="s">
-        <v>63</v>
       </c>
       <c r="T6" t="s">
         <v>34</v>
@@ -1222,37 +1030,40 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="T7" t="s">
         <v>34</v>
+      </c>
+      <c r="U7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1278,31 +1089,28 @@
         <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O8">
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
         <v>34</v>
-      </c>
-      <c r="U8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1328,28 +1136,25 @@
         <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="P9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="R9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="T9" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -1366,40 +1171,37 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O10">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="Q10" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="R10" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="T10" t="s">
-        <v>48</v>
-      </c>
-      <c r="U10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1425,25 +1227,31 @@
         <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="O11">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>34</v>
+      </c>
+      <c r="U11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1460,34 +1268,34 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="Q12" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s">
         <v>34</v>
@@ -1516,31 +1324,28 @@
         <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M13" t="s">
         <v>29</v>
       </c>
       <c r="N13" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P13" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s">
-        <v>34</v>
-      </c>
-      <c r="U13" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -1566,28 +1371,31 @@
         <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T14" t="s">
         <v>34</v>
+      </c>
+      <c r="U14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -1613,31 +1421,28 @@
         <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="O15">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="R15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s">
-        <v>48</v>
-      </c>
-      <c r="U15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -1663,28 +1468,28 @@
         <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M16" t="s">
         <v>29</v>
       </c>
       <c r="N16" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q16" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="R16" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
@@ -1710,7 +1515,7 @@
         <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="M17" t="s">
         <v>29</v>
@@ -1719,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P17" t="s">
         <v>31</v>
@@ -1760,7 +1565,7 @@
         <v>27</v>
       </c>
       <c r="L18" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M18" t="s">
         <v>37</v>
@@ -1769,7 +1574,7 @@
         <v>38</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P18" t="s">
         <v>39</v>
@@ -1807,31 +1612,28 @@
         <v>27</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N19" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="O19">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P19" t="s">
         <v>45</v>
       </c>
       <c r="Q19" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="R19" t="s">
+        <v>74</v>
+      </c>
+      <c r="T19" t="s">
         <v>47</v>
-      </c>
-      <c r="T19" t="s">
-        <v>48</v>
-      </c>
-      <c r="U19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -1857,28 +1659,31 @@
         <v>27</v>
       </c>
       <c r="L20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="M20" t="s">
         <v>29</v>
       </c>
       <c r="N20" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="O20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="Q20" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="R20" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="T20" t="s">
-        <v>54</v>
+        <v>34</v>
+      </c>
+      <c r="U20" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1904,31 +1709,28 @@
         <v>27</v>
       </c>
       <c r="L21" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q21" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R21" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T21" t="s">
         <v>34</v>
-      </c>
-      <c r="U21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22">
@@ -1954,28 +1756,28 @@
         <v>27</v>
       </c>
       <c r="L22" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="M22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N22" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="O22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q22" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R22" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -2001,28 +1803,28 @@
         <v>27</v>
       </c>
       <c r="L23" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M23" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="O23">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q23" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="R23" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="T23" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="U23" t="s">
         <v>35</v>
@@ -2051,28 +1853,28 @@
         <v>27</v>
       </c>
       <c r="L24" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N24" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="O24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="Q24" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="R24" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="T24" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -2098,31 +1900,28 @@
         <v>27</v>
       </c>
       <c r="L25" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="M25" t="s">
         <v>29</v>
       </c>
       <c r="N25" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="O25">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P25" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q25" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="R25" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s">
-        <v>34</v>
-      </c>
-      <c r="U25" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -2148,28 +1947,31 @@
         <v>27</v>
       </c>
       <c r="L26" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="M26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N26" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P26" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q26" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="R26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T26" t="s">
         <v>34</v>
+      </c>
+      <c r="U26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -2195,31 +1997,28 @@
         <v>27</v>
       </c>
       <c r="L27" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="M27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N27" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="O27">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="P27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q27" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="R27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="T27" t="s">
-        <v>48</v>
-      </c>
-      <c r="U27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -2245,28 +2044,28 @@
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="M28" t="s">
         <v>29</v>
       </c>
       <c r="N28" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="O28">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="P28" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q28" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="R28" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -2292,7 +2091,7 @@
         <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M29" t="s">
         <v>29</v>
@@ -2301,7 +2100,7 @@
         <v>30</v>
       </c>
       <c r="O29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P29" t="s">
         <v>31</v>
@@ -2342,7 +2141,7 @@
         <v>27</v>
       </c>
       <c r="L30" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="M30" t="s">
         <v>37</v>
@@ -2351,7 +2150,7 @@
         <v>38</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P30" t="s">
         <v>39</v>
@@ -2389,31 +2188,28 @@
         <v>27</v>
       </c>
       <c r="L31" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="M31" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="N31" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="O31">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P31" t="s">
         <v>45</v>
       </c>
       <c r="Q31" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="R31" t="s">
+        <v>96</v>
+      </c>
+      <c r="T31" t="s">
         <v>47</v>
-      </c>
-      <c r="T31" t="s">
-        <v>48</v>
-      </c>
-      <c r="U31" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -2439,28 +2235,31 @@
         <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M32" t="s">
         <v>29</v>
       </c>
       <c r="N32" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="O32">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P32" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="Q32" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="R32" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="T32" t="s">
-        <v>54</v>
+        <v>34</v>
+      </c>
+      <c r="U32" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -2486,31 +2285,28 @@
         <v>27</v>
       </c>
       <c r="L33" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="M33" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N33" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q33" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R33" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T33" t="s">
         <v>34</v>
-      </c>
-      <c r="U33" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -2536,28 +2332,28 @@
         <v>27</v>
       </c>
       <c r="L34" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="M34" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="N34" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="O34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P34" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q34" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R34" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="T34" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
@@ -2583,28 +2379,28 @@
         <v>27</v>
       </c>
       <c r="L35" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M35" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N35" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="O35">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P35" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q35" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="R35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="T35" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="U35" t="s">
         <v>35</v>
@@ -2633,28 +2429,28 @@
         <v>27</v>
       </c>
       <c r="L36" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="M36" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N36" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="O36">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P36" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="Q36" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="R36" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="T36" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -2680,31 +2476,28 @@
         <v>27</v>
       </c>
       <c r="L37" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="M37" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="N37" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="O37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P37" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q37" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="R37" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="T37" t="s">
-        <v>34</v>
-      </c>
-      <c r="U37" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
@@ -2730,28 +2523,31 @@
         <v>27</v>
       </c>
       <c r="L38" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="M38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N38" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P38" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q38" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="R38" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T38" t="s">
         <v>34</v>
+      </c>
+      <c r="U38" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="39">
@@ -2777,31 +2573,28 @@
         <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="M39" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N39" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="O39">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q39" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="R39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="T39" t="s">
-        <v>48</v>
-      </c>
-      <c r="U39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -2827,28 +2620,28 @@
         <v>27</v>
       </c>
       <c r="L40" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M40" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="N40" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="O40">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="P40" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q40" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="R40" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="T40" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41">
@@ -2874,7 +2667,7 @@
         <v>27</v>
       </c>
       <c r="L41" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="M41" t="s">
         <v>29</v>
@@ -2883,7 +2676,7 @@
         <v>30</v>
       </c>
       <c r="O41">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P41" t="s">
         <v>31</v>
@@ -2924,22 +2717,22 @@
         <v>27</v>
       </c>
       <c r="L42" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="M42" t="s">
         <v>37</v>
       </c>
       <c r="N42" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="O42">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P42" t="s">
         <v>39</v>
       </c>
       <c r="Q42" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="R42" t="s">
         <v>41</v>
@@ -2971,31 +2764,28 @@
         <v>27</v>
       </c>
       <c r="L43" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="M43" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="N43" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="O43">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P43" t="s">
         <v>45</v>
       </c>
       <c r="Q43" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="R43" t="s">
+        <v>96</v>
+      </c>
+      <c r="T43" t="s">
         <v>47</v>
-      </c>
-      <c r="T43" t="s">
-        <v>48</v>
-      </c>
-      <c r="U43" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="44">
@@ -3021,28 +2811,31 @@
         <v>27</v>
       </c>
       <c r="L44" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="M44" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="N44" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="O44">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P44" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="Q44" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="R44" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="T44" t="s">
-        <v>54</v>
+        <v>34</v>
+      </c>
+      <c r="U44" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="45">
@@ -3068,31 +2861,28 @@
         <v>27</v>
       </c>
       <c r="L45" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="M45" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N45" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="O45">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P45" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q45" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="R45" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T45" t="s">
         <v>34</v>
-      </c>
-      <c r="U45" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="46">
@@ -3118,28 +2908,28 @@
         <v>27</v>
       </c>
       <c r="L46" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="M46" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="N46" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="O46">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P46" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q46" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="T46" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
@@ -3165,28 +2955,28 @@
         <v>27</v>
       </c>
       <c r="L47" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="M47" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N47" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="O47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P47" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q47" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="R47" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="T47" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="U47" t="s">
         <v>35</v>
@@ -3215,28 +3005,28 @@
         <v>27</v>
       </c>
       <c r="L48" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="M48" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="N48" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="O48">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="P48" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="Q48" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="R48" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="T48" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -3262,31 +3052,28 @@
         <v>27</v>
       </c>
       <c r="L49" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="M49" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="N49" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="O49">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="P49" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q49" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="R49" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="T49" t="s">
-        <v>34</v>
-      </c>
-      <c r="U49" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
@@ -3312,28 +3099,31 @@
         <v>27</v>
       </c>
       <c r="L50" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="M50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N50" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="O50">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P50" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q50" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="R50" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T50" t="s">
         <v>34</v>
+      </c>
+      <c r="U50" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -3359,31 +3149,28 @@
         <v>27</v>
       </c>
       <c r="L51" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="M51" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N51" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="O51">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P51" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q51" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="R51" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="T51" t="s">
-        <v>48</v>
-      </c>
-      <c r="U51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
@@ -3409,28 +3196,28 @@
         <v>27</v>
       </c>
       <c r="L52" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="M52" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="N52" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="O52">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="P52" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q52" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="R52" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="T52" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53">
@@ -3456,7 +3243,7 @@
         <v>27</v>
       </c>
       <c r="L53" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M53" t="s">
         <v>29</v>
@@ -3465,7 +3252,7 @@
         <v>30</v>
       </c>
       <c r="O53">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P53" t="s">
         <v>31</v>
@@ -3506,22 +3293,22 @@
         <v>27</v>
       </c>
       <c r="L54" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="M54" t="s">
         <v>37</v>
       </c>
       <c r="N54" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="O54">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P54" t="s">
         <v>39</v>
       </c>
       <c r="Q54" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="R54" t="s">
         <v>41</v>
@@ -3553,28 +3340,28 @@
         <v>27</v>
       </c>
       <c r="L55" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="M55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N55" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="O55">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P55" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q55" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="R55" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="T55" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="U55" t="s">
         <v>35</v>
@@ -3603,28 +3390,28 @@
         <v>27</v>
       </c>
       <c r="L56" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="M56" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="N56" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="O56">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P56" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="Q56" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="R56" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="T56" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
@@ -3650,7 +3437,7 @@
         <v>27</v>
       </c>
       <c r="L57" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="M57" t="s">
         <v>29</v>
@@ -3659,7 +3446,7 @@
         <v>30</v>
       </c>
       <c r="O57">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P57" t="s">
         <v>31</v>
@@ -3700,22 +3487,22 @@
         <v>27</v>
       </c>
       <c r="L58" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="M58" t="s">
         <v>37</v>
       </c>
       <c r="N58" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="O58">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P58" t="s">
         <v>39</v>
       </c>
       <c r="Q58" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="R58" t="s">
         <v>41</v>
@@ -3747,28 +3534,31 @@
         <v>27</v>
       </c>
       <c r="L59" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="M59" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="N59" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="O59">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P59" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="Q59" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="R59" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="T59" t="s">
-        <v>54</v>
+        <v>34</v>
+      </c>
+      <c r="U59" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="60">
@@ -3794,31 +3584,28 @@
         <v>27</v>
       </c>
       <c r="L60" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="M60" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N60" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="O60">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P60" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q60" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="R60" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T60" t="s">
         <v>34</v>
-      </c>
-      <c r="U60" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="61">
@@ -3844,28 +3631,31 @@
         <v>27</v>
       </c>
       <c r="L61" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="M61" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N61" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="O61">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P61" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q61" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="R61" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T61" t="s">
         <v>34</v>
+      </c>
+      <c r="U61" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="62">
@@ -3891,28 +3681,28 @@
         <v>27</v>
       </c>
       <c r="L62" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="N62" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="O62">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P62" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="Q62" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="R62" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="T62" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
@@ -3938,7 +3728,7 @@
         <v>27</v>
       </c>
       <c r="L63" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="M63" t="s">
         <v>29</v>
@@ -3947,7 +3737,7 @@
         <v>30</v>
       </c>
       <c r="O63">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P63" t="s">
         <v>31</v>
@@ -3988,22 +3778,22 @@
         <v>27</v>
       </c>
       <c r="L64" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="M64" t="s">
         <v>37</v>
       </c>
       <c r="N64" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="O64">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P64" t="s">
         <v>39</v>
       </c>
       <c r="Q64" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="R64" t="s">
         <v>41</v>
@@ -4035,28 +3825,31 @@
         <v>27</v>
       </c>
       <c r="L65" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="M65" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="N65" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="O65">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="P65" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="Q65" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="R65" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="T65" t="s">
-        <v>54</v>
+        <v>34</v>
+      </c>
+      <c r="U65" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="66">
@@ -4082,31 +3875,28 @@
         <v>27</v>
       </c>
       <c r="L66" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="M66" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N66" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="O66">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="P66" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q66" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="R66" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T66" t="s">
         <v>34</v>
-      </c>
-      <c r="U66" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="67">
@@ -4132,28 +3922,31 @@
         <v>27</v>
       </c>
       <c r="L67" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="M67" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N67" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="O67">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P67" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q67" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="R67" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T67" t="s">
         <v>34</v>
+      </c>
+      <c r="U67" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="68">
@@ -4179,28 +3972,28 @@
         <v>27</v>
       </c>
       <c r="L68" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="M68" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="N68" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="O68">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P68" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="Q68" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="R68" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="T68" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
@@ -4226,7 +4019,7 @@
         <v>27</v>
       </c>
       <c r="L69" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="M69" t="s">
         <v>29</v>
@@ -4235,7 +4028,7 @@
         <v>30</v>
       </c>
       <c r="O69">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="P69" t="s">
         <v>31</v>
@@ -4276,22 +4069,22 @@
         <v>27</v>
       </c>
       <c r="L70" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="M70" t="s">
         <v>37</v>
       </c>
       <c r="N70" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="O70">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="P70" t="s">
         <v>39</v>
       </c>
       <c r="Q70" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="R70" t="s">
         <v>41</v>
@@ -4323,28 +4116,31 @@
         <v>27</v>
       </c>
       <c r="L71" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="M71" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="N71" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="O71">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P71" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="Q71" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="R71" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="T71" t="s">
-        <v>54</v>
+        <v>34</v>
+      </c>
+      <c r="U71" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="72">
@@ -4370,31 +4166,28 @@
         <v>27</v>
       </c>
       <c r="L72" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="M72" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N72" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="O72">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P72" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q72" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="R72" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T72" t="s">
         <v>34</v>
-      </c>
-      <c r="U72" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="73">
@@ -4420,28 +4213,31 @@
         <v>27</v>
       </c>
       <c r="L73" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="M73" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N73" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="O73">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P73" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q73" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="R73" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T73" t="s">
         <v>34</v>
+      </c>
+      <c r="U73" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="74">
@@ -4467,28 +4263,28 @@
         <v>27</v>
       </c>
       <c r="L74" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="M74" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="N74" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="O74">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="P74" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="Q74" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="R74" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="T74" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
@@ -4514,7 +4310,7 @@
         <v>27</v>
       </c>
       <c r="L75" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="M75" t="s">
         <v>29</v>
@@ -4523,7 +4319,7 @@
         <v>30</v>
       </c>
       <c r="O75">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P75" t="s">
         <v>31</v>
@@ -4564,22 +4360,22 @@
         <v>27</v>
       </c>
       <c r="L76" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="M76" t="s">
         <v>37</v>
       </c>
       <c r="N76" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="O76">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P76" t="s">
         <v>39</v>
       </c>
       <c r="Q76" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="R76" t="s">
         <v>41</v>
@@ -4611,28 +4407,31 @@
         <v>27</v>
       </c>
       <c r="L77" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="M77" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="N77" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="O77">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="P77" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="Q77" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="R77" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="T77" t="s">
-        <v>54</v>
+        <v>34</v>
+      </c>
+      <c r="U77" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="78">
@@ -4658,31 +4457,28 @@
         <v>27</v>
       </c>
       <c r="L78" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="M78" t="s">
+        <v>37</v>
+      </c>
+      <c r="N78" t="s">
+        <v>107</v>
+      </c>
+      <c r="O78">
         <v>29</v>
       </c>
-      <c r="N78" t="s">
-        <v>30</v>
-      </c>
-      <c r="O78">
-        <v>21</v>
-      </c>
       <c r="P78" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q78" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="R78" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="T78" t="s">
         <v>34</v>
-      </c>
-      <c r="U78" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="79">
@@ -4708,28 +4504,31 @@
         <v>27</v>
       </c>
       <c r="L79" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="M79" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N79" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="O79">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P79" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q79" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="R79" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="T79" t="s">
         <v>34</v>
+      </c>
+      <c r="U79" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="80">
@@ -4755,28 +4554,28 @@
         <v>27</v>
       </c>
       <c r="L80" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="M80" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="N80" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="O80">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P80" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="Q80" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="R80" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="T80" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
@@ -4793,40 +4592,25 @@
         <v>24</v>
       </c>
       <c r="H81" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="I81" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="J81" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L81" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="M81" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="N81" t="s">
-        <v>30</v>
-      </c>
-      <c r="O81">
-        <v>22</v>
-      </c>
-      <c r="P81" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="Q81" t="s">
-        <v>32</v>
-      </c>
-      <c r="R81" t="s">
-        <v>33</v>
-      </c>
-      <c r="T81" t="s">
-        <v>34</v>
-      </c>
-      <c r="U81" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82">
@@ -4843,37 +4627,25 @@
         <v>24</v>
       </c>
       <c r="H82" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="I82" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="J82" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L82" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="M82" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="N82" t="s">
-        <v>145</v>
-      </c>
-      <c r="O82">
-        <v>22</v>
-      </c>
-      <c r="P82" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="Q82" t="s">
-        <v>146</v>
-      </c>
-      <c r="R82" t="s">
-        <v>41</v>
-      </c>
-      <c r="T82" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83">
@@ -4890,37 +4662,25 @@
         <v>24</v>
       </c>
       <c r="H83" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="I83" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="J83" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L83" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="M83" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="N83" t="s">
-        <v>193</v>
-      </c>
-      <c r="O83">
-        <v>15</v>
-      </c>
-      <c r="P83" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="Q83" t="s">
-        <v>142</v>
-      </c>
-      <c r="R83" t="s">
-        <v>126</v>
-      </c>
-      <c r="T83" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84">
@@ -4937,40 +4697,25 @@
         <v>24</v>
       </c>
       <c r="H84" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="I84" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="J84" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L84" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="M84" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="N84" t="s">
-        <v>30</v>
-      </c>
-      <c r="O84">
-        <v>23</v>
-      </c>
-      <c r="P84" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="Q84" t="s">
-        <v>32</v>
-      </c>
-      <c r="R84" t="s">
-        <v>33</v>
-      </c>
-      <c r="T84" t="s">
-        <v>34</v>
-      </c>
-      <c r="U84" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85">
@@ -4987,37 +4732,25 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="I85" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="J85" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L85" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="M85" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="N85" t="s">
-        <v>145</v>
-      </c>
-      <c r="O85">
-        <v>23</v>
-      </c>
-      <c r="P85" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="Q85" t="s">
-        <v>146</v>
-      </c>
-      <c r="R85" t="s">
-        <v>41</v>
-      </c>
-      <c r="T85" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86">
@@ -5034,37 +4767,25 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="I86" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="J86" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L86" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="M86" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="N86" t="s">
-        <v>197</v>
-      </c>
-      <c r="O86">
-        <v>18</v>
-      </c>
-      <c r="P86" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="Q86" t="s">
-        <v>86</v>
-      </c>
-      <c r="R86" t="s">
-        <v>126</v>
-      </c>
-      <c r="T86" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87">
@@ -5081,40 +4802,25 @@
         <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="I87" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="J87" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L87" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="M87" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="N87" t="s">
-        <v>30</v>
-      </c>
-      <c r="O87">
-        <v>24</v>
-      </c>
-      <c r="P87" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="Q87" t="s">
-        <v>32</v>
-      </c>
-      <c r="R87" t="s">
-        <v>33</v>
-      </c>
-      <c r="T87" t="s">
-        <v>34</v>
-      </c>
-      <c r="U87" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88">
@@ -5131,37 +4837,25 @@
         <v>24</v>
       </c>
       <c r="H88" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="I88" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="J88" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L88" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="M88" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="N88" t="s">
-        <v>145</v>
-      </c>
-      <c r="O88">
-        <v>24</v>
-      </c>
-      <c r="P88" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="Q88" t="s">
-        <v>146</v>
-      </c>
-      <c r="R88" t="s">
-        <v>41</v>
-      </c>
-      <c r="T88" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89">
@@ -5178,37 +4872,25 @@
         <v>24</v>
       </c>
       <c r="H89" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="I89" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="J89" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L89" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="M89" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="N89" t="s">
-        <v>201</v>
-      </c>
-      <c r="O89">
-        <v>28</v>
-      </c>
-      <c r="P89" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="Q89" t="s">
-        <v>142</v>
-      </c>
-      <c r="R89" t="s">
-        <v>126</v>
-      </c>
-      <c r="T89" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90">
@@ -5225,40 +4907,25 @@
         <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="I90" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="J90" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L90" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="M90" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="N90" t="s">
-        <v>30</v>
-      </c>
-      <c r="O90">
-        <v>25</v>
-      </c>
-      <c r="P90" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="Q90" t="s">
-        <v>32</v>
-      </c>
-      <c r="R90" t="s">
-        <v>33</v>
-      </c>
-      <c r="T90" t="s">
-        <v>34</v>
-      </c>
-      <c r="U90" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91">
@@ -5275,37 +4942,25 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="I91" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="J91" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L91" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="M91" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="N91" t="s">
-        <v>145</v>
-      </c>
-      <c r="O91">
-        <v>25</v>
-      </c>
-      <c r="P91" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="Q91" t="s">
-        <v>146</v>
-      </c>
-      <c r="R91" t="s">
-        <v>41</v>
-      </c>
-      <c r="T91" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92">
@@ -5322,37 +4977,25 @@
         <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="I92" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="J92" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L92" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="M92" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="N92" t="s">
-        <v>205</v>
-      </c>
-      <c r="O92">
-        <v>30</v>
-      </c>
-      <c r="P92" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="Q92" t="s">
-        <v>125</v>
-      </c>
-      <c r="R92" t="s">
-        <v>126</v>
-      </c>
-      <c r="T92" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93">
@@ -5369,40 +5012,25 @@
         <v>24</v>
       </c>
       <c r="H93" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="I93" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="J93" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L93" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="M93" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="N93" t="s">
-        <v>30</v>
-      </c>
-      <c r="O93">
-        <v>26</v>
-      </c>
-      <c r="P93" t="s">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="Q93" t="s">
-        <v>32</v>
-      </c>
-      <c r="R93" t="s">
-        <v>33</v>
-      </c>
-      <c r="T93" t="s">
-        <v>34</v>
-      </c>
-      <c r="U93" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94">
@@ -5419,37 +5047,25 @@
         <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="I94" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="J94" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L94" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M94" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="N94" t="s">
-        <v>145</v>
-      </c>
-      <c r="O94">
-        <v>26</v>
-      </c>
-      <c r="P94" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="Q94" t="s">
-        <v>146</v>
-      </c>
-      <c r="R94" t="s">
-        <v>41</v>
-      </c>
-      <c r="T94" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95">
@@ -5466,37 +5082,25 @@
         <v>24</v>
       </c>
       <c r="H95" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="I95" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="J95" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="L95" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M95" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="N95" t="s">
-        <v>209</v>
-      </c>
-      <c r="O95">
-        <v>22</v>
-      </c>
-      <c r="P95" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="Q95" t="s">
-        <v>142</v>
-      </c>
-      <c r="R95" t="s">
-        <v>126</v>
-      </c>
-      <c r="T95" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96">
@@ -5513,944 +5117,31 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J96" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="L96" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M96" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N96" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="O96">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="R96" t="s">
-        <v>33</v>
-      </c>
-      <c r="T96" t="s">
-        <v>34</v>
-      </c>
-      <c r="U96" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" t="s">
-        <v>22</v>
-      </c>
-      <c r="C97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s">
-        <v>24</v>
-      </c>
-      <c r="H97" t="s">
-        <v>25</v>
-      </c>
-      <c r="I97" t="s">
-        <v>26</v>
-      </c>
-      <c r="J97" t="s">
-        <v>27</v>
-      </c>
-      <c r="L97" t="s">
-        <v>211</v>
-      </c>
-      <c r="M97" t="s">
-        <v>37</v>
-      </c>
-      <c r="N97" t="s">
-        <v>145</v>
-      </c>
-      <c r="O97">
-        <v>27</v>
-      </c>
-      <c r="P97" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>146</v>
-      </c>
-      <c r="R97" t="s">
-        <v>41</v>
-      </c>
-      <c r="T97" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s">
-        <v>24</v>
-      </c>
-      <c r="H98" t="s">
-        <v>25</v>
-      </c>
-      <c r="I98" t="s">
-        <v>26</v>
-      </c>
-      <c r="J98" t="s">
-        <v>27</v>
-      </c>
-      <c r="L98" t="s">
-        <v>212</v>
-      </c>
-      <c r="M98" t="s">
-        <v>29</v>
-      </c>
-      <c r="N98" t="s">
-        <v>30</v>
-      </c>
-      <c r="O98">
-        <v>28</v>
-      </c>
-      <c r="P98" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>32</v>
-      </c>
-      <c r="R98" t="s">
-        <v>33</v>
-      </c>
-      <c r="T98" t="s">
-        <v>34</v>
-      </c>
-      <c r="U98" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" t="s">
-        <v>22</v>
-      </c>
-      <c r="C99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s">
-        <v>24</v>
-      </c>
-      <c r="H99" t="s">
-        <v>25</v>
-      </c>
-      <c r="I99" t="s">
-        <v>26</v>
-      </c>
-      <c r="J99" t="s">
-        <v>27</v>
-      </c>
-      <c r="L99" t="s">
-        <v>213</v>
-      </c>
-      <c r="M99" t="s">
-        <v>37</v>
-      </c>
-      <c r="N99" t="s">
-        <v>145</v>
-      </c>
-      <c r="O99">
-        <v>28</v>
-      </c>
-      <c r="P99" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>146</v>
-      </c>
-      <c r="R99" t="s">
-        <v>41</v>
-      </c>
-      <c r="T99" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s">
-        <v>24</v>
-      </c>
-      <c r="H100" t="s">
-        <v>25</v>
-      </c>
-      <c r="I100" t="s">
-        <v>26</v>
-      </c>
-      <c r="J100" t="s">
-        <v>27</v>
-      </c>
-      <c r="L100" t="s">
-        <v>214</v>
-      </c>
-      <c r="M100" t="s">
-        <v>29</v>
-      </c>
-      <c r="N100" t="s">
-        <v>30</v>
-      </c>
-      <c r="O100">
-        <v>29</v>
-      </c>
-      <c r="P100" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>32</v>
-      </c>
-      <c r="R100" t="s">
-        <v>33</v>
-      </c>
-      <c r="T100" t="s">
-        <v>34</v>
-      </c>
-      <c r="U100" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>21</v>
-      </c>
-      <c r="B101" t="s">
-        <v>22</v>
-      </c>
-      <c r="C101" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" t="s">
-        <v>24</v>
-      </c>
-      <c r="H101" t="s">
-        <v>25</v>
-      </c>
-      <c r="I101" t="s">
-        <v>26</v>
-      </c>
-      <c r="J101" t="s">
-        <v>27</v>
-      </c>
-      <c r="L101" t="s">
-        <v>215</v>
-      </c>
-      <c r="M101" t="s">
-        <v>37</v>
-      </c>
-      <c r="N101" t="s">
-        <v>145</v>
-      </c>
-      <c r="O101">
-        <v>29</v>
-      </c>
-      <c r="P101" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>146</v>
-      </c>
-      <c r="R101" t="s">
-        <v>41</v>
-      </c>
-      <c r="T101" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>21</v>
-      </c>
-      <c r="B102" t="s">
-        <v>22</v>
-      </c>
-      <c r="C102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
-      <c r="H102" t="s">
-        <v>25</v>
-      </c>
-      <c r="I102" t="s">
-        <v>26</v>
-      </c>
-      <c r="J102" t="s">
-        <v>27</v>
-      </c>
-      <c r="L102" t="s">
-        <v>216</v>
-      </c>
-      <c r="M102" t="s">
-        <v>29</v>
-      </c>
-      <c r="N102" t="s">
-        <v>30</v>
-      </c>
-      <c r="O102">
-        <v>30</v>
-      </c>
-      <c r="P102" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>32</v>
-      </c>
-      <c r="R102" t="s">
-        <v>33</v>
-      </c>
-      <c r="T102" t="s">
-        <v>34</v>
-      </c>
-      <c r="U102" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>21</v>
-      </c>
-      <c r="B103" t="s">
-        <v>22</v>
-      </c>
-      <c r="C103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
-      <c r="H103" t="s">
-        <v>25</v>
-      </c>
-      <c r="I103" t="s">
-        <v>26</v>
-      </c>
-      <c r="J103" t="s">
-        <v>27</v>
-      </c>
-      <c r="L103" t="s">
-        <v>217</v>
-      </c>
-      <c r="M103" t="s">
-        <v>37</v>
-      </c>
-      <c r="N103" t="s">
-        <v>145</v>
-      </c>
-      <c r="O103">
-        <v>30</v>
-      </c>
-      <c r="P103" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>146</v>
-      </c>
-      <c r="R103" t="s">
-        <v>41</v>
-      </c>
-      <c r="T103" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>21</v>
-      </c>
-      <c r="B104" t="s">
-        <v>22</v>
-      </c>
-      <c r="C104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s">
-        <v>24</v>
-      </c>
-      <c r="H104" t="s">
-        <v>218</v>
-      </c>
-      <c r="I104" t="s">
-        <v>219</v>
-      </c>
-      <c r="J104" t="s">
-        <v>220</v>
-      </c>
-      <c r="L104" t="s">
-        <v>221</v>
-      </c>
-      <c r="M104" t="s">
-        <v>222</v>
-      </c>
-      <c r="N104" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>21</v>
-      </c>
-      <c r="B105" t="s">
-        <v>22</v>
-      </c>
-      <c r="C105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s">
-        <v>24</v>
-      </c>
-      <c r="H105" t="s">
-        <v>224</v>
-      </c>
-      <c r="I105" t="s">
-        <v>219</v>
-      </c>
-      <c r="J105" t="s">
-        <v>220</v>
-      </c>
-      <c r="L105" t="s">
-        <v>225</v>
-      </c>
-      <c r="M105" t="s">
-        <v>222</v>
-      </c>
-      <c r="N105" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>21</v>
-      </c>
-      <c r="B106" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s">
-        <v>24</v>
-      </c>
-      <c r="H106" t="s">
-        <v>227</v>
-      </c>
-      <c r="I106" t="s">
-        <v>219</v>
-      </c>
-      <c r="J106" t="s">
-        <v>220</v>
-      </c>
-      <c r="L106" t="s">
-        <v>228</v>
-      </c>
-      <c r="M106" t="s">
-        <v>222</v>
-      </c>
-      <c r="N106" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>21</v>
-      </c>
-      <c r="B107" t="s">
-        <v>22</v>
-      </c>
-      <c r="C107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s">
-        <v>24</v>
-      </c>
-      <c r="H107" t="s">
-        <v>230</v>
-      </c>
-      <c r="I107" t="s">
-        <v>219</v>
-      </c>
-      <c r="J107" t="s">
-        <v>220</v>
-      </c>
-      <c r="L107" t="s">
-        <v>231</v>
-      </c>
-      <c r="M107" t="s">
-        <v>222</v>
-      </c>
-      <c r="N107" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>21</v>
-      </c>
-      <c r="B108" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s">
-        <v>24</v>
-      </c>
-      <c r="H108" t="s">
-        <v>233</v>
-      </c>
-      <c r="I108" t="s">
-        <v>219</v>
-      </c>
-      <c r="J108" t="s">
-        <v>220</v>
-      </c>
-      <c r="L108" t="s">
-        <v>234</v>
-      </c>
-      <c r="M108" t="s">
-        <v>222</v>
-      </c>
-      <c r="N108" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>21</v>
-      </c>
-      <c r="B109" t="s">
-        <v>22</v>
-      </c>
-      <c r="C109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s">
-        <v>24</v>
-      </c>
-      <c r="H109" t="s">
-        <v>236</v>
-      </c>
-      <c r="I109" t="s">
-        <v>237</v>
-      </c>
-      <c r="J109" t="s">
-        <v>220</v>
-      </c>
-      <c r="L109" t="s">
-        <v>238</v>
-      </c>
-      <c r="M109" t="s">
-        <v>222</v>
-      </c>
-      <c r="N109" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>21</v>
-      </c>
-      <c r="B110" t="s">
-        <v>22</v>
-      </c>
-      <c r="C110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s">
-        <v>24</v>
-      </c>
-      <c r="H110" t="s">
-        <v>240</v>
-      </c>
-      <c r="I110" t="s">
-        <v>237</v>
-      </c>
-      <c r="J110" t="s">
-        <v>220</v>
-      </c>
-      <c r="L110" t="s">
-        <v>241</v>
-      </c>
-      <c r="M110" t="s">
-        <v>222</v>
-      </c>
-      <c r="N110" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>21</v>
-      </c>
-      <c r="B111" t="s">
-        <v>22</v>
-      </c>
-      <c r="C111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>24</v>
-      </c>
-      <c r="H111" t="s">
-        <v>243</v>
-      </c>
-      <c r="I111" t="s">
-        <v>237</v>
-      </c>
-      <c r="J111" t="s">
-        <v>220</v>
-      </c>
-      <c r="L111" t="s">
-        <v>244</v>
-      </c>
-      <c r="M111" t="s">
-        <v>222</v>
-      </c>
-      <c r="N111" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>21</v>
-      </c>
-      <c r="B112" t="s">
-        <v>22</v>
-      </c>
-      <c r="C112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s">
-        <v>24</v>
-      </c>
-      <c r="H112" t="s">
-        <v>246</v>
-      </c>
-      <c r="I112" t="s">
-        <v>237</v>
-      </c>
-      <c r="J112" t="s">
-        <v>220</v>
-      </c>
-      <c r="L112" t="s">
-        <v>247</v>
-      </c>
-      <c r="M112" t="s">
-        <v>222</v>
-      </c>
-      <c r="N112" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>21</v>
-      </c>
-      <c r="B113" t="s">
-        <v>22</v>
-      </c>
-      <c r="C113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s">
-        <v>24</v>
-      </c>
-      <c r="H113" t="s">
-        <v>249</v>
-      </c>
-      <c r="I113" t="s">
-        <v>237</v>
-      </c>
-      <c r="J113" t="s">
-        <v>220</v>
-      </c>
-      <c r="L113" t="s">
-        <v>250</v>
-      </c>
-      <c r="M113" t="s">
-        <v>222</v>
-      </c>
-      <c r="N113" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>21</v>
-      </c>
-      <c r="B114" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s">
-        <v>24</v>
-      </c>
-      <c r="H114" t="s">
-        <v>252</v>
-      </c>
-      <c r="I114" t="s">
-        <v>253</v>
-      </c>
-      <c r="J114" t="s">
-        <v>220</v>
-      </c>
-      <c r="L114" t="s">
-        <v>254</v>
-      </c>
-      <c r="M114" t="s">
-        <v>222</v>
-      </c>
-      <c r="N114" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>21</v>
-      </c>
-      <c r="B115" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" t="s">
-        <v>24</v>
-      </c>
-      <c r="H115" t="s">
-        <v>256</v>
-      </c>
-      <c r="I115" t="s">
-        <v>253</v>
-      </c>
-      <c r="J115" t="s">
-        <v>220</v>
-      </c>
-      <c r="L115" t="s">
-        <v>257</v>
-      </c>
-      <c r="M115" t="s">
-        <v>222</v>
-      </c>
-      <c r="N115" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>21</v>
-      </c>
-      <c r="B116" t="s">
-        <v>22</v>
-      </c>
-      <c r="C116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" t="s">
-        <v>24</v>
-      </c>
-      <c r="H116" t="s">
-        <v>259</v>
-      </c>
-      <c r="I116" t="s">
-        <v>253</v>
-      </c>
-      <c r="J116" t="s">
-        <v>220</v>
-      </c>
-      <c r="L116" t="s">
-        <v>260</v>
-      </c>
-      <c r="M116" t="s">
-        <v>222</v>
-      </c>
-      <c r="N116" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>21</v>
-      </c>
-      <c r="B117" t="s">
-        <v>22</v>
-      </c>
-      <c r="C117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s">
-        <v>24</v>
-      </c>
-      <c r="H117" t="s">
-        <v>262</v>
-      </c>
-      <c r="I117" t="s">
-        <v>253</v>
-      </c>
-      <c r="J117" t="s">
-        <v>220</v>
-      </c>
-      <c r="L117" t="s">
-        <v>263</v>
-      </c>
-      <c r="M117" t="s">
-        <v>222</v>
-      </c>
-      <c r="N117" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>21</v>
-      </c>
-      <c r="B118" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" t="s">
-        <v>24</v>
-      </c>
-      <c r="H118" t="s">
-        <v>265</v>
-      </c>
-      <c r="I118" t="s">
-        <v>253</v>
-      </c>
-      <c r="J118" t="s">
-        <v>220</v>
-      </c>
-      <c r="L118" t="s">
-        <v>266</v>
-      </c>
-      <c r="M118" t="s">
-        <v>222</v>
-      </c>
-      <c r="N118" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>21</v>
-      </c>
-      <c r="B119" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s">
-        <v>24</v>
-      </c>
-      <c r="H119" t="s">
-        <v>55</v>
-      </c>
-      <c r="I119" t="s">
-        <v>56</v>
-      </c>
-      <c r="J119" t="s">
-        <v>57</v>
-      </c>
-      <c r="L119" t="s">
-        <v>268</v>
-      </c>
-      <c r="M119" t="s">
-        <v>50</v>
-      </c>
-      <c r="N119" t="s">
-        <v>269</v>
-      </c>
-      <c r="O119">
-        <v>1</v>
-      </c>
-      <c r="P119" t="s">
-        <v>270</v>
-      </c>
-      <c r="R119" t="s">
-        <v>271</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -96,7 +96,7 @@
     <t>screening_20240307</t>
   </si>
   <si>
-    <t>4398cddc-d02e-45ea-bc5d-a791d0cc2adc</t>
+    <t>ea4b34aa-1a69-4e1e-bf29-6f3b529abe00</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -120,7 +120,7 @@
     <t>Resolved By QE/QCS</t>
   </si>
   <si>
-    <t>9f596510-c94b-4924-9d6a-0c55445d18b0</t>
+    <t>c951ee4c-8bd5-4d63-8349-76bd4baac952</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -138,7 +138,7 @@
     <t>Please be sure to provide both a valid date and time.</t>
   </si>
   <si>
-    <t>44bfefd2-a8e2-4619-8ac2-73a8ff307fef</t>
+    <t>71a63c7c-0c0f-46be-87b9-926d0d008783</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -165,7 +165,7 @@
     <t>admin_demographics_20240307</t>
   </si>
   <si>
-    <t>8c59c0e3-d2b5-48a7-9ace-77c5f6fd543c</t>
+    <t>d8be4f17-a53c-4ca2-a597-14ab2abd93da</t>
   </si>
   <si>
     <t>Combination Not Matching</t>
@@ -183,7 +183,7 @@
     <t>The RACE_CODE "1142-9" of RACE_CODE_DESCRIPTION "Coquille" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>22c619a0-63f3-4d09-a6d1-27e5b10edfe5</t>
+    <t>af9ac8bf-8c6e-4d63-b844-98b3047e6671</t>
   </si>
   <si>
     <t>Invalid RACE CODE DESCRIPTION</t>
@@ -201,16 +201,16 @@
     <t>Validate RACE CODE DESCRIPTION with race reference data</t>
   </si>
   <si>
-    <t>a56db7dc-3b2e-466e-b7ac-f4f70e7c4628</t>
-  </si>
-  <si>
-    <t>1c3bb765-aa45-4960-baa0-b3a26da1aa47</t>
-  </si>
-  <si>
-    <t>a59a58cd-e377-414d-85f5-f492c2a506a2</t>
-  </si>
-  <si>
-    <t>4509e571-a68c-4256-b54e-a8dc9e068f7b</t>
+    <t>45d47ab9-4026-4e9f-ba3a-4a45e1a6d1bd</t>
+  </si>
+  <si>
+    <t>eeefb1f7-f9ee-41a3-8bb7-fddc7a101506</t>
+  </si>
+  <si>
+    <t>4aaaae80-62ed-48e4-be19-b5d0cf220c83</t>
+  </si>
+  <si>
+    <t>2d894ce0-a1f1-44e5-b711-43dc176b6d6c</t>
   </si>
   <si>
     <t>Invalid value "Coquille" found in RACE_CODE_DESCRIPTION</t>
@@ -219,13 +219,13 @@
     <t>The RACE_CODE_DESCRIPTION "Coquille" of RACE_CODE "1142-9" is not matching with the RACE_CODE_DESCRIPTION of RACE_CODE in reference data</t>
   </si>
   <si>
-    <t>c5b0ab4d-3874-4ffa-b21e-63996884b54c</t>
-  </si>
-  <si>
-    <t>27d3c2f6-34ef-45bf-b2b7-74b7c7e9bb7d</t>
-  </si>
-  <si>
-    <t>c165dc6a-168a-4f05-98bb-9e7f094c4e16</t>
+    <t>862a6e77-1083-4f88-904f-f4251fe37fb3</t>
+  </si>
+  <si>
+    <t>4f9427dc-a8dc-46b4-86f6-27389849dd3a</t>
+  </si>
+  <si>
+    <t>b452e9f0-d693-4434-922f-07610b0d7343</t>
   </si>
   <si>
     <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA','yes','no','na')</t>
@@ -237,58 +237,58 @@
     <t>Use only allowed values 'Yes','No','NA','yes','no','na' in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>62234f03-b1d7-420f-a772-cbd8fb474445</t>
-  </si>
-  <si>
-    <t>d130e8e6-b121-4827-826c-11bba20a6739</t>
-  </si>
-  <si>
-    <t>74ed63e6-576f-4cdb-96ed-04d27da86214</t>
-  </si>
-  <si>
-    <t>7175152d-b2a4-4ede-986e-3ed77c5b73fc</t>
-  </si>
-  <si>
-    <t>a2ac4a39-a7b8-4923-9a2f-190c61cd2bef</t>
-  </si>
-  <si>
-    <t>f832a674-3866-4a8c-896b-924c2f88f2e0</t>
-  </si>
-  <si>
-    <t>a8b88cce-6ada-471c-82ba-c68fed5ded9d</t>
-  </si>
-  <si>
-    <t>077afc78-dad8-4732-b7c1-f27aee379134</t>
-  </si>
-  <si>
-    <t>b2574f5e-5b2d-4ee3-9ef2-2f7c9b5a0ed1</t>
-  </si>
-  <si>
-    <t>71ae0951-923f-47d3-bc48-0c3065895d39</t>
-  </si>
-  <si>
-    <t>1c824b0f-06ab-4ca3-8dc4-d8f1228a7534</t>
-  </si>
-  <si>
-    <t>8ec86cc4-3a5a-4e59-8499-7ed2ea02969f</t>
-  </si>
-  <si>
-    <t>c4c9c40a-ccde-4897-be82-3859a5e17c46</t>
-  </si>
-  <si>
-    <t>17dac939-1760-49c7-a108-49bbeac853a4</t>
-  </si>
-  <si>
-    <t>d55555e2-65c7-4de6-bbc0-1009e28daedb</t>
-  </si>
-  <si>
-    <t>69e2e2fc-fa4e-42bf-b315-8c31eaa8e1de</t>
-  </si>
-  <si>
-    <t>8847e610-0ae7-4e2e-a5cb-f42671352414</t>
-  </si>
-  <si>
-    <t>8551dfe0-b0a6-469b-8d94-4333d943b344</t>
+    <t>60aba70d-c7fa-4bc0-8081-cfa13de10583</t>
+  </si>
+  <si>
+    <t>772a619c-651f-463f-ba88-532452138666</t>
+  </si>
+  <si>
+    <t>cbe85f61-a7c2-443f-ae3d-51f2acccdc12</t>
+  </si>
+  <si>
+    <t>ab6c61b8-2a1d-4d14-bab7-75ecac746799</t>
+  </si>
+  <si>
+    <t>410c3569-86a9-4bbc-927b-5bf07a20df1b</t>
+  </si>
+  <si>
+    <t>c4799473-e0c4-4ad3-8d88-b57d53d1e2ca</t>
+  </si>
+  <si>
+    <t>30a8e7e9-60ee-4d32-970f-a4adb4cabb33</t>
+  </si>
+  <si>
+    <t>c005d20d-ef9b-4c75-a84e-e5e7228989c7</t>
+  </si>
+  <si>
+    <t>bff980f0-a6d5-40c1-af1c-80e97b3fd67b</t>
+  </si>
+  <si>
+    <t>9046b07a-1ab0-43e2-9eb2-9492c9591b24</t>
+  </si>
+  <si>
+    <t>05e6cf6e-dd16-4153-9e2e-8bdbc4d5e466</t>
+  </si>
+  <si>
+    <t>7eb80837-871f-43a1-aa5f-24da2735040c</t>
+  </si>
+  <si>
+    <t>df824644-b31c-448b-b3fa-9ce906f90aa6</t>
+  </si>
+  <si>
+    <t>7160b157-5599-4007-908c-1ac3066a452f</t>
+  </si>
+  <si>
+    <t>45e479a7-0809-4d88-a279-31cba9128289</t>
+  </si>
+  <si>
+    <t>daf9fc0f-c97e-4b23-9941-294d4931933c</t>
+  </si>
+  <si>
+    <t>56d78d61-99c6-4627-b03c-cf070b31dbfd</t>
+  </si>
+  <si>
+    <t>214f5c1d-90d5-43cf-b48e-92694262fd89</t>
   </si>
   <si>
     <t>Invalid value in POTENTIAL_NEED_INDICATED</t>
@@ -303,34 +303,34 @@
     <t>Validate Potential Need Indicated, Screening Code, Question Code and Answer Code with ahc cross walk reference data</t>
   </si>
   <si>
-    <t>4e9213ed-c72d-4f2b-b9ba-e351bf0a072c</t>
-  </si>
-  <si>
-    <t>1671f85a-1e6f-4e52-8caa-c9922156a498</t>
-  </si>
-  <si>
-    <t>308e5769-35f0-4575-a2ab-ec0b8a592ecc</t>
+    <t>4f4fb0ec-d17c-4756-8889-f2a27eae3a28</t>
+  </si>
+  <si>
+    <t>f2e98b1a-97e7-4a56-bdbb-cf024bac813f</t>
+  </si>
+  <si>
+    <t>f573016b-c933-4694-a254-fdd975460a59</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95618-5" and Answer Code "LA10066-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>3f64946d-ae0f-48a5-8b55-f7dab431d07b</t>
-  </si>
-  <si>
-    <t>0b0d4d04-fa9d-4d34-b4e5-0d38708ca284</t>
-  </si>
-  <si>
-    <t>f0d3290f-0695-4513-a865-33a2f77f76ab</t>
+    <t>1fa35da9-c562-4418-ab5c-9675bcb0c169</t>
+  </si>
+  <si>
+    <t>5b4721d1-5ebe-4dcc-a4e4-11f569607679</t>
+  </si>
+  <si>
+    <t>2bab4fd3-893a-4cae-a47a-03a5f52e81e3</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95615-1" and Answer Code "LA10082-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>b49c56e1-72d3-4f70-93c7-f8a5c8cad1d6</t>
-  </si>
-  <si>
-    <t>beb273c9-5ff8-457f-a2fa-baafab45baee</t>
+    <t>7e10905c-a5f2-4d8d-816c-46939bc7f288</t>
+  </si>
+  <si>
+    <t>1875bacf-0fea-4743-b355-20f897c62328</t>
   </si>
   <si>
     <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
@@ -339,142 +339,142 @@
     <t>03/05/94 13:08</t>
   </si>
   <si>
-    <t>222de68f-8ec9-4e6e-8f3d-0700e9ccbceb</t>
+    <t>398367a3-8e6f-4db1-8e4a-a27685203c79</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95616-9" and Answer Code "LA16644-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>847f6344-7deb-48b5-88d8-6b1de02a1608</t>
-  </si>
-  <si>
-    <t>482f2bdd-c08e-44ab-a867-ca9e7e860537</t>
-  </si>
-  <si>
-    <t>0a3186ed-b115-4886-b65d-8a0517884b0b</t>
+    <t>1c99b50d-3a59-4ab6-b58e-ad21188c3835</t>
+  </si>
+  <si>
+    <t>fe351f07-0fa9-43ce-94d0-2f69ef6a9209</t>
+  </si>
+  <si>
+    <t>c53bfa9f-b87c-4a90-a7e4-dfcab376428e</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "68516-4" and Answer Code "LA28853-2" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>8279f5e9-9c8a-479e-a85e-0404ffb06d4b</t>
-  </si>
-  <si>
-    <t>b383ea60-3a65-4c75-b8ed-b5b02047e620</t>
-  </si>
-  <si>
-    <t>a97348c4-466c-4498-a1a4-87c4cbb42e7e</t>
+    <t>61cf0f84-634e-46f2-917c-cf99150fe9ab</t>
+  </si>
+  <si>
+    <t>47667083-d500-42f8-95e1-f7b14686b5b6</t>
+  </si>
+  <si>
+    <t>eb795860-b156-42f0-84eb-e4ec4e606efb</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95617-7" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>6711df7c-8bd6-41ad-be98-e2a27d3aa421</t>
-  </si>
-  <si>
-    <t>3b6b1d80-3eda-42cb-b6ee-4d87a5303996</t>
-  </si>
-  <si>
-    <t>3e5c3b0a-69ab-4c42-a938-636ccebedb7d</t>
+    <t>3210278e-c460-4bbc-bbcb-6a1b74a37b74</t>
+  </si>
+  <si>
+    <t>0f64d539-1d71-4ae6-a730-f08cc7349eef</t>
+  </si>
+  <si>
+    <t>dbac4637-04f7-4f73-967b-8e3aa0a55718</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44250-9" and Answer Code "LA6571-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>8e1802a8-90bb-4a9d-925b-7dcf7d8d4a71</t>
-  </si>
-  <si>
-    <t>7cc9dd65-ad06-4d4b-8cbb-ba1c04dfc91b</t>
-  </si>
-  <si>
-    <t>f2bb8026-9c74-43a3-a323-91c7f0d4f099</t>
+    <t>cd9cf62e-67d5-4245-81c4-0080f07e39eb</t>
+  </si>
+  <si>
+    <t>1c8fdd4f-a1f7-4a19-a824-ba621a45b257</t>
+  </si>
+  <si>
+    <t>51caecb9-122d-4ba1-902d-e9e047caa0f7</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "89555-7" and Answer Code "LA6113-0" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>c9fd3a21-f648-4109-88d7-97b56edca893</t>
-  </si>
-  <si>
-    <t>9de47d7c-dcb2-46a8-a2c5-9b7c07807ee7</t>
-  </si>
-  <si>
-    <t>c0c4e945-bd39-4fb8-8288-c16591375aa6</t>
-  </si>
-  <si>
-    <t>b2ccf00c-77d2-4010-b59e-fe0e1d76fbc1</t>
-  </si>
-  <si>
-    <t>c7b44f8b-a9d9-4113-97f9-dfeaf7f4a318</t>
-  </si>
-  <si>
-    <t>68e20638-a529-4f46-b344-1d065e23bd10</t>
-  </si>
-  <si>
-    <t>7bf82214-d4b6-4dd2-9ea4-0dbd0614dc9c</t>
-  </si>
-  <si>
-    <t>8cd3b2c2-a172-4f3d-aba3-61383723aa2a</t>
-  </si>
-  <si>
-    <t>602beacc-1472-4202-9001-443624a8ab8d</t>
-  </si>
-  <si>
-    <t>cbe99ea0-5591-4dd1-8e28-159e372f9dac</t>
-  </si>
-  <si>
-    <t>5c85a3a0-4aed-4085-bf35-0d9e1538855d</t>
-  </si>
-  <si>
-    <t>e808c90a-eb42-4b29-87cd-515b77875b1e</t>
-  </si>
-  <si>
-    <t>899b55e2-ea80-41c3-a77e-b60fe4e33b9c</t>
-  </si>
-  <si>
-    <t>59328b74-efcf-4fc0-a2ca-07bb043359dd</t>
-  </si>
-  <si>
-    <t>612d719d-c234-4b95-836f-3805954bf287</t>
-  </si>
-  <si>
-    <t>bbd49771-4892-4552-a63a-0ee77dc658a7</t>
-  </si>
-  <si>
-    <t>6d8130e8-a251-49f7-b694-52ee5028ed8c</t>
-  </si>
-  <si>
-    <t>89e2add6-5e9e-4970-be06-2385e251829c</t>
-  </si>
-  <si>
-    <t>77b620a3-fe87-4595-be36-2c77b2beb12c</t>
-  </si>
-  <si>
-    <t>63647512-08e4-44ea-b30f-26c5f80eb757</t>
-  </si>
-  <si>
-    <t>eeedb57d-081d-4417-a510-900d4e3990c4</t>
-  </si>
-  <si>
-    <t>9c25280e-f3f9-4810-8da4-cf118a8dada0</t>
-  </si>
-  <si>
-    <t>04acd182-ba3a-436a-85e1-a99ad18c8e3b</t>
-  </si>
-  <si>
-    <t>ef28ae1f-fd92-4f13-8d26-ccccea44c408</t>
-  </si>
-  <si>
-    <t>5c8583b0-e1a9-45a7-94a3-954d35c0e558</t>
-  </si>
-  <si>
-    <t>39278902-8f66-433b-91cd-f9e54bddaafc</t>
-  </si>
-  <si>
-    <t>0de87cdf-1cbd-4bb6-8d5a-5a0f7edc0119</t>
-  </si>
-  <si>
-    <t>78e21599-04b1-4cb7-a267-efa8a6cd9f81</t>
+    <t>db8a38ed-cf83-400e-a4a5-192ea849872f</t>
+  </si>
+  <si>
+    <t>b9bee7a3-f016-43ab-9b6b-f35bc552c3c2</t>
+  </si>
+  <si>
+    <t>1f5d6c79-83c9-47ca-bf98-d76b4b6ead4a</t>
+  </si>
+  <si>
+    <t>7eb77061-590d-429c-9b4b-64b55cfe4dd4</t>
+  </si>
+  <si>
+    <t>18c10dd8-fd51-442a-9dbb-39d1c0167fbf</t>
+  </si>
+  <si>
+    <t>186ca05a-075a-4794-add0-3213127a815c</t>
+  </si>
+  <si>
+    <t>1223e4d2-10d1-4dff-b7eb-e3827f0a8f9d</t>
+  </si>
+  <si>
+    <t>fc437c56-50e1-40fa-aa1f-80e79639e079</t>
+  </si>
+  <si>
+    <t>1cd94cbe-b70e-4116-9df1-38fc42f61b0b</t>
+  </si>
+  <si>
+    <t>23d8e166-7251-4f8f-9318-834ae37de8f8</t>
+  </si>
+  <si>
+    <t>a7ca19f9-a69a-49bf-8f59-74ee70c52ee5</t>
+  </si>
+  <si>
+    <t>7e8dab49-1a1e-4129-9a02-a8792e278975</t>
+  </si>
+  <si>
+    <t>a0d0cde7-405d-4fb8-9dc6-cca1c554c20e</t>
+  </si>
+  <si>
+    <t>52a68fd9-0fe1-47d1-865f-7bf9a95adb3f</t>
+  </si>
+  <si>
+    <t>2069624f-6b41-43f1-b4c1-1bac0a8a095d</t>
+  </si>
+  <si>
+    <t>95d07939-143d-4313-bbac-884627573ef7</t>
+  </si>
+  <si>
+    <t>f47f4b43-2b14-4f01-b7a6-8be0fe0a7e3b</t>
+  </si>
+  <si>
+    <t>618e3bf6-8b2c-44b7-bf51-9695ae08356b</t>
+  </si>
+  <si>
+    <t>b7bc73cc-e366-4c33-b070-5ad394bcd805</t>
+  </si>
+  <si>
+    <t>ff083d1b-81e3-4ae4-97b7-1f95df6b650a</t>
+  </si>
+  <si>
+    <t>8b475a72-35ee-4570-b1c1-ca748fdd1ba0</t>
+  </si>
+  <si>
+    <t>dd17a62a-c8dd-4450-840c-c870137c0916</t>
+  </si>
+  <si>
+    <t>51521b14-8912-44e5-acf5-16a9c3e29ecd</t>
+  </si>
+  <si>
+    <t>96615a90-e365-4c1c-ac13-f47a36c7f607</t>
+  </si>
+  <si>
+    <t>2257fd37-edaf-4d07-b823-5a0174f51bd5</t>
+  </si>
+  <si>
+    <t>ad9c42f7-ec3f-4310-8e61-33e5d29716eb</t>
+  </si>
+  <si>
+    <t>0fc17170-2adb-4206-af1c-f8c8f04c81cf</t>
+  </si>
+  <si>
+    <t>a117ea99-445c-4a50-a703-081afc88f923</t>
   </si>
   <si>
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
@@ -627,7 +627,7 @@
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>7092cbe5-699f-4f3a-8ba0-deef5ca69c6d</t>
+    <t>402e96de-6b86-4346-a47b-259fb06965bf</t>
   </si>
   <si>
     <t>Mandatory field CONSENT is empty</t>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -96,7 +96,7 @@
     <t>screening_20240307</t>
   </si>
   <si>
-    <t>ea4b34aa-1a69-4e1e-bf29-6f3b529abe00</t>
+    <t>64e3e242-a920-4656-b133-1dcd8fa4fbcd</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -120,7 +120,7 @@
     <t>Resolved By QE/QCS</t>
   </si>
   <si>
-    <t>c951ee4c-8bd5-4d63-8349-76bd4baac952</t>
+    <t>88072bed-b6e6-41d0-ac92-40aae0641988</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -138,7 +138,7 @@
     <t>Please be sure to provide both a valid date and time.</t>
   </si>
   <si>
-    <t>71a63c7c-0c0f-46be-87b9-926d0d008783</t>
+    <t>3a7b7ec9-c98d-4e64-9fcb-e9051dae800a</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -165,7 +165,7 @@
     <t>admin_demographics_20240307</t>
   </si>
   <si>
-    <t>d8be4f17-a53c-4ca2-a597-14ab2abd93da</t>
+    <t>2bc148ea-b314-4b5a-b282-01becf0d5723</t>
   </si>
   <si>
     <t>Combination Not Matching</t>
@@ -183,7 +183,7 @@
     <t>The RACE_CODE "1142-9" of RACE_CODE_DESCRIPTION "Coquille" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>af9ac8bf-8c6e-4d63-b844-98b3047e6671</t>
+    <t>4a0c17b9-a0f8-4152-af17-eeee432b6fbe</t>
   </si>
   <si>
     <t>Invalid RACE CODE DESCRIPTION</t>
@@ -201,16 +201,16 @@
     <t>Validate RACE CODE DESCRIPTION with race reference data</t>
   </si>
   <si>
-    <t>45d47ab9-4026-4e9f-ba3a-4a45e1a6d1bd</t>
-  </si>
-  <si>
-    <t>eeefb1f7-f9ee-41a3-8bb7-fddc7a101506</t>
-  </si>
-  <si>
-    <t>4aaaae80-62ed-48e4-be19-b5d0cf220c83</t>
-  </si>
-  <si>
-    <t>2d894ce0-a1f1-44e5-b711-43dc176b6d6c</t>
+    <t>b117452d-f333-4429-a599-c2f6031e812a</t>
+  </si>
+  <si>
+    <t>ba74db85-7a80-49c2-84bf-a617830b546d</t>
+  </si>
+  <si>
+    <t>80eb1571-3523-4dbd-9f95-beacf9f26400</t>
+  </si>
+  <si>
+    <t>245a6636-d16b-4ab9-9018-b7221db2e9d3</t>
   </si>
   <si>
     <t>Invalid value "Coquille" found in RACE_CODE_DESCRIPTION</t>
@@ -219,13 +219,13 @@
     <t>The RACE_CODE_DESCRIPTION "Coquille" of RACE_CODE "1142-9" is not matching with the RACE_CODE_DESCRIPTION of RACE_CODE in reference data</t>
   </si>
   <si>
-    <t>862a6e77-1083-4f88-904f-f4251fe37fb3</t>
-  </si>
-  <si>
-    <t>4f9427dc-a8dc-46b4-86f6-27389849dd3a</t>
-  </si>
-  <si>
-    <t>b452e9f0-d693-4434-922f-07610b0d7343</t>
+    <t>eec57008-04bd-4a7d-a478-f59a3f00f1be</t>
+  </si>
+  <si>
+    <t>954587d9-f0f4-4ab7-aa99-9b70559bc7cc</t>
+  </si>
+  <si>
+    <t>aedab293-d339-469f-aea3-06bfe9b1b89e</t>
   </si>
   <si>
     <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA','yes','no','na')</t>
@@ -237,58 +237,58 @@
     <t>Use only allowed values 'Yes','No','NA','yes','no','na' in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>60aba70d-c7fa-4bc0-8081-cfa13de10583</t>
-  </si>
-  <si>
-    <t>772a619c-651f-463f-ba88-532452138666</t>
-  </si>
-  <si>
-    <t>cbe85f61-a7c2-443f-ae3d-51f2acccdc12</t>
-  </si>
-  <si>
-    <t>ab6c61b8-2a1d-4d14-bab7-75ecac746799</t>
-  </si>
-  <si>
-    <t>410c3569-86a9-4bbc-927b-5bf07a20df1b</t>
-  </si>
-  <si>
-    <t>c4799473-e0c4-4ad3-8d88-b57d53d1e2ca</t>
-  </si>
-  <si>
-    <t>30a8e7e9-60ee-4d32-970f-a4adb4cabb33</t>
-  </si>
-  <si>
-    <t>c005d20d-ef9b-4c75-a84e-e5e7228989c7</t>
-  </si>
-  <si>
-    <t>bff980f0-a6d5-40c1-af1c-80e97b3fd67b</t>
-  </si>
-  <si>
-    <t>9046b07a-1ab0-43e2-9eb2-9492c9591b24</t>
-  </si>
-  <si>
-    <t>05e6cf6e-dd16-4153-9e2e-8bdbc4d5e466</t>
-  </si>
-  <si>
-    <t>7eb80837-871f-43a1-aa5f-24da2735040c</t>
-  </si>
-  <si>
-    <t>df824644-b31c-448b-b3fa-9ce906f90aa6</t>
-  </si>
-  <si>
-    <t>7160b157-5599-4007-908c-1ac3066a452f</t>
-  </si>
-  <si>
-    <t>45e479a7-0809-4d88-a279-31cba9128289</t>
-  </si>
-  <si>
-    <t>daf9fc0f-c97e-4b23-9941-294d4931933c</t>
-  </si>
-  <si>
-    <t>56d78d61-99c6-4627-b03c-cf070b31dbfd</t>
-  </si>
-  <si>
-    <t>214f5c1d-90d5-43cf-b48e-92694262fd89</t>
+    <t>4f4fbb6d-a00b-42c0-8f1a-d7578dab55e5</t>
+  </si>
+  <si>
+    <t>709e1066-3b5a-4ef4-8ed2-0bde53e2a60d</t>
+  </si>
+  <si>
+    <t>08696ae1-5a23-4302-b382-481c05b385e2</t>
+  </si>
+  <si>
+    <t>17a0e57b-a3ef-41a3-a53a-051fa1ef1fe9</t>
+  </si>
+  <si>
+    <t>ac4639ee-2562-429a-9812-9753a60b2842</t>
+  </si>
+  <si>
+    <t>37e24e7b-8802-4b7d-a134-175ec924ada1</t>
+  </si>
+  <si>
+    <t>5e52c196-7363-4cf0-8b1b-acb6626c5691</t>
+  </si>
+  <si>
+    <t>cfdf72c7-fc71-4a18-873d-002448eda064</t>
+  </si>
+  <si>
+    <t>7d571e39-c1a9-4c4a-bbdb-ec03dce4b72d</t>
+  </si>
+  <si>
+    <t>93bca538-69cf-479c-91ad-68b23069fe65</t>
+  </si>
+  <si>
+    <t>d17843ce-f61b-43c2-815d-4b00a2985704</t>
+  </si>
+  <si>
+    <t>01ecddd4-e7b1-422d-9c05-9cb30d96ba47</t>
+  </si>
+  <si>
+    <t>cf38f500-1f61-48bc-9ee9-5f0251afdeb9</t>
+  </si>
+  <si>
+    <t>333025a1-fda3-4eb3-adc3-fd5e0af92343</t>
+  </si>
+  <si>
+    <t>bafc2f80-391f-4e74-a444-7282b5fff5bf</t>
+  </si>
+  <si>
+    <t>51ba1ff5-f15b-4890-b5e1-ef4a91c1c950</t>
+  </si>
+  <si>
+    <t>293b8dda-4357-4300-9ed1-61c5e492f5e5</t>
+  </si>
+  <si>
+    <t>45a4ab1f-bd06-48a8-af12-506f8034cb38</t>
   </si>
   <si>
     <t>Invalid value in POTENTIAL_NEED_INDICATED</t>
@@ -303,34 +303,34 @@
     <t>Validate Potential Need Indicated, Screening Code, Question Code and Answer Code with ahc cross walk reference data</t>
   </si>
   <si>
-    <t>4f4fb0ec-d17c-4756-8889-f2a27eae3a28</t>
-  </si>
-  <si>
-    <t>f2e98b1a-97e7-4a56-bdbb-cf024bac813f</t>
-  </si>
-  <si>
-    <t>f573016b-c933-4694-a254-fdd975460a59</t>
+    <t>0b583feb-d431-4445-b9bf-280bdeeb21e4</t>
+  </si>
+  <si>
+    <t>2211abfb-d08f-4e11-a17e-d0eb7e454d06</t>
+  </si>
+  <si>
+    <t>299b338b-9594-4675-941c-d5f39ed9ecd6</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95618-5" and Answer Code "LA10066-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>1fa35da9-c562-4418-ab5c-9675bcb0c169</t>
-  </si>
-  <si>
-    <t>5b4721d1-5ebe-4dcc-a4e4-11f569607679</t>
-  </si>
-  <si>
-    <t>2bab4fd3-893a-4cae-a47a-03a5f52e81e3</t>
+    <t>2c270a44-7657-40a9-9126-6bcb8af48eb1</t>
+  </si>
+  <si>
+    <t>49f80f75-c571-4bc4-8bf9-6996bbcaeda1</t>
+  </si>
+  <si>
+    <t>9f76fb3f-19f4-4cd0-8b46-6487cff10a12</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95615-1" and Answer Code "LA10082-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>7e10905c-a5f2-4d8d-816c-46939bc7f288</t>
-  </si>
-  <si>
-    <t>1875bacf-0fea-4743-b355-20f897c62328</t>
+    <t>5fd65387-eefe-4a98-912f-a3553859dd28</t>
+  </si>
+  <si>
+    <t>b8f61142-32b1-4053-8d3a-6e7d0a9c8be0</t>
   </si>
   <si>
     <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
@@ -339,142 +339,142 @@
     <t>03/05/94 13:08</t>
   </si>
   <si>
-    <t>398367a3-8e6f-4db1-8e4a-a27685203c79</t>
+    <t>8b373373-7de3-4842-abda-b2b4f5823848</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95616-9" and Answer Code "LA16644-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>1c99b50d-3a59-4ab6-b58e-ad21188c3835</t>
-  </si>
-  <si>
-    <t>fe351f07-0fa9-43ce-94d0-2f69ef6a9209</t>
-  </si>
-  <si>
-    <t>c53bfa9f-b87c-4a90-a7e4-dfcab376428e</t>
+    <t>d69760e5-ff96-45be-bd74-d05fbeed9b42</t>
+  </si>
+  <si>
+    <t>5ef9591e-e1b3-4c03-b49f-6f7f65a39340</t>
+  </si>
+  <si>
+    <t>d2a7953c-2ed0-489c-a613-4520aad7d7fe</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "68516-4" and Answer Code "LA28853-2" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>61cf0f84-634e-46f2-917c-cf99150fe9ab</t>
-  </si>
-  <si>
-    <t>47667083-d500-42f8-95e1-f7b14686b5b6</t>
-  </si>
-  <si>
-    <t>eb795860-b156-42f0-84eb-e4ec4e606efb</t>
+    <t>9f3f1c46-cd40-4161-9c48-f80d1e2f9641</t>
+  </si>
+  <si>
+    <t>915bf3fa-e250-4df8-bdd7-eedb7d0f4dc8</t>
+  </si>
+  <si>
+    <t>4f875e73-a4f8-49ca-a53b-3cf822a4e8e6</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95617-7" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>3210278e-c460-4bbc-bbcb-6a1b74a37b74</t>
-  </si>
-  <si>
-    <t>0f64d539-1d71-4ae6-a730-f08cc7349eef</t>
-  </si>
-  <si>
-    <t>dbac4637-04f7-4f73-967b-8e3aa0a55718</t>
+    <t>b989dd6a-b211-4e39-9ec0-87e7d533e3c8</t>
+  </si>
+  <si>
+    <t>4591b529-657a-4625-82a4-7c4c26f9457b</t>
+  </si>
+  <si>
+    <t>4ce4f3f1-bc7b-4331-b476-1d7174dc132b</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44250-9" and Answer Code "LA6571-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>cd9cf62e-67d5-4245-81c4-0080f07e39eb</t>
-  </si>
-  <si>
-    <t>1c8fdd4f-a1f7-4a19-a824-ba621a45b257</t>
-  </si>
-  <si>
-    <t>51caecb9-122d-4ba1-902d-e9e047caa0f7</t>
+    <t>d0c16455-dd52-48af-adff-3aa9d9dbc10c</t>
+  </si>
+  <si>
+    <t>b2b4beea-9873-48e2-9882-233e697dc576</t>
+  </si>
+  <si>
+    <t>d8834c66-1e2c-4612-b195-d7fdcabd3ee9</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "89555-7" and Answer Code "LA6113-0" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>db8a38ed-cf83-400e-a4a5-192ea849872f</t>
-  </si>
-  <si>
-    <t>b9bee7a3-f016-43ab-9b6b-f35bc552c3c2</t>
-  </si>
-  <si>
-    <t>1f5d6c79-83c9-47ca-bf98-d76b4b6ead4a</t>
-  </si>
-  <si>
-    <t>7eb77061-590d-429c-9b4b-64b55cfe4dd4</t>
-  </si>
-  <si>
-    <t>18c10dd8-fd51-442a-9dbb-39d1c0167fbf</t>
-  </si>
-  <si>
-    <t>186ca05a-075a-4794-add0-3213127a815c</t>
-  </si>
-  <si>
-    <t>1223e4d2-10d1-4dff-b7eb-e3827f0a8f9d</t>
-  </si>
-  <si>
-    <t>fc437c56-50e1-40fa-aa1f-80e79639e079</t>
-  </si>
-  <si>
-    <t>1cd94cbe-b70e-4116-9df1-38fc42f61b0b</t>
-  </si>
-  <si>
-    <t>23d8e166-7251-4f8f-9318-834ae37de8f8</t>
-  </si>
-  <si>
-    <t>a7ca19f9-a69a-49bf-8f59-74ee70c52ee5</t>
-  </si>
-  <si>
-    <t>7e8dab49-1a1e-4129-9a02-a8792e278975</t>
-  </si>
-  <si>
-    <t>a0d0cde7-405d-4fb8-9dc6-cca1c554c20e</t>
-  </si>
-  <si>
-    <t>52a68fd9-0fe1-47d1-865f-7bf9a95adb3f</t>
-  </si>
-  <si>
-    <t>2069624f-6b41-43f1-b4c1-1bac0a8a095d</t>
-  </si>
-  <si>
-    <t>95d07939-143d-4313-bbac-884627573ef7</t>
-  </si>
-  <si>
-    <t>f47f4b43-2b14-4f01-b7a6-8be0fe0a7e3b</t>
-  </si>
-  <si>
-    <t>618e3bf6-8b2c-44b7-bf51-9695ae08356b</t>
-  </si>
-  <si>
-    <t>b7bc73cc-e366-4c33-b070-5ad394bcd805</t>
-  </si>
-  <si>
-    <t>ff083d1b-81e3-4ae4-97b7-1f95df6b650a</t>
-  </si>
-  <si>
-    <t>8b475a72-35ee-4570-b1c1-ca748fdd1ba0</t>
-  </si>
-  <si>
-    <t>dd17a62a-c8dd-4450-840c-c870137c0916</t>
-  </si>
-  <si>
-    <t>51521b14-8912-44e5-acf5-16a9c3e29ecd</t>
-  </si>
-  <si>
-    <t>96615a90-e365-4c1c-ac13-f47a36c7f607</t>
-  </si>
-  <si>
-    <t>2257fd37-edaf-4d07-b823-5a0174f51bd5</t>
-  </si>
-  <si>
-    <t>ad9c42f7-ec3f-4310-8e61-33e5d29716eb</t>
-  </si>
-  <si>
-    <t>0fc17170-2adb-4206-af1c-f8c8f04c81cf</t>
-  </si>
-  <si>
-    <t>a117ea99-445c-4a50-a703-081afc88f923</t>
+    <t>f19bffe5-7445-46d7-8af7-081a49f7d65e</t>
+  </si>
+  <si>
+    <t>e27f8e68-8921-4b18-84f1-31e7619311f2</t>
+  </si>
+  <si>
+    <t>31be324e-b735-4fdf-85b9-a068e49bc899</t>
+  </si>
+  <si>
+    <t>77d22c7f-e343-4098-a72b-47f883cf7b81</t>
+  </si>
+  <si>
+    <t>7080a7ef-e9c8-40c5-baa1-86bd6ecc9b89</t>
+  </si>
+  <si>
+    <t>a740b3ca-515e-4e42-98a4-6d7686823a64</t>
+  </si>
+  <si>
+    <t>a23481a4-1851-4dfd-bab2-05026368f7f2</t>
+  </si>
+  <si>
+    <t>ea88aef5-4a7c-48c2-8b53-083e55a8bfd1</t>
+  </si>
+  <si>
+    <t>4f2da91d-61aa-49fc-be40-8c17ab51d0d3</t>
+  </si>
+  <si>
+    <t>0b5e72d4-a166-4be6-b4bc-0ed8a85009d5</t>
+  </si>
+  <si>
+    <t>c8d87316-519b-47fd-97b1-421daeb6aec1</t>
+  </si>
+  <si>
+    <t>fe07ebaf-2688-485a-84b2-11d7f403e294</t>
+  </si>
+  <si>
+    <t>6fe928f4-538e-4a1b-9cfa-43f3b93a6e2e</t>
+  </si>
+  <si>
+    <t>d01f2622-ac04-4837-8b5e-c1c16ec95d2b</t>
+  </si>
+  <si>
+    <t>4ae3b58c-399c-4fe0-b63c-15b157566145</t>
+  </si>
+  <si>
+    <t>fb5165d4-9d15-4f33-91d2-62afb36eaf09</t>
+  </si>
+  <si>
+    <t>c2c0ed9f-19ea-4e51-be5c-477248f45559</t>
+  </si>
+  <si>
+    <t>a419b6b3-1958-4de8-816f-08ecef2f3301</t>
+  </si>
+  <si>
+    <t>a28b6a74-17a1-4e62-84c2-5fe1a8368a0b</t>
+  </si>
+  <si>
+    <t>8f703b1a-0569-4de8-9038-73de3c01c7f8</t>
+  </si>
+  <si>
+    <t>ae5f7f93-e039-4547-a01c-39d8445c17d8</t>
+  </si>
+  <si>
+    <t>4a7eaabf-44b5-4e2f-987a-42c7d33d34db</t>
+  </si>
+  <si>
+    <t>180a3ef8-ed28-40dc-b97e-b6b6964fa6c5</t>
+  </si>
+  <si>
+    <t>fc143e71-9ced-4759-ae31-e78b81b424d9</t>
+  </si>
+  <si>
+    <t>ce31862f-7ee3-4860-bfc1-59e17f90fee0</t>
+  </si>
+  <si>
+    <t>04ace38b-fb5b-4053-9a47-32f0986113d8</t>
+  </si>
+  <si>
+    <t>e21d70c9-9daa-40e5-9d15-453d0241d43f</t>
+  </si>
+  <si>
+    <t>61e8bf9e-1a2c-4ad4-b3d4-e7ee8cf23683</t>
   </si>
   <si>
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
@@ -627,7 +627,7 @@
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>402e96de-6b86-4346-a47b-259fb06965bf</t>
+    <t>81d1190e-0aaf-4353-bd71-0211304eea98</t>
   </si>
   <si>
     <t>Mandatory field CONSENT is empty</t>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -96,7 +96,7 @@
     <t>screening_20240307</t>
   </si>
   <si>
-    <t>64e3e242-a920-4656-b133-1dcd8fa4fbcd</t>
+    <t>23fb7f2a-6a9c-4ea1-82f2-623ea4ba38f5</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -120,7 +120,7 @@
     <t>Resolved By QE/QCS</t>
   </si>
   <si>
-    <t>88072bed-b6e6-41d0-ac92-40aae0641988</t>
+    <t>1a5444e6-f505-4fb4-bf54-050f84516d6e</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -138,7 +138,7 @@
     <t>Please be sure to provide both a valid date and time.</t>
   </si>
   <si>
-    <t>3a7b7ec9-c98d-4e64-9fcb-e9051dae800a</t>
+    <t>f772d4ce-83c6-4eac-8470-e2a809381ee8</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -165,7 +165,7 @@
     <t>admin_demographics_20240307</t>
   </si>
   <si>
-    <t>2bc148ea-b314-4b5a-b282-01becf0d5723</t>
+    <t>72d47d98-219f-4b69-82ac-8638befeb868</t>
   </si>
   <si>
     <t>Combination Not Matching</t>
@@ -183,7 +183,7 @@
     <t>The RACE_CODE "1142-9" of RACE_CODE_DESCRIPTION "Coquille" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>4a0c17b9-a0f8-4152-af17-eeee432b6fbe</t>
+    <t>dbe638b1-724d-4104-9037-83d1da57449e</t>
   </si>
   <si>
     <t>Invalid RACE CODE DESCRIPTION</t>
@@ -201,16 +201,16 @@
     <t>Validate RACE CODE DESCRIPTION with race reference data</t>
   </si>
   <si>
-    <t>b117452d-f333-4429-a599-c2f6031e812a</t>
-  </si>
-  <si>
-    <t>ba74db85-7a80-49c2-84bf-a617830b546d</t>
-  </si>
-  <si>
-    <t>80eb1571-3523-4dbd-9f95-beacf9f26400</t>
-  </si>
-  <si>
-    <t>245a6636-d16b-4ab9-9018-b7221db2e9d3</t>
+    <t>3305aeb2-9df5-4d71-9031-74c721b020d4</t>
+  </si>
+  <si>
+    <t>8c11661c-f148-463e-b7d4-6edcfc1a1d78</t>
+  </si>
+  <si>
+    <t>4379df56-8053-41f8-9c58-7ac9d1f7ba91</t>
+  </si>
+  <si>
+    <t>24a6496e-070c-4230-8c85-7e20e9bae756</t>
   </si>
   <si>
     <t>Invalid value "Coquille" found in RACE_CODE_DESCRIPTION</t>
@@ -219,13 +219,13 @@
     <t>The RACE_CODE_DESCRIPTION "Coquille" of RACE_CODE "1142-9" is not matching with the RACE_CODE_DESCRIPTION of RACE_CODE in reference data</t>
   </si>
   <si>
-    <t>eec57008-04bd-4a7d-a478-f59a3f00f1be</t>
-  </si>
-  <si>
-    <t>954587d9-f0f4-4ab7-aa99-9b70559bc7cc</t>
-  </si>
-  <si>
-    <t>aedab293-d339-469f-aea3-06bfe9b1b89e</t>
+    <t>7009a27f-22c6-4041-b738-00c95dafe3a6</t>
+  </si>
+  <si>
+    <t>fd3cd4fe-456d-4d99-af1a-4671de0a1a04</t>
+  </si>
+  <si>
+    <t>5e332762-b7e9-4dc1-b80c-4e7e390f282c</t>
   </si>
   <si>
     <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA','yes','no','na')</t>
@@ -237,58 +237,58 @@
     <t>Use only allowed values 'Yes','No','NA','yes','no','na' in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>4f4fbb6d-a00b-42c0-8f1a-d7578dab55e5</t>
-  </si>
-  <si>
-    <t>709e1066-3b5a-4ef4-8ed2-0bde53e2a60d</t>
-  </si>
-  <si>
-    <t>08696ae1-5a23-4302-b382-481c05b385e2</t>
-  </si>
-  <si>
-    <t>17a0e57b-a3ef-41a3-a53a-051fa1ef1fe9</t>
-  </si>
-  <si>
-    <t>ac4639ee-2562-429a-9812-9753a60b2842</t>
-  </si>
-  <si>
-    <t>37e24e7b-8802-4b7d-a134-175ec924ada1</t>
-  </si>
-  <si>
-    <t>5e52c196-7363-4cf0-8b1b-acb6626c5691</t>
-  </si>
-  <si>
-    <t>cfdf72c7-fc71-4a18-873d-002448eda064</t>
-  </si>
-  <si>
-    <t>7d571e39-c1a9-4c4a-bbdb-ec03dce4b72d</t>
-  </si>
-  <si>
-    <t>93bca538-69cf-479c-91ad-68b23069fe65</t>
-  </si>
-  <si>
-    <t>d17843ce-f61b-43c2-815d-4b00a2985704</t>
-  </si>
-  <si>
-    <t>01ecddd4-e7b1-422d-9c05-9cb30d96ba47</t>
-  </si>
-  <si>
-    <t>cf38f500-1f61-48bc-9ee9-5f0251afdeb9</t>
-  </si>
-  <si>
-    <t>333025a1-fda3-4eb3-adc3-fd5e0af92343</t>
-  </si>
-  <si>
-    <t>bafc2f80-391f-4e74-a444-7282b5fff5bf</t>
-  </si>
-  <si>
-    <t>51ba1ff5-f15b-4890-b5e1-ef4a91c1c950</t>
-  </si>
-  <si>
-    <t>293b8dda-4357-4300-9ed1-61c5e492f5e5</t>
-  </si>
-  <si>
-    <t>45a4ab1f-bd06-48a8-af12-506f8034cb38</t>
+    <t>2106dd5f-bbf4-4953-8987-276acad055ae</t>
+  </si>
+  <si>
+    <t>ac9ce6b3-a435-4656-9479-389fdd5dd652</t>
+  </si>
+  <si>
+    <t>12cfa314-4c5c-45e2-a1c9-79e5d31329cb</t>
+  </si>
+  <si>
+    <t>e8128046-ca60-4932-95ab-56674ee7dd23</t>
+  </si>
+  <si>
+    <t>fe6e8e34-8aae-49ea-bc74-6a75e031b05a</t>
+  </si>
+  <si>
+    <t>8f1769be-b9ff-470c-b0ba-ed0d1b1c97dd</t>
+  </si>
+  <si>
+    <t>825edb45-da5d-4e71-b954-52f3ddc0957e</t>
+  </si>
+  <si>
+    <t>63b94fcd-375f-4a5a-8815-1a4d562fdbee</t>
+  </si>
+  <si>
+    <t>33ecd688-b39c-41c0-8519-ad86d3157257</t>
+  </si>
+  <si>
+    <t>b927a30a-d1dd-42cc-a515-563f9490e91e</t>
+  </si>
+  <si>
+    <t>7b65c2cf-0a0a-468a-9110-369ab9192dea</t>
+  </si>
+  <si>
+    <t>cba00a01-e1cd-46a7-a278-4c9aedbcc372</t>
+  </si>
+  <si>
+    <t>5dab577d-83dc-45db-ae48-793fa2301ec2</t>
+  </si>
+  <si>
+    <t>a0c5b76a-b6cf-4210-a317-cd268e0261f2</t>
+  </si>
+  <si>
+    <t>543be7af-d057-4d30-8ad9-471133f2ae6e</t>
+  </si>
+  <si>
+    <t>e450b46f-3e68-4f8d-ba48-54f23054f79d</t>
+  </si>
+  <si>
+    <t>cf3d1053-f6ce-42e6-9610-d85d69d621c4</t>
+  </si>
+  <si>
+    <t>4fcfd071-46b4-4f0f-98f2-745cc7d0e57d</t>
   </si>
   <si>
     <t>Invalid value in POTENTIAL_NEED_INDICATED</t>
@@ -303,34 +303,34 @@
     <t>Validate Potential Need Indicated, Screening Code, Question Code and Answer Code with ahc cross walk reference data</t>
   </si>
   <si>
-    <t>0b583feb-d431-4445-b9bf-280bdeeb21e4</t>
-  </si>
-  <si>
-    <t>2211abfb-d08f-4e11-a17e-d0eb7e454d06</t>
-  </si>
-  <si>
-    <t>299b338b-9594-4675-941c-d5f39ed9ecd6</t>
+    <t>6e0a2052-5d78-4b7d-9969-dbe5980ecf57</t>
+  </si>
+  <si>
+    <t>cbb27627-d1db-4cf4-85da-12610657dfca</t>
+  </si>
+  <si>
+    <t>c6813f05-fe68-47b9-b454-69facc02b939</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95618-5" and Answer Code "LA10066-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>2c270a44-7657-40a9-9126-6bcb8af48eb1</t>
-  </si>
-  <si>
-    <t>49f80f75-c571-4bc4-8bf9-6996bbcaeda1</t>
-  </si>
-  <si>
-    <t>9f76fb3f-19f4-4cd0-8b46-6487cff10a12</t>
+    <t>3ff99f77-a629-4ffb-9dfd-0e0c386fcd00</t>
+  </si>
+  <si>
+    <t>5b837cfa-2c99-4d99-9c70-cf397658e377</t>
+  </si>
+  <si>
+    <t>1411cf27-3598-47c6-8093-3d99e5e3a8fa</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95615-1" and Answer Code "LA10082-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>5fd65387-eefe-4a98-912f-a3553859dd28</t>
-  </si>
-  <si>
-    <t>b8f61142-32b1-4053-8d3a-6e7d0a9c8be0</t>
+    <t>4921d556-017b-42c3-922c-0849ff8b7553</t>
+  </si>
+  <si>
+    <t>77836f79-1d43-4f17-96a5-7230d1a82122</t>
   </si>
   <si>
     <t>Invalid timestamp "03/05/94 13:08" found in RECORDED_TIME</t>
@@ -339,142 +339,142 @@
     <t>03/05/94 13:08</t>
   </si>
   <si>
-    <t>8b373373-7de3-4842-abda-b2b4f5823848</t>
+    <t>d8054ee3-8c5f-46a5-9723-00551f37feed</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95616-9" and Answer Code "LA16644-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>d69760e5-ff96-45be-bd74-d05fbeed9b42</t>
-  </si>
-  <si>
-    <t>5ef9591e-e1b3-4c03-b49f-6f7f65a39340</t>
-  </si>
-  <si>
-    <t>d2a7953c-2ed0-489c-a613-4520aad7d7fe</t>
+    <t>381b5d4c-ee98-4bb1-b4f8-a7363639ea46</t>
+  </si>
+  <si>
+    <t>0cf8e999-ff7a-4dda-ae96-2760514c1cb7</t>
+  </si>
+  <si>
+    <t>cc375c51-c152-4626-8662-eba878668df7</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "68516-4" and Answer Code "LA28853-2" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>9f3f1c46-cd40-4161-9c48-f80d1e2f9641</t>
-  </si>
-  <si>
-    <t>915bf3fa-e250-4df8-bdd7-eedb7d0f4dc8</t>
-  </si>
-  <si>
-    <t>4f875e73-a4f8-49ca-a53b-3cf822a4e8e6</t>
+    <t>57500dbf-377f-40d2-976a-c561e40cb632</t>
+  </si>
+  <si>
+    <t>dbde23d4-d66a-4820-8603-da4400657570</t>
+  </si>
+  <si>
+    <t>71041473-44ad-4cdd-85e6-c297e8c088b7</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95617-7" and Answer Code "LA6270-8" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>b989dd6a-b211-4e39-9ec0-87e7d533e3c8</t>
-  </si>
-  <si>
-    <t>4591b529-657a-4625-82a4-7c4c26f9457b</t>
-  </si>
-  <si>
-    <t>4ce4f3f1-bc7b-4331-b476-1d7174dc132b</t>
+    <t>8fff461b-93a1-42e8-8e81-07c78e81a043</t>
+  </si>
+  <si>
+    <t>d20c7a75-c109-4792-88be-22a70256e2fe</t>
+  </si>
+  <si>
+    <t>2cd08745-505c-4718-987a-5f7c89bc05a1</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "NULL", Screening Code "97023-6", Question Code "44250-9" and Answer Code "LA6571-9" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>d0c16455-dd52-48af-adff-3aa9d9dbc10c</t>
-  </si>
-  <si>
-    <t>b2b4beea-9873-48e2-9882-233e697dc576</t>
-  </si>
-  <si>
-    <t>d8834c66-1e2c-4612-b195-d7fdcabd3ee9</t>
+    <t>568fcd18-4265-4d63-a08d-d6cb3320eebc</t>
+  </si>
+  <si>
+    <t>e28a1b92-816c-4102-a9c2-0c51db88e7ae</t>
+  </si>
+  <si>
+    <t>eeb19dbd-7a50-44d5-816f-d85c03f03876</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "97023-6", Question Code "89555-7" and Answer Code "LA6113-0" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>f19bffe5-7445-46d7-8af7-081a49f7d65e</t>
-  </si>
-  <si>
-    <t>e27f8e68-8921-4b18-84f1-31e7619311f2</t>
-  </si>
-  <si>
-    <t>31be324e-b735-4fdf-85b9-a068e49bc899</t>
-  </si>
-  <si>
-    <t>77d22c7f-e343-4098-a72b-47f883cf7b81</t>
-  </si>
-  <si>
-    <t>7080a7ef-e9c8-40c5-baa1-86bd6ecc9b89</t>
-  </si>
-  <si>
-    <t>a740b3ca-515e-4e42-98a4-6d7686823a64</t>
-  </si>
-  <si>
-    <t>a23481a4-1851-4dfd-bab2-05026368f7f2</t>
-  </si>
-  <si>
-    <t>ea88aef5-4a7c-48c2-8b53-083e55a8bfd1</t>
-  </si>
-  <si>
-    <t>4f2da91d-61aa-49fc-be40-8c17ab51d0d3</t>
-  </si>
-  <si>
-    <t>0b5e72d4-a166-4be6-b4bc-0ed8a85009d5</t>
-  </si>
-  <si>
-    <t>c8d87316-519b-47fd-97b1-421daeb6aec1</t>
-  </si>
-  <si>
-    <t>fe07ebaf-2688-485a-84b2-11d7f403e294</t>
-  </si>
-  <si>
-    <t>6fe928f4-538e-4a1b-9cfa-43f3b93a6e2e</t>
-  </si>
-  <si>
-    <t>d01f2622-ac04-4837-8b5e-c1c16ec95d2b</t>
-  </si>
-  <si>
-    <t>4ae3b58c-399c-4fe0-b63c-15b157566145</t>
-  </si>
-  <si>
-    <t>fb5165d4-9d15-4f33-91d2-62afb36eaf09</t>
-  </si>
-  <si>
-    <t>c2c0ed9f-19ea-4e51-be5c-477248f45559</t>
-  </si>
-  <si>
-    <t>a419b6b3-1958-4de8-816f-08ecef2f3301</t>
-  </si>
-  <si>
-    <t>a28b6a74-17a1-4e62-84c2-5fe1a8368a0b</t>
-  </si>
-  <si>
-    <t>8f703b1a-0569-4de8-9038-73de3c01c7f8</t>
-  </si>
-  <si>
-    <t>ae5f7f93-e039-4547-a01c-39d8445c17d8</t>
-  </si>
-  <si>
-    <t>4a7eaabf-44b5-4e2f-987a-42c7d33d34db</t>
-  </si>
-  <si>
-    <t>180a3ef8-ed28-40dc-b97e-b6b6964fa6c5</t>
-  </si>
-  <si>
-    <t>fc143e71-9ced-4759-ae31-e78b81b424d9</t>
-  </si>
-  <si>
-    <t>ce31862f-7ee3-4860-bfc1-59e17f90fee0</t>
-  </si>
-  <si>
-    <t>04ace38b-fb5b-4053-9a47-32f0986113d8</t>
-  </si>
-  <si>
-    <t>e21d70c9-9daa-40e5-9d15-453d0241d43f</t>
-  </si>
-  <si>
-    <t>61e8bf9e-1a2c-4ad4-b3d4-e7ee8cf23683</t>
+    <t>855ad8d6-d82c-4912-82bd-c8f7ae6b6c15</t>
+  </si>
+  <si>
+    <t>fd93f280-5bf9-4d3c-8802-5dcc3ec8dbb9</t>
+  </si>
+  <si>
+    <t>b9ba049f-6f75-413f-8d3c-e15be59e1bd2</t>
+  </si>
+  <si>
+    <t>4955f804-2ad0-4e3b-a76b-ca09e89137cf</t>
+  </si>
+  <si>
+    <t>ff3c1f34-469e-40fb-bdc4-4980ec70eed9</t>
+  </si>
+  <si>
+    <t>41f4b5aa-01b7-46ed-951c-622e2adc39a3</t>
+  </si>
+  <si>
+    <t>da391883-92d9-4a36-b3aa-32d33ac6e15b</t>
+  </si>
+  <si>
+    <t>d8c667b3-0ec2-4c86-b0f0-e545a1c4dad5</t>
+  </si>
+  <si>
+    <t>849304f8-3de8-4ec9-b685-c95d4d00dde6</t>
+  </si>
+  <si>
+    <t>bebf1abc-dc5e-432e-8eb1-5281b628cb7e</t>
+  </si>
+  <si>
+    <t>5e5b90e3-bb6b-4a43-bbd6-56aeb720d6fe</t>
+  </si>
+  <si>
+    <t>6a580fcc-b6a9-49c0-b317-937f70b65f2b</t>
+  </si>
+  <si>
+    <t>ebc973e3-c637-45a0-94c8-e54b1c8daaea</t>
+  </si>
+  <si>
+    <t>3275935e-7408-42ea-8bca-d032bf5d82ad</t>
+  </si>
+  <si>
+    <t>28a49d02-f4e0-475e-b5b9-f247fcff9329</t>
+  </si>
+  <si>
+    <t>fe28baaa-e512-4918-8ffb-07b1632fb952</t>
+  </si>
+  <si>
+    <t>be5d723e-5b6c-4748-a0c0-25715493dae1</t>
+  </si>
+  <si>
+    <t>e3d5fdf7-c58a-4dc8-b2c6-f59bbe71ea72</t>
+  </si>
+  <si>
+    <t>305d8d3a-d319-486f-8fcc-0a2c3f26efd3</t>
+  </si>
+  <si>
+    <t>262e316a-5a33-4b8d-8a5a-2a6254bfde44</t>
+  </si>
+  <si>
+    <t>61304178-e0a9-46de-99c4-247de83a1c6c</t>
+  </si>
+  <si>
+    <t>b9bd9660-acc9-4098-8b3c-737824dfeea0</t>
+  </si>
+  <si>
+    <t>7b5a0490-acc4-4399-9e49-9c4883e89571</t>
+  </si>
+  <si>
+    <t>ba0ef346-179e-445c-b01a-40c02d31a576</t>
+  </si>
+  <si>
+    <t>8c255a5a-c62c-46cd-b507-5561cc50578f</t>
+  </si>
+  <si>
+    <t>bddbf100-5284-488a-a8e3-a4c2a9c437e9</t>
+  </si>
+  <si>
+    <t>f68585c2-56cb-47b6-87c5-b53e9a92ede2</t>
+  </si>
+  <si>
+    <t>de7c5407-bd0d-49b7-b76b-8191f6869804</t>
   </si>
   <si>
     <t>641dff51-97fd-56b3-8443-c1ed568a6d66</t>
@@ -627,7 +627,7 @@
     <t>Excel workbook sheet 'Answer_Reference' not found in 'synthetic-fail-excel-01.xlsx' (available: Sheet1)</t>
   </si>
   <si>
-    <t>81d1190e-0aaf-4353-bd71-0211304eea98</t>
+    <t>353678b9-9a62-4dab-bdc0-f83a58107132</t>
   </si>
   <si>
     <t>Mandatory field CONSENT is empty</t>

--- a/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
+++ b/support/assurance/ahc-hrsn-elt/screening/results-test-e2e/diagnostics.xlsx
@@ -81,7 +81,7 @@
     <t>7bab389e-54af-5a13-a39f-079abdc73a48</t>
   </si>
   <si>
-    <t>0.10.1</t>
+    <t>0.10.2</t>
   </si>
   <si>
     <t>Session 05269d28-15ae-5bd6-bd88-f949ccfa52d7 markdown diagnostics not provided (not completed?)</t>
@@ -96,7 +96,7 @@
     <t>screening_20240307</t>
   </si>
   <si>
-    <t>23fb7f2a-6a9c-4ea1-82f2-623ea4ba38f5</t>
+    <t>9fd3e417-3582-46ba-95c3-00879067e726</t>
   </si>
   <si>
     <t>Invalid Value</t>
@@ -120,7 +120,7 @@
     <t>Resolved By QE/QCS</t>
   </si>
   <si>
-    <t>1a5444e6-f505-4fb4-bf54-050f84516d6e</t>
+    <t>2dc6e40d-6554-43c6-aad8-c8a180ffd722</t>
   </si>
   <si>
     <t>Invalid Date</t>
@@ -138,7 +138,7 @@
     <t>Please be sure to provide both a valid date and time.</t>
   </si>
   <si>
-    <t>f772d4ce-83c6-4eac-8470-e2a809381ee8</t>
+    <t>d1baf160-351e-4bc2-ba92-40e7d4170bd3</t>
   </si>
   <si>
     <t>Missing Mandatory Value</t>
@@ -165,7 +165,7 @@
     <t>admin_demographics_20240307</t>
   </si>
   <si>
-    <t>72d47d98-219f-4b69-82ac-8638befeb868</t>
+    <t>b7a39775-4cfe-417a-b8bb-206cccf78454</t>
   </si>
   <si>
     <t>Combination Not Matching</t>
@@ -183,7 +183,7 @@
     <t>The RACE_CODE "1142-9" of RACE_CODE_DESCRIPTION "Coquille" is not matching with the RACE_CODE of RACE_CODE_DESCRIPTION in reference data</t>
   </si>
   <si>
-    <t>dbe638b1-724d-4104-9037-83d1da57449e</t>
+    <t>a3901164-c413-4cda-b0a4-c3ea8aef4832</t>
   </si>
   <si>
     <t>Invalid RACE CODE DESCRIPTION</t>
@@ -201,16 +201,16 @@
     <t>Validate RACE CODE DESCRIPTION with race reference data</t>
   </si>
   <si>
-    <t>3305aeb2-9df5-4d71-9031-74c721b020d4</t>
-  </si>
-  <si>
-    <t>8c11661c-f148-463e-b7d4-6edcfc1a1d78</t>
-  </si>
-  <si>
-    <t>4379df56-8053-41f8-9c58-7ac9d1f7ba91</t>
-  </si>
-  <si>
-    <t>24a6496e-070c-4230-8c85-7e20e9bae756</t>
+    <t>303931bf-eb91-49b9-ad4f-d0e1beadb13a</t>
+  </si>
+  <si>
+    <t>e1d31992-a452-4822-b96a-918b282dc82d</t>
+  </si>
+  <si>
+    <t>6dce7fc7-a4e4-42e4-a971-a65dae0efc58</t>
+  </si>
+  <si>
+    <t>a75f49ac-025f-4b2a-a9cf-a1ed766f934e</t>
   </si>
   <si>
     <t>Invalid value "Coquille" found in RACE_CODE_DESCRIPTION</t>
@@ -219,13 +219,13 @@
     <t>The RACE_CODE_DESCRIPTION "Coquille" of RACE_CODE "1142-9" is not matching with the RACE_CODE_DESCRIPTION of RACE_CODE in reference data</t>
   </si>
   <si>
-    <t>7009a27f-22c6-4041-b738-00c95dafe3a6</t>
-  </si>
-  <si>
-    <t>fd3cd4fe-456d-4d99-af1a-4671de0a1a04</t>
-  </si>
-  <si>
-    <t>5e332762-b7e9-4dc1-b80c-4e7e390f282c</t>
+    <t>60d973e9-5bd8-4e77-925b-0b7f61aabcb5</t>
+  </si>
+  <si>
+    <t>8529fa01-9219-4cd1-8a7a-7288a1b43a56</t>
+  </si>
+  <si>
+    <t>458691ba-4886-470a-86b4-40cb38d14df4</t>
   </si>
   <si>
     <t>Value N/A in POTENTIAL_NEED_INDICATED not in allowed list ('Yes','No','NA','yes','no','na')</t>
@@ -237,58 +237,58 @@
     <t>Use only allowed values 'Yes','No','NA','yes','no','na' in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>2106dd5f-bbf4-4953-8987-276acad055ae</t>
-  </si>
-  <si>
-    <t>ac9ce6b3-a435-4656-9479-389fdd5dd652</t>
-  </si>
-  <si>
-    <t>12cfa314-4c5c-45e2-a1c9-79e5d31329cb</t>
-  </si>
-  <si>
-    <t>e8128046-ca60-4932-95ab-56674ee7dd23</t>
-  </si>
-  <si>
-    <t>fe6e8e34-8aae-49ea-bc74-6a75e031b05a</t>
-  </si>
-  <si>
-    <t>8f1769be-b9ff-470c-b0ba-ed0d1b1c97dd</t>
-  </si>
-  <si>
-    <t>825edb45-da5d-4e71-b954-52f3ddc0957e</t>
-  </si>
-  <si>
-    <t>63b94fcd-375f-4a5a-8815-1a4d562fdbee</t>
-  </si>
-  <si>
-    <t>33ecd688-b39c-41c0-8519-ad86d3157257</t>
-  </si>
-  <si>
-    <t>b927a30a-d1dd-42cc-a515-563f9490e91e</t>
-  </si>
-  <si>
-    <t>7b65c2cf-0a0a-468a-9110-369ab9192dea</t>
-  </si>
-  <si>
-    <t>cba00a01-e1cd-46a7-a278-4c9aedbcc372</t>
-  </si>
-  <si>
-    <t>5dab577d-83dc-45db-ae48-793fa2301ec2</t>
-  </si>
-  <si>
-    <t>a0c5b76a-b6cf-4210-a317-cd268e0261f2</t>
-  </si>
-  <si>
-    <t>543be7af-d057-4d30-8ad9-471133f2ae6e</t>
-  </si>
-  <si>
-    <t>e450b46f-3e68-4f8d-ba48-54f23054f79d</t>
-  </si>
-  <si>
-    <t>cf3d1053-f6ce-42e6-9610-d85d69d621c4</t>
-  </si>
-  <si>
-    <t>4fcfd071-46b4-4f0f-98f2-745cc7d0e57d</t>
+    <t>7e90c9a5-e4ad-41a1-8bd5-997e7ca346ad</t>
+  </si>
+  <si>
+    <t>fc045f6a-41d9-46db-a729-7f2af5061fcb</t>
+  </si>
+  <si>
+    <t>03775aee-13d6-4217-aee8-0cbd84ed2213</t>
+  </si>
+  <si>
+    <t>411db574-fcbc-4adb-a5b9-98304503b359</t>
+  </si>
+  <si>
+    <t>44904906-191b-4bd6-9f4e-e339985b4562</t>
+  </si>
+  <si>
+    <t>628e8f26-7094-4d02-b963-4a420f9980dc</t>
+  </si>
+  <si>
+    <t>7a16a168-aa27-426a-a2c8-bdedc085a3cc</t>
+  </si>
+  <si>
+    <t>f857ef5b-e9c2-440d-b0be-b5658daeb055</t>
+  </si>
+  <si>
+    <t>1c2a17e7-2c9e-4362-8bd9-2cb140510355</t>
+  </si>
+  <si>
+    <t>9a80c399-b3fa-4b35-b1a7-f4c311ad2d65</t>
+  </si>
+  <si>
+    <t>ffdaf977-7c72-480b-8a1f-486cf8c06938</t>
+  </si>
+  <si>
+    <t>40642f3e-d6b5-4d5a-8521-e2a2089881f8</t>
+  </si>
+  <si>
+    <t>fffdb8a8-65db-4f70-8a2a-c7cab63b1359</t>
+  </si>
+  <si>
+    <t>ca9da0c6-a511-437e-afd0-22d6746a845e</t>
+  </si>
+  <si>
+    <t>b9f32bba-e240-4125-8aad-170cafe91366</t>
+  </si>
+  <si>
+    <t>0a91b605-b54d-4eaa-ad16-08d2d4e86e49</t>
+  </si>
+  <si>
+    <t>76f680ab-b8d0-43d1-8566-346e7c636b3f</t>
+  </si>
+  <si>
+    <t>000b63ad-edf9-4db5-82c7-d75d4640c704</t>
   </si>
   <si>
     <t>Invalid value in POTENTIAL_NEED_INDICATED</t>
@@ -303,34 +303,34 @@
     <t>Validate Potential Need Indicated, Screening Code, Question Code and Answer Code with ahc cross walk reference data</t>
   </si>
   <si>
-    <t>6e0a2052-5d78-4b7d-9969-dbe5980ecf57</t>
-  </si>
-  <si>
-    <t>cbb27627-d1db-4cf4-85da-12610657dfca</t>
-  </si>
-  <si>
-    <t>c6813f05-fe68-47b9-b454-69facc02b939</t>
+    <t>d2050cb1-dc13-41cd-8f8e-08759a473bac</t>
+  </si>
+  <si>
+    <t>0fe06e09-16ba-4983-8afc-7f5c3ba9878f</t>
+  </si>
+  <si>
+    <t>691c4eb1-c5a0-42fb-bf51-f713b271fbab</t>
   </si>
   <si>
     <t>Provided Potential Need Indicated "N/A", Screening Code "96777-8", Question Code "95618-5" and Answer Code "LA10066-1" are not matching with the reference data found in POTENTIAL_NEED_INDICATED</t>
   </si>
   <si>
-    <t>3ff99f77-a629-4ffb-9dfd-